--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -10787,15 +10787,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Dark Pulse Sludge Wave</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>29,49,84,</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>6,85,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Pulse, Sludge Wave</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -13747,10 +13747,124 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13759,28 +13873,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13795,10 +13909,76 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13807,196 +13987,16 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14041,172 +14041,172 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15149,7 +15149,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15160,8 +15160,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O84" workbookViewId="0">
-      <selection activeCell="Z95" sqref="Z95"/>
+    <sheetView tabSelected="1" topLeftCell="O92" workbookViewId="0">
+      <selection activeCell="S95" sqref="S95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15535,10 +15535,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M5" s="178" t="s">
+      <c r="M5" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="179"/>
+      <c r="N5" s="299"/>
       <c r="O5" s="2" t="s">
         <v>418</v>
       </c>
@@ -15610,10 +15610,10 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="175"/>
+      <c r="N6" s="215"/>
       <c r="O6" s="2" t="s">
         <v>418</v>
       </c>
@@ -15777,10 +15777,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M8" s="180" t="s">
+      <c r="M8" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="181"/>
+      <c r="N8" s="301"/>
       <c r="O8" s="2" t="s">
         <v>420</v>
       </c>
@@ -15852,10 +15852,10 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="M9" s="182" t="s">
+      <c r="M9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="183"/>
+      <c r="N9" s="201"/>
       <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
@@ -15927,10 +15927,10 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M10" s="182" t="s">
+      <c r="M10" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="183"/>
+      <c r="N10" s="201"/>
       <c r="O10" s="2" t="s">
         <v>420</v>
       </c>
@@ -16002,10 +16002,10 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M11" s="184" t="s">
+      <c r="M11" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="185"/>
+      <c r="N11" s="303"/>
       <c r="O11" s="2" t="s">
         <v>421</v>
       </c>
@@ -16077,10 +16077,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M12" s="262" t="s">
+      <c r="M12" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="263"/>
+      <c r="N12" s="233"/>
       <c r="O12" s="2" t="s">
         <v>421</v>
       </c>
@@ -16711,10 +16711,10 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M20" s="160" t="s">
+      <c r="M20" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="161"/>
+      <c r="N20" s="199"/>
       <c r="O20" s="2" t="s">
         <v>425</v>
       </c>
@@ -16786,10 +16786,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M21" s="160" t="s">
+      <c r="M21" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="161"/>
+      <c r="N21" s="199"/>
       <c r="O21" s="2" t="s">
         <v>425</v>
       </c>
@@ -17025,10 +17025,10 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="M24" s="158" t="s">
+      <c r="M24" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="159"/>
+      <c r="N24" s="227"/>
       <c r="O24" s="2" t="s">
         <v>426</v>
       </c>
@@ -17105,10 +17105,10 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="M25" s="158" t="s">
+      <c r="M25" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="159"/>
+      <c r="N25" s="227"/>
       <c r="O25" s="2" t="s">
         <v>426</v>
       </c>
@@ -17180,10 +17180,10 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="M26" s="162" t="s">
+      <c r="M26" s="310" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="163"/>
+      <c r="N26" s="311"/>
       <c r="O26" s="2" t="s">
         <v>427</v>
       </c>
@@ -17260,10 +17260,10 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="M27" s="186" t="s">
+      <c r="M27" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="187"/>
+      <c r="N27" s="305"/>
       <c r="O27" s="2" t="s">
         <v>427</v>
       </c>
@@ -17345,10 +17345,10 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="M28" s="188" t="s">
+      <c r="M28" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="189"/>
+      <c r="N28" s="307"/>
       <c r="O28" s="2" t="s">
         <v>428</v>
       </c>
@@ -17425,10 +17425,10 @@
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="M29" s="190" t="s">
+      <c r="M29" s="308" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="191"/>
+      <c r="N29" s="309"/>
       <c r="O29" s="2" t="s">
         <v>428</v>
       </c>
@@ -17500,10 +17500,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M30" s="158" t="s">
+      <c r="M30" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="159"/>
+      <c r="N30" s="227"/>
       <c r="O30" s="2" t="s">
         <v>426</v>
       </c>
@@ -17575,10 +17575,10 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M31" s="158" t="s">
+      <c r="M31" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="159"/>
+      <c r="N31" s="227"/>
       <c r="O31" s="2" t="s">
         <v>426</v>
       </c>
@@ -17727,10 +17727,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="M33" s="158" t="s">
+      <c r="M33" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="159"/>
+      <c r="N33" s="227"/>
       <c r="O33" s="2" t="s">
         <v>426</v>
       </c>
@@ -17802,10 +17802,10 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="M34" s="158" t="s">
+      <c r="M34" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="159"/>
+      <c r="N34" s="227"/>
       <c r="O34" s="2" t="s">
         <v>426</v>
       </c>
@@ -17959,10 +17959,10 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M36" s="170" t="s">
+      <c r="M36" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="171"/>
+      <c r="N36" s="209"/>
       <c r="O36" s="2" t="s">
         <v>570</v>
       </c>
@@ -18034,10 +18034,10 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="M37" s="172" t="s">
+      <c r="M37" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="173"/>
+      <c r="N37" s="211"/>
       <c r="O37" s="2" t="s">
         <v>570</v>
       </c>
@@ -18114,10 +18114,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M38" s="174" t="s">
+      <c r="M38" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="175"/>
+      <c r="N38" s="215"/>
       <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
@@ -18189,10 +18189,10 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="M39" s="174" t="s">
+      <c r="M39" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="175"/>
+      <c r="N39" s="215"/>
       <c r="O39" s="2" t="s">
         <v>418</v>
       </c>
@@ -18274,10 +18274,10 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M40" s="176" t="s">
+      <c r="M40" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="177"/>
+      <c r="N40" s="237"/>
       <c r="O40" s="2" t="s">
         <v>483</v>
       </c>
@@ -18354,10 +18354,10 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="M41" s="264" t="s">
+      <c r="M41" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="265"/>
+      <c r="N41" s="213"/>
       <c r="O41" s="2" t="s">
         <v>483</v>
       </c>
@@ -19147,10 +19147,10 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="M51" s="164" t="s">
+      <c r="M51" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="165"/>
+      <c r="N51" s="239"/>
       <c r="O51" s="2" t="s">
         <v>428</v>
       </c>
@@ -19227,10 +19227,10 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="M52" s="166" t="s">
+      <c r="M52" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="167"/>
+      <c r="N52" s="241"/>
       <c r="O52" s="2" t="s">
         <v>428</v>
       </c>
@@ -19307,10 +19307,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M53" s="160" t="s">
+      <c r="M53" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="161"/>
+      <c r="N53" s="199"/>
       <c r="O53" s="2" t="s">
         <v>425</v>
       </c>
@@ -19382,10 +19382,10 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="M54" s="168" t="s">
+      <c r="M54" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="169"/>
+      <c r="N54" s="277"/>
       <c r="O54" s="2" t="s">
         <v>425</v>
       </c>
@@ -19462,10 +19462,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M55" s="182" t="s">
+      <c r="M55" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="183"/>
+      <c r="N55" s="201"/>
       <c r="O55" s="2" t="s">
         <v>420</v>
       </c>
@@ -19537,10 +19537,10 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="M56" s="208" t="s">
+      <c r="M56" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="209"/>
+      <c r="N56" s="295"/>
       <c r="O56" s="2" t="s">
         <v>420</v>
       </c>
@@ -19612,10 +19612,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M57" s="206" t="s">
+      <c r="M57" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="207"/>
+      <c r="N57" s="191"/>
       <c r="O57" s="2" t="s">
         <v>432</v>
       </c>
@@ -19687,10 +19687,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M58" s="206" t="s">
+      <c r="M58" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="207"/>
+      <c r="N58" s="191"/>
       <c r="O58" s="2" t="s">
         <v>432</v>
       </c>
@@ -19772,10 +19772,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M59" s="210" t="s">
+      <c r="M59" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="211"/>
+      <c r="N59" s="297"/>
       <c r="O59" s="2" t="s">
         <v>418</v>
       </c>
@@ -19847,10 +19847,10 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="M60" s="174" t="s">
+      <c r="M60" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="175"/>
+      <c r="N60" s="215"/>
       <c r="O60" s="2" t="s">
         <v>418</v>
       </c>
@@ -19932,10 +19932,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="M61" s="212" t="s">
+      <c r="M61" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="213"/>
+      <c r="N61" s="193"/>
       <c r="O61" s="2" t="s">
         <v>420</v>
       </c>
@@ -20007,10 +20007,10 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="M62" s="258" t="s">
+      <c r="M62" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="259"/>
+      <c r="N62" s="229"/>
       <c r="O62" s="2" t="s">
         <v>420</v>
       </c>
@@ -20174,10 +20174,10 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="M64" s="202" t="s">
+      <c r="M64" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="203"/>
+      <c r="N64" s="261"/>
       <c r="O64" s="2" t="s">
         <v>434</v>
       </c>
@@ -20249,10 +20249,10 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="M65" s="192" t="s">
+      <c r="M65" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="193"/>
+      <c r="N65" s="221"/>
       <c r="O65" s="2" t="s">
         <v>434</v>
       </c>
@@ -20324,10 +20324,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="M66" s="204" t="s">
+      <c r="M66" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="205"/>
+      <c r="N66" s="293"/>
       <c r="O66" s="2" t="s">
         <v>434</v>
       </c>
@@ -20404,10 +20404,10 @@
         <f t="shared" ref="L67:L130" si="5">ROUND((1+(H67-75)/500)*(ROUND(0.25*(7*MAX(G67,E67)+MIN(G67,E67)),0)),0)</f>
         <v>88</v>
       </c>
-      <c r="M67" s="206" t="s">
+      <c r="M67" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="207"/>
+      <c r="N67" s="191"/>
       <c r="O67" s="2" t="s">
         <v>432</v>
       </c>
@@ -20484,10 +20484,10 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="M68" s="206" t="s">
+      <c r="M68" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="207"/>
+      <c r="N68" s="191"/>
       <c r="O68" s="2" t="s">
         <v>432</v>
       </c>
@@ -20564,10 +20564,10 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="M69" s="206" t="s">
+      <c r="M69" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="207"/>
+      <c r="N69" s="191"/>
       <c r="O69" s="2" t="s">
         <v>432</v>
       </c>
@@ -21290,10 +21290,10 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="M78" s="174" t="s">
+      <c r="M78" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N78" s="175"/>
+      <c r="N78" s="215"/>
       <c r="O78" s="2" t="s">
         <v>418</v>
       </c>
@@ -21370,10 +21370,10 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="M79" s="198" t="s">
+      <c r="M79" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="199"/>
+      <c r="N79" s="289"/>
       <c r="O79" s="2" t="s">
         <v>418</v>
       </c>
@@ -22014,10 +22014,10 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M87" s="182" t="s">
+      <c r="M87" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N87" s="183"/>
+      <c r="N87" s="201"/>
       <c r="O87" s="2" t="s">
         <v>420</v>
       </c>
@@ -22181,10 +22181,10 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M89" s="158" t="s">
+      <c r="M89" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="159"/>
+      <c r="N89" s="227"/>
       <c r="O89" s="2" t="s">
         <v>426</v>
       </c>
@@ -22256,10 +22256,10 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="M90" s="158" t="s">
+      <c r="M90" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="159"/>
+      <c r="N90" s="227"/>
       <c r="O90" s="2" t="s">
         <v>426</v>
       </c>
@@ -22336,10 +22336,10 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="M91" s="200" t="s">
+      <c r="M91" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="201"/>
+      <c r="N91" s="291"/>
       <c r="O91" s="2" t="s">
         <v>420</v>
       </c>
@@ -22686,7 +22686,7 @@
         <v>549</v>
       </c>
       <c r="S95" s="13" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
       <c r="T95" s="25" t="s">
         <v>652</v>
@@ -22701,13 +22701,13 @@
         <v>2411</v>
       </c>
       <c r="X95" s="96" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>1944</v>
       </c>
       <c r="Z95" s="96" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="AB95" s="110"/>
       <c r="AC95" s="109"/>
@@ -22836,10 +22836,10 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="M97" s="192" t="s">
+      <c r="M97" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="193"/>
+      <c r="N97" s="221"/>
       <c r="O97" s="2" t="s">
         <v>434</v>
       </c>
@@ -22911,10 +22911,10 @@
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M98" s="192" t="s">
+      <c r="M98" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="193"/>
+      <c r="N98" s="221"/>
       <c r="O98" s="2" t="s">
         <v>434</v>
       </c>
@@ -22991,10 +22991,10 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="M99" s="194" t="s">
+      <c r="M99" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="N99" s="195"/>
+      <c r="N99" s="285"/>
       <c r="O99" s="2" t="s">
         <v>420</v>
       </c>
@@ -23066,10 +23066,10 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="M100" s="182" t="s">
+      <c r="M100" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="183"/>
+      <c r="N100" s="201"/>
       <c r="O100" s="2" t="s">
         <v>420</v>
       </c>
@@ -23146,10 +23146,10 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="M101" s="196" t="s">
+      <c r="M101" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="197"/>
+      <c r="N101" s="287"/>
       <c r="O101" s="2" t="s">
         <v>427</v>
       </c>
@@ -23226,10 +23226,10 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="M102" s="256" t="s">
+      <c r="M102" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="257"/>
+      <c r="N102" s="225"/>
       <c r="O102" s="2" t="s">
         <v>427</v>
       </c>
@@ -23465,10 +23465,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M105" s="164" t="s">
+      <c r="M105" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="165"/>
+      <c r="N105" s="239"/>
       <c r="O105" s="2" t="s">
         <v>428</v>
       </c>
@@ -23540,10 +23540,10 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M106" s="216" t="s">
+      <c r="M106" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="217"/>
+      <c r="N106" s="281"/>
       <c r="O106" s="2" t="s">
         <v>428</v>
       </c>
@@ -23615,10 +23615,10 @@
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="M107" s="206" t="s">
+      <c r="M107" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N107" s="207"/>
+      <c r="N107" s="191"/>
       <c r="O107" s="2" t="s">
         <v>432</v>
       </c>
@@ -23695,10 +23695,10 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="M108" s="206" t="s">
+      <c r="M108" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N108" s="207"/>
+      <c r="N108" s="191"/>
       <c r="O108" s="2" t="s">
         <v>432</v>
       </c>
@@ -23780,10 +23780,10 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="M109" s="218" t="s">
+      <c r="M109" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="N109" s="219"/>
+      <c r="N109" s="283"/>
       <c r="O109" s="2" t="s">
         <v>425</v>
       </c>
@@ -23855,10 +23855,10 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="M110" s="158" t="s">
+      <c r="M110" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="159"/>
+      <c r="N110" s="227"/>
       <c r="O110" s="2" t="s">
         <v>426</v>
       </c>
@@ -23930,10 +23930,10 @@
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="M111" s="158" t="s">
+      <c r="M111" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="159"/>
+      <c r="N111" s="227"/>
       <c r="O111" s="2" t="s">
         <v>426</v>
       </c>
@@ -24164,10 +24164,10 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="M114" s="170" t="s">
+      <c r="M114" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N114" s="171"/>
+      <c r="N114" s="209"/>
       <c r="O114" s="2" t="s">
         <v>425</v>
       </c>
@@ -24244,10 +24244,10 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M115" s="214" t="s">
+      <c r="M115" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="N115" s="215"/>
+      <c r="N115" s="279"/>
       <c r="O115" s="2" t="s">
         <v>443</v>
       </c>
@@ -24324,10 +24324,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M116" s="168" t="s">
+      <c r="M116" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N116" s="169"/>
+      <c r="N116" s="277"/>
       <c r="O116" s="2" t="s">
         <v>425</v>
       </c>
@@ -24404,10 +24404,10 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="M117" s="182" t="s">
+      <c r="M117" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="183"/>
+      <c r="N117" s="201"/>
       <c r="O117" s="2" t="s">
         <v>420</v>
       </c>
@@ -24479,10 +24479,10 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="M118" s="182" t="s">
+      <c r="M118" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="183"/>
+      <c r="N118" s="201"/>
       <c r="O118" s="2" t="s">
         <v>420</v>
       </c>
@@ -24559,10 +24559,10 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="M119" s="182" t="s">
+      <c r="M119" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N119" s="183"/>
+      <c r="N119" s="201"/>
       <c r="O119" s="2" t="s">
         <v>420</v>
       </c>
@@ -24634,10 +24634,10 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-      <c r="M120" s="182" t="s">
+      <c r="M120" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N120" s="183"/>
+      <c r="N120" s="201"/>
       <c r="O120" s="2" t="s">
         <v>420</v>
       </c>
@@ -24719,10 +24719,10 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="M121" s="258" t="s">
+      <c r="M121" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="N121" s="259"/>
+      <c r="N121" s="229"/>
       <c r="O121" s="2" t="s">
         <v>420</v>
       </c>
@@ -24876,10 +24876,10 @@
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="M123" s="192" t="s">
+      <c r="M123" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="193"/>
+      <c r="N123" s="221"/>
       <c r="O123" s="2" t="s">
         <v>434</v>
       </c>
@@ -25125,10 +25125,10 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="M126" s="224" t="s">
+      <c r="M126" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="225"/>
+      <c r="N126" s="235"/>
       <c r="O126" s="2" t="s">
         <v>427</v>
       </c>
@@ -25200,10 +25200,10 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="M127" s="174" t="s">
+      <c r="M127" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N127" s="175"/>
+      <c r="N127" s="215"/>
       <c r="O127" s="2" t="s">
         <v>418</v>
       </c>
@@ -25275,10 +25275,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M128" s="220" t="s">
+      <c r="M128" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="221"/>
+      <c r="N128" s="273"/>
       <c r="O128" s="2" t="s">
         <v>421</v>
       </c>
@@ -25360,10 +25360,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M129" s="222" t="s">
+      <c r="M129" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="N129" s="223"/>
+      <c r="N129" s="275"/>
       <c r="O129" s="2" t="s">
         <v>425</v>
       </c>
@@ -25435,10 +25435,10 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="M130" s="182" t="s">
+      <c r="M130" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N130" s="183"/>
+      <c r="N130" s="201"/>
       <c r="O130" s="2" t="s">
         <v>420</v>
       </c>
@@ -25684,10 +25684,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M133" s="170" t="s">
+      <c r="M133" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N133" s="171"/>
+      <c r="N133" s="209"/>
       <c r="O133" s="2" t="s">
         <v>425</v>
       </c>
@@ -25759,10 +25759,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="M134" s="168" t="s">
+      <c r="M134" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N134" s="169"/>
+      <c r="N134" s="277"/>
       <c r="O134" s="2" t="s">
         <v>425</v>
       </c>
@@ -25839,10 +25839,10 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="M135" s="182" t="s">
+      <c r="M135" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N135" s="183"/>
+      <c r="N135" s="201"/>
       <c r="O135" s="2" t="s">
         <v>420</v>
       </c>
@@ -25914,10 +25914,10 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="M136" s="232" t="s">
+      <c r="M136" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="233"/>
+      <c r="N136" s="269"/>
       <c r="O136" s="2" t="s">
         <v>427</v>
       </c>
@@ -25989,10 +25989,10 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="M137" s="174" t="s">
+      <c r="M137" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N137" s="175"/>
+      <c r="N137" s="215"/>
       <c r="O137" s="2" t="s">
         <v>418</v>
       </c>
@@ -26069,10 +26069,10 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="M138" s="236" t="s">
+      <c r="M138" s="270" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="237"/>
+      <c r="N138" s="271"/>
       <c r="O138" s="2" t="s">
         <v>425</v>
       </c>
@@ -26559,10 +26559,10 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="M144" s="170" t="s">
+      <c r="M144" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="171"/>
+      <c r="N144" s="209"/>
       <c r="O144" s="2" t="s">
         <v>425</v>
       </c>
@@ -26890,10 +26890,10 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="M148" s="234" t="s">
+      <c r="M148" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="N148" s="235"/>
+      <c r="N148" s="197"/>
       <c r="O148" s="2" t="s">
         <v>450</v>
       </c>
@@ -26965,10 +26965,10 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="M149" s="234" t="s">
+      <c r="M149" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="N149" s="235"/>
+      <c r="N149" s="197"/>
       <c r="O149" s="2" t="s">
         <v>450</v>
       </c>
@@ -27124,10 +27124,10 @@
       <c r="L151" s="2">
         <v>182</v>
       </c>
-      <c r="M151" s="202" t="s">
+      <c r="M151" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="203"/>
+      <c r="N151" s="261"/>
       <c r="O151" s="2" t="s">
         <v>434</v>
       </c>
@@ -27199,10 +27199,10 @@
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="M152" s="192" t="s">
+      <c r="M152" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="193"/>
+      <c r="N152" s="221"/>
       <c r="O152" s="2" t="s">
         <v>434</v>
       </c>
@@ -27279,10 +27279,10 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="M153" s="226" t="s">
+      <c r="M153" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="N153" s="227"/>
+      <c r="N153" s="263"/>
       <c r="O153" s="2" t="s">
         <v>443</v>
       </c>
@@ -27352,10 +27352,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="M154" s="228" t="s">
+      <c r="M154" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="N154" s="229"/>
+      <c r="N154" s="265"/>
       <c r="O154" s="2" t="s">
         <v>443</v>
       </c>
@@ -27425,10 +27425,10 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="M155" s="230" t="s">
+      <c r="M155" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="N155" s="231"/>
+      <c r="N155" s="267"/>
       <c r="O155" s="2" t="s">
         <v>443</v>
       </c>
@@ -27498,10 +27498,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="M156" s="174" t="s">
+      <c r="M156" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N156" s="175"/>
+      <c r="N156" s="215"/>
       <c r="O156" s="2" t="s">
         <v>418</v>
       </c>
@@ -27571,10 +27571,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="M157" s="174" t="s">
+      <c r="M157" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N157" s="175"/>
+      <c r="N157" s="215"/>
       <c r="O157" s="2" t="s">
         <v>418</v>
       </c>
@@ -27644,10 +27644,10 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="M158" s="174" t="s">
+      <c r="M158" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N158" s="175"/>
+      <c r="N158" s="215"/>
       <c r="O158" s="2" t="s">
         <v>418</v>
       </c>
@@ -27717,10 +27717,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M159" s="212" t="s">
+      <c r="M159" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N159" s="213"/>
+      <c r="N159" s="193"/>
       <c r="O159" s="2" t="s">
         <v>420</v>
       </c>
@@ -27790,10 +27790,10 @@
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="M160" s="182" t="s">
+      <c r="M160" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N160" s="183"/>
+      <c r="N160" s="201"/>
       <c r="O160" s="2" t="s">
         <v>420</v>
       </c>
@@ -27863,10 +27863,10 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="M161" s="182" t="s">
+      <c r="M161" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N161" s="183"/>
+      <c r="N161" s="201"/>
       <c r="O161" s="2" t="s">
         <v>420</v>
       </c>
@@ -27942,10 +27942,10 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="M162" s="238" t="s">
+      <c r="M162" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="N162" s="239"/>
+      <c r="N162" s="257"/>
       <c r="O162" s="2" t="s">
         <v>425</v>
       </c>
@@ -28015,10 +28015,10 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="M163" s="160" t="s">
+      <c r="M163" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N163" s="161"/>
+      <c r="N163" s="199"/>
       <c r="O163" s="2" t="s">
         <v>425</v>
       </c>
@@ -28763,10 +28763,10 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="M173" s="240" t="s">
+      <c r="M173" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="241"/>
+      <c r="N173" s="259"/>
       <c r="O173" s="2" t="s">
         <v>427</v>
       </c>
@@ -28842,10 +28842,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M174" s="160" t="s">
+      <c r="M174" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N174" s="161"/>
+      <c r="N174" s="199"/>
       <c r="O174" s="2" t="s">
         <v>570</v>
       </c>
@@ -28921,10 +28921,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="M175" s="160" t="s">
+      <c r="M175" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N175" s="161"/>
+      <c r="N175" s="199"/>
       <c r="O175" s="2" t="s">
         <v>483</v>
       </c>
@@ -29000,10 +29000,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M176" s="160" t="s">
+      <c r="M176" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N176" s="161"/>
+      <c r="N176" s="199"/>
       <c r="O176" s="2" t="s">
         <v>570</v>
       </c>
@@ -29602,10 +29602,10 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="M184" s="182" t="s">
+      <c r="M184" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N184" s="183"/>
+      <c r="N184" s="201"/>
       <c r="O184" s="2" t="s">
         <v>571</v>
       </c>
@@ -29675,10 +29675,10 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="M185" s="182" t="s">
+      <c r="M185" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N185" s="183"/>
+      <c r="N185" s="201"/>
       <c r="O185" s="2" t="s">
         <v>571</v>
       </c>
@@ -29821,10 +29821,10 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="M187" s="182" t="s">
+      <c r="M187" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N187" s="183"/>
+      <c r="N187" s="201"/>
       <c r="O187" s="2" t="s">
         <v>420</v>
       </c>
@@ -30125,10 +30125,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M191" s="160" t="s">
+      <c r="M191" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N191" s="161"/>
+      <c r="N191" s="199"/>
       <c r="O191" s="2" t="s">
         <v>425</v>
       </c>
@@ -30271,10 +30271,10 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="M193" s="270" t="s">
+      <c r="M193" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="N193" s="271"/>
+      <c r="N193" s="203"/>
       <c r="O193" s="2" t="s">
         <v>443</v>
       </c>
@@ -30642,10 +30642,10 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="M198" s="272" t="s">
+      <c r="M198" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="N198" s="273"/>
+      <c r="N198" s="205"/>
       <c r="O198" s="2" t="s">
         <v>457</v>
       </c>
@@ -30865,10 +30865,10 @@
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="M201" s="276" t="s">
+      <c r="M201" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="N201" s="277"/>
+      <c r="N201" s="217"/>
       <c r="O201" s="2" t="s">
         <v>459</v>
       </c>
@@ -30938,10 +30938,10 @@
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="M202" s="278" t="s">
+      <c r="M202" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="279"/>
+      <c r="N202" s="219"/>
       <c r="O202" s="2" t="s">
         <v>434</v>
       </c>
@@ -31011,10 +31011,10 @@
         <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="M203" s="192" t="s">
+      <c r="M203" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="193"/>
+      <c r="N203" s="221"/>
       <c r="O203" s="2" t="s">
         <v>434</v>
       </c>
@@ -31159,10 +31159,10 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="M205" s="280" t="s">
+      <c r="M205" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="281"/>
+      <c r="N205" s="223"/>
       <c r="O205" s="2" t="s">
         <v>421</v>
       </c>
@@ -31307,10 +31307,10 @@
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="M207" s="170" t="s">
+      <c r="M207" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N207" s="171"/>
+      <c r="N207" s="209"/>
       <c r="O207" s="2" t="s">
         <v>425</v>
       </c>
@@ -31530,10 +31530,10 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="M210" s="160" t="s">
+      <c r="M210" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N210" s="161"/>
+      <c r="N210" s="199"/>
       <c r="O210" s="2" t="s">
         <v>570</v>
       </c>
@@ -31603,10 +31603,10 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="M211" s="264" t="s">
+      <c r="M211" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="265"/>
+      <c r="N211" s="213"/>
       <c r="O211" s="2" t="s">
         <v>570</v>
       </c>
@@ -32051,10 +32051,10 @@
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="M217" s="170" t="s">
+      <c r="M217" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N217" s="171"/>
+      <c r="N217" s="209"/>
       <c r="O217" s="2" t="s">
         <v>425</v>
       </c>
@@ -32124,10 +32124,10 @@
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="M218" s="172" t="s">
+      <c r="M218" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="173"/>
+      <c r="N218" s="211"/>
       <c r="O218" s="2" t="s">
         <v>425</v>
       </c>
@@ -32197,10 +32197,10 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="M219" s="174" t="s">
+      <c r="M219" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N219" s="175"/>
+      <c r="N219" s="215"/>
       <c r="O219" s="2" t="s">
         <v>418</v>
       </c>
@@ -32570,10 +32570,10 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="M224" s="182" t="s">
+      <c r="M224" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N224" s="183"/>
+      <c r="N224" s="201"/>
       <c r="O224" s="2" t="s">
         <v>420</v>
       </c>
@@ -32643,10 +32643,10 @@
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="M225" s="182" t="s">
+      <c r="M225" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N225" s="183"/>
+      <c r="N225" s="201"/>
       <c r="O225" s="2" t="s">
         <v>420</v>
       </c>
@@ -33178,10 +33178,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="M232" s="164" t="s">
+      <c r="M232" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N232" s="165"/>
+      <c r="N232" s="239"/>
       <c r="O232" s="2" t="s">
         <v>428</v>
       </c>
@@ -33251,10 +33251,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M233" s="166" t="s">
+      <c r="M233" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="N233" s="167"/>
+      <c r="N233" s="241"/>
       <c r="O233" s="2" t="s">
         <v>428</v>
       </c>
@@ -33324,10 +33324,10 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="M234" s="160" t="s">
+      <c r="M234" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N234" s="161"/>
+      <c r="N234" s="199"/>
       <c r="O234" s="2" t="s">
         <v>425</v>
       </c>
@@ -33397,10 +33397,10 @@
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="M235" s="160" t="s">
+      <c r="M235" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N235" s="161"/>
+      <c r="N235" s="199"/>
       <c r="O235" s="2" t="s">
         <v>425</v>
       </c>
@@ -33470,10 +33470,10 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
-      <c r="M236" s="274" t="s">
+      <c r="M236" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="N236" s="275"/>
+      <c r="N236" s="207"/>
       <c r="O236" s="2" t="s">
         <v>425</v>
       </c>
@@ -33543,10 +33543,10 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="M237" s="206" t="s">
+      <c r="M237" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N237" s="207"/>
+      <c r="N237" s="191"/>
       <c r="O237" s="2" t="s">
         <v>432</v>
       </c>
@@ -33616,10 +33616,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M238" s="206" t="s">
+      <c r="M238" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="207"/>
+      <c r="N238" s="191"/>
       <c r="O238" s="2" t="s">
         <v>432</v>
       </c>
@@ -33770,10 +33770,10 @@
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="M240" s="224" t="s">
+      <c r="M240" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="225"/>
+      <c r="N240" s="235"/>
       <c r="O240" s="2" t="s">
         <v>427</v>
       </c>
@@ -33849,10 +33849,10 @@
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="M241" s="174" t="s">
+      <c r="M241" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N241" s="175"/>
+      <c r="N241" s="215"/>
       <c r="O241" s="2" t="s">
         <v>418</v>
       </c>
@@ -33922,10 +33922,10 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="M242" s="176" t="s">
+      <c r="M242" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N242" s="177"/>
+      <c r="N242" s="237"/>
       <c r="O242" s="2" t="s">
         <v>425</v>
       </c>
@@ -33995,10 +33995,10 @@
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="M243" s="160" t="s">
+      <c r="M243" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N243" s="161"/>
+      <c r="N243" s="199"/>
       <c r="O243" s="2" t="s">
         <v>425</v>
       </c>
@@ -34068,10 +34068,10 @@
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="M244" s="260" t="s">
+      <c r="M244" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="261"/>
+      <c r="N244" s="231"/>
       <c r="O244" s="2" t="s">
         <v>427</v>
       </c>
@@ -34141,10 +34141,10 @@
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="M245" s="174" t="s">
+      <c r="M245" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N245" s="175"/>
+      <c r="N245" s="215"/>
       <c r="O245" s="2" t="s">
         <v>418</v>
       </c>
@@ -34214,10 +34214,10 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="M246" s="212" t="s">
+      <c r="M246" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N246" s="213"/>
+      <c r="N246" s="193"/>
       <c r="O246" s="2" t="s">
         <v>420</v>
       </c>
@@ -34740,10 +34740,10 @@
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="M253" s="266" t="s">
+      <c r="M253" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="N253" s="267"/>
+      <c r="N253" s="195"/>
       <c r="O253" s="2" t="s">
         <v>443</v>
       </c>
@@ -34813,10 +34813,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M254" s="268" t="s">
+      <c r="M254" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N254" s="269"/>
+      <c r="N254" s="179"/>
       <c r="O254" s="2" t="s">
         <v>443</v>
       </c>
@@ -34886,10 +34886,10 @@
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="M255" s="268" t="s">
+      <c r="M255" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N255" s="269"/>
+      <c r="N255" s="179"/>
       <c r="O255" s="2" t="s">
         <v>443</v>
       </c>
@@ -34959,10 +34959,10 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="M256" s="286" t="s">
+      <c r="M256" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="N256" s="287"/>
+      <c r="N256" s="183"/>
       <c r="O256" s="2" t="s">
         <v>418</v>
       </c>
@@ -35188,10 +35188,10 @@
         <f t="shared" ref="L259:L322" si="14">ROUND((1+(H259-75)/500)*(ROUND(0.25*(7*MAX(G259,E259)+MIN(G259,E259)),0)),0)</f>
         <v>93</v>
       </c>
-      <c r="M259" s="288" t="s">
+      <c r="M259" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N259" s="289"/>
+      <c r="N259" s="159"/>
       <c r="O259" s="2" t="s">
         <v>420</v>
       </c>
@@ -35411,10 +35411,10 @@
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="M262" s="290" t="s">
+      <c r="M262" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N262" s="291"/>
+      <c r="N262" s="175"/>
       <c r="O262" s="2" t="s">
         <v>457</v>
       </c>
@@ -35484,10 +35484,10 @@
         <f t="shared" si="14"/>
         <v>137</v>
       </c>
-      <c r="M263" s="290" t="s">
+      <c r="M263" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N263" s="291"/>
+      <c r="N263" s="175"/>
       <c r="O263" s="2" t="s">
         <v>457</v>
       </c>
@@ -35557,10 +35557,10 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="M264" s="284" t="s">
+      <c r="M264" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N264" s="285"/>
+      <c r="N264" s="177"/>
       <c r="O264" s="2" t="s">
         <v>425</v>
       </c>
@@ -35630,10 +35630,10 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="M265" s="284" t="s">
+      <c r="M265" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N265" s="285"/>
+      <c r="N265" s="177"/>
       <c r="O265" s="2" t="s">
         <v>425</v>
       </c>
@@ -35703,10 +35703,10 @@
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="M266" s="282" t="s">
+      <c r="M266" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N266" s="283"/>
+      <c r="N266" s="187"/>
       <c r="O266" s="2" t="s">
         <v>421</v>
       </c>
@@ -35776,10 +35776,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M267" s="282" t="s">
+      <c r="M267" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N267" s="283"/>
+      <c r="N267" s="187"/>
       <c r="O267" s="2" t="s">
         <v>421</v>
       </c>
@@ -35924,10 +35924,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M269" s="282" t="s">
+      <c r="M269" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N269" s="283"/>
+      <c r="N269" s="187"/>
       <c r="O269" s="2" t="s">
         <v>421</v>
       </c>
@@ -36297,10 +36297,10 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="M274" s="268" t="s">
+      <c r="M274" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N274" s="269"/>
+      <c r="N274" s="179"/>
       <c r="O274" s="2" t="s">
         <v>443</v>
       </c>
@@ -37195,10 +37195,10 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="M286" s="268" t="s">
+      <c r="M286" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N286" s="269"/>
+      <c r="N286" s="179"/>
       <c r="O286" s="2" t="s">
         <v>443</v>
       </c>
@@ -37343,10 +37343,10 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="M288" s="284" t="s">
+      <c r="M288" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N288" s="285"/>
+      <c r="N288" s="177"/>
       <c r="O288" s="2" t="s">
         <v>425</v>
       </c>
@@ -37416,10 +37416,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M289" s="284" t="s">
+      <c r="M289" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N289" s="285"/>
+      <c r="N289" s="177"/>
       <c r="O289" s="2" t="s">
         <v>425</v>
       </c>
@@ -37486,10 +37486,10 @@
       <c r="L290" s="2">
         <v>183</v>
       </c>
-      <c r="M290" s="284" t="s">
+      <c r="M290" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N290" s="285"/>
+      <c r="N290" s="177"/>
       <c r="O290" s="2" t="s">
         <v>425</v>
       </c>
@@ -37784,10 +37784,10 @@
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="M294" s="284" t="s">
+      <c r="M294" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N294" s="285"/>
+      <c r="N294" s="177"/>
       <c r="O294" s="2" t="s">
         <v>425</v>
       </c>
@@ -37857,10 +37857,10 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="M295" s="284" t="s">
+      <c r="M295" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N295" s="285"/>
+      <c r="N295" s="177"/>
       <c r="O295" s="2" t="s">
         <v>425</v>
       </c>
@@ -37930,10 +37930,10 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="M296" s="284" t="s">
+      <c r="M296" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N296" s="285"/>
+      <c r="N296" s="177"/>
       <c r="O296" s="2" t="s">
         <v>425</v>
       </c>
@@ -38003,10 +38003,10 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="M297" s="292" t="s">
+      <c r="M297" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="N297" s="293"/>
+      <c r="N297" s="189"/>
       <c r="O297" s="2" t="s">
         <v>432</v>
       </c>
@@ -38076,10 +38076,10 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="M298" s="292" t="s">
+      <c r="M298" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="N298" s="293"/>
+      <c r="N298" s="189"/>
       <c r="O298" s="2" t="s">
         <v>432</v>
       </c>
@@ -38224,10 +38224,10 @@
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="M300" s="294" t="s">
+      <c r="M300" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="N300" s="295"/>
+      <c r="N300" s="167"/>
       <c r="O300" s="2" t="s">
         <v>454</v>
       </c>
@@ -38297,10 +38297,10 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="M301" s="284" t="s">
+      <c r="M301" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N301" s="285"/>
+      <c r="N301" s="177"/>
       <c r="O301" s="2" t="s">
         <v>425</v>
       </c>
@@ -38370,10 +38370,10 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="M302" s="284" t="s">
+      <c r="M302" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N302" s="285"/>
+      <c r="N302" s="177"/>
       <c r="O302" s="2" t="s">
         <v>425</v>
       </c>
@@ -38968,10 +38968,10 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="M310" s="296" t="s">
+      <c r="M310" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="297"/>
+      <c r="N310" s="185"/>
       <c r="O310" s="2" t="s">
         <v>427</v>
       </c>
@@ -39041,10 +39041,10 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="M311" s="296" t="s">
+      <c r="M311" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="297"/>
+      <c r="N311" s="185"/>
       <c r="O311" s="2" t="s">
         <v>427</v>
       </c>
@@ -39114,10 +39114,10 @@
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="M312" s="296" t="s">
+      <c r="M312" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="297"/>
+      <c r="N312" s="185"/>
       <c r="O312" s="2" t="s">
         <v>427</v>
       </c>
@@ -39187,10 +39187,10 @@
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="M313" s="296" t="s">
+      <c r="M313" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="297"/>
+      <c r="N313" s="185"/>
       <c r="O313" s="2" t="s">
         <v>427</v>
       </c>
@@ -39260,10 +39260,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M314" s="282" t="s">
+      <c r="M314" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="283"/>
+      <c r="N314" s="187"/>
       <c r="O314" s="2" t="s">
         <v>421</v>
       </c>
@@ -39333,10 +39333,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M315" s="282" t="s">
+      <c r="M315" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N315" s="283"/>
+      <c r="N315" s="187"/>
       <c r="O315" s="2" t="s">
         <v>421</v>
       </c>
@@ -39481,10 +39481,10 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="M317" s="300" t="s">
+      <c r="M317" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N317" s="301"/>
+      <c r="N317" s="181"/>
       <c r="O317" s="2" t="s">
         <v>426</v>
       </c>
@@ -39554,10 +39554,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M318" s="300" t="s">
+      <c r="M318" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N318" s="301"/>
+      <c r="N318" s="181"/>
       <c r="O318" s="2" t="s">
         <v>426</v>
       </c>
@@ -39777,10 +39777,10 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="M321" s="288" t="s">
+      <c r="M321" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N321" s="289"/>
+      <c r="N321" s="159"/>
       <c r="O321" s="2" t="s">
         <v>420</v>
       </c>
@@ -39850,10 +39850,10 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="M322" s="288" t="s">
+      <c r="M322" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N322" s="289"/>
+      <c r="N322" s="159"/>
       <c r="O322" s="2" t="s">
         <v>420</v>
       </c>
@@ -40073,10 +40073,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M325" s="286" t="s">
+      <c r="M325" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="N325" s="287"/>
+      <c r="N325" s="183"/>
       <c r="O325" s="2" t="s">
         <v>418</v>
       </c>
@@ -40146,10 +40146,10 @@
         <f t="shared" si="17"/>
         <v>145</v>
       </c>
-      <c r="M326" s="298" t="s">
+      <c r="M326" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N326" s="299"/>
+      <c r="N326" s="163"/>
       <c r="O326" s="2" t="s">
         <v>434</v>
       </c>
@@ -40219,10 +40219,10 @@
         <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="M327" s="298" t="s">
+      <c r="M327" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N327" s="299"/>
+      <c r="N327" s="163"/>
       <c r="O327" s="2" t="s">
         <v>434</v>
       </c>
@@ -40292,10 +40292,10 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="M328" s="284" t="s">
+      <c r="M328" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N328" s="285"/>
+      <c r="N328" s="177"/>
       <c r="O328" s="2" t="s">
         <v>425</v>
       </c>
@@ -40365,10 +40365,10 @@
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="M329" s="302" t="s">
+      <c r="M329" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="N329" s="303"/>
+      <c r="N329" s="161"/>
       <c r="O329" s="2" t="s">
         <v>428</v>
       </c>
@@ -40588,10 +40588,10 @@
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M332" s="268" t="s">
+      <c r="M332" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N332" s="269"/>
+      <c r="N332" s="179"/>
       <c r="O332" s="2" t="s">
         <v>443</v>
       </c>
@@ -40886,10 +40886,10 @@
         <f t="shared" si="17"/>
         <v>124</v>
       </c>
-      <c r="M336" s="284" t="s">
+      <c r="M336" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N336" s="285"/>
+      <c r="N336" s="177"/>
       <c r="O336" s="2" t="s">
         <v>425</v>
       </c>
@@ -40959,10 +40959,10 @@
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="M337" s="300" t="s">
+      <c r="M337" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N337" s="301"/>
+      <c r="N337" s="181"/>
       <c r="O337" s="2" t="s">
         <v>426</v>
       </c>
@@ -41332,10 +41332,10 @@
         <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="M342" s="288" t="s">
+      <c r="M342" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N342" s="289"/>
+      <c r="N342" s="159"/>
       <c r="O342" s="2" t="s">
         <v>420</v>
       </c>
@@ -41930,10 +41930,10 @@
         <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="M350" s="288" t="s">
+      <c r="M350" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N350" s="289"/>
+      <c r="N350" s="159"/>
       <c r="O350" s="2" t="s">
         <v>420</v>
       </c>
@@ -42003,10 +42003,10 @@
         <f t="shared" si="17"/>
         <v>242</v>
       </c>
-      <c r="M351" s="288" t="s">
+      <c r="M351" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N351" s="289"/>
+      <c r="N351" s="159"/>
       <c r="O351" s="2" t="s">
         <v>420</v>
       </c>
@@ -42082,10 +42082,10 @@
         <f t="shared" si="17"/>
         <v>139</v>
       </c>
-      <c r="M352" s="284" t="s">
+      <c r="M352" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N352" s="285"/>
+      <c r="N352" s="177"/>
       <c r="O352" s="2" t="s">
         <v>425</v>
       </c>
@@ -42155,10 +42155,10 @@
         <f t="shared" si="17"/>
         <v>212</v>
       </c>
-      <c r="M353" s="284" t="s">
+      <c r="M353" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N353" s="285"/>
+      <c r="N353" s="177"/>
       <c r="O353" s="2" t="s">
         <v>425</v>
       </c>
@@ -42228,10 +42228,10 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M354" s="306" t="s">
+      <c r="M354" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N354" s="307"/>
+      <c r="N354" s="173"/>
       <c r="O354" s="2" t="s">
         <v>459</v>
       </c>
@@ -42301,10 +42301,10 @@
         <f t="shared" si="17"/>
         <v>127</v>
       </c>
-      <c r="M355" s="306" t="s">
+      <c r="M355" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N355" s="307"/>
+      <c r="N355" s="173"/>
       <c r="O355" s="2" t="s">
         <v>459</v>
       </c>
@@ -42374,10 +42374,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M356" s="306" t="s">
+      <c r="M356" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N356" s="307"/>
+      <c r="N356" s="173"/>
       <c r="O356" s="2" t="s">
         <v>459</v>
       </c>
@@ -42447,10 +42447,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M357" s="306" t="s">
+      <c r="M357" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N357" s="307"/>
+      <c r="N357" s="173"/>
       <c r="O357" s="2" t="s">
         <v>459</v>
       </c>
@@ -42595,10 +42595,10 @@
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="M359" s="298" t="s">
+      <c r="M359" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N359" s="299"/>
+      <c r="N359" s="163"/>
       <c r="O359" s="2" t="s">
         <v>434</v>
       </c>
@@ -42668,10 +42668,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="M360" s="290" t="s">
+      <c r="M360" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N360" s="291"/>
+      <c r="N360" s="175"/>
       <c r="O360" s="2" t="s">
         <v>457</v>
       </c>
@@ -42741,10 +42741,10 @@
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="M361" s="298" t="s">
+      <c r="M361" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N361" s="299"/>
+      <c r="N361" s="163"/>
       <c r="O361" s="2" t="s">
         <v>434</v>
       </c>
@@ -42814,10 +42814,10 @@
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="M362" s="304" t="s">
+      <c r="M362" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N362" s="305"/>
+      <c r="N362" s="169"/>
       <c r="O362" s="2" t="s">
         <v>495</v>
       </c>
@@ -42887,10 +42887,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M363" s="304" t="s">
+      <c r="M363" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N363" s="305"/>
+      <c r="N363" s="169"/>
       <c r="O363" s="2" t="s">
         <v>495</v>
       </c>
@@ -43185,10 +43185,10 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="M367" s="288" t="s">
+      <c r="M367" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N367" s="289"/>
+      <c r="N367" s="159"/>
       <c r="O367" s="2" t="s">
         <v>420</v>
       </c>
@@ -43258,10 +43258,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M368" s="288" t="s">
+      <c r="M368" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N368" s="289"/>
+      <c r="N368" s="159"/>
       <c r="O368" s="2" t="s">
         <v>420</v>
       </c>
@@ -43331,10 +43331,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M369" s="288" t="s">
+      <c r="M369" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N369" s="289"/>
+      <c r="N369" s="159"/>
       <c r="O369" s="2" t="s">
         <v>420</v>
       </c>
@@ -43479,10 +43479,10 @@
         <f t="shared" si="17"/>
         <v>134</v>
       </c>
-      <c r="M371" s="288" t="s">
+      <c r="M371" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N371" s="289"/>
+      <c r="N371" s="159"/>
       <c r="O371" s="2" t="s">
         <v>420</v>
       </c>
@@ -43552,10 +43552,10 @@
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="M372" s="308" t="s">
+      <c r="M372" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="N372" s="309"/>
+      <c r="N372" s="165"/>
       <c r="O372" s="2" t="s">
         <v>450</v>
       </c>
@@ -43625,10 +43625,10 @@
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-      <c r="M373" s="308" t="s">
+      <c r="M373" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="N373" s="309"/>
+      <c r="N373" s="165"/>
       <c r="O373" s="2" t="s">
         <v>450</v>
       </c>
@@ -43998,10 +43998,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M378" s="294" t="s">
+      <c r="M378" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="N378" s="295"/>
+      <c r="N378" s="167"/>
       <c r="O378" s="2" t="s">
         <v>454</v>
       </c>
@@ -44071,10 +44071,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M379" s="304" t="s">
+      <c r="M379" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N379" s="305"/>
+      <c r="N379" s="169"/>
       <c r="O379" s="2" t="s">
         <v>495</v>
       </c>
@@ -44144,10 +44144,10 @@
         <f t="shared" si="17"/>
         <v>285</v>
       </c>
-      <c r="M380" s="310" t="s">
+      <c r="M380" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="N380" s="311"/>
+      <c r="N380" s="171"/>
       <c r="O380" s="2" t="s">
         <v>498</v>
       </c>
@@ -44364,10 +44364,10 @@
       <c r="L383" s="2">
         <v>251</v>
       </c>
-      <c r="M383" s="288" t="s">
+      <c r="M383" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N383" s="289"/>
+      <c r="N383" s="159"/>
       <c r="O383" s="2" t="s">
         <v>420</v>
       </c>
@@ -44440,10 +44440,10 @@
       <c r="L384" s="2">
         <v>251</v>
       </c>
-      <c r="M384" s="302" t="s">
+      <c r="M384" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="N384" s="303"/>
+      <c r="N384" s="161"/>
       <c r="O384" s="2" t="s">
         <v>428</v>
       </c>
@@ -44660,10 +44660,10 @@
         <f t="shared" ref="L387:L445" si="19">ROUND((1+(H387-75)/500)*(ROUND(0.25*(7*MAX(G387,E387)+MIN(G387,E387)),0)),0)</f>
         <v>115</v>
       </c>
-      <c r="M387" s="298" t="s">
+      <c r="M387" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N387" s="299"/>
+      <c r="N387" s="163"/>
       <c r="O387" s="2" t="s">
         <v>434</v>
       </c>
@@ -70540,72 +70540,126 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M266:N266"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="M269:N269"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M262:N262"/>
-    <mergeCell ref="M263:N263"/>
-    <mergeCell ref="M264:N264"/>
-    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M244:N244"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M237:N237"/>
+    <mergeCell ref="M240:N240"/>
+    <mergeCell ref="M241:N241"/>
+    <mergeCell ref="M242:N242"/>
+    <mergeCell ref="M243:N243"/>
+    <mergeCell ref="M232:N232"/>
+    <mergeCell ref="M233:N233"/>
+    <mergeCell ref="M234:N234"/>
+    <mergeCell ref="M225:N225"/>
     <mergeCell ref="M238:N238"/>
     <mergeCell ref="M246:N246"/>
     <mergeCell ref="M253:N253"/>
@@ -70630,126 +70684,72 @@
     <mergeCell ref="M203:N203"/>
     <mergeCell ref="M205:N205"/>
     <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M244:N244"/>
-    <mergeCell ref="M245:N245"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M237:N237"/>
-    <mergeCell ref="M240:N240"/>
-    <mergeCell ref="M241:N241"/>
-    <mergeCell ref="M242:N242"/>
-    <mergeCell ref="M243:N243"/>
-    <mergeCell ref="M232:N232"/>
-    <mergeCell ref="M233:N233"/>
-    <mergeCell ref="M234:N234"/>
-    <mergeCell ref="M225:N225"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M266:N266"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="M269:N269"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M262:N262"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="M264:N264"/>
+    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M651:N720 M388:N641 M722:N808">

--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -9348,9 +9348,6 @@
     <t>托戈德玛尔</t>
   </si>
   <si>
-    <t>谜拟Ｑ</t>
-  </si>
-  <si>
     <t>磨牙彩皮鱼</t>
   </si>
   <si>
@@ -10813,6 +10810,10 @@
   </si>
   <si>
     <t>2,36,</t>
+  </si>
+  <si>
+    <t>谜拟Q</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13763,124 +13764,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13889,28 +13776,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13925,28 +13812,58 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13955,40 +13872,94 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13997,22 +13968,52 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14057,172 +14058,172 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15165,7 +15166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15176,8 +15177,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O262" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y387"/>
+    <sheetView tabSelected="1" topLeftCell="N444" workbookViewId="0">
+      <selection activeCell="T779" sqref="T779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15258,10 +15259,10 @@
         <v>2615</v>
       </c>
       <c r="U1" s="96" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="V1" s="96" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="W1" s="96" t="s">
         <v>1277</v>
@@ -15551,10 +15552,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M5" s="298" t="s">
+      <c r="M5" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="299"/>
+      <c r="N5" s="179"/>
       <c r="O5" s="2" t="s">
         <v>418</v>
       </c>
@@ -15626,10 +15627,10 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M6" s="214" t="s">
+      <c r="M6" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="215"/>
+      <c r="N6" s="175"/>
       <c r="O6" s="2" t="s">
         <v>418</v>
       </c>
@@ -15731,7 +15732,7 @@
         <v>575</v>
       </c>
       <c r="U7" s="109" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="V7" s="109" t="s">
         <v>575</v>
@@ -15793,10 +15794,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M8" s="300" t="s">
+      <c r="M8" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="301"/>
+      <c r="N8" s="181"/>
       <c r="O8" s="2" t="s">
         <v>420</v>
       </c>
@@ -15868,10 +15869,10 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="M9" s="200" t="s">
+      <c r="M9" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="201"/>
+      <c r="N9" s="183"/>
       <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
@@ -15943,10 +15944,10 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="201"/>
+      <c r="N10" s="183"/>
       <c r="O10" s="2" t="s">
         <v>420</v>
       </c>
@@ -16018,10 +16019,10 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M11" s="302" t="s">
+      <c r="M11" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="303"/>
+      <c r="N11" s="185"/>
       <c r="O11" s="2" t="s">
         <v>421</v>
       </c>
@@ -16037,7 +16038,7 @@
         <v>579</v>
       </c>
       <c r="U11" s="109" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="V11" s="109" t="s">
         <v>579</v>
@@ -16093,10 +16094,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M12" s="232" t="s">
+      <c r="M12" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="233"/>
+      <c r="N12" s="263"/>
       <c r="O12" s="2" t="s">
         <v>421</v>
       </c>
@@ -16665,7 +16666,7 @@
         <v>691</v>
       </c>
       <c r="U19" s="109" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="V19" s="109" t="s">
         <v>1289</v>
@@ -16727,10 +16728,10 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M20" s="198" t="s">
+      <c r="M20" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="199"/>
+      <c r="N20" s="161"/>
       <c r="O20" s="2" t="s">
         <v>425</v>
       </c>
@@ -16802,10 +16803,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M21" s="198" t="s">
+      <c r="M21" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="199"/>
+      <c r="N21" s="161"/>
       <c r="O21" s="2" t="s">
         <v>425</v>
       </c>
@@ -17041,10 +17042,10 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="M24" s="226" t="s">
+      <c r="M24" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="227"/>
+      <c r="N24" s="159"/>
       <c r="O24" s="2" t="s">
         <v>426</v>
       </c>
@@ -17121,10 +17122,10 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="M25" s="226" t="s">
+      <c r="M25" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="227"/>
+      <c r="N25" s="159"/>
       <c r="O25" s="2" t="s">
         <v>426</v>
       </c>
@@ -17196,10 +17197,10 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="M26" s="310" t="s">
+      <c r="M26" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="311"/>
+      <c r="N26" s="163"/>
       <c r="O26" s="2" t="s">
         <v>427</v>
       </c>
@@ -17217,7 +17218,7 @@
         <v>591</v>
       </c>
       <c r="U26" s="109" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="V26" s="109" t="s">
         <v>591</v>
@@ -17276,10 +17277,10 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="M27" s="304" t="s">
+      <c r="M27" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="305"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="2" t="s">
         <v>427</v>
       </c>
@@ -17361,10 +17362,10 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="M28" s="306" t="s">
+      <c r="M28" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="307"/>
+      <c r="N28" s="189"/>
       <c r="O28" s="2" t="s">
         <v>428</v>
       </c>
@@ -17441,10 +17442,10 @@
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="M29" s="308" t="s">
+      <c r="M29" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="309"/>
+      <c r="N29" s="191"/>
       <c r="O29" s="2" t="s">
         <v>428</v>
       </c>
@@ -17516,10 +17517,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M30" s="226" t="s">
+      <c r="M30" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="227"/>
+      <c r="N30" s="159"/>
       <c r="O30" s="2" t="s">
         <v>426</v>
       </c>
@@ -17591,10 +17592,10 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M31" s="226" t="s">
+      <c r="M31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="227"/>
+      <c r="N31" s="159"/>
       <c r="O31" s="2" t="s">
         <v>426</v>
       </c>
@@ -17743,10 +17744,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="M33" s="226" t="s">
+      <c r="M33" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="227"/>
+      <c r="N33" s="159"/>
       <c r="O33" s="2" t="s">
         <v>426</v>
       </c>
@@ -17818,10 +17819,10 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="M34" s="226" t="s">
+      <c r="M34" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="227"/>
+      <c r="N34" s="159"/>
       <c r="O34" s="2" t="s">
         <v>426</v>
       </c>
@@ -17975,10 +17976,10 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M36" s="208" t="s">
+      <c r="M36" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="209"/>
+      <c r="N36" s="171"/>
       <c r="O36" s="2" t="s">
         <v>568</v>
       </c>
@@ -18050,10 +18051,10 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="M37" s="210" t="s">
+      <c r="M37" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="211"/>
+      <c r="N37" s="173"/>
       <c r="O37" s="2" t="s">
         <v>568</v>
       </c>
@@ -18071,7 +18072,7 @@
         <v>693</v>
       </c>
       <c r="U37" s="109" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="V37" s="109" t="s">
         <v>693</v>
@@ -18130,10 +18131,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M38" s="214" t="s">
+      <c r="M38" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="215"/>
+      <c r="N38" s="175"/>
       <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
@@ -18205,10 +18206,10 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="M39" s="214" t="s">
+      <c r="M39" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="215"/>
+      <c r="N39" s="175"/>
       <c r="O39" s="2" t="s">
         <v>418</v>
       </c>
@@ -18290,10 +18291,10 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M40" s="236" t="s">
+      <c r="M40" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="237"/>
+      <c r="N40" s="177"/>
       <c r="O40" s="2" t="s">
         <v>483</v>
       </c>
@@ -18370,10 +18371,10 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="M41" s="212" t="s">
+      <c r="M41" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="213"/>
+      <c r="N41" s="265"/>
       <c r="O41" s="2" t="s">
         <v>483</v>
       </c>
@@ -19163,10 +19164,10 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="M51" s="238" t="s">
+      <c r="M51" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="239"/>
+      <c r="N51" s="165"/>
       <c r="O51" s="2" t="s">
         <v>428</v>
       </c>
@@ -19243,10 +19244,10 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="M52" s="240" t="s">
+      <c r="M52" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="241"/>
+      <c r="N52" s="167"/>
       <c r="O52" s="2" t="s">
         <v>428</v>
       </c>
@@ -19323,10 +19324,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M53" s="198" t="s">
+      <c r="M53" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="199"/>
+      <c r="N53" s="161"/>
       <c r="O53" s="2" t="s">
         <v>425</v>
       </c>
@@ -19334,11 +19335,11 @@
         <v>2013</v>
       </c>
       <c r="Q53" s="106" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="R53" s="13"/>
       <c r="S53" s="13" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="T53" s="25" t="s">
         <v>613</v>
@@ -19353,7 +19354,7 @@
         <v>2384</v>
       </c>
       <c r="X53" s="96" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="Z53" s="96" t="s">
         <v>1958</v>
@@ -19403,10 +19404,10 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="M54" s="276" t="s">
+      <c r="M54" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="277"/>
+      <c r="N54" s="169"/>
       <c r="O54" s="2" t="s">
         <v>425</v>
       </c>
@@ -19483,10 +19484,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M55" s="200" t="s">
+      <c r="M55" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="201"/>
+      <c r="N55" s="183"/>
       <c r="O55" s="2" t="s">
         <v>420</v>
       </c>
@@ -19558,10 +19559,10 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="M56" s="294" t="s">
+      <c r="M56" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="295"/>
+      <c r="N56" s="209"/>
       <c r="O56" s="2" t="s">
         <v>420</v>
       </c>
@@ -19633,10 +19634,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M57" s="190" t="s">
+      <c r="M57" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="191"/>
+      <c r="N57" s="207"/>
       <c r="O57" s="2" t="s">
         <v>432</v>
       </c>
@@ -19708,10 +19709,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M58" s="190" t="s">
+      <c r="M58" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="191"/>
+      <c r="N58" s="207"/>
       <c r="O58" s="2" t="s">
         <v>432</v>
       </c>
@@ -19793,10 +19794,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M59" s="296" t="s">
+      <c r="M59" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="297"/>
+      <c r="N59" s="211"/>
       <c r="O59" s="2" t="s">
         <v>418</v>
       </c>
@@ -19868,10 +19869,10 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="M60" s="214" t="s">
+      <c r="M60" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="215"/>
+      <c r="N60" s="175"/>
       <c r="O60" s="2" t="s">
         <v>418</v>
       </c>
@@ -19891,7 +19892,7 @@
         <v>620</v>
       </c>
       <c r="U60" s="109" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="V60" s="109" t="s">
         <v>620</v>
@@ -19953,10 +19954,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="M61" s="192" t="s">
+      <c r="M61" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="193"/>
+      <c r="N61" s="213"/>
       <c r="O61" s="2" t="s">
         <v>420</v>
       </c>
@@ -20028,10 +20029,10 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="M62" s="228" t="s">
+      <c r="M62" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="229"/>
+      <c r="N62" s="259"/>
       <c r="O62" s="2" t="s">
         <v>420</v>
       </c>
@@ -20195,10 +20196,10 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="M64" s="260" t="s">
+      <c r="M64" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="261"/>
+      <c r="N64" s="203"/>
       <c r="O64" s="2" t="s">
         <v>434</v>
       </c>
@@ -20270,10 +20271,10 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="M65" s="220" t="s">
+      <c r="M65" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="221"/>
+      <c r="N65" s="193"/>
       <c r="O65" s="2" t="s">
         <v>434</v>
       </c>
@@ -20345,10 +20346,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="M66" s="292" t="s">
+      <c r="M66" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="293"/>
+      <c r="N66" s="205"/>
       <c r="O66" s="2" t="s">
         <v>434</v>
       </c>
@@ -20425,10 +20426,10 @@
         <f t="shared" ref="L67:L130" si="5">ROUND((1+(H67-75)/500)*(ROUND(0.25*(7*MAX(G67,E67)+MIN(G67,E67)),0)),0)</f>
         <v>88</v>
       </c>
-      <c r="M67" s="190" t="s">
+      <c r="M67" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="191"/>
+      <c r="N67" s="207"/>
       <c r="O67" s="2" t="s">
         <v>432</v>
       </c>
@@ -20505,10 +20506,10 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="M68" s="190" t="s">
+      <c r="M68" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="191"/>
+      <c r="N68" s="207"/>
       <c r="O68" s="2" t="s">
         <v>432</v>
       </c>
@@ -20585,10 +20586,10 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="M69" s="190" t="s">
+      <c r="M69" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="191"/>
+      <c r="N69" s="207"/>
       <c r="O69" s="2" t="s">
         <v>432</v>
       </c>
@@ -21311,10 +21312,10 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="M78" s="214" t="s">
+      <c r="M78" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N78" s="215"/>
+      <c r="N78" s="175"/>
       <c r="O78" s="2" t="s">
         <v>418</v>
       </c>
@@ -21391,10 +21392,10 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="M79" s="288" t="s">
+      <c r="M79" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="289"/>
+      <c r="N79" s="199"/>
       <c r="O79" s="2" t="s">
         <v>418</v>
       </c>
@@ -21569,7 +21570,7 @@
         <v>639</v>
       </c>
       <c r="U81" s="109" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="V81" s="109" t="s">
         <v>639</v>
@@ -22035,21 +22036,21 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M87" s="200" t="s">
+      <c r="M87" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N87" s="201"/>
+      <c r="N87" s="183"/>
       <c r="O87" s="2" t="s">
         <v>420</v>
       </c>
       <c r="P87" s="106" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="Q87" s="106" t="s">
         <v>2321</v>
       </c>
       <c r="R87" s="13" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="S87" s="13" t="s">
         <v>543</v>
@@ -22064,7 +22065,7 @@
         <v>643</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>2490</v>
@@ -22207,21 +22208,21 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M89" s="226" t="s">
+      <c r="M89" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="227"/>
+      <c r="N89" s="159"/>
       <c r="O89" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P89" s="106" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>2178</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="S89" s="13"/>
       <c r="T89" s="25" t="s">
@@ -22234,13 +22235,13 @@
         <v>645</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>2492</v>
       </c>
       <c r="Y89" s="2" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="AB89" s="110"/>
       <c r="AC89" s="109"/>
@@ -22287,10 +22288,10 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="M90" s="226" t="s">
+      <c r="M90" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="227"/>
+      <c r="N90" s="159"/>
       <c r="O90" s="2" t="s">
         <v>426</v>
       </c>
@@ -22301,7 +22302,7 @@
         <v>2141</v>
       </c>
       <c r="R90" s="13" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="S90" s="13"/>
       <c r="T90" s="25" t="s">
@@ -22320,7 +22321,7 @@
         <v>2451</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="AB90" s="110"/>
       <c r="AC90" s="109"/>
@@ -22367,10 +22368,10 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="M91" s="290" t="s">
+      <c r="M91" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="291"/>
+      <c r="N91" s="201"/>
       <c r="O91" s="2" t="s">
         <v>420</v>
       </c>
@@ -22537,7 +22538,7 @@
         <v>2110</v>
       </c>
       <c r="Q93" s="106" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="R93" s="13" t="s">
         <v>548</v>
@@ -22711,13 +22712,13 @@
         <v>2112</v>
       </c>
       <c r="Q95" s="106" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="R95" s="13" t="s">
         <v>549</v>
       </c>
       <c r="S95" s="13" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="T95" s="25" t="s">
         <v>650</v>
@@ -22732,13 +22733,13 @@
         <v>2397</v>
       </c>
       <c r="X95" s="96" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>1942</v>
       </c>
       <c r="Z95" s="96" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="AB95" s="110"/>
       <c r="AC95" s="109"/>
@@ -22798,11 +22799,11 @@
         <v>2023</v>
       </c>
       <c r="Q96" s="106" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="R96" s="13"/>
       <c r="S96" s="13" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="T96" s="25" t="s">
         <v>651</v>
@@ -22817,7 +22818,7 @@
         <v>1600</v>
       </c>
       <c r="X96" s="96" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="Z96" s="2" t="s">
         <v>1977</v>
@@ -22867,10 +22868,10 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="M97" s="220" t="s">
+      <c r="M97" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="221"/>
+      <c r="N97" s="193"/>
       <c r="O97" s="2" t="s">
         <v>434</v>
       </c>
@@ -22942,10 +22943,10 @@
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M98" s="220" t="s">
+      <c r="M98" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="221"/>
+      <c r="N98" s="193"/>
       <c r="O98" s="2" t="s">
         <v>434</v>
       </c>
@@ -23022,10 +23023,10 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="M99" s="284" t="s">
+      <c r="M99" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="N99" s="285"/>
+      <c r="N99" s="195"/>
       <c r="O99" s="2" t="s">
         <v>420</v>
       </c>
@@ -23097,10 +23098,10 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="M100" s="200" t="s">
+      <c r="M100" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="201"/>
+      <c r="N100" s="183"/>
       <c r="O100" s="2" t="s">
         <v>420</v>
       </c>
@@ -23177,10 +23178,10 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="M101" s="286" t="s">
+      <c r="M101" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="287"/>
+      <c r="N101" s="197"/>
       <c r="O101" s="2" t="s">
         <v>427</v>
       </c>
@@ -23257,10 +23258,10 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="M102" s="224" t="s">
+      <c r="M102" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="225"/>
+      <c r="N102" s="257"/>
       <c r="O102" s="2" t="s">
         <v>427</v>
       </c>
@@ -23496,10 +23497,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M105" s="238" t="s">
+      <c r="M105" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="239"/>
+      <c r="N105" s="165"/>
       <c r="O105" s="2" t="s">
         <v>428</v>
       </c>
@@ -23571,10 +23572,10 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M106" s="280" t="s">
+      <c r="M106" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="281"/>
+      <c r="N106" s="217"/>
       <c r="O106" s="2" t="s">
         <v>428</v>
       </c>
@@ -23646,10 +23647,10 @@
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="M107" s="190" t="s">
+      <c r="M107" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N107" s="191"/>
+      <c r="N107" s="207"/>
       <c r="O107" s="2" t="s">
         <v>432</v>
       </c>
@@ -23726,10 +23727,10 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="M108" s="190" t="s">
+      <c r="M108" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N108" s="191"/>
+      <c r="N108" s="207"/>
       <c r="O108" s="2" t="s">
         <v>432</v>
       </c>
@@ -23811,10 +23812,10 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="M109" s="282" t="s">
+      <c r="M109" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="N109" s="283"/>
+      <c r="N109" s="219"/>
       <c r="O109" s="2" t="s">
         <v>425</v>
       </c>
@@ -23886,21 +23887,21 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="M110" s="226" t="s">
+      <c r="M110" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="227"/>
+      <c r="N110" s="159"/>
       <c r="O110" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P110" s="106" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>2189</v>
       </c>
       <c r="R110" s="13" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="S110" s="13"/>
       <c r="T110" s="25" t="s">
@@ -23913,13 +23914,13 @@
         <v>657</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="X110" s="2" t="s">
         <v>1778</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="AB110" s="110"/>
       <c r="AC110" s="109"/>
@@ -23966,21 +23967,21 @@
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="M111" s="226" t="s">
+      <c r="M111" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="227"/>
+      <c r="N111" s="159"/>
       <c r="O111" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P111" s="106" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>2190</v>
       </c>
       <c r="R111" s="13" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="S111" s="13"/>
       <c r="T111" s="25" t="s">
@@ -23993,13 +23994,13 @@
         <v>658</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="X111" s="2" t="s">
         <v>1779</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="AB111" s="110"/>
       <c r="AC111" s="109"/>
@@ -24205,10 +24206,10 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="M114" s="208" t="s">
+      <c r="M114" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N114" s="209"/>
+      <c r="N114" s="171"/>
       <c r="O114" s="2" t="s">
         <v>425</v>
       </c>
@@ -24226,7 +24227,7 @@
         <v>659</v>
       </c>
       <c r="U114" s="109" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="V114" s="109" t="s">
         <v>659</v>
@@ -24285,10 +24286,10 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M115" s="278" t="s">
+      <c r="M115" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="N115" s="279"/>
+      <c r="N115" s="215"/>
       <c r="O115" s="2" t="s">
         <v>443</v>
       </c>
@@ -24365,10 +24366,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M116" s="276" t="s">
+      <c r="M116" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N116" s="277"/>
+      <c r="N116" s="169"/>
       <c r="O116" s="2" t="s">
         <v>425</v>
       </c>
@@ -24445,10 +24446,10 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="M117" s="200" t="s">
+      <c r="M117" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="201"/>
+      <c r="N117" s="183"/>
       <c r="O117" s="2" t="s">
         <v>420</v>
       </c>
@@ -24520,10 +24521,10 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="M118" s="200" t="s">
+      <c r="M118" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="201"/>
+      <c r="N118" s="183"/>
       <c r="O118" s="2" t="s">
         <v>420</v>
       </c>
@@ -24600,10 +24601,10 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="M119" s="200" t="s">
+      <c r="M119" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N119" s="201"/>
+      <c r="N119" s="183"/>
       <c r="O119" s="2" t="s">
         <v>420</v>
       </c>
@@ -24675,10 +24676,10 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-      <c r="M120" s="200" t="s">
+      <c r="M120" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N120" s="201"/>
+      <c r="N120" s="183"/>
       <c r="O120" s="2" t="s">
         <v>420</v>
       </c>
@@ -24760,10 +24761,10 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="M121" s="228" t="s">
+      <c r="M121" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="N121" s="229"/>
+      <c r="N121" s="259"/>
       <c r="O121" s="2" t="s">
         <v>420</v>
       </c>
@@ -24774,7 +24775,7 @@
         <v>2194</v>
       </c>
       <c r="R121" s="13" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="S121" s="13"/>
       <c r="T121" s="25" t="s">
@@ -24853,13 +24854,13 @@
         <v>2354</v>
       </c>
       <c r="Q122" s="106" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="R122" s="13" t="s">
         <v>2351</v>
       </c>
       <c r="S122" s="13" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="T122" s="25" t="s">
         <v>666</v>
@@ -24874,7 +24875,7 @@
         <v>1615</v>
       </c>
       <c r="X122" s="96" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>1579</v>
@@ -24927,10 +24928,10 @@
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="M123" s="220" t="s">
+      <c r="M123" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="221"/>
+      <c r="N123" s="193"/>
       <c r="O123" s="2" t="s">
         <v>434</v>
       </c>
@@ -25176,10 +25177,10 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="M126" s="234" t="s">
+      <c r="M126" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="235"/>
+      <c r="N126" s="225"/>
       <c r="O126" s="2" t="s">
         <v>427</v>
       </c>
@@ -25251,10 +25252,10 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="M127" s="214" t="s">
+      <c r="M127" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N127" s="215"/>
+      <c r="N127" s="175"/>
       <c r="O127" s="2" t="s">
         <v>418</v>
       </c>
@@ -25326,10 +25327,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M128" s="272" t="s">
+      <c r="M128" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="273"/>
+      <c r="N128" s="221"/>
       <c r="O128" s="2" t="s">
         <v>421</v>
       </c>
@@ -25411,10 +25412,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M129" s="274" t="s">
+      <c r="M129" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="N129" s="275"/>
+      <c r="N129" s="223"/>
       <c r="O129" s="2" t="s">
         <v>425</v>
       </c>
@@ -25430,7 +25431,7 @@
         <v>670</v>
       </c>
       <c r="U129" s="109" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="V129" s="109" t="s">
         <v>670</v>
@@ -25486,10 +25487,10 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="M130" s="200" t="s">
+      <c r="M130" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N130" s="201"/>
+      <c r="N130" s="183"/>
       <c r="O130" s="2" t="s">
         <v>420</v>
       </c>
@@ -25505,7 +25506,7 @@
         <v>671</v>
       </c>
       <c r="U130" s="109" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="V130" s="109" t="s">
         <v>671</v>
@@ -25586,7 +25587,7 @@
         <v>672</v>
       </c>
       <c r="U131" s="109" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V131" s="109" t="s">
         <v>672</v>
@@ -25735,10 +25736,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M133" s="208" t="s">
+      <c r="M133" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N133" s="209"/>
+      <c r="N133" s="171"/>
       <c r="O133" s="2" t="s">
         <v>425</v>
       </c>
@@ -25810,10 +25811,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="M134" s="276" t="s">
+      <c r="M134" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N134" s="277"/>
+      <c r="N134" s="169"/>
       <c r="O134" s="2" t="s">
         <v>425</v>
       </c>
@@ -25890,10 +25891,10 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="M135" s="200" t="s">
+      <c r="M135" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N135" s="201"/>
+      <c r="N135" s="183"/>
       <c r="O135" s="2" t="s">
         <v>420</v>
       </c>
@@ -25965,10 +25966,10 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="M136" s="268" t="s">
+      <c r="M136" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="269"/>
+      <c r="N136" s="233"/>
       <c r="O136" s="2" t="s">
         <v>427</v>
       </c>
@@ -26040,10 +26041,10 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="M137" s="214" t="s">
+      <c r="M137" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N137" s="215"/>
+      <c r="N137" s="175"/>
       <c r="O137" s="2" t="s">
         <v>418</v>
       </c>
@@ -26051,17 +26052,17 @@
         <v>1521</v>
       </c>
       <c r="Q137" s="106" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="R137" s="13"/>
       <c r="S137" s="13" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="T137" s="25" t="s">
         <v>719</v>
       </c>
       <c r="U137" s="109" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="V137" s="109" t="s">
         <v>1311</v>
@@ -26070,7 +26071,7 @@
         <v>1623</v>
       </c>
       <c r="X137" s="96" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="Z137" s="2" t="s">
         <v>1927</v>
@@ -26120,10 +26121,10 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="M138" s="270" t="s">
+      <c r="M138" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="271"/>
+      <c r="N138" s="237"/>
       <c r="O138" s="2" t="s">
         <v>425</v>
       </c>
@@ -26610,10 +26611,10 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="M144" s="208" t="s">
+      <c r="M144" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="209"/>
+      <c r="N144" s="171"/>
       <c r="O144" s="2" t="s">
         <v>425</v>
       </c>
@@ -26941,10 +26942,10 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="M148" s="196" t="s">
+      <c r="M148" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="N148" s="197"/>
+      <c r="N148" s="235"/>
       <c r="O148" s="2" t="s">
         <v>450</v>
       </c>
@@ -27016,10 +27017,10 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="M149" s="196" t="s">
+      <c r="M149" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="N149" s="197"/>
+      <c r="N149" s="235"/>
       <c r="O149" s="2" t="s">
         <v>450</v>
       </c>
@@ -27116,7 +27117,7 @@
         <v>686</v>
       </c>
       <c r="U150" s="109" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="V150" s="109" t="s">
         <v>686</v>
@@ -27175,10 +27176,10 @@
       <c r="L151" s="2">
         <v>182</v>
       </c>
-      <c r="M151" s="260" t="s">
+      <c r="M151" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="261"/>
+      <c r="N151" s="203"/>
       <c r="O151" s="2" t="s">
         <v>434</v>
       </c>
@@ -27250,10 +27251,10 @@
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="M152" s="220" t="s">
+      <c r="M152" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="221"/>
+      <c r="N152" s="193"/>
       <c r="O152" s="2" t="s">
         <v>434</v>
       </c>
@@ -27261,7 +27262,7 @@
         <v>2048</v>
       </c>
       <c r="Q152" s="106" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="R152" s="54"/>
       <c r="S152" s="54" t="s">
@@ -27283,7 +27284,7 @@
         <v>2617</v>
       </c>
       <c r="Z152" s="96" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="AB152" s="110"/>
       <c r="AC152" s="109"/>
@@ -27330,10 +27331,10 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="M153" s="262" t="s">
+      <c r="M153" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="N153" s="263"/>
+      <c r="N153" s="227"/>
       <c r="O153" s="2" t="s">
         <v>443</v>
       </c>
@@ -27403,10 +27404,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="M154" s="264" t="s">
+      <c r="M154" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="N154" s="265"/>
+      <c r="N154" s="229"/>
       <c r="O154" s="2" t="s">
         <v>443</v>
       </c>
@@ -27476,10 +27477,10 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="M155" s="266" t="s">
+      <c r="M155" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="N155" s="267"/>
+      <c r="N155" s="231"/>
       <c r="O155" s="2" t="s">
         <v>443</v>
       </c>
@@ -27549,10 +27550,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="M156" s="214" t="s">
+      <c r="M156" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N156" s="215"/>
+      <c r="N156" s="175"/>
       <c r="O156" s="2" t="s">
         <v>418</v>
       </c>
@@ -27622,10 +27623,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="M157" s="214" t="s">
+      <c r="M157" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N157" s="215"/>
+      <c r="N157" s="175"/>
       <c r="O157" s="2" t="s">
         <v>418</v>
       </c>
@@ -27695,10 +27696,10 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="M158" s="214" t="s">
+      <c r="M158" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N158" s="215"/>
+      <c r="N158" s="175"/>
       <c r="O158" s="2" t="s">
         <v>418</v>
       </c>
@@ -27768,10 +27769,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M159" s="192" t="s">
+      <c r="M159" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N159" s="193"/>
+      <c r="N159" s="213"/>
       <c r="O159" s="2" t="s">
         <v>420</v>
       </c>
@@ -27841,10 +27842,10 @@
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="M160" s="200" t="s">
+      <c r="M160" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N160" s="201"/>
+      <c r="N160" s="183"/>
       <c r="O160" s="2" t="s">
         <v>420</v>
       </c>
@@ -27914,10 +27915,10 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="M161" s="200" t="s">
+      <c r="M161" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N161" s="201"/>
+      <c r="N161" s="183"/>
       <c r="O161" s="2" t="s">
         <v>420</v>
       </c>
@@ -27993,10 +27994,10 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="M162" s="256" t="s">
+      <c r="M162" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="N162" s="257"/>
+      <c r="N162" s="239"/>
       <c r="O162" s="2" t="s">
         <v>425</v>
       </c>
@@ -28066,10 +28067,10 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="M163" s="198" t="s">
+      <c r="M163" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N163" s="199"/>
+      <c r="N163" s="161"/>
       <c r="O163" s="2" t="s">
         <v>425</v>
       </c>
@@ -28814,10 +28815,10 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="M173" s="258" t="s">
+      <c r="M173" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="259"/>
+      <c r="N173" s="241"/>
       <c r="O173" s="2" t="s">
         <v>427</v>
       </c>
@@ -28893,10 +28894,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M174" s="198" t="s">
+      <c r="M174" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N174" s="199"/>
+      <c r="N174" s="161"/>
       <c r="O174" s="2" t="s">
         <v>568</v>
       </c>
@@ -28904,10 +28905,10 @@
         <v>2007</v>
       </c>
       <c r="Q174" s="106" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="S174" s="107" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="T174" s="25" t="s">
         <v>799</v>
@@ -28972,10 +28973,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="M175" s="198" t="s">
+      <c r="M175" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N175" s="199"/>
+      <c r="N175" s="161"/>
       <c r="O175" s="2" t="s">
         <v>483</v>
       </c>
@@ -28983,7 +28984,7 @@
         <v>2009</v>
       </c>
       <c r="Q175" s="106" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="S175" s="96" t="s">
         <v>2618</v>
@@ -29051,10 +29052,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M176" s="198" t="s">
+      <c r="M176" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N176" s="199"/>
+      <c r="N176" s="161"/>
       <c r="O176" s="2" t="s">
         <v>568</v>
       </c>
@@ -29653,10 +29654,10 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="M184" s="200" t="s">
+      <c r="M184" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N184" s="201"/>
+      <c r="N184" s="183"/>
       <c r="O184" s="2" t="s">
         <v>569</v>
       </c>
@@ -29726,10 +29727,10 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="M185" s="200" t="s">
+      <c r="M185" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N185" s="201"/>
+      <c r="N185" s="183"/>
       <c r="O185" s="2" t="s">
         <v>569</v>
       </c>
@@ -29743,7 +29744,7 @@
         <v>805</v>
       </c>
       <c r="U185" s="109" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="V185" s="109" t="s">
         <v>805</v>
@@ -29872,10 +29873,10 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="M187" s="200" t="s">
+      <c r="M187" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N187" s="201"/>
+      <c r="N187" s="183"/>
       <c r="O187" s="2" t="s">
         <v>420</v>
       </c>
@@ -30176,10 +30177,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M191" s="198" t="s">
+      <c r="M191" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N191" s="199"/>
+      <c r="N191" s="161"/>
       <c r="O191" s="2" t="s">
         <v>425</v>
       </c>
@@ -30266,7 +30267,7 @@
         <v>750</v>
       </c>
       <c r="U192" s="109" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="V192" s="109" t="s">
         <v>750</v>
@@ -30322,10 +30323,10 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="M193" s="202" t="s">
+      <c r="M193" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="N193" s="203"/>
+      <c r="N193" s="271"/>
       <c r="O193" s="2" t="s">
         <v>443</v>
       </c>
@@ -30637,7 +30638,7 @@
         <v>809</v>
       </c>
       <c r="U197" s="109" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="V197" s="109" t="s">
         <v>1318</v>
@@ -30693,10 +30694,10 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="M198" s="204" t="s">
+      <c r="M198" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="N198" s="205"/>
+      <c r="N198" s="273"/>
       <c r="O198" s="2" t="s">
         <v>457</v>
       </c>
@@ -30710,7 +30711,7 @@
         <v>810</v>
       </c>
       <c r="U198" s="109" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="V198" s="109" t="s">
         <v>1319</v>
@@ -30860,7 +30861,7 @@
         <v>811</v>
       </c>
       <c r="U200" s="109" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="V200" s="109" t="s">
         <v>1320</v>
@@ -30916,10 +30917,10 @@
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="M201" s="216" t="s">
+      <c r="M201" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="N201" s="217"/>
+      <c r="N201" s="277"/>
       <c r="O201" s="2" t="s">
         <v>459</v>
       </c>
@@ -30989,10 +30990,10 @@
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="M202" s="218" t="s">
+      <c r="M202" s="278" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="219"/>
+      <c r="N202" s="279"/>
       <c r="O202" s="2" t="s">
         <v>434</v>
       </c>
@@ -31062,10 +31063,10 @@
         <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="M203" s="220" t="s">
+      <c r="M203" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="221"/>
+      <c r="N203" s="193"/>
       <c r="O203" s="2" t="s">
         <v>434</v>
       </c>
@@ -31079,7 +31080,7 @@
         <v>757</v>
       </c>
       <c r="U203" s="109" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="V203" s="109" t="s">
         <v>757</v>
@@ -31210,10 +31211,10 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="M205" s="222" t="s">
+      <c r="M205" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="223"/>
+      <c r="N205" s="281"/>
       <c r="O205" s="2" t="s">
         <v>421</v>
       </c>
@@ -31358,10 +31359,10 @@
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="M207" s="208" t="s">
+      <c r="M207" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N207" s="209"/>
+      <c r="N207" s="171"/>
       <c r="O207" s="2" t="s">
         <v>425</v>
       </c>
@@ -31581,10 +31582,10 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="M210" s="198" t="s">
+      <c r="M210" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N210" s="199"/>
+      <c r="N210" s="161"/>
       <c r="O210" s="2" t="s">
         <v>568</v>
       </c>
@@ -31654,10 +31655,10 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="M211" s="212" t="s">
+      <c r="M211" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="213"/>
+      <c r="N211" s="265"/>
       <c r="O211" s="2" t="s">
         <v>568</v>
       </c>
@@ -31821,7 +31822,7 @@
         <v>765</v>
       </c>
       <c r="U213" s="109" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="V213" s="109" t="s">
         <v>765</v>
@@ -32102,10 +32103,10 @@
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="M217" s="208" t="s">
+      <c r="M217" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N217" s="209"/>
+      <c r="N217" s="171"/>
       <c r="O217" s="2" t="s">
         <v>425</v>
       </c>
@@ -32175,10 +32176,10 @@
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="M218" s="210" t="s">
+      <c r="M218" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="211"/>
+      <c r="N218" s="173"/>
       <c r="O218" s="2" t="s">
         <v>425</v>
       </c>
@@ -32248,10 +32249,10 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="M219" s="214" t="s">
+      <c r="M219" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N219" s="215"/>
+      <c r="N219" s="175"/>
       <c r="O219" s="2" t="s">
         <v>418</v>
       </c>
@@ -32621,10 +32622,10 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="M224" s="200" t="s">
+      <c r="M224" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N224" s="201"/>
+      <c r="N224" s="183"/>
       <c r="O224" s="2" t="s">
         <v>420</v>
       </c>
@@ -32694,10 +32695,10 @@
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="M225" s="200" t="s">
+      <c r="M225" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N225" s="201"/>
+      <c r="N225" s="183"/>
       <c r="O225" s="2" t="s">
         <v>420</v>
       </c>
@@ -32942,7 +32943,7 @@
         <v>780</v>
       </c>
       <c r="U228" s="109" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="V228" s="109" t="s">
         <v>780</v>
@@ -33229,10 +33230,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="M232" s="238" t="s">
+      <c r="M232" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N232" s="239"/>
+      <c r="N232" s="165"/>
       <c r="O232" s="2" t="s">
         <v>428</v>
       </c>
@@ -33302,10 +33303,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M233" s="240" t="s">
+      <c r="M233" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="N233" s="241"/>
+      <c r="N233" s="167"/>
       <c r="O233" s="2" t="s">
         <v>428</v>
       </c>
@@ -33375,10 +33376,10 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="M234" s="198" t="s">
+      <c r="M234" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N234" s="199"/>
+      <c r="N234" s="161"/>
       <c r="O234" s="2" t="s">
         <v>425</v>
       </c>
@@ -33392,10 +33393,10 @@
         <v>814</v>
       </c>
       <c r="U234" s="109" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="V234" s="109" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="W234" s="2" t="s">
         <v>1624</v>
@@ -33448,10 +33449,10 @@
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="M235" s="198" t="s">
+      <c r="M235" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N235" s="199"/>
+      <c r="N235" s="161"/>
       <c r="O235" s="2" t="s">
         <v>425</v>
       </c>
@@ -33521,10 +33522,10 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
-      <c r="M236" s="206" t="s">
+      <c r="M236" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="N236" s="207"/>
+      <c r="N236" s="275"/>
       <c r="O236" s="2" t="s">
         <v>425</v>
       </c>
@@ -33538,7 +33539,7 @@
         <v>787</v>
       </c>
       <c r="U236" s="109" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="V236" s="109" t="s">
         <v>787</v>
@@ -33594,10 +33595,10 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="M237" s="190" t="s">
+      <c r="M237" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N237" s="191"/>
+      <c r="N237" s="207"/>
       <c r="O237" s="2" t="s">
         <v>432</v>
       </c>
@@ -33667,10 +33668,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M238" s="190" t="s">
+      <c r="M238" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="191"/>
+      <c r="N238" s="207"/>
       <c r="O238" s="2" t="s">
         <v>432</v>
       </c>
@@ -33821,10 +33822,10 @@
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="M240" s="234" t="s">
+      <c r="M240" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="235"/>
+      <c r="N240" s="225"/>
       <c r="O240" s="2" t="s">
         <v>427</v>
       </c>
@@ -33900,10 +33901,10 @@
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="M241" s="214" t="s">
+      <c r="M241" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N241" s="215"/>
+      <c r="N241" s="175"/>
       <c r="O241" s="2" t="s">
         <v>418</v>
       </c>
@@ -33973,10 +33974,10 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="M242" s="236" t="s">
+      <c r="M242" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N242" s="237"/>
+      <c r="N242" s="177"/>
       <c r="O242" s="2" t="s">
         <v>425</v>
       </c>
@@ -34046,10 +34047,10 @@
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="M243" s="198" t="s">
+      <c r="M243" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N243" s="199"/>
+      <c r="N243" s="161"/>
       <c r="O243" s="2" t="s">
         <v>425</v>
       </c>
@@ -34063,7 +34064,7 @@
         <v>792</v>
       </c>
       <c r="U243" s="109" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V243" s="109" t="s">
         <v>792</v>
@@ -34119,10 +34120,10 @@
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="M244" s="230" t="s">
+      <c r="M244" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="231"/>
+      <c r="N244" s="261"/>
       <c r="O244" s="2" t="s">
         <v>427</v>
       </c>
@@ -34192,10 +34193,10 @@
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="M245" s="214" t="s">
+      <c r="M245" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N245" s="215"/>
+      <c r="N245" s="175"/>
       <c r="O245" s="2" t="s">
         <v>418</v>
       </c>
@@ -34209,7 +34210,7 @@
         <v>794</v>
       </c>
       <c r="U245" s="109" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="V245" s="109" t="s">
         <v>794</v>
@@ -34265,10 +34266,10 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="M246" s="192" t="s">
+      <c r="M246" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N246" s="193"/>
+      <c r="N246" s="213"/>
       <c r="O246" s="2" t="s">
         <v>420</v>
       </c>
@@ -34513,7 +34514,7 @@
         <v>819</v>
       </c>
       <c r="U249" s="109" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="V249" s="109" t="s">
         <v>1325</v>
@@ -34588,7 +34589,7 @@
         <v>796</v>
       </c>
       <c r="U250" s="109" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="V250" s="109" t="s">
         <v>796</v>
@@ -34791,10 +34792,10 @@
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="M253" s="194" t="s">
+      <c r="M253" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="N253" s="195"/>
+      <c r="N253" s="267"/>
       <c r="O253" s="2" t="s">
         <v>443</v>
       </c>
@@ -34864,10 +34865,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M254" s="178" t="s">
+      <c r="M254" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N254" s="179"/>
+      <c r="N254" s="269"/>
       <c r="O254" s="2" t="s">
         <v>443</v>
       </c>
@@ -34937,10 +34938,10 @@
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="M255" s="178" t="s">
+      <c r="M255" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N255" s="179"/>
+      <c r="N255" s="269"/>
       <c r="O255" s="2" t="s">
         <v>443</v>
       </c>
@@ -35010,10 +35011,10 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="M256" s="182" t="s">
+      <c r="M256" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="N256" s="183"/>
+      <c r="N256" s="287"/>
       <c r="O256" s="2" t="s">
         <v>418</v>
       </c>
@@ -35180,7 +35181,7 @@
         <v>826</v>
       </c>
       <c r="U258" s="109" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="V258" s="109" t="s">
         <v>826</v>
@@ -35239,10 +35240,10 @@
         <f t="shared" ref="L259:L322" si="14">ROUND((1+(H259-75)/500)*(ROUND(0.25*(7*MAX(G259,E259)+MIN(G259,E259)),0)),0)</f>
         <v>93</v>
       </c>
-      <c r="M259" s="158" t="s">
+      <c r="M259" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N259" s="159"/>
+      <c r="N259" s="289"/>
       <c r="O259" s="2" t="s">
         <v>420</v>
       </c>
@@ -35462,10 +35463,10 @@
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="M262" s="174" t="s">
+      <c r="M262" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N262" s="175"/>
+      <c r="N262" s="291"/>
       <c r="O262" s="2" t="s">
         <v>457</v>
       </c>
@@ -35535,10 +35536,10 @@
         <f t="shared" si="14"/>
         <v>137</v>
       </c>
-      <c r="M263" s="174" t="s">
+      <c r="M263" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N263" s="175"/>
+      <c r="N263" s="291"/>
       <c r="O263" s="2" t="s">
         <v>457</v>
       </c>
@@ -35608,10 +35609,10 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="M264" s="176" t="s">
+      <c r="M264" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N264" s="177"/>
+      <c r="N264" s="285"/>
       <c r="O264" s="2" t="s">
         <v>425</v>
       </c>
@@ -35681,10 +35682,10 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="M265" s="176" t="s">
+      <c r="M265" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N265" s="177"/>
+      <c r="N265" s="285"/>
       <c r="O265" s="2" t="s">
         <v>425</v>
       </c>
@@ -35754,10 +35755,10 @@
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="M266" s="186" t="s">
+      <c r="M266" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N266" s="187"/>
+      <c r="N266" s="283"/>
       <c r="O266" s="2" t="s">
         <v>421</v>
       </c>
@@ -35827,10 +35828,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M267" s="186" t="s">
+      <c r="M267" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N267" s="187"/>
+      <c r="N267" s="283"/>
       <c r="O267" s="2" t="s">
         <v>421</v>
       </c>
@@ -35975,10 +35976,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M269" s="186" t="s">
+      <c r="M269" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N269" s="187"/>
+      <c r="N269" s="283"/>
       <c r="O269" s="2" t="s">
         <v>421</v>
       </c>
@@ -36292,7 +36293,7 @@
         <v>841</v>
       </c>
       <c r="U273" s="109" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="V273" s="109" t="s">
         <v>841</v>
@@ -36348,10 +36349,10 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="M274" s="178" t="s">
+      <c r="M274" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N274" s="179"/>
+      <c r="N274" s="269"/>
       <c r="O274" s="2" t="s">
         <v>443</v>
       </c>
@@ -36665,7 +36666,7 @@
         <v>846</v>
       </c>
       <c r="U278" s="109" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="V278" s="109" t="s">
         <v>846</v>
@@ -36890,7 +36891,7 @@
         <v>947</v>
       </c>
       <c r="U281" s="109" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="V281" s="109" t="s">
         <v>947</v>
@@ -36965,7 +36966,7 @@
         <v>948</v>
       </c>
       <c r="U282" s="109" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="V282" s="109" t="s">
         <v>948</v>
@@ -37040,7 +37041,7 @@
         <v>949</v>
       </c>
       <c r="U283" s="109" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="V283" s="109" t="s">
         <v>949</v>
@@ -37246,10 +37247,10 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="M286" s="178" t="s">
+      <c r="M286" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N286" s="179"/>
+      <c r="N286" s="269"/>
       <c r="O286" s="2" t="s">
         <v>443</v>
       </c>
@@ -37338,7 +37339,7 @@
         <v>852</v>
       </c>
       <c r="U287" s="109" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="V287" s="109" t="s">
         <v>852</v>
@@ -37394,10 +37395,10 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="M288" s="176" t="s">
+      <c r="M288" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N288" s="177"/>
+      <c r="N288" s="285"/>
       <c r="O288" s="2" t="s">
         <v>425</v>
       </c>
@@ -37467,10 +37468,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M289" s="176" t="s">
+      <c r="M289" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N289" s="177"/>
+      <c r="N289" s="285"/>
       <c r="O289" s="2" t="s">
         <v>425</v>
       </c>
@@ -37537,10 +37538,10 @@
       <c r="L290" s="2">
         <v>183</v>
       </c>
-      <c r="M290" s="176" t="s">
+      <c r="M290" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N290" s="177"/>
+      <c r="N290" s="285"/>
       <c r="O290" s="2" t="s">
         <v>425</v>
       </c>
@@ -37704,7 +37705,7 @@
         <v>857</v>
       </c>
       <c r="U292" s="109" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="V292" s="109" t="s">
         <v>857</v>
@@ -37779,7 +37780,7 @@
         <v>858</v>
       </c>
       <c r="U293" s="109" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="V293" s="109" t="s">
         <v>858</v>
@@ -37835,10 +37836,10 @@
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="M294" s="176" t="s">
+      <c r="M294" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N294" s="177"/>
+      <c r="N294" s="285"/>
       <c r="O294" s="2" t="s">
         <v>425</v>
       </c>
@@ -37908,10 +37909,10 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="M295" s="176" t="s">
+      <c r="M295" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N295" s="177"/>
+      <c r="N295" s="285"/>
       <c r="O295" s="2" t="s">
         <v>425</v>
       </c>
@@ -37981,10 +37982,10 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="M296" s="176" t="s">
+      <c r="M296" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N296" s="177"/>
+      <c r="N296" s="285"/>
       <c r="O296" s="2" t="s">
         <v>425</v>
       </c>
@@ -38054,10 +38055,10 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="M297" s="188" t="s">
+      <c r="M297" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="N297" s="189"/>
+      <c r="N297" s="293"/>
       <c r="O297" s="2" t="s">
         <v>432</v>
       </c>
@@ -38071,7 +38072,7 @@
         <v>862</v>
       </c>
       <c r="U297" s="109" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="V297" s="109" t="s">
         <v>862</v>
@@ -38127,10 +38128,10 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="M298" s="188" t="s">
+      <c r="M298" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="N298" s="189"/>
+      <c r="N298" s="293"/>
       <c r="O298" s="2" t="s">
         <v>432</v>
       </c>
@@ -38275,10 +38276,10 @@
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="M300" s="166" t="s">
+      <c r="M300" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="N300" s="167"/>
+      <c r="N300" s="295"/>
       <c r="O300" s="2" t="s">
         <v>454</v>
       </c>
@@ -38348,10 +38349,10 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="M301" s="176" t="s">
+      <c r="M301" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N301" s="177"/>
+      <c r="N301" s="285"/>
       <c r="O301" s="2" t="s">
         <v>425</v>
       </c>
@@ -38421,10 +38422,10 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="M302" s="176" t="s">
+      <c r="M302" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N302" s="177"/>
+      <c r="N302" s="285"/>
       <c r="O302" s="2" t="s">
         <v>425</v>
       </c>
@@ -38963,7 +38964,7 @@
         <v>872</v>
       </c>
       <c r="U309" s="109" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="V309" s="109" t="s">
         <v>872</v>
@@ -39019,10 +39020,10 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="M310" s="184" t="s">
+      <c r="M310" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="185"/>
+      <c r="N310" s="297"/>
       <c r="O310" s="2" t="s">
         <v>427</v>
       </c>
@@ -39092,10 +39093,10 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="M311" s="184" t="s">
+      <c r="M311" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="185"/>
+      <c r="N311" s="297"/>
       <c r="O311" s="2" t="s">
         <v>427</v>
       </c>
@@ -39165,10 +39166,10 @@
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="M312" s="184" t="s">
+      <c r="M312" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="185"/>
+      <c r="N312" s="297"/>
       <c r="O312" s="2" t="s">
         <v>427</v>
       </c>
@@ -39238,10 +39239,10 @@
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="M313" s="184" t="s">
+      <c r="M313" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="185"/>
+      <c r="N313" s="297"/>
       <c r="O313" s="2" t="s">
         <v>427</v>
       </c>
@@ -39311,10 +39312,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M314" s="186" t="s">
+      <c r="M314" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="187"/>
+      <c r="N314" s="283"/>
       <c r="O314" s="2" t="s">
         <v>421</v>
       </c>
@@ -39384,10 +39385,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M315" s="186" t="s">
+      <c r="M315" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N315" s="187"/>
+      <c r="N315" s="283"/>
       <c r="O315" s="2" t="s">
         <v>421</v>
       </c>
@@ -39532,10 +39533,10 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="M317" s="180" t="s">
+      <c r="M317" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N317" s="181"/>
+      <c r="N317" s="301"/>
       <c r="O317" s="2" t="s">
         <v>426</v>
       </c>
@@ -39605,10 +39606,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M318" s="180" t="s">
+      <c r="M318" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N318" s="181"/>
+      <c r="N318" s="301"/>
       <c r="O318" s="2" t="s">
         <v>426</v>
       </c>
@@ -39828,10 +39829,10 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="M321" s="158" t="s">
+      <c r="M321" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N321" s="159"/>
+      <c r="N321" s="289"/>
       <c r="O321" s="2" t="s">
         <v>420</v>
       </c>
@@ -39845,7 +39846,7 @@
         <v>884</v>
       </c>
       <c r="U321" s="109" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="V321" s="109" t="s">
         <v>884</v>
@@ -39901,10 +39902,10 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="M322" s="158" t="s">
+      <c r="M322" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N322" s="159"/>
+      <c r="N322" s="289"/>
       <c r="O322" s="2" t="s">
         <v>420</v>
       </c>
@@ -40124,10 +40125,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M325" s="182" t="s">
+      <c r="M325" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="N325" s="183"/>
+      <c r="N325" s="287"/>
       <c r="O325" s="2" t="s">
         <v>418</v>
       </c>
@@ -40197,10 +40198,10 @@
         <f t="shared" si="17"/>
         <v>145</v>
       </c>
-      <c r="M326" s="162" t="s">
+      <c r="M326" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N326" s="163"/>
+      <c r="N326" s="299"/>
       <c r="O326" s="2" t="s">
         <v>434</v>
       </c>
@@ -40270,10 +40271,10 @@
         <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="M327" s="162" t="s">
+      <c r="M327" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N327" s="163"/>
+      <c r="N327" s="299"/>
       <c r="O327" s="2" t="s">
         <v>434</v>
       </c>
@@ -40343,10 +40344,10 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="M328" s="176" t="s">
+      <c r="M328" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N328" s="177"/>
+      <c r="N328" s="285"/>
       <c r="O328" s="2" t="s">
         <v>425</v>
       </c>
@@ -40416,10 +40417,10 @@
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="M329" s="160" t="s">
+      <c r="M329" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="N329" s="161"/>
+      <c r="N329" s="303"/>
       <c r="O329" s="2" t="s">
         <v>428</v>
       </c>
@@ -40583,7 +40584,7 @@
         <v>894</v>
       </c>
       <c r="U331" s="109" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="V331" s="109" t="s">
         <v>894</v>
@@ -40639,10 +40640,10 @@
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M332" s="178" t="s">
+      <c r="M332" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N332" s="179"/>
+      <c r="N332" s="269"/>
       <c r="O332" s="2" t="s">
         <v>443</v>
       </c>
@@ -40937,10 +40938,10 @@
         <f t="shared" si="17"/>
         <v>124</v>
       </c>
-      <c r="M336" s="176" t="s">
+      <c r="M336" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N336" s="177"/>
+      <c r="N336" s="285"/>
       <c r="O336" s="2" t="s">
         <v>425</v>
       </c>
@@ -41010,10 +41011,10 @@
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="M337" s="180" t="s">
+      <c r="M337" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N337" s="181"/>
+      <c r="N337" s="301"/>
       <c r="O337" s="2" t="s">
         <v>426</v>
       </c>
@@ -41383,10 +41384,10 @@
         <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="M342" s="158" t="s">
+      <c r="M342" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N342" s="159"/>
+      <c r="N342" s="289"/>
       <c r="O342" s="2" t="s">
         <v>420</v>
       </c>
@@ -41775,7 +41776,7 @@
         <v>910</v>
       </c>
       <c r="U347" s="109" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="V347" s="109" t="s">
         <v>910</v>
@@ -41981,10 +41982,10 @@
         <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="M350" s="158" t="s">
+      <c r="M350" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N350" s="159"/>
+      <c r="N350" s="289"/>
       <c r="O350" s="2" t="s">
         <v>420</v>
       </c>
@@ -41998,7 +41999,7 @@
         <v>913</v>
       </c>
       <c r="U350" s="109" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="V350" s="109" t="s">
         <v>913</v>
@@ -42054,10 +42055,10 @@
         <f t="shared" si="17"/>
         <v>242</v>
       </c>
-      <c r="M351" s="158" t="s">
+      <c r="M351" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N351" s="159"/>
+      <c r="N351" s="289"/>
       <c r="O351" s="2" t="s">
         <v>420</v>
       </c>
@@ -42074,7 +42075,7 @@
         <v>914</v>
       </c>
       <c r="U351" s="109" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="V351" s="109" t="s">
         <v>914</v>
@@ -42133,10 +42134,10 @@
         <f t="shared" si="17"/>
         <v>139</v>
       </c>
-      <c r="M352" s="176" t="s">
+      <c r="M352" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N352" s="177"/>
+      <c r="N352" s="285"/>
       <c r="O352" s="2" t="s">
         <v>425</v>
       </c>
@@ -42206,10 +42207,10 @@
         <f t="shared" si="17"/>
         <v>212</v>
       </c>
-      <c r="M353" s="176" t="s">
+      <c r="M353" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N353" s="177"/>
+      <c r="N353" s="285"/>
       <c r="O353" s="2" t="s">
         <v>425</v>
       </c>
@@ -42279,10 +42280,10 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M354" s="172" t="s">
+      <c r="M354" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N354" s="173"/>
+      <c r="N354" s="307"/>
       <c r="O354" s="2" t="s">
         <v>459</v>
       </c>
@@ -42352,10 +42353,10 @@
         <f t="shared" si="17"/>
         <v>127</v>
       </c>
-      <c r="M355" s="172" t="s">
+      <c r="M355" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N355" s="173"/>
+      <c r="N355" s="307"/>
       <c r="O355" s="2" t="s">
         <v>459</v>
       </c>
@@ -42369,7 +42370,7 @@
         <v>918</v>
       </c>
       <c r="U355" s="109" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="V355" s="109" t="s">
         <v>918</v>
@@ -42425,10 +42426,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M356" s="172" t="s">
+      <c r="M356" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N356" s="173"/>
+      <c r="N356" s="307"/>
       <c r="O356" s="2" t="s">
         <v>459</v>
       </c>
@@ -42498,10 +42499,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M357" s="172" t="s">
+      <c r="M357" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N357" s="173"/>
+      <c r="N357" s="307"/>
       <c r="O357" s="2" t="s">
         <v>459</v>
       </c>
@@ -42590,7 +42591,7 @@
         <v>921</v>
       </c>
       <c r="U358" s="109" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="V358" s="109" t="s">
         <v>921</v>
@@ -42646,10 +42647,10 @@
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="M359" s="162" t="s">
+      <c r="M359" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N359" s="163"/>
+      <c r="N359" s="299"/>
       <c r="O359" s="2" t="s">
         <v>434</v>
       </c>
@@ -42719,10 +42720,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="M360" s="174" t="s">
+      <c r="M360" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N360" s="175"/>
+      <c r="N360" s="291"/>
       <c r="O360" s="2" t="s">
         <v>457</v>
       </c>
@@ -42736,7 +42737,7 @@
         <v>923</v>
       </c>
       <c r="U360" s="109" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="V360" s="109" t="s">
         <v>923</v>
@@ -42792,10 +42793,10 @@
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="M361" s="162" t="s">
+      <c r="M361" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N361" s="163"/>
+      <c r="N361" s="299"/>
       <c r="O361" s="2" t="s">
         <v>434</v>
       </c>
@@ -42865,10 +42866,10 @@
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="M362" s="168" t="s">
+      <c r="M362" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N362" s="169"/>
+      <c r="N362" s="305"/>
       <c r="O362" s="2" t="s">
         <v>495</v>
       </c>
@@ -42938,10 +42939,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M363" s="168" t="s">
+      <c r="M363" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N363" s="169"/>
+      <c r="N363" s="305"/>
       <c r="O363" s="2" t="s">
         <v>495</v>
       </c>
@@ -43236,10 +43237,10 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="M367" s="158" t="s">
+      <c r="M367" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N367" s="159"/>
+      <c r="N367" s="289"/>
       <c r="O367" s="2" t="s">
         <v>420</v>
       </c>
@@ -43309,10 +43310,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M368" s="158" t="s">
+      <c r="M368" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N368" s="159"/>
+      <c r="N368" s="289"/>
       <c r="O368" s="2" t="s">
         <v>420</v>
       </c>
@@ -43382,10 +43383,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M369" s="158" t="s">
+      <c r="M369" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N369" s="159"/>
+      <c r="N369" s="289"/>
       <c r="O369" s="2" t="s">
         <v>420</v>
       </c>
@@ -43530,10 +43531,10 @@
         <f t="shared" si="17"/>
         <v>134</v>
       </c>
-      <c r="M371" s="158" t="s">
+      <c r="M371" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N371" s="159"/>
+      <c r="N371" s="289"/>
       <c r="O371" s="2" t="s">
         <v>420</v>
       </c>
@@ -43603,10 +43604,10 @@
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="M372" s="164" t="s">
+      <c r="M372" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="N372" s="165"/>
+      <c r="N372" s="309"/>
       <c r="O372" s="2" t="s">
         <v>450</v>
       </c>
@@ -43676,10 +43677,10 @@
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-      <c r="M373" s="164" t="s">
+      <c r="M373" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="N373" s="165"/>
+      <c r="N373" s="309"/>
       <c r="O373" s="2" t="s">
         <v>450</v>
       </c>
@@ -43768,7 +43769,7 @@
         <v>952</v>
       </c>
       <c r="U374" s="109" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="V374" s="109" t="s">
         <v>1327</v>
@@ -43993,7 +43994,7 @@
         <v>953</v>
       </c>
       <c r="U377" s="109" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="V377" s="109" t="s">
         <v>1328</v>
@@ -44049,10 +44050,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M378" s="166" t="s">
+      <c r="M378" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="N378" s="167"/>
+      <c r="N378" s="295"/>
       <c r="O378" s="2" t="s">
         <v>454</v>
       </c>
@@ -44066,7 +44067,7 @@
         <v>939</v>
       </c>
       <c r="U378" s="109" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="V378" s="109" t="s">
         <v>939</v>
@@ -44122,10 +44123,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M379" s="168" t="s">
+      <c r="M379" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N379" s="169"/>
+      <c r="N379" s="305"/>
       <c r="O379" s="2" t="s">
         <v>495</v>
       </c>
@@ -44139,7 +44140,7 @@
         <v>940</v>
       </c>
       <c r="U379" s="109" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="V379" s="109" t="s">
         <v>940</v>
@@ -44195,10 +44196,10 @@
         <f t="shared" si="17"/>
         <v>285</v>
       </c>
-      <c r="M380" s="170" t="s">
+      <c r="M380" s="310" t="s">
         <v>23</v>
       </c>
-      <c r="N380" s="171"/>
+      <c r="N380" s="311"/>
       <c r="O380" s="2" t="s">
         <v>498</v>
       </c>
@@ -44212,7 +44213,7 @@
         <v>941</v>
       </c>
       <c r="U380" s="109" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="V380" s="109" t="s">
         <v>941</v>
@@ -44287,7 +44288,7 @@
         <v>942</v>
       </c>
       <c r="U381" s="109" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="V381" s="109" t="s">
         <v>942</v>
@@ -44362,7 +44363,7 @@
         <v>943</v>
       </c>
       <c r="U382" s="109" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="V382" s="109" t="s">
         <v>943</v>
@@ -44415,10 +44416,10 @@
       <c r="L383" s="2">
         <v>251</v>
       </c>
-      <c r="M383" s="158" t="s">
+      <c r="M383" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N383" s="159"/>
+      <c r="N383" s="289"/>
       <c r="O383" s="2" t="s">
         <v>420</v>
       </c>
@@ -44435,7 +44436,7 @@
         <v>944</v>
       </c>
       <c r="U383" s="109" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="V383" s="109" t="s">
         <v>944</v>
@@ -44491,10 +44492,10 @@
       <c r="L384" s="2">
         <v>251</v>
       </c>
-      <c r="M384" s="160" t="s">
+      <c r="M384" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="N384" s="161"/>
+      <c r="N384" s="303"/>
       <c r="O384" s="2" t="s">
         <v>428</v>
       </c>
@@ -44508,7 +44509,7 @@
         <v>945</v>
       </c>
       <c r="U384" s="109" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="V384" s="109" t="s">
         <v>945</v>
@@ -44580,7 +44581,7 @@
         <v>954</v>
       </c>
       <c r="U385" s="109" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="V385" s="109" t="s">
         <v>1329</v>
@@ -44655,7 +44656,7 @@
         <v>946</v>
       </c>
       <c r="U386" s="109" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="V386" s="109" t="s">
         <v>946</v>
@@ -44676,7 +44677,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="157" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="C387" s="27">
         <v>50</v>
@@ -44711,10 +44712,10 @@
         <f t="shared" ref="L387:L445" si="19">ROUND((1+(H387-75)/500)*(ROUND(0.25*(7*MAX(G387,E387)+MIN(G387,E387)),0)),0)</f>
         <v>115</v>
       </c>
-      <c r="M387" s="162" t="s">
+      <c r="M387" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N387" s="163"/>
+      <c r="N387" s="299"/>
       <c r="O387" s="2" t="s">
         <v>434</v>
       </c>
@@ -44728,7 +44729,7 @@
         <v>955</v>
       </c>
       <c r="U387" s="109" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="V387" s="109" t="s">
         <v>1330</v>
@@ -44789,10 +44790,10 @@
       </c>
       <c r="N388" s="111"/>
       <c r="O388" s="96" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="P388" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T388" s="109" t="s">
         <v>2705</v>
@@ -44855,10 +44856,10 @@
       </c>
       <c r="N389" s="111"/>
       <c r="O389" s="107" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="P389" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T389" s="109" t="s">
         <v>2706</v>
@@ -44921,10 +44922,10 @@
         <v>19</v>
       </c>
       <c r="O390" s="107" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="P390" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T390" s="109" t="s">
         <v>2707</v>
@@ -44985,10 +44986,10 @@
       </c>
       <c r="N391" s="111"/>
       <c r="O391" s="96" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="P391" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T391" s="109" t="s">
         <v>2708</v>
@@ -45051,10 +45052,10 @@
         <v>20</v>
       </c>
       <c r="O392" s="2" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="P392" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T392" s="109" t="s">
         <v>2709</v>
@@ -45117,16 +45118,16 @@
         <v>20</v>
       </c>
       <c r="O393" s="2" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="P393" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T393" s="109" t="s">
         <v>2710</v>
       </c>
       <c r="U393" s="109" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="V393" s="109" t="s">
         <v>2710</v>
@@ -45181,10 +45182,10 @@
       </c>
       <c r="N394" s="111"/>
       <c r="O394" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="P394" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T394" s="109" t="s">
         <v>2711</v>
@@ -45245,10 +45246,10 @@
       </c>
       <c r="N395" s="111"/>
       <c r="O395" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="P395" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T395" s="109" t="s">
         <v>2712</v>
@@ -45311,10 +45312,10 @@
         <v>23</v>
       </c>
       <c r="O396" s="2" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="P396" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T396" s="109" t="s">
         <v>2713</v>
@@ -45377,10 +45378,10 @@
         <v>14</v>
       </c>
       <c r="O397" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T397" s="109" t="s">
         <v>2714</v>
@@ -45443,10 +45444,10 @@
         <v>14</v>
       </c>
       <c r="O398" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="P398" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T398" s="109" t="s">
         <v>2715</v>
@@ -45509,16 +45510,16 @@
         <v>14</v>
       </c>
       <c r="O399" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="P399" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T399" s="109" t="s">
         <v>2716</v>
       </c>
       <c r="U399" s="109" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="V399" s="109" t="s">
         <v>2716</v>
@@ -45573,10 +45574,10 @@
       </c>
       <c r="N400" s="111"/>
       <c r="O400" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="P400" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="T400" s="109" t="s">
         <v>2717</v>
@@ -45639,7 +45640,7 @@
         <v>15</v>
       </c>
       <c r="O401" s="2" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="T401" s="109" t="s">
         <v>2718</v>
@@ -45700,7 +45701,7 @@
       </c>
       <c r="N402" s="111"/>
       <c r="O402" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="T402" s="109" t="s">
         <v>2719</v>
@@ -45761,7 +45762,7 @@
       </c>
       <c r="N403" s="111"/>
       <c r="O403" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="T403" s="109" t="s">
         <v>2720</v>
@@ -45822,7 +45823,7 @@
       </c>
       <c r="N404" s="111"/>
       <c r="O404" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T404" s="109" t="s">
         <v>2721</v>
@@ -45883,7 +45884,7 @@
       </c>
       <c r="N405" s="111"/>
       <c r="O405" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T405" s="109" t="s">
         <v>2722</v>
@@ -45944,7 +45945,7 @@
       </c>
       <c r="N406" s="111"/>
       <c r="O406" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T406" s="109" t="s">
         <v>2723</v>
@@ -46007,7 +46008,7 @@
         <v>12</v>
       </c>
       <c r="O407" s="2" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="T407" s="109" t="s">
         <v>2724</v>
@@ -46070,7 +46071,7 @@
         <v>12</v>
       </c>
       <c r="O408" s="2" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="T408" s="109" t="s">
         <v>2725</v>
@@ -46131,7 +46132,7 @@
       </c>
       <c r="N409" s="111"/>
       <c r="O409" s="2" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="T409" s="109" t="s">
         <v>2726</v>
@@ -46192,7 +46193,7 @@
       </c>
       <c r="N410" s="111"/>
       <c r="O410" s="2" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="T410" s="109" t="s">
         <v>2727</v>
@@ -46255,7 +46256,7 @@
         <v>23</v>
       </c>
       <c r="O411" s="2" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="T411" s="109" t="s">
         <v>2728</v>
@@ -46318,7 +46319,7 @@
         <v>23</v>
       </c>
       <c r="O412" s="2" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="T412" s="109" t="s">
         <v>2729</v>
@@ -46379,7 +46380,7 @@
       </c>
       <c r="N413" s="111"/>
       <c r="O413" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="T413" s="109" t="s">
         <v>2730</v>
@@ -46400,7 +46401,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="94" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="C414" s="27">
         <v>60</v>
@@ -46442,7 +46443,7 @@
         <v>11</v>
       </c>
       <c r="O414" s="2" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="T414" s="109" t="s">
         <v>2731</v>
@@ -46505,7 +46506,7 @@
         <v>14</v>
       </c>
       <c r="O415" s="2" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="T415" s="109" t="s">
         <v>2732</v>
@@ -46568,7 +46569,7 @@
         <v>14</v>
       </c>
       <c r="O416" s="2" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="T416" s="109" t="s">
         <v>2733</v>
@@ -46631,7 +46632,7 @@
         <v>14</v>
       </c>
       <c r="O417" s="2" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="T417" s="109" t="s">
         <v>2734</v>
@@ -46692,13 +46693,13 @@
       </c>
       <c r="N418" s="111"/>
       <c r="O418" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T418" s="109" t="s">
         <v>2735</v>
       </c>
       <c r="U418" s="109" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="V418" s="109" t="s">
         <v>2735</v>
@@ -46753,7 +46754,7 @@
       </c>
       <c r="N419" s="111"/>
       <c r="O419" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T419" s="109" t="s">
         <v>2736</v>
@@ -46814,7 +46815,7 @@
       </c>
       <c r="N420" s="111"/>
       <c r="O420" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T420" s="109" t="s">
         <v>2737</v>
@@ -46875,7 +46876,7 @@
       </c>
       <c r="N421" s="111"/>
       <c r="O421" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T421" s="109" t="s">
         <v>2738</v>
@@ -46936,7 +46937,7 @@
       </c>
       <c r="N422" s="111"/>
       <c r="O422" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T422" s="109" t="s">
         <v>2739</v>
@@ -46997,7 +46998,7 @@
       </c>
       <c r="N423" s="111"/>
       <c r="O423" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T423" s="109" t="s">
         <v>2740</v>
@@ -47060,7 +47061,7 @@
         <v>19</v>
       </c>
       <c r="O424" s="2" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="T424" s="109" t="s">
         <v>2741</v>
@@ -47121,7 +47122,7 @@
       </c>
       <c r="N425" s="111"/>
       <c r="O425" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T425" s="109" t="s">
         <v>2742</v>
@@ -47184,7 +47185,7 @@
         <v>14</v>
       </c>
       <c r="O426" s="2" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="T426" s="109" t="s">
         <v>2743</v>
@@ -47247,7 +47248,7 @@
         <v>14</v>
       </c>
       <c r="O427" s="2" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="T427" s="109" t="s">
         <v>2744</v>
@@ -47308,7 +47309,7 @@
       </c>
       <c r="N428" s="111"/>
       <c r="O428" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T428" s="109" t="s">
         <v>2745</v>
@@ -47369,13 +47370,13 @@
       </c>
       <c r="N429" s="111"/>
       <c r="O429" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T429" s="109" t="s">
         <v>2746</v>
       </c>
       <c r="U429" s="109" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="V429" s="109" t="s">
         <v>2746</v>
@@ -47430,7 +47431,7 @@
       </c>
       <c r="N430" s="111"/>
       <c r="O430" s="2" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="T430" s="109" t="s">
         <v>2747</v>
@@ -47493,7 +47494,7 @@
         <v>14</v>
       </c>
       <c r="O431" s="2" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="T431" s="109" t="s">
         <v>2748</v>
@@ -47554,7 +47555,7 @@
       </c>
       <c r="N432" s="111"/>
       <c r="O432" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T432" s="109" t="s">
         <v>2749</v>
@@ -47615,7 +47616,7 @@
       </c>
       <c r="N433" s="111"/>
       <c r="O433" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T433" s="109" t="s">
         <v>2750</v>
@@ -47676,7 +47677,7 @@
       </c>
       <c r="N434" s="111"/>
       <c r="O434" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T434" s="109" t="s">
         <v>2751</v>
@@ -47739,7 +47740,7 @@
         <v>27</v>
       </c>
       <c r="O435" s="2" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="T435" s="109" t="s">
         <v>2752</v>
@@ -47802,7 +47803,7 @@
         <v>27</v>
       </c>
       <c r="O436" s="2" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="T436" s="109" t="s">
         <v>2753</v>
@@ -47865,7 +47866,7 @@
         <v>21</v>
       </c>
       <c r="O437" s="2" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="T437" s="109" t="s">
         <v>2754</v>
@@ -47928,7 +47929,7 @@
         <v>21</v>
       </c>
       <c r="O438" s="2" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="T438" s="109" t="s">
         <v>2755</v>
@@ -47989,13 +47990,13 @@
       </c>
       <c r="N439" s="111"/>
       <c r="O439" s="2" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="T439" s="109" t="s">
         <v>2756</v>
       </c>
       <c r="U439" s="109" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="V439" s="109" t="s">
         <v>2756</v>
@@ -48052,7 +48053,7 @@
         <v>30</v>
       </c>
       <c r="O440" s="2" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="T440" s="109" t="s">
         <v>2757</v>
@@ -48113,7 +48114,7 @@
       </c>
       <c r="N441" s="111"/>
       <c r="O441" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T441" s="109" t="s">
         <v>2758</v>
@@ -48176,7 +48177,7 @@
         <v>14</v>
       </c>
       <c r="O442" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="T442" s="109" t="s">
         <v>2759</v>
@@ -48239,7 +48240,7 @@
         <v>27</v>
       </c>
       <c r="O443" s="2" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="T443" s="109" t="s">
         <v>2760</v>
@@ -48302,7 +48303,7 @@
         <v>19</v>
       </c>
       <c r="O444" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="T444" s="109" t="s">
         <v>2761</v>
@@ -48365,7 +48366,7 @@
         <v>19</v>
       </c>
       <c r="O445" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="T445" s="109" t="s">
         <v>2762</v>
@@ -48428,13 +48429,13 @@
         <v>19</v>
       </c>
       <c r="O446" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="T446" s="109" t="s">
         <v>2763</v>
       </c>
       <c r="U446" s="109" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="V446" s="109" t="s">
         <v>2763</v>
@@ -48489,7 +48490,7 @@
       </c>
       <c r="N447" s="111"/>
       <c r="O447" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T447" s="109" t="s">
         <v>2764</v>
@@ -48550,7 +48551,7 @@
       </c>
       <c r="N448" s="111"/>
       <c r="O448" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T448" s="109" t="s">
         <v>2765</v>
@@ -48613,7 +48614,7 @@
         <v>23</v>
       </c>
       <c r="O449" s="2" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="T449" s="109" t="s">
         <v>2766</v>
@@ -48674,7 +48675,7 @@
       </c>
       <c r="N450" s="111"/>
       <c r="O450" s="2" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="T450" s="109" t="s">
         <v>2767</v>
@@ -48735,7 +48736,7 @@
       </c>
       <c r="N451" s="111"/>
       <c r="O451" s="2" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="T451" s="109" t="s">
         <v>2768</v>
@@ -48798,7 +48799,7 @@
         <v>16</v>
       </c>
       <c r="O452" s="2" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="T452" s="109" t="s">
         <v>2769</v>
@@ -48861,7 +48862,7 @@
         <v>27</v>
       </c>
       <c r="O453" s="2" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="T453" s="109" t="s">
         <v>2770</v>
@@ -48924,7 +48925,7 @@
         <v>20</v>
       </c>
       <c r="O454" s="2" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="T454" s="109" t="s">
         <v>2771</v>
@@ -48987,7 +48988,7 @@
         <v>20</v>
       </c>
       <c r="O455" s="2" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="T455" s="109" t="s">
         <v>2772</v>
@@ -49048,13 +49049,13 @@
       </c>
       <c r="N456" s="111"/>
       <c r="O456" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T456" s="109" t="s">
         <v>2773</v>
       </c>
       <c r="U456" s="109" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="V456" s="109" t="s">
         <v>2773</v>
@@ -49109,7 +49110,7 @@
       </c>
       <c r="N457" s="111"/>
       <c r="O457" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T457" s="109" t="s">
         <v>2774</v>
@@ -49170,7 +49171,7 @@
       </c>
       <c r="N458" s="111"/>
       <c r="O458" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T458" s="109" t="s">
         <v>2775</v>
@@ -49233,7 +49234,7 @@
         <v>14</v>
       </c>
       <c r="O459" s="2" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="T459" s="109" t="s">
         <v>2776</v>
@@ -49296,7 +49297,7 @@
         <v>11</v>
       </c>
       <c r="O460" s="2" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="T460" s="109" t="s">
         <v>2777</v>
@@ -49359,7 +49360,7 @@
         <v>11</v>
       </c>
       <c r="O461" s="2" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="T461" s="109" t="s">
         <v>2778</v>
@@ -49422,13 +49423,13 @@
         <v>24</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="T462" s="109" t="s">
         <v>2779</v>
       </c>
       <c r="U462" s="109" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="V462" s="109" t="s">
         <v>2779</v>
@@ -49485,13 +49486,13 @@
         <v>23</v>
       </c>
       <c r="O463" s="2" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="T463" s="109" t="s">
         <v>2780</v>
       </c>
       <c r="U463" s="109" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="V463" s="109" t="s">
         <v>2780</v>
@@ -49546,7 +49547,7 @@
       </c>
       <c r="N464" s="111"/>
       <c r="O464" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T464" s="109" t="s">
         <v>2781</v>
@@ -49609,7 +49610,7 @@
         <v>22</v>
       </c>
       <c r="O465" s="2" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="T465" s="109" t="s">
         <v>2782</v>
@@ -49670,7 +49671,7 @@
       </c>
       <c r="N466" s="111"/>
       <c r="O466" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T466" s="109" t="s">
         <v>2783</v>
@@ -49731,7 +49732,7 @@
       </c>
       <c r="N467" s="111"/>
       <c r="O467" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T467" s="109" t="s">
         <v>2784</v>
@@ -49792,7 +49793,7 @@
       </c>
       <c r="N468" s="111"/>
       <c r="O468" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="T468" s="109" t="s">
         <v>2785</v>
@@ -49855,13 +49856,13 @@
         <v>14</v>
       </c>
       <c r="O469" s="2" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="T469" s="109" t="s">
         <v>2786</v>
       </c>
       <c r="U469" s="109" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="V469" s="109" t="s">
         <v>2786</v>
@@ -49918,7 +49919,7 @@
         <v>14</v>
       </c>
       <c r="O470" s="2" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="T470" s="109" t="s">
         <v>2787</v>
@@ -49979,13 +49980,13 @@
       </c>
       <c r="N471" s="111"/>
       <c r="O471" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T471" s="109" t="s">
         <v>2788</v>
       </c>
       <c r="U471" s="109" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="V471" s="109" t="s">
         <v>2788</v>
@@ -50040,13 +50041,13 @@
       </c>
       <c r="N472" s="111"/>
       <c r="O472" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="T472" s="109" t="s">
         <v>2789</v>
       </c>
       <c r="U472" s="109" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="V472" s="109" t="s">
         <v>2789</v>
@@ -50103,7 +50104,7 @@
         <v>14</v>
       </c>
       <c r="O473" s="2" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="T473" s="109" t="s">
         <v>2790</v>
@@ -50166,13 +50167,13 @@
         <v>19</v>
       </c>
       <c r="O474" s="2" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="T474" s="109" t="s">
         <v>2791</v>
       </c>
       <c r="U474" s="109" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="V474" s="109" t="s">
         <v>2791</v>
@@ -50227,16 +50228,16 @@
       </c>
       <c r="N475" s="111"/>
       <c r="O475" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T475" s="109" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="U475" s="109" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="V475" s="109" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="Z475" s="110"/>
       <c r="AA475" s="109"/>
@@ -50290,13 +50291,13 @@
         <v>20</v>
       </c>
       <c r="O476" s="2" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="T476" s="109" t="s">
         <v>2792</v>
       </c>
       <c r="U476" s="109" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="V476" s="109" t="s">
         <v>2792</v>
@@ -50353,7 +50354,7 @@
         <v>23</v>
       </c>
       <c r="O477" s="2" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="T477" s="109" t="s">
         <v>2793</v>
@@ -50414,7 +50415,7 @@
       </c>
       <c r="N478" s="111"/>
       <c r="O478" s="2" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="T478" s="109" t="s">
         <v>2794</v>
@@ -50477,7 +50478,7 @@
         <v>25</v>
       </c>
       <c r="O479" s="2" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="T479" s="109" t="s">
         <v>2795</v>
@@ -50498,7 +50499,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="94" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="C480" s="27">
         <v>50</v>
@@ -50540,7 +50541,7 @@
         <v>25</v>
       </c>
       <c r="O480" s="2" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="T480" s="109" t="s">
         <v>2796</v>
@@ -50601,13 +50602,13 @@
       </c>
       <c r="N481" s="111"/>
       <c r="O481" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T481" s="109" t="s">
         <v>2797</v>
       </c>
       <c r="U481" s="109" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="V481" s="109" t="s">
         <v>2797</v>
@@ -50662,13 +50663,13 @@
       </c>
       <c r="N482" s="111"/>
       <c r="O482" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T482" s="109" t="s">
         <v>2798</v>
       </c>
       <c r="U482" s="109" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="V482" s="109" t="s">
         <v>2798</v>
@@ -50723,13 +50724,13 @@
       </c>
       <c r="N483" s="111"/>
       <c r="O483" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T483" s="109" t="s">
         <v>2799</v>
       </c>
       <c r="U483" s="109" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="V483" s="109" t="s">
         <v>2799</v>
@@ -50786,13 +50787,13 @@
         <v>26</v>
       </c>
       <c r="O484" s="2" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="T484" s="109" t="s">
         <v>2800</v>
       </c>
       <c r="U484" s="109" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="V484" s="109" t="s">
         <v>2800</v>
@@ -50849,13 +50850,13 @@
         <v>26</v>
       </c>
       <c r="O485" s="2" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="T485" s="109" t="s">
         <v>2801</v>
       </c>
       <c r="U485" s="109" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="V485" s="109" t="s">
         <v>2801</v>
@@ -50912,13 +50913,13 @@
         <v>23</v>
       </c>
       <c r="O486" s="2" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="T486" s="109" t="s">
         <v>2802</v>
       </c>
       <c r="U486" s="109" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="V486" s="109" t="s">
         <v>2802</v>
@@ -50973,13 +50974,13 @@
       </c>
       <c r="N487" s="111"/>
       <c r="O487" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T487" s="109" t="s">
         <v>2803</v>
       </c>
       <c r="U487" s="109" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="V487" s="109" t="s">
         <v>2803</v>
@@ -50994,7 +50995,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="94" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="C488" s="27">
         <v>150</v>
@@ -51036,13 +51037,13 @@
         <v>26</v>
       </c>
       <c r="O488" s="2" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="T488" s="109" t="s">
         <v>2804</v>
       </c>
       <c r="U488" s="109" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="V488" s="109" t="s">
         <v>2804</v>
@@ -51097,13 +51098,13 @@
       </c>
       <c r="N489" s="111"/>
       <c r="O489" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T489" s="109" t="s">
         <v>2805</v>
       </c>
       <c r="U489" s="109" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="V489" s="109" t="s">
         <v>2805</v>
@@ -51158,7 +51159,7 @@
       </c>
       <c r="N490" s="111"/>
       <c r="O490" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T490" s="109" t="s">
         <v>2806</v>
@@ -51219,7 +51220,7 @@
       </c>
       <c r="N491" s="111"/>
       <c r="O491" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T491" s="109" t="s">
         <v>2807</v>
@@ -51280,13 +51281,13 @@
       </c>
       <c r="N492" s="111"/>
       <c r="O492" s="2" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="T492" s="109" t="s">
         <v>2808</v>
       </c>
       <c r="U492" s="109" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="V492" s="109" t="s">
         <v>2808</v>
@@ -51301,7 +51302,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="94" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="C493" s="27">
         <v>100</v>
@@ -51341,13 +51342,13 @@
       </c>
       <c r="N493" s="111"/>
       <c r="O493" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T493" s="109" t="s">
         <v>2809</v>
       </c>
       <c r="U493" s="109" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="V493" s="109" t="s">
         <v>2809</v>
@@ -51402,13 +51403,13 @@
       </c>
       <c r="N494" s="111"/>
       <c r="O494" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T494" s="109" t="s">
         <v>2810</v>
       </c>
       <c r="U494" s="109" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="V494" s="109" t="s">
         <v>2810</v>
@@ -51465,13 +51466,13 @@
         <v>13</v>
       </c>
       <c r="O495" s="2" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="T495" s="109" t="s">
         <v>2811</v>
       </c>
       <c r="U495" s="109" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="V495" s="109" t="s">
         <v>2811</v>
@@ -51526,7 +51527,7 @@
       </c>
       <c r="N496" s="111"/>
       <c r="O496" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T496" s="109" t="s">
         <v>2812</v>
@@ -51587,7 +51588,7 @@
       </c>
       <c r="N497" s="111"/>
       <c r="O497" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T497" s="109" t="s">
         <v>2813</v>
@@ -51648,7 +51649,7 @@
       </c>
       <c r="N498" s="111"/>
       <c r="O498" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T498" s="109" t="s">
         <v>2814</v>
@@ -51709,7 +51710,7 @@
       </c>
       <c r="N499" s="111"/>
       <c r="O499" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="T499" s="109" t="s">
         <v>2815</v>
@@ -51772,7 +51773,7 @@
         <v>20</v>
       </c>
       <c r="O500" s="2" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="T500" s="109" t="s">
         <v>2816</v>
@@ -51835,13 +51836,13 @@
         <v>20</v>
       </c>
       <c r="O501" s="2" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="T501" s="109" t="s">
         <v>2817</v>
       </c>
       <c r="U501" s="109" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="V501" s="109" t="s">
         <v>2817</v>
@@ -51896,13 +51897,13 @@
       </c>
       <c r="N502" s="111"/>
       <c r="O502" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T502" s="109" t="s">
         <v>2818</v>
       </c>
       <c r="U502" s="109" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="V502" s="109" t="s">
         <v>2818</v>
@@ -51957,7 +51958,7 @@
       </c>
       <c r="N503" s="111"/>
       <c r="O503" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T503" s="109" t="s">
         <v>2819</v>
@@ -52018,7 +52019,7 @@
       </c>
       <c r="N504" s="111"/>
       <c r="O504" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T504" s="109" t="s">
         <v>2820</v>
@@ -52079,7 +52080,7 @@
       </c>
       <c r="N505" s="111"/>
       <c r="O505" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T505" s="109" t="s">
         <v>2821</v>
@@ -52140,7 +52141,7 @@
       </c>
       <c r="N506" s="111"/>
       <c r="O506" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T506" s="109" t="s">
         <v>2822</v>
@@ -52201,7 +52202,7 @@
       </c>
       <c r="N507" s="111"/>
       <c r="O507" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T507" s="109" t="s">
         <v>2823</v>
@@ -52262,7 +52263,7 @@
       </c>
       <c r="N508" s="111"/>
       <c r="O508" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T508" s="109" t="s">
         <v>2824</v>
@@ -52323,7 +52324,7 @@
       </c>
       <c r="N509" s="111"/>
       <c r="O509" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T509" s="109" t="s">
         <v>2825</v>
@@ -52384,7 +52385,7 @@
       </c>
       <c r="N510" s="111"/>
       <c r="O510" s="2" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="T510" s="109" t="s">
         <v>2826</v>
@@ -52445,7 +52446,7 @@
       </c>
       <c r="N511" s="111"/>
       <c r="O511" s="2" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="T511" s="109" t="s">
         <v>2827</v>
@@ -52506,7 +52507,7 @@
       </c>
       <c r="N512" s="111"/>
       <c r="O512" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T512" s="109" t="s">
         <v>2828</v>
@@ -52567,7 +52568,7 @@
       </c>
       <c r="N513" s="111"/>
       <c r="O513" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T513" s="109" t="s">
         <v>2829</v>
@@ -52628,7 +52629,7 @@
       </c>
       <c r="N514" s="111"/>
       <c r="O514" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="T514" s="109" t="s">
         <v>2830</v>
@@ -52689,7 +52690,7 @@
       </c>
       <c r="N515" s="111"/>
       <c r="O515" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="T515" s="109" t="s">
         <v>2831</v>
@@ -52750,7 +52751,7 @@
       </c>
       <c r="N516" s="111"/>
       <c r="O516" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T516" s="109" t="s">
         <v>2832</v>
@@ -52811,7 +52812,7 @@
       </c>
       <c r="N517" s="111"/>
       <c r="O517" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T517" s="109" t="s">
         <v>2833</v>
@@ -52872,7 +52873,7 @@
       </c>
       <c r="N518" s="111"/>
       <c r="O518" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T518" s="109" t="s">
         <v>2834</v>
@@ -52933,7 +52934,7 @@
       </c>
       <c r="N519" s="111"/>
       <c r="O519" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T519" s="109" t="s">
         <v>2835</v>
@@ -52996,7 +52997,7 @@
         <v>14</v>
       </c>
       <c r="O520" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="T520" s="109" t="s">
         <v>2836</v>
@@ -53059,7 +53060,7 @@
         <v>14</v>
       </c>
       <c r="O521" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="T521" s="109" t="s">
         <v>2837</v>
@@ -53122,13 +53123,13 @@
         <v>14</v>
       </c>
       <c r="O522" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="T522" s="109" t="s">
         <v>2838</v>
       </c>
       <c r="U522" s="109" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="V522" s="109" t="s">
         <v>2838</v>
@@ -53183,7 +53184,7 @@
       </c>
       <c r="N523" s="111"/>
       <c r="O523" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T523" s="109" t="s">
         <v>2839</v>
@@ -53244,7 +53245,7 @@
       </c>
       <c r="N524" s="111"/>
       <c r="O524" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T524" s="109" t="s">
         <v>2840</v>
@@ -53305,7 +53306,7 @@
       </c>
       <c r="N525" s="111"/>
       <c r="O525" s="2" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="T525" s="109" t="s">
         <v>2841</v>
@@ -53366,7 +53367,7 @@
       </c>
       <c r="N526" s="111"/>
       <c r="O526" s="2" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="T526" s="109" t="s">
         <v>2842</v>
@@ -53427,7 +53428,7 @@
       </c>
       <c r="N527" s="111"/>
       <c r="O527" s="2" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="T527" s="109" t="s">
         <v>2843</v>
@@ -53490,7 +53491,7 @@
         <v>14</v>
       </c>
       <c r="O528" s="2" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="T528" s="109" t="s">
         <v>2844</v>
@@ -53553,7 +53554,7 @@
         <v>14</v>
       </c>
       <c r="O529" s="2" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="T529" s="109" t="s">
         <v>2845</v>
@@ -53614,7 +53615,7 @@
       </c>
       <c r="N530" s="111"/>
       <c r="O530" s="2" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="T530" s="109" t="s">
         <v>2846</v>
@@ -53677,7 +53678,7 @@
         <v>23</v>
       </c>
       <c r="O531" s="2" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="T531" s="109" t="s">
         <v>2847</v>
@@ -53738,13 +53739,13 @@
       </c>
       <c r="N532" s="111"/>
       <c r="O532" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T532" s="109" t="s">
         <v>2848</v>
       </c>
       <c r="U532" s="109" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="V532" s="109" t="s">
         <v>2848</v>
@@ -53799,7 +53800,7 @@
       </c>
       <c r="N533" s="111"/>
       <c r="O533" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T533" s="109" t="s">
         <v>2849</v>
@@ -53860,7 +53861,7 @@
       </c>
       <c r="N534" s="111"/>
       <c r="O534" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T534" s="109" t="s">
         <v>2850</v>
@@ -53921,13 +53922,13 @@
       </c>
       <c r="N535" s="111"/>
       <c r="O535" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T535" s="109" t="s">
         <v>2851</v>
       </c>
       <c r="U535" s="109" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="V535" s="109" t="s">
         <v>2851</v>
@@ -53982,7 +53983,7 @@
       </c>
       <c r="N536" s="111"/>
       <c r="O536" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T536" s="109" t="s">
         <v>2852</v>
@@ -54045,7 +54046,7 @@
         <v>19</v>
       </c>
       <c r="O537" s="2" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="T537" s="109" t="s">
         <v>2853</v>
@@ -54108,7 +54109,7 @@
         <v>19</v>
       </c>
       <c r="O538" s="2" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="T538" s="109" t="s">
         <v>2854</v>
@@ -54169,7 +54170,7 @@
       </c>
       <c r="N539" s="111"/>
       <c r="O539" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T539" s="109" t="s">
         <v>2855</v>
@@ -54230,7 +54231,7 @@
       </c>
       <c r="N540" s="111"/>
       <c r="O540" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T540" s="109" t="s">
         <v>2856</v>
@@ -54293,7 +54294,7 @@
         <v>11</v>
       </c>
       <c r="O541" s="2" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="T541" s="109" t="s">
         <v>2857</v>
@@ -54356,7 +54357,7 @@
         <v>11</v>
       </c>
       <c r="O542" s="2" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="T542" s="109" t="s">
         <v>2858</v>
@@ -54419,7 +54420,7 @@
         <v>11</v>
       </c>
       <c r="O543" s="2" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="T543" s="109" t="s">
         <v>2859</v>
@@ -54482,7 +54483,7 @@
         <v>12</v>
       </c>
       <c r="O544" s="2" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="T544" s="109" t="s">
         <v>2860</v>
@@ -54545,7 +54546,7 @@
         <v>12</v>
       </c>
       <c r="O545" s="2" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="T545" s="109" t="s">
         <v>2861</v>
@@ -54608,7 +54609,7 @@
         <v>12</v>
       </c>
       <c r="O546" s="2" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="T546" s="109" t="s">
         <v>2862</v>
@@ -54671,7 +54672,7 @@
         <v>30</v>
       </c>
       <c r="O547" s="2" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="T547" s="109" t="s">
         <v>2863</v>
@@ -54734,13 +54735,13 @@
         <v>30</v>
       </c>
       <c r="O548" s="2" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="T548" s="109" t="s">
         <v>2864</v>
       </c>
       <c r="U548" s="109" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="V548" s="109" t="s">
         <v>2864</v>
@@ -54795,7 +54796,7 @@
       </c>
       <c r="N549" s="111"/>
       <c r="O549" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T549" s="109" t="s">
         <v>2865</v>
@@ -54856,13 +54857,13 @@
       </c>
       <c r="N550" s="111"/>
       <c r="O550" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T550" s="109" t="s">
         <v>2866</v>
       </c>
       <c r="U550" s="109" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="V550" s="109" t="s">
         <v>2866</v>
@@ -54917,7 +54918,7 @@
       </c>
       <c r="N551" s="111"/>
       <c r="O551" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T551" s="109" t="s">
         <v>2867</v>
@@ -54980,7 +54981,7 @@
         <v>27</v>
       </c>
       <c r="O552" s="2" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="T552" s="109" t="s">
         <v>2868</v>
@@ -55043,7 +55044,7 @@
         <v>27</v>
       </c>
       <c r="O553" s="2" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="T553" s="109" t="s">
         <v>2869</v>
@@ -55106,7 +55107,7 @@
         <v>27</v>
       </c>
       <c r="O554" s="2" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="T554" s="109" t="s">
         <v>2870</v>
@@ -55167,7 +55168,7 @@
       </c>
       <c r="N555" s="111"/>
       <c r="O555" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="T555" s="109" t="s">
         <v>2871</v>
@@ -55188,7 +55189,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="94" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="C556" s="27">
         <v>105</v>
@@ -55228,7 +55229,7 @@
       </c>
       <c r="N556" s="111"/>
       <c r="O556" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="T556" s="109" t="s">
         <v>2872</v>
@@ -55289,7 +55290,7 @@
       </c>
       <c r="N557" s="111"/>
       <c r="O557" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T557" s="109" t="s">
         <v>2873</v>
@@ -55352,7 +55353,7 @@
         <v>22</v>
       </c>
       <c r="O558" s="2" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="T558" s="109" t="s">
         <v>2874</v>
@@ -55415,7 +55416,7 @@
         <v>22</v>
       </c>
       <c r="O559" s="2" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="T559" s="109" t="s">
         <v>2875</v>
@@ -55478,7 +55479,7 @@
         <v>20</v>
       </c>
       <c r="O560" s="2" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="T560" s="109" t="s">
         <v>2876</v>
@@ -55541,13 +55542,13 @@
         <v>20</v>
       </c>
       <c r="O561" s="2" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="T561" s="109" t="s">
         <v>2877</v>
       </c>
       <c r="U561" s="109" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="V561" s="109" t="s">
         <v>2877</v>
@@ -55604,7 +55605,7 @@
         <v>14</v>
       </c>
       <c r="O562" s="2" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="T562" s="109" t="s">
         <v>2878</v>
@@ -55665,7 +55666,7 @@
       </c>
       <c r="N563" s="111"/>
       <c r="O563" s="2" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="T563" s="109" t="s">
         <v>2879</v>
@@ -55726,7 +55727,7 @@
       </c>
       <c r="N564" s="111"/>
       <c r="O564" s="2" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="T564" s="109" t="s">
         <v>2880</v>
@@ -55789,7 +55790,7 @@
         <v>22</v>
       </c>
       <c r="O565" s="2" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="T565" s="109" t="s">
         <v>2881</v>
@@ -55852,7 +55853,7 @@
         <v>22</v>
       </c>
       <c r="O566" s="2" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="T566" s="109" t="s">
         <v>2882</v>
@@ -55915,7 +55916,7 @@
         <v>14</v>
       </c>
       <c r="O567" s="2" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="T567" s="109" t="s">
         <v>2883</v>
@@ -55978,7 +55979,7 @@
         <v>14</v>
       </c>
       <c r="O568" s="2" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="T568" s="109" t="s">
         <v>2884</v>
@@ -56039,7 +56040,7 @@
       </c>
       <c r="N569" s="111"/>
       <c r="O569" s="2" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="T569" s="109" t="s">
         <v>2885</v>
@@ -56100,7 +56101,7 @@
       </c>
       <c r="N570" s="111"/>
       <c r="O570" s="2" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="T570" s="109" t="s">
         <v>2886</v>
@@ -56161,7 +56162,7 @@
       </c>
       <c r="N571" s="111"/>
       <c r="O571" s="2" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="T571" s="109" t="s">
         <v>2887</v>
@@ -56222,7 +56223,7 @@
       </c>
       <c r="N572" s="111"/>
       <c r="O572" s="2" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="T572" s="109" t="s">
         <v>2888</v>
@@ -56283,7 +56284,7 @@
       </c>
       <c r="N573" s="111"/>
       <c r="O573" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T573" s="109" t="s">
         <v>2889</v>
@@ -56344,7 +56345,7 @@
       </c>
       <c r="N574" s="111"/>
       <c r="O574" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T574" s="109" t="s">
         <v>2890</v>
@@ -56405,7 +56406,7 @@
       </c>
       <c r="N575" s="111"/>
       <c r="O575" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T575" s="109" t="s">
         <v>2891</v>
@@ -56466,7 +56467,7 @@
       </c>
       <c r="N576" s="111"/>
       <c r="O576" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T576" s="109" t="s">
         <v>2892</v>
@@ -56527,13 +56528,13 @@
       </c>
       <c r="N577" s="111"/>
       <c r="O577" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T577" s="109" t="s">
         <v>2893</v>
       </c>
       <c r="U577" s="109" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="V577" s="109" t="s">
         <v>2893</v>
@@ -56588,7 +56589,7 @@
       </c>
       <c r="N578" s="111"/>
       <c r="O578" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T578" s="109" t="s">
         <v>2894</v>
@@ -56649,7 +56650,7 @@
       </c>
       <c r="N579" s="111"/>
       <c r="O579" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T579" s="109" t="s">
         <v>2895</v>
@@ -56710,7 +56711,7 @@
       </c>
       <c r="N580" s="111"/>
       <c r="O580" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T580" s="109" t="s">
         <v>2896</v>
@@ -56773,7 +56774,7 @@
         <v>14</v>
       </c>
       <c r="O581" s="2" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="T581" s="109" t="s">
         <v>2897</v>
@@ -56836,7 +56837,7 @@
         <v>14</v>
       </c>
       <c r="O582" s="2" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="T582" s="109" t="s">
         <v>2898</v>
@@ -56897,7 +56898,7 @@
       </c>
       <c r="N583" s="111"/>
       <c r="O583" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="T583" s="109" t="s">
         <v>2899</v>
@@ -56958,7 +56959,7 @@
       </c>
       <c r="N584" s="111"/>
       <c r="O584" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="T584" s="109" t="s">
         <v>2900</v>
@@ -57019,13 +57020,13 @@
       </c>
       <c r="N585" s="111"/>
       <c r="O585" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="T585" s="109" t="s">
         <v>2901</v>
       </c>
       <c r="U585" s="109" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="V585" s="109" t="s">
         <v>2901</v>
@@ -57082,7 +57083,7 @@
         <v>11</v>
       </c>
       <c r="O586" s="2" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="T586" s="109" t="s">
         <v>2902</v>
@@ -57145,7 +57146,7 @@
         <v>11</v>
       </c>
       <c r="O587" s="2" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="T587" s="109" t="s">
         <v>2903</v>
@@ -57208,7 +57209,7 @@
         <v>14</v>
       </c>
       <c r="O588" s="2" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="T588" s="109" t="s">
         <v>2904</v>
@@ -57269,7 +57270,7 @@
       </c>
       <c r="N589" s="111"/>
       <c r="O589" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="T589" s="109" t="s">
         <v>2905</v>
@@ -57332,7 +57333,7 @@
         <v>23</v>
       </c>
       <c r="O590" s="2" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="T590" s="109" t="s">
         <v>2906</v>
@@ -57395,7 +57396,7 @@
         <v>12</v>
       </c>
       <c r="O591" s="2" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="T591" s="109" t="s">
         <v>2907</v>
@@ -57458,13 +57459,13 @@
         <v>12</v>
       </c>
       <c r="O592" s="2" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="T592" s="109" t="s">
         <v>2908</v>
       </c>
       <c r="U592" s="109" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="V592" s="109" t="s">
         <v>2908</v>
@@ -57521,7 +57522,7 @@
         <v>25</v>
       </c>
       <c r="O593" s="2" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="T593" s="109" t="s">
         <v>2909</v>
@@ -57584,13 +57585,13 @@
         <v>25</v>
       </c>
       <c r="O594" s="2" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="T594" s="109" t="s">
         <v>2910</v>
       </c>
       <c r="U594" s="109" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="V594" s="109" t="s">
         <v>2910</v>
@@ -57645,7 +57646,7 @@
       </c>
       <c r="N595" s="111"/>
       <c r="O595" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T595" s="109" t="s">
         <v>2911</v>
@@ -57708,7 +57709,7 @@
         <v>18</v>
       </c>
       <c r="O596" s="2" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="T596" s="109" t="s">
         <v>2912</v>
@@ -57771,7 +57772,7 @@
         <v>18</v>
       </c>
       <c r="O597" s="2" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="T597" s="109" t="s">
         <v>2913</v>
@@ -57834,7 +57835,7 @@
         <v>23</v>
       </c>
       <c r="O598" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="T598" s="109" t="s">
         <v>2914</v>
@@ -57897,13 +57898,13 @@
         <v>23</v>
       </c>
       <c r="O599" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="T599" s="109" t="s">
         <v>2915</v>
       </c>
       <c r="U599" s="109" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="V599" s="109" t="s">
         <v>2915</v>
@@ -57958,7 +57959,7 @@
       </c>
       <c r="N600" s="111"/>
       <c r="O600" s="2" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="T600" s="109" t="s">
         <v>2916</v>
@@ -58019,7 +58020,7 @@
       </c>
       <c r="N601" s="111"/>
       <c r="O601" s="2" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="T601" s="109" t="s">
         <v>2917</v>
@@ -58080,7 +58081,7 @@
       </c>
       <c r="N602" s="111"/>
       <c r="O602" s="2" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="T602" s="109" t="s">
         <v>2918</v>
@@ -58141,7 +58142,7 @@
       </c>
       <c r="N603" s="111"/>
       <c r="O603" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T603" s="109" t="s">
         <v>2919</v>
@@ -58202,7 +58203,7 @@
       </c>
       <c r="N604" s="111"/>
       <c r="O604" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T604" s="109" t="s">
         <v>2920</v>
@@ -58263,7 +58264,7 @@
       </c>
       <c r="N605" s="111"/>
       <c r="O605" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T605" s="109" t="s">
         <v>2921</v>
@@ -58324,7 +58325,7 @@
       </c>
       <c r="N606" s="111"/>
       <c r="O606" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T606" s="109" t="s">
         <v>2922</v>
@@ -58385,7 +58386,7 @@
       </c>
       <c r="N607" s="111"/>
       <c r="O607" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T607" s="109" t="s">
         <v>2923</v>
@@ -58448,7 +58449,7 @@
         <v>13</v>
       </c>
       <c r="O608" s="2" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="T608" s="109" t="s">
         <v>2924</v>
@@ -58511,7 +58512,7 @@
         <v>13</v>
       </c>
       <c r="O609" s="2" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="T609" s="109" t="s">
         <v>2925</v>
@@ -58574,13 +58575,13 @@
         <v>13</v>
       </c>
       <c r="O610" s="2" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="T610" s="109" t="s">
         <v>2926</v>
       </c>
       <c r="U610" s="109" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="V610" s="109" t="s">
         <v>2926</v>
@@ -58635,7 +58636,7 @@
       </c>
       <c r="N611" s="111"/>
       <c r="O611" s="2" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="T611" s="109" t="s">
         <v>2927</v>
@@ -58696,7 +58697,7 @@
       </c>
       <c r="N612" s="111"/>
       <c r="O612" s="2" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="T612" s="109" t="s">
         <v>2928</v>
@@ -58757,7 +58758,7 @@
       </c>
       <c r="N613" s="111"/>
       <c r="O613" s="2" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="T613" s="109" t="s">
         <v>2929</v>
@@ -58818,13 +58819,13 @@
       </c>
       <c r="N614" s="111"/>
       <c r="O614" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="T614" s="109" t="s">
         <v>2930</v>
       </c>
       <c r="U614" s="109" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="V614" s="109" t="s">
         <v>2930</v>
@@ -58879,7 +58880,7 @@
       </c>
       <c r="N615" s="111"/>
       <c r="O615" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="T615" s="109" t="s">
         <v>2931</v>
@@ -58940,7 +58941,7 @@
       </c>
       <c r="N616" s="111"/>
       <c r="O616" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="T616" s="109" t="s">
         <v>2932</v>
@@ -59001,7 +59002,7 @@
       </c>
       <c r="N617" s="111"/>
       <c r="O617" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="T617" s="109" t="s">
         <v>2933</v>
@@ -59062,7 +59063,7 @@
       </c>
       <c r="N618" s="111"/>
       <c r="O618" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="T618" s="109" t="s">
         <v>2934</v>
@@ -59125,7 +59126,7 @@
         <v>18</v>
       </c>
       <c r="O619" s="2" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="T619" s="109" t="s">
         <v>2935</v>
@@ -59186,7 +59187,7 @@
       </c>
       <c r="N620" s="111"/>
       <c r="O620" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T620" s="109" t="s">
         <v>2936</v>
@@ -59247,13 +59248,13 @@
       </c>
       <c r="N621" s="111"/>
       <c r="O621" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T621" s="109" t="s">
         <v>2937</v>
       </c>
       <c r="U621" s="109" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="V621" s="109" t="s">
         <v>2937</v>
@@ -59308,13 +59309,13 @@
       </c>
       <c r="N622" s="111"/>
       <c r="O622" s="2" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="T622" s="109" t="s">
         <v>2938</v>
       </c>
       <c r="U622" s="109" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="V622" s="109" t="s">
         <v>2938</v>
@@ -59371,7 +59372,7 @@
         <v>25</v>
       </c>
       <c r="O623" s="2" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="T623" s="109" t="s">
         <v>2939</v>
@@ -59434,7 +59435,7 @@
         <v>25</v>
       </c>
       <c r="O624" s="2" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="T624" s="109" t="s">
         <v>2940</v>
@@ -59497,7 +59498,7 @@
         <v>23</v>
       </c>
       <c r="O625" s="2" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="T625" s="109" t="s">
         <v>2941</v>
@@ -59560,13 +59561,13 @@
         <v>23</v>
       </c>
       <c r="O626" s="2" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="T626" s="109" t="s">
         <v>2942</v>
       </c>
       <c r="U626" s="109" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="V626" s="109" t="s">
         <v>2942</v>
@@ -59621,7 +59622,7 @@
       </c>
       <c r="N627" s="111"/>
       <c r="O627" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T627" s="109" t="s">
         <v>2943</v>
@@ -59684,7 +59685,7 @@
         <v>14</v>
       </c>
       <c r="O628" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="T628" s="109" t="s">
         <v>2944</v>
@@ -59747,7 +59748,7 @@
         <v>14</v>
       </c>
       <c r="O629" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="T629" s="109" t="s">
         <v>2945</v>
@@ -59810,7 +59811,7 @@
         <v>14</v>
       </c>
       <c r="O630" s="2" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="T630" s="109" t="s">
         <v>2946</v>
@@ -59873,7 +59874,7 @@
         <v>14</v>
       </c>
       <c r="O631" s="2" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="T631" s="109" t="s">
         <v>2947</v>
@@ -59934,13 +59935,13 @@
       </c>
       <c r="N632" s="111"/>
       <c r="O632" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="T632" s="109" t="s">
         <v>2948</v>
       </c>
       <c r="U632" s="109" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="V632" s="109" t="s">
         <v>2948</v>
@@ -59997,7 +59998,7 @@
         <v>23</v>
       </c>
       <c r="O633" s="2" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="T633" s="109" t="s">
         <v>2949</v>
@@ -60060,13 +60061,13 @@
         <v>26</v>
       </c>
       <c r="O634" s="2" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="T634" s="109" t="s">
         <v>2950</v>
       </c>
       <c r="U634" s="109" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="V634" s="109" t="s">
         <v>2950</v>
@@ -60123,13 +60124,13 @@
         <v>26</v>
       </c>
       <c r="O635" s="2" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="T635" s="109" t="s">
         <v>2951</v>
       </c>
       <c r="U635" s="109" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="V635" s="109" t="s">
         <v>2951</v>
@@ -60186,13 +60187,13 @@
         <v>26</v>
       </c>
       <c r="O636" s="2" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="T636" s="109" t="s">
         <v>2952</v>
       </c>
       <c r="U636" s="109" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="V636" s="109" t="s">
         <v>2952</v>
@@ -60249,7 +60250,7 @@
         <v>13</v>
       </c>
       <c r="O637" s="2" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="T637" s="109" t="s">
         <v>2953</v>
@@ -60312,13 +60313,13 @@
         <v>13</v>
       </c>
       <c r="O638" s="2" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="T638" s="109" t="s">
         <v>2954</v>
       </c>
       <c r="U638" s="109" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="V638" s="109" t="s">
         <v>2954</v>
@@ -60375,13 +60376,13 @@
         <v>20</v>
       </c>
       <c r="O639" s="2" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="T639" s="109" t="s">
         <v>2955</v>
       </c>
       <c r="U639" s="109" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="V639" s="109" t="s">
         <v>2955</v>
@@ -60438,13 +60439,13 @@
         <v>20</v>
       </c>
       <c r="O640" s="2" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="T640" s="109" t="s">
         <v>2956</v>
       </c>
       <c r="U640" s="109" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="V640" s="109" t="s">
         <v>2956</v>
@@ -60501,13 +60502,13 @@
         <v>20</v>
       </c>
       <c r="O641" s="2" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="T641" s="109" t="s">
         <v>2957</v>
       </c>
       <c r="U641" s="109" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="V641" s="109" t="s">
         <v>2957</v>
@@ -60518,7 +60519,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="94" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="C642" s="27">
         <v>79</v>
@@ -60558,13 +60559,13 @@
       </c>
       <c r="N642" s="111"/>
       <c r="O642" s="2" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="T642" s="109" t="s">
         <v>2958</v>
       </c>
       <c r="U642" s="109" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="V642" s="109" t="s">
         <v>2958</v>
@@ -60575,7 +60576,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="94" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="C643" s="27">
         <v>79</v>
@@ -60617,13 +60618,13 @@
         <v>14</v>
       </c>
       <c r="O643" s="2" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="T643" s="109" t="s">
         <v>2959</v>
       </c>
       <c r="U643" s="109" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="V643" s="109" t="s">
         <v>2959</v>
@@ -60676,13 +60677,13 @@
         <v>13</v>
       </c>
       <c r="O644" s="2" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="T644" s="109" t="s">
         <v>2960</v>
       </c>
       <c r="U644" s="109" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="V644" s="109" t="s">
         <v>2960</v>
@@ -60735,13 +60736,13 @@
         <v>18</v>
       </c>
       <c r="O645" s="2" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="T645" s="109" t="s">
         <v>2961</v>
       </c>
       <c r="U645" s="109" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="V645" s="109" t="s">
         <v>2961</v>
@@ -60752,7 +60753,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="94" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="C646" s="27">
         <v>89</v>
@@ -60794,13 +60795,13 @@
         <v>14</v>
       </c>
       <c r="O646" s="2" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="T646" s="109" t="s">
         <v>2962</v>
       </c>
       <c r="U646" s="109" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="V646" s="109" t="s">
         <v>2962</v>
@@ -60811,7 +60812,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="94" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="C647" s="27">
         <v>125</v>
@@ -60853,13 +60854,13 @@
         <v>24</v>
       </c>
       <c r="O647" s="2" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="T647" s="156" t="s">
         <v>2963</v>
       </c>
       <c r="U647" s="156" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="V647" s="156" t="s">
         <v>2963</v>
@@ -60912,13 +60913,13 @@
         <v>20</v>
       </c>
       <c r="O648" s="2" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="T648" s="156" t="s">
         <v>2964</v>
       </c>
       <c r="U648" s="156" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="V648" s="156" t="s">
         <v>2964</v>
@@ -60929,7 +60930,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="94" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="C649" s="27">
         <v>100</v>
@@ -60971,7 +60972,7 @@
         <v>21</v>
       </c>
       <c r="O649" s="2" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="T649" s="156" t="s">
         <v>2965</v>
@@ -61030,13 +61031,13 @@
         <v>23</v>
       </c>
       <c r="O650" s="2" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="T650" s="156" t="s">
         <v>2966</v>
       </c>
       <c r="U650" s="156" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="V650" s="156" t="s">
         <v>2966</v>
@@ -61087,7 +61088,7 @@
       </c>
       <c r="N651" s="141"/>
       <c r="O651" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="S651" s="110"/>
       <c r="T651" s="109" t="s">
@@ -61146,7 +61147,7 @@
       </c>
       <c r="N652" s="141"/>
       <c r="O652" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="S652" s="110"/>
       <c r="T652" s="109" t="s">
@@ -61207,7 +61208,7 @@
         <v>20</v>
       </c>
       <c r="O653" s="2" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="S653" s="110"/>
       <c r="T653" s="109" t="s">
@@ -61266,7 +61267,7 @@
       </c>
       <c r="N654" s="141"/>
       <c r="O654" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="S654" s="110"/>
       <c r="T654" s="109" t="s">
@@ -61325,7 +61326,7 @@
       </c>
       <c r="N655" s="141"/>
       <c r="O655" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="S655" s="110"/>
       <c r="T655" s="109" t="s">
@@ -61386,7 +61387,7 @@
         <v>21</v>
       </c>
       <c r="O656" s="2" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="S656" s="110"/>
       <c r="T656" s="109" t="s">
@@ -61445,7 +61446,7 @@
       </c>
       <c r="N657" s="141"/>
       <c r="O657" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="S657" s="110"/>
       <c r="T657" s="109" t="s">
@@ -61504,7 +61505,7 @@
       </c>
       <c r="N658" s="141"/>
       <c r="O658" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="S658" s="110"/>
       <c r="T658" s="109" t="s">
@@ -61565,14 +61566,14 @@
         <v>27</v>
       </c>
       <c r="O659" s="2" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="S659" s="110"/>
       <c r="T659" s="109" t="s">
         <v>2975</v>
       </c>
       <c r="U659" s="109" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="V659" s="109" t="s">
         <v>2975</v>
@@ -61624,7 +61625,7 @@
       </c>
       <c r="N660" s="141"/>
       <c r="O660" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="S660" s="110"/>
       <c r="T660" s="109" t="s">
@@ -61685,14 +61686,14 @@
         <v>19</v>
       </c>
       <c r="O661" s="2" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="S661" s="110"/>
       <c r="T661" s="109" t="s">
         <v>2977</v>
       </c>
       <c r="U661" s="109" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="V661" s="109" t="s">
         <v>2977</v>
@@ -61746,7 +61747,7 @@
         <v>14</v>
       </c>
       <c r="O662" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="S662" s="110"/>
       <c r="T662" s="109" t="s">
@@ -61807,7 +61808,7 @@
         <v>14</v>
       </c>
       <c r="O663" s="2" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="S663" s="110"/>
       <c r="T663" s="109" t="s">
@@ -61868,14 +61869,14 @@
         <v>14</v>
       </c>
       <c r="O664" s="2" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="S664" s="110"/>
       <c r="T664" s="109" t="s">
         <v>2980</v>
       </c>
       <c r="U664" s="109" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="V664" s="109" t="s">
         <v>2980</v>
@@ -61927,7 +61928,7 @@
       </c>
       <c r="N665" s="141"/>
       <c r="O665" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="S665" s="110"/>
       <c r="T665" s="109" t="s">
@@ -61986,7 +61987,7 @@
       </c>
       <c r="N666" s="141"/>
       <c r="O666" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="S666" s="110"/>
       <c r="T666" s="109" t="s">
@@ -62047,7 +62048,7 @@
         <v>14</v>
       </c>
       <c r="O667" s="2" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="S667" s="110"/>
       <c r="T667" s="109" t="s">
@@ -62108,7 +62109,7 @@
         <v>17</v>
       </c>
       <c r="O668" s="2" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="S668" s="110"/>
       <c r="T668" s="109" t="s">
@@ -62169,7 +62170,7 @@
         <v>17</v>
       </c>
       <c r="O669" s="2" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="S669" s="110"/>
       <c r="T669" s="109" t="s">
@@ -62228,7 +62229,7 @@
       </c>
       <c r="N670" s="141"/>
       <c r="O670" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="S670" s="110"/>
       <c r="T670" s="109" t="s">
@@ -62287,7 +62288,7 @@
       </c>
       <c r="N671" s="141"/>
       <c r="O671" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="S671" s="110"/>
       <c r="T671" s="109" t="s">
@@ -62346,7 +62347,7 @@
       </c>
       <c r="N672" s="141"/>
       <c r="O672" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="S672" s="110"/>
       <c r="T672" s="109" t="s">
@@ -62405,7 +62406,7 @@
       </c>
       <c r="N673" s="141"/>
       <c r="O673" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="S673" s="110"/>
       <c r="T673" s="109" t="s">
@@ -62464,7 +62465,7 @@
       </c>
       <c r="N674" s="141"/>
       <c r="O674" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="S674" s="110"/>
       <c r="T674" s="109" t="s">
@@ -62523,7 +62524,7 @@
       </c>
       <c r="N675" s="141"/>
       <c r="O675" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="S675" s="110"/>
       <c r="T675" s="109" t="s">
@@ -62584,7 +62585,7 @@
         <v>27</v>
       </c>
       <c r="O676" s="2" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="S676" s="110"/>
       <c r="T676" s="109" t="s">
@@ -62643,7 +62644,7 @@
       </c>
       <c r="N677" s="141"/>
       <c r="O677" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="S677" s="110"/>
       <c r="T677" s="109" t="s">
@@ -62702,7 +62703,7 @@
       </c>
       <c r="N678" s="141"/>
       <c r="O678" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="S678" s="110"/>
       <c r="T678" s="109" t="s">
@@ -62761,7 +62762,7 @@
       </c>
       <c r="N679" s="141"/>
       <c r="O679" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="S679" s="110"/>
       <c r="T679" s="109" t="s">
@@ -62822,7 +62823,7 @@
         <v>25</v>
       </c>
       <c r="O680" s="2" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="S680" s="110"/>
       <c r="T680" s="109" t="s">
@@ -62883,7 +62884,7 @@
         <v>25</v>
       </c>
       <c r="O681" s="2" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="S681" s="110"/>
       <c r="T681" s="109" t="s">
@@ -62902,7 +62903,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="98" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="C682" s="99">
         <v>60</v>
@@ -62944,14 +62945,14 @@
         <v>25</v>
       </c>
       <c r="O682" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="S682" s="110"/>
       <c r="T682" s="109" t="s">
         <v>2998</v>
       </c>
       <c r="U682" s="109" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="V682" s="109" t="s">
         <v>2998</v>
@@ -63003,7 +63004,7 @@
       </c>
       <c r="N683" s="141"/>
       <c r="O683" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="S683" s="110"/>
       <c r="T683" s="109" t="s">
@@ -63062,7 +63063,7 @@
       </c>
       <c r="N684" s="141"/>
       <c r="O684" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="S684" s="110"/>
       <c r="T684" s="109" t="s">
@@ -63121,7 +63122,7 @@
       </c>
       <c r="N685" s="141"/>
       <c r="O685" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="S685" s="110"/>
       <c r="T685" s="109" t="s">
@@ -63180,7 +63181,7 @@
       </c>
       <c r="N686" s="141"/>
       <c r="O686" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="S686" s="110"/>
       <c r="T686" s="109" t="s">
@@ -63241,7 +63242,7 @@
         <v>21</v>
       </c>
       <c r="O687" s="2" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="S687" s="110"/>
       <c r="T687" s="109" t="s">
@@ -63302,7 +63303,7 @@
         <v>21</v>
       </c>
       <c r="O688" s="2" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="S688" s="110"/>
       <c r="T688" s="109" t="s">
@@ -63363,7 +63364,7 @@
         <v>15</v>
       </c>
       <c r="O689" s="2" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="S689" s="110"/>
       <c r="T689" s="109" t="s">
@@ -63424,7 +63425,7 @@
         <v>15</v>
       </c>
       <c r="O690" s="2" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="S690" s="110"/>
       <c r="T690" s="109" t="s">
@@ -63485,7 +63486,7 @@
         <v>15</v>
       </c>
       <c r="O691" s="2" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="S691" s="110"/>
       <c r="T691" s="109" t="s">
@@ -63546,7 +63547,7 @@
         <v>26</v>
       </c>
       <c r="O692" s="2" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="S692" s="110"/>
       <c r="T692" s="109" t="s">
@@ -63605,7 +63606,7 @@
       </c>
       <c r="N693" s="141"/>
       <c r="O693" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="S693" s="110"/>
       <c r="T693" s="109" t="s">
@@ -63664,7 +63665,7 @@
       </c>
       <c r="N694" s="141"/>
       <c r="O694" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="S694" s="110"/>
       <c r="T694" s="109" t="s">
@@ -63725,7 +63726,7 @@
         <v>17</v>
       </c>
       <c r="O695" s="2" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="S695" s="110"/>
       <c r="T695" s="109" t="s">
@@ -63786,7 +63787,7 @@
         <v>17</v>
       </c>
       <c r="O696" s="2" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="S696" s="110"/>
       <c r="T696" s="109" t="s">
@@ -63847,7 +63848,7 @@
         <v>26</v>
       </c>
       <c r="O697" s="2" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="S697" s="110"/>
       <c r="T697" s="109" t="s">
@@ -63908,7 +63909,7 @@
         <v>26</v>
       </c>
       <c r="O698" s="2" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="S698" s="110"/>
       <c r="T698" s="109" t="s">
@@ -63969,7 +63970,7 @@
         <v>24</v>
       </c>
       <c r="O699" s="2" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="S699" s="110"/>
       <c r="T699" s="109" t="s">
@@ -64030,7 +64031,7 @@
         <v>24</v>
       </c>
       <c r="O700" s="2" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="S700" s="110"/>
       <c r="T700" s="109" t="s">
@@ -64089,14 +64090,14 @@
       </c>
       <c r="N701" s="141"/>
       <c r="O701" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="S701" s="110"/>
       <c r="T701" s="109" t="s">
         <v>3017</v>
       </c>
       <c r="U701" s="109" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="V701" s="109" t="s">
         <v>3017</v>
@@ -64150,14 +64151,14 @@
         <v>14</v>
       </c>
       <c r="O702" s="2" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="S702" s="110"/>
       <c r="T702" s="109" t="s">
         <v>3018</v>
       </c>
       <c r="U702" s="109" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="V702" s="109" t="s">
         <v>3018</v>
@@ -64211,7 +64212,7 @@
         <v>30</v>
       </c>
       <c r="O703" s="2" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="S703" s="110"/>
       <c r="T703" s="109" t="s">
@@ -64272,7 +64273,7 @@
         <v>30</v>
       </c>
       <c r="O704" s="2" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="S704" s="110"/>
       <c r="T704" s="109" t="s">
@@ -64331,7 +64332,7 @@
       </c>
       <c r="N705" s="141"/>
       <c r="O705" s="2" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="S705" s="110"/>
       <c r="T705" s="109" t="s">
@@ -64390,7 +64391,7 @@
       </c>
       <c r="N706" s="141"/>
       <c r="O706" s="2" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="S706" s="110"/>
       <c r="T706" s="109" t="s">
@@ -64449,14 +64450,14 @@
       </c>
       <c r="N707" s="141"/>
       <c r="O707" s="2" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="S707" s="110"/>
       <c r="T707" s="109" t="s">
         <v>3023</v>
       </c>
       <c r="U707" s="109" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="V707" s="109" t="s">
         <v>3023</v>
@@ -64510,14 +64511,14 @@
         <v>30</v>
       </c>
       <c r="O708" s="2" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="S708" s="110"/>
       <c r="T708" s="109" t="s">
         <v>3024</v>
       </c>
       <c r="U708" s="109" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="V708" s="109" t="s">
         <v>3024</v>
@@ -64571,7 +64572,7 @@
         <v>11</v>
       </c>
       <c r="O709" s="2" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="S709" s="110"/>
       <c r="T709" s="109" t="s">
@@ -64632,7 +64633,7 @@
         <v>11</v>
       </c>
       <c r="O710" s="2" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="S710" s="110"/>
       <c r="T710" s="109" t="s">
@@ -64651,7 +64652,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="94" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="C711" s="27">
         <v>59</v>
@@ -64693,7 +64694,7 @@
         <v>11</v>
       </c>
       <c r="O711" s="2" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="S711" s="110"/>
       <c r="T711" s="109" t="s">
@@ -64712,7 +64713,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="94" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="C712" s="27">
         <v>85</v>
@@ -64754,7 +64755,7 @@
         <v>11</v>
       </c>
       <c r="O712" s="2" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="S712" s="110"/>
       <c r="T712" s="109" t="s">
@@ -64813,7 +64814,7 @@
       </c>
       <c r="N713" s="141"/>
       <c r="O713" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="S713" s="110"/>
       <c r="T713" s="109" t="s">
@@ -64872,14 +64873,14 @@
       </c>
       <c r="N714" s="141"/>
       <c r="O714" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="S714" s="110"/>
       <c r="T714" s="109" t="s">
         <v>3030</v>
       </c>
       <c r="U714" s="109" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="V714" s="109" t="s">
         <v>3030</v>
@@ -64933,7 +64934,7 @@
         <v>26</v>
       </c>
       <c r="O715" s="2" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="S715" s="110"/>
       <c r="T715" s="109" t="s">
@@ -64994,7 +64995,7 @@
         <v>26</v>
       </c>
       <c r="O716" s="2" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="T716" s="109" t="s">
         <v>3032</v>
@@ -65051,13 +65052,13 @@
       </c>
       <c r="N717" s="143"/>
       <c r="O717" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="T717" s="109" t="s">
         <v>3033</v>
       </c>
       <c r="U717" s="109" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="V717" s="109" t="s">
         <v>3033</v>
@@ -65110,13 +65111,13 @@
         <v>14</v>
       </c>
       <c r="O718" s="2" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="T718" s="109" t="s">
         <v>3034</v>
       </c>
       <c r="U718" s="109" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="V718" s="109" t="s">
         <v>3034</v>
@@ -65169,13 +65170,13 @@
         <v>19</v>
       </c>
       <c r="O719" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="T719" s="109" t="s">
         <v>3035</v>
       </c>
       <c r="U719" s="109" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="V719" s="109" t="s">
         <v>3035</v>
@@ -65228,13 +65229,13 @@
         <v>30</v>
       </c>
       <c r="O720" s="2" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="T720" s="109" t="s">
         <v>3036</v>
       </c>
       <c r="U720" s="109" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="V720" s="109" t="s">
         <v>3036</v>
@@ -65245,7 +65246,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="94" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="C721" s="27">
         <v>80</v>
@@ -65287,7 +65288,7 @@
         <v>25</v>
       </c>
       <c r="O721" s="2" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="T721" s="109" t="s">
         <v>3037</v>
@@ -65346,13 +65347,13 @@
         <v>15</v>
       </c>
       <c r="O722" s="2" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="T722" s="109" t="s">
         <v>3038</v>
       </c>
       <c r="U722" s="109" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="V722" s="109" t="s">
         <v>3038</v>
@@ -65406,13 +65407,13 @@
         <v>14</v>
       </c>
       <c r="O723" s="2" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="T723" s="109" t="s">
         <v>3040</v>
       </c>
       <c r="U723" s="109" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="V723" s="109" t="s">
         <v>3040</v>
@@ -65468,7 +65469,7 @@
         <v>14</v>
       </c>
       <c r="O724" s="2" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="T724" s="109" t="s">
         <v>3041</v>
@@ -65530,7 +65531,7 @@
         <v>25</v>
       </c>
       <c r="O725" s="2" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="T725" s="109" t="s">
         <v>3042</v>
@@ -65590,7 +65591,7 @@
       </c>
       <c r="N726" s="122"/>
       <c r="O726" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="T726" s="109" t="s">
         <v>3043</v>
@@ -65650,7 +65651,7 @@
       </c>
       <c r="N727" s="122"/>
       <c r="O727" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="T727" s="109" t="s">
         <v>3044</v>
@@ -65712,13 +65713,13 @@
         <v>27</v>
       </c>
       <c r="O728" s="2" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="T728" s="109" t="s">
         <v>3045</v>
       </c>
       <c r="U728" s="109" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="V728" s="109" t="s">
         <v>3045</v>
@@ -65772,7 +65773,7 @@
       </c>
       <c r="N729" s="122"/>
       <c r="O729" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T729" s="109" t="s">
         <v>3046</v>
@@ -65832,7 +65833,7 @@
       </c>
       <c r="N730" s="122"/>
       <c r="O730" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T730" s="109" t="s">
         <v>3047</v>
@@ -65894,13 +65895,13 @@
         <v>30</v>
       </c>
       <c r="O731" s="2" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="T731" s="109" t="s">
         <v>3048</v>
       </c>
       <c r="U731" s="109" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="V731" s="109" t="s">
         <v>3048</v>
@@ -65956,7 +65957,7 @@
         <v>14</v>
       </c>
       <c r="O732" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="T732" s="109" t="s">
         <v>3049</v>
@@ -66018,7 +66019,7 @@
         <v>14</v>
       </c>
       <c r="O733" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="T733" s="109" t="s">
         <v>3050</v>
@@ -66080,7 +66081,7 @@
         <v>14</v>
       </c>
       <c r="O734" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="T734" s="109" t="s">
         <v>3051</v>
@@ -66140,7 +66141,7 @@
       </c>
       <c r="N735" s="122"/>
       <c r="O735" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T735" s="109" t="s">
         <v>3052</v>
@@ -66200,13 +66201,13 @@
       </c>
       <c r="N736" s="122"/>
       <c r="O736" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T736" s="109" t="s">
         <v>3053</v>
       </c>
       <c r="U736" s="109" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="V736" s="109" t="s">
         <v>3053</v>
@@ -66260,7 +66261,7 @@
       </c>
       <c r="N737" s="122"/>
       <c r="O737" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="T737" s="109" t="s">
         <v>3054</v>
@@ -66322,7 +66323,7 @@
         <v>18</v>
       </c>
       <c r="O738" s="2" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="T738" s="109" t="s">
         <v>3055</v>
@@ -66384,7 +66385,7 @@
         <v>18</v>
       </c>
       <c r="O739" s="2" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="T739" s="109" t="s">
         <v>3056</v>
@@ -66444,7 +66445,7 @@
       </c>
       <c r="N740" s="122"/>
       <c r="O740" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T740" s="109" t="s">
         <v>3057</v>
@@ -66506,10 +66507,10 @@
         <v>24</v>
       </c>
       <c r="O741" s="2" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="T741" s="109" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="U741" s="109" t="s">
         <v>3058</v>
@@ -66568,7 +66569,7 @@
         <v>14</v>
       </c>
       <c r="O742" s="2" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="T742" s="109" t="s">
         <v>3059</v>
@@ -66630,7 +66631,7 @@
         <v>30</v>
       </c>
       <c r="O743" s="2" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="T743" s="109" t="s">
         <v>3060</v>
@@ -66692,7 +66693,7 @@
         <v>30</v>
       </c>
       <c r="O744" s="2" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="T744" s="109" t="s">
         <v>3061</v>
@@ -66752,7 +66753,7 @@
       </c>
       <c r="N745" s="122"/>
       <c r="O745" s="2" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="T745" s="109" t="s">
         <v>3062</v>
@@ -66771,7 +66772,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="122" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="C746" s="120">
         <v>75</v>
@@ -66812,7 +66813,7 @@
       </c>
       <c r="N746" s="122"/>
       <c r="O746" s="2" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="T746" s="109" t="s">
         <v>3063</v>
@@ -66831,7 +66832,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="122" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="C747" s="114">
         <v>45</v>
@@ -66872,7 +66873,7 @@
       </c>
       <c r="N747" s="122"/>
       <c r="O747" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T747" s="109" t="s">
         <v>3064</v>
@@ -66934,7 +66935,7 @@
         <v>15</v>
       </c>
       <c r="O748" s="2" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="T748" s="109" t="s">
         <v>3065</v>
@@ -66996,7 +66997,7 @@
         <v>15</v>
       </c>
       <c r="O749" s="2" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="T749" s="109" t="s">
         <v>3066</v>
@@ -67056,7 +67057,7 @@
       </c>
       <c r="N750" s="122"/>
       <c r="O750" s="2" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="T750" s="109" t="s">
         <v>3067</v>
@@ -67116,7 +67117,7 @@
       </c>
       <c r="N751" s="122"/>
       <c r="O751" s="2" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="T751" s="109" t="s">
         <v>3068</v>
@@ -67178,7 +67179,7 @@
         <v>16</v>
       </c>
       <c r="O752" s="2" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="T752" s="109" t="s">
         <v>3069</v>
@@ -67240,7 +67241,7 @@
         <v>16</v>
       </c>
       <c r="O753" s="2" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="T753" s="109" t="s">
         <v>3070</v>
@@ -67300,7 +67301,7 @@
       </c>
       <c r="N754" s="122"/>
       <c r="O754" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T754" s="109" t="s">
         <v>3071</v>
@@ -67360,7 +67361,7 @@
       </c>
       <c r="N755" s="122"/>
       <c r="O755" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T755" s="109" t="s">
         <v>3072</v>
@@ -67422,7 +67423,7 @@
         <v>30</v>
       </c>
       <c r="O756" s="2" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="T756" s="109" t="s">
         <v>3073</v>
@@ -67484,7 +67485,7 @@
         <v>30</v>
       </c>
       <c r="O757" s="2" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="T757" s="109" t="s">
         <v>3074</v>
@@ -67546,7 +67547,7 @@
         <v>13</v>
       </c>
       <c r="O758" s="2" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="T758" s="109" t="s">
         <v>3075</v>
@@ -67608,13 +67609,13 @@
         <v>13</v>
       </c>
       <c r="O759" s="2" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="T759" s="109" t="s">
         <v>3076</v>
       </c>
       <c r="U759" s="109" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="V759" s="109" t="s">
         <v>3076</v>
@@ -67670,7 +67671,7 @@
         <v>20</v>
       </c>
       <c r="O760" s="2" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="T760" s="109" t="s">
         <v>3077</v>
@@ -67732,7 +67733,7 @@
         <v>20</v>
       </c>
       <c r="O761" s="2" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="T761" s="109" t="s">
         <v>3078</v>
@@ -67792,7 +67793,7 @@
       </c>
       <c r="N762" s="122"/>
       <c r="O762" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T762" s="109" t="s">
         <v>3079</v>
@@ -67852,7 +67853,7 @@
       </c>
       <c r="N763" s="122"/>
       <c r="O763" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T763" s="109" t="s">
         <v>3080</v>
@@ -67912,7 +67913,7 @@
       </c>
       <c r="N764" s="122"/>
       <c r="O764" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="T764" s="109" t="s">
         <v>3081</v>
@@ -67972,7 +67973,7 @@
       </c>
       <c r="N765" s="122"/>
       <c r="O765" s="2" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="T765" s="109" t="s">
         <v>3082</v>
@@ -68034,7 +68035,7 @@
         <v>21</v>
       </c>
       <c r="O766" s="2" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="T766" s="109" t="s">
         <v>3083</v>
@@ -68094,7 +68095,7 @@
       </c>
       <c r="N767" s="122"/>
       <c r="O767" s="2" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="T767" s="109" t="s">
         <v>3084</v>
@@ -68156,7 +68157,7 @@
         <v>15</v>
       </c>
       <c r="O768" s="2" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="T768" s="109" t="s">
         <v>3085</v>
@@ -68218,7 +68219,7 @@
         <v>15</v>
       </c>
       <c r="O769" s="2" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="T769" s="109" t="s">
         <v>3086</v>
@@ -68280,7 +68281,7 @@
         <v>19</v>
       </c>
       <c r="O770" s="2" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="T770" s="109" t="s">
         <v>3087</v>
@@ -68342,7 +68343,7 @@
         <v>19</v>
       </c>
       <c r="O771" s="2" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="T771" s="109" t="s">
         <v>3088</v>
@@ -68402,7 +68403,7 @@
       </c>
       <c r="N772" s="122"/>
       <c r="O772" s="2" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="T772" s="109" t="s">
         <v>3089</v>
@@ -68462,13 +68463,13 @@
       </c>
       <c r="N773" s="122"/>
       <c r="O773" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T773" s="109" t="s">
         <v>3090</v>
       </c>
       <c r="U773" s="109" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="V773" s="109" t="s">
         <v>3090</v>
@@ -68522,7 +68523,7 @@
       </c>
       <c r="N774" s="122"/>
       <c r="O774" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T774" s="109" t="s">
         <v>3091</v>
@@ -68541,7 +68542,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="122" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="C775" s="114">
         <v>60</v>
@@ -68584,7 +68585,7 @@
         <v>14</v>
       </c>
       <c r="O775" s="2" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="T775" s="109" t="s">
         <v>3092</v>
@@ -68644,7 +68645,7 @@
       </c>
       <c r="N776" s="122"/>
       <c r="O776" s="2" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="T776" s="109" t="s">
         <v>3093</v>
@@ -68706,7 +68707,7 @@
         <v>26</v>
       </c>
       <c r="O777" s="2" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="T777" s="109" t="s">
         <v>3094</v>
@@ -68768,7 +68769,7 @@
         <v>23</v>
       </c>
       <c r="O778" s="2" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="T778" s="109" t="s">
         <v>3095</v>
@@ -68830,16 +68831,16 @@
         <v>30</v>
       </c>
       <c r="O779" s="2" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="T779" s="109" t="s">
-        <v>3096</v>
+        <v>3474</v>
       </c>
       <c r="U779" s="109" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="V779" s="109" t="s">
-        <v>3096</v>
+        <v>3474</v>
       </c>
       <c r="W779" s="109"/>
       <c r="X779" s="109"/>
@@ -68892,16 +68893,16 @@
         <v>21</v>
       </c>
       <c r="O780" s="2" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="T780" s="109" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="U780" s="109" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="V780" s="109" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="W780" s="109"/>
       <c r="X780" s="109"/>
@@ -68954,16 +68955,16 @@
         <v>26</v>
       </c>
       <c r="O781" s="2" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="T781" s="109" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="U781" s="109" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="V781" s="109" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="W781" s="109"/>
       <c r="X781" s="109"/>
@@ -69016,16 +69017,16 @@
         <v>11</v>
       </c>
       <c r="O782" s="2" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="T782" s="109" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="U782" s="109" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="V782" s="109" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="W782" s="109"/>
       <c r="X782" s="109"/>
@@ -69076,16 +69077,16 @@
       </c>
       <c r="N783" s="122"/>
       <c r="O783" s="2" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="T783" s="109" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="U783" s="109" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="V783" s="109" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="W783" s="109"/>
       <c r="X783" s="109"/>
@@ -69138,16 +69139,16 @@
         <v>20</v>
       </c>
       <c r="O784" s="2" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="T784" s="109" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="U784" s="109" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="V784" s="109" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="W784" s="109"/>
       <c r="X784" s="109"/>
@@ -69200,16 +69201,16 @@
         <v>20</v>
       </c>
       <c r="O785" s="2" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="T785" s="109" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="U785" s="109" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="V785" s="109" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="W785" s="109"/>
       <c r="X785" s="109"/>
@@ -69262,16 +69263,16 @@
         <v>30</v>
       </c>
       <c r="O786" s="2" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="T786" s="109" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="U786" s="109" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="V786" s="109" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="W786" s="109"/>
       <c r="X786" s="109"/>
@@ -69324,16 +69325,16 @@
         <v>30</v>
       </c>
       <c r="O787" s="2" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="T787" s="109" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="U787" s="109" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="V787" s="109" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="W787" s="109"/>
       <c r="X787" s="109"/>
@@ -69386,16 +69387,16 @@
         <v>30</v>
       </c>
       <c r="O788" s="2" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="T788" s="109" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="U788" s="109" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="V788" s="109" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="W788" s="109"/>
       <c r="X788" s="109"/>
@@ -69448,16 +69449,16 @@
         <v>30</v>
       </c>
       <c r="O789" s="2" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="T789" s="109" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="U789" s="109" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="V789" s="109" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="W789" s="109"/>
       <c r="X789" s="109"/>
@@ -69508,16 +69509,16 @@
       </c>
       <c r="N790" s="122"/>
       <c r="O790" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T790" s="109" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="U790" s="109" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="V790" s="109" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="W790" s="109"/>
       <c r="X790" s="109"/>
@@ -69568,16 +69569,16 @@
       </c>
       <c r="N791" s="122"/>
       <c r="O791" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T791" s="109" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="U791" s="109" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="V791" s="109" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="W791" s="109"/>
       <c r="X791" s="109"/>
@@ -69630,16 +69631,16 @@
         <v>23</v>
       </c>
       <c r="O792" s="2" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="T792" s="109" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="U792" s="109" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="V792" s="109" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="W792" s="109"/>
       <c r="X792" s="109"/>
@@ -69692,16 +69693,16 @@
         <v>25</v>
       </c>
       <c r="O793" s="2" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="T793" s="109" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="U793" s="109" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="V793" s="109" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="W793" s="109"/>
       <c r="X793" s="109"/>
@@ -69754,16 +69755,16 @@
         <v>12</v>
       </c>
       <c r="O794" s="2" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="T794" s="109" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="U794" s="109" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="V794" s="109" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="W794" s="109"/>
       <c r="X794" s="109"/>
@@ -69816,16 +69817,16 @@
         <v>20</v>
       </c>
       <c r="O795" s="2" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="T795" s="109" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="U795" s="109" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="V795" s="109" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="W795" s="109"/>
       <c r="X795" s="109"/>
@@ -69878,16 +69879,16 @@
         <v>20</v>
       </c>
       <c r="O796" s="2" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="T796" s="109" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="U796" s="109" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="V796" s="109" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="W796" s="109"/>
       <c r="X796" s="109"/>
@@ -69938,16 +69939,16 @@
       </c>
       <c r="N797" s="122"/>
       <c r="O797" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T797" s="109" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="U797" s="109" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="V797" s="109" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="W797" s="109"/>
       <c r="X797" s="109"/>
@@ -70000,16 +70001,16 @@
         <v>14</v>
       </c>
       <c r="O798" s="2" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="T798" s="109" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="U798" s="109" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="V798" s="109" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="W798" s="109"/>
       <c r="X798" s="109"/>
@@ -70062,16 +70063,16 @@
         <v>23</v>
       </c>
       <c r="O799" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="T799" s="109" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="U799" s="109" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="V799" s="109" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="W799" s="109"/>
       <c r="X799" s="109"/>
@@ -70124,16 +70125,16 @@
         <v>26</v>
       </c>
       <c r="O800" s="2" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="T800" s="109" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="U800" s="109" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="V800" s="109" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="W800" s="109"/>
       <c r="X800" s="109"/>
@@ -70184,16 +70185,16 @@
       </c>
       <c r="N801" s="122"/>
       <c r="O801" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="T801" s="109" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="U801" s="109" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="V801" s="109" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="W801" s="109"/>
       <c r="X801" s="109"/>
@@ -70246,16 +70247,16 @@
         <v>30</v>
       </c>
       <c r="O802" s="2" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="T802" s="109" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="U802" s="109" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="V802" s="109" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="W802" s="109"/>
       <c r="X802" s="109"/>
@@ -70308,16 +70309,16 @@
         <v>25</v>
       </c>
       <c r="O803" s="2" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="T803" s="109" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="U803" s="109" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="V803" s="109" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="W803" s="109"/>
       <c r="X803" s="109"/>
@@ -70327,7 +70328,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="122" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="C804" s="114">
         <v>67</v>
@@ -70364,20 +70365,20 @@
         <v>133</v>
       </c>
       <c r="M804" s="122" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="N804" s="122"/>
       <c r="O804" s="2" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="T804" s="109" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="U804" s="109" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="V804" s="109" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="W804" s="109"/>
       <c r="X804" s="109"/>
@@ -70387,7 +70388,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="122" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="C805" s="114">
         <v>73</v>
@@ -70424,22 +70425,22 @@
         <v>159</v>
       </c>
       <c r="M805" s="122" t="s">
+        <v>3151</v>
+      </c>
+      <c r="N805" s="122" t="s">
         <v>3152</v>
       </c>
-      <c r="N805" s="122" t="s">
-        <v>3153</v>
-      </c>
       <c r="O805" s="2" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="T805" s="109" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="U805" s="109" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="V805" s="109" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="W805" s="109"/>
       <c r="X805" s="109"/>
@@ -70449,7 +70450,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="122" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="C806" s="114">
         <v>61</v>
@@ -70486,22 +70487,22 @@
         <v>346</v>
       </c>
       <c r="M806" s="122" t="s">
+        <v>3149</v>
+      </c>
+      <c r="N806" s="122" t="s">
         <v>3150</v>
       </c>
-      <c r="N806" s="122" t="s">
-        <v>3151</v>
-      </c>
       <c r="O806" s="2" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="T806" s="109" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="U806" s="109" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="V806" s="109" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="807" spans="1:24">
@@ -70509,7 +70510,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="122" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="C807" s="114">
         <v>53</v>
@@ -70546,22 +70547,22 @@
         <v>162</v>
       </c>
       <c r="M807" s="122" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="N807" s="122" t="s">
         <v>25</v>
       </c>
       <c r="O807" s="2" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="T807" s="109" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="U807" s="109" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="V807" s="109" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="808" spans="1:24">
@@ -70569,7 +70570,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="122" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="C808" s="114">
         <v>88</v>
@@ -70606,20 +70607,20 @@
         <v>181</v>
       </c>
       <c r="M808" s="122" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="N808" s="122"/>
       <c r="O808" s="2" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="T808" s="109" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="U808" s="109" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="V808" s="109" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="809" spans="1:24">
@@ -70630,102 +70631,96 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M266:N266"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="M269:N269"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M262:N262"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="M264:N264"/>
+    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M238:N238"/>
+    <mergeCell ref="M246:N246"/>
+    <mergeCell ref="M253:N253"/>
+    <mergeCell ref="M254:N254"/>
+    <mergeCell ref="M255:N255"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M235:N235"/>
+    <mergeCell ref="M236:N236"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="M218:N218"/>
+    <mergeCell ref="M224:N224"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="M219:N219"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="M207:N207"/>
     <mergeCell ref="M102:N102"/>
     <mergeCell ref="M111:N111"/>
     <mergeCell ref="M121:N121"/>
@@ -70750,96 +70745,102 @@
     <mergeCell ref="M233:N233"/>
     <mergeCell ref="M234:N234"/>
     <mergeCell ref="M225:N225"/>
-    <mergeCell ref="M238:N238"/>
-    <mergeCell ref="M246:N246"/>
-    <mergeCell ref="M253:N253"/>
-    <mergeCell ref="M254:N254"/>
-    <mergeCell ref="M255:N255"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M235:N235"/>
-    <mergeCell ref="M236:N236"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="M218:N218"/>
-    <mergeCell ref="M224:N224"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="M219:N219"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M266:N266"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="M269:N269"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M262:N262"/>
-    <mergeCell ref="M263:N263"/>
-    <mergeCell ref="M264:N264"/>
-    <mergeCell ref="M265:N265"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M651:N720 M388:N641 M722:N808">

--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -10084,10 +10084,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>多边兽Ⅱ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>offName</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -10813,6 +10809,10 @@
   </si>
   <si>
     <t>谜拟Q</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多边兽II</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -13764,10 +13764,124 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13776,28 +13890,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13812,10 +13926,76 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13824,196 +14004,16 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14058,172 +14058,172 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15166,7 +15166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15177,8 +15177,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N444" workbookViewId="0">
-      <selection activeCell="T779" sqref="T779"/>
+    <sheetView tabSelected="1" topLeftCell="M767" workbookViewId="0">
+      <selection activeCell="V779" sqref="V779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15259,10 +15259,10 @@
         <v>2615</v>
       </c>
       <c r="U1" s="96" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="V1" s="96" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="W1" s="96" t="s">
         <v>1277</v>
@@ -15552,10 +15552,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M5" s="178" t="s">
+      <c r="M5" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="179"/>
+      <c r="N5" s="299"/>
       <c r="O5" s="2" t="s">
         <v>418</v>
       </c>
@@ -15627,10 +15627,10 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="175"/>
+      <c r="N6" s="215"/>
       <c r="O6" s="2" t="s">
         <v>418</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>575</v>
       </c>
       <c r="U7" s="109" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="V7" s="109" t="s">
         <v>575</v>
@@ -15794,10 +15794,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M8" s="180" t="s">
+      <c r="M8" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="181"/>
+      <c r="N8" s="301"/>
       <c r="O8" s="2" t="s">
         <v>420</v>
       </c>
@@ -15869,10 +15869,10 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="M9" s="182" t="s">
+      <c r="M9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="183"/>
+      <c r="N9" s="201"/>
       <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
@@ -15944,10 +15944,10 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M10" s="182" t="s">
+      <c r="M10" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="183"/>
+      <c r="N10" s="201"/>
       <c r="O10" s="2" t="s">
         <v>420</v>
       </c>
@@ -16019,10 +16019,10 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M11" s="184" t="s">
+      <c r="M11" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="185"/>
+      <c r="N11" s="303"/>
       <c r="O11" s="2" t="s">
         <v>421</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>579</v>
       </c>
       <c r="U11" s="109" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="V11" s="109" t="s">
         <v>579</v>
@@ -16094,10 +16094,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M12" s="262" t="s">
+      <c r="M12" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="263"/>
+      <c r="N12" s="233"/>
       <c r="O12" s="2" t="s">
         <v>421</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>691</v>
       </c>
       <c r="U19" s="109" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="V19" s="109" t="s">
         <v>1289</v>
@@ -16728,10 +16728,10 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M20" s="160" t="s">
+      <c r="M20" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="161"/>
+      <c r="N20" s="199"/>
       <c r="O20" s="2" t="s">
         <v>425</v>
       </c>
@@ -16803,10 +16803,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M21" s="160" t="s">
+      <c r="M21" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="161"/>
+      <c r="N21" s="199"/>
       <c r="O21" s="2" t="s">
         <v>425</v>
       </c>
@@ -17042,10 +17042,10 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="M24" s="158" t="s">
+      <c r="M24" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="159"/>
+      <c r="N24" s="227"/>
       <c r="O24" s="2" t="s">
         <v>426</v>
       </c>
@@ -17122,10 +17122,10 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="M25" s="158" t="s">
+      <c r="M25" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="159"/>
+      <c r="N25" s="227"/>
       <c r="O25" s="2" t="s">
         <v>426</v>
       </c>
@@ -17197,10 +17197,10 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="M26" s="162" t="s">
+      <c r="M26" s="310" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="163"/>
+      <c r="N26" s="311"/>
       <c r="O26" s="2" t="s">
         <v>427</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>591</v>
       </c>
       <c r="U26" s="109" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="V26" s="109" t="s">
         <v>591</v>
@@ -17277,10 +17277,10 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="M27" s="186" t="s">
+      <c r="M27" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="187"/>
+      <c r="N27" s="305"/>
       <c r="O27" s="2" t="s">
         <v>427</v>
       </c>
@@ -17362,10 +17362,10 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="M28" s="188" t="s">
+      <c r="M28" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="189"/>
+      <c r="N28" s="307"/>
       <c r="O28" s="2" t="s">
         <v>428</v>
       </c>
@@ -17442,10 +17442,10 @@
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="M29" s="190" t="s">
+      <c r="M29" s="308" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="191"/>
+      <c r="N29" s="309"/>
       <c r="O29" s="2" t="s">
         <v>428</v>
       </c>
@@ -17517,10 +17517,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M30" s="158" t="s">
+      <c r="M30" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="159"/>
+      <c r="N30" s="227"/>
       <c r="O30" s="2" t="s">
         <v>426</v>
       </c>
@@ -17592,10 +17592,10 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M31" s="158" t="s">
+      <c r="M31" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="159"/>
+      <c r="N31" s="227"/>
       <c r="O31" s="2" t="s">
         <v>426</v>
       </c>
@@ -17744,10 +17744,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="M33" s="158" t="s">
+      <c r="M33" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="159"/>
+      <c r="N33" s="227"/>
       <c r="O33" s="2" t="s">
         <v>426</v>
       </c>
@@ -17819,10 +17819,10 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="M34" s="158" t="s">
+      <c r="M34" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="159"/>
+      <c r="N34" s="227"/>
       <c r="O34" s="2" t="s">
         <v>426</v>
       </c>
@@ -17976,10 +17976,10 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M36" s="170" t="s">
+      <c r="M36" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="171"/>
+      <c r="N36" s="209"/>
       <c r="O36" s="2" t="s">
         <v>568</v>
       </c>
@@ -18051,10 +18051,10 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="M37" s="172" t="s">
+      <c r="M37" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="173"/>
+      <c r="N37" s="211"/>
       <c r="O37" s="2" t="s">
         <v>568</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>693</v>
       </c>
       <c r="U37" s="109" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="V37" s="109" t="s">
         <v>693</v>
@@ -18131,10 +18131,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M38" s="174" t="s">
+      <c r="M38" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="175"/>
+      <c r="N38" s="215"/>
       <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
@@ -18206,10 +18206,10 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="M39" s="174" t="s">
+      <c r="M39" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="175"/>
+      <c r="N39" s="215"/>
       <c r="O39" s="2" t="s">
         <v>418</v>
       </c>
@@ -18291,10 +18291,10 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M40" s="176" t="s">
+      <c r="M40" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="177"/>
+      <c r="N40" s="237"/>
       <c r="O40" s="2" t="s">
         <v>483</v>
       </c>
@@ -18371,10 +18371,10 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="M41" s="264" t="s">
+      <c r="M41" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="265"/>
+      <c r="N41" s="213"/>
       <c r="O41" s="2" t="s">
         <v>483</v>
       </c>
@@ -19164,10 +19164,10 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="M51" s="164" t="s">
+      <c r="M51" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="165"/>
+      <c r="N51" s="239"/>
       <c r="O51" s="2" t="s">
         <v>428</v>
       </c>
@@ -19244,10 +19244,10 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="M52" s="166" t="s">
+      <c r="M52" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="167"/>
+      <c r="N52" s="241"/>
       <c r="O52" s="2" t="s">
         <v>428</v>
       </c>
@@ -19324,10 +19324,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M53" s="160" t="s">
+      <c r="M53" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="161"/>
+      <c r="N53" s="199"/>
       <c r="O53" s="2" t="s">
         <v>425</v>
       </c>
@@ -19335,11 +19335,11 @@
         <v>2013</v>
       </c>
       <c r="Q53" s="106" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="R53" s="13"/>
       <c r="S53" s="13" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="T53" s="25" t="s">
         <v>613</v>
@@ -19354,7 +19354,7 @@
         <v>2384</v>
       </c>
       <c r="X53" s="96" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="Z53" s="96" t="s">
         <v>1958</v>
@@ -19404,10 +19404,10 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="M54" s="168" t="s">
+      <c r="M54" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="169"/>
+      <c r="N54" s="277"/>
       <c r="O54" s="2" t="s">
         <v>425</v>
       </c>
@@ -19484,10 +19484,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M55" s="182" t="s">
+      <c r="M55" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="183"/>
+      <c r="N55" s="201"/>
       <c r="O55" s="2" t="s">
         <v>420</v>
       </c>
@@ -19559,10 +19559,10 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="M56" s="208" t="s">
+      <c r="M56" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="209"/>
+      <c r="N56" s="295"/>
       <c r="O56" s="2" t="s">
         <v>420</v>
       </c>
@@ -19634,10 +19634,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M57" s="206" t="s">
+      <c r="M57" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="207"/>
+      <c r="N57" s="191"/>
       <c r="O57" s="2" t="s">
         <v>432</v>
       </c>
@@ -19709,10 +19709,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M58" s="206" t="s">
+      <c r="M58" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="207"/>
+      <c r="N58" s="191"/>
       <c r="O58" s="2" t="s">
         <v>432</v>
       </c>
@@ -19794,10 +19794,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M59" s="210" t="s">
+      <c r="M59" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="211"/>
+      <c r="N59" s="297"/>
       <c r="O59" s="2" t="s">
         <v>418</v>
       </c>
@@ -19869,10 +19869,10 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="M60" s="174" t="s">
+      <c r="M60" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="175"/>
+      <c r="N60" s="215"/>
       <c r="O60" s="2" t="s">
         <v>418</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>620</v>
       </c>
       <c r="U60" s="109" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="V60" s="109" t="s">
         <v>620</v>
@@ -19954,10 +19954,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="M61" s="212" t="s">
+      <c r="M61" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="213"/>
+      <c r="N61" s="193"/>
       <c r="O61" s="2" t="s">
         <v>420</v>
       </c>
@@ -20029,10 +20029,10 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="M62" s="258" t="s">
+      <c r="M62" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="259"/>
+      <c r="N62" s="229"/>
       <c r="O62" s="2" t="s">
         <v>420</v>
       </c>
@@ -20196,10 +20196,10 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="M64" s="202" t="s">
+      <c r="M64" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="203"/>
+      <c r="N64" s="261"/>
       <c r="O64" s="2" t="s">
         <v>434</v>
       </c>
@@ -20271,10 +20271,10 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="M65" s="192" t="s">
+      <c r="M65" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="193"/>
+      <c r="N65" s="221"/>
       <c r="O65" s="2" t="s">
         <v>434</v>
       </c>
@@ -20346,10 +20346,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="M66" s="204" t="s">
+      <c r="M66" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="205"/>
+      <c r="N66" s="293"/>
       <c r="O66" s="2" t="s">
         <v>434</v>
       </c>
@@ -20426,10 +20426,10 @@
         <f t="shared" ref="L67:L130" si="5">ROUND((1+(H67-75)/500)*(ROUND(0.25*(7*MAX(G67,E67)+MIN(G67,E67)),0)),0)</f>
         <v>88</v>
       </c>
-      <c r="M67" s="206" t="s">
+      <c r="M67" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="207"/>
+      <c r="N67" s="191"/>
       <c r="O67" s="2" t="s">
         <v>432</v>
       </c>
@@ -20506,10 +20506,10 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="M68" s="206" t="s">
+      <c r="M68" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="207"/>
+      <c r="N68" s="191"/>
       <c r="O68" s="2" t="s">
         <v>432</v>
       </c>
@@ -20586,10 +20586,10 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="M69" s="206" t="s">
+      <c r="M69" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="207"/>
+      <c r="N69" s="191"/>
       <c r="O69" s="2" t="s">
         <v>432</v>
       </c>
@@ -21312,10 +21312,10 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="M78" s="174" t="s">
+      <c r="M78" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N78" s="175"/>
+      <c r="N78" s="215"/>
       <c r="O78" s="2" t="s">
         <v>418</v>
       </c>
@@ -21392,10 +21392,10 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="M79" s="198" t="s">
+      <c r="M79" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="199"/>
+      <c r="N79" s="289"/>
       <c r="O79" s="2" t="s">
         <v>418</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>639</v>
       </c>
       <c r="U81" s="109" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="V81" s="109" t="s">
         <v>639</v>
@@ -22036,21 +22036,21 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M87" s="182" t="s">
+      <c r="M87" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N87" s="183"/>
+      <c r="N87" s="201"/>
       <c r="O87" s="2" t="s">
         <v>420</v>
       </c>
       <c r="P87" s="106" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="Q87" s="106" t="s">
         <v>2321</v>
       </c>
       <c r="R87" s="13" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="S87" s="13" t="s">
         <v>543</v>
@@ -22065,7 +22065,7 @@
         <v>643</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>2490</v>
@@ -22208,21 +22208,21 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M89" s="158" t="s">
+      <c r="M89" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="159"/>
+      <c r="N89" s="227"/>
       <c r="O89" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P89" s="106" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>2178</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="S89" s="13"/>
       <c r="T89" s="25" t="s">
@@ -22235,13 +22235,13 @@
         <v>645</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>2492</v>
       </c>
       <c r="Y89" s="2" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="AB89" s="110"/>
       <c r="AC89" s="109"/>
@@ -22288,10 +22288,10 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="M90" s="158" t="s">
+      <c r="M90" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="159"/>
+      <c r="N90" s="227"/>
       <c r="O90" s="2" t="s">
         <v>426</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>2141</v>
       </c>
       <c r="R90" s="13" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="S90" s="13"/>
       <c r="T90" s="25" t="s">
@@ -22321,7 +22321,7 @@
         <v>2451</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="AB90" s="110"/>
       <c r="AC90" s="109"/>
@@ -22368,10 +22368,10 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="M91" s="200" t="s">
+      <c r="M91" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="201"/>
+      <c r="N91" s="291"/>
       <c r="O91" s="2" t="s">
         <v>420</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>2110</v>
       </c>
       <c r="Q93" s="106" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="R93" s="13" t="s">
         <v>548</v>
@@ -22712,13 +22712,13 @@
         <v>2112</v>
       </c>
       <c r="Q95" s="106" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="R95" s="13" t="s">
         <v>549</v>
       </c>
       <c r="S95" s="13" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="T95" s="25" t="s">
         <v>650</v>
@@ -22733,13 +22733,13 @@
         <v>2397</v>
       </c>
       <c r="X95" s="96" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>1942</v>
       </c>
       <c r="Z95" s="96" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="AB95" s="110"/>
       <c r="AC95" s="109"/>
@@ -22799,11 +22799,11 @@
         <v>2023</v>
       </c>
       <c r="Q96" s="106" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="R96" s="13"/>
       <c r="S96" s="13" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="T96" s="25" t="s">
         <v>651</v>
@@ -22818,7 +22818,7 @@
         <v>1600</v>
       </c>
       <c r="X96" s="96" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="Z96" s="2" t="s">
         <v>1977</v>
@@ -22868,10 +22868,10 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="M97" s="192" t="s">
+      <c r="M97" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="193"/>
+      <c r="N97" s="221"/>
       <c r="O97" s="2" t="s">
         <v>434</v>
       </c>
@@ -22943,10 +22943,10 @@
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M98" s="192" t="s">
+      <c r="M98" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="193"/>
+      <c r="N98" s="221"/>
       <c r="O98" s="2" t="s">
         <v>434</v>
       </c>
@@ -23023,10 +23023,10 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="M99" s="194" t="s">
+      <c r="M99" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="N99" s="195"/>
+      <c r="N99" s="285"/>
       <c r="O99" s="2" t="s">
         <v>420</v>
       </c>
@@ -23098,10 +23098,10 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="M100" s="182" t="s">
+      <c r="M100" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="183"/>
+      <c r="N100" s="201"/>
       <c r="O100" s="2" t="s">
         <v>420</v>
       </c>
@@ -23178,10 +23178,10 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="M101" s="196" t="s">
+      <c r="M101" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="197"/>
+      <c r="N101" s="287"/>
       <c r="O101" s="2" t="s">
         <v>427</v>
       </c>
@@ -23258,10 +23258,10 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="M102" s="256" t="s">
+      <c r="M102" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="257"/>
+      <c r="N102" s="225"/>
       <c r="O102" s="2" t="s">
         <v>427</v>
       </c>
@@ -23497,10 +23497,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M105" s="164" t="s">
+      <c r="M105" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="165"/>
+      <c r="N105" s="239"/>
       <c r="O105" s="2" t="s">
         <v>428</v>
       </c>
@@ -23572,10 +23572,10 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M106" s="216" t="s">
+      <c r="M106" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="217"/>
+      <c r="N106" s="281"/>
       <c r="O106" s="2" t="s">
         <v>428</v>
       </c>
@@ -23647,10 +23647,10 @@
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="M107" s="206" t="s">
+      <c r="M107" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N107" s="207"/>
+      <c r="N107" s="191"/>
       <c r="O107" s="2" t="s">
         <v>432</v>
       </c>
@@ -23727,10 +23727,10 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="M108" s="206" t="s">
+      <c r="M108" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N108" s="207"/>
+      <c r="N108" s="191"/>
       <c r="O108" s="2" t="s">
         <v>432</v>
       </c>
@@ -23812,10 +23812,10 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="M109" s="218" t="s">
+      <c r="M109" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="N109" s="219"/>
+      <c r="N109" s="283"/>
       <c r="O109" s="2" t="s">
         <v>425</v>
       </c>
@@ -23887,21 +23887,21 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="M110" s="158" t="s">
+      <c r="M110" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="159"/>
+      <c r="N110" s="227"/>
       <c r="O110" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P110" s="106" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>2189</v>
       </c>
       <c r="R110" s="13" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="S110" s="13"/>
       <c r="T110" s="25" t="s">
@@ -23914,13 +23914,13 @@
         <v>657</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="X110" s="2" t="s">
         <v>1778</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="AB110" s="110"/>
       <c r="AC110" s="109"/>
@@ -23967,21 +23967,21 @@
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="M111" s="158" t="s">
+      <c r="M111" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="159"/>
+      <c r="N111" s="227"/>
       <c r="O111" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P111" s="106" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>2190</v>
       </c>
       <c r="R111" s="13" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="S111" s="13"/>
       <c r="T111" s="25" t="s">
@@ -23994,13 +23994,13 @@
         <v>658</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="X111" s="2" t="s">
         <v>1779</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="AB111" s="110"/>
       <c r="AC111" s="109"/>
@@ -24206,10 +24206,10 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="M114" s="170" t="s">
+      <c r="M114" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N114" s="171"/>
+      <c r="N114" s="209"/>
       <c r="O114" s="2" t="s">
         <v>425</v>
       </c>
@@ -24227,7 +24227,7 @@
         <v>659</v>
       </c>
       <c r="U114" s="109" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="V114" s="109" t="s">
         <v>659</v>
@@ -24286,10 +24286,10 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M115" s="214" t="s">
+      <c r="M115" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="N115" s="215"/>
+      <c r="N115" s="279"/>
       <c r="O115" s="2" t="s">
         <v>443</v>
       </c>
@@ -24366,10 +24366,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M116" s="168" t="s">
+      <c r="M116" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N116" s="169"/>
+      <c r="N116" s="277"/>
       <c r="O116" s="2" t="s">
         <v>425</v>
       </c>
@@ -24446,10 +24446,10 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="M117" s="182" t="s">
+      <c r="M117" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="183"/>
+      <c r="N117" s="201"/>
       <c r="O117" s="2" t="s">
         <v>420</v>
       </c>
@@ -24521,10 +24521,10 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="M118" s="182" t="s">
+      <c r="M118" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="183"/>
+      <c r="N118" s="201"/>
       <c r="O118" s="2" t="s">
         <v>420</v>
       </c>
@@ -24601,10 +24601,10 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="M119" s="182" t="s">
+      <c r="M119" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N119" s="183"/>
+      <c r="N119" s="201"/>
       <c r="O119" s="2" t="s">
         <v>420</v>
       </c>
@@ -24676,10 +24676,10 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-      <c r="M120" s="182" t="s">
+      <c r="M120" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N120" s="183"/>
+      <c r="N120" s="201"/>
       <c r="O120" s="2" t="s">
         <v>420</v>
       </c>
@@ -24761,10 +24761,10 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="M121" s="258" t="s">
+      <c r="M121" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="N121" s="259"/>
+      <c r="N121" s="229"/>
       <c r="O121" s="2" t="s">
         <v>420</v>
       </c>
@@ -24775,7 +24775,7 @@
         <v>2194</v>
       </c>
       <c r="R121" s="13" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="S121" s="13"/>
       <c r="T121" s="25" t="s">
@@ -24854,13 +24854,13 @@
         <v>2354</v>
       </c>
       <c r="Q122" s="106" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="R122" s="13" t="s">
         <v>2351</v>
       </c>
       <c r="S122" s="13" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="T122" s="25" t="s">
         <v>666</v>
@@ -24875,7 +24875,7 @@
         <v>1615</v>
       </c>
       <c r="X122" s="96" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>1579</v>
@@ -24928,10 +24928,10 @@
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="M123" s="192" t="s">
+      <c r="M123" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="193"/>
+      <c r="N123" s="221"/>
       <c r="O123" s="2" t="s">
         <v>434</v>
       </c>
@@ -25177,10 +25177,10 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="M126" s="224" t="s">
+      <c r="M126" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="225"/>
+      <c r="N126" s="235"/>
       <c r="O126" s="2" t="s">
         <v>427</v>
       </c>
@@ -25252,10 +25252,10 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="M127" s="174" t="s">
+      <c r="M127" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N127" s="175"/>
+      <c r="N127" s="215"/>
       <c r="O127" s="2" t="s">
         <v>418</v>
       </c>
@@ -25327,10 +25327,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M128" s="220" t="s">
+      <c r="M128" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="221"/>
+      <c r="N128" s="273"/>
       <c r="O128" s="2" t="s">
         <v>421</v>
       </c>
@@ -25412,10 +25412,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M129" s="222" t="s">
+      <c r="M129" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="N129" s="223"/>
+      <c r="N129" s="275"/>
       <c r="O129" s="2" t="s">
         <v>425</v>
       </c>
@@ -25431,7 +25431,7 @@
         <v>670</v>
       </c>
       <c r="U129" s="109" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="V129" s="109" t="s">
         <v>670</v>
@@ -25487,10 +25487,10 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="M130" s="182" t="s">
+      <c r="M130" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N130" s="183"/>
+      <c r="N130" s="201"/>
       <c r="O130" s="2" t="s">
         <v>420</v>
       </c>
@@ -25506,7 +25506,7 @@
         <v>671</v>
       </c>
       <c r="U130" s="109" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V130" s="109" t="s">
         <v>671</v>
@@ -25587,7 +25587,7 @@
         <v>672</v>
       </c>
       <c r="U131" s="109" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="V131" s="109" t="s">
         <v>672</v>
@@ -25736,10 +25736,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M133" s="170" t="s">
+      <c r="M133" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N133" s="171"/>
+      <c r="N133" s="209"/>
       <c r="O133" s="2" t="s">
         <v>425</v>
       </c>
@@ -25811,10 +25811,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="M134" s="168" t="s">
+      <c r="M134" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N134" s="169"/>
+      <c r="N134" s="277"/>
       <c r="O134" s="2" t="s">
         <v>425</v>
       </c>
@@ -25891,10 +25891,10 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="M135" s="182" t="s">
+      <c r="M135" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N135" s="183"/>
+      <c r="N135" s="201"/>
       <c r="O135" s="2" t="s">
         <v>420</v>
       </c>
@@ -25966,10 +25966,10 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="M136" s="232" t="s">
+      <c r="M136" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="233"/>
+      <c r="N136" s="269"/>
       <c r="O136" s="2" t="s">
         <v>427</v>
       </c>
@@ -26041,10 +26041,10 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="M137" s="174" t="s">
+      <c r="M137" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N137" s="175"/>
+      <c r="N137" s="215"/>
       <c r="O137" s="2" t="s">
         <v>418</v>
       </c>
@@ -26052,17 +26052,17 @@
         <v>1521</v>
       </c>
       <c r="Q137" s="106" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="R137" s="13"/>
       <c r="S137" s="13" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="T137" s="25" t="s">
         <v>719</v>
       </c>
       <c r="U137" s="109" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="V137" s="109" t="s">
         <v>1311</v>
@@ -26071,7 +26071,7 @@
         <v>1623</v>
       </c>
       <c r="X137" s="96" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="Z137" s="2" t="s">
         <v>1927</v>
@@ -26121,10 +26121,10 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="M138" s="236" t="s">
+      <c r="M138" s="270" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="237"/>
+      <c r="N138" s="271"/>
       <c r="O138" s="2" t="s">
         <v>425</v>
       </c>
@@ -26611,10 +26611,10 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="M144" s="170" t="s">
+      <c r="M144" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="171"/>
+      <c r="N144" s="209"/>
       <c r="O144" s="2" t="s">
         <v>425</v>
       </c>
@@ -26942,10 +26942,10 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="M148" s="234" t="s">
+      <c r="M148" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="N148" s="235"/>
+      <c r="N148" s="197"/>
       <c r="O148" s="2" t="s">
         <v>450</v>
       </c>
@@ -27017,10 +27017,10 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="M149" s="234" t="s">
+      <c r="M149" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="N149" s="235"/>
+      <c r="N149" s="197"/>
       <c r="O149" s="2" t="s">
         <v>450</v>
       </c>
@@ -27117,7 +27117,7 @@
         <v>686</v>
       </c>
       <c r="U150" s="109" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="V150" s="109" t="s">
         <v>686</v>
@@ -27176,10 +27176,10 @@
       <c r="L151" s="2">
         <v>182</v>
       </c>
-      <c r="M151" s="202" t="s">
+      <c r="M151" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="203"/>
+      <c r="N151" s="261"/>
       <c r="O151" s="2" t="s">
         <v>434</v>
       </c>
@@ -27251,10 +27251,10 @@
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="M152" s="192" t="s">
+      <c r="M152" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="193"/>
+      <c r="N152" s="221"/>
       <c r="O152" s="2" t="s">
         <v>434</v>
       </c>
@@ -27262,7 +27262,7 @@
         <v>2048</v>
       </c>
       <c r="Q152" s="106" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="R152" s="54"/>
       <c r="S152" s="54" t="s">
@@ -27284,7 +27284,7 @@
         <v>2617</v>
       </c>
       <c r="Z152" s="96" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="AB152" s="110"/>
       <c r="AC152" s="109"/>
@@ -27331,10 +27331,10 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="M153" s="226" t="s">
+      <c r="M153" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="N153" s="227"/>
+      <c r="N153" s="263"/>
       <c r="O153" s="2" t="s">
         <v>443</v>
       </c>
@@ -27404,10 +27404,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="M154" s="228" t="s">
+      <c r="M154" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="N154" s="229"/>
+      <c r="N154" s="265"/>
       <c r="O154" s="2" t="s">
         <v>443</v>
       </c>
@@ -27477,10 +27477,10 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="M155" s="230" t="s">
+      <c r="M155" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="N155" s="231"/>
+      <c r="N155" s="267"/>
       <c r="O155" s="2" t="s">
         <v>443</v>
       </c>
@@ -27550,10 +27550,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="M156" s="174" t="s">
+      <c r="M156" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N156" s="175"/>
+      <c r="N156" s="215"/>
       <c r="O156" s="2" t="s">
         <v>418</v>
       </c>
@@ -27623,10 +27623,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="M157" s="174" t="s">
+      <c r="M157" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N157" s="175"/>
+      <c r="N157" s="215"/>
       <c r="O157" s="2" t="s">
         <v>418</v>
       </c>
@@ -27696,10 +27696,10 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="M158" s="174" t="s">
+      <c r="M158" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N158" s="175"/>
+      <c r="N158" s="215"/>
       <c r="O158" s="2" t="s">
         <v>418</v>
       </c>
@@ -27769,10 +27769,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M159" s="212" t="s">
+      <c r="M159" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N159" s="213"/>
+      <c r="N159" s="193"/>
       <c r="O159" s="2" t="s">
         <v>420</v>
       </c>
@@ -27842,10 +27842,10 @@
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="M160" s="182" t="s">
+      <c r="M160" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N160" s="183"/>
+      <c r="N160" s="201"/>
       <c r="O160" s="2" t="s">
         <v>420</v>
       </c>
@@ -27915,10 +27915,10 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="M161" s="182" t="s">
+      <c r="M161" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N161" s="183"/>
+      <c r="N161" s="201"/>
       <c r="O161" s="2" t="s">
         <v>420</v>
       </c>
@@ -27994,10 +27994,10 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="M162" s="238" t="s">
+      <c r="M162" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="N162" s="239"/>
+      <c r="N162" s="257"/>
       <c r="O162" s="2" t="s">
         <v>425</v>
       </c>
@@ -28067,10 +28067,10 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="M163" s="160" t="s">
+      <c r="M163" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N163" s="161"/>
+      <c r="N163" s="199"/>
       <c r="O163" s="2" t="s">
         <v>425</v>
       </c>
@@ -28815,10 +28815,10 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="M173" s="240" t="s">
+      <c r="M173" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="241"/>
+      <c r="N173" s="259"/>
       <c r="O173" s="2" t="s">
         <v>427</v>
       </c>
@@ -28894,10 +28894,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M174" s="160" t="s">
+      <c r="M174" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N174" s="161"/>
+      <c r="N174" s="199"/>
       <c r="O174" s="2" t="s">
         <v>568</v>
       </c>
@@ -28905,10 +28905,10 @@
         <v>2007</v>
       </c>
       <c r="Q174" s="106" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="S174" s="107" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="T174" s="25" t="s">
         <v>799</v>
@@ -28973,10 +28973,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="M175" s="160" t="s">
+      <c r="M175" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N175" s="161"/>
+      <c r="N175" s="199"/>
       <c r="O175" s="2" t="s">
         <v>483</v>
       </c>
@@ -28984,7 +28984,7 @@
         <v>2009</v>
       </c>
       <c r="Q175" s="106" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="S175" s="96" t="s">
         <v>2618</v>
@@ -29052,10 +29052,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M176" s="160" t="s">
+      <c r="M176" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N176" s="161"/>
+      <c r="N176" s="199"/>
       <c r="O176" s="2" t="s">
         <v>568</v>
       </c>
@@ -29654,10 +29654,10 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="M184" s="182" t="s">
+      <c r="M184" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N184" s="183"/>
+      <c r="N184" s="201"/>
       <c r="O184" s="2" t="s">
         <v>569</v>
       </c>
@@ -29727,10 +29727,10 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="M185" s="182" t="s">
+      <c r="M185" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N185" s="183"/>
+      <c r="N185" s="201"/>
       <c r="O185" s="2" t="s">
         <v>569</v>
       </c>
@@ -29744,7 +29744,7 @@
         <v>805</v>
       </c>
       <c r="U185" s="109" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="V185" s="109" t="s">
         <v>805</v>
@@ -29873,10 +29873,10 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="M187" s="182" t="s">
+      <c r="M187" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N187" s="183"/>
+      <c r="N187" s="201"/>
       <c r="O187" s="2" t="s">
         <v>420</v>
       </c>
@@ -30177,10 +30177,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M191" s="160" t="s">
+      <c r="M191" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N191" s="161"/>
+      <c r="N191" s="199"/>
       <c r="O191" s="2" t="s">
         <v>425</v>
       </c>
@@ -30267,7 +30267,7 @@
         <v>750</v>
       </c>
       <c r="U192" s="109" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="V192" s="109" t="s">
         <v>750</v>
@@ -30323,10 +30323,10 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="M193" s="270" t="s">
+      <c r="M193" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="N193" s="271"/>
+      <c r="N193" s="203"/>
       <c r="O193" s="2" t="s">
         <v>443</v>
       </c>
@@ -30638,7 +30638,7 @@
         <v>809</v>
       </c>
       <c r="U197" s="109" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="V197" s="109" t="s">
         <v>1318</v>
@@ -30694,10 +30694,10 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="M198" s="272" t="s">
+      <c r="M198" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="N198" s="273"/>
+      <c r="N198" s="205"/>
       <c r="O198" s="2" t="s">
         <v>457</v>
       </c>
@@ -30711,7 +30711,7 @@
         <v>810</v>
       </c>
       <c r="U198" s="109" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="V198" s="109" t="s">
         <v>1319</v>
@@ -30861,7 +30861,7 @@
         <v>811</v>
       </c>
       <c r="U200" s="109" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="V200" s="109" t="s">
         <v>1320</v>
@@ -30917,10 +30917,10 @@
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="M201" s="276" t="s">
+      <c r="M201" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="N201" s="277"/>
+      <c r="N201" s="217"/>
       <c r="O201" s="2" t="s">
         <v>459</v>
       </c>
@@ -30990,10 +30990,10 @@
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="M202" s="278" t="s">
+      <c r="M202" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="279"/>
+      <c r="N202" s="219"/>
       <c r="O202" s="2" t="s">
         <v>434</v>
       </c>
@@ -31063,10 +31063,10 @@
         <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="M203" s="192" t="s">
+      <c r="M203" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="193"/>
+      <c r="N203" s="221"/>
       <c r="O203" s="2" t="s">
         <v>434</v>
       </c>
@@ -31080,7 +31080,7 @@
         <v>757</v>
       </c>
       <c r="U203" s="109" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="V203" s="109" t="s">
         <v>757</v>
@@ -31211,10 +31211,10 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="M205" s="280" t="s">
+      <c r="M205" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="281"/>
+      <c r="N205" s="223"/>
       <c r="O205" s="2" t="s">
         <v>421</v>
       </c>
@@ -31359,10 +31359,10 @@
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="M207" s="170" t="s">
+      <c r="M207" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N207" s="171"/>
+      <c r="N207" s="209"/>
       <c r="O207" s="2" t="s">
         <v>425</v>
       </c>
@@ -31582,10 +31582,10 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="M210" s="160" t="s">
+      <c r="M210" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N210" s="161"/>
+      <c r="N210" s="199"/>
       <c r="O210" s="2" t="s">
         <v>568</v>
       </c>
@@ -31655,10 +31655,10 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="M211" s="264" t="s">
+      <c r="M211" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="265"/>
+      <c r="N211" s="213"/>
       <c r="O211" s="2" t="s">
         <v>568</v>
       </c>
@@ -31822,7 +31822,7 @@
         <v>765</v>
       </c>
       <c r="U213" s="109" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="V213" s="109" t="s">
         <v>765</v>
@@ -32103,10 +32103,10 @@
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="M217" s="170" t="s">
+      <c r="M217" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N217" s="171"/>
+      <c r="N217" s="209"/>
       <c r="O217" s="2" t="s">
         <v>425</v>
       </c>
@@ -32176,10 +32176,10 @@
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="M218" s="172" t="s">
+      <c r="M218" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="173"/>
+      <c r="N218" s="211"/>
       <c r="O218" s="2" t="s">
         <v>425</v>
       </c>
@@ -32249,10 +32249,10 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="M219" s="174" t="s">
+      <c r="M219" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N219" s="175"/>
+      <c r="N219" s="215"/>
       <c r="O219" s="2" t="s">
         <v>418</v>
       </c>
@@ -32622,10 +32622,10 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="M224" s="182" t="s">
+      <c r="M224" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N224" s="183"/>
+      <c r="N224" s="201"/>
       <c r="O224" s="2" t="s">
         <v>420</v>
       </c>
@@ -32695,10 +32695,10 @@
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="M225" s="182" t="s">
+      <c r="M225" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N225" s="183"/>
+      <c r="N225" s="201"/>
       <c r="O225" s="2" t="s">
         <v>420</v>
       </c>
@@ -32943,7 +32943,7 @@
         <v>780</v>
       </c>
       <c r="U228" s="109" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="V228" s="109" t="s">
         <v>780</v>
@@ -33230,10 +33230,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="M232" s="164" t="s">
+      <c r="M232" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N232" s="165"/>
+      <c r="N232" s="239"/>
       <c r="O232" s="2" t="s">
         <v>428</v>
       </c>
@@ -33303,10 +33303,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M233" s="166" t="s">
+      <c r="M233" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="N233" s="167"/>
+      <c r="N233" s="241"/>
       <c r="O233" s="2" t="s">
         <v>428</v>
       </c>
@@ -33376,10 +33376,10 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="M234" s="160" t="s">
+      <c r="M234" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N234" s="161"/>
+      <c r="N234" s="199"/>
       <c r="O234" s="2" t="s">
         <v>425</v>
       </c>
@@ -33393,10 +33393,10 @@
         <v>814</v>
       </c>
       <c r="U234" s="109" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="V234" s="109" t="s">
-        <v>3290</v>
+        <v>3474</v>
       </c>
       <c r="W234" s="2" t="s">
         <v>1624</v>
@@ -33449,10 +33449,10 @@
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="M235" s="160" t="s">
+      <c r="M235" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N235" s="161"/>
+      <c r="N235" s="199"/>
       <c r="O235" s="2" t="s">
         <v>425</v>
       </c>
@@ -33522,10 +33522,10 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
-      <c r="M236" s="274" t="s">
+      <c r="M236" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="N236" s="275"/>
+      <c r="N236" s="207"/>
       <c r="O236" s="2" t="s">
         <v>425</v>
       </c>
@@ -33539,7 +33539,7 @@
         <v>787</v>
       </c>
       <c r="U236" s="109" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="V236" s="109" t="s">
         <v>787</v>
@@ -33595,10 +33595,10 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="M237" s="206" t="s">
+      <c r="M237" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N237" s="207"/>
+      <c r="N237" s="191"/>
       <c r="O237" s="2" t="s">
         <v>432</v>
       </c>
@@ -33668,10 +33668,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M238" s="206" t="s">
+      <c r="M238" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="207"/>
+      <c r="N238" s="191"/>
       <c r="O238" s="2" t="s">
         <v>432</v>
       </c>
@@ -33822,10 +33822,10 @@
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="M240" s="224" t="s">
+      <c r="M240" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="225"/>
+      <c r="N240" s="235"/>
       <c r="O240" s="2" t="s">
         <v>427</v>
       </c>
@@ -33901,10 +33901,10 @@
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="M241" s="174" t="s">
+      <c r="M241" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N241" s="175"/>
+      <c r="N241" s="215"/>
       <c r="O241" s="2" t="s">
         <v>418</v>
       </c>
@@ -33974,10 +33974,10 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="M242" s="176" t="s">
+      <c r="M242" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N242" s="177"/>
+      <c r="N242" s="237"/>
       <c r="O242" s="2" t="s">
         <v>425</v>
       </c>
@@ -34047,10 +34047,10 @@
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="M243" s="160" t="s">
+      <c r="M243" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N243" s="161"/>
+      <c r="N243" s="199"/>
       <c r="O243" s="2" t="s">
         <v>425</v>
       </c>
@@ -34064,7 +34064,7 @@
         <v>792</v>
       </c>
       <c r="U243" s="109" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="V243" s="109" t="s">
         <v>792</v>
@@ -34120,10 +34120,10 @@
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="M244" s="260" t="s">
+      <c r="M244" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="261"/>
+      <c r="N244" s="231"/>
       <c r="O244" s="2" t="s">
         <v>427</v>
       </c>
@@ -34193,10 +34193,10 @@
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="M245" s="174" t="s">
+      <c r="M245" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N245" s="175"/>
+      <c r="N245" s="215"/>
       <c r="O245" s="2" t="s">
         <v>418</v>
       </c>
@@ -34210,7 +34210,7 @@
         <v>794</v>
       </c>
       <c r="U245" s="109" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="V245" s="109" t="s">
         <v>794</v>
@@ -34266,10 +34266,10 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="M246" s="212" t="s">
+      <c r="M246" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N246" s="213"/>
+      <c r="N246" s="193"/>
       <c r="O246" s="2" t="s">
         <v>420</v>
       </c>
@@ -34514,7 +34514,7 @@
         <v>819</v>
       </c>
       <c r="U249" s="109" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V249" s="109" t="s">
         <v>1325</v>
@@ -34589,7 +34589,7 @@
         <v>796</v>
       </c>
       <c r="U250" s="109" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="V250" s="109" t="s">
         <v>796</v>
@@ -34792,10 +34792,10 @@
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="M253" s="266" t="s">
+      <c r="M253" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="N253" s="267"/>
+      <c r="N253" s="195"/>
       <c r="O253" s="2" t="s">
         <v>443</v>
       </c>
@@ -34865,10 +34865,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M254" s="268" t="s">
+      <c r="M254" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N254" s="269"/>
+      <c r="N254" s="179"/>
       <c r="O254" s="2" t="s">
         <v>443</v>
       </c>
@@ -34938,10 +34938,10 @@
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="M255" s="268" t="s">
+      <c r="M255" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N255" s="269"/>
+      <c r="N255" s="179"/>
       <c r="O255" s="2" t="s">
         <v>443</v>
       </c>
@@ -35011,10 +35011,10 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="M256" s="286" t="s">
+      <c r="M256" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="N256" s="287"/>
+      <c r="N256" s="183"/>
       <c r="O256" s="2" t="s">
         <v>418</v>
       </c>
@@ -35181,7 +35181,7 @@
         <v>826</v>
       </c>
       <c r="U258" s="109" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="V258" s="109" t="s">
         <v>826</v>
@@ -35240,10 +35240,10 @@
         <f t="shared" ref="L259:L322" si="14">ROUND((1+(H259-75)/500)*(ROUND(0.25*(7*MAX(G259,E259)+MIN(G259,E259)),0)),0)</f>
         <v>93</v>
       </c>
-      <c r="M259" s="288" t="s">
+      <c r="M259" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N259" s="289"/>
+      <c r="N259" s="159"/>
       <c r="O259" s="2" t="s">
         <v>420</v>
       </c>
@@ -35463,10 +35463,10 @@
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="M262" s="290" t="s">
+      <c r="M262" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N262" s="291"/>
+      <c r="N262" s="175"/>
       <c r="O262" s="2" t="s">
         <v>457</v>
       </c>
@@ -35536,10 +35536,10 @@
         <f t="shared" si="14"/>
         <v>137</v>
       </c>
-      <c r="M263" s="290" t="s">
+      <c r="M263" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N263" s="291"/>
+      <c r="N263" s="175"/>
       <c r="O263" s="2" t="s">
         <v>457</v>
       </c>
@@ -35609,10 +35609,10 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="M264" s="284" t="s">
+      <c r="M264" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N264" s="285"/>
+      <c r="N264" s="177"/>
       <c r="O264" s="2" t="s">
         <v>425</v>
       </c>
@@ -35682,10 +35682,10 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="M265" s="284" t="s">
+      <c r="M265" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N265" s="285"/>
+      <c r="N265" s="177"/>
       <c r="O265" s="2" t="s">
         <v>425</v>
       </c>
@@ -35755,10 +35755,10 @@
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="M266" s="282" t="s">
+      <c r="M266" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N266" s="283"/>
+      <c r="N266" s="187"/>
       <c r="O266" s="2" t="s">
         <v>421</v>
       </c>
@@ -35828,10 +35828,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M267" s="282" t="s">
+      <c r="M267" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N267" s="283"/>
+      <c r="N267" s="187"/>
       <c r="O267" s="2" t="s">
         <v>421</v>
       </c>
@@ -35976,10 +35976,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M269" s="282" t="s">
+      <c r="M269" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N269" s="283"/>
+      <c r="N269" s="187"/>
       <c r="O269" s="2" t="s">
         <v>421</v>
       </c>
@@ -36293,7 +36293,7 @@
         <v>841</v>
       </c>
       <c r="U273" s="109" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="V273" s="109" t="s">
         <v>841</v>
@@ -36349,10 +36349,10 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="M274" s="268" t="s">
+      <c r="M274" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N274" s="269"/>
+      <c r="N274" s="179"/>
       <c r="O274" s="2" t="s">
         <v>443</v>
       </c>
@@ -36666,7 +36666,7 @@
         <v>846</v>
       </c>
       <c r="U278" s="109" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="V278" s="109" t="s">
         <v>846</v>
@@ -36891,7 +36891,7 @@
         <v>947</v>
       </c>
       <c r="U281" s="109" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="V281" s="109" t="s">
         <v>947</v>
@@ -36966,7 +36966,7 @@
         <v>948</v>
       </c>
       <c r="U282" s="109" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="V282" s="109" t="s">
         <v>948</v>
@@ -37041,7 +37041,7 @@
         <v>949</v>
       </c>
       <c r="U283" s="109" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="V283" s="109" t="s">
         <v>949</v>
@@ -37247,10 +37247,10 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="M286" s="268" t="s">
+      <c r="M286" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N286" s="269"/>
+      <c r="N286" s="179"/>
       <c r="O286" s="2" t="s">
         <v>443</v>
       </c>
@@ -37339,7 +37339,7 @@
         <v>852</v>
       </c>
       <c r="U287" s="109" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="V287" s="109" t="s">
         <v>852</v>
@@ -37395,10 +37395,10 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="M288" s="284" t="s">
+      <c r="M288" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N288" s="285"/>
+      <c r="N288" s="177"/>
       <c r="O288" s="2" t="s">
         <v>425</v>
       </c>
@@ -37468,10 +37468,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M289" s="284" t="s">
+      <c r="M289" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N289" s="285"/>
+      <c r="N289" s="177"/>
       <c r="O289" s="2" t="s">
         <v>425</v>
       </c>
@@ -37538,10 +37538,10 @@
       <c r="L290" s="2">
         <v>183</v>
       </c>
-      <c r="M290" s="284" t="s">
+      <c r="M290" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N290" s="285"/>
+      <c r="N290" s="177"/>
       <c r="O290" s="2" t="s">
         <v>425</v>
       </c>
@@ -37705,7 +37705,7 @@
         <v>857</v>
       </c>
       <c r="U292" s="109" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="V292" s="109" t="s">
         <v>857</v>
@@ -37780,7 +37780,7 @@
         <v>858</v>
       </c>
       <c r="U293" s="109" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="V293" s="109" t="s">
         <v>858</v>
@@ -37836,10 +37836,10 @@
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="M294" s="284" t="s">
+      <c r="M294" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N294" s="285"/>
+      <c r="N294" s="177"/>
       <c r="O294" s="2" t="s">
         <v>425</v>
       </c>
@@ -37909,10 +37909,10 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="M295" s="284" t="s">
+      <c r="M295" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N295" s="285"/>
+      <c r="N295" s="177"/>
       <c r="O295" s="2" t="s">
         <v>425</v>
       </c>
@@ -37982,10 +37982,10 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="M296" s="284" t="s">
+      <c r="M296" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N296" s="285"/>
+      <c r="N296" s="177"/>
       <c r="O296" s="2" t="s">
         <v>425</v>
       </c>
@@ -38055,10 +38055,10 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="M297" s="292" t="s">
+      <c r="M297" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="N297" s="293"/>
+      <c r="N297" s="189"/>
       <c r="O297" s="2" t="s">
         <v>432</v>
       </c>
@@ -38072,7 +38072,7 @@
         <v>862</v>
       </c>
       <c r="U297" s="109" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="V297" s="109" t="s">
         <v>862</v>
@@ -38128,10 +38128,10 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="M298" s="292" t="s">
+      <c r="M298" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="N298" s="293"/>
+      <c r="N298" s="189"/>
       <c r="O298" s="2" t="s">
         <v>432</v>
       </c>
@@ -38276,10 +38276,10 @@
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="M300" s="294" t="s">
+      <c r="M300" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="N300" s="295"/>
+      <c r="N300" s="167"/>
       <c r="O300" s="2" t="s">
         <v>454</v>
       </c>
@@ -38349,10 +38349,10 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="M301" s="284" t="s">
+      <c r="M301" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N301" s="285"/>
+      <c r="N301" s="177"/>
       <c r="O301" s="2" t="s">
         <v>425</v>
       </c>
@@ -38422,10 +38422,10 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="M302" s="284" t="s">
+      <c r="M302" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N302" s="285"/>
+      <c r="N302" s="177"/>
       <c r="O302" s="2" t="s">
         <v>425</v>
       </c>
@@ -38964,7 +38964,7 @@
         <v>872</v>
       </c>
       <c r="U309" s="109" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="V309" s="109" t="s">
         <v>872</v>
@@ -39020,10 +39020,10 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="M310" s="296" t="s">
+      <c r="M310" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="297"/>
+      <c r="N310" s="185"/>
       <c r="O310" s="2" t="s">
         <v>427</v>
       </c>
@@ -39093,10 +39093,10 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="M311" s="296" t="s">
+      <c r="M311" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="297"/>
+      <c r="N311" s="185"/>
       <c r="O311" s="2" t="s">
         <v>427</v>
       </c>
@@ -39166,10 +39166,10 @@
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="M312" s="296" t="s">
+      <c r="M312" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="297"/>
+      <c r="N312" s="185"/>
       <c r="O312" s="2" t="s">
         <v>427</v>
       </c>
@@ -39239,10 +39239,10 @@
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="M313" s="296" t="s">
+      <c r="M313" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="297"/>
+      <c r="N313" s="185"/>
       <c r="O313" s="2" t="s">
         <v>427</v>
       </c>
@@ -39312,10 +39312,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M314" s="282" t="s">
+      <c r="M314" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="283"/>
+      <c r="N314" s="187"/>
       <c r="O314" s="2" t="s">
         <v>421</v>
       </c>
@@ -39385,10 +39385,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M315" s="282" t="s">
+      <c r="M315" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N315" s="283"/>
+      <c r="N315" s="187"/>
       <c r="O315" s="2" t="s">
         <v>421</v>
       </c>
@@ -39533,10 +39533,10 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="M317" s="300" t="s">
+      <c r="M317" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N317" s="301"/>
+      <c r="N317" s="181"/>
       <c r="O317" s="2" t="s">
         <v>426</v>
       </c>
@@ -39606,10 +39606,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M318" s="300" t="s">
+      <c r="M318" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N318" s="301"/>
+      <c r="N318" s="181"/>
       <c r="O318" s="2" t="s">
         <v>426</v>
       </c>
@@ -39829,10 +39829,10 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="M321" s="288" t="s">
+      <c r="M321" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N321" s="289"/>
+      <c r="N321" s="159"/>
       <c r="O321" s="2" t="s">
         <v>420</v>
       </c>
@@ -39846,7 +39846,7 @@
         <v>884</v>
       </c>
       <c r="U321" s="109" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="V321" s="109" t="s">
         <v>884</v>
@@ -39902,10 +39902,10 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="M322" s="288" t="s">
+      <c r="M322" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N322" s="289"/>
+      <c r="N322" s="159"/>
       <c r="O322" s="2" t="s">
         <v>420</v>
       </c>
@@ -40125,10 +40125,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M325" s="286" t="s">
+      <c r="M325" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="N325" s="287"/>
+      <c r="N325" s="183"/>
       <c r="O325" s="2" t="s">
         <v>418</v>
       </c>
@@ -40198,10 +40198,10 @@
         <f t="shared" si="17"/>
         <v>145</v>
       </c>
-      <c r="M326" s="298" t="s">
+      <c r="M326" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N326" s="299"/>
+      <c r="N326" s="163"/>
       <c r="O326" s="2" t="s">
         <v>434</v>
       </c>
@@ -40271,10 +40271,10 @@
         <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="M327" s="298" t="s">
+      <c r="M327" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N327" s="299"/>
+      <c r="N327" s="163"/>
       <c r="O327" s="2" t="s">
         <v>434</v>
       </c>
@@ -40344,10 +40344,10 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="M328" s="284" t="s">
+      <c r="M328" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N328" s="285"/>
+      <c r="N328" s="177"/>
       <c r="O328" s="2" t="s">
         <v>425</v>
       </c>
@@ -40417,10 +40417,10 @@
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="M329" s="302" t="s">
+      <c r="M329" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="N329" s="303"/>
+      <c r="N329" s="161"/>
       <c r="O329" s="2" t="s">
         <v>428</v>
       </c>
@@ -40584,7 +40584,7 @@
         <v>894</v>
       </c>
       <c r="U331" s="109" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="V331" s="109" t="s">
         <v>894</v>
@@ -40640,10 +40640,10 @@
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M332" s="268" t="s">
+      <c r="M332" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N332" s="269"/>
+      <c r="N332" s="179"/>
       <c r="O332" s="2" t="s">
         <v>443</v>
       </c>
@@ -40938,10 +40938,10 @@
         <f t="shared" si="17"/>
         <v>124</v>
       </c>
-      <c r="M336" s="284" t="s">
+      <c r="M336" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N336" s="285"/>
+      <c r="N336" s="177"/>
       <c r="O336" s="2" t="s">
         <v>425</v>
       </c>
@@ -41011,10 +41011,10 @@
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="M337" s="300" t="s">
+      <c r="M337" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N337" s="301"/>
+      <c r="N337" s="181"/>
       <c r="O337" s="2" t="s">
         <v>426</v>
       </c>
@@ -41384,10 +41384,10 @@
         <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="M342" s="288" t="s">
+      <c r="M342" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N342" s="289"/>
+      <c r="N342" s="159"/>
       <c r="O342" s="2" t="s">
         <v>420</v>
       </c>
@@ -41776,7 +41776,7 @@
         <v>910</v>
       </c>
       <c r="U347" s="109" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="V347" s="109" t="s">
         <v>910</v>
@@ -41982,10 +41982,10 @@
         <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="M350" s="288" t="s">
+      <c r="M350" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N350" s="289"/>
+      <c r="N350" s="159"/>
       <c r="O350" s="2" t="s">
         <v>420</v>
       </c>
@@ -41999,7 +41999,7 @@
         <v>913</v>
       </c>
       <c r="U350" s="109" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="V350" s="109" t="s">
         <v>913</v>
@@ -42055,10 +42055,10 @@
         <f t="shared" si="17"/>
         <v>242</v>
       </c>
-      <c r="M351" s="288" t="s">
+      <c r="M351" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N351" s="289"/>
+      <c r="N351" s="159"/>
       <c r="O351" s="2" t="s">
         <v>420</v>
       </c>
@@ -42075,7 +42075,7 @@
         <v>914</v>
       </c>
       <c r="U351" s="109" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="V351" s="109" t="s">
         <v>914</v>
@@ -42134,10 +42134,10 @@
         <f t="shared" si="17"/>
         <v>139</v>
       </c>
-      <c r="M352" s="284" t="s">
+      <c r="M352" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N352" s="285"/>
+      <c r="N352" s="177"/>
       <c r="O352" s="2" t="s">
         <v>425</v>
       </c>
@@ -42207,10 +42207,10 @@
         <f t="shared" si="17"/>
         <v>212</v>
       </c>
-      <c r="M353" s="284" t="s">
+      <c r="M353" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N353" s="285"/>
+      <c r="N353" s="177"/>
       <c r="O353" s="2" t="s">
         <v>425</v>
       </c>
@@ -42280,10 +42280,10 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M354" s="306" t="s">
+      <c r="M354" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N354" s="307"/>
+      <c r="N354" s="173"/>
       <c r="O354" s="2" t="s">
         <v>459</v>
       </c>
@@ -42353,10 +42353,10 @@
         <f t="shared" si="17"/>
         <v>127</v>
       </c>
-      <c r="M355" s="306" t="s">
+      <c r="M355" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N355" s="307"/>
+      <c r="N355" s="173"/>
       <c r="O355" s="2" t="s">
         <v>459</v>
       </c>
@@ -42370,7 +42370,7 @@
         <v>918</v>
       </c>
       <c r="U355" s="109" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="V355" s="109" t="s">
         <v>918</v>
@@ -42426,10 +42426,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M356" s="306" t="s">
+      <c r="M356" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N356" s="307"/>
+      <c r="N356" s="173"/>
       <c r="O356" s="2" t="s">
         <v>459</v>
       </c>
@@ -42499,10 +42499,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M357" s="306" t="s">
+      <c r="M357" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N357" s="307"/>
+      <c r="N357" s="173"/>
       <c r="O357" s="2" t="s">
         <v>459</v>
       </c>
@@ -42591,7 +42591,7 @@
         <v>921</v>
       </c>
       <c r="U358" s="109" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="V358" s="109" t="s">
         <v>921</v>
@@ -42647,10 +42647,10 @@
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="M359" s="298" t="s">
+      <c r="M359" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N359" s="299"/>
+      <c r="N359" s="163"/>
       <c r="O359" s="2" t="s">
         <v>434</v>
       </c>
@@ -42720,10 +42720,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="M360" s="290" t="s">
+      <c r="M360" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N360" s="291"/>
+      <c r="N360" s="175"/>
       <c r="O360" s="2" t="s">
         <v>457</v>
       </c>
@@ -42737,7 +42737,7 @@
         <v>923</v>
       </c>
       <c r="U360" s="109" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="V360" s="109" t="s">
         <v>923</v>
@@ -42793,10 +42793,10 @@
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="M361" s="298" t="s">
+      <c r="M361" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N361" s="299"/>
+      <c r="N361" s="163"/>
       <c r="O361" s="2" t="s">
         <v>434</v>
       </c>
@@ -42866,10 +42866,10 @@
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="M362" s="304" t="s">
+      <c r="M362" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N362" s="305"/>
+      <c r="N362" s="169"/>
       <c r="O362" s="2" t="s">
         <v>495</v>
       </c>
@@ -42939,10 +42939,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M363" s="304" t="s">
+      <c r="M363" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N363" s="305"/>
+      <c r="N363" s="169"/>
       <c r="O363" s="2" t="s">
         <v>495</v>
       </c>
@@ -43237,10 +43237,10 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="M367" s="288" t="s">
+      <c r="M367" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N367" s="289"/>
+      <c r="N367" s="159"/>
       <c r="O367" s="2" t="s">
         <v>420</v>
       </c>
@@ -43310,10 +43310,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M368" s="288" t="s">
+      <c r="M368" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N368" s="289"/>
+      <c r="N368" s="159"/>
       <c r="O368" s="2" t="s">
         <v>420</v>
       </c>
@@ -43383,10 +43383,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M369" s="288" t="s">
+      <c r="M369" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N369" s="289"/>
+      <c r="N369" s="159"/>
       <c r="O369" s="2" t="s">
         <v>420</v>
       </c>
@@ -43531,10 +43531,10 @@
         <f t="shared" si="17"/>
         <v>134</v>
       </c>
-      <c r="M371" s="288" t="s">
+      <c r="M371" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N371" s="289"/>
+      <c r="N371" s="159"/>
       <c r="O371" s="2" t="s">
         <v>420</v>
       </c>
@@ -43604,10 +43604,10 @@
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="M372" s="308" t="s">
+      <c r="M372" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="N372" s="309"/>
+      <c r="N372" s="165"/>
       <c r="O372" s="2" t="s">
         <v>450</v>
       </c>
@@ -43677,10 +43677,10 @@
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-      <c r="M373" s="308" t="s">
+      <c r="M373" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="N373" s="309"/>
+      <c r="N373" s="165"/>
       <c r="O373" s="2" t="s">
         <v>450</v>
       </c>
@@ -43769,7 +43769,7 @@
         <v>952</v>
       </c>
       <c r="U374" s="109" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="V374" s="109" t="s">
         <v>1327</v>
@@ -43994,7 +43994,7 @@
         <v>953</v>
       </c>
       <c r="U377" s="109" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="V377" s="109" t="s">
         <v>1328</v>
@@ -44050,10 +44050,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M378" s="294" t="s">
+      <c r="M378" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="N378" s="295"/>
+      <c r="N378" s="167"/>
       <c r="O378" s="2" t="s">
         <v>454</v>
       </c>
@@ -44067,7 +44067,7 @@
         <v>939</v>
       </c>
       <c r="U378" s="109" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="V378" s="109" t="s">
         <v>939</v>
@@ -44123,10 +44123,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M379" s="304" t="s">
+      <c r="M379" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N379" s="305"/>
+      <c r="N379" s="169"/>
       <c r="O379" s="2" t="s">
         <v>495</v>
       </c>
@@ -44140,7 +44140,7 @@
         <v>940</v>
       </c>
       <c r="U379" s="109" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="V379" s="109" t="s">
         <v>940</v>
@@ -44196,10 +44196,10 @@
         <f t="shared" si="17"/>
         <v>285</v>
       </c>
-      <c r="M380" s="310" t="s">
+      <c r="M380" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="N380" s="311"/>
+      <c r="N380" s="171"/>
       <c r="O380" s="2" t="s">
         <v>498</v>
       </c>
@@ -44213,7 +44213,7 @@
         <v>941</v>
       </c>
       <c r="U380" s="109" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="V380" s="109" t="s">
         <v>941</v>
@@ -44288,7 +44288,7 @@
         <v>942</v>
       </c>
       <c r="U381" s="109" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="V381" s="109" t="s">
         <v>942</v>
@@ -44363,7 +44363,7 @@
         <v>943</v>
       </c>
       <c r="U382" s="109" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="V382" s="109" t="s">
         <v>943</v>
@@ -44416,10 +44416,10 @@
       <c r="L383" s="2">
         <v>251</v>
       </c>
-      <c r="M383" s="288" t="s">
+      <c r="M383" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N383" s="289"/>
+      <c r="N383" s="159"/>
       <c r="O383" s="2" t="s">
         <v>420</v>
       </c>
@@ -44436,7 +44436,7 @@
         <v>944</v>
       </c>
       <c r="U383" s="109" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="V383" s="109" t="s">
         <v>944</v>
@@ -44492,10 +44492,10 @@
       <c r="L384" s="2">
         <v>251</v>
       </c>
-      <c r="M384" s="302" t="s">
+      <c r="M384" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="N384" s="303"/>
+      <c r="N384" s="161"/>
       <c r="O384" s="2" t="s">
         <v>428</v>
       </c>
@@ -44509,7 +44509,7 @@
         <v>945</v>
       </c>
       <c r="U384" s="109" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="V384" s="109" t="s">
         <v>945</v>
@@ -44581,7 +44581,7 @@
         <v>954</v>
       </c>
       <c r="U385" s="109" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="V385" s="109" t="s">
         <v>1329</v>
@@ -44656,7 +44656,7 @@
         <v>946</v>
       </c>
       <c r="U386" s="109" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="V386" s="109" t="s">
         <v>946</v>
@@ -44712,10 +44712,10 @@
         <f t="shared" ref="L387:L445" si="19">ROUND((1+(H387-75)/500)*(ROUND(0.25*(7*MAX(G387,E387)+MIN(G387,E387)),0)),0)</f>
         <v>115</v>
       </c>
-      <c r="M387" s="298" t="s">
+      <c r="M387" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N387" s="299"/>
+      <c r="N387" s="163"/>
       <c r="O387" s="2" t="s">
         <v>434</v>
       </c>
@@ -44729,7 +44729,7 @@
         <v>955</v>
       </c>
       <c r="U387" s="109" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="V387" s="109" t="s">
         <v>1330</v>
@@ -44793,7 +44793,7 @@
         <v>3279</v>
       </c>
       <c r="P388" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T388" s="109" t="s">
         <v>2705</v>
@@ -44859,7 +44859,7 @@
         <v>3280</v>
       </c>
       <c r="P389" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T389" s="109" t="s">
         <v>2706</v>
@@ -44925,7 +44925,7 @@
         <v>3282</v>
       </c>
       <c r="P390" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T390" s="109" t="s">
         <v>2707</v>
@@ -44989,7 +44989,7 @@
         <v>3281</v>
       </c>
       <c r="P391" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T391" s="109" t="s">
         <v>2708</v>
@@ -45055,7 +45055,7 @@
         <v>3154</v>
       </c>
       <c r="P392" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T392" s="109" t="s">
         <v>2709</v>
@@ -45121,13 +45121,13 @@
         <v>3154</v>
       </c>
       <c r="P393" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T393" s="109" t="s">
         <v>2710</v>
       </c>
       <c r="U393" s="109" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="V393" s="109" t="s">
         <v>2710</v>
@@ -45185,7 +45185,7 @@
         <v>3155</v>
       </c>
       <c r="P394" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T394" s="109" t="s">
         <v>2711</v>
@@ -45249,7 +45249,7 @@
         <v>3155</v>
       </c>
       <c r="P395" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T395" s="109" t="s">
         <v>2712</v>
@@ -45315,7 +45315,7 @@
         <v>3156</v>
       </c>
       <c r="P396" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T396" s="109" t="s">
         <v>2713</v>
@@ -45381,7 +45381,7 @@
         <v>3157</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T397" s="109" t="s">
         <v>2714</v>
@@ -45447,7 +45447,7 @@
         <v>3157</v>
       </c>
       <c r="P398" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T398" s="109" t="s">
         <v>2715</v>
@@ -45513,13 +45513,13 @@
         <v>3157</v>
       </c>
       <c r="P399" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T399" s="109" t="s">
         <v>2716</v>
       </c>
       <c r="U399" s="109" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="V399" s="109" t="s">
         <v>2716</v>
@@ -45577,7 +45577,7 @@
         <v>3158</v>
       </c>
       <c r="P400" s="2" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="T400" s="109" t="s">
         <v>2717</v>
@@ -46699,7 +46699,7 @@
         <v>2735</v>
       </c>
       <c r="U418" s="109" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="V418" s="109" t="s">
         <v>2735</v>
@@ -47376,7 +47376,7 @@
         <v>2746</v>
       </c>
       <c r="U429" s="109" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="V429" s="109" t="s">
         <v>2746</v>
@@ -47996,7 +47996,7 @@
         <v>2756</v>
       </c>
       <c r="U439" s="109" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="V439" s="109" t="s">
         <v>2756</v>
@@ -48435,7 +48435,7 @@
         <v>2763</v>
       </c>
       <c r="U446" s="109" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="V446" s="109" t="s">
         <v>2763</v>
@@ -49055,7 +49055,7 @@
         <v>2773</v>
       </c>
       <c r="U456" s="109" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="V456" s="109" t="s">
         <v>2773</v>
@@ -49429,7 +49429,7 @@
         <v>2779</v>
       </c>
       <c r="U462" s="109" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="V462" s="109" t="s">
         <v>2779</v>
@@ -49492,7 +49492,7 @@
         <v>2780</v>
       </c>
       <c r="U463" s="109" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="V463" s="109" t="s">
         <v>2780</v>
@@ -49862,7 +49862,7 @@
         <v>2786</v>
       </c>
       <c r="U469" s="109" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="V469" s="109" t="s">
         <v>2786</v>
@@ -49986,7 +49986,7 @@
         <v>2788</v>
       </c>
       <c r="U471" s="109" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="V471" s="109" t="s">
         <v>2788</v>
@@ -50047,7 +50047,7 @@
         <v>2789</v>
       </c>
       <c r="U472" s="109" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="V472" s="109" t="s">
         <v>2789</v>
@@ -50173,7 +50173,7 @@
         <v>2791</v>
       </c>
       <c r="U474" s="109" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="V474" s="109" t="s">
         <v>2791</v>
@@ -50237,7 +50237,7 @@
         <v>3288</v>
       </c>
       <c r="V475" s="109" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="Z475" s="110"/>
       <c r="AA475" s="109"/>
@@ -50297,7 +50297,7 @@
         <v>2792</v>
       </c>
       <c r="U476" s="109" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="V476" s="109" t="s">
         <v>2792</v>
@@ -50608,7 +50608,7 @@
         <v>2797</v>
       </c>
       <c r="U481" s="109" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="V481" s="109" t="s">
         <v>2797</v>
@@ -50669,7 +50669,7 @@
         <v>2798</v>
       </c>
       <c r="U482" s="109" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="V482" s="109" t="s">
         <v>2798</v>
@@ -50730,7 +50730,7 @@
         <v>2799</v>
       </c>
       <c r="U483" s="109" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="V483" s="109" t="s">
         <v>2799</v>
@@ -50793,7 +50793,7 @@
         <v>2800</v>
       </c>
       <c r="U484" s="109" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="V484" s="109" t="s">
         <v>2800</v>
@@ -50856,7 +50856,7 @@
         <v>2801</v>
       </c>
       <c r="U485" s="109" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="V485" s="109" t="s">
         <v>2801</v>
@@ -50919,7 +50919,7 @@
         <v>2802</v>
       </c>
       <c r="U486" s="109" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="V486" s="109" t="s">
         <v>2802</v>
@@ -50980,7 +50980,7 @@
         <v>2803</v>
       </c>
       <c r="U487" s="109" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="V487" s="109" t="s">
         <v>2803</v>
@@ -51043,7 +51043,7 @@
         <v>2804</v>
       </c>
       <c r="U488" s="109" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="V488" s="109" t="s">
         <v>2804</v>
@@ -51104,7 +51104,7 @@
         <v>2805</v>
       </c>
       <c r="U489" s="109" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="V489" s="109" t="s">
         <v>2805</v>
@@ -51287,7 +51287,7 @@
         <v>2808</v>
       </c>
       <c r="U492" s="109" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="V492" s="109" t="s">
         <v>2808</v>
@@ -51348,7 +51348,7 @@
         <v>2809</v>
       </c>
       <c r="U493" s="109" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="V493" s="109" t="s">
         <v>2809</v>
@@ -51409,7 +51409,7 @@
         <v>2810</v>
       </c>
       <c r="U494" s="109" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="V494" s="109" t="s">
         <v>2810</v>
@@ -51472,7 +51472,7 @@
         <v>2811</v>
       </c>
       <c r="U495" s="109" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="V495" s="109" t="s">
         <v>2811</v>
@@ -51842,7 +51842,7 @@
         <v>2817</v>
       </c>
       <c r="U501" s="109" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="V501" s="109" t="s">
         <v>2817</v>
@@ -51903,7 +51903,7 @@
         <v>2818</v>
       </c>
       <c r="U502" s="109" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="V502" s="109" t="s">
         <v>2818</v>
@@ -53129,7 +53129,7 @@
         <v>2838</v>
       </c>
       <c r="U522" s="109" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="V522" s="109" t="s">
         <v>2838</v>
@@ -53745,7 +53745,7 @@
         <v>2848</v>
       </c>
       <c r="U532" s="109" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="V532" s="109" t="s">
         <v>2848</v>
@@ -53928,7 +53928,7 @@
         <v>2851</v>
       </c>
       <c r="U535" s="109" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="V535" s="109" t="s">
         <v>2851</v>
@@ -54741,7 +54741,7 @@
         <v>2864</v>
       </c>
       <c r="U548" s="109" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="V548" s="109" t="s">
         <v>2864</v>
@@ -54863,7 +54863,7 @@
         <v>2866</v>
       </c>
       <c r="U550" s="109" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="V550" s="109" t="s">
         <v>2866</v>
@@ -55548,7 +55548,7 @@
         <v>2877</v>
       </c>
       <c r="U561" s="109" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="V561" s="109" t="s">
         <v>2877</v>
@@ -56534,7 +56534,7 @@
         <v>2893</v>
       </c>
       <c r="U577" s="109" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="V577" s="109" t="s">
         <v>2893</v>
@@ -57026,7 +57026,7 @@
         <v>2901</v>
       </c>
       <c r="U585" s="109" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="V585" s="109" t="s">
         <v>2901</v>
@@ -57465,7 +57465,7 @@
         <v>2908</v>
       </c>
       <c r="U592" s="109" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="V592" s="109" t="s">
         <v>2908</v>
@@ -57591,7 +57591,7 @@
         <v>2910</v>
       </c>
       <c r="U594" s="109" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="V594" s="109" t="s">
         <v>2910</v>
@@ -57904,7 +57904,7 @@
         <v>2915</v>
       </c>
       <c r="U599" s="109" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="V599" s="109" t="s">
         <v>2915</v>
@@ -58581,7 +58581,7 @@
         <v>2926</v>
       </c>
       <c r="U610" s="109" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="V610" s="109" t="s">
         <v>2926</v>
@@ -58825,7 +58825,7 @@
         <v>2930</v>
       </c>
       <c r="U614" s="109" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="V614" s="109" t="s">
         <v>2930</v>
@@ -59254,7 +59254,7 @@
         <v>2937</v>
       </c>
       <c r="U621" s="109" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="V621" s="109" t="s">
         <v>2937</v>
@@ -59315,7 +59315,7 @@
         <v>2938</v>
       </c>
       <c r="U622" s="109" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="V622" s="109" t="s">
         <v>2938</v>
@@ -59567,7 +59567,7 @@
         <v>2942</v>
       </c>
       <c r="U626" s="109" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="V626" s="109" t="s">
         <v>2942</v>
@@ -59941,7 +59941,7 @@
         <v>2948</v>
       </c>
       <c r="U632" s="109" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="V632" s="109" t="s">
         <v>2948</v>
@@ -60067,7 +60067,7 @@
         <v>2950</v>
       </c>
       <c r="U634" s="109" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="V634" s="109" t="s">
         <v>2950</v>
@@ -60130,7 +60130,7 @@
         <v>2951</v>
       </c>
       <c r="U635" s="109" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="V635" s="109" t="s">
         <v>2951</v>
@@ -60193,7 +60193,7 @@
         <v>2952</v>
       </c>
       <c r="U636" s="109" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="V636" s="109" t="s">
         <v>2952</v>
@@ -60319,7 +60319,7 @@
         <v>2954</v>
       </c>
       <c r="U638" s="109" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="V638" s="109" t="s">
         <v>2954</v>
@@ -60382,7 +60382,7 @@
         <v>2955</v>
       </c>
       <c r="U639" s="109" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="V639" s="109" t="s">
         <v>2955</v>
@@ -60445,7 +60445,7 @@
         <v>2956</v>
       </c>
       <c r="U640" s="109" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="V640" s="109" t="s">
         <v>2956</v>
@@ -60508,7 +60508,7 @@
         <v>2957</v>
       </c>
       <c r="U641" s="109" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="V641" s="109" t="s">
         <v>2957</v>
@@ -60565,7 +60565,7 @@
         <v>2958</v>
       </c>
       <c r="U642" s="109" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="V642" s="109" t="s">
         <v>2958</v>
@@ -60624,7 +60624,7 @@
         <v>2959</v>
       </c>
       <c r="U643" s="109" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="V643" s="109" t="s">
         <v>2959</v>
@@ -60683,7 +60683,7 @@
         <v>2960</v>
       </c>
       <c r="U644" s="109" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="V644" s="109" t="s">
         <v>2960</v>
@@ -60742,7 +60742,7 @@
         <v>2961</v>
       </c>
       <c r="U645" s="109" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="V645" s="109" t="s">
         <v>2961</v>
@@ -60801,7 +60801,7 @@
         <v>2962</v>
       </c>
       <c r="U646" s="109" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="V646" s="109" t="s">
         <v>2962</v>
@@ -60860,7 +60860,7 @@
         <v>2963</v>
       </c>
       <c r="U647" s="156" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="V647" s="156" t="s">
         <v>2963</v>
@@ -60919,7 +60919,7 @@
         <v>2964</v>
       </c>
       <c r="U648" s="156" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="V648" s="156" t="s">
         <v>2964</v>
@@ -61037,7 +61037,7 @@
         <v>2966</v>
       </c>
       <c r="U650" s="156" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="V650" s="156" t="s">
         <v>2966</v>
@@ -61573,7 +61573,7 @@
         <v>2975</v>
       </c>
       <c r="U659" s="109" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="V659" s="109" t="s">
         <v>2975</v>
@@ -61693,7 +61693,7 @@
         <v>2977</v>
       </c>
       <c r="U661" s="109" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="V661" s="109" t="s">
         <v>2977</v>
@@ -61876,7 +61876,7 @@
         <v>2980</v>
       </c>
       <c r="U664" s="109" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="V664" s="109" t="s">
         <v>2980</v>
@@ -62952,7 +62952,7 @@
         <v>2998</v>
       </c>
       <c r="U682" s="109" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="V682" s="109" t="s">
         <v>2998</v>
@@ -64097,7 +64097,7 @@
         <v>3017</v>
       </c>
       <c r="U701" s="109" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="V701" s="109" t="s">
         <v>3017</v>
@@ -64158,7 +64158,7 @@
         <v>3018</v>
       </c>
       <c r="U702" s="109" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="V702" s="109" t="s">
         <v>3018</v>
@@ -64457,7 +64457,7 @@
         <v>3023</v>
       </c>
       <c r="U707" s="109" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="V707" s="109" t="s">
         <v>3023</v>
@@ -64518,7 +64518,7 @@
         <v>3024</v>
       </c>
       <c r="U708" s="109" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="V708" s="109" t="s">
         <v>3024</v>
@@ -64880,7 +64880,7 @@
         <v>3030</v>
       </c>
       <c r="U714" s="109" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="V714" s="109" t="s">
         <v>3030</v>
@@ -65058,7 +65058,7 @@
         <v>3033</v>
       </c>
       <c r="U717" s="109" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="V717" s="109" t="s">
         <v>3033</v>
@@ -65117,7 +65117,7 @@
         <v>3034</v>
       </c>
       <c r="U718" s="109" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="V718" s="109" t="s">
         <v>3034</v>
@@ -65176,7 +65176,7 @@
         <v>3035</v>
       </c>
       <c r="U719" s="109" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="V719" s="109" t="s">
         <v>3035</v>
@@ -65235,7 +65235,7 @@
         <v>3036</v>
       </c>
       <c r="U720" s="109" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="V720" s="109" t="s">
         <v>3036</v>
@@ -65353,7 +65353,7 @@
         <v>3038</v>
       </c>
       <c r="U722" s="109" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="V722" s="109" t="s">
         <v>3038</v>
@@ -65413,7 +65413,7 @@
         <v>3040</v>
       </c>
       <c r="U723" s="109" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="V723" s="109" t="s">
         <v>3040</v>
@@ -65719,7 +65719,7 @@
         <v>3045</v>
       </c>
       <c r="U728" s="109" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="V728" s="109" t="s">
         <v>3045</v>
@@ -65901,7 +65901,7 @@
         <v>3048</v>
       </c>
       <c r="U731" s="109" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="V731" s="109" t="s">
         <v>3048</v>
@@ -66207,7 +66207,7 @@
         <v>3053</v>
       </c>
       <c r="U736" s="109" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="V736" s="109" t="s">
         <v>3053</v>
@@ -67615,7 +67615,7 @@
         <v>3076</v>
       </c>
       <c r="U759" s="109" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="V759" s="109" t="s">
         <v>3076</v>
@@ -68469,7 +68469,7 @@
         <v>3090</v>
       </c>
       <c r="U773" s="109" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="V773" s="109" t="s">
         <v>3090</v>
@@ -68834,13 +68834,13 @@
         <v>3269</v>
       </c>
       <c r="T779" s="109" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="U779" s="109" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="V779" s="109" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="W779" s="109"/>
       <c r="X779" s="109"/>
@@ -69269,7 +69269,7 @@
         <v>3102</v>
       </c>
       <c r="U786" s="109" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="V786" s="109" t="s">
         <v>3102</v>
@@ -69761,7 +69761,7 @@
         <v>3110</v>
       </c>
       <c r="U794" s="109" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="V794" s="109" t="s">
         <v>3110</v>
@@ -69885,7 +69885,7 @@
         <v>3112</v>
       </c>
       <c r="U796" s="109" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="V796" s="109" t="s">
         <v>3112</v>
@@ -70437,7 +70437,7 @@
         <v>3121</v>
       </c>
       <c r="U805" s="109" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="V805" s="109" t="s">
         <v>3121</v>
@@ -70631,72 +70631,126 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M266:N266"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="M269:N269"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M262:N262"/>
-    <mergeCell ref="M263:N263"/>
-    <mergeCell ref="M264:N264"/>
-    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M244:N244"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M237:N237"/>
+    <mergeCell ref="M240:N240"/>
+    <mergeCell ref="M241:N241"/>
+    <mergeCell ref="M242:N242"/>
+    <mergeCell ref="M243:N243"/>
+    <mergeCell ref="M232:N232"/>
+    <mergeCell ref="M233:N233"/>
+    <mergeCell ref="M234:N234"/>
+    <mergeCell ref="M225:N225"/>
     <mergeCell ref="M238:N238"/>
     <mergeCell ref="M246:N246"/>
     <mergeCell ref="M253:N253"/>
@@ -70721,126 +70775,72 @@
     <mergeCell ref="M203:N203"/>
     <mergeCell ref="M205:N205"/>
     <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M244:N244"/>
-    <mergeCell ref="M245:N245"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M237:N237"/>
-    <mergeCell ref="M240:N240"/>
-    <mergeCell ref="M241:N241"/>
-    <mergeCell ref="M242:N242"/>
-    <mergeCell ref="M243:N243"/>
-    <mergeCell ref="M232:N232"/>
-    <mergeCell ref="M233:N233"/>
-    <mergeCell ref="M234:N234"/>
-    <mergeCell ref="M225:N225"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M266:N266"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="M269:N269"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M262:N262"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="M264:N264"/>
+    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M651:N720 M388:N641 M722:N808">
@@ -73025,7 +73025,7 @@
     <hyperlink ref="V231" r:id="rId1894" tooltip="刺龙王"/>
     <hyperlink ref="V232" r:id="rId1895" tooltip="小小象"/>
     <hyperlink ref="V233" r:id="rId1896" tooltip="顿甲"/>
-    <hyperlink ref="V234" r:id="rId1897" tooltip="多边兽Ⅱ"/>
+    <hyperlink ref="V234" r:id="rId1897" tooltip="多边兽Ⅱ" display="多边兽Ⅱ"/>
     <hyperlink ref="V235" r:id="rId1898" tooltip="惊角鹿"/>
     <hyperlink ref="V236" r:id="rId1899" tooltip="图图犬"/>
     <hyperlink ref="V237" r:id="rId1900" tooltip="无畏小子"/>

--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -10812,8 +10812,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>多边兽II</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>多边兽Ⅱ</t>
   </si>
 </sst>
 </file>
@@ -13764,124 +13763,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13890,28 +13775,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13926,28 +13811,58 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13956,40 +13871,94 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13998,22 +13967,52 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14058,172 +14057,172 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15166,7 +15165,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15177,8 +15176,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M767" workbookViewId="0">
-      <selection activeCell="V779" sqref="V779"/>
+    <sheetView tabSelected="1" topLeftCell="M221" workbookViewId="0">
+      <selection activeCell="V234" sqref="V234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15552,10 +15551,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M5" s="298" t="s">
+      <c r="M5" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="299"/>
+      <c r="N5" s="179"/>
       <c r="O5" s="2" t="s">
         <v>418</v>
       </c>
@@ -15627,10 +15626,10 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M6" s="214" t="s">
+      <c r="M6" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="215"/>
+      <c r="N6" s="175"/>
       <c r="O6" s="2" t="s">
         <v>418</v>
       </c>
@@ -15794,10 +15793,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M8" s="300" t="s">
+      <c r="M8" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="301"/>
+      <c r="N8" s="181"/>
       <c r="O8" s="2" t="s">
         <v>420</v>
       </c>
@@ -15869,10 +15868,10 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="M9" s="200" t="s">
+      <c r="M9" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="201"/>
+      <c r="N9" s="183"/>
       <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
@@ -15944,10 +15943,10 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="201"/>
+      <c r="N10" s="183"/>
       <c r="O10" s="2" t="s">
         <v>420</v>
       </c>
@@ -16019,10 +16018,10 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M11" s="302" t="s">
+      <c r="M11" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="303"/>
+      <c r="N11" s="185"/>
       <c r="O11" s="2" t="s">
         <v>421</v>
       </c>
@@ -16094,10 +16093,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M12" s="232" t="s">
+      <c r="M12" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="233"/>
+      <c r="N12" s="263"/>
       <c r="O12" s="2" t="s">
         <v>421</v>
       </c>
@@ -16728,10 +16727,10 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M20" s="198" t="s">
+      <c r="M20" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="199"/>
+      <c r="N20" s="161"/>
       <c r="O20" s="2" t="s">
         <v>425</v>
       </c>
@@ -16803,10 +16802,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M21" s="198" t="s">
+      <c r="M21" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="199"/>
+      <c r="N21" s="161"/>
       <c r="O21" s="2" t="s">
         <v>425</v>
       </c>
@@ -17042,10 +17041,10 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="M24" s="226" t="s">
+      <c r="M24" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="227"/>
+      <c r="N24" s="159"/>
       <c r="O24" s="2" t="s">
         <v>426</v>
       </c>
@@ -17122,10 +17121,10 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="M25" s="226" t="s">
+      <c r="M25" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="227"/>
+      <c r="N25" s="159"/>
       <c r="O25" s="2" t="s">
         <v>426</v>
       </c>
@@ -17197,10 +17196,10 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="M26" s="310" t="s">
+      <c r="M26" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="311"/>
+      <c r="N26" s="163"/>
       <c r="O26" s="2" t="s">
         <v>427</v>
       </c>
@@ -17277,10 +17276,10 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="M27" s="304" t="s">
+      <c r="M27" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="305"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="2" t="s">
         <v>427</v>
       </c>
@@ -17362,10 +17361,10 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="M28" s="306" t="s">
+      <c r="M28" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="307"/>
+      <c r="N28" s="189"/>
       <c r="O28" s="2" t="s">
         <v>428</v>
       </c>
@@ -17442,10 +17441,10 @@
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="M29" s="308" t="s">
+      <c r="M29" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="309"/>
+      <c r="N29" s="191"/>
       <c r="O29" s="2" t="s">
         <v>428</v>
       </c>
@@ -17517,10 +17516,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M30" s="226" t="s">
+      <c r="M30" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="227"/>
+      <c r="N30" s="159"/>
       <c r="O30" s="2" t="s">
         <v>426</v>
       </c>
@@ -17592,10 +17591,10 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M31" s="226" t="s">
+      <c r="M31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="227"/>
+      <c r="N31" s="159"/>
       <c r="O31" s="2" t="s">
         <v>426</v>
       </c>
@@ -17744,10 +17743,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="M33" s="226" t="s">
+      <c r="M33" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="227"/>
+      <c r="N33" s="159"/>
       <c r="O33" s="2" t="s">
         <v>426</v>
       </c>
@@ -17819,10 +17818,10 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="M34" s="226" t="s">
+      <c r="M34" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="227"/>
+      <c r="N34" s="159"/>
       <c r="O34" s="2" t="s">
         <v>426</v>
       </c>
@@ -17976,10 +17975,10 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M36" s="208" t="s">
+      <c r="M36" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="209"/>
+      <c r="N36" s="171"/>
       <c r="O36" s="2" t="s">
         <v>568</v>
       </c>
@@ -18051,10 +18050,10 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="M37" s="210" t="s">
+      <c r="M37" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="211"/>
+      <c r="N37" s="173"/>
       <c r="O37" s="2" t="s">
         <v>568</v>
       </c>
@@ -18131,10 +18130,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M38" s="214" t="s">
+      <c r="M38" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="215"/>
+      <c r="N38" s="175"/>
       <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
@@ -18206,10 +18205,10 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="M39" s="214" t="s">
+      <c r="M39" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="215"/>
+      <c r="N39" s="175"/>
       <c r="O39" s="2" t="s">
         <v>418</v>
       </c>
@@ -18291,10 +18290,10 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M40" s="236" t="s">
+      <c r="M40" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="237"/>
+      <c r="N40" s="177"/>
       <c r="O40" s="2" t="s">
         <v>483</v>
       </c>
@@ -18371,10 +18370,10 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="M41" s="212" t="s">
+      <c r="M41" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="213"/>
+      <c r="N41" s="265"/>
       <c r="O41" s="2" t="s">
         <v>483</v>
       </c>
@@ -19164,10 +19163,10 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="M51" s="238" t="s">
+      <c r="M51" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="239"/>
+      <c r="N51" s="165"/>
       <c r="O51" s="2" t="s">
         <v>428</v>
       </c>
@@ -19244,10 +19243,10 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="M52" s="240" t="s">
+      <c r="M52" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="241"/>
+      <c r="N52" s="167"/>
       <c r="O52" s="2" t="s">
         <v>428</v>
       </c>
@@ -19324,10 +19323,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M53" s="198" t="s">
+      <c r="M53" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="199"/>
+      <c r="N53" s="161"/>
       <c r="O53" s="2" t="s">
         <v>425</v>
       </c>
@@ -19404,10 +19403,10 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="M54" s="276" t="s">
+      <c r="M54" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="277"/>
+      <c r="N54" s="169"/>
       <c r="O54" s="2" t="s">
         <v>425</v>
       </c>
@@ -19484,10 +19483,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M55" s="200" t="s">
+      <c r="M55" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="201"/>
+      <c r="N55" s="183"/>
       <c r="O55" s="2" t="s">
         <v>420</v>
       </c>
@@ -19559,10 +19558,10 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="M56" s="294" t="s">
+      <c r="M56" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="295"/>
+      <c r="N56" s="209"/>
       <c r="O56" s="2" t="s">
         <v>420</v>
       </c>
@@ -19634,10 +19633,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M57" s="190" t="s">
+      <c r="M57" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="191"/>
+      <c r="N57" s="207"/>
       <c r="O57" s="2" t="s">
         <v>432</v>
       </c>
@@ -19709,10 +19708,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M58" s="190" t="s">
+      <c r="M58" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="191"/>
+      <c r="N58" s="207"/>
       <c r="O58" s="2" t="s">
         <v>432</v>
       </c>
@@ -19794,10 +19793,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M59" s="296" t="s">
+      <c r="M59" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="297"/>
+      <c r="N59" s="211"/>
       <c r="O59" s="2" t="s">
         <v>418</v>
       </c>
@@ -19869,10 +19868,10 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="M60" s="214" t="s">
+      <c r="M60" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="215"/>
+      <c r="N60" s="175"/>
       <c r="O60" s="2" t="s">
         <v>418</v>
       </c>
@@ -19954,10 +19953,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="M61" s="192" t="s">
+      <c r="M61" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="193"/>
+      <c r="N61" s="213"/>
       <c r="O61" s="2" t="s">
         <v>420</v>
       </c>
@@ -20029,10 +20028,10 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="M62" s="228" t="s">
+      <c r="M62" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="229"/>
+      <c r="N62" s="259"/>
       <c r="O62" s="2" t="s">
         <v>420</v>
       </c>
@@ -20196,10 +20195,10 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="M64" s="260" t="s">
+      <c r="M64" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="261"/>
+      <c r="N64" s="203"/>
       <c r="O64" s="2" t="s">
         <v>434</v>
       </c>
@@ -20271,10 +20270,10 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="M65" s="220" t="s">
+      <c r="M65" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="221"/>
+      <c r="N65" s="193"/>
       <c r="O65" s="2" t="s">
         <v>434</v>
       </c>
@@ -20346,10 +20345,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="M66" s="292" t="s">
+      <c r="M66" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="293"/>
+      <c r="N66" s="205"/>
       <c r="O66" s="2" t="s">
         <v>434</v>
       </c>
@@ -20426,10 +20425,10 @@
         <f t="shared" ref="L67:L130" si="5">ROUND((1+(H67-75)/500)*(ROUND(0.25*(7*MAX(G67,E67)+MIN(G67,E67)),0)),0)</f>
         <v>88</v>
       </c>
-      <c r="M67" s="190" t="s">
+      <c r="M67" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="191"/>
+      <c r="N67" s="207"/>
       <c r="O67" s="2" t="s">
         <v>432</v>
       </c>
@@ -20506,10 +20505,10 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="M68" s="190" t="s">
+      <c r="M68" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="191"/>
+      <c r="N68" s="207"/>
       <c r="O68" s="2" t="s">
         <v>432</v>
       </c>
@@ -20586,10 +20585,10 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="M69" s="190" t="s">
+      <c r="M69" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="191"/>
+      <c r="N69" s="207"/>
       <c r="O69" s="2" t="s">
         <v>432</v>
       </c>
@@ -21312,10 +21311,10 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="M78" s="214" t="s">
+      <c r="M78" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N78" s="215"/>
+      <c r="N78" s="175"/>
       <c r="O78" s="2" t="s">
         <v>418</v>
       </c>
@@ -21392,10 +21391,10 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="M79" s="288" t="s">
+      <c r="M79" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="289"/>
+      <c r="N79" s="199"/>
       <c r="O79" s="2" t="s">
         <v>418</v>
       </c>
@@ -22036,10 +22035,10 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M87" s="200" t="s">
+      <c r="M87" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N87" s="201"/>
+      <c r="N87" s="183"/>
       <c r="O87" s="2" t="s">
         <v>420</v>
       </c>
@@ -22208,10 +22207,10 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M89" s="226" t="s">
+      <c r="M89" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="227"/>
+      <c r="N89" s="159"/>
       <c r="O89" s="2" t="s">
         <v>426</v>
       </c>
@@ -22288,10 +22287,10 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="M90" s="226" t="s">
+      <c r="M90" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="227"/>
+      <c r="N90" s="159"/>
       <c r="O90" s="2" t="s">
         <v>426</v>
       </c>
@@ -22368,10 +22367,10 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="M91" s="290" t="s">
+      <c r="M91" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="291"/>
+      <c r="N91" s="201"/>
       <c r="O91" s="2" t="s">
         <v>420</v>
       </c>
@@ -22868,10 +22867,10 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="M97" s="220" t="s">
+      <c r="M97" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="221"/>
+      <c r="N97" s="193"/>
       <c r="O97" s="2" t="s">
         <v>434</v>
       </c>
@@ -22943,10 +22942,10 @@
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M98" s="220" t="s">
+      <c r="M98" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="221"/>
+      <c r="N98" s="193"/>
       <c r="O98" s="2" t="s">
         <v>434</v>
       </c>
@@ -23023,10 +23022,10 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="M99" s="284" t="s">
+      <c r="M99" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="N99" s="285"/>
+      <c r="N99" s="195"/>
       <c r="O99" s="2" t="s">
         <v>420</v>
       </c>
@@ -23098,10 +23097,10 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="M100" s="200" t="s">
+      <c r="M100" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="201"/>
+      <c r="N100" s="183"/>
       <c r="O100" s="2" t="s">
         <v>420</v>
       </c>
@@ -23178,10 +23177,10 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="M101" s="286" t="s">
+      <c r="M101" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="287"/>
+      <c r="N101" s="197"/>
       <c r="O101" s="2" t="s">
         <v>427</v>
       </c>
@@ -23258,10 +23257,10 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="M102" s="224" t="s">
+      <c r="M102" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="225"/>
+      <c r="N102" s="257"/>
       <c r="O102" s="2" t="s">
         <v>427</v>
       </c>
@@ -23497,10 +23496,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M105" s="238" t="s">
+      <c r="M105" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="239"/>
+      <c r="N105" s="165"/>
       <c r="O105" s="2" t="s">
         <v>428</v>
       </c>
@@ -23572,10 +23571,10 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M106" s="280" t="s">
+      <c r="M106" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="281"/>
+      <c r="N106" s="217"/>
       <c r="O106" s="2" t="s">
         <v>428</v>
       </c>
@@ -23647,10 +23646,10 @@
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="M107" s="190" t="s">
+      <c r="M107" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N107" s="191"/>
+      <c r="N107" s="207"/>
       <c r="O107" s="2" t="s">
         <v>432</v>
       </c>
@@ -23727,10 +23726,10 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="M108" s="190" t="s">
+      <c r="M108" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N108" s="191"/>
+      <c r="N108" s="207"/>
       <c r="O108" s="2" t="s">
         <v>432</v>
       </c>
@@ -23812,10 +23811,10 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="M109" s="282" t="s">
+      <c r="M109" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="N109" s="283"/>
+      <c r="N109" s="219"/>
       <c r="O109" s="2" t="s">
         <v>425</v>
       </c>
@@ -23887,10 +23886,10 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="M110" s="226" t="s">
+      <c r="M110" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="227"/>
+      <c r="N110" s="159"/>
       <c r="O110" s="2" t="s">
         <v>426</v>
       </c>
@@ -23967,10 +23966,10 @@
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="M111" s="226" t="s">
+      <c r="M111" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="227"/>
+      <c r="N111" s="159"/>
       <c r="O111" s="2" t="s">
         <v>426</v>
       </c>
@@ -24206,10 +24205,10 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="M114" s="208" t="s">
+      <c r="M114" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N114" s="209"/>
+      <c r="N114" s="171"/>
       <c r="O114" s="2" t="s">
         <v>425</v>
       </c>
@@ -24286,10 +24285,10 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M115" s="278" t="s">
+      <c r="M115" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="N115" s="279"/>
+      <c r="N115" s="215"/>
       <c r="O115" s="2" t="s">
         <v>443</v>
       </c>
@@ -24366,10 +24365,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M116" s="276" t="s">
+      <c r="M116" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N116" s="277"/>
+      <c r="N116" s="169"/>
       <c r="O116" s="2" t="s">
         <v>425</v>
       </c>
@@ -24446,10 +24445,10 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="M117" s="200" t="s">
+      <c r="M117" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="201"/>
+      <c r="N117" s="183"/>
       <c r="O117" s="2" t="s">
         <v>420</v>
       </c>
@@ -24521,10 +24520,10 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="M118" s="200" t="s">
+      <c r="M118" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="201"/>
+      <c r="N118" s="183"/>
       <c r="O118" s="2" t="s">
         <v>420</v>
       </c>
@@ -24601,10 +24600,10 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="M119" s="200" t="s">
+      <c r="M119" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N119" s="201"/>
+      <c r="N119" s="183"/>
       <c r="O119" s="2" t="s">
         <v>420</v>
       </c>
@@ -24676,10 +24675,10 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-      <c r="M120" s="200" t="s">
+      <c r="M120" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N120" s="201"/>
+      <c r="N120" s="183"/>
       <c r="O120" s="2" t="s">
         <v>420</v>
       </c>
@@ -24761,10 +24760,10 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="M121" s="228" t="s">
+      <c r="M121" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="N121" s="229"/>
+      <c r="N121" s="259"/>
       <c r="O121" s="2" t="s">
         <v>420</v>
       </c>
@@ -24928,10 +24927,10 @@
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="M123" s="220" t="s">
+      <c r="M123" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="221"/>
+      <c r="N123" s="193"/>
       <c r="O123" s="2" t="s">
         <v>434</v>
       </c>
@@ -25177,10 +25176,10 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="M126" s="234" t="s">
+      <c r="M126" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="235"/>
+      <c r="N126" s="225"/>
       <c r="O126" s="2" t="s">
         <v>427</v>
       </c>
@@ -25252,10 +25251,10 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="M127" s="214" t="s">
+      <c r="M127" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N127" s="215"/>
+      <c r="N127" s="175"/>
       <c r="O127" s="2" t="s">
         <v>418</v>
       </c>
@@ -25327,10 +25326,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M128" s="272" t="s">
+      <c r="M128" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="273"/>
+      <c r="N128" s="221"/>
       <c r="O128" s="2" t="s">
         <v>421</v>
       </c>
@@ -25412,10 +25411,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M129" s="274" t="s">
+      <c r="M129" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="N129" s="275"/>
+      <c r="N129" s="223"/>
       <c r="O129" s="2" t="s">
         <v>425</v>
       </c>
@@ -25487,10 +25486,10 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="M130" s="200" t="s">
+      <c r="M130" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N130" s="201"/>
+      <c r="N130" s="183"/>
       <c r="O130" s="2" t="s">
         <v>420</v>
       </c>
@@ -25736,10 +25735,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M133" s="208" t="s">
+      <c r="M133" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N133" s="209"/>
+      <c r="N133" s="171"/>
       <c r="O133" s="2" t="s">
         <v>425</v>
       </c>
@@ -25811,10 +25810,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="M134" s="276" t="s">
+      <c r="M134" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N134" s="277"/>
+      <c r="N134" s="169"/>
       <c r="O134" s="2" t="s">
         <v>425</v>
       </c>
@@ -25891,10 +25890,10 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="M135" s="200" t="s">
+      <c r="M135" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N135" s="201"/>
+      <c r="N135" s="183"/>
       <c r="O135" s="2" t="s">
         <v>420</v>
       </c>
@@ -25966,10 +25965,10 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="M136" s="268" t="s">
+      <c r="M136" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="269"/>
+      <c r="N136" s="233"/>
       <c r="O136" s="2" t="s">
         <v>427</v>
       </c>
@@ -26041,10 +26040,10 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="M137" s="214" t="s">
+      <c r="M137" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N137" s="215"/>
+      <c r="N137" s="175"/>
       <c r="O137" s="2" t="s">
         <v>418</v>
       </c>
@@ -26121,10 +26120,10 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="M138" s="270" t="s">
+      <c r="M138" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="271"/>
+      <c r="N138" s="237"/>
       <c r="O138" s="2" t="s">
         <v>425</v>
       </c>
@@ -26611,10 +26610,10 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="M144" s="208" t="s">
+      <c r="M144" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="209"/>
+      <c r="N144" s="171"/>
       <c r="O144" s="2" t="s">
         <v>425</v>
       </c>
@@ -26942,10 +26941,10 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="M148" s="196" t="s">
+      <c r="M148" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="N148" s="197"/>
+      <c r="N148" s="235"/>
       <c r="O148" s="2" t="s">
         <v>450</v>
       </c>
@@ -27017,10 +27016,10 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="M149" s="196" t="s">
+      <c r="M149" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="N149" s="197"/>
+      <c r="N149" s="235"/>
       <c r="O149" s="2" t="s">
         <v>450</v>
       </c>
@@ -27176,10 +27175,10 @@
       <c r="L151" s="2">
         <v>182</v>
       </c>
-      <c r="M151" s="260" t="s">
+      <c r="M151" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="261"/>
+      <c r="N151" s="203"/>
       <c r="O151" s="2" t="s">
         <v>434</v>
       </c>
@@ -27251,10 +27250,10 @@
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="M152" s="220" t="s">
+      <c r="M152" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="221"/>
+      <c r="N152" s="193"/>
       <c r="O152" s="2" t="s">
         <v>434</v>
       </c>
@@ -27331,10 +27330,10 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="M153" s="262" t="s">
+      <c r="M153" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="N153" s="263"/>
+      <c r="N153" s="227"/>
       <c r="O153" s="2" t="s">
         <v>443</v>
       </c>
@@ -27404,10 +27403,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="M154" s="264" t="s">
+      <c r="M154" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="N154" s="265"/>
+      <c r="N154" s="229"/>
       <c r="O154" s="2" t="s">
         <v>443</v>
       </c>
@@ -27477,10 +27476,10 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="M155" s="266" t="s">
+      <c r="M155" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="N155" s="267"/>
+      <c r="N155" s="231"/>
       <c r="O155" s="2" t="s">
         <v>443</v>
       </c>
@@ -27550,10 +27549,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="M156" s="214" t="s">
+      <c r="M156" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N156" s="215"/>
+      <c r="N156" s="175"/>
       <c r="O156" s="2" t="s">
         <v>418</v>
       </c>
@@ -27623,10 +27622,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="M157" s="214" t="s">
+      <c r="M157" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N157" s="215"/>
+      <c r="N157" s="175"/>
       <c r="O157" s="2" t="s">
         <v>418</v>
       </c>
@@ -27696,10 +27695,10 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="M158" s="214" t="s">
+      <c r="M158" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N158" s="215"/>
+      <c r="N158" s="175"/>
       <c r="O158" s="2" t="s">
         <v>418</v>
       </c>
@@ -27769,10 +27768,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M159" s="192" t="s">
+      <c r="M159" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N159" s="193"/>
+      <c r="N159" s="213"/>
       <c r="O159" s="2" t="s">
         <v>420</v>
       </c>
@@ -27842,10 +27841,10 @@
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="M160" s="200" t="s">
+      <c r="M160" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N160" s="201"/>
+      <c r="N160" s="183"/>
       <c r="O160" s="2" t="s">
         <v>420</v>
       </c>
@@ -27915,10 +27914,10 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="M161" s="200" t="s">
+      <c r="M161" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N161" s="201"/>
+      <c r="N161" s="183"/>
       <c r="O161" s="2" t="s">
         <v>420</v>
       </c>
@@ -27994,10 +27993,10 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="M162" s="256" t="s">
+      <c r="M162" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="N162" s="257"/>
+      <c r="N162" s="239"/>
       <c r="O162" s="2" t="s">
         <v>425</v>
       </c>
@@ -28067,10 +28066,10 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="M163" s="198" t="s">
+      <c r="M163" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N163" s="199"/>
+      <c r="N163" s="161"/>
       <c r="O163" s="2" t="s">
         <v>425</v>
       </c>
@@ -28815,10 +28814,10 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="M173" s="258" t="s">
+      <c r="M173" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="259"/>
+      <c r="N173" s="241"/>
       <c r="O173" s="2" t="s">
         <v>427</v>
       </c>
@@ -28894,10 +28893,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M174" s="198" t="s">
+      <c r="M174" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N174" s="199"/>
+      <c r="N174" s="161"/>
       <c r="O174" s="2" t="s">
         <v>568</v>
       </c>
@@ -28973,10 +28972,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="M175" s="198" t="s">
+      <c r="M175" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N175" s="199"/>
+      <c r="N175" s="161"/>
       <c r="O175" s="2" t="s">
         <v>483</v>
       </c>
@@ -29052,10 +29051,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M176" s="198" t="s">
+      <c r="M176" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N176" s="199"/>
+      <c r="N176" s="161"/>
       <c r="O176" s="2" t="s">
         <v>568</v>
       </c>
@@ -29654,10 +29653,10 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="M184" s="200" t="s">
+      <c r="M184" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N184" s="201"/>
+      <c r="N184" s="183"/>
       <c r="O184" s="2" t="s">
         <v>569</v>
       </c>
@@ -29727,10 +29726,10 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="M185" s="200" t="s">
+      <c r="M185" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N185" s="201"/>
+      <c r="N185" s="183"/>
       <c r="O185" s="2" t="s">
         <v>569</v>
       </c>
@@ -29873,10 +29872,10 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="M187" s="200" t="s">
+      <c r="M187" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N187" s="201"/>
+      <c r="N187" s="183"/>
       <c r="O187" s="2" t="s">
         <v>420</v>
       </c>
@@ -30177,10 +30176,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M191" s="198" t="s">
+      <c r="M191" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N191" s="199"/>
+      <c r="N191" s="161"/>
       <c r="O191" s="2" t="s">
         <v>425</v>
       </c>
@@ -30323,10 +30322,10 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="M193" s="202" t="s">
+      <c r="M193" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="N193" s="203"/>
+      <c r="N193" s="271"/>
       <c r="O193" s="2" t="s">
         <v>443</v>
       </c>
@@ -30694,10 +30693,10 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="M198" s="204" t="s">
+      <c r="M198" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="N198" s="205"/>
+      <c r="N198" s="273"/>
       <c r="O198" s="2" t="s">
         <v>457</v>
       </c>
@@ -30917,10 +30916,10 @@
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="M201" s="216" t="s">
+      <c r="M201" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="N201" s="217"/>
+      <c r="N201" s="277"/>
       <c r="O201" s="2" t="s">
         <v>459</v>
       </c>
@@ -30990,10 +30989,10 @@
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="M202" s="218" t="s">
+      <c r="M202" s="278" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="219"/>
+      <c r="N202" s="279"/>
       <c r="O202" s="2" t="s">
         <v>434</v>
       </c>
@@ -31063,10 +31062,10 @@
         <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="M203" s="220" t="s">
+      <c r="M203" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="221"/>
+      <c r="N203" s="193"/>
       <c r="O203" s="2" t="s">
         <v>434</v>
       </c>
@@ -31211,10 +31210,10 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="M205" s="222" t="s">
+      <c r="M205" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="223"/>
+      <c r="N205" s="281"/>
       <c r="O205" s="2" t="s">
         <v>421</v>
       </c>
@@ -31359,10 +31358,10 @@
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="M207" s="208" t="s">
+      <c r="M207" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N207" s="209"/>
+      <c r="N207" s="171"/>
       <c r="O207" s="2" t="s">
         <v>425</v>
       </c>
@@ -31582,10 +31581,10 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="M210" s="198" t="s">
+      <c r="M210" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N210" s="199"/>
+      <c r="N210" s="161"/>
       <c r="O210" s="2" t="s">
         <v>568</v>
       </c>
@@ -31655,10 +31654,10 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="M211" s="212" t="s">
+      <c r="M211" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="213"/>
+      <c r="N211" s="265"/>
       <c r="O211" s="2" t="s">
         <v>568</v>
       </c>
@@ -32103,10 +32102,10 @@
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="M217" s="208" t="s">
+      <c r="M217" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N217" s="209"/>
+      <c r="N217" s="171"/>
       <c r="O217" s="2" t="s">
         <v>425</v>
       </c>
@@ -32176,10 +32175,10 @@
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="M218" s="210" t="s">
+      <c r="M218" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="211"/>
+      <c r="N218" s="173"/>
       <c r="O218" s="2" t="s">
         <v>425</v>
       </c>
@@ -32249,10 +32248,10 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="M219" s="214" t="s">
+      <c r="M219" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N219" s="215"/>
+      <c r="N219" s="175"/>
       <c r="O219" s="2" t="s">
         <v>418</v>
       </c>
@@ -32622,10 +32621,10 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="M224" s="200" t="s">
+      <c r="M224" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N224" s="201"/>
+      <c r="N224" s="183"/>
       <c r="O224" s="2" t="s">
         <v>420</v>
       </c>
@@ -32695,10 +32694,10 @@
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="M225" s="200" t="s">
+      <c r="M225" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N225" s="201"/>
+      <c r="N225" s="183"/>
       <c r="O225" s="2" t="s">
         <v>420</v>
       </c>
@@ -33230,10 +33229,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="M232" s="238" t="s">
+      <c r="M232" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N232" s="239"/>
+      <c r="N232" s="165"/>
       <c r="O232" s="2" t="s">
         <v>428</v>
       </c>
@@ -33303,10 +33302,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M233" s="240" t="s">
+      <c r="M233" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="N233" s="241"/>
+      <c r="N233" s="167"/>
       <c r="O233" s="2" t="s">
         <v>428</v>
       </c>
@@ -33376,10 +33375,10 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="M234" s="198" t="s">
+      <c r="M234" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N234" s="199"/>
+      <c r="N234" s="161"/>
       <c r="O234" s="2" t="s">
         <v>425</v>
       </c>
@@ -33449,10 +33448,10 @@
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="M235" s="198" t="s">
+      <c r="M235" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N235" s="199"/>
+      <c r="N235" s="161"/>
       <c r="O235" s="2" t="s">
         <v>425</v>
       </c>
@@ -33522,10 +33521,10 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
-      <c r="M236" s="206" t="s">
+      <c r="M236" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="N236" s="207"/>
+      <c r="N236" s="275"/>
       <c r="O236" s="2" t="s">
         <v>425</v>
       </c>
@@ -33595,10 +33594,10 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="M237" s="190" t="s">
+      <c r="M237" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N237" s="191"/>
+      <c r="N237" s="207"/>
       <c r="O237" s="2" t="s">
         <v>432</v>
       </c>
@@ -33668,10 +33667,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M238" s="190" t="s">
+      <c r="M238" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="191"/>
+      <c r="N238" s="207"/>
       <c r="O238" s="2" t="s">
         <v>432</v>
       </c>
@@ -33822,10 +33821,10 @@
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="M240" s="234" t="s">
+      <c r="M240" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="235"/>
+      <c r="N240" s="225"/>
       <c r="O240" s="2" t="s">
         <v>427</v>
       </c>
@@ -33901,10 +33900,10 @@
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="M241" s="214" t="s">
+      <c r="M241" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N241" s="215"/>
+      <c r="N241" s="175"/>
       <c r="O241" s="2" t="s">
         <v>418</v>
       </c>
@@ -33974,10 +33973,10 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="M242" s="236" t="s">
+      <c r="M242" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N242" s="237"/>
+      <c r="N242" s="177"/>
       <c r="O242" s="2" t="s">
         <v>425</v>
       </c>
@@ -34047,10 +34046,10 @@
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="M243" s="198" t="s">
+      <c r="M243" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N243" s="199"/>
+      <c r="N243" s="161"/>
       <c r="O243" s="2" t="s">
         <v>425</v>
       </c>
@@ -34120,10 +34119,10 @@
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="M244" s="230" t="s">
+      <c r="M244" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="231"/>
+      <c r="N244" s="261"/>
       <c r="O244" s="2" t="s">
         <v>427</v>
       </c>
@@ -34193,10 +34192,10 @@
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="M245" s="214" t="s">
+      <c r="M245" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N245" s="215"/>
+      <c r="N245" s="175"/>
       <c r="O245" s="2" t="s">
         <v>418</v>
       </c>
@@ -34266,10 +34265,10 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="M246" s="192" t="s">
+      <c r="M246" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N246" s="193"/>
+      <c r="N246" s="213"/>
       <c r="O246" s="2" t="s">
         <v>420</v>
       </c>
@@ -34792,10 +34791,10 @@
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="M253" s="194" t="s">
+      <c r="M253" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="N253" s="195"/>
+      <c r="N253" s="267"/>
       <c r="O253" s="2" t="s">
         <v>443</v>
       </c>
@@ -34865,10 +34864,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M254" s="178" t="s">
+      <c r="M254" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N254" s="179"/>
+      <c r="N254" s="269"/>
       <c r="O254" s="2" t="s">
         <v>443</v>
       </c>
@@ -34938,10 +34937,10 @@
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="M255" s="178" t="s">
+      <c r="M255" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N255" s="179"/>
+      <c r="N255" s="269"/>
       <c r="O255" s="2" t="s">
         <v>443</v>
       </c>
@@ -35011,10 +35010,10 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="M256" s="182" t="s">
+      <c r="M256" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="N256" s="183"/>
+      <c r="N256" s="287"/>
       <c r="O256" s="2" t="s">
         <v>418</v>
       </c>
@@ -35240,10 +35239,10 @@
         <f t="shared" ref="L259:L322" si="14">ROUND((1+(H259-75)/500)*(ROUND(0.25*(7*MAX(G259,E259)+MIN(G259,E259)),0)),0)</f>
         <v>93</v>
       </c>
-      <c r="M259" s="158" t="s">
+      <c r="M259" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N259" s="159"/>
+      <c r="N259" s="289"/>
       <c r="O259" s="2" t="s">
         <v>420</v>
       </c>
@@ -35463,10 +35462,10 @@
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="M262" s="174" t="s">
+      <c r="M262" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N262" s="175"/>
+      <c r="N262" s="291"/>
       <c r="O262" s="2" t="s">
         <v>457</v>
       </c>
@@ -35536,10 +35535,10 @@
         <f t="shared" si="14"/>
         <v>137</v>
       </c>
-      <c r="M263" s="174" t="s">
+      <c r="M263" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N263" s="175"/>
+      <c r="N263" s="291"/>
       <c r="O263" s="2" t="s">
         <v>457</v>
       </c>
@@ -35609,10 +35608,10 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="M264" s="176" t="s">
+      <c r="M264" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N264" s="177"/>
+      <c r="N264" s="285"/>
       <c r="O264" s="2" t="s">
         <v>425</v>
       </c>
@@ -35682,10 +35681,10 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="M265" s="176" t="s">
+      <c r="M265" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N265" s="177"/>
+      <c r="N265" s="285"/>
       <c r="O265" s="2" t="s">
         <v>425</v>
       </c>
@@ -35755,10 +35754,10 @@
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="M266" s="186" t="s">
+      <c r="M266" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N266" s="187"/>
+      <c r="N266" s="283"/>
       <c r="O266" s="2" t="s">
         <v>421</v>
       </c>
@@ -35828,10 +35827,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M267" s="186" t="s">
+      <c r="M267" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N267" s="187"/>
+      <c r="N267" s="283"/>
       <c r="O267" s="2" t="s">
         <v>421</v>
       </c>
@@ -35976,10 +35975,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M269" s="186" t="s">
+      <c r="M269" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N269" s="187"/>
+      <c r="N269" s="283"/>
       <c r="O269" s="2" t="s">
         <v>421</v>
       </c>
@@ -36349,10 +36348,10 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="M274" s="178" t="s">
+      <c r="M274" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N274" s="179"/>
+      <c r="N274" s="269"/>
       <c r="O274" s="2" t="s">
         <v>443</v>
       </c>
@@ -37247,10 +37246,10 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="M286" s="178" t="s">
+      <c r="M286" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N286" s="179"/>
+      <c r="N286" s="269"/>
       <c r="O286" s="2" t="s">
         <v>443</v>
       </c>
@@ -37395,10 +37394,10 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="M288" s="176" t="s">
+      <c r="M288" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N288" s="177"/>
+      <c r="N288" s="285"/>
       <c r="O288" s="2" t="s">
         <v>425</v>
       </c>
@@ -37468,10 +37467,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M289" s="176" t="s">
+      <c r="M289" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N289" s="177"/>
+      <c r="N289" s="285"/>
       <c r="O289" s="2" t="s">
         <v>425</v>
       </c>
@@ -37538,10 +37537,10 @@
       <c r="L290" s="2">
         <v>183</v>
       </c>
-      <c r="M290" s="176" t="s">
+      <c r="M290" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N290" s="177"/>
+      <c r="N290" s="285"/>
       <c r="O290" s="2" t="s">
         <v>425</v>
       </c>
@@ -37836,10 +37835,10 @@
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="M294" s="176" t="s">
+      <c r="M294" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N294" s="177"/>
+      <c r="N294" s="285"/>
       <c r="O294" s="2" t="s">
         <v>425</v>
       </c>
@@ -37909,10 +37908,10 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="M295" s="176" t="s">
+      <c r="M295" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N295" s="177"/>
+      <c r="N295" s="285"/>
       <c r="O295" s="2" t="s">
         <v>425</v>
       </c>
@@ -37982,10 +37981,10 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="M296" s="176" t="s">
+      <c r="M296" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N296" s="177"/>
+      <c r="N296" s="285"/>
       <c r="O296" s="2" t="s">
         <v>425</v>
       </c>
@@ -38055,10 +38054,10 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="M297" s="188" t="s">
+      <c r="M297" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="N297" s="189"/>
+      <c r="N297" s="293"/>
       <c r="O297" s="2" t="s">
         <v>432</v>
       </c>
@@ -38128,10 +38127,10 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="M298" s="188" t="s">
+      <c r="M298" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="N298" s="189"/>
+      <c r="N298" s="293"/>
       <c r="O298" s="2" t="s">
         <v>432</v>
       </c>
@@ -38276,10 +38275,10 @@
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="M300" s="166" t="s">
+      <c r="M300" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="N300" s="167"/>
+      <c r="N300" s="295"/>
       <c r="O300" s="2" t="s">
         <v>454</v>
       </c>
@@ -38349,10 +38348,10 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="M301" s="176" t="s">
+      <c r="M301" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N301" s="177"/>
+      <c r="N301" s="285"/>
       <c r="O301" s="2" t="s">
         <v>425</v>
       </c>
@@ -38422,10 +38421,10 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="M302" s="176" t="s">
+      <c r="M302" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N302" s="177"/>
+      <c r="N302" s="285"/>
       <c r="O302" s="2" t="s">
         <v>425</v>
       </c>
@@ -39020,10 +39019,10 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="M310" s="184" t="s">
+      <c r="M310" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="185"/>
+      <c r="N310" s="297"/>
       <c r="O310" s="2" t="s">
         <v>427</v>
       </c>
@@ -39093,10 +39092,10 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="M311" s="184" t="s">
+      <c r="M311" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="185"/>
+      <c r="N311" s="297"/>
       <c r="O311" s="2" t="s">
         <v>427</v>
       </c>
@@ -39166,10 +39165,10 @@
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="M312" s="184" t="s">
+      <c r="M312" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="185"/>
+      <c r="N312" s="297"/>
       <c r="O312" s="2" t="s">
         <v>427</v>
       </c>
@@ -39239,10 +39238,10 @@
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="M313" s="184" t="s">
+      <c r="M313" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="185"/>
+      <c r="N313" s="297"/>
       <c r="O313" s="2" t="s">
         <v>427</v>
       </c>
@@ -39312,10 +39311,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M314" s="186" t="s">
+      <c r="M314" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="187"/>
+      <c r="N314" s="283"/>
       <c r="O314" s="2" t="s">
         <v>421</v>
       </c>
@@ -39385,10 +39384,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M315" s="186" t="s">
+      <c r="M315" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N315" s="187"/>
+      <c r="N315" s="283"/>
       <c r="O315" s="2" t="s">
         <v>421</v>
       </c>
@@ -39533,10 +39532,10 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="M317" s="180" t="s">
+      <c r="M317" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N317" s="181"/>
+      <c r="N317" s="301"/>
       <c r="O317" s="2" t="s">
         <v>426</v>
       </c>
@@ -39606,10 +39605,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M318" s="180" t="s">
+      <c r="M318" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N318" s="181"/>
+      <c r="N318" s="301"/>
       <c r="O318" s="2" t="s">
         <v>426</v>
       </c>
@@ -39829,10 +39828,10 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="M321" s="158" t="s">
+      <c r="M321" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N321" s="159"/>
+      <c r="N321" s="289"/>
       <c r="O321" s="2" t="s">
         <v>420</v>
       </c>
@@ -39902,10 +39901,10 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="M322" s="158" t="s">
+      <c r="M322" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N322" s="159"/>
+      <c r="N322" s="289"/>
       <c r="O322" s="2" t="s">
         <v>420</v>
       </c>
@@ -40125,10 +40124,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M325" s="182" t="s">
+      <c r="M325" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="N325" s="183"/>
+      <c r="N325" s="287"/>
       <c r="O325" s="2" t="s">
         <v>418</v>
       </c>
@@ -40198,10 +40197,10 @@
         <f t="shared" si="17"/>
         <v>145</v>
       </c>
-      <c r="M326" s="162" t="s">
+      <c r="M326" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N326" s="163"/>
+      <c r="N326" s="299"/>
       <c r="O326" s="2" t="s">
         <v>434</v>
       </c>
@@ -40271,10 +40270,10 @@
         <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="M327" s="162" t="s">
+      <c r="M327" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N327" s="163"/>
+      <c r="N327" s="299"/>
       <c r="O327" s="2" t="s">
         <v>434</v>
       </c>
@@ -40344,10 +40343,10 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="M328" s="176" t="s">
+      <c r="M328" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N328" s="177"/>
+      <c r="N328" s="285"/>
       <c r="O328" s="2" t="s">
         <v>425</v>
       </c>
@@ -40417,10 +40416,10 @@
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="M329" s="160" t="s">
+      <c r="M329" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="N329" s="161"/>
+      <c r="N329" s="303"/>
       <c r="O329" s="2" t="s">
         <v>428</v>
       </c>
@@ -40640,10 +40639,10 @@
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M332" s="178" t="s">
+      <c r="M332" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N332" s="179"/>
+      <c r="N332" s="269"/>
       <c r="O332" s="2" t="s">
         <v>443</v>
       </c>
@@ -40938,10 +40937,10 @@
         <f t="shared" si="17"/>
         <v>124</v>
       </c>
-      <c r="M336" s="176" t="s">
+      <c r="M336" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N336" s="177"/>
+      <c r="N336" s="285"/>
       <c r="O336" s="2" t="s">
         <v>425</v>
       </c>
@@ -41011,10 +41010,10 @@
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="M337" s="180" t="s">
+      <c r="M337" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N337" s="181"/>
+      <c r="N337" s="301"/>
       <c r="O337" s="2" t="s">
         <v>426</v>
       </c>
@@ -41384,10 +41383,10 @@
         <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="M342" s="158" t="s">
+      <c r="M342" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N342" s="159"/>
+      <c r="N342" s="289"/>
       <c r="O342" s="2" t="s">
         <v>420</v>
       </c>
@@ -41982,10 +41981,10 @@
         <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="M350" s="158" t="s">
+      <c r="M350" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N350" s="159"/>
+      <c r="N350" s="289"/>
       <c r="O350" s="2" t="s">
         <v>420</v>
       </c>
@@ -42055,10 +42054,10 @@
         <f t="shared" si="17"/>
         <v>242</v>
       </c>
-      <c r="M351" s="158" t="s">
+      <c r="M351" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N351" s="159"/>
+      <c r="N351" s="289"/>
       <c r="O351" s="2" t="s">
         <v>420</v>
       </c>
@@ -42134,10 +42133,10 @@
         <f t="shared" si="17"/>
         <v>139</v>
       </c>
-      <c r="M352" s="176" t="s">
+      <c r="M352" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N352" s="177"/>
+      <c r="N352" s="285"/>
       <c r="O352" s="2" t="s">
         <v>425</v>
       </c>
@@ -42207,10 +42206,10 @@
         <f t="shared" si="17"/>
         <v>212</v>
       </c>
-      <c r="M353" s="176" t="s">
+      <c r="M353" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N353" s="177"/>
+      <c r="N353" s="285"/>
       <c r="O353" s="2" t="s">
         <v>425</v>
       </c>
@@ -42280,10 +42279,10 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M354" s="172" t="s">
+      <c r="M354" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N354" s="173"/>
+      <c r="N354" s="307"/>
       <c r="O354" s="2" t="s">
         <v>459</v>
       </c>
@@ -42353,10 +42352,10 @@
         <f t="shared" si="17"/>
         <v>127</v>
       </c>
-      <c r="M355" s="172" t="s">
+      <c r="M355" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N355" s="173"/>
+      <c r="N355" s="307"/>
       <c r="O355" s="2" t="s">
         <v>459</v>
       </c>
@@ -42426,10 +42425,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M356" s="172" t="s">
+      <c r="M356" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N356" s="173"/>
+      <c r="N356" s="307"/>
       <c r="O356" s="2" t="s">
         <v>459</v>
       </c>
@@ -42499,10 +42498,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M357" s="172" t="s">
+      <c r="M357" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N357" s="173"/>
+      <c r="N357" s="307"/>
       <c r="O357" s="2" t="s">
         <v>459</v>
       </c>
@@ -42647,10 +42646,10 @@
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="M359" s="162" t="s">
+      <c r="M359" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N359" s="163"/>
+      <c r="N359" s="299"/>
       <c r="O359" s="2" t="s">
         <v>434</v>
       </c>
@@ -42720,10 +42719,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="M360" s="174" t="s">
+      <c r="M360" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N360" s="175"/>
+      <c r="N360" s="291"/>
       <c r="O360" s="2" t="s">
         <v>457</v>
       </c>
@@ -42793,10 +42792,10 @@
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="M361" s="162" t="s">
+      <c r="M361" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N361" s="163"/>
+      <c r="N361" s="299"/>
       <c r="O361" s="2" t="s">
         <v>434</v>
       </c>
@@ -42866,10 +42865,10 @@
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="M362" s="168" t="s">
+      <c r="M362" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N362" s="169"/>
+      <c r="N362" s="305"/>
       <c r="O362" s="2" t="s">
         <v>495</v>
       </c>
@@ -42939,10 +42938,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M363" s="168" t="s">
+      <c r="M363" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N363" s="169"/>
+      <c r="N363" s="305"/>
       <c r="O363" s="2" t="s">
         <v>495</v>
       </c>
@@ -43237,10 +43236,10 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="M367" s="158" t="s">
+      <c r="M367" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N367" s="159"/>
+      <c r="N367" s="289"/>
       <c r="O367" s="2" t="s">
         <v>420</v>
       </c>
@@ -43310,10 +43309,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M368" s="158" t="s">
+      <c r="M368" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N368" s="159"/>
+      <c r="N368" s="289"/>
       <c r="O368" s="2" t="s">
         <v>420</v>
       </c>
@@ -43383,10 +43382,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M369" s="158" t="s">
+      <c r="M369" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N369" s="159"/>
+      <c r="N369" s="289"/>
       <c r="O369" s="2" t="s">
         <v>420</v>
       </c>
@@ -43531,10 +43530,10 @@
         <f t="shared" si="17"/>
         <v>134</v>
       </c>
-      <c r="M371" s="158" t="s">
+      <c r="M371" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N371" s="159"/>
+      <c r="N371" s="289"/>
       <c r="O371" s="2" t="s">
         <v>420</v>
       </c>
@@ -43604,10 +43603,10 @@
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="M372" s="164" t="s">
+      <c r="M372" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="N372" s="165"/>
+      <c r="N372" s="309"/>
       <c r="O372" s="2" t="s">
         <v>450</v>
       </c>
@@ -43677,10 +43676,10 @@
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-      <c r="M373" s="164" t="s">
+      <c r="M373" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="N373" s="165"/>
+      <c r="N373" s="309"/>
       <c r="O373" s="2" t="s">
         <v>450</v>
       </c>
@@ -44050,10 +44049,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M378" s="166" t="s">
+      <c r="M378" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="N378" s="167"/>
+      <c r="N378" s="295"/>
       <c r="O378" s="2" t="s">
         <v>454</v>
       </c>
@@ -44123,10 +44122,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M379" s="168" t="s">
+      <c r="M379" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N379" s="169"/>
+      <c r="N379" s="305"/>
       <c r="O379" s="2" t="s">
         <v>495</v>
       </c>
@@ -44196,10 +44195,10 @@
         <f t="shared" si="17"/>
         <v>285</v>
       </c>
-      <c r="M380" s="170" t="s">
+      <c r="M380" s="310" t="s">
         <v>23</v>
       </c>
-      <c r="N380" s="171"/>
+      <c r="N380" s="311"/>
       <c r="O380" s="2" t="s">
         <v>498</v>
       </c>
@@ -44416,10 +44415,10 @@
       <c r="L383" s="2">
         <v>251</v>
       </c>
-      <c r="M383" s="158" t="s">
+      <c r="M383" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N383" s="159"/>
+      <c r="N383" s="289"/>
       <c r="O383" s="2" t="s">
         <v>420</v>
       </c>
@@ -44492,10 +44491,10 @@
       <c r="L384" s="2">
         <v>251</v>
       </c>
-      <c r="M384" s="160" t="s">
+      <c r="M384" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="N384" s="161"/>
+      <c r="N384" s="303"/>
       <c r="O384" s="2" t="s">
         <v>428</v>
       </c>
@@ -44712,10 +44711,10 @@
         <f t="shared" ref="L387:L445" si="19">ROUND((1+(H387-75)/500)*(ROUND(0.25*(7*MAX(G387,E387)+MIN(G387,E387)),0)),0)</f>
         <v>115</v>
       </c>
-      <c r="M387" s="162" t="s">
+      <c r="M387" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N387" s="163"/>
+      <c r="N387" s="299"/>
       <c r="O387" s="2" t="s">
         <v>434</v>
       </c>
@@ -70631,102 +70630,96 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M266:N266"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="M269:N269"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M262:N262"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="M264:N264"/>
+    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M238:N238"/>
+    <mergeCell ref="M246:N246"/>
+    <mergeCell ref="M253:N253"/>
+    <mergeCell ref="M254:N254"/>
+    <mergeCell ref="M255:N255"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M235:N235"/>
+    <mergeCell ref="M236:N236"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="M218:N218"/>
+    <mergeCell ref="M224:N224"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="M219:N219"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="M207:N207"/>
     <mergeCell ref="M102:N102"/>
     <mergeCell ref="M111:N111"/>
     <mergeCell ref="M121:N121"/>
@@ -70751,96 +70744,102 @@
     <mergeCell ref="M233:N233"/>
     <mergeCell ref="M234:N234"/>
     <mergeCell ref="M225:N225"/>
-    <mergeCell ref="M238:N238"/>
-    <mergeCell ref="M246:N246"/>
-    <mergeCell ref="M253:N253"/>
-    <mergeCell ref="M254:N254"/>
-    <mergeCell ref="M255:N255"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M235:N235"/>
-    <mergeCell ref="M236:N236"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="M218:N218"/>
-    <mergeCell ref="M224:N224"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="M219:N219"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M266:N266"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="M269:N269"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M262:N262"/>
-    <mergeCell ref="M263:N263"/>
-    <mergeCell ref="M264:N264"/>
-    <mergeCell ref="M265:N265"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M651:N720 M388:N641 M722:N808">
@@ -73025,1283 +73024,1282 @@
     <hyperlink ref="V231" r:id="rId1894" tooltip="刺龙王"/>
     <hyperlink ref="V232" r:id="rId1895" tooltip="小小象"/>
     <hyperlink ref="V233" r:id="rId1896" tooltip="顿甲"/>
-    <hyperlink ref="V234" r:id="rId1897" tooltip="多边兽Ⅱ" display="多边兽Ⅱ"/>
-    <hyperlink ref="V235" r:id="rId1898" tooltip="惊角鹿"/>
-    <hyperlink ref="V236" r:id="rId1899" tooltip="图图犬"/>
-    <hyperlink ref="V237" r:id="rId1900" tooltip="无畏小子"/>
-    <hyperlink ref="V238" r:id="rId1901" tooltip="战舞郎"/>
-    <hyperlink ref="V239" r:id="rId1902" tooltip="迷唇娃"/>
-    <hyperlink ref="V240" r:id="rId1903" tooltip="电击怪"/>
-    <hyperlink ref="V241" r:id="rId1904" tooltip="鸭嘴宝宝"/>
-    <hyperlink ref="V242" r:id="rId1905" tooltip="大奶罐"/>
-    <hyperlink ref="V243" r:id="rId1906" tooltip="幸福蛋"/>
-    <hyperlink ref="V244" r:id="rId1907" tooltip="雷公"/>
-    <hyperlink ref="V245" r:id="rId1908" tooltip="炎帝"/>
-    <hyperlink ref="V246" r:id="rId1909" tooltip="水君"/>
-    <hyperlink ref="V247" r:id="rId1910" tooltip="幼基拉斯"/>
-    <hyperlink ref="V248" r:id="rId1911" tooltip="沙基拉斯"/>
-    <hyperlink ref="V249" r:id="rId1912" tooltip="班基拉斯"/>
-    <hyperlink ref="V250" r:id="rId1913" tooltip="洛奇亚"/>
-    <hyperlink ref="V251" r:id="rId1914" tooltip="凤王"/>
-    <hyperlink ref="V252" r:id="rId1915" tooltip="时拉比"/>
-    <hyperlink ref="V253" r:id="rId1916" tooltip="木守宫"/>
-    <hyperlink ref="V254" r:id="rId1917" tooltip="森林蜥蜴"/>
-    <hyperlink ref="V255" r:id="rId1918" tooltip="蜥蜴王"/>
-    <hyperlink ref="V256" r:id="rId1919" tooltip="火稚鸡"/>
-    <hyperlink ref="V257" r:id="rId1920" tooltip="力壮鸡"/>
-    <hyperlink ref="V258" r:id="rId1921" tooltip="火焰鸡"/>
-    <hyperlink ref="V259" r:id="rId1922" tooltip="水跃鱼"/>
-    <hyperlink ref="V260" r:id="rId1923" tooltip="沼跃鱼"/>
-    <hyperlink ref="V261" r:id="rId1924" tooltip="巨沼怪"/>
-    <hyperlink ref="V262" r:id="rId1925" tooltip="土狼犬"/>
-    <hyperlink ref="V263" r:id="rId1926" tooltip="大狼犬"/>
-    <hyperlink ref="V264" r:id="rId1927" tooltip="蛇纹熊"/>
-    <hyperlink ref="V265" r:id="rId1928" tooltip="直冲熊"/>
-    <hyperlink ref="V266" r:id="rId1929" tooltip="刺尾虫"/>
-    <hyperlink ref="V267" r:id="rId1930" tooltip="甲壳茧"/>
-    <hyperlink ref="V268" r:id="rId1931" tooltip="狩猎凤蝶"/>
-    <hyperlink ref="V269" r:id="rId1932" tooltip="盾甲茧"/>
-    <hyperlink ref="V270" r:id="rId1933" tooltip="毒粉蛾"/>
-    <hyperlink ref="V271" r:id="rId1934" tooltip="莲叶童子"/>
-    <hyperlink ref="V272" r:id="rId1935" tooltip="莲帽小童"/>
-    <hyperlink ref="V273" r:id="rId1936" tooltip="乐天河童"/>
-    <hyperlink ref="V274" r:id="rId1937" tooltip="橡实果"/>
-    <hyperlink ref="V275" r:id="rId1938" tooltip="长鼻叶"/>
-    <hyperlink ref="V276" r:id="rId1939" tooltip="狡猾天狗"/>
-    <hyperlink ref="V277" r:id="rId1940" tooltip="傲骨燕"/>
-    <hyperlink ref="V278" r:id="rId1941" tooltip="大王燕"/>
-    <hyperlink ref="V279" r:id="rId1942" tooltip="长翅鸥"/>
-    <hyperlink ref="V280" r:id="rId1943" tooltip="大嘴鸥"/>
-    <hyperlink ref="V281" r:id="rId1944" tooltip="拉鲁拉丝"/>
-    <hyperlink ref="V282" r:id="rId1945" tooltip="奇鲁莉安"/>
-    <hyperlink ref="V283" r:id="rId1946" tooltip="沙奈朵"/>
-    <hyperlink ref="V284" r:id="rId1947" tooltip="溜溜糖球"/>
-    <hyperlink ref="V285" r:id="rId1948" tooltip="雨翅蛾"/>
-    <hyperlink ref="V286" r:id="rId1949" tooltip="蘑蘑菇"/>
-    <hyperlink ref="V287" r:id="rId1950" tooltip="斗笠菇"/>
-    <hyperlink ref="V288" r:id="rId1951" tooltip="懒人獭"/>
-    <hyperlink ref="V289" r:id="rId1952" tooltip="过动猿"/>
-    <hyperlink ref="V290" r:id="rId1953" tooltip="请假王"/>
-    <hyperlink ref="V291" r:id="rId1954" tooltip="土居忍士"/>
-    <hyperlink ref="V292" r:id="rId1955" tooltip="铁面忍者"/>
-    <hyperlink ref="V293" r:id="rId1956" tooltip="脱壳忍者"/>
-    <hyperlink ref="V294" r:id="rId1957" tooltip="咕妞妞"/>
-    <hyperlink ref="V295" r:id="rId1958" tooltip="吼爆弹"/>
-    <hyperlink ref="V296" r:id="rId1959" tooltip="爆音怪"/>
-    <hyperlink ref="V297" r:id="rId1960" tooltip="幕下力士"/>
-    <hyperlink ref="V298" r:id="rId1961" tooltip="铁掌力士"/>
-    <hyperlink ref="V299" r:id="rId1962" tooltip="露力丽"/>
-    <hyperlink ref="V300" r:id="rId1963" tooltip="朝北鼻"/>
-    <hyperlink ref="V301" r:id="rId1964" tooltip="向尾喵"/>
-    <hyperlink ref="V302" r:id="rId1965" tooltip="优雅猫"/>
-    <hyperlink ref="V303" r:id="rId1966" tooltip="勾魂眼"/>
-    <hyperlink ref="V304" r:id="rId1967" tooltip="大嘴娃"/>
-    <hyperlink ref="V305" r:id="rId1968" tooltip="可可多拉"/>
-    <hyperlink ref="V306" r:id="rId1969" tooltip="可多拉"/>
-    <hyperlink ref="V307" r:id="rId1970" tooltip="波士可多拉"/>
-    <hyperlink ref="V308" r:id="rId1971" tooltip="玛沙那"/>
-    <hyperlink ref="V309" r:id="rId1972" tooltip="恰雷姆"/>
-    <hyperlink ref="V310" r:id="rId1973" tooltip="落雷兽"/>
-    <hyperlink ref="V311" r:id="rId1974" tooltip="雷电兽"/>
-    <hyperlink ref="V312" r:id="rId1975" tooltip="正电拍拍"/>
-    <hyperlink ref="V313" r:id="rId1976" tooltip="负电拍拍"/>
-    <hyperlink ref="V314" r:id="rId1977" tooltip="电萤虫"/>
-    <hyperlink ref="V315" r:id="rId1978" tooltip="甜甜萤"/>
-    <hyperlink ref="V316" r:id="rId1979" tooltip="毒蔷薇"/>
-    <hyperlink ref="V317" r:id="rId1980" tooltip="溶食兽"/>
-    <hyperlink ref="V318" r:id="rId1981" tooltip="吞食兽"/>
-    <hyperlink ref="V319" r:id="rId1982" tooltip="利牙鱼"/>
-    <hyperlink ref="V320" r:id="rId1983" tooltip="巨牙鲨"/>
-    <hyperlink ref="V321" r:id="rId1984" tooltip="吼吼鲸"/>
-    <hyperlink ref="V322" r:id="rId1985" tooltip="吼鲸王"/>
-    <hyperlink ref="V323" r:id="rId1986" tooltip="呆火驼"/>
-    <hyperlink ref="V324" r:id="rId1987" tooltip="喷火驼"/>
-    <hyperlink ref="V325" r:id="rId1988" tooltip="煤炭龟"/>
-    <hyperlink ref="V326" r:id="rId1989" tooltip="跳跳猪"/>
-    <hyperlink ref="V327" r:id="rId1990" tooltip="噗噗猪"/>
-    <hyperlink ref="V328" r:id="rId1991" tooltip="晃晃斑"/>
-    <hyperlink ref="V329" r:id="rId1992" tooltip="大颚蚁"/>
-    <hyperlink ref="V330" r:id="rId1993" tooltip="超音波幼虫"/>
-    <hyperlink ref="V331" r:id="rId1994" tooltip="沙漠蜻蜓"/>
-    <hyperlink ref="V332" r:id="rId1995" tooltip="刺球仙人掌"/>
-    <hyperlink ref="V333" r:id="rId1996" tooltip="梦歌仙人掌"/>
-    <hyperlink ref="V334" r:id="rId1997" tooltip="青绵鸟"/>
-    <hyperlink ref="V335" r:id="rId1998" tooltip="七夕青鸟"/>
-    <hyperlink ref="V336" r:id="rId1999" tooltip="猫鼬斩"/>
-    <hyperlink ref="V337" r:id="rId2000" tooltip="饭匙蛇"/>
-    <hyperlink ref="V338" r:id="rId2001" tooltip="月石"/>
-    <hyperlink ref="V339" r:id="rId2002" tooltip="太阳岩"/>
-    <hyperlink ref="V340" r:id="rId2003" tooltip="泥泥鳅"/>
-    <hyperlink ref="V341" r:id="rId2004" tooltip="鲶鱼王"/>
-    <hyperlink ref="V342" r:id="rId2005" tooltip="龙虾小兵"/>
-    <hyperlink ref="V343" r:id="rId2006" tooltip="铁螯龙虾"/>
-    <hyperlink ref="V344" r:id="rId2007" tooltip="天秤偶"/>
-    <hyperlink ref="V345" r:id="rId2008" tooltip="念力土偶"/>
-    <hyperlink ref="V346" r:id="rId2009" tooltip="触手百合"/>
-    <hyperlink ref="V347" r:id="rId2010" tooltip="摇篮百合"/>
-    <hyperlink ref="V348" r:id="rId2011" tooltip="太古羽虫"/>
-    <hyperlink ref="V349" r:id="rId2012" tooltip="太古盔甲"/>
-    <hyperlink ref="V350" r:id="rId2013" tooltip="丑丑鱼"/>
-    <hyperlink ref="V351" r:id="rId2014" tooltip="美纳斯"/>
-    <hyperlink ref="V352" r:id="rId2015" tooltip="飘浮泡泡"/>
-    <hyperlink ref="V353" r:id="rId2016" tooltip="变隐龙"/>
-    <hyperlink ref="V354" r:id="rId2017" tooltip="怨影娃娃"/>
-    <hyperlink ref="V355" r:id="rId2018" tooltip="诅咒娃娃"/>
-    <hyperlink ref="V356" r:id="rId2019" tooltip="夜巡灵"/>
-    <hyperlink ref="V357" r:id="rId2020" tooltip="彷徨夜灵"/>
-    <hyperlink ref="V358" r:id="rId2021" tooltip="热带龙"/>
-    <hyperlink ref="V359" r:id="rId2022" tooltip="风铃铃"/>
-    <hyperlink ref="V360" r:id="rId2023" tooltip="阿勃梭鲁"/>
-    <hyperlink ref="V361" r:id="rId2024" tooltip="小果然"/>
-    <hyperlink ref="V362" r:id="rId2025" tooltip="雪童子"/>
-    <hyperlink ref="V363" r:id="rId2026" tooltip="冰鬼护"/>
-    <hyperlink ref="V364" r:id="rId2027" tooltip="海豹球"/>
-    <hyperlink ref="V365" r:id="rId2028" tooltip="海魔狮"/>
-    <hyperlink ref="V366" r:id="rId2029" tooltip="帝牙海狮"/>
-    <hyperlink ref="V367" r:id="rId2030" tooltip="珍珠贝"/>
-    <hyperlink ref="V368" r:id="rId2031" tooltip="猎斑鱼"/>
-    <hyperlink ref="V369" r:id="rId2032" tooltip="樱花鱼"/>
-    <hyperlink ref="V370" r:id="rId2033" tooltip="古空棘鱼"/>
-    <hyperlink ref="V371" r:id="rId2034" tooltip="爱心鱼"/>
-    <hyperlink ref="V372" r:id="rId2035" tooltip="宝贝龙"/>
-    <hyperlink ref="V373" r:id="rId2036" tooltip="甲壳龙"/>
-    <hyperlink ref="V374" r:id="rId2037" tooltip="暴飞龙"/>
-    <hyperlink ref="V375" r:id="rId2038" tooltip="铁哑铃"/>
-    <hyperlink ref="V376" r:id="rId2039" tooltip="金属怪"/>
-    <hyperlink ref="V377" r:id="rId2040" tooltip="巨金怪"/>
-    <hyperlink ref="V378" r:id="rId2041" tooltip="雷吉洛克"/>
-    <hyperlink ref="V379" r:id="rId2042" tooltip="雷吉艾斯"/>
-    <hyperlink ref="V380" r:id="rId2043" tooltip="雷吉斯奇鲁"/>
-    <hyperlink ref="V381" r:id="rId2044" tooltip="拉帝亚斯"/>
-    <hyperlink ref="V382" r:id="rId2045" tooltip="拉帝欧斯"/>
-    <hyperlink ref="V383" r:id="rId2046" tooltip="盖欧卡"/>
-    <hyperlink ref="V384" r:id="rId2047" tooltip="固拉多"/>
-    <hyperlink ref="V385" r:id="rId2048" tooltip="烈空坐"/>
-    <hyperlink ref="V386" r:id="rId2049" tooltip="基拉祈"/>
-    <hyperlink ref="V387" r:id="rId2050" tooltip="代欧奇希斯"/>
-    <hyperlink ref="L723:L803" r:id="rId2051" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="B721" r:id="rId2052" tooltip="Hoopa (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hoopa_(Pok%C3%A9mon)"/>
-    <hyperlink ref="L721" r:id="rId2053" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="T388" r:id="rId2054" tooltip="草苗龟"/>
-    <hyperlink ref="T389" r:id="rId2055" tooltip="树林龟"/>
-    <hyperlink ref="T390" r:id="rId2056" tooltip="土台龟"/>
-    <hyperlink ref="T391" r:id="rId2057" tooltip="小火焰猴"/>
-    <hyperlink ref="T392" r:id="rId2058" tooltip="猛火猴"/>
-    <hyperlink ref="T393" r:id="rId2059" tooltip="烈焰猴"/>
-    <hyperlink ref="T394" r:id="rId2060" tooltip="波加曼"/>
-    <hyperlink ref="T395" r:id="rId2061" tooltip="波皇子"/>
-    <hyperlink ref="T396" r:id="rId2062" tooltip="帝王拿波"/>
-    <hyperlink ref="T397" r:id="rId2063" tooltip="姆克儿"/>
-    <hyperlink ref="T398" r:id="rId2064" tooltip="姆克鸟"/>
-    <hyperlink ref="T399" r:id="rId2065" tooltip="姆克鹰"/>
-    <hyperlink ref="T400" r:id="rId2066" tooltip="大牙狸"/>
-    <hyperlink ref="T401" r:id="rId2067" tooltip="大尾狸"/>
-    <hyperlink ref="T402" r:id="rId2068" tooltip="圆法师"/>
-    <hyperlink ref="T403" r:id="rId2069" tooltip="音箱蟀"/>
-    <hyperlink ref="T404" r:id="rId2070" tooltip="小猫怪"/>
-    <hyperlink ref="T405" r:id="rId2071" tooltip="勒克猫"/>
-    <hyperlink ref="T406" r:id="rId2072" tooltip="伦琴猫"/>
-    <hyperlink ref="T407" r:id="rId2073" tooltip="含羞苞"/>
-    <hyperlink ref="T408" r:id="rId2074" tooltip="罗丝雷朵"/>
-    <hyperlink ref="T409" r:id="rId2075" tooltip="头盖龙"/>
-    <hyperlink ref="T410" r:id="rId2076" tooltip="战槌龙"/>
-    <hyperlink ref="T411" r:id="rId2077" tooltip="盾甲龙"/>
-    <hyperlink ref="T412" r:id="rId2078" tooltip="护城龙"/>
-    <hyperlink ref="T413" r:id="rId2079" tooltip="结草儿"/>
-    <hyperlink ref="T414" r:id="rId2080" tooltip="结草贵妇"/>
-    <hyperlink ref="V388" r:id="rId2081" tooltip="草苗龟"/>
-    <hyperlink ref="V389" r:id="rId2082" tooltip="树林龟"/>
-    <hyperlink ref="V390" r:id="rId2083" tooltip="土台龟"/>
-    <hyperlink ref="V391" r:id="rId2084" tooltip="小火焰猴"/>
-    <hyperlink ref="V392" r:id="rId2085" tooltip="猛火猴"/>
-    <hyperlink ref="V393" r:id="rId2086" tooltip="烈焰猴"/>
-    <hyperlink ref="V394" r:id="rId2087" tooltip="波加曼"/>
-    <hyperlink ref="V395" r:id="rId2088" tooltip="波皇子"/>
-    <hyperlink ref="V396" r:id="rId2089" tooltip="帝王拿波"/>
-    <hyperlink ref="V397" r:id="rId2090" tooltip="姆克儿"/>
-    <hyperlink ref="V398" r:id="rId2091" tooltip="姆克鸟"/>
-    <hyperlink ref="V399" r:id="rId2092" tooltip="姆克鹰"/>
-    <hyperlink ref="V400" r:id="rId2093" tooltip="大牙狸"/>
-    <hyperlink ref="V401" r:id="rId2094" tooltip="大尾狸"/>
-    <hyperlink ref="V402" r:id="rId2095" tooltip="圆法师"/>
-    <hyperlink ref="V403" r:id="rId2096" tooltip="音箱蟀"/>
-    <hyperlink ref="V404" r:id="rId2097" tooltip="小猫怪"/>
-    <hyperlink ref="V405" r:id="rId2098" tooltip="勒克猫"/>
-    <hyperlink ref="V406" r:id="rId2099" tooltip="伦琴猫"/>
-    <hyperlink ref="V407" r:id="rId2100" tooltip="含羞苞"/>
-    <hyperlink ref="V408" r:id="rId2101" tooltip="罗丝雷朵"/>
-    <hyperlink ref="V409" r:id="rId2102" tooltip="头盖龙"/>
-    <hyperlink ref="V410" r:id="rId2103" tooltip="战槌龙"/>
-    <hyperlink ref="V411" r:id="rId2104" tooltip="盾甲龙"/>
-    <hyperlink ref="V412" r:id="rId2105" tooltip="护城龙"/>
-    <hyperlink ref="V413" r:id="rId2106" tooltip="结草儿"/>
-    <hyperlink ref="V414" r:id="rId2107" tooltip="结草贵妇"/>
-    <hyperlink ref="V480" r:id="rId2108" tooltip="洛托姆"/>
-    <hyperlink ref="V479" r:id="rId2109" tooltip="雪妖女"/>
-    <hyperlink ref="V478" r:id="rId2110" tooltip="黑夜魔灵"/>
-    <hyperlink ref="V477" r:id="rId2111" tooltip="大朝北鼻"/>
-    <hyperlink ref="V476" r:id="rId2112" tooltip="艾路雷朵"/>
-    <hyperlink ref="V474" r:id="rId2113" tooltip="象牙猪"/>
-    <hyperlink ref="T474" r:id="rId2114" tooltip="象牙猪"/>
-    <hyperlink ref="V473" r:id="rId2115" tooltip="天蝎王"/>
-    <hyperlink ref="T473" r:id="rId2116" tooltip="天蝎王"/>
-    <hyperlink ref="V472" r:id="rId2117" tooltip="冰伊布"/>
-    <hyperlink ref="T472" r:id="rId2118" tooltip="冰伊布"/>
-    <hyperlink ref="V471" r:id="rId2119" tooltip="叶伊布"/>
-    <hyperlink ref="T471" r:id="rId2120" tooltip="叶伊布"/>
-    <hyperlink ref="V470" r:id="rId2121" tooltip="远古巨蜓"/>
-    <hyperlink ref="T470" r:id="rId2122" tooltip="远古巨蜓"/>
-    <hyperlink ref="V469" r:id="rId2123" tooltip="波克基斯"/>
-    <hyperlink ref="T469" r:id="rId2124" tooltip="波克基斯"/>
-    <hyperlink ref="V468" r:id="rId2125" tooltip="鸭嘴炎兽"/>
-    <hyperlink ref="T468" r:id="rId2126" tooltip="鸭嘴炎兽"/>
-    <hyperlink ref="V467" r:id="rId2127" tooltip="电击魔兽"/>
-    <hyperlink ref="T467" r:id="rId2128" tooltip="电击魔兽"/>
-    <hyperlink ref="V466" r:id="rId2129" tooltip="巨蔓藤"/>
-    <hyperlink ref="T466" r:id="rId2130" tooltip="巨蔓藤"/>
-    <hyperlink ref="V465" r:id="rId2131" tooltip="超甲狂犀"/>
-    <hyperlink ref="T465" r:id="rId2132" tooltip="超甲狂犀"/>
-    <hyperlink ref="V464" r:id="rId2133" tooltip="大舌舔"/>
-    <hyperlink ref="T464" r:id="rId2134" tooltip="大舌舔"/>
-    <hyperlink ref="V463" r:id="rId2135" tooltip="自爆磁怪"/>
-    <hyperlink ref="T463" r:id="rId2136" tooltip="自爆磁怪"/>
-    <hyperlink ref="V462" r:id="rId2137" tooltip="玛狃拉"/>
-    <hyperlink ref="T462" r:id="rId2138" tooltip="玛狃拉"/>
-    <hyperlink ref="V461" r:id="rId2139" tooltip="暴雪王"/>
-    <hyperlink ref="T461" r:id="rId2140" tooltip="暴雪王"/>
-    <hyperlink ref="V460" r:id="rId2141" tooltip="雪笠怪"/>
-    <hyperlink ref="T460" r:id="rId2142" tooltip="雪笠怪"/>
-    <hyperlink ref="V459" r:id="rId2143" tooltip="小球飞鱼"/>
-    <hyperlink ref="T459" r:id="rId2144" tooltip="小球飞鱼"/>
-    <hyperlink ref="V458" r:id="rId2145" tooltip="霓虹鱼"/>
-    <hyperlink ref="T458" r:id="rId2146" tooltip="霓虹鱼"/>
-    <hyperlink ref="V457" r:id="rId2147" tooltip="荧光鱼"/>
-    <hyperlink ref="T457" r:id="rId2148" tooltip="荧光鱼"/>
-    <hyperlink ref="V456" r:id="rId2149" tooltip="尖牙笼"/>
-    <hyperlink ref="T456" r:id="rId2150" tooltip="尖牙笼"/>
-    <hyperlink ref="V455" r:id="rId2151" tooltip="毒骷蛙"/>
-    <hyperlink ref="T455" r:id="rId2152" tooltip="毒骷蛙"/>
-    <hyperlink ref="V454" r:id="rId2153" tooltip="不良蛙"/>
-    <hyperlink ref="T454" r:id="rId2154" tooltip="不良蛙"/>
-    <hyperlink ref="V453" r:id="rId2155" tooltip="龙王蝎"/>
-    <hyperlink ref="T453" r:id="rId2156" tooltip="龙王蝎"/>
-    <hyperlink ref="V452" r:id="rId2157" tooltip="钳尾蝎"/>
-    <hyperlink ref="T452" r:id="rId2158" tooltip="钳尾蝎"/>
-    <hyperlink ref="V451" r:id="rId2159" tooltip="河马兽"/>
-    <hyperlink ref="T451" r:id="rId2160" tooltip="河马兽"/>
-    <hyperlink ref="V450" r:id="rId2161" tooltip="沙河马"/>
-    <hyperlink ref="T450" r:id="rId2162" tooltip="沙河马"/>
-    <hyperlink ref="V449" r:id="rId2163" tooltip="路卡利欧"/>
-    <hyperlink ref="T449" r:id="rId2164" tooltip="路卡利欧"/>
-    <hyperlink ref="V448" r:id="rId2165" tooltip="利欧路"/>
-    <hyperlink ref="T448" r:id="rId2166" tooltip="利欧路"/>
-    <hyperlink ref="V447" r:id="rId2167" tooltip="小卡比兽"/>
-    <hyperlink ref="T447" r:id="rId2168" tooltip="小卡比兽"/>
-    <hyperlink ref="V446" r:id="rId2169" tooltip="烈咬陆鲨"/>
-    <hyperlink ref="T446" r:id="rId2170" tooltip="烈咬陆鲨"/>
-    <hyperlink ref="V445" r:id="rId2171" tooltip="尖牙陆鲨"/>
-    <hyperlink ref="T445" r:id="rId2172" tooltip="尖牙陆鲨"/>
-    <hyperlink ref="V444" r:id="rId2173" tooltip="圆陆鲨"/>
-    <hyperlink ref="T444" r:id="rId2174" tooltip="圆陆鲨"/>
-    <hyperlink ref="V443" r:id="rId2175" tooltip="花岩怪"/>
-    <hyperlink ref="T443" r:id="rId2176" tooltip="花岩怪"/>
-    <hyperlink ref="V442" r:id="rId2177" tooltip="聒噪鸟"/>
-    <hyperlink ref="T442" r:id="rId2178" tooltip="聒噪鸟"/>
-    <hyperlink ref="V441" r:id="rId2179" tooltip="小福蛋"/>
-    <hyperlink ref="T441" r:id="rId2180" tooltip="小福蛋"/>
-    <hyperlink ref="V440" r:id="rId2181" tooltip="魔尼尼"/>
-    <hyperlink ref="T440" r:id="rId2182" tooltip="魔尼尼"/>
-    <hyperlink ref="V439" r:id="rId2183" tooltip="盆才怪"/>
-    <hyperlink ref="T439" r:id="rId2184" tooltip="盆才怪"/>
-    <hyperlink ref="V438" r:id="rId2185" tooltip="青铜钟"/>
-    <hyperlink ref="T438" r:id="rId2186" tooltip="青铜钟"/>
-    <hyperlink ref="V437" r:id="rId2187" tooltip="铜镜怪"/>
-    <hyperlink ref="T437" r:id="rId2188" tooltip="铜镜怪"/>
-    <hyperlink ref="V436" r:id="rId2189" tooltip="坦克臭鼬"/>
-    <hyperlink ref="T436" r:id="rId2190" tooltip="坦克臭鼬"/>
-    <hyperlink ref="V435" r:id="rId2191" tooltip="臭鼬噗"/>
-    <hyperlink ref="T435" r:id="rId2192" tooltip="臭鼬噗"/>
-    <hyperlink ref="V434" r:id="rId2193" tooltip="铃铛响"/>
-    <hyperlink ref="T434" r:id="rId2194" tooltip="铃铛响"/>
-    <hyperlink ref="V433" r:id="rId2195" tooltip="东施喵"/>
-    <hyperlink ref="T433" r:id="rId2196" tooltip="东施喵"/>
-    <hyperlink ref="V432" r:id="rId2197" tooltip="魅力喵"/>
-    <hyperlink ref="T432" r:id="rId2198" tooltip="魅力喵"/>
-    <hyperlink ref="V431" r:id="rId2199" tooltip="乌鸦头头"/>
-    <hyperlink ref="T431" r:id="rId2200" tooltip="乌鸦头头"/>
-    <hyperlink ref="V430" r:id="rId2201" tooltip="梦妖魔"/>
-    <hyperlink ref="T430" r:id="rId2202" tooltip="梦妖魔"/>
-    <hyperlink ref="V429" r:id="rId2203" tooltip="长耳兔"/>
-    <hyperlink ref="T429" r:id="rId2204" tooltip="长耳兔"/>
-    <hyperlink ref="V428" r:id="rId2205" tooltip="卷卷耳"/>
-    <hyperlink ref="T428" r:id="rId2206" tooltip="卷卷耳"/>
-    <hyperlink ref="V427" r:id="rId2207" tooltip="随风球"/>
-    <hyperlink ref="T427" r:id="rId2208" tooltip="随风球"/>
-    <hyperlink ref="V426" r:id="rId2209" tooltip="飘飘球"/>
-    <hyperlink ref="T426" r:id="rId2210" tooltip="飘飘球"/>
-    <hyperlink ref="V425" r:id="rId2211" tooltip="双尾怪手"/>
-    <hyperlink ref="T425" r:id="rId2212" tooltip="双尾怪手"/>
-    <hyperlink ref="V424" r:id="rId2213" tooltip="海兔兽"/>
-    <hyperlink ref="T424" r:id="rId2214" tooltip="海兔兽"/>
-    <hyperlink ref="V423" r:id="rId2215" tooltip="无壳海兔"/>
-    <hyperlink ref="T423" r:id="rId2216" tooltip="无壳海兔"/>
-    <hyperlink ref="V422" r:id="rId2217" tooltip="樱花儿"/>
-    <hyperlink ref="T422" r:id="rId2218" tooltip="樱花儿"/>
-    <hyperlink ref="V421" r:id="rId2219" tooltip="樱花宝"/>
-    <hyperlink ref="T421" r:id="rId2220" tooltip="樱花宝"/>
-    <hyperlink ref="V420" r:id="rId2221" tooltip="浮潜鼬"/>
-    <hyperlink ref="T420" r:id="rId2222" tooltip="浮潜鼬"/>
-    <hyperlink ref="V419" r:id="rId2223" tooltip="泳圈鼬"/>
-    <hyperlink ref="T419" r:id="rId2224" tooltip="泳圈鼬"/>
-    <hyperlink ref="V418" r:id="rId2225" tooltip="帕奇利兹"/>
-    <hyperlink ref="T418" r:id="rId2226" tooltip="帕奇利兹"/>
-    <hyperlink ref="V417" r:id="rId2227" tooltip="蜂女王"/>
-    <hyperlink ref="T417" r:id="rId2228" tooltip="蜂女王"/>
-    <hyperlink ref="V416" r:id="rId2229" tooltip="三蜜蜂"/>
-    <hyperlink ref="T416" r:id="rId2230" tooltip="三蜜蜂"/>
-    <hyperlink ref="V415" r:id="rId2231" tooltip="绅士蛾"/>
-    <hyperlink ref="T415" r:id="rId2232" tooltip="绅士蛾"/>
-    <hyperlink ref="V487" r:id="rId2233" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="T487" r:id="rId2234" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="V486" r:id="rId2235" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="T486" r:id="rId2236" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="V485" r:id="rId2237" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="T485" r:id="rId2238" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="V484" r:id="rId2239" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="T484" r:id="rId2240" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="V483" r:id="rId2241" tooltip="天蝎王" display="天蝎王"/>
-    <hyperlink ref="T483" r:id="rId2242" tooltip="天蝎王" display="天蝎王"/>
-    <hyperlink ref="V482" r:id="rId2243" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="V481" r:id="rId2244" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="V493" r:id="rId2245" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="T493" r:id="rId2246" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="V492" r:id="rId2247" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="T492" r:id="rId2248" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="V491" r:id="rId2249" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="T491" r:id="rId2250" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="V490" r:id="rId2251" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="T490" r:id="rId2252" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="V488" r:id="rId2253" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="T488" r:id="rId2254" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="T495" r:id="rId2255" tooltip="比克提尼"/>
-    <hyperlink ref="T496" r:id="rId2256" tooltip="藤藤蛇"/>
-    <hyperlink ref="T497" r:id="rId2257" tooltip="青藤蛇"/>
-    <hyperlink ref="T498" r:id="rId2258" tooltip="君主蛇"/>
-    <hyperlink ref="T499" r:id="rId2259" tooltip="暖暖猪"/>
-    <hyperlink ref="T500" r:id="rId2260" tooltip="炒炒猪"/>
-    <hyperlink ref="T501" r:id="rId2261" tooltip="炎武王"/>
-    <hyperlink ref="T502" r:id="rId2262" tooltip="水水獭"/>
-    <hyperlink ref="T503" r:id="rId2263" tooltip="双刃丸"/>
-    <hyperlink ref="T504" r:id="rId2264" tooltip="大剑鬼"/>
-    <hyperlink ref="T505" r:id="rId2265" tooltip="探探鼠"/>
-    <hyperlink ref="T506" r:id="rId2266" tooltip="步哨鼠"/>
-    <hyperlink ref="T507" r:id="rId2267" tooltip="小约克"/>
-    <hyperlink ref="T508" r:id="rId2268" tooltip="哈约克"/>
-    <hyperlink ref="T509" r:id="rId2269" tooltip="长毛狗"/>
-    <hyperlink ref="T510" r:id="rId2270" tooltip="扒手猫"/>
-    <hyperlink ref="T511" r:id="rId2271" tooltip="酷豹"/>
-    <hyperlink ref="T512" r:id="rId2272" tooltip="花椰猴"/>
-    <hyperlink ref="T513" r:id="rId2273" tooltip="花椰猿"/>
-    <hyperlink ref="T514" r:id="rId2274" tooltip="爆香猴"/>
-    <hyperlink ref="T515" r:id="rId2275" tooltip="爆香猿"/>
-    <hyperlink ref="T516" r:id="rId2276" tooltip="冷水猴"/>
-    <hyperlink ref="T517" r:id="rId2277" tooltip="冷水猿"/>
-    <hyperlink ref="T518" r:id="rId2278" tooltip="食梦梦"/>
-    <hyperlink ref="T519" r:id="rId2279" tooltip="梦梦蚀"/>
-    <hyperlink ref="T520" r:id="rId2280" tooltip="豆豆鸽"/>
-    <hyperlink ref="T521" r:id="rId2281" tooltip="咕咕鸽"/>
-    <hyperlink ref="T522" r:id="rId2282" tooltip="高傲雉鸡"/>
-    <hyperlink ref="T523" r:id="rId2283" tooltip="斑斑马"/>
-    <hyperlink ref="T524" r:id="rId2284" tooltip="雷电斑马"/>
-    <hyperlink ref="T525" r:id="rId2285" tooltip="石丸子"/>
-    <hyperlink ref="T526" r:id="rId2286" tooltip="地幔岩"/>
-    <hyperlink ref="T527" r:id="rId2287" tooltip="庞岩怪"/>
-    <hyperlink ref="T528" r:id="rId2288" tooltip="滚滚蝙蝠"/>
-    <hyperlink ref="T529" r:id="rId2289" tooltip="心蝙蝠"/>
-    <hyperlink ref="T530" r:id="rId2290" tooltip="螺钉地鼠"/>
-    <hyperlink ref="T531" r:id="rId2291" tooltip="龙头地鼠"/>
-    <hyperlink ref="T532" r:id="rId2292" tooltip="差不多娃娃"/>
-    <hyperlink ref="T533" r:id="rId2293" tooltip="搬运小匠"/>
-    <hyperlink ref="T534" r:id="rId2294" tooltip="铁骨土人"/>
-    <hyperlink ref="T535" r:id="rId2295" tooltip="修建老匠"/>
-    <hyperlink ref="T536" r:id="rId2296" tooltip="圆蝌蚪"/>
-    <hyperlink ref="T537" r:id="rId2297" tooltip="蓝蟾蜍"/>
-    <hyperlink ref="T538" r:id="rId2298" tooltip="蟾蜍王"/>
-    <hyperlink ref="T539" r:id="rId2299" tooltip="投摔鬼"/>
-    <hyperlink ref="T540" r:id="rId2300" tooltip="打击鬼"/>
-    <hyperlink ref="T541" r:id="rId2301" tooltip="虫宝包"/>
-    <hyperlink ref="T542" r:id="rId2302" tooltip="宝包茧"/>
-    <hyperlink ref="T543" r:id="rId2303" tooltip="保姆虫"/>
-    <hyperlink ref="T544" r:id="rId2304" tooltip="百足蜈蚣"/>
-    <hyperlink ref="T545" r:id="rId2305" tooltip="车轮球"/>
-    <hyperlink ref="T546" r:id="rId2306" tooltip="蜈蚣王"/>
-    <hyperlink ref="T547" r:id="rId2307" tooltip="木棉球"/>
-    <hyperlink ref="T548" r:id="rId2308" tooltip="风妖精"/>
-    <hyperlink ref="T549" r:id="rId2309" tooltip="百合根娃娃"/>
-    <hyperlink ref="T550" r:id="rId2310" tooltip="裙儿小姐"/>
-    <hyperlink ref="T551" r:id="rId2311" tooltip="野蛮鲈鱼"/>
-    <hyperlink ref="T552" r:id="rId2312" tooltip="黑眼鳄"/>
-    <hyperlink ref="T553" r:id="rId2313" tooltip="混混鳄"/>
-    <hyperlink ref="T554" r:id="rId2314" tooltip="流氓鳄"/>
-    <hyperlink ref="T555" r:id="rId2315" tooltip="火红不倒翁"/>
-    <hyperlink ref="V495" r:id="rId2316" tooltip="比克提尼"/>
-    <hyperlink ref="V496" r:id="rId2317" tooltip="藤藤蛇"/>
-    <hyperlink ref="V497" r:id="rId2318" tooltip="青藤蛇"/>
-    <hyperlink ref="V498" r:id="rId2319" tooltip="君主蛇"/>
-    <hyperlink ref="V499" r:id="rId2320" tooltip="暖暖猪"/>
-    <hyperlink ref="V500" r:id="rId2321" tooltip="炒炒猪"/>
-    <hyperlink ref="V501" r:id="rId2322" tooltip="炎武王"/>
-    <hyperlink ref="V502" r:id="rId2323" tooltip="水水獭"/>
-    <hyperlink ref="V503" r:id="rId2324" tooltip="双刃丸"/>
-    <hyperlink ref="V504" r:id="rId2325" tooltip="大剑鬼"/>
-    <hyperlink ref="V505" r:id="rId2326" tooltip="探探鼠"/>
-    <hyperlink ref="V506" r:id="rId2327" tooltip="步哨鼠"/>
-    <hyperlink ref="V507" r:id="rId2328" tooltip="小约克"/>
-    <hyperlink ref="V508" r:id="rId2329" tooltip="哈约克"/>
-    <hyperlink ref="V509" r:id="rId2330" tooltip="长毛狗"/>
-    <hyperlink ref="V510" r:id="rId2331" tooltip="扒手猫"/>
-    <hyperlink ref="V511" r:id="rId2332" tooltip="酷豹"/>
-    <hyperlink ref="V512" r:id="rId2333" tooltip="花椰猴"/>
-    <hyperlink ref="V513" r:id="rId2334" tooltip="花椰猿"/>
-    <hyperlink ref="V514" r:id="rId2335" tooltip="爆香猴"/>
-    <hyperlink ref="V515" r:id="rId2336" tooltip="爆香猿"/>
-    <hyperlink ref="V516" r:id="rId2337" tooltip="冷水猴"/>
-    <hyperlink ref="V517" r:id="rId2338" tooltip="冷水猿"/>
-    <hyperlink ref="V518" r:id="rId2339" tooltip="食梦梦"/>
-    <hyperlink ref="V519" r:id="rId2340" tooltip="梦梦蚀"/>
-    <hyperlink ref="V520" r:id="rId2341" tooltip="豆豆鸽"/>
-    <hyperlink ref="V521" r:id="rId2342" tooltip="咕咕鸽"/>
-    <hyperlink ref="V522" r:id="rId2343" tooltip="高傲雉鸡"/>
-    <hyperlink ref="V523" r:id="rId2344" tooltip="斑斑马"/>
-    <hyperlink ref="V524" r:id="rId2345" tooltip="雷电斑马"/>
-    <hyperlink ref="V525" r:id="rId2346" tooltip="石丸子"/>
-    <hyperlink ref="V526" r:id="rId2347" tooltip="地幔岩"/>
-    <hyperlink ref="V527" r:id="rId2348" tooltip="庞岩怪"/>
-    <hyperlink ref="V528" r:id="rId2349" tooltip="滚滚蝙蝠"/>
-    <hyperlink ref="V529" r:id="rId2350" tooltip="心蝙蝠"/>
-    <hyperlink ref="V530" r:id="rId2351" tooltip="螺钉地鼠"/>
-    <hyperlink ref="V531" r:id="rId2352" tooltip="龙头地鼠"/>
-    <hyperlink ref="V532" r:id="rId2353" tooltip="差不多娃娃"/>
-    <hyperlink ref="V533" r:id="rId2354" tooltip="搬运小匠"/>
-    <hyperlink ref="V534" r:id="rId2355" tooltip="铁骨土人"/>
-    <hyperlink ref="V535" r:id="rId2356" tooltip="修建老匠"/>
-    <hyperlink ref="V536" r:id="rId2357" tooltip="圆蝌蚪"/>
-    <hyperlink ref="V537" r:id="rId2358" tooltip="蓝蟾蜍"/>
-    <hyperlink ref="V538" r:id="rId2359" tooltip="蟾蜍王"/>
-    <hyperlink ref="V539" r:id="rId2360" tooltip="投摔鬼"/>
-    <hyperlink ref="V540" r:id="rId2361" tooltip="打击鬼"/>
-    <hyperlink ref="V541" r:id="rId2362" tooltip="虫宝包"/>
-    <hyperlink ref="V542" r:id="rId2363" tooltip="宝包茧"/>
-    <hyperlink ref="V543" r:id="rId2364" tooltip="保姆虫"/>
-    <hyperlink ref="V544" r:id="rId2365" tooltip="百足蜈蚣"/>
-    <hyperlink ref="V545" r:id="rId2366" tooltip="车轮球"/>
-    <hyperlink ref="V546" r:id="rId2367" tooltip="蜈蚣王"/>
-    <hyperlink ref="V547" r:id="rId2368" tooltip="木棉球"/>
-    <hyperlink ref="V548" r:id="rId2369" tooltip="风妖精"/>
-    <hyperlink ref="V549" r:id="rId2370" tooltip="百合根娃娃"/>
-    <hyperlink ref="V550" r:id="rId2371" tooltip="裙儿小姐"/>
-    <hyperlink ref="V551" r:id="rId2372" tooltip="野蛮鲈鱼"/>
-    <hyperlink ref="V552" r:id="rId2373" tooltip="黑眼鳄"/>
-    <hyperlink ref="V553" r:id="rId2374" tooltip="混混鳄"/>
-    <hyperlink ref="V554" r:id="rId2375" tooltip="流氓鳄"/>
-    <hyperlink ref="V555" r:id="rId2376" tooltip="火红不倒翁"/>
-    <hyperlink ref="T651" r:id="rId2377" tooltip="哈力栗"/>
-    <hyperlink ref="T652" r:id="rId2378" tooltip="胖胖哈力"/>
-    <hyperlink ref="T653" r:id="rId2379" tooltip="布里卡隆"/>
-    <hyperlink ref="T654" r:id="rId2380" tooltip="火狐狸"/>
-    <hyperlink ref="T655" r:id="rId2381" tooltip="长尾火狐"/>
-    <hyperlink ref="T656" r:id="rId2382" tooltip="妖火红狐"/>
-    <hyperlink ref="T657" r:id="rId2383" tooltip="呱呱泡蛙"/>
-    <hyperlink ref="T658" r:id="rId2384" tooltip="呱头蛙"/>
-    <hyperlink ref="T659" r:id="rId2385" tooltip="甲贺忍蛙"/>
-    <hyperlink ref="T660" r:id="rId2386" tooltip="掘掘兔"/>
-    <hyperlink ref="T661" r:id="rId2387" tooltip="掘地兔"/>
-    <hyperlink ref="T662" r:id="rId2388" tooltip="小箭雀"/>
-    <hyperlink ref="T663" r:id="rId2389" tooltip="火箭雀"/>
-    <hyperlink ref="T664" r:id="rId2390" tooltip="烈箭鹰"/>
-    <hyperlink ref="T665" r:id="rId2391" tooltip="粉蝶虫"/>
-    <hyperlink ref="T666" r:id="rId2392" tooltip="粉蝶蛹"/>
-    <hyperlink ref="T667" r:id="rId2393" tooltip="彩粉蝶"/>
-    <hyperlink ref="T668" r:id="rId2394" tooltip="小狮狮"/>
-    <hyperlink ref="T669" r:id="rId2395" tooltip="火炎狮"/>
-    <hyperlink ref="T670" r:id="rId2396" tooltip="花蓓蓓"/>
-    <hyperlink ref="T671" r:id="rId2397" tooltip="花叶蒂"/>
-    <hyperlink ref="T672" r:id="rId2398" tooltip="花洁夫人"/>
-    <hyperlink ref="T673" r:id="rId2399" tooltip="坐骑小羊"/>
-    <hyperlink ref="T674" r:id="rId2400" tooltip="坐骑山羊"/>
-    <hyperlink ref="T675" r:id="rId2401" tooltip="顽皮熊猫"/>
-    <hyperlink ref="T676" r:id="rId2402" tooltip="流氓熊猫"/>
-    <hyperlink ref="T677" r:id="rId2403" tooltip="多丽米亚"/>
-    <hyperlink ref="T678" r:id="rId2404" tooltip="妙喵"/>
-    <hyperlink ref="T679" r:id="rId2405" tooltip="超能妙喵"/>
-    <hyperlink ref="T680" r:id="rId2406" tooltip="独剑鞘"/>
-    <hyperlink ref="T681" r:id="rId2407" tooltip="双剑鞘"/>
-    <hyperlink ref="T682" r:id="rId2408" tooltip="坚盾剑怪"/>
-    <hyperlink ref="T713" r:id="rId2409" tooltip="冰宝"/>
-    <hyperlink ref="T714" r:id="rId2410" tooltip="冰岩怪"/>
-    <hyperlink ref="T715" r:id="rId2411" tooltip="嗡蝠"/>
-    <hyperlink ref="T716" r:id="rId2412" tooltip="音波龙"/>
-    <hyperlink ref="T717" r:id="rId2413" tooltip="哲尔尼亚斯"/>
-    <hyperlink ref="T718" r:id="rId2414" tooltip="伊裴尔塔尔"/>
-    <hyperlink ref="T711" r:id="rId2415" tooltip="南瓜精"/>
-    <hyperlink ref="T712" r:id="rId2416" tooltip="南瓜怪人"/>
-    <hyperlink ref="T683" r:id="rId2417" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="T684" r:id="rId2418" tooltip="冰宝" display="冰宝"/>
-    <hyperlink ref="T685" r:id="rId2419" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="T686" r:id="rId2420" tooltip="嗡蝠" display="嗡蝠"/>
-    <hyperlink ref="T687" r:id="rId2421" tooltip="音波龙" display="音波龙"/>
-    <hyperlink ref="T688" r:id="rId2422" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="T689" r:id="rId2423" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="T690" r:id="rId2424" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="T691" r:id="rId2425" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="T692" r:id="rId2426" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="T693" r:id="rId2427" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="T694" r:id="rId2428" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="T695" r:id="rId2429" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="T696" r:id="rId2430" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V651" r:id="rId2431" tooltip="哈力栗"/>
-    <hyperlink ref="V652" r:id="rId2432" tooltip="胖胖哈力"/>
-    <hyperlink ref="V653" r:id="rId2433" tooltip="布里卡隆"/>
-    <hyperlink ref="V654" r:id="rId2434" tooltip="火狐狸"/>
-    <hyperlink ref="V655" r:id="rId2435" tooltip="长尾火狐"/>
-    <hyperlink ref="V656" r:id="rId2436" tooltip="妖火红狐"/>
-    <hyperlink ref="V657" r:id="rId2437" tooltip="呱呱泡蛙"/>
-    <hyperlink ref="V658" r:id="rId2438" tooltip="呱头蛙"/>
-    <hyperlink ref="V659" r:id="rId2439" tooltip="甲贺忍蛙"/>
-    <hyperlink ref="V660" r:id="rId2440" tooltip="掘掘兔"/>
-    <hyperlink ref="V661" r:id="rId2441" tooltip="掘地兔"/>
-    <hyperlink ref="V662" r:id="rId2442" tooltip="小箭雀"/>
-    <hyperlink ref="V663" r:id="rId2443" tooltip="火箭雀"/>
-    <hyperlink ref="V664" r:id="rId2444" tooltip="烈箭鹰"/>
-    <hyperlink ref="V665" r:id="rId2445" tooltip="粉蝶虫"/>
-    <hyperlink ref="V666" r:id="rId2446" tooltip="粉蝶蛹"/>
-    <hyperlink ref="V667" r:id="rId2447" tooltip="彩粉蝶"/>
-    <hyperlink ref="V668" r:id="rId2448" tooltip="小狮狮"/>
-    <hyperlink ref="V669" r:id="rId2449" tooltip="火炎狮"/>
-    <hyperlink ref="V670" r:id="rId2450" tooltip="花蓓蓓"/>
-    <hyperlink ref="V671" r:id="rId2451" tooltip="花叶蒂"/>
-    <hyperlink ref="V672" r:id="rId2452" tooltip="花洁夫人"/>
-    <hyperlink ref="V673" r:id="rId2453" tooltip="坐骑小羊"/>
-    <hyperlink ref="V674" r:id="rId2454" tooltip="坐骑山羊"/>
-    <hyperlink ref="V675" r:id="rId2455" tooltip="顽皮熊猫"/>
-    <hyperlink ref="V676" r:id="rId2456" tooltip="流氓熊猫"/>
-    <hyperlink ref="V677" r:id="rId2457" tooltip="多丽米亚"/>
-    <hyperlink ref="V678" r:id="rId2458" tooltip="妙喵"/>
-    <hyperlink ref="V679" r:id="rId2459" tooltip="超能妙喵"/>
-    <hyperlink ref="V680" r:id="rId2460" tooltip="独剑鞘"/>
-    <hyperlink ref="V681" r:id="rId2461" tooltip="双剑鞘"/>
-    <hyperlink ref="V682" r:id="rId2462" tooltip="坚盾剑怪"/>
-    <hyperlink ref="V713" r:id="rId2463" tooltip="冰宝"/>
-    <hyperlink ref="V714" r:id="rId2464" tooltip="冰岩怪"/>
-    <hyperlink ref="V715" r:id="rId2465" tooltip="嗡蝠"/>
-    <hyperlink ref="V716" r:id="rId2466" tooltip="音波龙"/>
-    <hyperlink ref="V717" r:id="rId2467" tooltip="哲尔尼亚斯"/>
-    <hyperlink ref="V718" r:id="rId2468" tooltip="伊裴尔塔尔"/>
-    <hyperlink ref="V711" r:id="rId2469" tooltip="南瓜精"/>
-    <hyperlink ref="V712" r:id="rId2470" tooltip="南瓜怪人"/>
-    <hyperlink ref="V683" r:id="rId2471" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="V684" r:id="rId2472" tooltip="冰宝" display="冰宝"/>
-    <hyperlink ref="V685" r:id="rId2473" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="V686" r:id="rId2474" tooltip="嗡蝠" display="嗡蝠"/>
-    <hyperlink ref="V687" r:id="rId2475" tooltip="音波龙" display="音波龙"/>
-    <hyperlink ref="V688" r:id="rId2476" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="V689" r:id="rId2477" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="V690" r:id="rId2478" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V691" r:id="rId2479" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="V692" r:id="rId2480" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="V693" r:id="rId2481" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="V694" r:id="rId2482" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V695" r:id="rId2483" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V696" r:id="rId2484" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V723" r:id="rId2485" tooltip="木木枭"/>
-    <hyperlink ref="V724" r:id="rId2486" tooltip="投羽枭"/>
-    <hyperlink ref="V725" r:id="rId2487" tooltip="狙射树枭"/>
-    <hyperlink ref="V726" r:id="rId2488" tooltip="火斑喵"/>
-    <hyperlink ref="V727" r:id="rId2489" tooltip="炎热喵"/>
-    <hyperlink ref="V728" r:id="rId2490" tooltip="炽焰咆哮虎"/>
-    <hyperlink ref="V729" r:id="rId2491" tooltip="球球海狮"/>
-    <hyperlink ref="V730" r:id="rId2492" tooltip="花漾海狮"/>
-    <hyperlink ref="V731" r:id="rId2493" tooltip="西狮海壬"/>
-    <hyperlink ref="V732" r:id="rId2494" tooltip="小笃儿"/>
-    <hyperlink ref="V733" r:id="rId2495" tooltip="喇叭啄鸟"/>
-    <hyperlink ref="V734" r:id="rId2496" tooltip="铳嘴大鸟"/>
-    <hyperlink ref="V735" r:id="rId2497" tooltip="猫鼬少"/>
-    <hyperlink ref="V736" r:id="rId2498" tooltip="猫鼬探长"/>
-    <hyperlink ref="V737" r:id="rId2499" tooltip="强颚鸡母虫"/>
-    <hyperlink ref="V738" r:id="rId2500" tooltip="虫电宝"/>
-    <hyperlink ref="V739" r:id="rId2501" tooltip="锹农炮虫"/>
-    <hyperlink ref="V740" r:id="rId2502" tooltip="好胜蟹"/>
-    <hyperlink ref="V741" r:id="rId2503" tooltip="好胜毛蟹"/>
-    <hyperlink ref="V742" r:id="rId2504" tooltip="花舞鸟"/>
-    <hyperlink ref="V743" r:id="rId2505" tooltip="萌虻"/>
-    <hyperlink ref="V744" r:id="rId2506" tooltip="蝶结萌虻"/>
-    <hyperlink ref="V745" r:id="rId2507" tooltip="岩狗狗"/>
-    <hyperlink ref="V746" r:id="rId2508" tooltip="鬃岩狼人"/>
-    <hyperlink ref="T723" r:id="rId2509" tooltip="木木枭"/>
-    <hyperlink ref="T724" r:id="rId2510" tooltip="投羽枭"/>
-    <hyperlink ref="T725" r:id="rId2511" tooltip="狙射树枭"/>
-    <hyperlink ref="T726" r:id="rId2512" tooltip="火斑喵"/>
-    <hyperlink ref="T727" r:id="rId2513" tooltip="炎热喵"/>
-    <hyperlink ref="T728" r:id="rId2514" tooltip="炽焰咆哮虎"/>
-    <hyperlink ref="T729" r:id="rId2515" tooltip="球球海狮"/>
-    <hyperlink ref="T730" r:id="rId2516" tooltip="花漾海狮"/>
-    <hyperlink ref="T731" r:id="rId2517" tooltip="西狮海壬"/>
-    <hyperlink ref="T732" r:id="rId2518" tooltip="小笃儿"/>
-    <hyperlink ref="T733" r:id="rId2519" tooltip="喇叭啄鸟"/>
-    <hyperlink ref="T734" r:id="rId2520" tooltip="铳嘴大鸟"/>
-    <hyperlink ref="T735" r:id="rId2521" tooltip="猫鼬少"/>
-    <hyperlink ref="T736" r:id="rId2522" tooltip="猫鼬探长"/>
-    <hyperlink ref="T737" r:id="rId2523" tooltip="强颚鸡母虫"/>
-    <hyperlink ref="T738" r:id="rId2524" tooltip="虫电宝"/>
-    <hyperlink ref="T739" r:id="rId2525" tooltip="锹农炮虫"/>
-    <hyperlink ref="T740" r:id="rId2526" tooltip="好胜蟹"/>
-    <hyperlink ref="T741" r:id="rId2527" tooltip="好胜毛蟹"/>
-    <hyperlink ref="T742" r:id="rId2528" tooltip="花舞鸟"/>
-    <hyperlink ref="T743" r:id="rId2529" tooltip="萌虻"/>
-    <hyperlink ref="T744" r:id="rId2530" tooltip="蝶结萌虻"/>
-    <hyperlink ref="T745" r:id="rId2531" tooltip="岩狗狗"/>
-    <hyperlink ref="T746" r:id="rId2532" tooltip="鬃岩狼人"/>
-    <hyperlink ref="B480" r:id="rId2533" tooltip="Rotom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rotom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="L480" r:id="rId2534" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="T481" r:id="rId2535" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="T482" r:id="rId2536" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="T476" r:id="rId2537" tooltip="艾路雷朵"/>
-    <hyperlink ref="T477" r:id="rId2538" tooltip="大朝北鼻"/>
-    <hyperlink ref="T478" r:id="rId2539" tooltip="黑夜魔灵"/>
-    <hyperlink ref="T479" r:id="rId2540" tooltip="雪妖女"/>
-    <hyperlink ref="T480" r:id="rId2541" tooltip="洛托姆"/>
-    <hyperlink ref="T475" r:id="rId2542" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U2" r:id="rId2543" tooltip="妙蛙种子"/>
-    <hyperlink ref="U3" r:id="rId2544" tooltip="妙蛙草"/>
-    <hyperlink ref="U4" r:id="rId2545" tooltip="妙蛙花"/>
-    <hyperlink ref="U5" r:id="rId2546" tooltip="小火龙"/>
-    <hyperlink ref="U6" r:id="rId2547" tooltip="火恐龙"/>
-    <hyperlink ref="U7" r:id="rId2548" tooltip="喷火龙" display="喷火龙"/>
-    <hyperlink ref="U8" r:id="rId2549" tooltip="杰尼龟"/>
-    <hyperlink ref="U9" r:id="rId2550" tooltip="卡咪龟"/>
-    <hyperlink ref="U10" r:id="rId2551" tooltip="水箭龟"/>
-    <hyperlink ref="U11" r:id="rId2552" tooltip="绿毛虫" display="绿毛虫"/>
-    <hyperlink ref="U12" r:id="rId2553" tooltip="铁甲蛹"/>
-    <hyperlink ref="U13" r:id="rId2554" tooltip="巴大蝶"/>
-    <hyperlink ref="U14" r:id="rId2555" tooltip="独角虫"/>
-    <hyperlink ref="U15" r:id="rId2556" tooltip="铁壳蛹"/>
-    <hyperlink ref="U16" r:id="rId2557" tooltip="大针蜂"/>
-    <hyperlink ref="U17" r:id="rId2558" tooltip="波波"/>
-    <hyperlink ref="U18" r:id="rId2559" tooltip="比比鸟"/>
-    <hyperlink ref="U19" r:id="rId2560" tooltip="大比鸟" display="大比鸟"/>
-    <hyperlink ref="U20" r:id="rId2561" tooltip="小拉达"/>
-    <hyperlink ref="U21" r:id="rId2562" tooltip="拉达"/>
-    <hyperlink ref="U22" r:id="rId2563" tooltip="烈雀"/>
-    <hyperlink ref="U23" r:id="rId2564" tooltip="大嘴雀"/>
-    <hyperlink ref="U24" r:id="rId2565" tooltip="阿柏蛇"/>
-    <hyperlink ref="U25" r:id="rId2566" tooltip="阿柏怪"/>
-    <hyperlink ref="U26" r:id="rId2567" tooltip="皮卡丘" display="皮卡丘"/>
-    <hyperlink ref="U27" r:id="rId2568" tooltip="雷丘"/>
-    <hyperlink ref="U28" r:id="rId2569" tooltip="穿山鼠"/>
-    <hyperlink ref="U29" r:id="rId2570" tooltip="穿山王"/>
-    <hyperlink ref="U30" r:id="rId2571" tooltip="尼多兰"/>
-    <hyperlink ref="U31" r:id="rId2572" tooltip="尼多娜"/>
-    <hyperlink ref="U32" r:id="rId2573" tooltip="尼多后"/>
-    <hyperlink ref="U33" r:id="rId2574" tooltip="尼多朗"/>
-    <hyperlink ref="U34" r:id="rId2575" tooltip="尼多力诺"/>
-    <hyperlink ref="U35" r:id="rId2576" tooltip="尼多王"/>
-    <hyperlink ref="U36" r:id="rId2577" tooltip="皮皮"/>
-    <hyperlink ref="U37" r:id="rId2578" tooltip="皮可西" display="皮可西"/>
-    <hyperlink ref="U38" r:id="rId2579" tooltip="六尾"/>
-    <hyperlink ref="U39" r:id="rId2580" tooltip="九尾"/>
-    <hyperlink ref="U40" r:id="rId2581" tooltip="胖丁"/>
-    <hyperlink ref="U41" r:id="rId2582" tooltip="胖可丁"/>
-    <hyperlink ref="U42" r:id="rId2583" tooltip="超音蝠"/>
-    <hyperlink ref="U43" r:id="rId2584" tooltip="大嘴蝠"/>
-    <hyperlink ref="U44" r:id="rId2585" tooltip="走路草"/>
-    <hyperlink ref="U45" r:id="rId2586" tooltip="臭臭花"/>
-    <hyperlink ref="U46" r:id="rId2587" tooltip="霸王花"/>
-    <hyperlink ref="U47" r:id="rId2588" tooltip="派拉斯"/>
-    <hyperlink ref="U48" r:id="rId2589" tooltip="派拉斯特"/>
-    <hyperlink ref="U49" r:id="rId2590" tooltip="毛球"/>
-    <hyperlink ref="U50" r:id="rId2591" tooltip="摩鲁蛾"/>
-    <hyperlink ref="U51" r:id="rId2592" tooltip="地鼠"/>
-    <hyperlink ref="U52" r:id="rId2593" tooltip="三地鼠"/>
-    <hyperlink ref="U53" r:id="rId2594" tooltip="喵喵"/>
-    <hyperlink ref="U54" r:id="rId2595" tooltip="猫老大"/>
-    <hyperlink ref="U55" r:id="rId2596" tooltip="可达鸭"/>
-    <hyperlink ref="U56" r:id="rId2597" tooltip="哥达鸭"/>
-    <hyperlink ref="U57" r:id="rId2598" tooltip="猴怪"/>
-    <hyperlink ref="U58" r:id="rId2599" tooltip="火暴猴"/>
-    <hyperlink ref="U59" r:id="rId2600" tooltip="卡蒂狗"/>
-    <hyperlink ref="U60" r:id="rId2601" tooltip="风速狗" display="风速狗"/>
-    <hyperlink ref="U61" r:id="rId2602" tooltip="蚊香蝌蚪"/>
-    <hyperlink ref="U62" r:id="rId2603" tooltip="蚊香君"/>
-    <hyperlink ref="U63" r:id="rId2604" tooltip="蚊香泳士"/>
-    <hyperlink ref="U64" r:id="rId2605" tooltip="凯西"/>
-    <hyperlink ref="U65" r:id="rId2606" tooltip="勇基拉"/>
-    <hyperlink ref="U66" r:id="rId2607" tooltip="胡地"/>
-    <hyperlink ref="U67" r:id="rId2608" tooltip="腕力"/>
-    <hyperlink ref="U68" r:id="rId2609" tooltip="豪力"/>
-    <hyperlink ref="U69" r:id="rId2610" tooltip="怪力"/>
-    <hyperlink ref="U70" r:id="rId2611" tooltip="喇叭芽"/>
-    <hyperlink ref="U71" r:id="rId2612" tooltip="口呆花"/>
-    <hyperlink ref="U72" r:id="rId2613" tooltip="大食花"/>
-    <hyperlink ref="U73" r:id="rId2614" tooltip="玛瑙水母"/>
-    <hyperlink ref="U74" r:id="rId2615" tooltip="毒刺水母"/>
-    <hyperlink ref="U75" r:id="rId2616" tooltip="小拳石"/>
-    <hyperlink ref="U76" r:id="rId2617" tooltip="隆隆石"/>
-    <hyperlink ref="U77" r:id="rId2618" tooltip="隆隆岩"/>
-    <hyperlink ref="U78" r:id="rId2619" tooltip="小火马"/>
-    <hyperlink ref="U79" r:id="rId2620" tooltip="烈焰马"/>
-    <hyperlink ref="U80" r:id="rId2621" tooltip="呆呆兽"/>
-    <hyperlink ref="U81" r:id="rId2622" tooltip="呆壳兽" display="呆壳兽"/>
-    <hyperlink ref="U82" r:id="rId2623" tooltip="小磁怪"/>
-    <hyperlink ref="U83" r:id="rId2624" tooltip="三合一磁怪"/>
-    <hyperlink ref="U84" r:id="rId2625" tooltip="大葱鸭"/>
-    <hyperlink ref="U85" r:id="rId2626" tooltip="嘟嘟"/>
-    <hyperlink ref="U86" r:id="rId2627" tooltip="嘟嘟利"/>
-    <hyperlink ref="U87" r:id="rId2628" tooltip="小海狮"/>
-    <hyperlink ref="U88" r:id="rId2629" tooltip="白海狮"/>
-    <hyperlink ref="U89" r:id="rId2630" tooltip="臭泥"/>
-    <hyperlink ref="U90" r:id="rId2631" tooltip="臭臭泥"/>
-    <hyperlink ref="U91" r:id="rId2632" tooltip="大舌贝"/>
-    <hyperlink ref="U92" r:id="rId2633" tooltip="刺甲贝"/>
-    <hyperlink ref="U93" r:id="rId2634" tooltip="鬼斯"/>
-    <hyperlink ref="U94" r:id="rId2635" tooltip="鬼斯通"/>
-    <hyperlink ref="U95" r:id="rId2636" tooltip="耿鬼"/>
-    <hyperlink ref="U96" r:id="rId2637" tooltip="大岩蛇"/>
-    <hyperlink ref="U97" r:id="rId2638" tooltip="催眠貘"/>
-    <hyperlink ref="U98" r:id="rId2639" tooltip="引梦貘人"/>
-    <hyperlink ref="U99" r:id="rId2640" tooltip="大钳蟹"/>
-    <hyperlink ref="U100" r:id="rId2641" tooltip="巨钳蟹"/>
-    <hyperlink ref="U101" r:id="rId2642" tooltip="霹雳电球"/>
-    <hyperlink ref="U102" r:id="rId2643" tooltip="顽皮雷弹"/>
-    <hyperlink ref="U103" r:id="rId2644" tooltip="蛋蛋"/>
-    <hyperlink ref="U104" r:id="rId2645" tooltip="椰蛋树"/>
-    <hyperlink ref="U105" r:id="rId2646" tooltip="卡拉卡拉"/>
-    <hyperlink ref="U106" r:id="rId2647" tooltip="嘎啦嘎啦"/>
-    <hyperlink ref="U107" r:id="rId2648" tooltip="飞腿郎"/>
-    <hyperlink ref="U108" r:id="rId2649" tooltip="快拳郎"/>
-    <hyperlink ref="U109" r:id="rId2650" tooltip="大舌头"/>
-    <hyperlink ref="U110" r:id="rId2651" tooltip="瓦斯弹"/>
-    <hyperlink ref="U111" r:id="rId2652" tooltip="双弹瓦斯"/>
-    <hyperlink ref="U112" r:id="rId2653" tooltip="独角犀牛"/>
-    <hyperlink ref="U113" r:id="rId2654" tooltip="钻角犀兽"/>
-    <hyperlink ref="U114" r:id="rId2655" tooltip="吉利蛋" display="吉利蛋"/>
-    <hyperlink ref="U115" r:id="rId2656" tooltip="蔓藤怪"/>
-    <hyperlink ref="U116" r:id="rId2657" tooltip="袋兽"/>
-    <hyperlink ref="U117" r:id="rId2658" tooltip="墨海马"/>
-    <hyperlink ref="U118" r:id="rId2659" tooltip="海刺龙"/>
-    <hyperlink ref="U119" r:id="rId2660" tooltip="角金鱼"/>
-    <hyperlink ref="U120" r:id="rId2661" tooltip="金鱼王"/>
-    <hyperlink ref="U121" r:id="rId2662" tooltip="海星星"/>
-    <hyperlink ref="U122" r:id="rId2663" tooltip="宝石海星"/>
-    <hyperlink ref="U123" r:id="rId2664" tooltip="魔墙人偶"/>
-    <hyperlink ref="U124" r:id="rId2665" tooltip="飞天螳螂"/>
-    <hyperlink ref="U125" r:id="rId2666" tooltip="迷唇姐"/>
-    <hyperlink ref="U126" r:id="rId2667" tooltip="电击兽"/>
-    <hyperlink ref="U127" r:id="rId2668" tooltip="鸭嘴火兽"/>
-    <hyperlink ref="U128" r:id="rId2669" tooltip="凯罗斯"/>
-    <hyperlink ref="U129" r:id="rId2670" tooltip="肯泰罗" display="肯泰罗"/>
-    <hyperlink ref="U130" r:id="rId2671" tooltip="鲤鱼王" display="鲤鱼王"/>
-    <hyperlink ref="U131" r:id="rId2672" tooltip="暴鲤龙"/>
-    <hyperlink ref="U132" r:id="rId2673" tooltip="拉普拉斯"/>
-    <hyperlink ref="U133" r:id="rId2674" tooltip="百变怪"/>
-    <hyperlink ref="U134" r:id="rId2675" tooltip="伊布"/>
-    <hyperlink ref="U135" r:id="rId2676" tooltip="水伊布"/>
-    <hyperlink ref="U136" r:id="rId2677" tooltip="雷伊布"/>
-    <hyperlink ref="U137" r:id="rId2678" tooltip="火伊布" display="火伊布"/>
-    <hyperlink ref="U138" r:id="rId2679" tooltip="多边兽"/>
-    <hyperlink ref="U139" r:id="rId2680" tooltip="菊石兽"/>
-    <hyperlink ref="U140" r:id="rId2681" tooltip="多刺菊石兽"/>
-    <hyperlink ref="U141" r:id="rId2682" tooltip="化石盔"/>
-    <hyperlink ref="U142" r:id="rId2683" tooltip="镰刀盔"/>
-    <hyperlink ref="U143" r:id="rId2684" tooltip="化石翼龙"/>
-    <hyperlink ref="U144" r:id="rId2685" tooltip="卡比兽"/>
-    <hyperlink ref="U145" r:id="rId2686" tooltip="急冻鸟"/>
-    <hyperlink ref="U146" r:id="rId2687" tooltip="闪电鸟"/>
-    <hyperlink ref="U147" r:id="rId2688" tooltip="火焰鸟"/>
-    <hyperlink ref="U148" r:id="rId2689" tooltip="迷你龙"/>
-    <hyperlink ref="U149" r:id="rId2690" tooltip="哈克龙"/>
-    <hyperlink ref="U150" r:id="rId2691" tooltip="快龙" display="快龙"/>
-    <hyperlink ref="U151" r:id="rId2692" tooltip="超梦"/>
-    <hyperlink ref="U152" r:id="rId2693" tooltip="梦幻"/>
-    <hyperlink ref="U153" r:id="rId2694" tooltip="菊草叶"/>
-    <hyperlink ref="U154" r:id="rId2695" tooltip="月桂叶"/>
-    <hyperlink ref="U155" r:id="rId2696" tooltip="大竺葵"/>
-    <hyperlink ref="U156" r:id="rId2697" tooltip="火球鼠"/>
-    <hyperlink ref="U157" r:id="rId2698" tooltip="火岩鼠"/>
-    <hyperlink ref="U158" r:id="rId2699" tooltip="火暴兽"/>
-    <hyperlink ref="U159" r:id="rId2700" tooltip="小锯鳄"/>
-    <hyperlink ref="U160" r:id="rId2701" tooltip="蓝鳄"/>
-    <hyperlink ref="U161" r:id="rId2702" tooltip="大力鳄"/>
-    <hyperlink ref="U162" r:id="rId2703" tooltip="尾立"/>
-    <hyperlink ref="U163" r:id="rId2704" tooltip="大尾立"/>
-    <hyperlink ref="U164" r:id="rId2705" tooltip="咕咕"/>
-    <hyperlink ref="U165" r:id="rId2706" tooltip="猫头夜鹰"/>
-    <hyperlink ref="U166" r:id="rId2707" tooltip="芭瓢虫"/>
-    <hyperlink ref="U167" r:id="rId2708" tooltip="安瓢虫"/>
-    <hyperlink ref="U168" r:id="rId2709" tooltip="圆丝蛛"/>
-    <hyperlink ref="U169" r:id="rId2710" tooltip="阿利多斯"/>
-    <hyperlink ref="U170" r:id="rId2711" tooltip="叉字蝠"/>
-    <hyperlink ref="U171" r:id="rId2712" tooltip="灯笼鱼"/>
-    <hyperlink ref="U172" r:id="rId2713" tooltip="电灯怪"/>
-    <hyperlink ref="U173" r:id="rId2714" tooltip="皮丘"/>
-    <hyperlink ref="U174" r:id="rId2715" tooltip="皮宝宝"/>
-    <hyperlink ref="U175" r:id="rId2716" tooltip="宝宝丁"/>
-    <hyperlink ref="U176" r:id="rId2717" tooltip="波克比"/>
-    <hyperlink ref="U177" r:id="rId2718" tooltip="波克基古"/>
-    <hyperlink ref="U178" r:id="rId2719" tooltip="天然雀"/>
-    <hyperlink ref="U179" r:id="rId2720" tooltip="天然鸟"/>
-    <hyperlink ref="U180" r:id="rId2721" tooltip="咩利羊"/>
-    <hyperlink ref="U181" r:id="rId2722" tooltip="茸茸羊"/>
-    <hyperlink ref="U182" r:id="rId2723" tooltip="电龙"/>
-    <hyperlink ref="U183" r:id="rId2724" tooltip="美丽花"/>
-    <hyperlink ref="U184" r:id="rId2725" tooltip="玛力露"/>
-    <hyperlink ref="U185" r:id="rId2726" tooltip="玛力露丽" display="玛力露丽"/>
-    <hyperlink ref="U186" r:id="rId2727" tooltip="树才怪"/>
-    <hyperlink ref="U187" r:id="rId2728" tooltip="蚊香蛙皇"/>
-    <hyperlink ref="U188" r:id="rId2729" tooltip="毽子草"/>
-    <hyperlink ref="U189" r:id="rId2730" tooltip="毽子花"/>
-    <hyperlink ref="U190" r:id="rId2731" tooltip="毽子棉"/>
-    <hyperlink ref="U191" r:id="rId2732" tooltip="长尾怪手"/>
-    <hyperlink ref="U192" r:id="rId2733" tooltip="向日种子" display="向日种子"/>
-    <hyperlink ref="U193" r:id="rId2734" tooltip="向日花怪"/>
-    <hyperlink ref="U194" r:id="rId2735" tooltip="蜻蜻蜓"/>
-    <hyperlink ref="U195" r:id="rId2736" tooltip="乌波"/>
-    <hyperlink ref="U196" r:id="rId2737" tooltip="沼王"/>
-    <hyperlink ref="U197" r:id="rId2738" tooltip="太阳伊布" display="太阳伊布"/>
-    <hyperlink ref="U198" r:id="rId2739" tooltip="月亮伊布" display="月亮伊布"/>
-    <hyperlink ref="U199" r:id="rId2740" tooltip="黑暗鸦"/>
-    <hyperlink ref="U200" r:id="rId2741" tooltip="呆呆王" display="呆呆王"/>
-    <hyperlink ref="U201" r:id="rId2742" tooltip="梦妖"/>
-    <hyperlink ref="U202" r:id="rId2743" tooltip="未知图腾"/>
-    <hyperlink ref="U203" r:id="rId2744" tooltip="果然翁" display="果然翁"/>
-    <hyperlink ref="U204" r:id="rId2745" tooltip="麒麟奇"/>
-    <hyperlink ref="U205" r:id="rId2746" tooltip="榛果球"/>
-    <hyperlink ref="U206" r:id="rId2747" tooltip="佛烈托斯"/>
-    <hyperlink ref="U207" r:id="rId2748" tooltip="土龙弟弟"/>
-    <hyperlink ref="U208" r:id="rId2749" tooltip="天蝎"/>
-    <hyperlink ref="U209" r:id="rId2750" tooltip="大钢蛇"/>
-    <hyperlink ref="U210" r:id="rId2751" tooltip="布鲁"/>
-    <hyperlink ref="U211" r:id="rId2752" tooltip="布鲁皇"/>
-    <hyperlink ref="U212" r:id="rId2753" tooltip="千针鱼"/>
-    <hyperlink ref="U213" r:id="rId2754" tooltip="巨钳螳螂" display="巨钳螳螂"/>
-    <hyperlink ref="U214" r:id="rId2755" tooltip="壶壶"/>
-    <hyperlink ref="U215" r:id="rId2756" tooltip="赫拉克罗斯"/>
-    <hyperlink ref="U216" r:id="rId2757" tooltip="狃拉"/>
-    <hyperlink ref="U217" r:id="rId2758" tooltip="熊宝宝"/>
-    <hyperlink ref="U218" r:id="rId2759" tooltip="圈圈熊"/>
-    <hyperlink ref="U219" r:id="rId2760" tooltip="熔岩虫"/>
-    <hyperlink ref="U220" r:id="rId2761" tooltip="熔岩蜗牛"/>
-    <hyperlink ref="U221" r:id="rId2762" tooltip="小山猪"/>
-    <hyperlink ref="U222" r:id="rId2763" tooltip="长毛猪"/>
-    <hyperlink ref="U223" r:id="rId2764" tooltip="太阳珊瑚"/>
-    <hyperlink ref="U224" r:id="rId2765" tooltip="铁炮鱼"/>
-    <hyperlink ref="U225" r:id="rId2766" tooltip="章鱼桶"/>
-    <hyperlink ref="U226" r:id="rId2767" tooltip="信使鸟"/>
-    <hyperlink ref="U227" r:id="rId2768" tooltip="巨翅飞鱼"/>
-    <hyperlink ref="U228" r:id="rId2769" tooltip="盔甲鸟" display="盔甲鸟"/>
-    <hyperlink ref="U229" r:id="rId2770" tooltip="戴鲁比"/>
-    <hyperlink ref="U230" r:id="rId2771" tooltip="黑鲁加"/>
-    <hyperlink ref="U231" r:id="rId2772" tooltip="刺龙王"/>
-    <hyperlink ref="U232" r:id="rId2773" tooltip="小小象"/>
-    <hyperlink ref="U233" r:id="rId2774" tooltip="顿甲"/>
-    <hyperlink ref="U234" r:id="rId2775" tooltip="多边兽Ⅱ" display="多边兽Ⅱ"/>
-    <hyperlink ref="U235" r:id="rId2776" tooltip="惊角鹿"/>
-    <hyperlink ref="U236" r:id="rId2777" tooltip="图图犬" display="图图犬"/>
-    <hyperlink ref="U237" r:id="rId2778" tooltip="无畏小子"/>
-    <hyperlink ref="U238" r:id="rId2779" tooltip="战舞郎"/>
-    <hyperlink ref="U239" r:id="rId2780" tooltip="迷唇娃"/>
-    <hyperlink ref="U240" r:id="rId2781" tooltip="电击怪"/>
-    <hyperlink ref="U241" r:id="rId2782" tooltip="鸭嘴宝宝"/>
-    <hyperlink ref="U242" r:id="rId2783" tooltip="大奶罐"/>
-    <hyperlink ref="U243" r:id="rId2784" tooltip="幸福蛋" display="幸福蛋"/>
-    <hyperlink ref="U244" r:id="rId2785" tooltip="雷公"/>
-    <hyperlink ref="U245" r:id="rId2786" tooltip="炎帝" display="炎帝"/>
-    <hyperlink ref="U246" r:id="rId2787" tooltip="水君"/>
-    <hyperlink ref="U247" r:id="rId2788" tooltip="幼基拉斯"/>
-    <hyperlink ref="U248" r:id="rId2789" tooltip="沙基拉斯"/>
-    <hyperlink ref="U249" r:id="rId2790" tooltip="班基拉斯" display="班基拉斯"/>
-    <hyperlink ref="U250" r:id="rId2791" tooltip="洛奇亚" display="洛奇亚"/>
-    <hyperlink ref="U251" r:id="rId2792" tooltip="凤王"/>
-    <hyperlink ref="U252" r:id="rId2793" tooltip="时拉比"/>
-    <hyperlink ref="U253" r:id="rId2794" tooltip="木守宫"/>
-    <hyperlink ref="U254" r:id="rId2795" tooltip="森林蜥蜴"/>
-    <hyperlink ref="U255" r:id="rId2796" tooltip="蜥蜴王"/>
-    <hyperlink ref="U256" r:id="rId2797" tooltip="火稚鸡"/>
-    <hyperlink ref="U257" r:id="rId2798" tooltip="力壮鸡"/>
-    <hyperlink ref="U258" r:id="rId2799" tooltip="火焰鸡" display="火焰鸡"/>
-    <hyperlink ref="U259" r:id="rId2800" tooltip="水跃鱼"/>
-    <hyperlink ref="U260" r:id="rId2801" tooltip="沼跃鱼"/>
-    <hyperlink ref="U261" r:id="rId2802" tooltip="巨沼怪"/>
-    <hyperlink ref="U262" r:id="rId2803" tooltip="土狼犬"/>
-    <hyperlink ref="U263" r:id="rId2804" tooltip="大狼犬"/>
-    <hyperlink ref="U264" r:id="rId2805" tooltip="蛇纹熊"/>
-    <hyperlink ref="U265" r:id="rId2806" tooltip="直冲熊"/>
-    <hyperlink ref="U266" r:id="rId2807" tooltip="刺尾虫"/>
-    <hyperlink ref="U267" r:id="rId2808" tooltip="甲壳茧"/>
-    <hyperlink ref="U268" r:id="rId2809" tooltip="狩猎凤蝶"/>
-    <hyperlink ref="U269" r:id="rId2810" tooltip="盾甲茧"/>
-    <hyperlink ref="U270" r:id="rId2811" tooltip="毒粉蛾"/>
-    <hyperlink ref="U271" r:id="rId2812" tooltip="莲叶童子"/>
-    <hyperlink ref="U272" r:id="rId2813" tooltip="莲帽小童"/>
-    <hyperlink ref="U273" r:id="rId2814" tooltip="乐天河童" display="乐天河童"/>
-    <hyperlink ref="U274" r:id="rId2815" tooltip="橡实果"/>
-    <hyperlink ref="U275" r:id="rId2816" tooltip="长鼻叶"/>
-    <hyperlink ref="U276" r:id="rId2817" tooltip="狡猾天狗"/>
-    <hyperlink ref="U277" r:id="rId2818" tooltip="傲骨燕"/>
-    <hyperlink ref="U278" r:id="rId2819" tooltip="大王燕" display="大王燕"/>
-    <hyperlink ref="U279" r:id="rId2820" tooltip="长翅鸥"/>
-    <hyperlink ref="U280" r:id="rId2821" tooltip="大嘴鸥"/>
-    <hyperlink ref="U281" r:id="rId2822" tooltip="拉鲁拉丝" display="拉鲁拉丝"/>
-    <hyperlink ref="U282" r:id="rId2823" tooltip="奇鲁莉安" display="奇鲁莉安"/>
-    <hyperlink ref="U283" r:id="rId2824" tooltip="沙奈朵" display="沙奈朵"/>
-    <hyperlink ref="U284" r:id="rId2825" tooltip="溜溜糖球"/>
-    <hyperlink ref="U285" r:id="rId2826" tooltip="雨翅蛾"/>
-    <hyperlink ref="U286" r:id="rId2827" tooltip="蘑蘑菇"/>
-    <hyperlink ref="U287" r:id="rId2828" tooltip="斗笠菇" display="斗笠菇"/>
-    <hyperlink ref="U288" r:id="rId2829" tooltip="懒人獭"/>
-    <hyperlink ref="U289" r:id="rId2830" tooltip="过动猿"/>
-    <hyperlink ref="U290" r:id="rId2831" tooltip="请假王"/>
-    <hyperlink ref="U291" r:id="rId2832" tooltip="土居忍士"/>
-    <hyperlink ref="U292" r:id="rId2833" tooltip="铁面忍者" display="铁面忍者"/>
-    <hyperlink ref="U293" r:id="rId2834" tooltip="脱壳忍者" display="脱壳忍者"/>
-    <hyperlink ref="U294" r:id="rId2835" tooltip="咕妞妞"/>
-    <hyperlink ref="U295" r:id="rId2836" tooltip="吼爆弹"/>
-    <hyperlink ref="U296" r:id="rId2837" tooltip="爆音怪"/>
-    <hyperlink ref="U297" r:id="rId2838" tooltip="幕下力士" display="幕下力士"/>
-    <hyperlink ref="U298" r:id="rId2839" tooltip="铁掌力士"/>
-    <hyperlink ref="U299" r:id="rId2840" tooltip="露力丽"/>
-    <hyperlink ref="U300" r:id="rId2841" tooltip="朝北鼻"/>
-    <hyperlink ref="U301" r:id="rId2842" tooltip="向尾喵"/>
-    <hyperlink ref="U302" r:id="rId2843" tooltip="优雅猫"/>
-    <hyperlink ref="U303" r:id="rId2844" tooltip="勾魂眼"/>
-    <hyperlink ref="U304" r:id="rId2845" tooltip="大嘴娃"/>
-    <hyperlink ref="U305" r:id="rId2846" tooltip="可可多拉"/>
-    <hyperlink ref="U306" r:id="rId2847" tooltip="可多拉"/>
-    <hyperlink ref="U307" r:id="rId2848" tooltip="波士可多拉"/>
-    <hyperlink ref="U308" r:id="rId2849" tooltip="玛沙那"/>
-    <hyperlink ref="U309" r:id="rId2850" tooltip="恰雷姆" display="恰雷姆"/>
-    <hyperlink ref="U310" r:id="rId2851" tooltip="落雷兽"/>
-    <hyperlink ref="U311" r:id="rId2852" tooltip="雷电兽"/>
-    <hyperlink ref="U312" r:id="rId2853" tooltip="正电拍拍"/>
-    <hyperlink ref="U313" r:id="rId2854" tooltip="负电拍拍"/>
-    <hyperlink ref="U314" r:id="rId2855" tooltip="电萤虫"/>
-    <hyperlink ref="U315" r:id="rId2856" tooltip="甜甜萤"/>
-    <hyperlink ref="U316" r:id="rId2857" tooltip="毒蔷薇"/>
-    <hyperlink ref="U317" r:id="rId2858" tooltip="溶食兽"/>
-    <hyperlink ref="U318" r:id="rId2859" tooltip="吞食兽"/>
-    <hyperlink ref="U319" r:id="rId2860" tooltip="利牙鱼"/>
-    <hyperlink ref="U320" r:id="rId2861" tooltip="巨牙鲨"/>
-    <hyperlink ref="U321" r:id="rId2862" tooltip="吼吼鲸" display="吼吼鲸"/>
-    <hyperlink ref="U322" r:id="rId2863" tooltip="吼鲸王"/>
-    <hyperlink ref="U323" r:id="rId2864" tooltip="呆火驼"/>
-    <hyperlink ref="U324" r:id="rId2865" tooltip="喷火驼"/>
-    <hyperlink ref="U325" r:id="rId2866" tooltip="煤炭龟"/>
-    <hyperlink ref="U326" r:id="rId2867" tooltip="跳跳猪"/>
-    <hyperlink ref="U327" r:id="rId2868" tooltip="噗噗猪"/>
-    <hyperlink ref="U328" r:id="rId2869" tooltip="晃晃斑"/>
-    <hyperlink ref="U329" r:id="rId2870" tooltip="大颚蚁"/>
-    <hyperlink ref="U330" r:id="rId2871" tooltip="超音波幼虫"/>
-    <hyperlink ref="U331" r:id="rId2872" tooltip="沙漠蜻蜓" display="沙漠蜻蜓"/>
-    <hyperlink ref="U332" r:id="rId2873" tooltip="刺球仙人掌"/>
-    <hyperlink ref="U333" r:id="rId2874" tooltip="梦歌仙人掌"/>
-    <hyperlink ref="U334" r:id="rId2875" tooltip="青绵鸟"/>
-    <hyperlink ref="U335" r:id="rId2876" tooltip="七夕青鸟"/>
-    <hyperlink ref="U336" r:id="rId2877" tooltip="猫鼬斩"/>
-    <hyperlink ref="U337" r:id="rId2878" tooltip="饭匙蛇"/>
-    <hyperlink ref="U338" r:id="rId2879" tooltip="月石"/>
-    <hyperlink ref="U339" r:id="rId2880" tooltip="太阳岩"/>
-    <hyperlink ref="U340" r:id="rId2881" tooltip="泥泥鳅"/>
-    <hyperlink ref="U341" r:id="rId2882" tooltip="鲶鱼王"/>
-    <hyperlink ref="U342" r:id="rId2883" tooltip="龙虾小兵"/>
-    <hyperlink ref="U343" r:id="rId2884" tooltip="铁螯龙虾"/>
-    <hyperlink ref="U344" r:id="rId2885" tooltip="天秤偶"/>
-    <hyperlink ref="U345" r:id="rId2886" tooltip="念力土偶"/>
-    <hyperlink ref="U346" r:id="rId2887" tooltip="触手百合"/>
-    <hyperlink ref="U347" r:id="rId2888" tooltip="摇篮百合" display="摇篮百合"/>
-    <hyperlink ref="U348" r:id="rId2889" tooltip="太古羽虫"/>
-    <hyperlink ref="U349" r:id="rId2890" tooltip="太古盔甲"/>
-    <hyperlink ref="U350" r:id="rId2891" tooltip="丑丑鱼" display="丑丑鱼"/>
-    <hyperlink ref="U351" r:id="rId2892" tooltip="美纳斯" display="美纳斯"/>
-    <hyperlink ref="U352" r:id="rId2893" tooltip="飘浮泡泡"/>
-    <hyperlink ref="U353" r:id="rId2894" tooltip="变隐龙"/>
-    <hyperlink ref="U354" r:id="rId2895" tooltip="怨影娃娃"/>
-    <hyperlink ref="U355" r:id="rId2896" tooltip="诅咒娃娃" display="诅咒娃娃"/>
-    <hyperlink ref="U356" r:id="rId2897" tooltip="夜巡灵"/>
-    <hyperlink ref="U357" r:id="rId2898" tooltip="彷徨夜灵"/>
-    <hyperlink ref="U358" r:id="rId2899" tooltip="热带龙" display="热带龙"/>
-    <hyperlink ref="U359" r:id="rId2900" tooltip="风铃铃"/>
-    <hyperlink ref="U360" r:id="rId2901" tooltip="阿勃梭鲁" display="阿勃梭鲁"/>
-    <hyperlink ref="U361" r:id="rId2902" tooltip="小果然"/>
-    <hyperlink ref="U362" r:id="rId2903" tooltip="雪童子"/>
-    <hyperlink ref="U363" r:id="rId2904" tooltip="冰鬼护"/>
-    <hyperlink ref="U364" r:id="rId2905" tooltip="海豹球"/>
-    <hyperlink ref="U365" r:id="rId2906" tooltip="海魔狮"/>
-    <hyperlink ref="U366" r:id="rId2907" tooltip="帝牙海狮"/>
-    <hyperlink ref="U367" r:id="rId2908" tooltip="珍珠贝"/>
-    <hyperlink ref="U368" r:id="rId2909" tooltip="猎斑鱼"/>
-    <hyperlink ref="U369" r:id="rId2910" tooltip="樱花鱼"/>
-    <hyperlink ref="U370" r:id="rId2911" tooltip="古空棘鱼"/>
-    <hyperlink ref="U371" r:id="rId2912" tooltip="爱心鱼"/>
-    <hyperlink ref="U372" r:id="rId2913" tooltip="宝贝龙"/>
-    <hyperlink ref="U373" r:id="rId2914" tooltip="甲壳龙"/>
-    <hyperlink ref="U374" r:id="rId2915" tooltip="暴飞龙" display="暴飞龙"/>
-    <hyperlink ref="U375" r:id="rId2916" tooltip="铁哑铃"/>
-    <hyperlink ref="U376" r:id="rId2917" tooltip="金属怪"/>
-    <hyperlink ref="U377" r:id="rId2918" tooltip="巨金怪" display="巨金怪"/>
-    <hyperlink ref="U378" r:id="rId2919" tooltip="雷吉洛克" display="雷吉洛克"/>
-    <hyperlink ref="U379" r:id="rId2920" tooltip="雷吉艾斯" display="雷吉艾斯"/>
-    <hyperlink ref="U380" r:id="rId2921" tooltip="雷吉斯奇鲁" display="雷吉斯奇鲁"/>
-    <hyperlink ref="U381" r:id="rId2922" tooltip="拉帝亚斯" display="拉帝亚斯"/>
-    <hyperlink ref="U382" r:id="rId2923" tooltip="拉帝欧斯" display="拉帝欧斯"/>
-    <hyperlink ref="U383" r:id="rId2924" tooltip="盖欧卡" display="盖欧卡"/>
-    <hyperlink ref="U384" r:id="rId2925" tooltip="固拉多" display="固拉多"/>
-    <hyperlink ref="U385" r:id="rId2926" tooltip="烈空坐" display="烈空坐"/>
-    <hyperlink ref="U386" r:id="rId2927" tooltip="基拉祈" display="基拉祈"/>
-    <hyperlink ref="U387" r:id="rId2928" tooltip="代欧奇希斯" display="代欧奇希斯"/>
-    <hyperlink ref="U388" r:id="rId2929" tooltip="草苗龟"/>
-    <hyperlink ref="U389" r:id="rId2930" tooltip="树林龟"/>
-    <hyperlink ref="U390" r:id="rId2931" tooltip="土台龟"/>
-    <hyperlink ref="U391" r:id="rId2932" tooltip="小火焰猴"/>
-    <hyperlink ref="U392" r:id="rId2933" tooltip="猛火猴"/>
-    <hyperlink ref="U393" r:id="rId2934" tooltip="烈焰猴" display="烈焰猴"/>
-    <hyperlink ref="U394" r:id="rId2935" tooltip="波加曼"/>
-    <hyperlink ref="U395" r:id="rId2936" tooltip="波皇子"/>
-    <hyperlink ref="U396" r:id="rId2937" tooltip="帝王拿波"/>
-    <hyperlink ref="U397" r:id="rId2938" tooltip="姆克儿"/>
-    <hyperlink ref="U398" r:id="rId2939" tooltip="姆克鸟"/>
-    <hyperlink ref="U399" r:id="rId2940" tooltip="姆克鹰" display="姆克鹰"/>
-    <hyperlink ref="U400" r:id="rId2941" tooltip="大牙狸"/>
-    <hyperlink ref="U401" r:id="rId2942" tooltip="大尾狸"/>
-    <hyperlink ref="U402" r:id="rId2943" tooltip="圆法师"/>
-    <hyperlink ref="U403" r:id="rId2944" tooltip="音箱蟀"/>
-    <hyperlink ref="U404" r:id="rId2945" tooltip="小猫怪"/>
-    <hyperlink ref="U405" r:id="rId2946" tooltip="勒克猫"/>
-    <hyperlink ref="U406" r:id="rId2947" tooltip="伦琴猫"/>
-    <hyperlink ref="U407" r:id="rId2948" tooltip="含羞苞"/>
-    <hyperlink ref="U408" r:id="rId2949" tooltip="罗丝雷朵"/>
-    <hyperlink ref="U409" r:id="rId2950" tooltip="头盖龙"/>
-    <hyperlink ref="U410" r:id="rId2951" tooltip="战槌龙"/>
-    <hyperlink ref="U411" r:id="rId2952" tooltip="盾甲龙"/>
-    <hyperlink ref="U412" r:id="rId2953" tooltip="护城龙"/>
-    <hyperlink ref="U413" r:id="rId2954" tooltip="结草儿"/>
-    <hyperlink ref="U414" r:id="rId2955" tooltip="结草贵妇"/>
-    <hyperlink ref="U480" r:id="rId2956" tooltip="洛托姆"/>
-    <hyperlink ref="U479" r:id="rId2957" tooltip="雪妖女"/>
-    <hyperlink ref="U478" r:id="rId2958" tooltip="黑夜魔灵"/>
-    <hyperlink ref="U477" r:id="rId2959" tooltip="大朝北鼻"/>
-    <hyperlink ref="U476" r:id="rId2960" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="U475" r:id="rId2961" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U474" r:id="rId2962" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="U473" r:id="rId2963" tooltip="天蝎王"/>
-    <hyperlink ref="U472" r:id="rId2964" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="U471" r:id="rId2965" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="U470" r:id="rId2966" tooltip="远古巨蜓"/>
-    <hyperlink ref="U469" r:id="rId2967" tooltip="波克基斯" display="波克基斯"/>
-    <hyperlink ref="U468" r:id="rId2968" tooltip="鸭嘴炎兽"/>
-    <hyperlink ref="U467" r:id="rId2969" tooltip="电击魔兽"/>
-    <hyperlink ref="U466" r:id="rId2970" tooltip="巨蔓藤"/>
-    <hyperlink ref="U465" r:id="rId2971" tooltip="超甲狂犀"/>
-    <hyperlink ref="U464" r:id="rId2972" tooltip="大舌舔"/>
-    <hyperlink ref="U463" r:id="rId2973" tooltip="自爆磁怪" display="自爆磁怪"/>
-    <hyperlink ref="U462" r:id="rId2974" tooltip="玛狃拉" display="玛狃拉"/>
-    <hyperlink ref="U461" r:id="rId2975" tooltip="暴雪王"/>
-    <hyperlink ref="U460" r:id="rId2976" tooltip="雪笠怪"/>
-    <hyperlink ref="U459" r:id="rId2977" tooltip="小球飞鱼"/>
-    <hyperlink ref="U458" r:id="rId2978" tooltip="霓虹鱼"/>
-    <hyperlink ref="U457" r:id="rId2979" tooltip="荧光鱼"/>
-    <hyperlink ref="U456" r:id="rId2980" tooltip="尖牙笼" display="尖牙笼"/>
-    <hyperlink ref="U455" r:id="rId2981" tooltip="毒骷蛙"/>
-    <hyperlink ref="U454" r:id="rId2982" tooltip="不良蛙"/>
-    <hyperlink ref="U453" r:id="rId2983" tooltip="龙王蝎"/>
-    <hyperlink ref="U452" r:id="rId2984" tooltip="钳尾蝎"/>
-    <hyperlink ref="U451" r:id="rId2985" tooltip="河马兽"/>
-    <hyperlink ref="U450" r:id="rId2986" tooltip="沙河马"/>
-    <hyperlink ref="U449" r:id="rId2987" tooltip="路卡利欧"/>
-    <hyperlink ref="U448" r:id="rId2988" tooltip="利欧路"/>
-    <hyperlink ref="U447" r:id="rId2989" tooltip="小卡比兽"/>
-    <hyperlink ref="U446" r:id="rId2990" tooltip="烈咬陆鲨" display="烈咬陆鲨"/>
-    <hyperlink ref="U445" r:id="rId2991" tooltip="尖牙陆鲨"/>
-    <hyperlink ref="U444" r:id="rId2992" tooltip="圆陆鲨"/>
-    <hyperlink ref="U443" r:id="rId2993" tooltip="花岩怪"/>
-    <hyperlink ref="U442" r:id="rId2994" tooltip="聒噪鸟"/>
-    <hyperlink ref="U441" r:id="rId2995" tooltip="小福蛋"/>
-    <hyperlink ref="U440" r:id="rId2996" tooltip="魔尼尼"/>
-    <hyperlink ref="U439" r:id="rId2997" tooltip="盆才怪" display="盆才怪"/>
-    <hyperlink ref="U438" r:id="rId2998" tooltip="青铜钟"/>
-    <hyperlink ref="U437" r:id="rId2999" tooltip="铜镜怪"/>
-    <hyperlink ref="U436" r:id="rId3000" tooltip="坦克臭鼬"/>
-    <hyperlink ref="U435" r:id="rId3001" tooltip="臭鼬噗"/>
-    <hyperlink ref="U434" r:id="rId3002" tooltip="铃铛响"/>
-    <hyperlink ref="U433" r:id="rId3003" tooltip="东施喵"/>
-    <hyperlink ref="U432" r:id="rId3004" tooltip="魅力喵"/>
-    <hyperlink ref="U431" r:id="rId3005" tooltip="乌鸦头头"/>
-    <hyperlink ref="U430" r:id="rId3006" tooltip="梦妖魔"/>
-    <hyperlink ref="U429" r:id="rId3007" tooltip="长耳兔" display="长耳兔"/>
-    <hyperlink ref="U428" r:id="rId3008" tooltip="卷卷耳"/>
-    <hyperlink ref="U427" r:id="rId3009" tooltip="随风球"/>
-    <hyperlink ref="U426" r:id="rId3010" tooltip="飘飘球"/>
-    <hyperlink ref="U425" r:id="rId3011" tooltip="双尾怪手"/>
-    <hyperlink ref="U424" r:id="rId3012" tooltip="海兔兽"/>
-    <hyperlink ref="U423" r:id="rId3013" tooltip="无壳海兔"/>
-    <hyperlink ref="U422" r:id="rId3014" tooltip="樱花儿"/>
-    <hyperlink ref="U421" r:id="rId3015" tooltip="樱花宝"/>
-    <hyperlink ref="U420" r:id="rId3016" tooltip="浮潜鼬"/>
-    <hyperlink ref="U419" r:id="rId3017" tooltip="泳圈鼬"/>
-    <hyperlink ref="U418" r:id="rId3018" tooltip="帕奇利兹" display="帕奇利兹"/>
-    <hyperlink ref="U417" r:id="rId3019" tooltip="蜂女王"/>
-    <hyperlink ref="U416" r:id="rId3020" tooltip="三蜜蜂"/>
-    <hyperlink ref="U415" r:id="rId3021" tooltip="绅士蛾"/>
-    <hyperlink ref="U487" r:id="rId3022" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="U486" r:id="rId3023" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="U485" r:id="rId3024" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U484" r:id="rId3025" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="U483" r:id="rId3026" tooltip="天蝎王" display="天蝎王"/>
-    <hyperlink ref="U482" r:id="rId3027" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="U481" r:id="rId3028" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="U493" r:id="rId3029" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="U492" r:id="rId3030" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="U491" r:id="rId3031" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U490" r:id="rId3032" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="U488" r:id="rId3033" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="U495" r:id="rId3034" tooltip="比克提尼" display="比克提尼"/>
-    <hyperlink ref="U496" r:id="rId3035" tooltip="藤藤蛇"/>
-    <hyperlink ref="U497" r:id="rId3036" tooltip="青藤蛇"/>
-    <hyperlink ref="U498" r:id="rId3037" tooltip="君主蛇"/>
-    <hyperlink ref="U499" r:id="rId3038" tooltip="暖暖猪"/>
-    <hyperlink ref="U500" r:id="rId3039" tooltip="炒炒猪"/>
-    <hyperlink ref="U501" r:id="rId3040" tooltip="炎武王" display="炎武王"/>
-    <hyperlink ref="U502" r:id="rId3041" tooltip="水水獭" display="水水獭"/>
-    <hyperlink ref="U503" r:id="rId3042" tooltip="双刃丸"/>
-    <hyperlink ref="U504" r:id="rId3043" tooltip="大剑鬼"/>
-    <hyperlink ref="U505" r:id="rId3044" tooltip="探探鼠"/>
-    <hyperlink ref="U506" r:id="rId3045" tooltip="步哨鼠"/>
-    <hyperlink ref="U507" r:id="rId3046" tooltip="小约克"/>
-    <hyperlink ref="U508" r:id="rId3047" tooltip="哈约克"/>
-    <hyperlink ref="U509" r:id="rId3048" tooltip="长毛狗"/>
-    <hyperlink ref="U510" r:id="rId3049" tooltip="扒手猫"/>
-    <hyperlink ref="U511" r:id="rId3050" tooltip="酷豹"/>
-    <hyperlink ref="U512" r:id="rId3051" tooltip="花椰猴"/>
-    <hyperlink ref="U513" r:id="rId3052" tooltip="花椰猿"/>
-    <hyperlink ref="U514" r:id="rId3053" tooltip="爆香猴"/>
-    <hyperlink ref="U515" r:id="rId3054" tooltip="爆香猿"/>
-    <hyperlink ref="U516" r:id="rId3055" tooltip="冷水猴"/>
-    <hyperlink ref="U517" r:id="rId3056" tooltip="冷水猿"/>
-    <hyperlink ref="U518" r:id="rId3057" tooltip="食梦梦"/>
-    <hyperlink ref="U519" r:id="rId3058" tooltip="梦梦蚀"/>
-    <hyperlink ref="U520" r:id="rId3059" tooltip="豆豆鸽"/>
-    <hyperlink ref="U521" r:id="rId3060" tooltip="咕咕鸽"/>
-    <hyperlink ref="U522" r:id="rId3061" tooltip="高傲雉鸡" display="高傲雉鸡"/>
-    <hyperlink ref="U523" r:id="rId3062" tooltip="斑斑马"/>
-    <hyperlink ref="U524" r:id="rId3063" tooltip="雷电斑马"/>
-    <hyperlink ref="U525" r:id="rId3064" tooltip="石丸子"/>
-    <hyperlink ref="U526" r:id="rId3065" tooltip="地幔岩"/>
-    <hyperlink ref="U527" r:id="rId3066" tooltip="庞岩怪"/>
-    <hyperlink ref="U528" r:id="rId3067" tooltip="滚滚蝙蝠"/>
-    <hyperlink ref="U529" r:id="rId3068" tooltip="心蝙蝠"/>
-    <hyperlink ref="U530" r:id="rId3069" tooltip="螺钉地鼠"/>
-    <hyperlink ref="U531" r:id="rId3070" tooltip="龙头地鼠"/>
-    <hyperlink ref="U532" r:id="rId3071" tooltip="差不多娃娃" display="差不多娃娃"/>
-    <hyperlink ref="U533" r:id="rId3072" tooltip="搬运小匠"/>
-    <hyperlink ref="U534" r:id="rId3073" tooltip="铁骨土人"/>
-    <hyperlink ref="U535" r:id="rId3074" tooltip="修建老匠" display="修建老匠"/>
-    <hyperlink ref="U536" r:id="rId3075" tooltip="圆蝌蚪"/>
-    <hyperlink ref="U537" r:id="rId3076" tooltip="蓝蟾蜍"/>
-    <hyperlink ref="U538" r:id="rId3077" tooltip="蟾蜍王"/>
-    <hyperlink ref="U539" r:id="rId3078" tooltip="投摔鬼"/>
-    <hyperlink ref="U540" r:id="rId3079" tooltip="打击鬼"/>
-    <hyperlink ref="U541" r:id="rId3080" tooltip="虫宝包"/>
-    <hyperlink ref="U542" r:id="rId3081" tooltip="宝包茧"/>
-    <hyperlink ref="U543" r:id="rId3082" tooltip="保姆虫"/>
-    <hyperlink ref="U544" r:id="rId3083" tooltip="百足蜈蚣"/>
-    <hyperlink ref="U545" r:id="rId3084" tooltip="车轮球"/>
-    <hyperlink ref="U546" r:id="rId3085" tooltip="蜈蚣王"/>
-    <hyperlink ref="U547" r:id="rId3086" tooltip="木棉球"/>
-    <hyperlink ref="U548" r:id="rId3087" tooltip="风妖精" display="风妖精"/>
-    <hyperlink ref="U549" r:id="rId3088" tooltip="百合根娃娃"/>
-    <hyperlink ref="U550" r:id="rId3089" tooltip="裙儿小姐" display="裙儿小姐"/>
-    <hyperlink ref="U551" r:id="rId3090" tooltip="野蛮鲈鱼"/>
-    <hyperlink ref="U552" r:id="rId3091" tooltip="黑眼鳄"/>
-    <hyperlink ref="U553" r:id="rId3092" tooltip="混混鳄"/>
-    <hyperlink ref="U554" r:id="rId3093" tooltip="流氓鳄"/>
-    <hyperlink ref="U555" r:id="rId3094" tooltip="火红不倒翁"/>
-    <hyperlink ref="U651" r:id="rId3095" tooltip="哈力栗"/>
-    <hyperlink ref="U652" r:id="rId3096" tooltip="胖胖哈力"/>
-    <hyperlink ref="U653" r:id="rId3097" tooltip="布里卡隆"/>
-    <hyperlink ref="U654" r:id="rId3098" tooltip="火狐狸"/>
-    <hyperlink ref="U655" r:id="rId3099" tooltip="长尾火狐"/>
-    <hyperlink ref="U656" r:id="rId3100" tooltip="妖火红狐"/>
-    <hyperlink ref="U657" r:id="rId3101" tooltip="呱呱泡蛙"/>
-    <hyperlink ref="U658" r:id="rId3102" tooltip="呱头蛙"/>
-    <hyperlink ref="U659" r:id="rId3103" tooltip="甲贺忍蛙" display="甲贺忍蛙"/>
-    <hyperlink ref="U660" r:id="rId3104" tooltip="掘掘兔"/>
-    <hyperlink ref="U661" r:id="rId3105" tooltip="掘地兔" display="掘地兔"/>
-    <hyperlink ref="U662" r:id="rId3106" tooltip="小箭雀"/>
-    <hyperlink ref="U663" r:id="rId3107" tooltip="火箭雀"/>
-    <hyperlink ref="U664" r:id="rId3108" tooltip="烈箭鹰" display="烈箭鹰"/>
-    <hyperlink ref="U665" r:id="rId3109" tooltip="粉蝶虫"/>
-    <hyperlink ref="U666" r:id="rId3110" tooltip="粉蝶蛹"/>
-    <hyperlink ref="U667" r:id="rId3111" tooltip="彩粉蝶"/>
-    <hyperlink ref="U668" r:id="rId3112" tooltip="小狮狮"/>
-    <hyperlink ref="U669" r:id="rId3113" tooltip="火炎狮"/>
-    <hyperlink ref="U670" r:id="rId3114" tooltip="花蓓蓓"/>
-    <hyperlink ref="U671" r:id="rId3115" tooltip="花叶蒂"/>
-    <hyperlink ref="U672" r:id="rId3116" tooltip="花洁夫人"/>
-    <hyperlink ref="U673" r:id="rId3117" tooltip="坐骑小羊"/>
-    <hyperlink ref="U674" r:id="rId3118" tooltip="坐骑山羊"/>
-    <hyperlink ref="U675" r:id="rId3119" tooltip="顽皮熊猫"/>
-    <hyperlink ref="U676" r:id="rId3120" tooltip="流氓熊猫"/>
-    <hyperlink ref="U677" r:id="rId3121" tooltip="多丽米亚"/>
-    <hyperlink ref="U678" r:id="rId3122" tooltip="妙喵"/>
-    <hyperlink ref="U679" r:id="rId3123" tooltip="超能妙喵"/>
-    <hyperlink ref="U680" r:id="rId3124" tooltip="独剑鞘"/>
-    <hyperlink ref="U681" r:id="rId3125" tooltip="双剑鞘"/>
-    <hyperlink ref="U682" r:id="rId3126" tooltip="坚盾剑怪" display="坚盾剑怪"/>
-    <hyperlink ref="U713" r:id="rId3127" tooltip="冰宝"/>
-    <hyperlink ref="U714" r:id="rId3128" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="U715" r:id="rId3129" tooltip="嗡蝠"/>
-    <hyperlink ref="U716" r:id="rId3130" tooltip="音波龙"/>
-    <hyperlink ref="U717" r:id="rId3131" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="U718" r:id="rId3132" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="U711" r:id="rId3133" tooltip="南瓜精"/>
-    <hyperlink ref="U712" r:id="rId3134" tooltip="南瓜怪人"/>
-    <hyperlink ref="U683" r:id="rId3135" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U684" r:id="rId3136" tooltip="冰宝" display="冰宝"/>
-    <hyperlink ref="U685" r:id="rId3137" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="U686" r:id="rId3138" tooltip="嗡蝠" display="嗡蝠"/>
-    <hyperlink ref="U687" r:id="rId3139" tooltip="音波龙" display="音波龙"/>
-    <hyperlink ref="U688" r:id="rId3140" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="U689" r:id="rId3141" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="U690" r:id="rId3142" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U691" r:id="rId3143" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U692" r:id="rId3144" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U693" r:id="rId3145" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U694" r:id="rId3146" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U695" r:id="rId3147" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U696" r:id="rId3148" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U723" r:id="rId3149" tooltip="木木枭" display="木木枭"/>
-    <hyperlink ref="U724" r:id="rId3150" tooltip="投羽枭"/>
-    <hyperlink ref="U725" r:id="rId3151" tooltip="狙射树枭"/>
-    <hyperlink ref="U726" r:id="rId3152" tooltip="火斑喵"/>
-    <hyperlink ref="U727" r:id="rId3153" tooltip="炎热喵"/>
-    <hyperlink ref="U728" r:id="rId3154" tooltip="炽焰咆哮虎" display="炽焰咆哮虎"/>
-    <hyperlink ref="U729" r:id="rId3155" tooltip="球球海狮"/>
-    <hyperlink ref="U730" r:id="rId3156" tooltip="花漾海狮"/>
-    <hyperlink ref="U731" r:id="rId3157" tooltip="西狮海壬" display="西狮海壬"/>
-    <hyperlink ref="U732" r:id="rId3158" tooltip="小笃儿"/>
-    <hyperlink ref="U733" r:id="rId3159" tooltip="喇叭啄鸟"/>
-    <hyperlink ref="U734" r:id="rId3160" tooltip="铳嘴大鸟"/>
-    <hyperlink ref="U735" r:id="rId3161" tooltip="猫鼬少"/>
-    <hyperlink ref="U736" r:id="rId3162" tooltip="猫鼬探长" display="猫鼬探长"/>
-    <hyperlink ref="U737" r:id="rId3163" tooltip="强颚鸡母虫"/>
-    <hyperlink ref="U738" r:id="rId3164" tooltip="虫电宝"/>
-    <hyperlink ref="U739" r:id="rId3165" tooltip="锹农炮虫"/>
-    <hyperlink ref="U740" r:id="rId3166" tooltip="好胜蟹"/>
-    <hyperlink ref="U741" r:id="rId3167" tooltip="好胜毛蟹"/>
-    <hyperlink ref="U742" r:id="rId3168" tooltip="花舞鸟"/>
-    <hyperlink ref="U743" r:id="rId3169" tooltip="萌虻"/>
-    <hyperlink ref="U744" r:id="rId3170" tooltip="蝶结萌虻"/>
-    <hyperlink ref="U745" r:id="rId3171" tooltip="岩狗狗"/>
-    <hyperlink ref="U746" r:id="rId3172" tooltip="鬃岩狼人"/>
-    <hyperlink ref="V475" r:id="rId3173" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="V235" r:id="rId1897" tooltip="惊角鹿"/>
+    <hyperlink ref="V236" r:id="rId1898" tooltip="图图犬"/>
+    <hyperlink ref="V237" r:id="rId1899" tooltip="无畏小子"/>
+    <hyperlink ref="V238" r:id="rId1900" tooltip="战舞郎"/>
+    <hyperlink ref="V239" r:id="rId1901" tooltip="迷唇娃"/>
+    <hyperlink ref="V240" r:id="rId1902" tooltip="电击怪"/>
+    <hyperlink ref="V241" r:id="rId1903" tooltip="鸭嘴宝宝"/>
+    <hyperlink ref="V242" r:id="rId1904" tooltip="大奶罐"/>
+    <hyperlink ref="V243" r:id="rId1905" tooltip="幸福蛋"/>
+    <hyperlink ref="V244" r:id="rId1906" tooltip="雷公"/>
+    <hyperlink ref="V245" r:id="rId1907" tooltip="炎帝"/>
+    <hyperlink ref="V246" r:id="rId1908" tooltip="水君"/>
+    <hyperlink ref="V247" r:id="rId1909" tooltip="幼基拉斯"/>
+    <hyperlink ref="V248" r:id="rId1910" tooltip="沙基拉斯"/>
+    <hyperlink ref="V249" r:id="rId1911" tooltip="班基拉斯"/>
+    <hyperlink ref="V250" r:id="rId1912" tooltip="洛奇亚"/>
+    <hyperlink ref="V251" r:id="rId1913" tooltip="凤王"/>
+    <hyperlink ref="V252" r:id="rId1914" tooltip="时拉比"/>
+    <hyperlink ref="V253" r:id="rId1915" tooltip="木守宫"/>
+    <hyperlink ref="V254" r:id="rId1916" tooltip="森林蜥蜴"/>
+    <hyperlink ref="V255" r:id="rId1917" tooltip="蜥蜴王"/>
+    <hyperlink ref="V256" r:id="rId1918" tooltip="火稚鸡"/>
+    <hyperlink ref="V257" r:id="rId1919" tooltip="力壮鸡"/>
+    <hyperlink ref="V258" r:id="rId1920" tooltip="火焰鸡"/>
+    <hyperlink ref="V259" r:id="rId1921" tooltip="水跃鱼"/>
+    <hyperlink ref="V260" r:id="rId1922" tooltip="沼跃鱼"/>
+    <hyperlink ref="V261" r:id="rId1923" tooltip="巨沼怪"/>
+    <hyperlink ref="V262" r:id="rId1924" tooltip="土狼犬"/>
+    <hyperlink ref="V263" r:id="rId1925" tooltip="大狼犬"/>
+    <hyperlink ref="V264" r:id="rId1926" tooltip="蛇纹熊"/>
+    <hyperlink ref="V265" r:id="rId1927" tooltip="直冲熊"/>
+    <hyperlink ref="V266" r:id="rId1928" tooltip="刺尾虫"/>
+    <hyperlink ref="V267" r:id="rId1929" tooltip="甲壳茧"/>
+    <hyperlink ref="V268" r:id="rId1930" tooltip="狩猎凤蝶"/>
+    <hyperlink ref="V269" r:id="rId1931" tooltip="盾甲茧"/>
+    <hyperlink ref="V270" r:id="rId1932" tooltip="毒粉蛾"/>
+    <hyperlink ref="V271" r:id="rId1933" tooltip="莲叶童子"/>
+    <hyperlink ref="V272" r:id="rId1934" tooltip="莲帽小童"/>
+    <hyperlink ref="V273" r:id="rId1935" tooltip="乐天河童"/>
+    <hyperlink ref="V274" r:id="rId1936" tooltip="橡实果"/>
+    <hyperlink ref="V275" r:id="rId1937" tooltip="长鼻叶"/>
+    <hyperlink ref="V276" r:id="rId1938" tooltip="狡猾天狗"/>
+    <hyperlink ref="V277" r:id="rId1939" tooltip="傲骨燕"/>
+    <hyperlink ref="V278" r:id="rId1940" tooltip="大王燕"/>
+    <hyperlink ref="V279" r:id="rId1941" tooltip="长翅鸥"/>
+    <hyperlink ref="V280" r:id="rId1942" tooltip="大嘴鸥"/>
+    <hyperlink ref="V281" r:id="rId1943" tooltip="拉鲁拉丝"/>
+    <hyperlink ref="V282" r:id="rId1944" tooltip="奇鲁莉安"/>
+    <hyperlink ref="V283" r:id="rId1945" tooltip="沙奈朵"/>
+    <hyperlink ref="V284" r:id="rId1946" tooltip="溜溜糖球"/>
+    <hyperlink ref="V285" r:id="rId1947" tooltip="雨翅蛾"/>
+    <hyperlink ref="V286" r:id="rId1948" tooltip="蘑蘑菇"/>
+    <hyperlink ref="V287" r:id="rId1949" tooltip="斗笠菇"/>
+    <hyperlink ref="V288" r:id="rId1950" tooltip="懒人獭"/>
+    <hyperlink ref="V289" r:id="rId1951" tooltip="过动猿"/>
+    <hyperlink ref="V290" r:id="rId1952" tooltip="请假王"/>
+    <hyperlink ref="V291" r:id="rId1953" tooltip="土居忍士"/>
+    <hyperlink ref="V292" r:id="rId1954" tooltip="铁面忍者"/>
+    <hyperlink ref="V293" r:id="rId1955" tooltip="脱壳忍者"/>
+    <hyperlink ref="V294" r:id="rId1956" tooltip="咕妞妞"/>
+    <hyperlink ref="V295" r:id="rId1957" tooltip="吼爆弹"/>
+    <hyperlink ref="V296" r:id="rId1958" tooltip="爆音怪"/>
+    <hyperlink ref="V297" r:id="rId1959" tooltip="幕下力士"/>
+    <hyperlink ref="V298" r:id="rId1960" tooltip="铁掌力士"/>
+    <hyperlink ref="V299" r:id="rId1961" tooltip="露力丽"/>
+    <hyperlink ref="V300" r:id="rId1962" tooltip="朝北鼻"/>
+    <hyperlink ref="V301" r:id="rId1963" tooltip="向尾喵"/>
+    <hyperlink ref="V302" r:id="rId1964" tooltip="优雅猫"/>
+    <hyperlink ref="V303" r:id="rId1965" tooltip="勾魂眼"/>
+    <hyperlink ref="V304" r:id="rId1966" tooltip="大嘴娃"/>
+    <hyperlink ref="V305" r:id="rId1967" tooltip="可可多拉"/>
+    <hyperlink ref="V306" r:id="rId1968" tooltip="可多拉"/>
+    <hyperlink ref="V307" r:id="rId1969" tooltip="波士可多拉"/>
+    <hyperlink ref="V308" r:id="rId1970" tooltip="玛沙那"/>
+    <hyperlink ref="V309" r:id="rId1971" tooltip="恰雷姆"/>
+    <hyperlink ref="V310" r:id="rId1972" tooltip="落雷兽"/>
+    <hyperlink ref="V311" r:id="rId1973" tooltip="雷电兽"/>
+    <hyperlink ref="V312" r:id="rId1974" tooltip="正电拍拍"/>
+    <hyperlink ref="V313" r:id="rId1975" tooltip="负电拍拍"/>
+    <hyperlink ref="V314" r:id="rId1976" tooltip="电萤虫"/>
+    <hyperlink ref="V315" r:id="rId1977" tooltip="甜甜萤"/>
+    <hyperlink ref="V316" r:id="rId1978" tooltip="毒蔷薇"/>
+    <hyperlink ref="V317" r:id="rId1979" tooltip="溶食兽"/>
+    <hyperlink ref="V318" r:id="rId1980" tooltip="吞食兽"/>
+    <hyperlink ref="V319" r:id="rId1981" tooltip="利牙鱼"/>
+    <hyperlink ref="V320" r:id="rId1982" tooltip="巨牙鲨"/>
+    <hyperlink ref="V321" r:id="rId1983" tooltip="吼吼鲸"/>
+    <hyperlink ref="V322" r:id="rId1984" tooltip="吼鲸王"/>
+    <hyperlink ref="V323" r:id="rId1985" tooltip="呆火驼"/>
+    <hyperlink ref="V324" r:id="rId1986" tooltip="喷火驼"/>
+    <hyperlink ref="V325" r:id="rId1987" tooltip="煤炭龟"/>
+    <hyperlink ref="V326" r:id="rId1988" tooltip="跳跳猪"/>
+    <hyperlink ref="V327" r:id="rId1989" tooltip="噗噗猪"/>
+    <hyperlink ref="V328" r:id="rId1990" tooltip="晃晃斑"/>
+    <hyperlink ref="V329" r:id="rId1991" tooltip="大颚蚁"/>
+    <hyperlink ref="V330" r:id="rId1992" tooltip="超音波幼虫"/>
+    <hyperlink ref="V331" r:id="rId1993" tooltip="沙漠蜻蜓"/>
+    <hyperlink ref="V332" r:id="rId1994" tooltip="刺球仙人掌"/>
+    <hyperlink ref="V333" r:id="rId1995" tooltip="梦歌仙人掌"/>
+    <hyperlink ref="V334" r:id="rId1996" tooltip="青绵鸟"/>
+    <hyperlink ref="V335" r:id="rId1997" tooltip="七夕青鸟"/>
+    <hyperlink ref="V336" r:id="rId1998" tooltip="猫鼬斩"/>
+    <hyperlink ref="V337" r:id="rId1999" tooltip="饭匙蛇"/>
+    <hyperlink ref="V338" r:id="rId2000" tooltip="月石"/>
+    <hyperlink ref="V339" r:id="rId2001" tooltip="太阳岩"/>
+    <hyperlink ref="V340" r:id="rId2002" tooltip="泥泥鳅"/>
+    <hyperlink ref="V341" r:id="rId2003" tooltip="鲶鱼王"/>
+    <hyperlink ref="V342" r:id="rId2004" tooltip="龙虾小兵"/>
+    <hyperlink ref="V343" r:id="rId2005" tooltip="铁螯龙虾"/>
+    <hyperlink ref="V344" r:id="rId2006" tooltip="天秤偶"/>
+    <hyperlink ref="V345" r:id="rId2007" tooltip="念力土偶"/>
+    <hyperlink ref="V346" r:id="rId2008" tooltip="触手百合"/>
+    <hyperlink ref="V347" r:id="rId2009" tooltip="摇篮百合"/>
+    <hyperlink ref="V348" r:id="rId2010" tooltip="太古羽虫"/>
+    <hyperlink ref="V349" r:id="rId2011" tooltip="太古盔甲"/>
+    <hyperlink ref="V350" r:id="rId2012" tooltip="丑丑鱼"/>
+    <hyperlink ref="V351" r:id="rId2013" tooltip="美纳斯"/>
+    <hyperlink ref="V352" r:id="rId2014" tooltip="飘浮泡泡"/>
+    <hyperlink ref="V353" r:id="rId2015" tooltip="变隐龙"/>
+    <hyperlink ref="V354" r:id="rId2016" tooltip="怨影娃娃"/>
+    <hyperlink ref="V355" r:id="rId2017" tooltip="诅咒娃娃"/>
+    <hyperlink ref="V356" r:id="rId2018" tooltip="夜巡灵"/>
+    <hyperlink ref="V357" r:id="rId2019" tooltip="彷徨夜灵"/>
+    <hyperlink ref="V358" r:id="rId2020" tooltip="热带龙"/>
+    <hyperlink ref="V359" r:id="rId2021" tooltip="风铃铃"/>
+    <hyperlink ref="V360" r:id="rId2022" tooltip="阿勃梭鲁"/>
+    <hyperlink ref="V361" r:id="rId2023" tooltip="小果然"/>
+    <hyperlink ref="V362" r:id="rId2024" tooltip="雪童子"/>
+    <hyperlink ref="V363" r:id="rId2025" tooltip="冰鬼护"/>
+    <hyperlink ref="V364" r:id="rId2026" tooltip="海豹球"/>
+    <hyperlink ref="V365" r:id="rId2027" tooltip="海魔狮"/>
+    <hyperlink ref="V366" r:id="rId2028" tooltip="帝牙海狮"/>
+    <hyperlink ref="V367" r:id="rId2029" tooltip="珍珠贝"/>
+    <hyperlink ref="V368" r:id="rId2030" tooltip="猎斑鱼"/>
+    <hyperlink ref="V369" r:id="rId2031" tooltip="樱花鱼"/>
+    <hyperlink ref="V370" r:id="rId2032" tooltip="古空棘鱼"/>
+    <hyperlink ref="V371" r:id="rId2033" tooltip="爱心鱼"/>
+    <hyperlink ref="V372" r:id="rId2034" tooltip="宝贝龙"/>
+    <hyperlink ref="V373" r:id="rId2035" tooltip="甲壳龙"/>
+    <hyperlink ref="V374" r:id="rId2036" tooltip="暴飞龙"/>
+    <hyperlink ref="V375" r:id="rId2037" tooltip="铁哑铃"/>
+    <hyperlink ref="V376" r:id="rId2038" tooltip="金属怪"/>
+    <hyperlink ref="V377" r:id="rId2039" tooltip="巨金怪"/>
+    <hyperlink ref="V378" r:id="rId2040" tooltip="雷吉洛克"/>
+    <hyperlink ref="V379" r:id="rId2041" tooltip="雷吉艾斯"/>
+    <hyperlink ref="V380" r:id="rId2042" tooltip="雷吉斯奇鲁"/>
+    <hyperlink ref="V381" r:id="rId2043" tooltip="拉帝亚斯"/>
+    <hyperlink ref="V382" r:id="rId2044" tooltip="拉帝欧斯"/>
+    <hyperlink ref="V383" r:id="rId2045" tooltip="盖欧卡"/>
+    <hyperlink ref="V384" r:id="rId2046" tooltip="固拉多"/>
+    <hyperlink ref="V385" r:id="rId2047" tooltip="烈空坐"/>
+    <hyperlink ref="V386" r:id="rId2048" tooltip="基拉祈"/>
+    <hyperlink ref="V387" r:id="rId2049" tooltip="代欧奇希斯"/>
+    <hyperlink ref="L723:L803" r:id="rId2050" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="B721" r:id="rId2051" tooltip="Hoopa (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hoopa_(Pok%C3%A9mon)"/>
+    <hyperlink ref="L721" r:id="rId2052" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="T388" r:id="rId2053" tooltip="草苗龟"/>
+    <hyperlink ref="T389" r:id="rId2054" tooltip="树林龟"/>
+    <hyperlink ref="T390" r:id="rId2055" tooltip="土台龟"/>
+    <hyperlink ref="T391" r:id="rId2056" tooltip="小火焰猴"/>
+    <hyperlink ref="T392" r:id="rId2057" tooltip="猛火猴"/>
+    <hyperlink ref="T393" r:id="rId2058" tooltip="烈焰猴"/>
+    <hyperlink ref="T394" r:id="rId2059" tooltip="波加曼"/>
+    <hyperlink ref="T395" r:id="rId2060" tooltip="波皇子"/>
+    <hyperlink ref="T396" r:id="rId2061" tooltip="帝王拿波"/>
+    <hyperlink ref="T397" r:id="rId2062" tooltip="姆克儿"/>
+    <hyperlink ref="T398" r:id="rId2063" tooltip="姆克鸟"/>
+    <hyperlink ref="T399" r:id="rId2064" tooltip="姆克鹰"/>
+    <hyperlink ref="T400" r:id="rId2065" tooltip="大牙狸"/>
+    <hyperlink ref="T401" r:id="rId2066" tooltip="大尾狸"/>
+    <hyperlink ref="T402" r:id="rId2067" tooltip="圆法师"/>
+    <hyperlink ref="T403" r:id="rId2068" tooltip="音箱蟀"/>
+    <hyperlink ref="T404" r:id="rId2069" tooltip="小猫怪"/>
+    <hyperlink ref="T405" r:id="rId2070" tooltip="勒克猫"/>
+    <hyperlink ref="T406" r:id="rId2071" tooltip="伦琴猫"/>
+    <hyperlink ref="T407" r:id="rId2072" tooltip="含羞苞"/>
+    <hyperlink ref="T408" r:id="rId2073" tooltip="罗丝雷朵"/>
+    <hyperlink ref="T409" r:id="rId2074" tooltip="头盖龙"/>
+    <hyperlink ref="T410" r:id="rId2075" tooltip="战槌龙"/>
+    <hyperlink ref="T411" r:id="rId2076" tooltip="盾甲龙"/>
+    <hyperlink ref="T412" r:id="rId2077" tooltip="护城龙"/>
+    <hyperlink ref="T413" r:id="rId2078" tooltip="结草儿"/>
+    <hyperlink ref="T414" r:id="rId2079" tooltip="结草贵妇"/>
+    <hyperlink ref="V388" r:id="rId2080" tooltip="草苗龟"/>
+    <hyperlink ref="V389" r:id="rId2081" tooltip="树林龟"/>
+    <hyperlink ref="V390" r:id="rId2082" tooltip="土台龟"/>
+    <hyperlink ref="V391" r:id="rId2083" tooltip="小火焰猴"/>
+    <hyperlink ref="V392" r:id="rId2084" tooltip="猛火猴"/>
+    <hyperlink ref="V393" r:id="rId2085" tooltip="烈焰猴"/>
+    <hyperlink ref="V394" r:id="rId2086" tooltip="波加曼"/>
+    <hyperlink ref="V395" r:id="rId2087" tooltip="波皇子"/>
+    <hyperlink ref="V396" r:id="rId2088" tooltip="帝王拿波"/>
+    <hyperlink ref="V397" r:id="rId2089" tooltip="姆克儿"/>
+    <hyperlink ref="V398" r:id="rId2090" tooltip="姆克鸟"/>
+    <hyperlink ref="V399" r:id="rId2091" tooltip="姆克鹰"/>
+    <hyperlink ref="V400" r:id="rId2092" tooltip="大牙狸"/>
+    <hyperlink ref="V401" r:id="rId2093" tooltip="大尾狸"/>
+    <hyperlink ref="V402" r:id="rId2094" tooltip="圆法师"/>
+    <hyperlink ref="V403" r:id="rId2095" tooltip="音箱蟀"/>
+    <hyperlink ref="V404" r:id="rId2096" tooltip="小猫怪"/>
+    <hyperlink ref="V405" r:id="rId2097" tooltip="勒克猫"/>
+    <hyperlink ref="V406" r:id="rId2098" tooltip="伦琴猫"/>
+    <hyperlink ref="V407" r:id="rId2099" tooltip="含羞苞"/>
+    <hyperlink ref="V408" r:id="rId2100" tooltip="罗丝雷朵"/>
+    <hyperlink ref="V409" r:id="rId2101" tooltip="头盖龙"/>
+    <hyperlink ref="V410" r:id="rId2102" tooltip="战槌龙"/>
+    <hyperlink ref="V411" r:id="rId2103" tooltip="盾甲龙"/>
+    <hyperlink ref="V412" r:id="rId2104" tooltip="护城龙"/>
+    <hyperlink ref="V413" r:id="rId2105" tooltip="结草儿"/>
+    <hyperlink ref="V414" r:id="rId2106" tooltip="结草贵妇"/>
+    <hyperlink ref="V480" r:id="rId2107" tooltip="洛托姆"/>
+    <hyperlink ref="V479" r:id="rId2108" tooltip="雪妖女"/>
+    <hyperlink ref="V478" r:id="rId2109" tooltip="黑夜魔灵"/>
+    <hyperlink ref="V477" r:id="rId2110" tooltip="大朝北鼻"/>
+    <hyperlink ref="V476" r:id="rId2111" tooltip="艾路雷朵"/>
+    <hyperlink ref="V474" r:id="rId2112" tooltip="象牙猪"/>
+    <hyperlink ref="T474" r:id="rId2113" tooltip="象牙猪"/>
+    <hyperlink ref="V473" r:id="rId2114" tooltip="天蝎王"/>
+    <hyperlink ref="T473" r:id="rId2115" tooltip="天蝎王"/>
+    <hyperlink ref="V472" r:id="rId2116" tooltip="冰伊布"/>
+    <hyperlink ref="T472" r:id="rId2117" tooltip="冰伊布"/>
+    <hyperlink ref="V471" r:id="rId2118" tooltip="叶伊布"/>
+    <hyperlink ref="T471" r:id="rId2119" tooltip="叶伊布"/>
+    <hyperlink ref="V470" r:id="rId2120" tooltip="远古巨蜓"/>
+    <hyperlink ref="T470" r:id="rId2121" tooltip="远古巨蜓"/>
+    <hyperlink ref="V469" r:id="rId2122" tooltip="波克基斯"/>
+    <hyperlink ref="T469" r:id="rId2123" tooltip="波克基斯"/>
+    <hyperlink ref="V468" r:id="rId2124" tooltip="鸭嘴炎兽"/>
+    <hyperlink ref="T468" r:id="rId2125" tooltip="鸭嘴炎兽"/>
+    <hyperlink ref="V467" r:id="rId2126" tooltip="电击魔兽"/>
+    <hyperlink ref="T467" r:id="rId2127" tooltip="电击魔兽"/>
+    <hyperlink ref="V466" r:id="rId2128" tooltip="巨蔓藤"/>
+    <hyperlink ref="T466" r:id="rId2129" tooltip="巨蔓藤"/>
+    <hyperlink ref="V465" r:id="rId2130" tooltip="超甲狂犀"/>
+    <hyperlink ref="T465" r:id="rId2131" tooltip="超甲狂犀"/>
+    <hyperlink ref="V464" r:id="rId2132" tooltip="大舌舔"/>
+    <hyperlink ref="T464" r:id="rId2133" tooltip="大舌舔"/>
+    <hyperlink ref="V463" r:id="rId2134" tooltip="自爆磁怪"/>
+    <hyperlink ref="T463" r:id="rId2135" tooltip="自爆磁怪"/>
+    <hyperlink ref="V462" r:id="rId2136" tooltip="玛狃拉"/>
+    <hyperlink ref="T462" r:id="rId2137" tooltip="玛狃拉"/>
+    <hyperlink ref="V461" r:id="rId2138" tooltip="暴雪王"/>
+    <hyperlink ref="T461" r:id="rId2139" tooltip="暴雪王"/>
+    <hyperlink ref="V460" r:id="rId2140" tooltip="雪笠怪"/>
+    <hyperlink ref="T460" r:id="rId2141" tooltip="雪笠怪"/>
+    <hyperlink ref="V459" r:id="rId2142" tooltip="小球飞鱼"/>
+    <hyperlink ref="T459" r:id="rId2143" tooltip="小球飞鱼"/>
+    <hyperlink ref="V458" r:id="rId2144" tooltip="霓虹鱼"/>
+    <hyperlink ref="T458" r:id="rId2145" tooltip="霓虹鱼"/>
+    <hyperlink ref="V457" r:id="rId2146" tooltip="荧光鱼"/>
+    <hyperlink ref="T457" r:id="rId2147" tooltip="荧光鱼"/>
+    <hyperlink ref="V456" r:id="rId2148" tooltip="尖牙笼"/>
+    <hyperlink ref="T456" r:id="rId2149" tooltip="尖牙笼"/>
+    <hyperlink ref="V455" r:id="rId2150" tooltip="毒骷蛙"/>
+    <hyperlink ref="T455" r:id="rId2151" tooltip="毒骷蛙"/>
+    <hyperlink ref="V454" r:id="rId2152" tooltip="不良蛙"/>
+    <hyperlink ref="T454" r:id="rId2153" tooltip="不良蛙"/>
+    <hyperlink ref="V453" r:id="rId2154" tooltip="龙王蝎"/>
+    <hyperlink ref="T453" r:id="rId2155" tooltip="龙王蝎"/>
+    <hyperlink ref="V452" r:id="rId2156" tooltip="钳尾蝎"/>
+    <hyperlink ref="T452" r:id="rId2157" tooltip="钳尾蝎"/>
+    <hyperlink ref="V451" r:id="rId2158" tooltip="河马兽"/>
+    <hyperlink ref="T451" r:id="rId2159" tooltip="河马兽"/>
+    <hyperlink ref="V450" r:id="rId2160" tooltip="沙河马"/>
+    <hyperlink ref="T450" r:id="rId2161" tooltip="沙河马"/>
+    <hyperlink ref="V449" r:id="rId2162" tooltip="路卡利欧"/>
+    <hyperlink ref="T449" r:id="rId2163" tooltip="路卡利欧"/>
+    <hyperlink ref="V448" r:id="rId2164" tooltip="利欧路"/>
+    <hyperlink ref="T448" r:id="rId2165" tooltip="利欧路"/>
+    <hyperlink ref="V447" r:id="rId2166" tooltip="小卡比兽"/>
+    <hyperlink ref="T447" r:id="rId2167" tooltip="小卡比兽"/>
+    <hyperlink ref="V446" r:id="rId2168" tooltip="烈咬陆鲨"/>
+    <hyperlink ref="T446" r:id="rId2169" tooltip="烈咬陆鲨"/>
+    <hyperlink ref="V445" r:id="rId2170" tooltip="尖牙陆鲨"/>
+    <hyperlink ref="T445" r:id="rId2171" tooltip="尖牙陆鲨"/>
+    <hyperlink ref="V444" r:id="rId2172" tooltip="圆陆鲨"/>
+    <hyperlink ref="T444" r:id="rId2173" tooltip="圆陆鲨"/>
+    <hyperlink ref="V443" r:id="rId2174" tooltip="花岩怪"/>
+    <hyperlink ref="T443" r:id="rId2175" tooltip="花岩怪"/>
+    <hyperlink ref="V442" r:id="rId2176" tooltip="聒噪鸟"/>
+    <hyperlink ref="T442" r:id="rId2177" tooltip="聒噪鸟"/>
+    <hyperlink ref="V441" r:id="rId2178" tooltip="小福蛋"/>
+    <hyperlink ref="T441" r:id="rId2179" tooltip="小福蛋"/>
+    <hyperlink ref="V440" r:id="rId2180" tooltip="魔尼尼"/>
+    <hyperlink ref="T440" r:id="rId2181" tooltip="魔尼尼"/>
+    <hyperlink ref="V439" r:id="rId2182" tooltip="盆才怪"/>
+    <hyperlink ref="T439" r:id="rId2183" tooltip="盆才怪"/>
+    <hyperlink ref="V438" r:id="rId2184" tooltip="青铜钟"/>
+    <hyperlink ref="T438" r:id="rId2185" tooltip="青铜钟"/>
+    <hyperlink ref="V437" r:id="rId2186" tooltip="铜镜怪"/>
+    <hyperlink ref="T437" r:id="rId2187" tooltip="铜镜怪"/>
+    <hyperlink ref="V436" r:id="rId2188" tooltip="坦克臭鼬"/>
+    <hyperlink ref="T436" r:id="rId2189" tooltip="坦克臭鼬"/>
+    <hyperlink ref="V435" r:id="rId2190" tooltip="臭鼬噗"/>
+    <hyperlink ref="T435" r:id="rId2191" tooltip="臭鼬噗"/>
+    <hyperlink ref="V434" r:id="rId2192" tooltip="铃铛响"/>
+    <hyperlink ref="T434" r:id="rId2193" tooltip="铃铛响"/>
+    <hyperlink ref="V433" r:id="rId2194" tooltip="东施喵"/>
+    <hyperlink ref="T433" r:id="rId2195" tooltip="东施喵"/>
+    <hyperlink ref="V432" r:id="rId2196" tooltip="魅力喵"/>
+    <hyperlink ref="T432" r:id="rId2197" tooltip="魅力喵"/>
+    <hyperlink ref="V431" r:id="rId2198" tooltip="乌鸦头头"/>
+    <hyperlink ref="T431" r:id="rId2199" tooltip="乌鸦头头"/>
+    <hyperlink ref="V430" r:id="rId2200" tooltip="梦妖魔"/>
+    <hyperlink ref="T430" r:id="rId2201" tooltip="梦妖魔"/>
+    <hyperlink ref="V429" r:id="rId2202" tooltip="长耳兔"/>
+    <hyperlink ref="T429" r:id="rId2203" tooltip="长耳兔"/>
+    <hyperlink ref="V428" r:id="rId2204" tooltip="卷卷耳"/>
+    <hyperlink ref="T428" r:id="rId2205" tooltip="卷卷耳"/>
+    <hyperlink ref="V427" r:id="rId2206" tooltip="随风球"/>
+    <hyperlink ref="T427" r:id="rId2207" tooltip="随风球"/>
+    <hyperlink ref="V426" r:id="rId2208" tooltip="飘飘球"/>
+    <hyperlink ref="T426" r:id="rId2209" tooltip="飘飘球"/>
+    <hyperlink ref="V425" r:id="rId2210" tooltip="双尾怪手"/>
+    <hyperlink ref="T425" r:id="rId2211" tooltip="双尾怪手"/>
+    <hyperlink ref="V424" r:id="rId2212" tooltip="海兔兽"/>
+    <hyperlink ref="T424" r:id="rId2213" tooltip="海兔兽"/>
+    <hyperlink ref="V423" r:id="rId2214" tooltip="无壳海兔"/>
+    <hyperlink ref="T423" r:id="rId2215" tooltip="无壳海兔"/>
+    <hyperlink ref="V422" r:id="rId2216" tooltip="樱花儿"/>
+    <hyperlink ref="T422" r:id="rId2217" tooltip="樱花儿"/>
+    <hyperlink ref="V421" r:id="rId2218" tooltip="樱花宝"/>
+    <hyperlink ref="T421" r:id="rId2219" tooltip="樱花宝"/>
+    <hyperlink ref="V420" r:id="rId2220" tooltip="浮潜鼬"/>
+    <hyperlink ref="T420" r:id="rId2221" tooltip="浮潜鼬"/>
+    <hyperlink ref="V419" r:id="rId2222" tooltip="泳圈鼬"/>
+    <hyperlink ref="T419" r:id="rId2223" tooltip="泳圈鼬"/>
+    <hyperlink ref="V418" r:id="rId2224" tooltip="帕奇利兹"/>
+    <hyperlink ref="T418" r:id="rId2225" tooltip="帕奇利兹"/>
+    <hyperlink ref="V417" r:id="rId2226" tooltip="蜂女王"/>
+    <hyperlink ref="T417" r:id="rId2227" tooltip="蜂女王"/>
+    <hyperlink ref="V416" r:id="rId2228" tooltip="三蜜蜂"/>
+    <hyperlink ref="T416" r:id="rId2229" tooltip="三蜜蜂"/>
+    <hyperlink ref="V415" r:id="rId2230" tooltip="绅士蛾"/>
+    <hyperlink ref="T415" r:id="rId2231" tooltip="绅士蛾"/>
+    <hyperlink ref="V487" r:id="rId2232" tooltip="大朝北鼻" display="大朝北鼻"/>
+    <hyperlink ref="T487" r:id="rId2233" tooltip="大朝北鼻" display="大朝北鼻"/>
+    <hyperlink ref="V486" r:id="rId2234" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="T486" r:id="rId2235" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="V485" r:id="rId2236" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="T485" r:id="rId2237" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="V484" r:id="rId2238" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="T484" r:id="rId2239" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="V483" r:id="rId2240" tooltip="天蝎王" display="天蝎王"/>
+    <hyperlink ref="T483" r:id="rId2241" tooltip="天蝎王" display="天蝎王"/>
+    <hyperlink ref="V482" r:id="rId2242" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="V481" r:id="rId2243" tooltip="叶伊布" display="叶伊布"/>
+    <hyperlink ref="V493" r:id="rId2244" tooltip="大朝北鼻" display="大朝北鼻"/>
+    <hyperlink ref="T493" r:id="rId2245" tooltip="大朝北鼻" display="大朝北鼻"/>
+    <hyperlink ref="V492" r:id="rId2246" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="T492" r:id="rId2247" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="V491" r:id="rId2248" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="T491" r:id="rId2249" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="V490" r:id="rId2250" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="T490" r:id="rId2251" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="V488" r:id="rId2252" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="T488" r:id="rId2253" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="T495" r:id="rId2254" tooltip="比克提尼"/>
+    <hyperlink ref="T496" r:id="rId2255" tooltip="藤藤蛇"/>
+    <hyperlink ref="T497" r:id="rId2256" tooltip="青藤蛇"/>
+    <hyperlink ref="T498" r:id="rId2257" tooltip="君主蛇"/>
+    <hyperlink ref="T499" r:id="rId2258" tooltip="暖暖猪"/>
+    <hyperlink ref="T500" r:id="rId2259" tooltip="炒炒猪"/>
+    <hyperlink ref="T501" r:id="rId2260" tooltip="炎武王"/>
+    <hyperlink ref="T502" r:id="rId2261" tooltip="水水獭"/>
+    <hyperlink ref="T503" r:id="rId2262" tooltip="双刃丸"/>
+    <hyperlink ref="T504" r:id="rId2263" tooltip="大剑鬼"/>
+    <hyperlink ref="T505" r:id="rId2264" tooltip="探探鼠"/>
+    <hyperlink ref="T506" r:id="rId2265" tooltip="步哨鼠"/>
+    <hyperlink ref="T507" r:id="rId2266" tooltip="小约克"/>
+    <hyperlink ref="T508" r:id="rId2267" tooltip="哈约克"/>
+    <hyperlink ref="T509" r:id="rId2268" tooltip="长毛狗"/>
+    <hyperlink ref="T510" r:id="rId2269" tooltip="扒手猫"/>
+    <hyperlink ref="T511" r:id="rId2270" tooltip="酷豹"/>
+    <hyperlink ref="T512" r:id="rId2271" tooltip="花椰猴"/>
+    <hyperlink ref="T513" r:id="rId2272" tooltip="花椰猿"/>
+    <hyperlink ref="T514" r:id="rId2273" tooltip="爆香猴"/>
+    <hyperlink ref="T515" r:id="rId2274" tooltip="爆香猿"/>
+    <hyperlink ref="T516" r:id="rId2275" tooltip="冷水猴"/>
+    <hyperlink ref="T517" r:id="rId2276" tooltip="冷水猿"/>
+    <hyperlink ref="T518" r:id="rId2277" tooltip="食梦梦"/>
+    <hyperlink ref="T519" r:id="rId2278" tooltip="梦梦蚀"/>
+    <hyperlink ref="T520" r:id="rId2279" tooltip="豆豆鸽"/>
+    <hyperlink ref="T521" r:id="rId2280" tooltip="咕咕鸽"/>
+    <hyperlink ref="T522" r:id="rId2281" tooltip="高傲雉鸡"/>
+    <hyperlink ref="T523" r:id="rId2282" tooltip="斑斑马"/>
+    <hyperlink ref="T524" r:id="rId2283" tooltip="雷电斑马"/>
+    <hyperlink ref="T525" r:id="rId2284" tooltip="石丸子"/>
+    <hyperlink ref="T526" r:id="rId2285" tooltip="地幔岩"/>
+    <hyperlink ref="T527" r:id="rId2286" tooltip="庞岩怪"/>
+    <hyperlink ref="T528" r:id="rId2287" tooltip="滚滚蝙蝠"/>
+    <hyperlink ref="T529" r:id="rId2288" tooltip="心蝙蝠"/>
+    <hyperlink ref="T530" r:id="rId2289" tooltip="螺钉地鼠"/>
+    <hyperlink ref="T531" r:id="rId2290" tooltip="龙头地鼠"/>
+    <hyperlink ref="T532" r:id="rId2291" tooltip="差不多娃娃"/>
+    <hyperlink ref="T533" r:id="rId2292" tooltip="搬运小匠"/>
+    <hyperlink ref="T534" r:id="rId2293" tooltip="铁骨土人"/>
+    <hyperlink ref="T535" r:id="rId2294" tooltip="修建老匠"/>
+    <hyperlink ref="T536" r:id="rId2295" tooltip="圆蝌蚪"/>
+    <hyperlink ref="T537" r:id="rId2296" tooltip="蓝蟾蜍"/>
+    <hyperlink ref="T538" r:id="rId2297" tooltip="蟾蜍王"/>
+    <hyperlink ref="T539" r:id="rId2298" tooltip="投摔鬼"/>
+    <hyperlink ref="T540" r:id="rId2299" tooltip="打击鬼"/>
+    <hyperlink ref="T541" r:id="rId2300" tooltip="虫宝包"/>
+    <hyperlink ref="T542" r:id="rId2301" tooltip="宝包茧"/>
+    <hyperlink ref="T543" r:id="rId2302" tooltip="保姆虫"/>
+    <hyperlink ref="T544" r:id="rId2303" tooltip="百足蜈蚣"/>
+    <hyperlink ref="T545" r:id="rId2304" tooltip="车轮球"/>
+    <hyperlink ref="T546" r:id="rId2305" tooltip="蜈蚣王"/>
+    <hyperlink ref="T547" r:id="rId2306" tooltip="木棉球"/>
+    <hyperlink ref="T548" r:id="rId2307" tooltip="风妖精"/>
+    <hyperlink ref="T549" r:id="rId2308" tooltip="百合根娃娃"/>
+    <hyperlink ref="T550" r:id="rId2309" tooltip="裙儿小姐"/>
+    <hyperlink ref="T551" r:id="rId2310" tooltip="野蛮鲈鱼"/>
+    <hyperlink ref="T552" r:id="rId2311" tooltip="黑眼鳄"/>
+    <hyperlink ref="T553" r:id="rId2312" tooltip="混混鳄"/>
+    <hyperlink ref="T554" r:id="rId2313" tooltip="流氓鳄"/>
+    <hyperlink ref="T555" r:id="rId2314" tooltip="火红不倒翁"/>
+    <hyperlink ref="V495" r:id="rId2315" tooltip="比克提尼"/>
+    <hyperlink ref="V496" r:id="rId2316" tooltip="藤藤蛇"/>
+    <hyperlink ref="V497" r:id="rId2317" tooltip="青藤蛇"/>
+    <hyperlink ref="V498" r:id="rId2318" tooltip="君主蛇"/>
+    <hyperlink ref="V499" r:id="rId2319" tooltip="暖暖猪"/>
+    <hyperlink ref="V500" r:id="rId2320" tooltip="炒炒猪"/>
+    <hyperlink ref="V501" r:id="rId2321" tooltip="炎武王"/>
+    <hyperlink ref="V502" r:id="rId2322" tooltip="水水獭"/>
+    <hyperlink ref="V503" r:id="rId2323" tooltip="双刃丸"/>
+    <hyperlink ref="V504" r:id="rId2324" tooltip="大剑鬼"/>
+    <hyperlink ref="V505" r:id="rId2325" tooltip="探探鼠"/>
+    <hyperlink ref="V506" r:id="rId2326" tooltip="步哨鼠"/>
+    <hyperlink ref="V507" r:id="rId2327" tooltip="小约克"/>
+    <hyperlink ref="V508" r:id="rId2328" tooltip="哈约克"/>
+    <hyperlink ref="V509" r:id="rId2329" tooltip="长毛狗"/>
+    <hyperlink ref="V510" r:id="rId2330" tooltip="扒手猫"/>
+    <hyperlink ref="V511" r:id="rId2331" tooltip="酷豹"/>
+    <hyperlink ref="V512" r:id="rId2332" tooltip="花椰猴"/>
+    <hyperlink ref="V513" r:id="rId2333" tooltip="花椰猿"/>
+    <hyperlink ref="V514" r:id="rId2334" tooltip="爆香猴"/>
+    <hyperlink ref="V515" r:id="rId2335" tooltip="爆香猿"/>
+    <hyperlink ref="V516" r:id="rId2336" tooltip="冷水猴"/>
+    <hyperlink ref="V517" r:id="rId2337" tooltip="冷水猿"/>
+    <hyperlink ref="V518" r:id="rId2338" tooltip="食梦梦"/>
+    <hyperlink ref="V519" r:id="rId2339" tooltip="梦梦蚀"/>
+    <hyperlink ref="V520" r:id="rId2340" tooltip="豆豆鸽"/>
+    <hyperlink ref="V521" r:id="rId2341" tooltip="咕咕鸽"/>
+    <hyperlink ref="V522" r:id="rId2342" tooltip="高傲雉鸡"/>
+    <hyperlink ref="V523" r:id="rId2343" tooltip="斑斑马"/>
+    <hyperlink ref="V524" r:id="rId2344" tooltip="雷电斑马"/>
+    <hyperlink ref="V525" r:id="rId2345" tooltip="石丸子"/>
+    <hyperlink ref="V526" r:id="rId2346" tooltip="地幔岩"/>
+    <hyperlink ref="V527" r:id="rId2347" tooltip="庞岩怪"/>
+    <hyperlink ref="V528" r:id="rId2348" tooltip="滚滚蝙蝠"/>
+    <hyperlink ref="V529" r:id="rId2349" tooltip="心蝙蝠"/>
+    <hyperlink ref="V530" r:id="rId2350" tooltip="螺钉地鼠"/>
+    <hyperlink ref="V531" r:id="rId2351" tooltip="龙头地鼠"/>
+    <hyperlink ref="V532" r:id="rId2352" tooltip="差不多娃娃"/>
+    <hyperlink ref="V533" r:id="rId2353" tooltip="搬运小匠"/>
+    <hyperlink ref="V534" r:id="rId2354" tooltip="铁骨土人"/>
+    <hyperlink ref="V535" r:id="rId2355" tooltip="修建老匠"/>
+    <hyperlink ref="V536" r:id="rId2356" tooltip="圆蝌蚪"/>
+    <hyperlink ref="V537" r:id="rId2357" tooltip="蓝蟾蜍"/>
+    <hyperlink ref="V538" r:id="rId2358" tooltip="蟾蜍王"/>
+    <hyperlink ref="V539" r:id="rId2359" tooltip="投摔鬼"/>
+    <hyperlink ref="V540" r:id="rId2360" tooltip="打击鬼"/>
+    <hyperlink ref="V541" r:id="rId2361" tooltip="虫宝包"/>
+    <hyperlink ref="V542" r:id="rId2362" tooltip="宝包茧"/>
+    <hyperlink ref="V543" r:id="rId2363" tooltip="保姆虫"/>
+    <hyperlink ref="V544" r:id="rId2364" tooltip="百足蜈蚣"/>
+    <hyperlink ref="V545" r:id="rId2365" tooltip="车轮球"/>
+    <hyperlink ref="V546" r:id="rId2366" tooltip="蜈蚣王"/>
+    <hyperlink ref="V547" r:id="rId2367" tooltip="木棉球"/>
+    <hyperlink ref="V548" r:id="rId2368" tooltip="风妖精"/>
+    <hyperlink ref="V549" r:id="rId2369" tooltip="百合根娃娃"/>
+    <hyperlink ref="V550" r:id="rId2370" tooltip="裙儿小姐"/>
+    <hyperlink ref="V551" r:id="rId2371" tooltip="野蛮鲈鱼"/>
+    <hyperlink ref="V552" r:id="rId2372" tooltip="黑眼鳄"/>
+    <hyperlink ref="V553" r:id="rId2373" tooltip="混混鳄"/>
+    <hyperlink ref="V554" r:id="rId2374" tooltip="流氓鳄"/>
+    <hyperlink ref="V555" r:id="rId2375" tooltip="火红不倒翁"/>
+    <hyperlink ref="T651" r:id="rId2376" tooltip="哈力栗"/>
+    <hyperlink ref="T652" r:id="rId2377" tooltip="胖胖哈力"/>
+    <hyperlink ref="T653" r:id="rId2378" tooltip="布里卡隆"/>
+    <hyperlink ref="T654" r:id="rId2379" tooltip="火狐狸"/>
+    <hyperlink ref="T655" r:id="rId2380" tooltip="长尾火狐"/>
+    <hyperlink ref="T656" r:id="rId2381" tooltip="妖火红狐"/>
+    <hyperlink ref="T657" r:id="rId2382" tooltip="呱呱泡蛙"/>
+    <hyperlink ref="T658" r:id="rId2383" tooltip="呱头蛙"/>
+    <hyperlink ref="T659" r:id="rId2384" tooltip="甲贺忍蛙"/>
+    <hyperlink ref="T660" r:id="rId2385" tooltip="掘掘兔"/>
+    <hyperlink ref="T661" r:id="rId2386" tooltip="掘地兔"/>
+    <hyperlink ref="T662" r:id="rId2387" tooltip="小箭雀"/>
+    <hyperlink ref="T663" r:id="rId2388" tooltip="火箭雀"/>
+    <hyperlink ref="T664" r:id="rId2389" tooltip="烈箭鹰"/>
+    <hyperlink ref="T665" r:id="rId2390" tooltip="粉蝶虫"/>
+    <hyperlink ref="T666" r:id="rId2391" tooltip="粉蝶蛹"/>
+    <hyperlink ref="T667" r:id="rId2392" tooltip="彩粉蝶"/>
+    <hyperlink ref="T668" r:id="rId2393" tooltip="小狮狮"/>
+    <hyperlink ref="T669" r:id="rId2394" tooltip="火炎狮"/>
+    <hyperlink ref="T670" r:id="rId2395" tooltip="花蓓蓓"/>
+    <hyperlink ref="T671" r:id="rId2396" tooltip="花叶蒂"/>
+    <hyperlink ref="T672" r:id="rId2397" tooltip="花洁夫人"/>
+    <hyperlink ref="T673" r:id="rId2398" tooltip="坐骑小羊"/>
+    <hyperlink ref="T674" r:id="rId2399" tooltip="坐骑山羊"/>
+    <hyperlink ref="T675" r:id="rId2400" tooltip="顽皮熊猫"/>
+    <hyperlink ref="T676" r:id="rId2401" tooltip="流氓熊猫"/>
+    <hyperlink ref="T677" r:id="rId2402" tooltip="多丽米亚"/>
+    <hyperlink ref="T678" r:id="rId2403" tooltip="妙喵"/>
+    <hyperlink ref="T679" r:id="rId2404" tooltip="超能妙喵"/>
+    <hyperlink ref="T680" r:id="rId2405" tooltip="独剑鞘"/>
+    <hyperlink ref="T681" r:id="rId2406" tooltip="双剑鞘"/>
+    <hyperlink ref="T682" r:id="rId2407" tooltip="坚盾剑怪"/>
+    <hyperlink ref="T713" r:id="rId2408" tooltip="冰宝"/>
+    <hyperlink ref="T714" r:id="rId2409" tooltip="冰岩怪"/>
+    <hyperlink ref="T715" r:id="rId2410" tooltip="嗡蝠"/>
+    <hyperlink ref="T716" r:id="rId2411" tooltip="音波龙"/>
+    <hyperlink ref="T717" r:id="rId2412" tooltip="哲尔尼亚斯"/>
+    <hyperlink ref="T718" r:id="rId2413" tooltip="伊裴尔塔尔"/>
+    <hyperlink ref="T711" r:id="rId2414" tooltip="南瓜精"/>
+    <hyperlink ref="T712" r:id="rId2415" tooltip="南瓜怪人"/>
+    <hyperlink ref="T683" r:id="rId2416" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="T684" r:id="rId2417" tooltip="冰宝" display="冰宝"/>
+    <hyperlink ref="T685" r:id="rId2418" tooltip="冰岩怪" display="冰岩怪"/>
+    <hyperlink ref="T686" r:id="rId2419" tooltip="嗡蝠" display="嗡蝠"/>
+    <hyperlink ref="T687" r:id="rId2420" tooltip="音波龙" display="音波龙"/>
+    <hyperlink ref="T688" r:id="rId2421" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
+    <hyperlink ref="T689" r:id="rId2422" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
+    <hyperlink ref="T690" r:id="rId2423" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="T691" r:id="rId2424" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="T692" r:id="rId2425" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="T693" r:id="rId2426" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="T694" r:id="rId2427" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="T695" r:id="rId2428" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="T696" r:id="rId2429" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="V651" r:id="rId2430" tooltip="哈力栗"/>
+    <hyperlink ref="V652" r:id="rId2431" tooltip="胖胖哈力"/>
+    <hyperlink ref="V653" r:id="rId2432" tooltip="布里卡隆"/>
+    <hyperlink ref="V654" r:id="rId2433" tooltip="火狐狸"/>
+    <hyperlink ref="V655" r:id="rId2434" tooltip="长尾火狐"/>
+    <hyperlink ref="V656" r:id="rId2435" tooltip="妖火红狐"/>
+    <hyperlink ref="V657" r:id="rId2436" tooltip="呱呱泡蛙"/>
+    <hyperlink ref="V658" r:id="rId2437" tooltip="呱头蛙"/>
+    <hyperlink ref="V659" r:id="rId2438" tooltip="甲贺忍蛙"/>
+    <hyperlink ref="V660" r:id="rId2439" tooltip="掘掘兔"/>
+    <hyperlink ref="V661" r:id="rId2440" tooltip="掘地兔"/>
+    <hyperlink ref="V662" r:id="rId2441" tooltip="小箭雀"/>
+    <hyperlink ref="V663" r:id="rId2442" tooltip="火箭雀"/>
+    <hyperlink ref="V664" r:id="rId2443" tooltip="烈箭鹰"/>
+    <hyperlink ref="V665" r:id="rId2444" tooltip="粉蝶虫"/>
+    <hyperlink ref="V666" r:id="rId2445" tooltip="粉蝶蛹"/>
+    <hyperlink ref="V667" r:id="rId2446" tooltip="彩粉蝶"/>
+    <hyperlink ref="V668" r:id="rId2447" tooltip="小狮狮"/>
+    <hyperlink ref="V669" r:id="rId2448" tooltip="火炎狮"/>
+    <hyperlink ref="V670" r:id="rId2449" tooltip="花蓓蓓"/>
+    <hyperlink ref="V671" r:id="rId2450" tooltip="花叶蒂"/>
+    <hyperlink ref="V672" r:id="rId2451" tooltip="花洁夫人"/>
+    <hyperlink ref="V673" r:id="rId2452" tooltip="坐骑小羊"/>
+    <hyperlink ref="V674" r:id="rId2453" tooltip="坐骑山羊"/>
+    <hyperlink ref="V675" r:id="rId2454" tooltip="顽皮熊猫"/>
+    <hyperlink ref="V676" r:id="rId2455" tooltip="流氓熊猫"/>
+    <hyperlink ref="V677" r:id="rId2456" tooltip="多丽米亚"/>
+    <hyperlink ref="V678" r:id="rId2457" tooltip="妙喵"/>
+    <hyperlink ref="V679" r:id="rId2458" tooltip="超能妙喵"/>
+    <hyperlink ref="V680" r:id="rId2459" tooltip="独剑鞘"/>
+    <hyperlink ref="V681" r:id="rId2460" tooltip="双剑鞘"/>
+    <hyperlink ref="V682" r:id="rId2461" tooltip="坚盾剑怪"/>
+    <hyperlink ref="V713" r:id="rId2462" tooltip="冰宝"/>
+    <hyperlink ref="V714" r:id="rId2463" tooltip="冰岩怪"/>
+    <hyperlink ref="V715" r:id="rId2464" tooltip="嗡蝠"/>
+    <hyperlink ref="V716" r:id="rId2465" tooltip="音波龙"/>
+    <hyperlink ref="V717" r:id="rId2466" tooltip="哲尔尼亚斯"/>
+    <hyperlink ref="V718" r:id="rId2467" tooltip="伊裴尔塔尔"/>
+    <hyperlink ref="V711" r:id="rId2468" tooltip="南瓜精"/>
+    <hyperlink ref="V712" r:id="rId2469" tooltip="南瓜怪人"/>
+    <hyperlink ref="V683" r:id="rId2470" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="V684" r:id="rId2471" tooltip="冰宝" display="冰宝"/>
+    <hyperlink ref="V685" r:id="rId2472" tooltip="冰岩怪" display="冰岩怪"/>
+    <hyperlink ref="V686" r:id="rId2473" tooltip="嗡蝠" display="嗡蝠"/>
+    <hyperlink ref="V687" r:id="rId2474" tooltip="音波龙" display="音波龙"/>
+    <hyperlink ref="V688" r:id="rId2475" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
+    <hyperlink ref="V689" r:id="rId2476" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
+    <hyperlink ref="V690" r:id="rId2477" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="V691" r:id="rId2478" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="V692" r:id="rId2479" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="V693" r:id="rId2480" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="V694" r:id="rId2481" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="V695" r:id="rId2482" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="V696" r:id="rId2483" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="V723" r:id="rId2484" tooltip="木木枭"/>
+    <hyperlink ref="V724" r:id="rId2485" tooltip="投羽枭"/>
+    <hyperlink ref="V725" r:id="rId2486" tooltip="狙射树枭"/>
+    <hyperlink ref="V726" r:id="rId2487" tooltip="火斑喵"/>
+    <hyperlink ref="V727" r:id="rId2488" tooltip="炎热喵"/>
+    <hyperlink ref="V728" r:id="rId2489" tooltip="炽焰咆哮虎"/>
+    <hyperlink ref="V729" r:id="rId2490" tooltip="球球海狮"/>
+    <hyperlink ref="V730" r:id="rId2491" tooltip="花漾海狮"/>
+    <hyperlink ref="V731" r:id="rId2492" tooltip="西狮海壬"/>
+    <hyperlink ref="V732" r:id="rId2493" tooltip="小笃儿"/>
+    <hyperlink ref="V733" r:id="rId2494" tooltip="喇叭啄鸟"/>
+    <hyperlink ref="V734" r:id="rId2495" tooltip="铳嘴大鸟"/>
+    <hyperlink ref="V735" r:id="rId2496" tooltip="猫鼬少"/>
+    <hyperlink ref="V736" r:id="rId2497" tooltip="猫鼬探长"/>
+    <hyperlink ref="V737" r:id="rId2498" tooltip="强颚鸡母虫"/>
+    <hyperlink ref="V738" r:id="rId2499" tooltip="虫电宝"/>
+    <hyperlink ref="V739" r:id="rId2500" tooltip="锹农炮虫"/>
+    <hyperlink ref="V740" r:id="rId2501" tooltip="好胜蟹"/>
+    <hyperlink ref="V741" r:id="rId2502" tooltip="好胜毛蟹"/>
+    <hyperlink ref="V742" r:id="rId2503" tooltip="花舞鸟"/>
+    <hyperlink ref="V743" r:id="rId2504" tooltip="萌虻"/>
+    <hyperlink ref="V744" r:id="rId2505" tooltip="蝶结萌虻"/>
+    <hyperlink ref="V745" r:id="rId2506" tooltip="岩狗狗"/>
+    <hyperlink ref="V746" r:id="rId2507" tooltip="鬃岩狼人"/>
+    <hyperlink ref="T723" r:id="rId2508" tooltip="木木枭"/>
+    <hyperlink ref="T724" r:id="rId2509" tooltip="投羽枭"/>
+    <hyperlink ref="T725" r:id="rId2510" tooltip="狙射树枭"/>
+    <hyperlink ref="T726" r:id="rId2511" tooltip="火斑喵"/>
+    <hyperlink ref="T727" r:id="rId2512" tooltip="炎热喵"/>
+    <hyperlink ref="T728" r:id="rId2513" tooltip="炽焰咆哮虎"/>
+    <hyperlink ref="T729" r:id="rId2514" tooltip="球球海狮"/>
+    <hyperlink ref="T730" r:id="rId2515" tooltip="花漾海狮"/>
+    <hyperlink ref="T731" r:id="rId2516" tooltip="西狮海壬"/>
+    <hyperlink ref="T732" r:id="rId2517" tooltip="小笃儿"/>
+    <hyperlink ref="T733" r:id="rId2518" tooltip="喇叭啄鸟"/>
+    <hyperlink ref="T734" r:id="rId2519" tooltip="铳嘴大鸟"/>
+    <hyperlink ref="T735" r:id="rId2520" tooltip="猫鼬少"/>
+    <hyperlink ref="T736" r:id="rId2521" tooltip="猫鼬探长"/>
+    <hyperlink ref="T737" r:id="rId2522" tooltip="强颚鸡母虫"/>
+    <hyperlink ref="T738" r:id="rId2523" tooltip="虫电宝"/>
+    <hyperlink ref="T739" r:id="rId2524" tooltip="锹农炮虫"/>
+    <hyperlink ref="T740" r:id="rId2525" tooltip="好胜蟹"/>
+    <hyperlink ref="T741" r:id="rId2526" tooltip="好胜毛蟹"/>
+    <hyperlink ref="T742" r:id="rId2527" tooltip="花舞鸟"/>
+    <hyperlink ref="T743" r:id="rId2528" tooltip="萌虻"/>
+    <hyperlink ref="T744" r:id="rId2529" tooltip="蝶结萌虻"/>
+    <hyperlink ref="T745" r:id="rId2530" tooltip="岩狗狗"/>
+    <hyperlink ref="T746" r:id="rId2531" tooltip="鬃岩狼人"/>
+    <hyperlink ref="B480" r:id="rId2532" tooltip="Rotom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rotom_(Pok%C3%A9mon)"/>
+    <hyperlink ref="L480" r:id="rId2533" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="T481" r:id="rId2534" tooltip="叶伊布" display="叶伊布"/>
+    <hyperlink ref="T482" r:id="rId2535" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="T476" r:id="rId2536" tooltip="艾路雷朵"/>
+    <hyperlink ref="T477" r:id="rId2537" tooltip="大朝北鼻"/>
+    <hyperlink ref="T478" r:id="rId2538" tooltip="黑夜魔灵"/>
+    <hyperlink ref="T479" r:id="rId2539" tooltip="雪妖女"/>
+    <hyperlink ref="T480" r:id="rId2540" tooltip="洛托姆"/>
+    <hyperlink ref="T475" r:id="rId2541" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="U2" r:id="rId2542" tooltip="妙蛙种子"/>
+    <hyperlink ref="U3" r:id="rId2543" tooltip="妙蛙草"/>
+    <hyperlink ref="U4" r:id="rId2544" tooltip="妙蛙花"/>
+    <hyperlink ref="U5" r:id="rId2545" tooltip="小火龙"/>
+    <hyperlink ref="U6" r:id="rId2546" tooltip="火恐龙"/>
+    <hyperlink ref="U7" r:id="rId2547" tooltip="喷火龙" display="喷火龙"/>
+    <hyperlink ref="U8" r:id="rId2548" tooltip="杰尼龟"/>
+    <hyperlink ref="U9" r:id="rId2549" tooltip="卡咪龟"/>
+    <hyperlink ref="U10" r:id="rId2550" tooltip="水箭龟"/>
+    <hyperlink ref="U11" r:id="rId2551" tooltip="绿毛虫" display="绿毛虫"/>
+    <hyperlink ref="U12" r:id="rId2552" tooltip="铁甲蛹"/>
+    <hyperlink ref="U13" r:id="rId2553" tooltip="巴大蝶"/>
+    <hyperlink ref="U14" r:id="rId2554" tooltip="独角虫"/>
+    <hyperlink ref="U15" r:id="rId2555" tooltip="铁壳蛹"/>
+    <hyperlink ref="U16" r:id="rId2556" tooltip="大针蜂"/>
+    <hyperlink ref="U17" r:id="rId2557" tooltip="波波"/>
+    <hyperlink ref="U18" r:id="rId2558" tooltip="比比鸟"/>
+    <hyperlink ref="U19" r:id="rId2559" tooltip="大比鸟" display="大比鸟"/>
+    <hyperlink ref="U20" r:id="rId2560" tooltip="小拉达"/>
+    <hyperlink ref="U21" r:id="rId2561" tooltip="拉达"/>
+    <hyperlink ref="U22" r:id="rId2562" tooltip="烈雀"/>
+    <hyperlink ref="U23" r:id="rId2563" tooltip="大嘴雀"/>
+    <hyperlink ref="U24" r:id="rId2564" tooltip="阿柏蛇"/>
+    <hyperlink ref="U25" r:id="rId2565" tooltip="阿柏怪"/>
+    <hyperlink ref="U26" r:id="rId2566" tooltip="皮卡丘" display="皮卡丘"/>
+    <hyperlink ref="U27" r:id="rId2567" tooltip="雷丘"/>
+    <hyperlink ref="U28" r:id="rId2568" tooltip="穿山鼠"/>
+    <hyperlink ref="U29" r:id="rId2569" tooltip="穿山王"/>
+    <hyperlink ref="U30" r:id="rId2570" tooltip="尼多兰"/>
+    <hyperlink ref="U31" r:id="rId2571" tooltip="尼多娜"/>
+    <hyperlink ref="U32" r:id="rId2572" tooltip="尼多后"/>
+    <hyperlink ref="U33" r:id="rId2573" tooltip="尼多朗"/>
+    <hyperlink ref="U34" r:id="rId2574" tooltip="尼多力诺"/>
+    <hyperlink ref="U35" r:id="rId2575" tooltip="尼多王"/>
+    <hyperlink ref="U36" r:id="rId2576" tooltip="皮皮"/>
+    <hyperlink ref="U37" r:id="rId2577" tooltip="皮可西" display="皮可西"/>
+    <hyperlink ref="U38" r:id="rId2578" tooltip="六尾"/>
+    <hyperlink ref="U39" r:id="rId2579" tooltip="九尾"/>
+    <hyperlink ref="U40" r:id="rId2580" tooltip="胖丁"/>
+    <hyperlink ref="U41" r:id="rId2581" tooltip="胖可丁"/>
+    <hyperlink ref="U42" r:id="rId2582" tooltip="超音蝠"/>
+    <hyperlink ref="U43" r:id="rId2583" tooltip="大嘴蝠"/>
+    <hyperlink ref="U44" r:id="rId2584" tooltip="走路草"/>
+    <hyperlink ref="U45" r:id="rId2585" tooltip="臭臭花"/>
+    <hyperlink ref="U46" r:id="rId2586" tooltip="霸王花"/>
+    <hyperlink ref="U47" r:id="rId2587" tooltip="派拉斯"/>
+    <hyperlink ref="U48" r:id="rId2588" tooltip="派拉斯特"/>
+    <hyperlink ref="U49" r:id="rId2589" tooltip="毛球"/>
+    <hyperlink ref="U50" r:id="rId2590" tooltip="摩鲁蛾"/>
+    <hyperlink ref="U51" r:id="rId2591" tooltip="地鼠"/>
+    <hyperlink ref="U52" r:id="rId2592" tooltip="三地鼠"/>
+    <hyperlink ref="U53" r:id="rId2593" tooltip="喵喵"/>
+    <hyperlink ref="U54" r:id="rId2594" tooltip="猫老大"/>
+    <hyperlink ref="U55" r:id="rId2595" tooltip="可达鸭"/>
+    <hyperlink ref="U56" r:id="rId2596" tooltip="哥达鸭"/>
+    <hyperlink ref="U57" r:id="rId2597" tooltip="猴怪"/>
+    <hyperlink ref="U58" r:id="rId2598" tooltip="火暴猴"/>
+    <hyperlink ref="U59" r:id="rId2599" tooltip="卡蒂狗"/>
+    <hyperlink ref="U60" r:id="rId2600" tooltip="风速狗" display="风速狗"/>
+    <hyperlink ref="U61" r:id="rId2601" tooltip="蚊香蝌蚪"/>
+    <hyperlink ref="U62" r:id="rId2602" tooltip="蚊香君"/>
+    <hyperlink ref="U63" r:id="rId2603" tooltip="蚊香泳士"/>
+    <hyperlink ref="U64" r:id="rId2604" tooltip="凯西"/>
+    <hyperlink ref="U65" r:id="rId2605" tooltip="勇基拉"/>
+    <hyperlink ref="U66" r:id="rId2606" tooltip="胡地"/>
+    <hyperlink ref="U67" r:id="rId2607" tooltip="腕力"/>
+    <hyperlink ref="U68" r:id="rId2608" tooltip="豪力"/>
+    <hyperlink ref="U69" r:id="rId2609" tooltip="怪力"/>
+    <hyperlink ref="U70" r:id="rId2610" tooltip="喇叭芽"/>
+    <hyperlink ref="U71" r:id="rId2611" tooltip="口呆花"/>
+    <hyperlink ref="U72" r:id="rId2612" tooltip="大食花"/>
+    <hyperlink ref="U73" r:id="rId2613" tooltip="玛瑙水母"/>
+    <hyperlink ref="U74" r:id="rId2614" tooltip="毒刺水母"/>
+    <hyperlink ref="U75" r:id="rId2615" tooltip="小拳石"/>
+    <hyperlink ref="U76" r:id="rId2616" tooltip="隆隆石"/>
+    <hyperlink ref="U77" r:id="rId2617" tooltip="隆隆岩"/>
+    <hyperlink ref="U78" r:id="rId2618" tooltip="小火马"/>
+    <hyperlink ref="U79" r:id="rId2619" tooltip="烈焰马"/>
+    <hyperlink ref="U80" r:id="rId2620" tooltip="呆呆兽"/>
+    <hyperlink ref="U81" r:id="rId2621" tooltip="呆壳兽" display="呆壳兽"/>
+    <hyperlink ref="U82" r:id="rId2622" tooltip="小磁怪"/>
+    <hyperlink ref="U83" r:id="rId2623" tooltip="三合一磁怪"/>
+    <hyperlink ref="U84" r:id="rId2624" tooltip="大葱鸭"/>
+    <hyperlink ref="U85" r:id="rId2625" tooltip="嘟嘟"/>
+    <hyperlink ref="U86" r:id="rId2626" tooltip="嘟嘟利"/>
+    <hyperlink ref="U87" r:id="rId2627" tooltip="小海狮"/>
+    <hyperlink ref="U88" r:id="rId2628" tooltip="白海狮"/>
+    <hyperlink ref="U89" r:id="rId2629" tooltip="臭泥"/>
+    <hyperlink ref="U90" r:id="rId2630" tooltip="臭臭泥"/>
+    <hyperlink ref="U91" r:id="rId2631" tooltip="大舌贝"/>
+    <hyperlink ref="U92" r:id="rId2632" tooltip="刺甲贝"/>
+    <hyperlink ref="U93" r:id="rId2633" tooltip="鬼斯"/>
+    <hyperlink ref="U94" r:id="rId2634" tooltip="鬼斯通"/>
+    <hyperlink ref="U95" r:id="rId2635" tooltip="耿鬼"/>
+    <hyperlink ref="U96" r:id="rId2636" tooltip="大岩蛇"/>
+    <hyperlink ref="U97" r:id="rId2637" tooltip="催眠貘"/>
+    <hyperlink ref="U98" r:id="rId2638" tooltip="引梦貘人"/>
+    <hyperlink ref="U99" r:id="rId2639" tooltip="大钳蟹"/>
+    <hyperlink ref="U100" r:id="rId2640" tooltip="巨钳蟹"/>
+    <hyperlink ref="U101" r:id="rId2641" tooltip="霹雳电球"/>
+    <hyperlink ref="U102" r:id="rId2642" tooltip="顽皮雷弹"/>
+    <hyperlink ref="U103" r:id="rId2643" tooltip="蛋蛋"/>
+    <hyperlink ref="U104" r:id="rId2644" tooltip="椰蛋树"/>
+    <hyperlink ref="U105" r:id="rId2645" tooltip="卡拉卡拉"/>
+    <hyperlink ref="U106" r:id="rId2646" tooltip="嘎啦嘎啦"/>
+    <hyperlink ref="U107" r:id="rId2647" tooltip="飞腿郎"/>
+    <hyperlink ref="U108" r:id="rId2648" tooltip="快拳郎"/>
+    <hyperlink ref="U109" r:id="rId2649" tooltip="大舌头"/>
+    <hyperlink ref="U110" r:id="rId2650" tooltip="瓦斯弹"/>
+    <hyperlink ref="U111" r:id="rId2651" tooltip="双弹瓦斯"/>
+    <hyperlink ref="U112" r:id="rId2652" tooltip="独角犀牛"/>
+    <hyperlink ref="U113" r:id="rId2653" tooltip="钻角犀兽"/>
+    <hyperlink ref="U114" r:id="rId2654" tooltip="吉利蛋" display="吉利蛋"/>
+    <hyperlink ref="U115" r:id="rId2655" tooltip="蔓藤怪"/>
+    <hyperlink ref="U116" r:id="rId2656" tooltip="袋兽"/>
+    <hyperlink ref="U117" r:id="rId2657" tooltip="墨海马"/>
+    <hyperlink ref="U118" r:id="rId2658" tooltip="海刺龙"/>
+    <hyperlink ref="U119" r:id="rId2659" tooltip="角金鱼"/>
+    <hyperlink ref="U120" r:id="rId2660" tooltip="金鱼王"/>
+    <hyperlink ref="U121" r:id="rId2661" tooltip="海星星"/>
+    <hyperlink ref="U122" r:id="rId2662" tooltip="宝石海星"/>
+    <hyperlink ref="U123" r:id="rId2663" tooltip="魔墙人偶"/>
+    <hyperlink ref="U124" r:id="rId2664" tooltip="飞天螳螂"/>
+    <hyperlink ref="U125" r:id="rId2665" tooltip="迷唇姐"/>
+    <hyperlink ref="U126" r:id="rId2666" tooltip="电击兽"/>
+    <hyperlink ref="U127" r:id="rId2667" tooltip="鸭嘴火兽"/>
+    <hyperlink ref="U128" r:id="rId2668" tooltip="凯罗斯"/>
+    <hyperlink ref="U129" r:id="rId2669" tooltip="肯泰罗" display="肯泰罗"/>
+    <hyperlink ref="U130" r:id="rId2670" tooltip="鲤鱼王" display="鲤鱼王"/>
+    <hyperlink ref="U131" r:id="rId2671" tooltip="暴鲤龙"/>
+    <hyperlink ref="U132" r:id="rId2672" tooltip="拉普拉斯"/>
+    <hyperlink ref="U133" r:id="rId2673" tooltip="百变怪"/>
+    <hyperlink ref="U134" r:id="rId2674" tooltip="伊布"/>
+    <hyperlink ref="U135" r:id="rId2675" tooltip="水伊布"/>
+    <hyperlink ref="U136" r:id="rId2676" tooltip="雷伊布"/>
+    <hyperlink ref="U137" r:id="rId2677" tooltip="火伊布" display="火伊布"/>
+    <hyperlink ref="U138" r:id="rId2678" tooltip="多边兽"/>
+    <hyperlink ref="U139" r:id="rId2679" tooltip="菊石兽"/>
+    <hyperlink ref="U140" r:id="rId2680" tooltip="多刺菊石兽"/>
+    <hyperlink ref="U141" r:id="rId2681" tooltip="化石盔"/>
+    <hyperlink ref="U142" r:id="rId2682" tooltip="镰刀盔"/>
+    <hyperlink ref="U143" r:id="rId2683" tooltip="化石翼龙"/>
+    <hyperlink ref="U144" r:id="rId2684" tooltip="卡比兽"/>
+    <hyperlink ref="U145" r:id="rId2685" tooltip="急冻鸟"/>
+    <hyperlink ref="U146" r:id="rId2686" tooltip="闪电鸟"/>
+    <hyperlink ref="U147" r:id="rId2687" tooltip="火焰鸟"/>
+    <hyperlink ref="U148" r:id="rId2688" tooltip="迷你龙"/>
+    <hyperlink ref="U149" r:id="rId2689" tooltip="哈克龙"/>
+    <hyperlink ref="U150" r:id="rId2690" tooltip="快龙" display="快龙"/>
+    <hyperlink ref="U151" r:id="rId2691" tooltip="超梦"/>
+    <hyperlink ref="U152" r:id="rId2692" tooltip="梦幻"/>
+    <hyperlink ref="U153" r:id="rId2693" tooltip="菊草叶"/>
+    <hyperlink ref="U154" r:id="rId2694" tooltip="月桂叶"/>
+    <hyperlink ref="U155" r:id="rId2695" tooltip="大竺葵"/>
+    <hyperlink ref="U156" r:id="rId2696" tooltip="火球鼠"/>
+    <hyperlink ref="U157" r:id="rId2697" tooltip="火岩鼠"/>
+    <hyperlink ref="U158" r:id="rId2698" tooltip="火暴兽"/>
+    <hyperlink ref="U159" r:id="rId2699" tooltip="小锯鳄"/>
+    <hyperlink ref="U160" r:id="rId2700" tooltip="蓝鳄"/>
+    <hyperlink ref="U161" r:id="rId2701" tooltip="大力鳄"/>
+    <hyperlink ref="U162" r:id="rId2702" tooltip="尾立"/>
+    <hyperlink ref="U163" r:id="rId2703" tooltip="大尾立"/>
+    <hyperlink ref="U164" r:id="rId2704" tooltip="咕咕"/>
+    <hyperlink ref="U165" r:id="rId2705" tooltip="猫头夜鹰"/>
+    <hyperlink ref="U166" r:id="rId2706" tooltip="芭瓢虫"/>
+    <hyperlink ref="U167" r:id="rId2707" tooltip="安瓢虫"/>
+    <hyperlink ref="U168" r:id="rId2708" tooltip="圆丝蛛"/>
+    <hyperlink ref="U169" r:id="rId2709" tooltip="阿利多斯"/>
+    <hyperlink ref="U170" r:id="rId2710" tooltip="叉字蝠"/>
+    <hyperlink ref="U171" r:id="rId2711" tooltip="灯笼鱼"/>
+    <hyperlink ref="U172" r:id="rId2712" tooltip="电灯怪"/>
+    <hyperlink ref="U173" r:id="rId2713" tooltip="皮丘"/>
+    <hyperlink ref="U174" r:id="rId2714" tooltip="皮宝宝"/>
+    <hyperlink ref="U175" r:id="rId2715" tooltip="宝宝丁"/>
+    <hyperlink ref="U176" r:id="rId2716" tooltip="波克比"/>
+    <hyperlink ref="U177" r:id="rId2717" tooltip="波克基古"/>
+    <hyperlink ref="U178" r:id="rId2718" tooltip="天然雀"/>
+    <hyperlink ref="U179" r:id="rId2719" tooltip="天然鸟"/>
+    <hyperlink ref="U180" r:id="rId2720" tooltip="咩利羊"/>
+    <hyperlink ref="U181" r:id="rId2721" tooltip="茸茸羊"/>
+    <hyperlink ref="U182" r:id="rId2722" tooltip="电龙"/>
+    <hyperlink ref="U183" r:id="rId2723" tooltip="美丽花"/>
+    <hyperlink ref="U184" r:id="rId2724" tooltip="玛力露"/>
+    <hyperlink ref="U185" r:id="rId2725" tooltip="玛力露丽" display="玛力露丽"/>
+    <hyperlink ref="U186" r:id="rId2726" tooltip="树才怪"/>
+    <hyperlink ref="U187" r:id="rId2727" tooltip="蚊香蛙皇"/>
+    <hyperlink ref="U188" r:id="rId2728" tooltip="毽子草"/>
+    <hyperlink ref="U189" r:id="rId2729" tooltip="毽子花"/>
+    <hyperlink ref="U190" r:id="rId2730" tooltip="毽子棉"/>
+    <hyperlink ref="U191" r:id="rId2731" tooltip="长尾怪手"/>
+    <hyperlink ref="U192" r:id="rId2732" tooltip="向日种子" display="向日种子"/>
+    <hyperlink ref="U193" r:id="rId2733" tooltip="向日花怪"/>
+    <hyperlink ref="U194" r:id="rId2734" tooltip="蜻蜻蜓"/>
+    <hyperlink ref="U195" r:id="rId2735" tooltip="乌波"/>
+    <hyperlink ref="U196" r:id="rId2736" tooltip="沼王"/>
+    <hyperlink ref="U197" r:id="rId2737" tooltip="太阳伊布" display="太阳伊布"/>
+    <hyperlink ref="U198" r:id="rId2738" tooltip="月亮伊布" display="月亮伊布"/>
+    <hyperlink ref="U199" r:id="rId2739" tooltip="黑暗鸦"/>
+    <hyperlink ref="U200" r:id="rId2740" tooltip="呆呆王" display="呆呆王"/>
+    <hyperlink ref="U201" r:id="rId2741" tooltip="梦妖"/>
+    <hyperlink ref="U202" r:id="rId2742" tooltip="未知图腾"/>
+    <hyperlink ref="U203" r:id="rId2743" tooltip="果然翁" display="果然翁"/>
+    <hyperlink ref="U204" r:id="rId2744" tooltip="麒麟奇"/>
+    <hyperlink ref="U205" r:id="rId2745" tooltip="榛果球"/>
+    <hyperlink ref="U206" r:id="rId2746" tooltip="佛烈托斯"/>
+    <hyperlink ref="U207" r:id="rId2747" tooltip="土龙弟弟"/>
+    <hyperlink ref="U208" r:id="rId2748" tooltip="天蝎"/>
+    <hyperlink ref="U209" r:id="rId2749" tooltip="大钢蛇"/>
+    <hyperlink ref="U210" r:id="rId2750" tooltip="布鲁"/>
+    <hyperlink ref="U211" r:id="rId2751" tooltip="布鲁皇"/>
+    <hyperlink ref="U212" r:id="rId2752" tooltip="千针鱼"/>
+    <hyperlink ref="U213" r:id="rId2753" tooltip="巨钳螳螂" display="巨钳螳螂"/>
+    <hyperlink ref="U214" r:id="rId2754" tooltip="壶壶"/>
+    <hyperlink ref="U215" r:id="rId2755" tooltip="赫拉克罗斯"/>
+    <hyperlink ref="U216" r:id="rId2756" tooltip="狃拉"/>
+    <hyperlink ref="U217" r:id="rId2757" tooltip="熊宝宝"/>
+    <hyperlink ref="U218" r:id="rId2758" tooltip="圈圈熊"/>
+    <hyperlink ref="U219" r:id="rId2759" tooltip="熔岩虫"/>
+    <hyperlink ref="U220" r:id="rId2760" tooltip="熔岩蜗牛"/>
+    <hyperlink ref="U221" r:id="rId2761" tooltip="小山猪"/>
+    <hyperlink ref="U222" r:id="rId2762" tooltip="长毛猪"/>
+    <hyperlink ref="U223" r:id="rId2763" tooltip="太阳珊瑚"/>
+    <hyperlink ref="U224" r:id="rId2764" tooltip="铁炮鱼"/>
+    <hyperlink ref="U225" r:id="rId2765" tooltip="章鱼桶"/>
+    <hyperlink ref="U226" r:id="rId2766" tooltip="信使鸟"/>
+    <hyperlink ref="U227" r:id="rId2767" tooltip="巨翅飞鱼"/>
+    <hyperlink ref="U228" r:id="rId2768" tooltip="盔甲鸟" display="盔甲鸟"/>
+    <hyperlink ref="U229" r:id="rId2769" tooltip="戴鲁比"/>
+    <hyperlink ref="U230" r:id="rId2770" tooltip="黑鲁加"/>
+    <hyperlink ref="U231" r:id="rId2771" tooltip="刺龙王"/>
+    <hyperlink ref="U232" r:id="rId2772" tooltip="小小象"/>
+    <hyperlink ref="U233" r:id="rId2773" tooltip="顿甲"/>
+    <hyperlink ref="U234" r:id="rId2774" tooltip="多边兽Ⅱ" display="多边兽Ⅱ"/>
+    <hyperlink ref="U235" r:id="rId2775" tooltip="惊角鹿"/>
+    <hyperlink ref="U236" r:id="rId2776" tooltip="图图犬" display="图图犬"/>
+    <hyperlink ref="U237" r:id="rId2777" tooltip="无畏小子"/>
+    <hyperlink ref="U238" r:id="rId2778" tooltip="战舞郎"/>
+    <hyperlink ref="U239" r:id="rId2779" tooltip="迷唇娃"/>
+    <hyperlink ref="U240" r:id="rId2780" tooltip="电击怪"/>
+    <hyperlink ref="U241" r:id="rId2781" tooltip="鸭嘴宝宝"/>
+    <hyperlink ref="U242" r:id="rId2782" tooltip="大奶罐"/>
+    <hyperlink ref="U243" r:id="rId2783" tooltip="幸福蛋" display="幸福蛋"/>
+    <hyperlink ref="U244" r:id="rId2784" tooltip="雷公"/>
+    <hyperlink ref="U245" r:id="rId2785" tooltip="炎帝" display="炎帝"/>
+    <hyperlink ref="U246" r:id="rId2786" tooltip="水君"/>
+    <hyperlink ref="U247" r:id="rId2787" tooltip="幼基拉斯"/>
+    <hyperlink ref="U248" r:id="rId2788" tooltip="沙基拉斯"/>
+    <hyperlink ref="U249" r:id="rId2789" tooltip="班基拉斯" display="班基拉斯"/>
+    <hyperlink ref="U250" r:id="rId2790" tooltip="洛奇亚" display="洛奇亚"/>
+    <hyperlink ref="U251" r:id="rId2791" tooltip="凤王"/>
+    <hyperlink ref="U252" r:id="rId2792" tooltip="时拉比"/>
+    <hyperlink ref="U253" r:id="rId2793" tooltip="木守宫"/>
+    <hyperlink ref="U254" r:id="rId2794" tooltip="森林蜥蜴"/>
+    <hyperlink ref="U255" r:id="rId2795" tooltip="蜥蜴王"/>
+    <hyperlink ref="U256" r:id="rId2796" tooltip="火稚鸡"/>
+    <hyperlink ref="U257" r:id="rId2797" tooltip="力壮鸡"/>
+    <hyperlink ref="U258" r:id="rId2798" tooltip="火焰鸡" display="火焰鸡"/>
+    <hyperlink ref="U259" r:id="rId2799" tooltip="水跃鱼"/>
+    <hyperlink ref="U260" r:id="rId2800" tooltip="沼跃鱼"/>
+    <hyperlink ref="U261" r:id="rId2801" tooltip="巨沼怪"/>
+    <hyperlink ref="U262" r:id="rId2802" tooltip="土狼犬"/>
+    <hyperlink ref="U263" r:id="rId2803" tooltip="大狼犬"/>
+    <hyperlink ref="U264" r:id="rId2804" tooltip="蛇纹熊"/>
+    <hyperlink ref="U265" r:id="rId2805" tooltip="直冲熊"/>
+    <hyperlink ref="U266" r:id="rId2806" tooltip="刺尾虫"/>
+    <hyperlink ref="U267" r:id="rId2807" tooltip="甲壳茧"/>
+    <hyperlink ref="U268" r:id="rId2808" tooltip="狩猎凤蝶"/>
+    <hyperlink ref="U269" r:id="rId2809" tooltip="盾甲茧"/>
+    <hyperlink ref="U270" r:id="rId2810" tooltip="毒粉蛾"/>
+    <hyperlink ref="U271" r:id="rId2811" tooltip="莲叶童子"/>
+    <hyperlink ref="U272" r:id="rId2812" tooltip="莲帽小童"/>
+    <hyperlink ref="U273" r:id="rId2813" tooltip="乐天河童" display="乐天河童"/>
+    <hyperlink ref="U274" r:id="rId2814" tooltip="橡实果"/>
+    <hyperlink ref="U275" r:id="rId2815" tooltip="长鼻叶"/>
+    <hyperlink ref="U276" r:id="rId2816" tooltip="狡猾天狗"/>
+    <hyperlink ref="U277" r:id="rId2817" tooltip="傲骨燕"/>
+    <hyperlink ref="U278" r:id="rId2818" tooltip="大王燕" display="大王燕"/>
+    <hyperlink ref="U279" r:id="rId2819" tooltip="长翅鸥"/>
+    <hyperlink ref="U280" r:id="rId2820" tooltip="大嘴鸥"/>
+    <hyperlink ref="U281" r:id="rId2821" tooltip="拉鲁拉丝" display="拉鲁拉丝"/>
+    <hyperlink ref="U282" r:id="rId2822" tooltip="奇鲁莉安" display="奇鲁莉安"/>
+    <hyperlink ref="U283" r:id="rId2823" tooltip="沙奈朵" display="沙奈朵"/>
+    <hyperlink ref="U284" r:id="rId2824" tooltip="溜溜糖球"/>
+    <hyperlink ref="U285" r:id="rId2825" tooltip="雨翅蛾"/>
+    <hyperlink ref="U286" r:id="rId2826" tooltip="蘑蘑菇"/>
+    <hyperlink ref="U287" r:id="rId2827" tooltip="斗笠菇" display="斗笠菇"/>
+    <hyperlink ref="U288" r:id="rId2828" tooltip="懒人獭"/>
+    <hyperlink ref="U289" r:id="rId2829" tooltip="过动猿"/>
+    <hyperlink ref="U290" r:id="rId2830" tooltip="请假王"/>
+    <hyperlink ref="U291" r:id="rId2831" tooltip="土居忍士"/>
+    <hyperlink ref="U292" r:id="rId2832" tooltip="铁面忍者" display="铁面忍者"/>
+    <hyperlink ref="U293" r:id="rId2833" tooltip="脱壳忍者" display="脱壳忍者"/>
+    <hyperlink ref="U294" r:id="rId2834" tooltip="咕妞妞"/>
+    <hyperlink ref="U295" r:id="rId2835" tooltip="吼爆弹"/>
+    <hyperlink ref="U296" r:id="rId2836" tooltip="爆音怪"/>
+    <hyperlink ref="U297" r:id="rId2837" tooltip="幕下力士" display="幕下力士"/>
+    <hyperlink ref="U298" r:id="rId2838" tooltip="铁掌力士"/>
+    <hyperlink ref="U299" r:id="rId2839" tooltip="露力丽"/>
+    <hyperlink ref="U300" r:id="rId2840" tooltip="朝北鼻"/>
+    <hyperlink ref="U301" r:id="rId2841" tooltip="向尾喵"/>
+    <hyperlink ref="U302" r:id="rId2842" tooltip="优雅猫"/>
+    <hyperlink ref="U303" r:id="rId2843" tooltip="勾魂眼"/>
+    <hyperlink ref="U304" r:id="rId2844" tooltip="大嘴娃"/>
+    <hyperlink ref="U305" r:id="rId2845" tooltip="可可多拉"/>
+    <hyperlink ref="U306" r:id="rId2846" tooltip="可多拉"/>
+    <hyperlink ref="U307" r:id="rId2847" tooltip="波士可多拉"/>
+    <hyperlink ref="U308" r:id="rId2848" tooltip="玛沙那"/>
+    <hyperlink ref="U309" r:id="rId2849" tooltip="恰雷姆" display="恰雷姆"/>
+    <hyperlink ref="U310" r:id="rId2850" tooltip="落雷兽"/>
+    <hyperlink ref="U311" r:id="rId2851" tooltip="雷电兽"/>
+    <hyperlink ref="U312" r:id="rId2852" tooltip="正电拍拍"/>
+    <hyperlink ref="U313" r:id="rId2853" tooltip="负电拍拍"/>
+    <hyperlink ref="U314" r:id="rId2854" tooltip="电萤虫"/>
+    <hyperlink ref="U315" r:id="rId2855" tooltip="甜甜萤"/>
+    <hyperlink ref="U316" r:id="rId2856" tooltip="毒蔷薇"/>
+    <hyperlink ref="U317" r:id="rId2857" tooltip="溶食兽"/>
+    <hyperlink ref="U318" r:id="rId2858" tooltip="吞食兽"/>
+    <hyperlink ref="U319" r:id="rId2859" tooltip="利牙鱼"/>
+    <hyperlink ref="U320" r:id="rId2860" tooltip="巨牙鲨"/>
+    <hyperlink ref="U321" r:id="rId2861" tooltip="吼吼鲸" display="吼吼鲸"/>
+    <hyperlink ref="U322" r:id="rId2862" tooltip="吼鲸王"/>
+    <hyperlink ref="U323" r:id="rId2863" tooltip="呆火驼"/>
+    <hyperlink ref="U324" r:id="rId2864" tooltip="喷火驼"/>
+    <hyperlink ref="U325" r:id="rId2865" tooltip="煤炭龟"/>
+    <hyperlink ref="U326" r:id="rId2866" tooltip="跳跳猪"/>
+    <hyperlink ref="U327" r:id="rId2867" tooltip="噗噗猪"/>
+    <hyperlink ref="U328" r:id="rId2868" tooltip="晃晃斑"/>
+    <hyperlink ref="U329" r:id="rId2869" tooltip="大颚蚁"/>
+    <hyperlink ref="U330" r:id="rId2870" tooltip="超音波幼虫"/>
+    <hyperlink ref="U331" r:id="rId2871" tooltip="沙漠蜻蜓" display="沙漠蜻蜓"/>
+    <hyperlink ref="U332" r:id="rId2872" tooltip="刺球仙人掌"/>
+    <hyperlink ref="U333" r:id="rId2873" tooltip="梦歌仙人掌"/>
+    <hyperlink ref="U334" r:id="rId2874" tooltip="青绵鸟"/>
+    <hyperlink ref="U335" r:id="rId2875" tooltip="七夕青鸟"/>
+    <hyperlink ref="U336" r:id="rId2876" tooltip="猫鼬斩"/>
+    <hyperlink ref="U337" r:id="rId2877" tooltip="饭匙蛇"/>
+    <hyperlink ref="U338" r:id="rId2878" tooltip="月石"/>
+    <hyperlink ref="U339" r:id="rId2879" tooltip="太阳岩"/>
+    <hyperlink ref="U340" r:id="rId2880" tooltip="泥泥鳅"/>
+    <hyperlink ref="U341" r:id="rId2881" tooltip="鲶鱼王"/>
+    <hyperlink ref="U342" r:id="rId2882" tooltip="龙虾小兵"/>
+    <hyperlink ref="U343" r:id="rId2883" tooltip="铁螯龙虾"/>
+    <hyperlink ref="U344" r:id="rId2884" tooltip="天秤偶"/>
+    <hyperlink ref="U345" r:id="rId2885" tooltip="念力土偶"/>
+    <hyperlink ref="U346" r:id="rId2886" tooltip="触手百合"/>
+    <hyperlink ref="U347" r:id="rId2887" tooltip="摇篮百合" display="摇篮百合"/>
+    <hyperlink ref="U348" r:id="rId2888" tooltip="太古羽虫"/>
+    <hyperlink ref="U349" r:id="rId2889" tooltip="太古盔甲"/>
+    <hyperlink ref="U350" r:id="rId2890" tooltip="丑丑鱼" display="丑丑鱼"/>
+    <hyperlink ref="U351" r:id="rId2891" tooltip="美纳斯" display="美纳斯"/>
+    <hyperlink ref="U352" r:id="rId2892" tooltip="飘浮泡泡"/>
+    <hyperlink ref="U353" r:id="rId2893" tooltip="变隐龙"/>
+    <hyperlink ref="U354" r:id="rId2894" tooltip="怨影娃娃"/>
+    <hyperlink ref="U355" r:id="rId2895" tooltip="诅咒娃娃" display="诅咒娃娃"/>
+    <hyperlink ref="U356" r:id="rId2896" tooltip="夜巡灵"/>
+    <hyperlink ref="U357" r:id="rId2897" tooltip="彷徨夜灵"/>
+    <hyperlink ref="U358" r:id="rId2898" tooltip="热带龙" display="热带龙"/>
+    <hyperlink ref="U359" r:id="rId2899" tooltip="风铃铃"/>
+    <hyperlink ref="U360" r:id="rId2900" tooltip="阿勃梭鲁" display="阿勃梭鲁"/>
+    <hyperlink ref="U361" r:id="rId2901" tooltip="小果然"/>
+    <hyperlink ref="U362" r:id="rId2902" tooltip="雪童子"/>
+    <hyperlink ref="U363" r:id="rId2903" tooltip="冰鬼护"/>
+    <hyperlink ref="U364" r:id="rId2904" tooltip="海豹球"/>
+    <hyperlink ref="U365" r:id="rId2905" tooltip="海魔狮"/>
+    <hyperlink ref="U366" r:id="rId2906" tooltip="帝牙海狮"/>
+    <hyperlink ref="U367" r:id="rId2907" tooltip="珍珠贝"/>
+    <hyperlink ref="U368" r:id="rId2908" tooltip="猎斑鱼"/>
+    <hyperlink ref="U369" r:id="rId2909" tooltip="樱花鱼"/>
+    <hyperlink ref="U370" r:id="rId2910" tooltip="古空棘鱼"/>
+    <hyperlink ref="U371" r:id="rId2911" tooltip="爱心鱼"/>
+    <hyperlink ref="U372" r:id="rId2912" tooltip="宝贝龙"/>
+    <hyperlink ref="U373" r:id="rId2913" tooltip="甲壳龙"/>
+    <hyperlink ref="U374" r:id="rId2914" tooltip="暴飞龙" display="暴飞龙"/>
+    <hyperlink ref="U375" r:id="rId2915" tooltip="铁哑铃"/>
+    <hyperlink ref="U376" r:id="rId2916" tooltip="金属怪"/>
+    <hyperlink ref="U377" r:id="rId2917" tooltip="巨金怪" display="巨金怪"/>
+    <hyperlink ref="U378" r:id="rId2918" tooltip="雷吉洛克" display="雷吉洛克"/>
+    <hyperlink ref="U379" r:id="rId2919" tooltip="雷吉艾斯" display="雷吉艾斯"/>
+    <hyperlink ref="U380" r:id="rId2920" tooltip="雷吉斯奇鲁" display="雷吉斯奇鲁"/>
+    <hyperlink ref="U381" r:id="rId2921" tooltip="拉帝亚斯" display="拉帝亚斯"/>
+    <hyperlink ref="U382" r:id="rId2922" tooltip="拉帝欧斯" display="拉帝欧斯"/>
+    <hyperlink ref="U383" r:id="rId2923" tooltip="盖欧卡" display="盖欧卡"/>
+    <hyperlink ref="U384" r:id="rId2924" tooltip="固拉多" display="固拉多"/>
+    <hyperlink ref="U385" r:id="rId2925" tooltip="烈空坐" display="烈空坐"/>
+    <hyperlink ref="U386" r:id="rId2926" tooltip="基拉祈" display="基拉祈"/>
+    <hyperlink ref="U387" r:id="rId2927" tooltip="代欧奇希斯" display="代欧奇希斯"/>
+    <hyperlink ref="U388" r:id="rId2928" tooltip="草苗龟"/>
+    <hyperlink ref="U389" r:id="rId2929" tooltip="树林龟"/>
+    <hyperlink ref="U390" r:id="rId2930" tooltip="土台龟"/>
+    <hyperlink ref="U391" r:id="rId2931" tooltip="小火焰猴"/>
+    <hyperlink ref="U392" r:id="rId2932" tooltip="猛火猴"/>
+    <hyperlink ref="U393" r:id="rId2933" tooltip="烈焰猴" display="烈焰猴"/>
+    <hyperlink ref="U394" r:id="rId2934" tooltip="波加曼"/>
+    <hyperlink ref="U395" r:id="rId2935" tooltip="波皇子"/>
+    <hyperlink ref="U396" r:id="rId2936" tooltip="帝王拿波"/>
+    <hyperlink ref="U397" r:id="rId2937" tooltip="姆克儿"/>
+    <hyperlink ref="U398" r:id="rId2938" tooltip="姆克鸟"/>
+    <hyperlink ref="U399" r:id="rId2939" tooltip="姆克鹰" display="姆克鹰"/>
+    <hyperlink ref="U400" r:id="rId2940" tooltip="大牙狸"/>
+    <hyperlink ref="U401" r:id="rId2941" tooltip="大尾狸"/>
+    <hyperlink ref="U402" r:id="rId2942" tooltip="圆法师"/>
+    <hyperlink ref="U403" r:id="rId2943" tooltip="音箱蟀"/>
+    <hyperlink ref="U404" r:id="rId2944" tooltip="小猫怪"/>
+    <hyperlink ref="U405" r:id="rId2945" tooltip="勒克猫"/>
+    <hyperlink ref="U406" r:id="rId2946" tooltip="伦琴猫"/>
+    <hyperlink ref="U407" r:id="rId2947" tooltip="含羞苞"/>
+    <hyperlink ref="U408" r:id="rId2948" tooltip="罗丝雷朵"/>
+    <hyperlink ref="U409" r:id="rId2949" tooltip="头盖龙"/>
+    <hyperlink ref="U410" r:id="rId2950" tooltip="战槌龙"/>
+    <hyperlink ref="U411" r:id="rId2951" tooltip="盾甲龙"/>
+    <hyperlink ref="U412" r:id="rId2952" tooltip="护城龙"/>
+    <hyperlink ref="U413" r:id="rId2953" tooltip="结草儿"/>
+    <hyperlink ref="U414" r:id="rId2954" tooltip="结草贵妇"/>
+    <hyperlink ref="U480" r:id="rId2955" tooltip="洛托姆"/>
+    <hyperlink ref="U479" r:id="rId2956" tooltip="雪妖女"/>
+    <hyperlink ref="U478" r:id="rId2957" tooltip="黑夜魔灵"/>
+    <hyperlink ref="U477" r:id="rId2958" tooltip="大朝北鼻"/>
+    <hyperlink ref="U476" r:id="rId2959" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="U475" r:id="rId2960" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="U474" r:id="rId2961" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="U473" r:id="rId2962" tooltip="天蝎王"/>
+    <hyperlink ref="U472" r:id="rId2963" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="U471" r:id="rId2964" tooltip="叶伊布" display="叶伊布"/>
+    <hyperlink ref="U470" r:id="rId2965" tooltip="远古巨蜓"/>
+    <hyperlink ref="U469" r:id="rId2966" tooltip="波克基斯" display="波克基斯"/>
+    <hyperlink ref="U468" r:id="rId2967" tooltip="鸭嘴炎兽"/>
+    <hyperlink ref="U467" r:id="rId2968" tooltip="电击魔兽"/>
+    <hyperlink ref="U466" r:id="rId2969" tooltip="巨蔓藤"/>
+    <hyperlink ref="U465" r:id="rId2970" tooltip="超甲狂犀"/>
+    <hyperlink ref="U464" r:id="rId2971" tooltip="大舌舔"/>
+    <hyperlink ref="U463" r:id="rId2972" tooltip="自爆磁怪" display="自爆磁怪"/>
+    <hyperlink ref="U462" r:id="rId2973" tooltip="玛狃拉" display="玛狃拉"/>
+    <hyperlink ref="U461" r:id="rId2974" tooltip="暴雪王"/>
+    <hyperlink ref="U460" r:id="rId2975" tooltip="雪笠怪"/>
+    <hyperlink ref="U459" r:id="rId2976" tooltip="小球飞鱼"/>
+    <hyperlink ref="U458" r:id="rId2977" tooltip="霓虹鱼"/>
+    <hyperlink ref="U457" r:id="rId2978" tooltip="荧光鱼"/>
+    <hyperlink ref="U456" r:id="rId2979" tooltip="尖牙笼" display="尖牙笼"/>
+    <hyperlink ref="U455" r:id="rId2980" tooltip="毒骷蛙"/>
+    <hyperlink ref="U454" r:id="rId2981" tooltip="不良蛙"/>
+    <hyperlink ref="U453" r:id="rId2982" tooltip="龙王蝎"/>
+    <hyperlink ref="U452" r:id="rId2983" tooltip="钳尾蝎"/>
+    <hyperlink ref="U451" r:id="rId2984" tooltip="河马兽"/>
+    <hyperlink ref="U450" r:id="rId2985" tooltip="沙河马"/>
+    <hyperlink ref="U449" r:id="rId2986" tooltip="路卡利欧"/>
+    <hyperlink ref="U448" r:id="rId2987" tooltip="利欧路"/>
+    <hyperlink ref="U447" r:id="rId2988" tooltip="小卡比兽"/>
+    <hyperlink ref="U446" r:id="rId2989" tooltip="烈咬陆鲨" display="烈咬陆鲨"/>
+    <hyperlink ref="U445" r:id="rId2990" tooltip="尖牙陆鲨"/>
+    <hyperlink ref="U444" r:id="rId2991" tooltip="圆陆鲨"/>
+    <hyperlink ref="U443" r:id="rId2992" tooltip="花岩怪"/>
+    <hyperlink ref="U442" r:id="rId2993" tooltip="聒噪鸟"/>
+    <hyperlink ref="U441" r:id="rId2994" tooltip="小福蛋"/>
+    <hyperlink ref="U440" r:id="rId2995" tooltip="魔尼尼"/>
+    <hyperlink ref="U439" r:id="rId2996" tooltip="盆才怪" display="盆才怪"/>
+    <hyperlink ref="U438" r:id="rId2997" tooltip="青铜钟"/>
+    <hyperlink ref="U437" r:id="rId2998" tooltip="铜镜怪"/>
+    <hyperlink ref="U436" r:id="rId2999" tooltip="坦克臭鼬"/>
+    <hyperlink ref="U435" r:id="rId3000" tooltip="臭鼬噗"/>
+    <hyperlink ref="U434" r:id="rId3001" tooltip="铃铛响"/>
+    <hyperlink ref="U433" r:id="rId3002" tooltip="东施喵"/>
+    <hyperlink ref="U432" r:id="rId3003" tooltip="魅力喵"/>
+    <hyperlink ref="U431" r:id="rId3004" tooltip="乌鸦头头"/>
+    <hyperlink ref="U430" r:id="rId3005" tooltip="梦妖魔"/>
+    <hyperlink ref="U429" r:id="rId3006" tooltip="长耳兔" display="长耳兔"/>
+    <hyperlink ref="U428" r:id="rId3007" tooltip="卷卷耳"/>
+    <hyperlink ref="U427" r:id="rId3008" tooltip="随风球"/>
+    <hyperlink ref="U426" r:id="rId3009" tooltip="飘飘球"/>
+    <hyperlink ref="U425" r:id="rId3010" tooltip="双尾怪手"/>
+    <hyperlink ref="U424" r:id="rId3011" tooltip="海兔兽"/>
+    <hyperlink ref="U423" r:id="rId3012" tooltip="无壳海兔"/>
+    <hyperlink ref="U422" r:id="rId3013" tooltip="樱花儿"/>
+    <hyperlink ref="U421" r:id="rId3014" tooltip="樱花宝"/>
+    <hyperlink ref="U420" r:id="rId3015" tooltip="浮潜鼬"/>
+    <hyperlink ref="U419" r:id="rId3016" tooltip="泳圈鼬"/>
+    <hyperlink ref="U418" r:id="rId3017" tooltip="帕奇利兹" display="帕奇利兹"/>
+    <hyperlink ref="U417" r:id="rId3018" tooltip="蜂女王"/>
+    <hyperlink ref="U416" r:id="rId3019" tooltip="三蜜蜂"/>
+    <hyperlink ref="U415" r:id="rId3020" tooltip="绅士蛾"/>
+    <hyperlink ref="U487" r:id="rId3021" tooltip="大朝北鼻" display="大朝北鼻"/>
+    <hyperlink ref="U486" r:id="rId3022" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="U485" r:id="rId3023" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="U484" r:id="rId3024" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="U483" r:id="rId3025" tooltip="天蝎王" display="天蝎王"/>
+    <hyperlink ref="U482" r:id="rId3026" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="U481" r:id="rId3027" tooltip="叶伊布" display="叶伊布"/>
+    <hyperlink ref="U493" r:id="rId3028" tooltip="大朝北鼻" display="大朝北鼻"/>
+    <hyperlink ref="U492" r:id="rId3029" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="U491" r:id="rId3030" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="U490" r:id="rId3031" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="U488" r:id="rId3032" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="U495" r:id="rId3033" tooltip="比克提尼" display="比克提尼"/>
+    <hyperlink ref="U496" r:id="rId3034" tooltip="藤藤蛇"/>
+    <hyperlink ref="U497" r:id="rId3035" tooltip="青藤蛇"/>
+    <hyperlink ref="U498" r:id="rId3036" tooltip="君主蛇"/>
+    <hyperlink ref="U499" r:id="rId3037" tooltip="暖暖猪"/>
+    <hyperlink ref="U500" r:id="rId3038" tooltip="炒炒猪"/>
+    <hyperlink ref="U501" r:id="rId3039" tooltip="炎武王" display="炎武王"/>
+    <hyperlink ref="U502" r:id="rId3040" tooltip="水水獭" display="水水獭"/>
+    <hyperlink ref="U503" r:id="rId3041" tooltip="双刃丸"/>
+    <hyperlink ref="U504" r:id="rId3042" tooltip="大剑鬼"/>
+    <hyperlink ref="U505" r:id="rId3043" tooltip="探探鼠"/>
+    <hyperlink ref="U506" r:id="rId3044" tooltip="步哨鼠"/>
+    <hyperlink ref="U507" r:id="rId3045" tooltip="小约克"/>
+    <hyperlink ref="U508" r:id="rId3046" tooltip="哈约克"/>
+    <hyperlink ref="U509" r:id="rId3047" tooltip="长毛狗"/>
+    <hyperlink ref="U510" r:id="rId3048" tooltip="扒手猫"/>
+    <hyperlink ref="U511" r:id="rId3049" tooltip="酷豹"/>
+    <hyperlink ref="U512" r:id="rId3050" tooltip="花椰猴"/>
+    <hyperlink ref="U513" r:id="rId3051" tooltip="花椰猿"/>
+    <hyperlink ref="U514" r:id="rId3052" tooltip="爆香猴"/>
+    <hyperlink ref="U515" r:id="rId3053" tooltip="爆香猿"/>
+    <hyperlink ref="U516" r:id="rId3054" tooltip="冷水猴"/>
+    <hyperlink ref="U517" r:id="rId3055" tooltip="冷水猿"/>
+    <hyperlink ref="U518" r:id="rId3056" tooltip="食梦梦"/>
+    <hyperlink ref="U519" r:id="rId3057" tooltip="梦梦蚀"/>
+    <hyperlink ref="U520" r:id="rId3058" tooltip="豆豆鸽"/>
+    <hyperlink ref="U521" r:id="rId3059" tooltip="咕咕鸽"/>
+    <hyperlink ref="U522" r:id="rId3060" tooltip="高傲雉鸡" display="高傲雉鸡"/>
+    <hyperlink ref="U523" r:id="rId3061" tooltip="斑斑马"/>
+    <hyperlink ref="U524" r:id="rId3062" tooltip="雷电斑马"/>
+    <hyperlink ref="U525" r:id="rId3063" tooltip="石丸子"/>
+    <hyperlink ref="U526" r:id="rId3064" tooltip="地幔岩"/>
+    <hyperlink ref="U527" r:id="rId3065" tooltip="庞岩怪"/>
+    <hyperlink ref="U528" r:id="rId3066" tooltip="滚滚蝙蝠"/>
+    <hyperlink ref="U529" r:id="rId3067" tooltip="心蝙蝠"/>
+    <hyperlink ref="U530" r:id="rId3068" tooltip="螺钉地鼠"/>
+    <hyperlink ref="U531" r:id="rId3069" tooltip="龙头地鼠"/>
+    <hyperlink ref="U532" r:id="rId3070" tooltip="差不多娃娃" display="差不多娃娃"/>
+    <hyperlink ref="U533" r:id="rId3071" tooltip="搬运小匠"/>
+    <hyperlink ref="U534" r:id="rId3072" tooltip="铁骨土人"/>
+    <hyperlink ref="U535" r:id="rId3073" tooltip="修建老匠" display="修建老匠"/>
+    <hyperlink ref="U536" r:id="rId3074" tooltip="圆蝌蚪"/>
+    <hyperlink ref="U537" r:id="rId3075" tooltip="蓝蟾蜍"/>
+    <hyperlink ref="U538" r:id="rId3076" tooltip="蟾蜍王"/>
+    <hyperlink ref="U539" r:id="rId3077" tooltip="投摔鬼"/>
+    <hyperlink ref="U540" r:id="rId3078" tooltip="打击鬼"/>
+    <hyperlink ref="U541" r:id="rId3079" tooltip="虫宝包"/>
+    <hyperlink ref="U542" r:id="rId3080" tooltip="宝包茧"/>
+    <hyperlink ref="U543" r:id="rId3081" tooltip="保姆虫"/>
+    <hyperlink ref="U544" r:id="rId3082" tooltip="百足蜈蚣"/>
+    <hyperlink ref="U545" r:id="rId3083" tooltip="车轮球"/>
+    <hyperlink ref="U546" r:id="rId3084" tooltip="蜈蚣王"/>
+    <hyperlink ref="U547" r:id="rId3085" tooltip="木棉球"/>
+    <hyperlink ref="U548" r:id="rId3086" tooltip="风妖精" display="风妖精"/>
+    <hyperlink ref="U549" r:id="rId3087" tooltip="百合根娃娃"/>
+    <hyperlink ref="U550" r:id="rId3088" tooltip="裙儿小姐" display="裙儿小姐"/>
+    <hyperlink ref="U551" r:id="rId3089" tooltip="野蛮鲈鱼"/>
+    <hyperlink ref="U552" r:id="rId3090" tooltip="黑眼鳄"/>
+    <hyperlink ref="U553" r:id="rId3091" tooltip="混混鳄"/>
+    <hyperlink ref="U554" r:id="rId3092" tooltip="流氓鳄"/>
+    <hyperlink ref="U555" r:id="rId3093" tooltip="火红不倒翁"/>
+    <hyperlink ref="U651" r:id="rId3094" tooltip="哈力栗"/>
+    <hyperlink ref="U652" r:id="rId3095" tooltip="胖胖哈力"/>
+    <hyperlink ref="U653" r:id="rId3096" tooltip="布里卡隆"/>
+    <hyperlink ref="U654" r:id="rId3097" tooltip="火狐狸"/>
+    <hyperlink ref="U655" r:id="rId3098" tooltip="长尾火狐"/>
+    <hyperlink ref="U656" r:id="rId3099" tooltip="妖火红狐"/>
+    <hyperlink ref="U657" r:id="rId3100" tooltip="呱呱泡蛙"/>
+    <hyperlink ref="U658" r:id="rId3101" tooltip="呱头蛙"/>
+    <hyperlink ref="U659" r:id="rId3102" tooltip="甲贺忍蛙" display="甲贺忍蛙"/>
+    <hyperlink ref="U660" r:id="rId3103" tooltip="掘掘兔"/>
+    <hyperlink ref="U661" r:id="rId3104" tooltip="掘地兔" display="掘地兔"/>
+    <hyperlink ref="U662" r:id="rId3105" tooltip="小箭雀"/>
+    <hyperlink ref="U663" r:id="rId3106" tooltip="火箭雀"/>
+    <hyperlink ref="U664" r:id="rId3107" tooltip="烈箭鹰" display="烈箭鹰"/>
+    <hyperlink ref="U665" r:id="rId3108" tooltip="粉蝶虫"/>
+    <hyperlink ref="U666" r:id="rId3109" tooltip="粉蝶蛹"/>
+    <hyperlink ref="U667" r:id="rId3110" tooltip="彩粉蝶"/>
+    <hyperlink ref="U668" r:id="rId3111" tooltip="小狮狮"/>
+    <hyperlink ref="U669" r:id="rId3112" tooltip="火炎狮"/>
+    <hyperlink ref="U670" r:id="rId3113" tooltip="花蓓蓓"/>
+    <hyperlink ref="U671" r:id="rId3114" tooltip="花叶蒂"/>
+    <hyperlink ref="U672" r:id="rId3115" tooltip="花洁夫人"/>
+    <hyperlink ref="U673" r:id="rId3116" tooltip="坐骑小羊"/>
+    <hyperlink ref="U674" r:id="rId3117" tooltip="坐骑山羊"/>
+    <hyperlink ref="U675" r:id="rId3118" tooltip="顽皮熊猫"/>
+    <hyperlink ref="U676" r:id="rId3119" tooltip="流氓熊猫"/>
+    <hyperlink ref="U677" r:id="rId3120" tooltip="多丽米亚"/>
+    <hyperlink ref="U678" r:id="rId3121" tooltip="妙喵"/>
+    <hyperlink ref="U679" r:id="rId3122" tooltip="超能妙喵"/>
+    <hyperlink ref="U680" r:id="rId3123" tooltip="独剑鞘"/>
+    <hyperlink ref="U681" r:id="rId3124" tooltip="双剑鞘"/>
+    <hyperlink ref="U682" r:id="rId3125" tooltip="坚盾剑怪" display="坚盾剑怪"/>
+    <hyperlink ref="U713" r:id="rId3126" tooltip="冰宝"/>
+    <hyperlink ref="U714" r:id="rId3127" tooltip="冰岩怪" display="冰岩怪"/>
+    <hyperlink ref="U715" r:id="rId3128" tooltip="嗡蝠"/>
+    <hyperlink ref="U716" r:id="rId3129" tooltip="音波龙"/>
+    <hyperlink ref="U717" r:id="rId3130" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
+    <hyperlink ref="U718" r:id="rId3131" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
+    <hyperlink ref="U711" r:id="rId3132" tooltip="南瓜精"/>
+    <hyperlink ref="U712" r:id="rId3133" tooltip="南瓜怪人"/>
+    <hyperlink ref="U683" r:id="rId3134" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="U684" r:id="rId3135" tooltip="冰宝" display="冰宝"/>
+    <hyperlink ref="U685" r:id="rId3136" tooltip="冰岩怪" display="冰岩怪"/>
+    <hyperlink ref="U686" r:id="rId3137" tooltip="嗡蝠" display="嗡蝠"/>
+    <hyperlink ref="U687" r:id="rId3138" tooltip="音波龙" display="音波龙"/>
+    <hyperlink ref="U688" r:id="rId3139" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
+    <hyperlink ref="U689" r:id="rId3140" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
+    <hyperlink ref="U690" r:id="rId3141" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="U691" r:id="rId3142" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="U692" r:id="rId3143" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="U693" r:id="rId3144" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="U694" r:id="rId3145" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="U695" r:id="rId3146" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="U696" r:id="rId3147" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="U723" r:id="rId3148" tooltip="木木枭" display="木木枭"/>
+    <hyperlink ref="U724" r:id="rId3149" tooltip="投羽枭"/>
+    <hyperlink ref="U725" r:id="rId3150" tooltip="狙射树枭"/>
+    <hyperlink ref="U726" r:id="rId3151" tooltip="火斑喵"/>
+    <hyperlink ref="U727" r:id="rId3152" tooltip="炎热喵"/>
+    <hyperlink ref="U728" r:id="rId3153" tooltip="炽焰咆哮虎" display="炽焰咆哮虎"/>
+    <hyperlink ref="U729" r:id="rId3154" tooltip="球球海狮"/>
+    <hyperlink ref="U730" r:id="rId3155" tooltip="花漾海狮"/>
+    <hyperlink ref="U731" r:id="rId3156" tooltip="西狮海壬" display="西狮海壬"/>
+    <hyperlink ref="U732" r:id="rId3157" tooltip="小笃儿"/>
+    <hyperlink ref="U733" r:id="rId3158" tooltip="喇叭啄鸟"/>
+    <hyperlink ref="U734" r:id="rId3159" tooltip="铳嘴大鸟"/>
+    <hyperlink ref="U735" r:id="rId3160" tooltip="猫鼬少"/>
+    <hyperlink ref="U736" r:id="rId3161" tooltip="猫鼬探长" display="猫鼬探长"/>
+    <hyperlink ref="U737" r:id="rId3162" tooltip="强颚鸡母虫"/>
+    <hyperlink ref="U738" r:id="rId3163" tooltip="虫电宝"/>
+    <hyperlink ref="U739" r:id="rId3164" tooltip="锹农炮虫"/>
+    <hyperlink ref="U740" r:id="rId3165" tooltip="好胜蟹"/>
+    <hyperlink ref="U741" r:id="rId3166" tooltip="好胜毛蟹"/>
+    <hyperlink ref="U742" r:id="rId3167" tooltip="花舞鸟"/>
+    <hyperlink ref="U743" r:id="rId3168" tooltip="萌虻"/>
+    <hyperlink ref="U744" r:id="rId3169" tooltip="蝶结萌虻"/>
+    <hyperlink ref="U745" r:id="rId3170" tooltip="岩狗狗"/>
+    <hyperlink ref="U746" r:id="rId3171" tooltip="鬃岩狼人"/>
+    <hyperlink ref="V475" r:id="rId3172" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="25600" windowHeight="14800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7078" uniqueCount="3475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7078" uniqueCount="3491">
   <si>
     <t>Name</t>
   </si>
@@ -10228,10 +10228,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>钻石</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>珍珠</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -10457,362 +10453,430 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>蜻蜓龙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢螳螂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧主甲</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧主乙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>果神</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢鸟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多边兽Z</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯牛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师兄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二师兄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰隆雉鸡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏美露龙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基佬虎</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:空</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿罗拉大针蜂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一冰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一草</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一炉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃面龙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>姨妈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶精灵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰精灵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>海皇牙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>古拉顿</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙子精灵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>摔跤鹰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮皮鲸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大无敌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mega绿毛虫</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷嚏熊</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢斗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩牛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>草斗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叔兔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色恶魔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆神</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>川普</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶稣鸟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大美丽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩神柱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰神柱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢神柱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一神</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一灵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙冠蜥</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜥拉里</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>米酒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>艹不动娃娃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超力王</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰桌子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂空座幼体</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小水马</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Pulse, Sludge Wave</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body Slam</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psybeam</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>光布</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月布</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>'Dark Pulse(--)Foul Play(--)Night Slash(--)'</t>
+  </si>
+  <si>
+    <t>'Dark Pulse(--)Night Shade(--)Sludge Bomb(--)'</t>
+  </si>
+  <si>
+    <t>'Focus Blast(--)Shadow Ball(--)Sludge Bomb(--)'</t>
+  </si>
+  <si>
+    <t>'Hydro Pump(--)Power Gem(--)Psychic(--)'</t>
+  </si>
+  <si>
+    <t>'Blizzard(--)Earthquake(--)Fire Blast(--)Focus Blast(--)Hyper Beam(--)Psychic(--)Solar Beam(--)Thunder(--)'</t>
+  </si>
+  <si>
+    <t>'Grass Knot(--)Psyshock(--)Signal Beam(--)'</t>
+  </si>
+  <si>
+    <t>'Psychic(--)Shadow Ball(--)Wild Charge(--)'</t>
+  </si>
+  <si>
+    <t>Iron Head, Rock Slide</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>'Heavy Slam(--)Sand Tomb(--)Stone Edge(--)'</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5,7,</t>
+  </si>
+  <si>
+    <t>29,49,84,</t>
+  </si>
+  <si>
+    <t>104,64,99,</t>
+  </si>
+  <si>
+    <t>108,101,95,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,85,</t>
+  </si>
+  <si>
+    <t>9,20,43,</t>
+  </si>
+  <si>
+    <t>Heat Wave</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,38,35,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Blast(--)Flamethrower(--)Overheat(--)'</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psychic, Body Slam</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lick,Acid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick Attack</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>'Infestation(--)Tackle(--)'</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>24,43,</t>
+  </si>
+  <si>
+    <t>43,</t>
+  </si>
+  <si>
+    <t>Water Gun</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>'Ice Shard(--)Lick(--)'</t>
+  </si>
+  <si>
+    <t>'Mud Slap(--)Poison Jab(--)'</t>
+  </si>
+  <si>
+    <t>34,24,</t>
+  </si>
+  <si>
+    <t>32,45,</t>
+  </si>
+  <si>
+    <t>2,36,</t>
+  </si>
+  <si>
+    <t>谜拟Q</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多边兽Ⅱ</t>
+  </si>
+  <si>
+    <t>梅卡阳玛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超铁暴龙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火爆猴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒人翁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜巨人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜骷髅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>草飞龙</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>蜻蜓龙</t>
+    <t>绅士鸦</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>钢螳螂</t>
+    <t>鸭嘴焰龙</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>吧主甲</t>
+    <t>鬼盆栽</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>吧主乙</t>
+    <t>音符鹦鹉</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>果神</t>
+    <t>夜黑魔人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>钢鸟</t>
+    <t>钻石</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>多边兽Z</t>
+    <t>水蜘蛛</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>肯牛</t>
+    <t>圆企鹅</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>洛神</t>
+    <t>电电奶</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>大师兄</t>
+    <t>沙漠奈亚</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>二师兄</t>
+    <t>梦歌奈亚</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰隆雉鸡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>黏美露龙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>基佬虎</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿罗拉大针蜂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一冰</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一草</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一炉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃面龙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>姨妈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶精灵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰精灵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>海皇牙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>古拉顿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙子精灵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>摔跤鹰</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮皮鲸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>大无敌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>mega绿毛虫</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷嚏熊</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢斗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩牛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>草斗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叔兔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉色恶魔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆神</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>川普</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶稣鸟</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>大美丽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩神柱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰神柱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢神柱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一神</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一灵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙冠蜥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜥拉里</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>米酒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>艹不动娃娃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超力王</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰桌子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>裂空座幼体</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小水马</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dark Pulse, Sludge Wave</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body Slam</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Psybeam</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>光布</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月布</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>'Dark Pulse(--)Foul Play(--)Night Slash(--)'</t>
-  </si>
-  <si>
-    <t>'Dark Pulse(--)Night Shade(--)Sludge Bomb(--)'</t>
-  </si>
-  <si>
-    <t>'Focus Blast(--)Shadow Ball(--)Sludge Bomb(--)'</t>
-  </si>
-  <si>
-    <t>'Hydro Pump(--)Power Gem(--)Psychic(--)'</t>
-  </si>
-  <si>
-    <t>'Blizzard(--)Earthquake(--)Fire Blast(--)Focus Blast(--)Hyper Beam(--)Psychic(--)Solar Beam(--)Thunder(--)'</t>
-  </si>
-  <si>
-    <t>'Grass Knot(--)Psyshock(--)Signal Beam(--)'</t>
-  </si>
-  <si>
-    <t>'Psychic(--)Shadow Ball(--)Wild Charge(--)'</t>
-  </si>
-  <si>
-    <t>Iron Head, Rock Slide</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>'Heavy Slam(--)Sand Tomb(--)Stone Edge(--)'</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,5,7,</t>
-  </si>
-  <si>
-    <t>29,49,84,</t>
-  </si>
-  <si>
-    <t>104,64,99,</t>
-  </si>
-  <si>
-    <t>108,101,95,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,85,</t>
-  </si>
-  <si>
-    <t>9,20,43,</t>
-  </si>
-  <si>
-    <t>Heat Wave</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,38,35,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Blast(--)Flamethrower(--)Overheat(--)'</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Psychic, Body Slam</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lick,Acid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quick Attack</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>'Infestation(--)Tackle(--)'</t>
-  </si>
-  <si>
-    <t>''</t>
-  </si>
-  <si>
-    <t>24,43,</t>
-  </si>
-  <si>
-    <t>43,</t>
-  </si>
-  <si>
-    <t>Water Gun</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>'Ice Shard(--)Lick(--)'</t>
-  </si>
-  <si>
-    <t>'Mud Slap(--)Poison Jab(--)'</t>
-  </si>
-  <si>
-    <t>34,24,</t>
-  </si>
-  <si>
-    <t>32,45,</t>
-  </si>
-  <si>
-    <t>2,36,</t>
-  </si>
-  <si>
-    <t>谜拟Q</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多边兽Ⅱ</t>
   </si>
 </sst>
 </file>
@@ -13763,10 +13827,124 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13775,28 +13953,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13811,10 +13989,76 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13823,196 +14067,16 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14057,172 +14121,172 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15165,7 +15229,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15176,8 +15240,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M221" workbookViewId="0">
-      <selection activeCell="V234" sqref="V234"/>
+    <sheetView tabSelected="1" topLeftCell="J352" workbookViewId="0">
+      <selection activeCell="U334" sqref="U334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15551,10 +15615,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M5" s="178" t="s">
+      <c r="M5" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="179"/>
+      <c r="N5" s="299"/>
       <c r="O5" s="2" t="s">
         <v>418</v>
       </c>
@@ -15626,10 +15690,10 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="175"/>
+      <c r="N6" s="215"/>
       <c r="O6" s="2" t="s">
         <v>418</v>
       </c>
@@ -15793,10 +15857,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M8" s="180" t="s">
+      <c r="M8" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="181"/>
+      <c r="N8" s="301"/>
       <c r="O8" s="2" t="s">
         <v>420</v>
       </c>
@@ -15868,10 +15932,10 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="M9" s="182" t="s">
+      <c r="M9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="183"/>
+      <c r="N9" s="201"/>
       <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
@@ -15943,10 +16007,10 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M10" s="182" t="s">
+      <c r="M10" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="183"/>
+      <c r="N10" s="201"/>
       <c r="O10" s="2" t="s">
         <v>420</v>
       </c>
@@ -16018,10 +16082,10 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M11" s="184" t="s">
+      <c r="M11" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="185"/>
+      <c r="N11" s="303"/>
       <c r="O11" s="2" t="s">
         <v>421</v>
       </c>
@@ -16037,7 +16101,7 @@
         <v>579</v>
       </c>
       <c r="U11" s="109" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="V11" s="109" t="s">
         <v>579</v>
@@ -16093,10 +16157,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M12" s="262" t="s">
+      <c r="M12" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="263"/>
+      <c r="N12" s="233"/>
       <c r="O12" s="2" t="s">
         <v>421</v>
       </c>
@@ -16665,7 +16729,7 @@
         <v>691</v>
       </c>
       <c r="U19" s="109" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="V19" s="109" t="s">
         <v>1289</v>
@@ -16727,10 +16791,10 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M20" s="160" t="s">
+      <c r="M20" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="161"/>
+      <c r="N20" s="199"/>
       <c r="O20" s="2" t="s">
         <v>425</v>
       </c>
@@ -16802,10 +16866,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M21" s="160" t="s">
+      <c r="M21" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="161"/>
+      <c r="N21" s="199"/>
       <c r="O21" s="2" t="s">
         <v>425</v>
       </c>
@@ -17041,10 +17105,10 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="M24" s="158" t="s">
+      <c r="M24" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="159"/>
+      <c r="N24" s="227"/>
       <c r="O24" s="2" t="s">
         <v>426</v>
       </c>
@@ -17121,10 +17185,10 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="M25" s="158" t="s">
+      <c r="M25" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="159"/>
+      <c r="N25" s="227"/>
       <c r="O25" s="2" t="s">
         <v>426</v>
       </c>
@@ -17196,10 +17260,10 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="M26" s="162" t="s">
+      <c r="M26" s="310" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="163"/>
+      <c r="N26" s="311"/>
       <c r="O26" s="2" t="s">
         <v>427</v>
       </c>
@@ -17217,7 +17281,7 @@
         <v>591</v>
       </c>
       <c r="U26" s="109" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="V26" s="109" t="s">
         <v>591</v>
@@ -17276,10 +17340,10 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="M27" s="186" t="s">
+      <c r="M27" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="187"/>
+      <c r="N27" s="305"/>
       <c r="O27" s="2" t="s">
         <v>427</v>
       </c>
@@ -17361,10 +17425,10 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="M28" s="188" t="s">
+      <c r="M28" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="189"/>
+      <c r="N28" s="307"/>
       <c r="O28" s="2" t="s">
         <v>428</v>
       </c>
@@ -17441,10 +17505,10 @@
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="M29" s="190" t="s">
+      <c r="M29" s="308" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="191"/>
+      <c r="N29" s="309"/>
       <c r="O29" s="2" t="s">
         <v>428</v>
       </c>
@@ -17516,10 +17580,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M30" s="158" t="s">
+      <c r="M30" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="159"/>
+      <c r="N30" s="227"/>
       <c r="O30" s="2" t="s">
         <v>426</v>
       </c>
@@ -17591,10 +17655,10 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M31" s="158" t="s">
+      <c r="M31" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="159"/>
+      <c r="N31" s="227"/>
       <c r="O31" s="2" t="s">
         <v>426</v>
       </c>
@@ -17743,10 +17807,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="M33" s="158" t="s">
+      <c r="M33" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="159"/>
+      <c r="N33" s="227"/>
       <c r="O33" s="2" t="s">
         <v>426</v>
       </c>
@@ -17818,10 +17882,10 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="M34" s="158" t="s">
+      <c r="M34" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="159"/>
+      <c r="N34" s="227"/>
       <c r="O34" s="2" t="s">
         <v>426</v>
       </c>
@@ -17975,10 +18039,10 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M36" s="170" t="s">
+      <c r="M36" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="171"/>
+      <c r="N36" s="209"/>
       <c r="O36" s="2" t="s">
         <v>568</v>
       </c>
@@ -18050,10 +18114,10 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="M37" s="172" t="s">
+      <c r="M37" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="173"/>
+      <c r="N37" s="211"/>
       <c r="O37" s="2" t="s">
         <v>568</v>
       </c>
@@ -18071,7 +18135,7 @@
         <v>693</v>
       </c>
       <c r="U37" s="109" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="V37" s="109" t="s">
         <v>693</v>
@@ -18130,10 +18194,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M38" s="174" t="s">
+      <c r="M38" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="175"/>
+      <c r="N38" s="215"/>
       <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
@@ -18205,10 +18269,10 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="M39" s="174" t="s">
+      <c r="M39" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="175"/>
+      <c r="N39" s="215"/>
       <c r="O39" s="2" t="s">
         <v>418</v>
       </c>
@@ -18290,10 +18354,10 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M40" s="176" t="s">
+      <c r="M40" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="177"/>
+      <c r="N40" s="237"/>
       <c r="O40" s="2" t="s">
         <v>483</v>
       </c>
@@ -18370,10 +18434,10 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="M41" s="264" t="s">
+      <c r="M41" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="265"/>
+      <c r="N41" s="213"/>
       <c r="O41" s="2" t="s">
         <v>483</v>
       </c>
@@ -19163,10 +19227,10 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="M51" s="164" t="s">
+      <c r="M51" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="165"/>
+      <c r="N51" s="239"/>
       <c r="O51" s="2" t="s">
         <v>428</v>
       </c>
@@ -19243,10 +19307,10 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="M52" s="166" t="s">
+      <c r="M52" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="167"/>
+      <c r="N52" s="241"/>
       <c r="O52" s="2" t="s">
         <v>428</v>
       </c>
@@ -19323,10 +19387,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M53" s="160" t="s">
+      <c r="M53" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="161"/>
+      <c r="N53" s="199"/>
       <c r="O53" s="2" t="s">
         <v>425</v>
       </c>
@@ -19334,11 +19398,11 @@
         <v>2013</v>
       </c>
       <c r="Q53" s="106" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="R53" s="13"/>
       <c r="S53" s="13" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="T53" s="25" t="s">
         <v>613</v>
@@ -19353,7 +19417,7 @@
         <v>2384</v>
       </c>
       <c r="X53" s="96" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="Z53" s="96" t="s">
         <v>1958</v>
@@ -19403,10 +19467,10 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="M54" s="168" t="s">
+      <c r="M54" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="169"/>
+      <c r="N54" s="277"/>
       <c r="O54" s="2" t="s">
         <v>425</v>
       </c>
@@ -19483,10 +19547,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M55" s="182" t="s">
+      <c r="M55" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="183"/>
+      <c r="N55" s="201"/>
       <c r="O55" s="2" t="s">
         <v>420</v>
       </c>
@@ -19558,10 +19622,10 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="M56" s="208" t="s">
+      <c r="M56" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="209"/>
+      <c r="N56" s="295"/>
       <c r="O56" s="2" t="s">
         <v>420</v>
       </c>
@@ -19633,10 +19697,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M57" s="206" t="s">
+      <c r="M57" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="207"/>
+      <c r="N57" s="191"/>
       <c r="O57" s="2" t="s">
         <v>432</v>
       </c>
@@ -19708,10 +19772,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M58" s="206" t="s">
+      <c r="M58" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="207"/>
+      <c r="N58" s="191"/>
       <c r="O58" s="2" t="s">
         <v>432</v>
       </c>
@@ -19731,7 +19795,7 @@
         <v>618</v>
       </c>
       <c r="U58" s="109" t="s">
-        <v>618</v>
+        <v>3475</v>
       </c>
       <c r="V58" s="109" t="s">
         <v>618</v>
@@ -19793,10 +19857,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M59" s="210" t="s">
+      <c r="M59" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="211"/>
+      <c r="N59" s="297"/>
       <c r="O59" s="2" t="s">
         <v>418</v>
       </c>
@@ -19868,10 +19932,10 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="M60" s="174" t="s">
+      <c r="M60" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="175"/>
+      <c r="N60" s="215"/>
       <c r="O60" s="2" t="s">
         <v>418</v>
       </c>
@@ -19891,7 +19955,7 @@
         <v>620</v>
       </c>
       <c r="U60" s="109" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="V60" s="109" t="s">
         <v>620</v>
@@ -19953,10 +20017,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="M61" s="212" t="s">
+      <c r="M61" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="213"/>
+      <c r="N61" s="193"/>
       <c r="O61" s="2" t="s">
         <v>420</v>
       </c>
@@ -20028,10 +20092,10 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="M62" s="258" t="s">
+      <c r="M62" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="259"/>
+      <c r="N62" s="229"/>
       <c r="O62" s="2" t="s">
         <v>420</v>
       </c>
@@ -20195,10 +20259,10 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="M64" s="202" t="s">
+      <c r="M64" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="203"/>
+      <c r="N64" s="261"/>
       <c r="O64" s="2" t="s">
         <v>434</v>
       </c>
@@ -20270,10 +20334,10 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="M65" s="192" t="s">
+      <c r="M65" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="193"/>
+      <c r="N65" s="221"/>
       <c r="O65" s="2" t="s">
         <v>434</v>
       </c>
@@ -20345,10 +20409,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="M66" s="204" t="s">
+      <c r="M66" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="205"/>
+      <c r="N66" s="293"/>
       <c r="O66" s="2" t="s">
         <v>434</v>
       </c>
@@ -20425,10 +20489,10 @@
         <f t="shared" ref="L67:L130" si="5">ROUND((1+(H67-75)/500)*(ROUND(0.25*(7*MAX(G67,E67)+MIN(G67,E67)),0)),0)</f>
         <v>88</v>
       </c>
-      <c r="M67" s="206" t="s">
+      <c r="M67" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="207"/>
+      <c r="N67" s="191"/>
       <c r="O67" s="2" t="s">
         <v>432</v>
       </c>
@@ -20505,10 +20569,10 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="M68" s="206" t="s">
+      <c r="M68" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="207"/>
+      <c r="N68" s="191"/>
       <c r="O68" s="2" t="s">
         <v>432</v>
       </c>
@@ -20585,10 +20649,10 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="M69" s="206" t="s">
+      <c r="M69" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="207"/>
+      <c r="N69" s="191"/>
       <c r="O69" s="2" t="s">
         <v>432</v>
       </c>
@@ -21311,10 +21375,10 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="M78" s="174" t="s">
+      <c r="M78" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N78" s="175"/>
+      <c r="N78" s="215"/>
       <c r="O78" s="2" t="s">
         <v>418</v>
       </c>
@@ -21391,10 +21455,10 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="M79" s="198" t="s">
+      <c r="M79" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="199"/>
+      <c r="N79" s="289"/>
       <c r="O79" s="2" t="s">
         <v>418</v>
       </c>
@@ -21569,7 +21633,7 @@
         <v>639</v>
       </c>
       <c r="U81" s="109" t="s">
-        <v>3383</v>
+        <v>3381</v>
       </c>
       <c r="V81" s="109" t="s">
         <v>639</v>
@@ -22035,21 +22099,21 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M87" s="182" t="s">
+      <c r="M87" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N87" s="183"/>
+      <c r="N87" s="201"/>
       <c r="O87" s="2" t="s">
         <v>420</v>
       </c>
       <c r="P87" s="106" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="Q87" s="106" t="s">
         <v>2321</v>
       </c>
       <c r="R87" s="13" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="S87" s="13" t="s">
         <v>543</v>
@@ -22064,7 +22128,7 @@
         <v>643</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>2490</v>
@@ -22207,21 +22271,21 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M89" s="158" t="s">
+      <c r="M89" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="159"/>
+      <c r="N89" s="227"/>
       <c r="O89" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P89" s="106" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>2178</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="S89" s="13"/>
       <c r="T89" s="25" t="s">
@@ -22234,13 +22298,13 @@
         <v>645</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>2492</v>
       </c>
       <c r="Y89" s="2" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="AB89" s="110"/>
       <c r="AC89" s="109"/>
@@ -22287,10 +22351,10 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="M90" s="158" t="s">
+      <c r="M90" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="159"/>
+      <c r="N90" s="227"/>
       <c r="O90" s="2" t="s">
         <v>426</v>
       </c>
@@ -22301,7 +22365,7 @@
         <v>2141</v>
       </c>
       <c r="R90" s="13" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="S90" s="13"/>
       <c r="T90" s="25" t="s">
@@ -22320,7 +22384,7 @@
         <v>2451</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="AB90" s="110"/>
       <c r="AC90" s="109"/>
@@ -22367,10 +22431,10 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="M91" s="200" t="s">
+      <c r="M91" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="201"/>
+      <c r="N91" s="291"/>
       <c r="O91" s="2" t="s">
         <v>420</v>
       </c>
@@ -22537,7 +22601,7 @@
         <v>2110</v>
       </c>
       <c r="Q93" s="106" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="R93" s="13" t="s">
         <v>548</v>
@@ -22711,13 +22775,13 @@
         <v>2112</v>
       </c>
       <c r="Q95" s="106" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="R95" s="13" t="s">
         <v>549</v>
       </c>
       <c r="S95" s="13" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="T95" s="25" t="s">
         <v>650</v>
@@ -22732,13 +22796,13 @@
         <v>2397</v>
       </c>
       <c r="X95" s="96" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>1942</v>
       </c>
       <c r="Z95" s="96" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="AB95" s="110"/>
       <c r="AC95" s="109"/>
@@ -22798,11 +22862,11 @@
         <v>2023</v>
       </c>
       <c r="Q96" s="106" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="R96" s="13"/>
       <c r="S96" s="13" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="T96" s="25" t="s">
         <v>651</v>
@@ -22817,7 +22881,7 @@
         <v>1600</v>
       </c>
       <c r="X96" s="96" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="Z96" s="2" t="s">
         <v>1977</v>
@@ -22867,10 +22931,10 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="M97" s="192" t="s">
+      <c r="M97" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="193"/>
+      <c r="N97" s="221"/>
       <c r="O97" s="2" t="s">
         <v>434</v>
       </c>
@@ -22942,10 +23006,10 @@
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M98" s="192" t="s">
+      <c r="M98" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="193"/>
+      <c r="N98" s="221"/>
       <c r="O98" s="2" t="s">
         <v>434</v>
       </c>
@@ -23022,10 +23086,10 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="M99" s="194" t="s">
+      <c r="M99" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="N99" s="195"/>
+      <c r="N99" s="285"/>
       <c r="O99" s="2" t="s">
         <v>420</v>
       </c>
@@ -23097,10 +23161,10 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="M100" s="182" t="s">
+      <c r="M100" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="183"/>
+      <c r="N100" s="201"/>
       <c r="O100" s="2" t="s">
         <v>420</v>
       </c>
@@ -23177,10 +23241,10 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="M101" s="196" t="s">
+      <c r="M101" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="197"/>
+      <c r="N101" s="287"/>
       <c r="O101" s="2" t="s">
         <v>427</v>
       </c>
@@ -23257,10 +23321,10 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="M102" s="256" t="s">
+      <c r="M102" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="257"/>
+      <c r="N102" s="225"/>
       <c r="O102" s="2" t="s">
         <v>427</v>
       </c>
@@ -23496,10 +23560,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M105" s="164" t="s">
+      <c r="M105" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="165"/>
+      <c r="N105" s="239"/>
       <c r="O105" s="2" t="s">
         <v>428</v>
       </c>
@@ -23571,10 +23635,10 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M106" s="216" t="s">
+      <c r="M106" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="217"/>
+      <c r="N106" s="281"/>
       <c r="O106" s="2" t="s">
         <v>428</v>
       </c>
@@ -23646,10 +23710,10 @@
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="M107" s="206" t="s">
+      <c r="M107" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N107" s="207"/>
+      <c r="N107" s="191"/>
       <c r="O107" s="2" t="s">
         <v>432</v>
       </c>
@@ -23726,10 +23790,10 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="M108" s="206" t="s">
+      <c r="M108" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N108" s="207"/>
+      <c r="N108" s="191"/>
       <c r="O108" s="2" t="s">
         <v>432</v>
       </c>
@@ -23811,10 +23875,10 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="M109" s="218" t="s">
+      <c r="M109" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="N109" s="219"/>
+      <c r="N109" s="283"/>
       <c r="O109" s="2" t="s">
         <v>425</v>
       </c>
@@ -23886,21 +23950,21 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="M110" s="158" t="s">
+      <c r="M110" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="159"/>
+      <c r="N110" s="227"/>
       <c r="O110" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P110" s="106" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>2189</v>
       </c>
       <c r="R110" s="13" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="S110" s="13"/>
       <c r="T110" s="25" t="s">
@@ -23913,13 +23977,13 @@
         <v>657</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="X110" s="2" t="s">
         <v>1778</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="AB110" s="110"/>
       <c r="AC110" s="109"/>
@@ -23966,21 +24030,21 @@
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="M111" s="158" t="s">
+      <c r="M111" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="159"/>
+      <c r="N111" s="227"/>
       <c r="O111" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P111" s="106" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>2190</v>
       </c>
       <c r="R111" s="13" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="S111" s="13"/>
       <c r="T111" s="25" t="s">
@@ -23993,13 +24057,13 @@
         <v>658</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="X111" s="2" t="s">
         <v>1779</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="AB111" s="110"/>
       <c r="AC111" s="109"/>
@@ -24205,10 +24269,10 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="M114" s="170" t="s">
+      <c r="M114" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N114" s="171"/>
+      <c r="N114" s="209"/>
       <c r="O114" s="2" t="s">
         <v>425</v>
       </c>
@@ -24285,10 +24349,10 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M115" s="214" t="s">
+      <c r="M115" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="N115" s="215"/>
+      <c r="N115" s="279"/>
       <c r="O115" s="2" t="s">
         <v>443</v>
       </c>
@@ -24365,10 +24429,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M116" s="168" t="s">
+      <c r="M116" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N116" s="169"/>
+      <c r="N116" s="277"/>
       <c r="O116" s="2" t="s">
         <v>425</v>
       </c>
@@ -24445,10 +24509,10 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="M117" s="182" t="s">
+      <c r="M117" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="183"/>
+      <c r="N117" s="201"/>
       <c r="O117" s="2" t="s">
         <v>420</v>
       </c>
@@ -24520,10 +24584,10 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="M118" s="182" t="s">
+      <c r="M118" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="183"/>
+      <c r="N118" s="201"/>
       <c r="O118" s="2" t="s">
         <v>420</v>
       </c>
@@ -24600,10 +24664,10 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="M119" s="182" t="s">
+      <c r="M119" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N119" s="183"/>
+      <c r="N119" s="201"/>
       <c r="O119" s="2" t="s">
         <v>420</v>
       </c>
@@ -24675,10 +24739,10 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-      <c r="M120" s="182" t="s">
+      <c r="M120" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N120" s="183"/>
+      <c r="N120" s="201"/>
       <c r="O120" s="2" t="s">
         <v>420</v>
       </c>
@@ -24760,10 +24824,10 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="M121" s="258" t="s">
+      <c r="M121" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="N121" s="259"/>
+      <c r="N121" s="229"/>
       <c r="O121" s="2" t="s">
         <v>420</v>
       </c>
@@ -24774,7 +24838,7 @@
         <v>2194</v>
       </c>
       <c r="R121" s="13" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="S121" s="13"/>
       <c r="T121" s="25" t="s">
@@ -24853,13 +24917,13 @@
         <v>2354</v>
       </c>
       <c r="Q122" s="106" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="R122" s="13" t="s">
         <v>2351</v>
       </c>
       <c r="S122" s="13" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="T122" s="25" t="s">
         <v>666</v>
@@ -24874,7 +24938,7 @@
         <v>1615</v>
       </c>
       <c r="X122" s="96" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>1579</v>
@@ -24927,10 +24991,10 @@
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="M123" s="192" t="s">
+      <c r="M123" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="193"/>
+      <c r="N123" s="221"/>
       <c r="O123" s="2" t="s">
         <v>434</v>
       </c>
@@ -25176,10 +25240,10 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="M126" s="224" t="s">
+      <c r="M126" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="225"/>
+      <c r="N126" s="235"/>
       <c r="O126" s="2" t="s">
         <v>427</v>
       </c>
@@ -25251,10 +25315,10 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="M127" s="174" t="s">
+      <c r="M127" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N127" s="175"/>
+      <c r="N127" s="215"/>
       <c r="O127" s="2" t="s">
         <v>418</v>
       </c>
@@ -25326,10 +25390,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M128" s="220" t="s">
+      <c r="M128" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="221"/>
+      <c r="N128" s="273"/>
       <c r="O128" s="2" t="s">
         <v>421</v>
       </c>
@@ -25411,10 +25475,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M129" s="222" t="s">
+      <c r="M129" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="N129" s="223"/>
+      <c r="N129" s="275"/>
       <c r="O129" s="2" t="s">
         <v>425</v>
       </c>
@@ -25430,7 +25494,7 @@
         <v>670</v>
       </c>
       <c r="U129" s="109" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="V129" s="109" t="s">
         <v>670</v>
@@ -25486,10 +25550,10 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="M130" s="182" t="s">
+      <c r="M130" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N130" s="183"/>
+      <c r="N130" s="201"/>
       <c r="O130" s="2" t="s">
         <v>420</v>
       </c>
@@ -25735,10 +25799,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M133" s="170" t="s">
+      <c r="M133" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N133" s="171"/>
+      <c r="N133" s="209"/>
       <c r="O133" s="2" t="s">
         <v>425</v>
       </c>
@@ -25810,10 +25874,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="M134" s="168" t="s">
+      <c r="M134" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N134" s="169"/>
+      <c r="N134" s="277"/>
       <c r="O134" s="2" t="s">
         <v>425</v>
       </c>
@@ -25890,10 +25954,10 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="M135" s="182" t="s">
+      <c r="M135" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N135" s="183"/>
+      <c r="N135" s="201"/>
       <c r="O135" s="2" t="s">
         <v>420</v>
       </c>
@@ -25965,10 +26029,10 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="M136" s="232" t="s">
+      <c r="M136" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="233"/>
+      <c r="N136" s="269"/>
       <c r="O136" s="2" t="s">
         <v>427</v>
       </c>
@@ -26040,10 +26104,10 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="M137" s="174" t="s">
+      <c r="M137" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N137" s="175"/>
+      <c r="N137" s="215"/>
       <c r="O137" s="2" t="s">
         <v>418</v>
       </c>
@@ -26051,11 +26115,11 @@
         <v>1521</v>
       </c>
       <c r="Q137" s="106" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="R137" s="13"/>
       <c r="S137" s="13" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="T137" s="25" t="s">
         <v>719</v>
@@ -26070,7 +26134,7 @@
         <v>1623</v>
       </c>
       <c r="X137" s="96" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="Z137" s="2" t="s">
         <v>1927</v>
@@ -26120,10 +26184,10 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="M138" s="236" t="s">
+      <c r="M138" s="270" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="237"/>
+      <c r="N138" s="271"/>
       <c r="O138" s="2" t="s">
         <v>425</v>
       </c>
@@ -26610,10 +26674,10 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="M144" s="170" t="s">
+      <c r="M144" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="171"/>
+      <c r="N144" s="209"/>
       <c r="O144" s="2" t="s">
         <v>425</v>
       </c>
@@ -26941,10 +27005,10 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="M148" s="234" t="s">
+      <c r="M148" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="N148" s="235"/>
+      <c r="N148" s="197"/>
       <c r="O148" s="2" t="s">
         <v>450</v>
       </c>
@@ -27016,10 +27080,10 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="M149" s="234" t="s">
+      <c r="M149" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="N149" s="235"/>
+      <c r="N149" s="197"/>
       <c r="O149" s="2" t="s">
         <v>450</v>
       </c>
@@ -27175,10 +27239,10 @@
       <c r="L151" s="2">
         <v>182</v>
       </c>
-      <c r="M151" s="202" t="s">
+      <c r="M151" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="203"/>
+      <c r="N151" s="261"/>
       <c r="O151" s="2" t="s">
         <v>434</v>
       </c>
@@ -27250,10 +27314,10 @@
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="M152" s="192" t="s">
+      <c r="M152" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="193"/>
+      <c r="N152" s="221"/>
       <c r="O152" s="2" t="s">
         <v>434</v>
       </c>
@@ -27261,7 +27325,7 @@
         <v>2048</v>
       </c>
       <c r="Q152" s="106" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="R152" s="54"/>
       <c r="S152" s="54" t="s">
@@ -27283,7 +27347,7 @@
         <v>2617</v>
       </c>
       <c r="Z152" s="96" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="AB152" s="110"/>
       <c r="AC152" s="109"/>
@@ -27330,10 +27394,10 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="M153" s="226" t="s">
+      <c r="M153" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="N153" s="227"/>
+      <c r="N153" s="263"/>
       <c r="O153" s="2" t="s">
         <v>443</v>
       </c>
@@ -27403,10 +27467,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="M154" s="228" t="s">
+      <c r="M154" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="N154" s="229"/>
+      <c r="N154" s="265"/>
       <c r="O154" s="2" t="s">
         <v>443</v>
       </c>
@@ -27476,10 +27540,10 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="M155" s="230" t="s">
+      <c r="M155" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="N155" s="231"/>
+      <c r="N155" s="267"/>
       <c r="O155" s="2" t="s">
         <v>443</v>
       </c>
@@ -27549,10 +27613,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="M156" s="174" t="s">
+      <c r="M156" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N156" s="175"/>
+      <c r="N156" s="215"/>
       <c r="O156" s="2" t="s">
         <v>418</v>
       </c>
@@ -27622,10 +27686,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="M157" s="174" t="s">
+      <c r="M157" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N157" s="175"/>
+      <c r="N157" s="215"/>
       <c r="O157" s="2" t="s">
         <v>418</v>
       </c>
@@ -27695,10 +27759,10 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="M158" s="174" t="s">
+      <c r="M158" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N158" s="175"/>
+      <c r="N158" s="215"/>
       <c r="O158" s="2" t="s">
         <v>418</v>
       </c>
@@ -27768,10 +27832,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M159" s="212" t="s">
+      <c r="M159" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N159" s="213"/>
+      <c r="N159" s="193"/>
       <c r="O159" s="2" t="s">
         <v>420</v>
       </c>
@@ -27841,10 +27905,10 @@
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="M160" s="182" t="s">
+      <c r="M160" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N160" s="183"/>
+      <c r="N160" s="201"/>
       <c r="O160" s="2" t="s">
         <v>420</v>
       </c>
@@ -27914,10 +27978,10 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="M161" s="182" t="s">
+      <c r="M161" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N161" s="183"/>
+      <c r="N161" s="201"/>
       <c r="O161" s="2" t="s">
         <v>420</v>
       </c>
@@ -27993,10 +28057,10 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="M162" s="238" t="s">
+      <c r="M162" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="N162" s="239"/>
+      <c r="N162" s="257"/>
       <c r="O162" s="2" t="s">
         <v>425</v>
       </c>
@@ -28066,10 +28130,10 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="M163" s="160" t="s">
+      <c r="M163" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N163" s="161"/>
+      <c r="N163" s="199"/>
       <c r="O163" s="2" t="s">
         <v>425</v>
       </c>
@@ -28814,10 +28878,10 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="M173" s="240" t="s">
+      <c r="M173" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="241"/>
+      <c r="N173" s="259"/>
       <c r="O173" s="2" t="s">
         <v>427</v>
       </c>
@@ -28893,10 +28957,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M174" s="160" t="s">
+      <c r="M174" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N174" s="161"/>
+      <c r="N174" s="199"/>
       <c r="O174" s="2" t="s">
         <v>568</v>
       </c>
@@ -28904,10 +28968,10 @@
         <v>2007</v>
       </c>
       <c r="Q174" s="106" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="S174" s="107" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="T174" s="25" t="s">
         <v>799</v>
@@ -28972,10 +29036,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="M175" s="160" t="s">
+      <c r="M175" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N175" s="161"/>
+      <c r="N175" s="199"/>
       <c r="O175" s="2" t="s">
         <v>483</v>
       </c>
@@ -28983,7 +29047,7 @@
         <v>2009</v>
       </c>
       <c r="Q175" s="106" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="S175" s="96" t="s">
         <v>2618</v>
@@ -29051,10 +29115,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M176" s="160" t="s">
+      <c r="M176" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N176" s="161"/>
+      <c r="N176" s="199"/>
       <c r="O176" s="2" t="s">
         <v>568</v>
       </c>
@@ -29653,10 +29717,10 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="M184" s="182" t="s">
+      <c r="M184" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N184" s="183"/>
+      <c r="N184" s="201"/>
       <c r="O184" s="2" t="s">
         <v>569</v>
       </c>
@@ -29726,10 +29790,10 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="M185" s="182" t="s">
+      <c r="M185" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N185" s="183"/>
+      <c r="N185" s="201"/>
       <c r="O185" s="2" t="s">
         <v>569</v>
       </c>
@@ -29743,7 +29807,7 @@
         <v>805</v>
       </c>
       <c r="U185" s="109" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="V185" s="109" t="s">
         <v>805</v>
@@ -29872,10 +29936,10 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="M187" s="182" t="s">
+      <c r="M187" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N187" s="183"/>
+      <c r="N187" s="201"/>
       <c r="O187" s="2" t="s">
         <v>420</v>
       </c>
@@ -30176,10 +30240,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M191" s="160" t="s">
+      <c r="M191" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N191" s="161"/>
+      <c r="N191" s="199"/>
       <c r="O191" s="2" t="s">
         <v>425</v>
       </c>
@@ -30266,7 +30330,7 @@
         <v>750</v>
       </c>
       <c r="U192" s="109" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="V192" s="109" t="s">
         <v>750</v>
@@ -30322,10 +30386,10 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="M193" s="270" t="s">
+      <c r="M193" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="N193" s="271"/>
+      <c r="N193" s="203"/>
       <c r="O193" s="2" t="s">
         <v>443</v>
       </c>
@@ -30637,7 +30701,7 @@
         <v>809</v>
       </c>
       <c r="U197" s="109" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="V197" s="109" t="s">
         <v>1318</v>
@@ -30693,10 +30757,10 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="M198" s="272" t="s">
+      <c r="M198" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="N198" s="273"/>
+      <c r="N198" s="205"/>
       <c r="O198" s="2" t="s">
         <v>457</v>
       </c>
@@ -30710,7 +30774,7 @@
         <v>810</v>
       </c>
       <c r="U198" s="109" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="V198" s="109" t="s">
         <v>1319</v>
@@ -30860,7 +30924,7 @@
         <v>811</v>
       </c>
       <c r="U200" s="109" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="V200" s="109" t="s">
         <v>1320</v>
@@ -30916,10 +30980,10 @@
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="M201" s="276" t="s">
+      <c r="M201" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="N201" s="277"/>
+      <c r="N201" s="217"/>
       <c r="O201" s="2" t="s">
         <v>459</v>
       </c>
@@ -30989,10 +31053,10 @@
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="M202" s="278" t="s">
+      <c r="M202" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="279"/>
+      <c r="N202" s="219"/>
       <c r="O202" s="2" t="s">
         <v>434</v>
       </c>
@@ -31062,10 +31126,10 @@
         <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="M203" s="192" t="s">
+      <c r="M203" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="193"/>
+      <c r="N203" s="221"/>
       <c r="O203" s="2" t="s">
         <v>434</v>
       </c>
@@ -31079,7 +31143,7 @@
         <v>757</v>
       </c>
       <c r="U203" s="109" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
       <c r="V203" s="109" t="s">
         <v>757</v>
@@ -31210,10 +31274,10 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="M205" s="280" t="s">
+      <c r="M205" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="281"/>
+      <c r="N205" s="223"/>
       <c r="O205" s="2" t="s">
         <v>421</v>
       </c>
@@ -31358,10 +31422,10 @@
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="M207" s="170" t="s">
+      <c r="M207" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N207" s="171"/>
+      <c r="N207" s="209"/>
       <c r="O207" s="2" t="s">
         <v>425</v>
       </c>
@@ -31581,10 +31645,10 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="M210" s="160" t="s">
+      <c r="M210" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N210" s="161"/>
+      <c r="N210" s="199"/>
       <c r="O210" s="2" t="s">
         <v>568</v>
       </c>
@@ -31654,10 +31718,10 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="M211" s="264" t="s">
+      <c r="M211" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="265"/>
+      <c r="N211" s="213"/>
       <c r="O211" s="2" t="s">
         <v>568</v>
       </c>
@@ -31821,7 +31885,7 @@
         <v>765</v>
       </c>
       <c r="U213" s="109" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
       <c r="V213" s="109" t="s">
         <v>765</v>
@@ -32102,10 +32166,10 @@
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="M217" s="170" t="s">
+      <c r="M217" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N217" s="171"/>
+      <c r="N217" s="209"/>
       <c r="O217" s="2" t="s">
         <v>425</v>
       </c>
@@ -32175,10 +32239,10 @@
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="M218" s="172" t="s">
+      <c r="M218" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="173"/>
+      <c r="N218" s="211"/>
       <c r="O218" s="2" t="s">
         <v>425</v>
       </c>
@@ -32248,10 +32312,10 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="M219" s="174" t="s">
+      <c r="M219" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N219" s="175"/>
+      <c r="N219" s="215"/>
       <c r="O219" s="2" t="s">
         <v>418</v>
       </c>
@@ -32621,10 +32685,10 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="M224" s="182" t="s">
+      <c r="M224" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N224" s="183"/>
+      <c r="N224" s="201"/>
       <c r="O224" s="2" t="s">
         <v>420</v>
       </c>
@@ -32694,10 +32758,10 @@
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="M225" s="182" t="s">
+      <c r="M225" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N225" s="183"/>
+      <c r="N225" s="201"/>
       <c r="O225" s="2" t="s">
         <v>420</v>
       </c>
@@ -32942,7 +33006,7 @@
         <v>780</v>
       </c>
       <c r="U228" s="109" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="V228" s="109" t="s">
         <v>780</v>
@@ -33229,10 +33293,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="M232" s="164" t="s">
+      <c r="M232" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N232" s="165"/>
+      <c r="N232" s="239"/>
       <c r="O232" s="2" t="s">
         <v>428</v>
       </c>
@@ -33302,10 +33366,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M233" s="166" t="s">
+      <c r="M233" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="N233" s="167"/>
+      <c r="N233" s="241"/>
       <c r="O233" s="2" t="s">
         <v>428</v>
       </c>
@@ -33375,10 +33439,10 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="M234" s="160" t="s">
+      <c r="M234" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N234" s="161"/>
+      <c r="N234" s="199"/>
       <c r="O234" s="2" t="s">
         <v>425</v>
       </c>
@@ -33395,7 +33459,7 @@
         <v>3292</v>
       </c>
       <c r="V234" s="109" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="W234" s="2" t="s">
         <v>1624</v>
@@ -33448,10 +33512,10 @@
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="M235" s="160" t="s">
+      <c r="M235" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N235" s="161"/>
+      <c r="N235" s="199"/>
       <c r="O235" s="2" t="s">
         <v>425</v>
       </c>
@@ -33521,10 +33585,10 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
-      <c r="M236" s="274" t="s">
+      <c r="M236" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="N236" s="275"/>
+      <c r="N236" s="207"/>
       <c r="O236" s="2" t="s">
         <v>425</v>
       </c>
@@ -33594,10 +33658,10 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="M237" s="206" t="s">
+      <c r="M237" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N237" s="207"/>
+      <c r="N237" s="191"/>
       <c r="O237" s="2" t="s">
         <v>432</v>
       </c>
@@ -33667,10 +33731,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M238" s="206" t="s">
+      <c r="M238" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="207"/>
+      <c r="N238" s="191"/>
       <c r="O238" s="2" t="s">
         <v>432</v>
       </c>
@@ -33821,10 +33885,10 @@
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="M240" s="224" t="s">
+      <c r="M240" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="225"/>
+      <c r="N240" s="235"/>
       <c r="O240" s="2" t="s">
         <v>427</v>
       </c>
@@ -33900,10 +33964,10 @@
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="M241" s="174" t="s">
+      <c r="M241" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N241" s="175"/>
+      <c r="N241" s="215"/>
       <c r="O241" s="2" t="s">
         <v>418</v>
       </c>
@@ -33973,10 +34037,10 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="M242" s="176" t="s">
+      <c r="M242" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N242" s="177"/>
+      <c r="N242" s="237"/>
       <c r="O242" s="2" t="s">
         <v>425</v>
       </c>
@@ -34046,10 +34110,10 @@
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="M243" s="160" t="s">
+      <c r="M243" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N243" s="161"/>
+      <c r="N243" s="199"/>
       <c r="O243" s="2" t="s">
         <v>425</v>
       </c>
@@ -34119,10 +34183,10 @@
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="M244" s="260" t="s">
+      <c r="M244" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="261"/>
+      <c r="N244" s="231"/>
       <c r="O244" s="2" t="s">
         <v>427</v>
       </c>
@@ -34192,10 +34256,10 @@
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="M245" s="174" t="s">
+      <c r="M245" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N245" s="175"/>
+      <c r="N245" s="215"/>
       <c r="O245" s="2" t="s">
         <v>418</v>
       </c>
@@ -34209,7 +34273,7 @@
         <v>794</v>
       </c>
       <c r="U245" s="109" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="V245" s="109" t="s">
         <v>794</v>
@@ -34265,10 +34329,10 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="M246" s="212" t="s">
+      <c r="M246" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N246" s="213"/>
+      <c r="N246" s="193"/>
       <c r="O246" s="2" t="s">
         <v>420</v>
       </c>
@@ -34588,7 +34652,7 @@
         <v>796</v>
       </c>
       <c r="U250" s="109" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="V250" s="109" t="s">
         <v>796</v>
@@ -34791,10 +34855,10 @@
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="M253" s="266" t="s">
+      <c r="M253" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="N253" s="267"/>
+      <c r="N253" s="195"/>
       <c r="O253" s="2" t="s">
         <v>443</v>
       </c>
@@ -34864,10 +34928,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M254" s="268" t="s">
+      <c r="M254" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N254" s="269"/>
+      <c r="N254" s="179"/>
       <c r="O254" s="2" t="s">
         <v>443</v>
       </c>
@@ -34937,10 +35001,10 @@
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="M255" s="268" t="s">
+      <c r="M255" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N255" s="269"/>
+      <c r="N255" s="179"/>
       <c r="O255" s="2" t="s">
         <v>443</v>
       </c>
@@ -35010,10 +35074,10 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="M256" s="286" t="s">
+      <c r="M256" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="N256" s="287"/>
+      <c r="N256" s="183"/>
       <c r="O256" s="2" t="s">
         <v>418</v>
       </c>
@@ -35180,7 +35244,7 @@
         <v>826</v>
       </c>
       <c r="U258" s="109" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="V258" s="109" t="s">
         <v>826</v>
@@ -35239,10 +35303,10 @@
         <f t="shared" ref="L259:L322" si="14">ROUND((1+(H259-75)/500)*(ROUND(0.25*(7*MAX(G259,E259)+MIN(G259,E259)),0)),0)</f>
         <v>93</v>
       </c>
-      <c r="M259" s="288" t="s">
+      <c r="M259" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N259" s="289"/>
+      <c r="N259" s="159"/>
       <c r="O259" s="2" t="s">
         <v>420</v>
       </c>
@@ -35462,10 +35526,10 @@
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="M262" s="290" t="s">
+      <c r="M262" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N262" s="291"/>
+      <c r="N262" s="175"/>
       <c r="O262" s="2" t="s">
         <v>457</v>
       </c>
@@ -35535,10 +35599,10 @@
         <f t="shared" si="14"/>
         <v>137</v>
       </c>
-      <c r="M263" s="290" t="s">
+      <c r="M263" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N263" s="291"/>
+      <c r="N263" s="175"/>
       <c r="O263" s="2" t="s">
         <v>457</v>
       </c>
@@ -35608,10 +35672,10 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="M264" s="284" t="s">
+      <c r="M264" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N264" s="285"/>
+      <c r="N264" s="177"/>
       <c r="O264" s="2" t="s">
         <v>425</v>
       </c>
@@ -35681,10 +35745,10 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="M265" s="284" t="s">
+      <c r="M265" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N265" s="285"/>
+      <c r="N265" s="177"/>
       <c r="O265" s="2" t="s">
         <v>425</v>
       </c>
@@ -35754,10 +35818,10 @@
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="M266" s="282" t="s">
+      <c r="M266" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N266" s="283"/>
+      <c r="N266" s="187"/>
       <c r="O266" s="2" t="s">
         <v>421</v>
       </c>
@@ -35827,10 +35891,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M267" s="282" t="s">
+      <c r="M267" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N267" s="283"/>
+      <c r="N267" s="187"/>
       <c r="O267" s="2" t="s">
         <v>421</v>
       </c>
@@ -35975,10 +36039,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M269" s="282" t="s">
+      <c r="M269" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N269" s="283"/>
+      <c r="N269" s="187"/>
       <c r="O269" s="2" t="s">
         <v>421</v>
       </c>
@@ -36348,10 +36412,10 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="M274" s="268" t="s">
+      <c r="M274" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N274" s="269"/>
+      <c r="N274" s="179"/>
       <c r="O274" s="2" t="s">
         <v>443</v>
       </c>
@@ -37115,7 +37179,7 @@
         <v>849</v>
       </c>
       <c r="U284" s="109" t="s">
-        <v>849</v>
+        <v>3486</v>
       </c>
       <c r="V284" s="109" t="s">
         <v>849</v>
@@ -37246,10 +37310,10 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="M286" s="268" t="s">
+      <c r="M286" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N286" s="269"/>
+      <c r="N286" s="179"/>
       <c r="O286" s="2" t="s">
         <v>443</v>
       </c>
@@ -37394,10 +37458,10 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="M288" s="284" t="s">
+      <c r="M288" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N288" s="285"/>
+      <c r="N288" s="177"/>
       <c r="O288" s="2" t="s">
         <v>425</v>
       </c>
@@ -37411,7 +37475,7 @@
         <v>853</v>
       </c>
       <c r="U288" s="109" t="s">
-        <v>853</v>
+        <v>3476</v>
       </c>
       <c r="V288" s="109" t="s">
         <v>853</v>
@@ -37467,10 +37531,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M289" s="284" t="s">
+      <c r="M289" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N289" s="285"/>
+      <c r="N289" s="177"/>
       <c r="O289" s="2" t="s">
         <v>425</v>
       </c>
@@ -37537,10 +37601,10 @@
       <c r="L290" s="2">
         <v>183</v>
       </c>
-      <c r="M290" s="284" t="s">
+      <c r="M290" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N290" s="285"/>
+      <c r="N290" s="177"/>
       <c r="O290" s="2" t="s">
         <v>425</v>
       </c>
@@ -37835,10 +37899,10 @@
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="M294" s="284" t="s">
+      <c r="M294" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N294" s="285"/>
+      <c r="N294" s="177"/>
       <c r="O294" s="2" t="s">
         <v>425</v>
       </c>
@@ -37908,10 +37972,10 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="M295" s="284" t="s">
+      <c r="M295" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N295" s="285"/>
+      <c r="N295" s="177"/>
       <c r="O295" s="2" t="s">
         <v>425</v>
       </c>
@@ -37981,10 +38045,10 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="M296" s="284" t="s">
+      <c r="M296" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N296" s="285"/>
+      <c r="N296" s="177"/>
       <c r="O296" s="2" t="s">
         <v>425</v>
       </c>
@@ -38054,10 +38118,10 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="M297" s="292" t="s">
+      <c r="M297" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="N297" s="293"/>
+      <c r="N297" s="189"/>
       <c r="O297" s="2" t="s">
         <v>432</v>
       </c>
@@ -38070,8 +38134,8 @@
       <c r="T297" s="25" t="s">
         <v>862</v>
       </c>
-      <c r="U297" s="109" t="s">
-        <v>3431</v>
+      <c r="U297" s="25" t="s">
+        <v>862</v>
       </c>
       <c r="V297" s="109" t="s">
         <v>862</v>
@@ -38127,10 +38191,10 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="M298" s="292" t="s">
+      <c r="M298" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="N298" s="293"/>
+      <c r="N298" s="189"/>
       <c r="O298" s="2" t="s">
         <v>432</v>
       </c>
@@ -38144,7 +38208,7 @@
         <v>863</v>
       </c>
       <c r="U298" s="109" t="s">
-        <v>863</v>
+        <v>3429</v>
       </c>
       <c r="V298" s="109" t="s">
         <v>863</v>
@@ -38275,10 +38339,10 @@
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="M300" s="294" t="s">
+      <c r="M300" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="N300" s="295"/>
+      <c r="N300" s="167"/>
       <c r="O300" s="2" t="s">
         <v>454</v>
       </c>
@@ -38348,10 +38412,10 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="M301" s="284" t="s">
+      <c r="M301" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N301" s="285"/>
+      <c r="N301" s="177"/>
       <c r="O301" s="2" t="s">
         <v>425</v>
       </c>
@@ -38421,10 +38485,10 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="M302" s="284" t="s">
+      <c r="M302" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N302" s="285"/>
+      <c r="N302" s="177"/>
       <c r="O302" s="2" t="s">
         <v>425</v>
       </c>
@@ -39019,10 +39083,10 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="M310" s="296" t="s">
+      <c r="M310" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="297"/>
+      <c r="N310" s="185"/>
       <c r="O310" s="2" t="s">
         <v>427</v>
       </c>
@@ -39092,10 +39156,10 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="M311" s="296" t="s">
+      <c r="M311" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="297"/>
+      <c r="N311" s="185"/>
       <c r="O311" s="2" t="s">
         <v>427</v>
       </c>
@@ -39165,10 +39229,10 @@
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="M312" s="296" t="s">
+      <c r="M312" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="297"/>
+      <c r="N312" s="185"/>
       <c r="O312" s="2" t="s">
         <v>427</v>
       </c>
@@ -39238,10 +39302,10 @@
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="M313" s="296" t="s">
+      <c r="M313" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="297"/>
+      <c r="N313" s="185"/>
       <c r="O313" s="2" t="s">
         <v>427</v>
       </c>
@@ -39311,10 +39375,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M314" s="282" t="s">
+      <c r="M314" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="283"/>
+      <c r="N314" s="187"/>
       <c r="O314" s="2" t="s">
         <v>421</v>
       </c>
@@ -39384,10 +39448,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M315" s="282" t="s">
+      <c r="M315" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N315" s="283"/>
+      <c r="N315" s="187"/>
       <c r="O315" s="2" t="s">
         <v>421</v>
       </c>
@@ -39532,10 +39596,10 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="M317" s="300" t="s">
+      <c r="M317" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N317" s="301"/>
+      <c r="N317" s="181"/>
       <c r="O317" s="2" t="s">
         <v>426</v>
       </c>
@@ -39605,10 +39669,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M318" s="300" t="s">
+      <c r="M318" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N318" s="301"/>
+      <c r="N318" s="181"/>
       <c r="O318" s="2" t="s">
         <v>426</v>
       </c>
@@ -39828,10 +39892,10 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="M321" s="288" t="s">
+      <c r="M321" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N321" s="289"/>
+      <c r="N321" s="159"/>
       <c r="O321" s="2" t="s">
         <v>420</v>
       </c>
@@ -39845,7 +39909,7 @@
         <v>884</v>
       </c>
       <c r="U321" s="109" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="V321" s="109" t="s">
         <v>884</v>
@@ -39901,10 +39965,10 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="M322" s="288" t="s">
+      <c r="M322" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N322" s="289"/>
+      <c r="N322" s="159"/>
       <c r="O322" s="2" t="s">
         <v>420</v>
       </c>
@@ -40124,10 +40188,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M325" s="286" t="s">
+      <c r="M325" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="N325" s="287"/>
+      <c r="N325" s="183"/>
       <c r="O325" s="2" t="s">
         <v>418</v>
       </c>
@@ -40197,10 +40261,10 @@
         <f t="shared" si="17"/>
         <v>145</v>
       </c>
-      <c r="M326" s="298" t="s">
+      <c r="M326" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N326" s="299"/>
+      <c r="N326" s="163"/>
       <c r="O326" s="2" t="s">
         <v>434</v>
       </c>
@@ -40270,10 +40334,10 @@
         <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="M327" s="298" t="s">
+      <c r="M327" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N327" s="299"/>
+      <c r="N327" s="163"/>
       <c r="O327" s="2" t="s">
         <v>434</v>
       </c>
@@ -40343,10 +40407,10 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="M328" s="284" t="s">
+      <c r="M328" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N328" s="285"/>
+      <c r="N328" s="177"/>
       <c r="O328" s="2" t="s">
         <v>425</v>
       </c>
@@ -40416,10 +40480,10 @@
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="M329" s="302" t="s">
+      <c r="M329" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="N329" s="303"/>
+      <c r="N329" s="161"/>
       <c r="O329" s="2" t="s">
         <v>428</v>
       </c>
@@ -40583,7 +40647,7 @@
         <v>894</v>
       </c>
       <c r="U331" s="109" t="s">
-        <v>3381</v>
+        <v>3379</v>
       </c>
       <c r="V331" s="109" t="s">
         <v>894</v>
@@ -40639,10 +40703,10 @@
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M332" s="268" t="s">
+      <c r="M332" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N332" s="269"/>
+      <c r="N332" s="179"/>
       <c r="O332" s="2" t="s">
         <v>443</v>
       </c>
@@ -40656,7 +40720,7 @@
         <v>895</v>
       </c>
       <c r="U332" s="109" t="s">
-        <v>895</v>
+        <v>3489</v>
       </c>
       <c r="V332" s="109" t="s">
         <v>895</v>
@@ -40731,7 +40795,7 @@
         <v>896</v>
       </c>
       <c r="U333" s="109" t="s">
-        <v>896</v>
+        <v>3490</v>
       </c>
       <c r="V333" s="109" t="s">
         <v>896</v>
@@ -40937,10 +41001,10 @@
         <f t="shared" si="17"/>
         <v>124</v>
       </c>
-      <c r="M336" s="284" t="s">
+      <c r="M336" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N336" s="285"/>
+      <c r="N336" s="177"/>
       <c r="O336" s="2" t="s">
         <v>425</v>
       </c>
@@ -41010,10 +41074,10 @@
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="M337" s="300" t="s">
+      <c r="M337" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N337" s="301"/>
+      <c r="N337" s="181"/>
       <c r="O337" s="2" t="s">
         <v>426</v>
       </c>
@@ -41383,10 +41447,10 @@
         <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="M342" s="288" t="s">
+      <c r="M342" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N342" s="289"/>
+      <c r="N342" s="159"/>
       <c r="O342" s="2" t="s">
         <v>420</v>
       </c>
@@ -41981,10 +42045,10 @@
         <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="M350" s="288" t="s">
+      <c r="M350" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N350" s="289"/>
+      <c r="N350" s="159"/>
       <c r="O350" s="2" t="s">
         <v>420</v>
       </c>
@@ -41998,7 +42062,7 @@
         <v>913</v>
       </c>
       <c r="U350" s="109" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="V350" s="109" t="s">
         <v>913</v>
@@ -42054,10 +42118,10 @@
         <f t="shared" si="17"/>
         <v>242</v>
       </c>
-      <c r="M351" s="288" t="s">
+      <c r="M351" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N351" s="289"/>
+      <c r="N351" s="159"/>
       <c r="O351" s="2" t="s">
         <v>420</v>
       </c>
@@ -42133,10 +42197,10 @@
         <f t="shared" si="17"/>
         <v>139</v>
       </c>
-      <c r="M352" s="284" t="s">
+      <c r="M352" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N352" s="285"/>
+      <c r="N352" s="177"/>
       <c r="O352" s="2" t="s">
         <v>425</v>
       </c>
@@ -42206,10 +42270,10 @@
         <f t="shared" si="17"/>
         <v>212</v>
       </c>
-      <c r="M353" s="284" t="s">
+      <c r="M353" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N353" s="285"/>
+      <c r="N353" s="177"/>
       <c r="O353" s="2" t="s">
         <v>425</v>
       </c>
@@ -42279,10 +42343,10 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M354" s="306" t="s">
+      <c r="M354" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N354" s="307"/>
+      <c r="N354" s="173"/>
       <c r="O354" s="2" t="s">
         <v>459</v>
       </c>
@@ -42352,10 +42416,10 @@
         <f t="shared" si="17"/>
         <v>127</v>
       </c>
-      <c r="M355" s="306" t="s">
+      <c r="M355" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N355" s="307"/>
+      <c r="N355" s="173"/>
       <c r="O355" s="2" t="s">
         <v>459</v>
       </c>
@@ -42369,7 +42433,7 @@
         <v>918</v>
       </c>
       <c r="U355" s="109" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="V355" s="109" t="s">
         <v>918</v>
@@ -42425,10 +42489,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M356" s="306" t="s">
+      <c r="M356" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N356" s="307"/>
+      <c r="N356" s="173"/>
       <c r="O356" s="2" t="s">
         <v>459</v>
       </c>
@@ -42442,7 +42506,7 @@
         <v>919</v>
       </c>
       <c r="U356" s="109" t="s">
-        <v>919</v>
+        <v>3478</v>
       </c>
       <c r="V356" s="109" t="s">
         <v>919</v>
@@ -42498,10 +42562,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M357" s="306" t="s">
+      <c r="M357" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N357" s="307"/>
+      <c r="N357" s="173"/>
       <c r="O357" s="2" t="s">
         <v>459</v>
       </c>
@@ -42515,7 +42579,7 @@
         <v>920</v>
       </c>
       <c r="U357" s="109" t="s">
-        <v>920</v>
+        <v>3477</v>
       </c>
       <c r="V357" s="109" t="s">
         <v>920</v>
@@ -42590,7 +42654,7 @@
         <v>921</v>
       </c>
       <c r="U358" s="109" t="s">
-        <v>3380</v>
+        <v>3479</v>
       </c>
       <c r="V358" s="109" t="s">
         <v>921</v>
@@ -42646,10 +42710,10 @@
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="M359" s="298" t="s">
+      <c r="M359" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N359" s="299"/>
+      <c r="N359" s="163"/>
       <c r="O359" s="2" t="s">
         <v>434</v>
       </c>
@@ -42719,10 +42783,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="M360" s="290" t="s">
+      <c r="M360" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N360" s="291"/>
+      <c r="N360" s="175"/>
       <c r="O360" s="2" t="s">
         <v>457</v>
       </c>
@@ -42736,7 +42800,7 @@
         <v>923</v>
       </c>
       <c r="U360" s="109" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="V360" s="109" t="s">
         <v>923</v>
@@ -42792,10 +42856,10 @@
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="M361" s="298" t="s">
+      <c r="M361" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N361" s="299"/>
+      <c r="N361" s="163"/>
       <c r="O361" s="2" t="s">
         <v>434</v>
       </c>
@@ -42865,10 +42929,10 @@
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="M362" s="304" t="s">
+      <c r="M362" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N362" s="305"/>
+      <c r="N362" s="169"/>
       <c r="O362" s="2" t="s">
         <v>495</v>
       </c>
@@ -42938,10 +43002,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M363" s="304" t="s">
+      <c r="M363" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N363" s="305"/>
+      <c r="N363" s="169"/>
       <c r="O363" s="2" t="s">
         <v>495</v>
       </c>
@@ -43236,10 +43300,10 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="M367" s="288" t="s">
+      <c r="M367" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N367" s="289"/>
+      <c r="N367" s="159"/>
       <c r="O367" s="2" t="s">
         <v>420</v>
       </c>
@@ -43309,10 +43373,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M368" s="288" t="s">
+      <c r="M368" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N368" s="289"/>
+      <c r="N368" s="159"/>
       <c r="O368" s="2" t="s">
         <v>420</v>
       </c>
@@ -43382,10 +43446,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M369" s="288" t="s">
+      <c r="M369" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N369" s="289"/>
+      <c r="N369" s="159"/>
       <c r="O369" s="2" t="s">
         <v>420</v>
       </c>
@@ -43530,10 +43594,10 @@
         <f t="shared" si="17"/>
         <v>134</v>
       </c>
-      <c r="M371" s="288" t="s">
+      <c r="M371" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N371" s="289"/>
+      <c r="N371" s="159"/>
       <c r="O371" s="2" t="s">
         <v>420</v>
       </c>
@@ -43603,10 +43667,10 @@
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="M372" s="308" t="s">
+      <c r="M372" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="N372" s="309"/>
+      <c r="N372" s="165"/>
       <c r="O372" s="2" t="s">
         <v>450</v>
       </c>
@@ -43676,10 +43740,10 @@
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-      <c r="M373" s="308" t="s">
+      <c r="M373" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="N373" s="309"/>
+      <c r="N373" s="165"/>
       <c r="O373" s="2" t="s">
         <v>450</v>
       </c>
@@ -43768,7 +43832,7 @@
         <v>952</v>
       </c>
       <c r="U374" s="109" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="V374" s="109" t="s">
         <v>1327</v>
@@ -44049,10 +44113,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M378" s="294" t="s">
+      <c r="M378" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="N378" s="295"/>
+      <c r="N378" s="167"/>
       <c r="O378" s="2" t="s">
         <v>454</v>
       </c>
@@ -44066,7 +44130,7 @@
         <v>939</v>
       </c>
       <c r="U378" s="109" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="V378" s="109" t="s">
         <v>939</v>
@@ -44122,10 +44186,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M379" s="304" t="s">
+      <c r="M379" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N379" s="305"/>
+      <c r="N379" s="169"/>
       <c r="O379" s="2" t="s">
         <v>495</v>
       </c>
@@ -44139,7 +44203,7 @@
         <v>940</v>
       </c>
       <c r="U379" s="109" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
       <c r="V379" s="109" t="s">
         <v>940</v>
@@ -44195,10 +44259,10 @@
         <f t="shared" si="17"/>
         <v>285</v>
       </c>
-      <c r="M380" s="310" t="s">
+      <c r="M380" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="N380" s="311"/>
+      <c r="N380" s="171"/>
       <c r="O380" s="2" t="s">
         <v>498</v>
       </c>
@@ -44212,7 +44276,7 @@
         <v>941</v>
       </c>
       <c r="U380" s="109" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="V380" s="109" t="s">
         <v>941</v>
@@ -44415,10 +44479,10 @@
       <c r="L383" s="2">
         <v>251</v>
       </c>
-      <c r="M383" s="288" t="s">
+      <c r="M383" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N383" s="289"/>
+      <c r="N383" s="159"/>
       <c r="O383" s="2" t="s">
         <v>420</v>
       </c>
@@ -44435,7 +44499,7 @@
         <v>944</v>
       </c>
       <c r="U383" s="109" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="V383" s="109" t="s">
         <v>944</v>
@@ -44491,10 +44555,10 @@
       <c r="L384" s="2">
         <v>251</v>
       </c>
-      <c r="M384" s="302" t="s">
+      <c r="M384" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="N384" s="303"/>
+      <c r="N384" s="161"/>
       <c r="O384" s="2" t="s">
         <v>428</v>
       </c>
@@ -44508,7 +44572,7 @@
         <v>945</v>
       </c>
       <c r="U384" s="109" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="V384" s="109" t="s">
         <v>945</v>
@@ -44580,7 +44644,7 @@
         <v>954</v>
       </c>
       <c r="U385" s="109" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="V385" s="109" t="s">
         <v>1329</v>
@@ -44711,10 +44775,10 @@
         <f t="shared" ref="L387:L445" si="19">ROUND((1+(H387-75)/500)*(ROUND(0.25*(7*MAX(G387,E387)+MIN(G387,E387)),0)),0)</f>
         <v>115</v>
       </c>
-      <c r="M387" s="298" t="s">
+      <c r="M387" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N387" s="299"/>
+      <c r="N387" s="163"/>
       <c r="O387" s="2" t="s">
         <v>434</v>
       </c>
@@ -44792,7 +44856,7 @@
         <v>3279</v>
       </c>
       <c r="P388" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T388" s="109" t="s">
         <v>2705</v>
@@ -44858,7 +44922,7 @@
         <v>3280</v>
       </c>
       <c r="P389" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T389" s="109" t="s">
         <v>2706</v>
@@ -44924,7 +44988,7 @@
         <v>3282</v>
       </c>
       <c r="P390" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T390" s="109" t="s">
         <v>2707</v>
@@ -44988,7 +45052,7 @@
         <v>3281</v>
       </c>
       <c r="P391" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T391" s="109" t="s">
         <v>2708</v>
@@ -45054,7 +45118,7 @@
         <v>3154</v>
       </c>
       <c r="P392" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T392" s="109" t="s">
         <v>2709</v>
@@ -45120,13 +45184,13 @@
         <v>3154</v>
       </c>
       <c r="P393" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T393" s="109" t="s">
         <v>2710</v>
       </c>
       <c r="U393" s="109" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
       <c r="V393" s="109" t="s">
         <v>2710</v>
@@ -45184,13 +45248,13 @@
         <v>3155</v>
       </c>
       <c r="P394" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T394" s="109" t="s">
         <v>2711</v>
       </c>
       <c r="U394" s="109" t="s">
-        <v>2711</v>
+        <v>3487</v>
       </c>
       <c r="V394" s="109" t="s">
         <v>2711</v>
@@ -45248,7 +45312,7 @@
         <v>3155</v>
       </c>
       <c r="P395" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T395" s="109" t="s">
         <v>2712</v>
@@ -45314,7 +45378,7 @@
         <v>3156</v>
       </c>
       <c r="P396" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T396" s="109" t="s">
         <v>2713</v>
@@ -45380,7 +45444,7 @@
         <v>3157</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T397" s="109" t="s">
         <v>2714</v>
@@ -45446,7 +45510,7 @@
         <v>3157</v>
       </c>
       <c r="P398" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T398" s="109" t="s">
         <v>2715</v>
@@ -45512,13 +45576,13 @@
         <v>3157</v>
       </c>
       <c r="P399" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T399" s="109" t="s">
         <v>2716</v>
       </c>
       <c r="U399" s="109" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="V399" s="109" t="s">
         <v>2716</v>
@@ -45576,7 +45640,7 @@
         <v>3158</v>
       </c>
       <c r="P400" s="2" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="T400" s="109" t="s">
         <v>2717</v>
@@ -47499,7 +47563,7 @@
         <v>2748</v>
       </c>
       <c r="U431" s="109" t="s">
-        <v>2748</v>
+        <v>3480</v>
       </c>
       <c r="V431" s="109" t="s">
         <v>2748</v>
@@ -48182,7 +48246,7 @@
         <v>2759</v>
       </c>
       <c r="U442" s="109" t="s">
-        <v>2759</v>
+        <v>3483</v>
       </c>
       <c r="V442" s="109" t="s">
         <v>2759</v>
@@ -48245,7 +48309,7 @@
         <v>2760</v>
       </c>
       <c r="U443" s="109" t="s">
-        <v>2760</v>
+        <v>3482</v>
       </c>
       <c r="V443" s="109" t="s">
         <v>2760</v>
@@ -49054,7 +49118,7 @@
         <v>2773</v>
       </c>
       <c r="U456" s="109" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
       <c r="V456" s="109" t="s">
         <v>2773</v>
@@ -49615,7 +49679,7 @@
         <v>2782</v>
       </c>
       <c r="U465" s="109" t="s">
-        <v>2782</v>
+        <v>3474</v>
       </c>
       <c r="V465" s="109" t="s">
         <v>2782</v>
@@ -49798,7 +49862,7 @@
         <v>2785</v>
       </c>
       <c r="U468" s="109" t="s">
-        <v>2785</v>
+        <v>3481</v>
       </c>
       <c r="V468" s="109" t="s">
         <v>2785</v>
@@ -49924,7 +49988,7 @@
         <v>2787</v>
       </c>
       <c r="U470" s="109" t="s">
-        <v>2787</v>
+        <v>3473</v>
       </c>
       <c r="V470" s="109" t="s">
         <v>2787</v>
@@ -49985,7 +50049,7 @@
         <v>2788</v>
       </c>
       <c r="U471" s="109" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="V471" s="109" t="s">
         <v>2788</v>
@@ -50046,7 +50110,7 @@
         <v>2789</v>
       </c>
       <c r="U472" s="109" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
       <c r="V472" s="109" t="s">
         <v>2789</v>
@@ -50236,7 +50300,7 @@
         <v>3288</v>
       </c>
       <c r="V475" s="109" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
       <c r="Z475" s="110"/>
       <c r="AA475" s="109"/>
@@ -50296,7 +50360,7 @@
         <v>2792</v>
       </c>
       <c r="U476" s="109" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="V476" s="109" t="s">
         <v>2792</v>
@@ -50420,7 +50484,7 @@
         <v>2794</v>
       </c>
       <c r="U478" s="109" t="s">
-        <v>2794</v>
+        <v>3484</v>
       </c>
       <c r="V478" s="109" t="s">
         <v>2794</v>
@@ -50607,7 +50671,7 @@
         <v>2797</v>
       </c>
       <c r="U481" s="109" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="V481" s="109" t="s">
         <v>2797</v>
@@ -50668,7 +50732,7 @@
         <v>2798</v>
       </c>
       <c r="U482" s="109" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="V482" s="109" t="s">
         <v>2798</v>
@@ -50729,7 +50793,7 @@
         <v>2799</v>
       </c>
       <c r="U483" s="109" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="V483" s="109" t="s">
         <v>2799</v>
@@ -50792,7 +50856,7 @@
         <v>2800</v>
       </c>
       <c r="U484" s="109" t="s">
-        <v>3326</v>
+        <v>3485</v>
       </c>
       <c r="V484" s="109" t="s">
         <v>2800</v>
@@ -50855,7 +50919,7 @@
         <v>2801</v>
       </c>
       <c r="U485" s="109" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="V485" s="109" t="s">
         <v>2801</v>
@@ -50918,7 +50982,7 @@
         <v>2802</v>
       </c>
       <c r="U486" s="109" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="V486" s="109" t="s">
         <v>2802</v>
@@ -50979,7 +51043,7 @@
         <v>2803</v>
       </c>
       <c r="U487" s="109" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="V487" s="109" t="s">
         <v>2803</v>
@@ -51042,7 +51106,7 @@
         <v>2804</v>
       </c>
       <c r="U488" s="109" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="V488" s="109" t="s">
         <v>2804</v>
@@ -51103,7 +51167,7 @@
         <v>2805</v>
       </c>
       <c r="U489" s="109" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="V489" s="109" t="s">
         <v>2805</v>
@@ -51286,7 +51350,7 @@
         <v>2808</v>
       </c>
       <c r="U492" s="109" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="V492" s="109" t="s">
         <v>2808</v>
@@ -51347,7 +51411,7 @@
         <v>2809</v>
       </c>
       <c r="U493" s="109" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="V493" s="109" t="s">
         <v>2809</v>
@@ -51408,7 +51472,7 @@
         <v>2810</v>
       </c>
       <c r="U494" s="109" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="V494" s="109" t="s">
         <v>2810</v>
@@ -51471,7 +51535,7 @@
         <v>2811</v>
       </c>
       <c r="U495" s="109" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="V495" s="109" t="s">
         <v>2811</v>
@@ -51841,7 +51905,7 @@
         <v>2817</v>
       </c>
       <c r="U501" s="109" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
       <c r="V501" s="109" t="s">
         <v>2817</v>
@@ -51902,7 +51966,7 @@
         <v>2818</v>
       </c>
       <c r="U502" s="109" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="V502" s="109" t="s">
         <v>2818</v>
@@ -53128,7 +53192,7 @@
         <v>2838</v>
       </c>
       <c r="U522" s="109" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
       <c r="V522" s="109" t="s">
         <v>2838</v>
@@ -53744,7 +53808,7 @@
         <v>2848</v>
       </c>
       <c r="U532" s="109" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="V532" s="109" t="s">
         <v>2848</v>
@@ -53927,7 +53991,7 @@
         <v>2851</v>
       </c>
       <c r="U535" s="109" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="V535" s="109" t="s">
         <v>2851</v>
@@ -54740,7 +54804,7 @@
         <v>2864</v>
       </c>
       <c r="U548" s="109" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="V548" s="109" t="s">
         <v>2864</v>
@@ -54862,7 +54926,7 @@
         <v>2866</v>
       </c>
       <c r="U550" s="109" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="V550" s="109" t="s">
         <v>2866</v>
@@ -55547,7 +55611,7 @@
         <v>2877</v>
       </c>
       <c r="U561" s="109" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="V561" s="109" t="s">
         <v>2877</v>
@@ -56533,7 +56597,7 @@
         <v>2893</v>
       </c>
       <c r="U577" s="109" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="V577" s="109" t="s">
         <v>2893</v>
@@ -57025,7 +57089,7 @@
         <v>2901</v>
       </c>
       <c r="U585" s="109" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
       <c r="V585" s="109" t="s">
         <v>2901</v>
@@ -57464,7 +57528,7 @@
         <v>2908</v>
       </c>
       <c r="U592" s="109" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="V592" s="109" t="s">
         <v>2908</v>
@@ -57590,7 +57654,7 @@
         <v>2910</v>
       </c>
       <c r="U594" s="109" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="V594" s="109" t="s">
         <v>2910</v>
@@ -57903,7 +57967,7 @@
         <v>2915</v>
       </c>
       <c r="U599" s="109" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="V599" s="109" t="s">
         <v>2915</v>
@@ -58580,7 +58644,7 @@
         <v>2926</v>
       </c>
       <c r="U610" s="109" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="V610" s="109" t="s">
         <v>2926</v>
@@ -58824,7 +58888,7 @@
         <v>2930</v>
       </c>
       <c r="U614" s="109" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="V614" s="109" t="s">
         <v>2930</v>
@@ -59253,7 +59317,7 @@
         <v>2937</v>
       </c>
       <c r="U621" s="109" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="V621" s="109" t="s">
         <v>2937</v>
@@ -59314,7 +59378,7 @@
         <v>2938</v>
       </c>
       <c r="U622" s="109" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="V622" s="109" t="s">
         <v>2938</v>
@@ -59566,7 +59630,7 @@
         <v>2942</v>
       </c>
       <c r="U626" s="109" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="V626" s="109" t="s">
         <v>2942</v>
@@ -59940,7 +60004,7 @@
         <v>2948</v>
       </c>
       <c r="U632" s="109" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="V632" s="109" t="s">
         <v>2948</v>
@@ -60066,7 +60130,7 @@
         <v>2950</v>
       </c>
       <c r="U634" s="109" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="V634" s="109" t="s">
         <v>2950</v>
@@ -60129,7 +60193,7 @@
         <v>2951</v>
       </c>
       <c r="U635" s="109" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="V635" s="109" t="s">
         <v>2951</v>
@@ -60192,7 +60256,7 @@
         <v>2952</v>
       </c>
       <c r="U636" s="109" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="V636" s="109" t="s">
         <v>2952</v>
@@ -60318,7 +60382,7 @@
         <v>2954</v>
       </c>
       <c r="U638" s="109" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="V638" s="109" t="s">
         <v>2954</v>
@@ -60381,7 +60445,7 @@
         <v>2955</v>
       </c>
       <c r="U639" s="109" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="V639" s="109" t="s">
         <v>2955</v>
@@ -60444,7 +60508,7 @@
         <v>2956</v>
       </c>
       <c r="U640" s="109" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="V640" s="109" t="s">
         <v>2956</v>
@@ -60507,7 +60571,7 @@
         <v>2957</v>
       </c>
       <c r="U641" s="109" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="V641" s="109" t="s">
         <v>2957</v>
@@ -60564,7 +60628,7 @@
         <v>2958</v>
       </c>
       <c r="U642" s="109" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="V642" s="109" t="s">
         <v>2958</v>
@@ -60623,7 +60687,7 @@
         <v>2959</v>
       </c>
       <c r="U643" s="109" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="V643" s="109" t="s">
         <v>2959</v>
@@ -60682,7 +60746,7 @@
         <v>2960</v>
       </c>
       <c r="U644" s="109" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="V644" s="109" t="s">
         <v>2960</v>
@@ -60741,7 +60805,7 @@
         <v>2961</v>
       </c>
       <c r="U645" s="109" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="V645" s="109" t="s">
         <v>2961</v>
@@ -60800,7 +60864,7 @@
         <v>2962</v>
       </c>
       <c r="U646" s="109" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="V646" s="109" t="s">
         <v>2962</v>
@@ -60859,7 +60923,7 @@
         <v>2963</v>
       </c>
       <c r="U647" s="156" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="V647" s="156" t="s">
         <v>2963</v>
@@ -60918,7 +60982,7 @@
         <v>2964</v>
       </c>
       <c r="U648" s="156" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="V648" s="156" t="s">
         <v>2964</v>
@@ -61036,7 +61100,7 @@
         <v>2966</v>
       </c>
       <c r="U650" s="156" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="V650" s="156" t="s">
         <v>2966</v>
@@ -61572,7 +61636,7 @@
         <v>2975</v>
       </c>
       <c r="U659" s="109" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="V659" s="109" t="s">
         <v>2975</v>
@@ -61692,7 +61756,7 @@
         <v>2977</v>
       </c>
       <c r="U661" s="109" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="V661" s="109" t="s">
         <v>2977</v>
@@ -61875,7 +61939,7 @@
         <v>2980</v>
       </c>
       <c r="U664" s="109" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="V664" s="109" t="s">
         <v>2980</v>
@@ -62951,7 +63015,7 @@
         <v>2998</v>
       </c>
       <c r="U682" s="109" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="V682" s="109" t="s">
         <v>2998</v>
@@ -64096,7 +64160,7 @@
         <v>3017</v>
       </c>
       <c r="U701" s="109" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="V701" s="109" t="s">
         <v>3017</v>
@@ -64157,7 +64221,7 @@
         <v>3018</v>
       </c>
       <c r="U702" s="109" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="V702" s="109" t="s">
         <v>3018</v>
@@ -64218,7 +64282,7 @@
         <v>3019</v>
       </c>
       <c r="U703" s="109" t="s">
-        <v>3019</v>
+        <v>3488</v>
       </c>
       <c r="V703" s="109" t="s">
         <v>3019</v>
@@ -64456,7 +64520,7 @@
         <v>3023</v>
       </c>
       <c r="U707" s="109" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
       <c r="V707" s="109" t="s">
         <v>3023</v>
@@ -64517,7 +64581,7 @@
         <v>3024</v>
       </c>
       <c r="U708" s="109" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="V708" s="109" t="s">
         <v>3024</v>
@@ -64879,7 +64943,7 @@
         <v>3030</v>
       </c>
       <c r="U714" s="109" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="V714" s="109" t="s">
         <v>3030</v>
@@ -65057,7 +65121,7 @@
         <v>3033</v>
       </c>
       <c r="U717" s="109" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="V717" s="109" t="s">
         <v>3033</v>
@@ -65116,7 +65180,7 @@
         <v>3034</v>
       </c>
       <c r="U718" s="109" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="V718" s="109" t="s">
         <v>3034</v>
@@ -65175,7 +65239,7 @@
         <v>3035</v>
       </c>
       <c r="U719" s="109" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="V719" s="109" t="s">
         <v>3035</v>
@@ -65234,7 +65298,7 @@
         <v>3036</v>
       </c>
       <c r="U720" s="109" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="V720" s="109" t="s">
         <v>3036</v>
@@ -65352,7 +65416,7 @@
         <v>3038</v>
       </c>
       <c r="U722" s="109" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="V722" s="109" t="s">
         <v>3038</v>
@@ -65412,7 +65476,7 @@
         <v>3040</v>
       </c>
       <c r="U723" s="109" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="V723" s="109" t="s">
         <v>3040</v>
@@ -65718,7 +65782,7 @@
         <v>3045</v>
       </c>
       <c r="U728" s="109" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
       <c r="V728" s="109" t="s">
         <v>3045</v>
@@ -65900,7 +65964,7 @@
         <v>3048</v>
       </c>
       <c r="U731" s="109" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="V731" s="109" t="s">
         <v>3048</v>
@@ -66206,7 +66270,7 @@
         <v>3053</v>
       </c>
       <c r="U736" s="109" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="V736" s="109" t="s">
         <v>3053</v>
@@ -67614,7 +67678,7 @@
         <v>3076</v>
       </c>
       <c r="U759" s="109" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="V759" s="109" t="s">
         <v>3076</v>
@@ -68468,7 +68532,7 @@
         <v>3090</v>
       </c>
       <c r="U773" s="109" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="V773" s="109" t="s">
         <v>3090</v>
@@ -68833,13 +68897,13 @@
         <v>3269</v>
       </c>
       <c r="T779" s="109" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="U779" s="109" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="V779" s="109" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="W779" s="109"/>
       <c r="X779" s="109"/>
@@ -69268,7 +69332,7 @@
         <v>3102</v>
       </c>
       <c r="U786" s="109" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="V786" s="109" t="s">
         <v>3102</v>
@@ -69760,7 +69824,7 @@
         <v>3110</v>
       </c>
       <c r="U794" s="109" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="V794" s="109" t="s">
         <v>3110</v>
@@ -69884,7 +69948,7 @@
         <v>3112</v>
       </c>
       <c r="U796" s="109" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="V796" s="109" t="s">
         <v>3112</v>
@@ -70436,7 +70500,7 @@
         <v>3121</v>
       </c>
       <c r="U805" s="109" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="V805" s="109" t="s">
         <v>3121</v>
@@ -70630,72 +70694,126 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M266:N266"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="M269:N269"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M262:N262"/>
-    <mergeCell ref="M263:N263"/>
-    <mergeCell ref="M264:N264"/>
-    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M244:N244"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M237:N237"/>
+    <mergeCell ref="M240:N240"/>
+    <mergeCell ref="M241:N241"/>
+    <mergeCell ref="M242:N242"/>
+    <mergeCell ref="M243:N243"/>
+    <mergeCell ref="M232:N232"/>
+    <mergeCell ref="M233:N233"/>
+    <mergeCell ref="M234:N234"/>
+    <mergeCell ref="M225:N225"/>
     <mergeCell ref="M238:N238"/>
     <mergeCell ref="M246:N246"/>
     <mergeCell ref="M253:N253"/>
@@ -70720,126 +70838,72 @@
     <mergeCell ref="M203:N203"/>
     <mergeCell ref="M205:N205"/>
     <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M244:N244"/>
-    <mergeCell ref="M245:N245"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M237:N237"/>
-    <mergeCell ref="M240:N240"/>
-    <mergeCell ref="M241:N241"/>
-    <mergeCell ref="M242:N242"/>
-    <mergeCell ref="M243:N243"/>
-    <mergeCell ref="M232:N232"/>
-    <mergeCell ref="M233:N233"/>
-    <mergeCell ref="M234:N234"/>
-    <mergeCell ref="M225:N225"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M266:N266"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="M269:N269"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M262:N262"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="M264:N264"/>
+    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M651:N720 M388:N641 M722:N808">
@@ -73725,7 +73789,7 @@
     <hyperlink ref="U55" r:id="rId2595" tooltip="可达鸭"/>
     <hyperlink ref="U56" r:id="rId2596" tooltip="哥达鸭"/>
     <hyperlink ref="U57" r:id="rId2597" tooltip="猴怪"/>
-    <hyperlink ref="U58" r:id="rId2598" tooltip="火暴猴"/>
+    <hyperlink ref="U58" r:id="rId2598" tooltip="火暴猴" display="火暴猴"/>
     <hyperlink ref="U59" r:id="rId2599" tooltip="卡蒂狗"/>
     <hyperlink ref="U60" r:id="rId2600" tooltip="风速狗" display="风速狗"/>
     <hyperlink ref="U61" r:id="rId2601" tooltip="蚊香蝌蚪"/>
@@ -73951,11 +74015,11 @@
     <hyperlink ref="U281" r:id="rId2821" tooltip="拉鲁拉丝" display="拉鲁拉丝"/>
     <hyperlink ref="U282" r:id="rId2822" tooltip="奇鲁莉安" display="奇鲁莉安"/>
     <hyperlink ref="U283" r:id="rId2823" tooltip="沙奈朵" display="沙奈朵"/>
-    <hyperlink ref="U284" r:id="rId2824" tooltip="溜溜糖球"/>
+    <hyperlink ref="U284" r:id="rId2824" tooltip="溜溜糖球" display="溜溜糖球"/>
     <hyperlink ref="U285" r:id="rId2825" tooltip="雨翅蛾"/>
     <hyperlink ref="U286" r:id="rId2826" tooltip="蘑蘑菇"/>
     <hyperlink ref="U287" r:id="rId2827" tooltip="斗笠菇" display="斗笠菇"/>
-    <hyperlink ref="U288" r:id="rId2828" tooltip="懒人獭"/>
+    <hyperlink ref="U288" r:id="rId2828" tooltip="懒人獭" display="懒人獭"/>
     <hyperlink ref="U289" r:id="rId2829" tooltip="过动猿"/>
     <hyperlink ref="U290" r:id="rId2830" tooltip="请假王"/>
     <hyperlink ref="U291" r:id="rId2831" tooltip="土居忍士"/>
@@ -73964,342 +74028,342 @@
     <hyperlink ref="U294" r:id="rId2834" tooltip="咕妞妞"/>
     <hyperlink ref="U295" r:id="rId2835" tooltip="吼爆弹"/>
     <hyperlink ref="U296" r:id="rId2836" tooltip="爆音怪"/>
-    <hyperlink ref="U297" r:id="rId2837" tooltip="幕下力士" display="幕下力士"/>
-    <hyperlink ref="U298" r:id="rId2838" tooltip="铁掌力士"/>
-    <hyperlink ref="U299" r:id="rId2839" tooltip="露力丽"/>
-    <hyperlink ref="U300" r:id="rId2840" tooltip="朝北鼻"/>
-    <hyperlink ref="U301" r:id="rId2841" tooltip="向尾喵"/>
-    <hyperlink ref="U302" r:id="rId2842" tooltip="优雅猫"/>
-    <hyperlink ref="U303" r:id="rId2843" tooltip="勾魂眼"/>
-    <hyperlink ref="U304" r:id="rId2844" tooltip="大嘴娃"/>
-    <hyperlink ref="U305" r:id="rId2845" tooltip="可可多拉"/>
-    <hyperlink ref="U306" r:id="rId2846" tooltip="可多拉"/>
-    <hyperlink ref="U307" r:id="rId2847" tooltip="波士可多拉"/>
-    <hyperlink ref="U308" r:id="rId2848" tooltip="玛沙那"/>
-    <hyperlink ref="U309" r:id="rId2849" tooltip="恰雷姆" display="恰雷姆"/>
-    <hyperlink ref="U310" r:id="rId2850" tooltip="落雷兽"/>
-    <hyperlink ref="U311" r:id="rId2851" tooltip="雷电兽"/>
-    <hyperlink ref="U312" r:id="rId2852" tooltip="正电拍拍"/>
-    <hyperlink ref="U313" r:id="rId2853" tooltip="负电拍拍"/>
-    <hyperlink ref="U314" r:id="rId2854" tooltip="电萤虫"/>
-    <hyperlink ref="U315" r:id="rId2855" tooltip="甜甜萤"/>
-    <hyperlink ref="U316" r:id="rId2856" tooltip="毒蔷薇"/>
-    <hyperlink ref="U317" r:id="rId2857" tooltip="溶食兽"/>
-    <hyperlink ref="U318" r:id="rId2858" tooltip="吞食兽"/>
-    <hyperlink ref="U319" r:id="rId2859" tooltip="利牙鱼"/>
-    <hyperlink ref="U320" r:id="rId2860" tooltip="巨牙鲨"/>
-    <hyperlink ref="U321" r:id="rId2861" tooltip="吼吼鲸" display="吼吼鲸"/>
-    <hyperlink ref="U322" r:id="rId2862" tooltip="吼鲸王"/>
-    <hyperlink ref="U323" r:id="rId2863" tooltip="呆火驼"/>
-    <hyperlink ref="U324" r:id="rId2864" tooltip="喷火驼"/>
-    <hyperlink ref="U325" r:id="rId2865" tooltip="煤炭龟"/>
-    <hyperlink ref="U326" r:id="rId2866" tooltip="跳跳猪"/>
-    <hyperlink ref="U327" r:id="rId2867" tooltip="噗噗猪"/>
-    <hyperlink ref="U328" r:id="rId2868" tooltip="晃晃斑"/>
-    <hyperlink ref="U329" r:id="rId2869" tooltip="大颚蚁"/>
-    <hyperlink ref="U330" r:id="rId2870" tooltip="超音波幼虫"/>
-    <hyperlink ref="U331" r:id="rId2871" tooltip="沙漠蜻蜓" display="沙漠蜻蜓"/>
-    <hyperlink ref="U332" r:id="rId2872" tooltip="刺球仙人掌"/>
-    <hyperlink ref="U333" r:id="rId2873" tooltip="梦歌仙人掌"/>
-    <hyperlink ref="U334" r:id="rId2874" tooltip="青绵鸟"/>
-    <hyperlink ref="U335" r:id="rId2875" tooltip="七夕青鸟"/>
-    <hyperlink ref="U336" r:id="rId2876" tooltip="猫鼬斩"/>
-    <hyperlink ref="U337" r:id="rId2877" tooltip="饭匙蛇"/>
-    <hyperlink ref="U338" r:id="rId2878" tooltip="月石"/>
-    <hyperlink ref="U339" r:id="rId2879" tooltip="太阳岩"/>
-    <hyperlink ref="U340" r:id="rId2880" tooltip="泥泥鳅"/>
-    <hyperlink ref="U341" r:id="rId2881" tooltip="鲶鱼王"/>
-    <hyperlink ref="U342" r:id="rId2882" tooltip="龙虾小兵"/>
-    <hyperlink ref="U343" r:id="rId2883" tooltip="铁螯龙虾"/>
-    <hyperlink ref="U344" r:id="rId2884" tooltip="天秤偶"/>
-    <hyperlink ref="U345" r:id="rId2885" tooltip="念力土偶"/>
-    <hyperlink ref="U346" r:id="rId2886" tooltip="触手百合"/>
-    <hyperlink ref="U347" r:id="rId2887" tooltip="摇篮百合" display="摇篮百合"/>
-    <hyperlink ref="U348" r:id="rId2888" tooltip="太古羽虫"/>
-    <hyperlink ref="U349" r:id="rId2889" tooltip="太古盔甲"/>
-    <hyperlink ref="U350" r:id="rId2890" tooltip="丑丑鱼" display="丑丑鱼"/>
-    <hyperlink ref="U351" r:id="rId2891" tooltip="美纳斯" display="美纳斯"/>
-    <hyperlink ref="U352" r:id="rId2892" tooltip="飘浮泡泡"/>
-    <hyperlink ref="U353" r:id="rId2893" tooltip="变隐龙"/>
-    <hyperlink ref="U354" r:id="rId2894" tooltip="怨影娃娃"/>
-    <hyperlink ref="U355" r:id="rId2895" tooltip="诅咒娃娃" display="诅咒娃娃"/>
-    <hyperlink ref="U356" r:id="rId2896" tooltip="夜巡灵"/>
-    <hyperlink ref="U357" r:id="rId2897" tooltip="彷徨夜灵"/>
-    <hyperlink ref="U358" r:id="rId2898" tooltip="热带龙" display="热带龙"/>
-    <hyperlink ref="U359" r:id="rId2899" tooltip="风铃铃"/>
-    <hyperlink ref="U360" r:id="rId2900" tooltip="阿勃梭鲁" display="阿勃梭鲁"/>
-    <hyperlink ref="U361" r:id="rId2901" tooltip="小果然"/>
-    <hyperlink ref="U362" r:id="rId2902" tooltip="雪童子"/>
-    <hyperlink ref="U363" r:id="rId2903" tooltip="冰鬼护"/>
-    <hyperlink ref="U364" r:id="rId2904" tooltip="海豹球"/>
-    <hyperlink ref="U365" r:id="rId2905" tooltip="海魔狮"/>
-    <hyperlink ref="U366" r:id="rId2906" tooltip="帝牙海狮"/>
-    <hyperlink ref="U367" r:id="rId2907" tooltip="珍珠贝"/>
-    <hyperlink ref="U368" r:id="rId2908" tooltip="猎斑鱼"/>
-    <hyperlink ref="U369" r:id="rId2909" tooltip="樱花鱼"/>
-    <hyperlink ref="U370" r:id="rId2910" tooltip="古空棘鱼"/>
-    <hyperlink ref="U371" r:id="rId2911" tooltip="爱心鱼"/>
-    <hyperlink ref="U372" r:id="rId2912" tooltip="宝贝龙"/>
-    <hyperlink ref="U373" r:id="rId2913" tooltip="甲壳龙"/>
-    <hyperlink ref="U374" r:id="rId2914" tooltip="暴飞龙" display="暴飞龙"/>
-    <hyperlink ref="U375" r:id="rId2915" tooltip="铁哑铃"/>
-    <hyperlink ref="U376" r:id="rId2916" tooltip="金属怪"/>
-    <hyperlink ref="U377" r:id="rId2917" tooltip="巨金怪" display="巨金怪"/>
-    <hyperlink ref="U378" r:id="rId2918" tooltip="雷吉洛克" display="雷吉洛克"/>
-    <hyperlink ref="U379" r:id="rId2919" tooltip="雷吉艾斯" display="雷吉艾斯"/>
-    <hyperlink ref="U380" r:id="rId2920" tooltip="雷吉斯奇鲁" display="雷吉斯奇鲁"/>
-    <hyperlink ref="U381" r:id="rId2921" tooltip="拉帝亚斯" display="拉帝亚斯"/>
-    <hyperlink ref="U382" r:id="rId2922" tooltip="拉帝欧斯" display="拉帝欧斯"/>
-    <hyperlink ref="U383" r:id="rId2923" tooltip="盖欧卡" display="盖欧卡"/>
-    <hyperlink ref="U384" r:id="rId2924" tooltip="固拉多" display="固拉多"/>
-    <hyperlink ref="U385" r:id="rId2925" tooltip="烈空坐" display="烈空坐"/>
-    <hyperlink ref="U386" r:id="rId2926" tooltip="基拉祈" display="基拉祈"/>
-    <hyperlink ref="U387" r:id="rId2927" tooltip="代欧奇希斯" display="代欧奇希斯"/>
-    <hyperlink ref="U388" r:id="rId2928" tooltip="草苗龟"/>
-    <hyperlink ref="U389" r:id="rId2929" tooltip="树林龟"/>
-    <hyperlink ref="U390" r:id="rId2930" tooltip="土台龟"/>
-    <hyperlink ref="U391" r:id="rId2931" tooltip="小火焰猴"/>
-    <hyperlink ref="U392" r:id="rId2932" tooltip="猛火猴"/>
-    <hyperlink ref="U393" r:id="rId2933" tooltip="烈焰猴" display="烈焰猴"/>
-    <hyperlink ref="U394" r:id="rId2934" tooltip="波加曼"/>
-    <hyperlink ref="U395" r:id="rId2935" tooltip="波皇子"/>
-    <hyperlink ref="U396" r:id="rId2936" tooltip="帝王拿波"/>
-    <hyperlink ref="U397" r:id="rId2937" tooltip="姆克儿"/>
-    <hyperlink ref="U398" r:id="rId2938" tooltip="姆克鸟"/>
-    <hyperlink ref="U399" r:id="rId2939" tooltip="姆克鹰" display="姆克鹰"/>
-    <hyperlink ref="U400" r:id="rId2940" tooltip="大牙狸"/>
-    <hyperlink ref="U401" r:id="rId2941" tooltip="大尾狸"/>
-    <hyperlink ref="U402" r:id="rId2942" tooltip="圆法师"/>
-    <hyperlink ref="U403" r:id="rId2943" tooltip="音箱蟀"/>
-    <hyperlink ref="U404" r:id="rId2944" tooltip="小猫怪"/>
-    <hyperlink ref="U405" r:id="rId2945" tooltip="勒克猫"/>
-    <hyperlink ref="U406" r:id="rId2946" tooltip="伦琴猫"/>
-    <hyperlink ref="U407" r:id="rId2947" tooltip="含羞苞"/>
-    <hyperlink ref="U408" r:id="rId2948" tooltip="罗丝雷朵"/>
-    <hyperlink ref="U409" r:id="rId2949" tooltip="头盖龙"/>
-    <hyperlink ref="U410" r:id="rId2950" tooltip="战槌龙"/>
-    <hyperlink ref="U411" r:id="rId2951" tooltip="盾甲龙"/>
-    <hyperlink ref="U412" r:id="rId2952" tooltip="护城龙"/>
-    <hyperlink ref="U413" r:id="rId2953" tooltip="结草儿"/>
-    <hyperlink ref="U414" r:id="rId2954" tooltip="结草贵妇"/>
-    <hyperlink ref="U480" r:id="rId2955" tooltip="洛托姆"/>
-    <hyperlink ref="U479" r:id="rId2956" tooltip="雪妖女"/>
-    <hyperlink ref="U478" r:id="rId2957" tooltip="黑夜魔灵"/>
-    <hyperlink ref="U477" r:id="rId2958" tooltip="大朝北鼻"/>
-    <hyperlink ref="U476" r:id="rId2959" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="U475" r:id="rId2960" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U474" r:id="rId2961" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="U473" r:id="rId2962" tooltip="天蝎王"/>
-    <hyperlink ref="U472" r:id="rId2963" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="U471" r:id="rId2964" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="U470" r:id="rId2965" tooltip="远古巨蜓"/>
-    <hyperlink ref="U469" r:id="rId2966" tooltip="波克基斯" display="波克基斯"/>
-    <hyperlink ref="U468" r:id="rId2967" tooltip="鸭嘴炎兽"/>
-    <hyperlink ref="U467" r:id="rId2968" tooltip="电击魔兽"/>
-    <hyperlink ref="U466" r:id="rId2969" tooltip="巨蔓藤"/>
-    <hyperlink ref="U465" r:id="rId2970" tooltip="超甲狂犀"/>
-    <hyperlink ref="U464" r:id="rId2971" tooltip="大舌舔"/>
-    <hyperlink ref="U463" r:id="rId2972" tooltip="自爆磁怪" display="自爆磁怪"/>
-    <hyperlink ref="U462" r:id="rId2973" tooltip="玛狃拉" display="玛狃拉"/>
-    <hyperlink ref="U461" r:id="rId2974" tooltip="暴雪王"/>
-    <hyperlink ref="U460" r:id="rId2975" tooltip="雪笠怪"/>
-    <hyperlink ref="U459" r:id="rId2976" tooltip="小球飞鱼"/>
-    <hyperlink ref="U458" r:id="rId2977" tooltip="霓虹鱼"/>
-    <hyperlink ref="U457" r:id="rId2978" tooltip="荧光鱼"/>
-    <hyperlink ref="U456" r:id="rId2979" tooltip="尖牙笼" display="尖牙笼"/>
-    <hyperlink ref="U455" r:id="rId2980" tooltip="毒骷蛙"/>
-    <hyperlink ref="U454" r:id="rId2981" tooltip="不良蛙"/>
-    <hyperlink ref="U453" r:id="rId2982" tooltip="龙王蝎"/>
-    <hyperlink ref="U452" r:id="rId2983" tooltip="钳尾蝎"/>
-    <hyperlink ref="U451" r:id="rId2984" tooltip="河马兽"/>
-    <hyperlink ref="U450" r:id="rId2985" tooltip="沙河马"/>
-    <hyperlink ref="U449" r:id="rId2986" tooltip="路卡利欧"/>
-    <hyperlink ref="U448" r:id="rId2987" tooltip="利欧路"/>
-    <hyperlink ref="U447" r:id="rId2988" tooltip="小卡比兽"/>
-    <hyperlink ref="U446" r:id="rId2989" tooltip="烈咬陆鲨" display="烈咬陆鲨"/>
-    <hyperlink ref="U445" r:id="rId2990" tooltip="尖牙陆鲨"/>
-    <hyperlink ref="U444" r:id="rId2991" tooltip="圆陆鲨"/>
-    <hyperlink ref="U443" r:id="rId2992" tooltip="花岩怪"/>
-    <hyperlink ref="U442" r:id="rId2993" tooltip="聒噪鸟"/>
-    <hyperlink ref="U441" r:id="rId2994" tooltip="小福蛋"/>
-    <hyperlink ref="U440" r:id="rId2995" tooltip="魔尼尼"/>
-    <hyperlink ref="U439" r:id="rId2996" tooltip="盆才怪" display="盆才怪"/>
-    <hyperlink ref="U438" r:id="rId2997" tooltip="青铜钟"/>
-    <hyperlink ref="U437" r:id="rId2998" tooltip="铜镜怪"/>
-    <hyperlink ref="U436" r:id="rId2999" tooltip="坦克臭鼬"/>
-    <hyperlink ref="U435" r:id="rId3000" tooltip="臭鼬噗"/>
-    <hyperlink ref="U434" r:id="rId3001" tooltip="铃铛响"/>
-    <hyperlink ref="U433" r:id="rId3002" tooltip="东施喵"/>
-    <hyperlink ref="U432" r:id="rId3003" tooltip="魅力喵"/>
-    <hyperlink ref="U431" r:id="rId3004" tooltip="乌鸦头头"/>
-    <hyperlink ref="U430" r:id="rId3005" tooltip="梦妖魔"/>
-    <hyperlink ref="U429" r:id="rId3006" tooltip="长耳兔" display="长耳兔"/>
-    <hyperlink ref="U428" r:id="rId3007" tooltip="卷卷耳"/>
-    <hyperlink ref="U427" r:id="rId3008" tooltip="随风球"/>
-    <hyperlink ref="U426" r:id="rId3009" tooltip="飘飘球"/>
-    <hyperlink ref="U425" r:id="rId3010" tooltip="双尾怪手"/>
-    <hyperlink ref="U424" r:id="rId3011" tooltip="海兔兽"/>
-    <hyperlink ref="U423" r:id="rId3012" tooltip="无壳海兔"/>
-    <hyperlink ref="U422" r:id="rId3013" tooltip="樱花儿"/>
-    <hyperlink ref="U421" r:id="rId3014" tooltip="樱花宝"/>
-    <hyperlink ref="U420" r:id="rId3015" tooltip="浮潜鼬"/>
-    <hyperlink ref="U419" r:id="rId3016" tooltip="泳圈鼬"/>
-    <hyperlink ref="U418" r:id="rId3017" tooltip="帕奇利兹" display="帕奇利兹"/>
-    <hyperlink ref="U417" r:id="rId3018" tooltip="蜂女王"/>
-    <hyperlink ref="U416" r:id="rId3019" tooltip="三蜜蜂"/>
-    <hyperlink ref="U415" r:id="rId3020" tooltip="绅士蛾"/>
-    <hyperlink ref="U487" r:id="rId3021" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="U486" r:id="rId3022" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="U485" r:id="rId3023" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U484" r:id="rId3024" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="U483" r:id="rId3025" tooltip="天蝎王" display="天蝎王"/>
-    <hyperlink ref="U482" r:id="rId3026" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="U481" r:id="rId3027" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="U493" r:id="rId3028" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="U492" r:id="rId3029" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="U491" r:id="rId3030" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U490" r:id="rId3031" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="U488" r:id="rId3032" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="U495" r:id="rId3033" tooltip="比克提尼" display="比克提尼"/>
-    <hyperlink ref="U496" r:id="rId3034" tooltip="藤藤蛇"/>
-    <hyperlink ref="U497" r:id="rId3035" tooltip="青藤蛇"/>
-    <hyperlink ref="U498" r:id="rId3036" tooltip="君主蛇"/>
-    <hyperlink ref="U499" r:id="rId3037" tooltip="暖暖猪"/>
-    <hyperlink ref="U500" r:id="rId3038" tooltip="炒炒猪"/>
-    <hyperlink ref="U501" r:id="rId3039" tooltip="炎武王" display="炎武王"/>
-    <hyperlink ref="U502" r:id="rId3040" tooltip="水水獭" display="水水獭"/>
-    <hyperlink ref="U503" r:id="rId3041" tooltip="双刃丸"/>
-    <hyperlink ref="U504" r:id="rId3042" tooltip="大剑鬼"/>
-    <hyperlink ref="U505" r:id="rId3043" tooltip="探探鼠"/>
-    <hyperlink ref="U506" r:id="rId3044" tooltip="步哨鼠"/>
-    <hyperlink ref="U507" r:id="rId3045" tooltip="小约克"/>
-    <hyperlink ref="U508" r:id="rId3046" tooltip="哈约克"/>
-    <hyperlink ref="U509" r:id="rId3047" tooltip="长毛狗"/>
-    <hyperlink ref="U510" r:id="rId3048" tooltip="扒手猫"/>
-    <hyperlink ref="U511" r:id="rId3049" tooltip="酷豹"/>
-    <hyperlink ref="U512" r:id="rId3050" tooltip="花椰猴"/>
-    <hyperlink ref="U513" r:id="rId3051" tooltip="花椰猿"/>
-    <hyperlink ref="U514" r:id="rId3052" tooltip="爆香猴"/>
-    <hyperlink ref="U515" r:id="rId3053" tooltip="爆香猿"/>
-    <hyperlink ref="U516" r:id="rId3054" tooltip="冷水猴"/>
-    <hyperlink ref="U517" r:id="rId3055" tooltip="冷水猿"/>
-    <hyperlink ref="U518" r:id="rId3056" tooltip="食梦梦"/>
-    <hyperlink ref="U519" r:id="rId3057" tooltip="梦梦蚀"/>
-    <hyperlink ref="U520" r:id="rId3058" tooltip="豆豆鸽"/>
-    <hyperlink ref="U521" r:id="rId3059" tooltip="咕咕鸽"/>
-    <hyperlink ref="U522" r:id="rId3060" tooltip="高傲雉鸡" display="高傲雉鸡"/>
-    <hyperlink ref="U523" r:id="rId3061" tooltip="斑斑马"/>
-    <hyperlink ref="U524" r:id="rId3062" tooltip="雷电斑马"/>
-    <hyperlink ref="U525" r:id="rId3063" tooltip="石丸子"/>
-    <hyperlink ref="U526" r:id="rId3064" tooltip="地幔岩"/>
-    <hyperlink ref="U527" r:id="rId3065" tooltip="庞岩怪"/>
-    <hyperlink ref="U528" r:id="rId3066" tooltip="滚滚蝙蝠"/>
-    <hyperlink ref="U529" r:id="rId3067" tooltip="心蝙蝠"/>
-    <hyperlink ref="U530" r:id="rId3068" tooltip="螺钉地鼠"/>
-    <hyperlink ref="U531" r:id="rId3069" tooltip="龙头地鼠"/>
-    <hyperlink ref="U532" r:id="rId3070" tooltip="差不多娃娃" display="差不多娃娃"/>
-    <hyperlink ref="U533" r:id="rId3071" tooltip="搬运小匠"/>
-    <hyperlink ref="U534" r:id="rId3072" tooltip="铁骨土人"/>
-    <hyperlink ref="U535" r:id="rId3073" tooltip="修建老匠" display="修建老匠"/>
-    <hyperlink ref="U536" r:id="rId3074" tooltip="圆蝌蚪"/>
-    <hyperlink ref="U537" r:id="rId3075" tooltip="蓝蟾蜍"/>
-    <hyperlink ref="U538" r:id="rId3076" tooltip="蟾蜍王"/>
-    <hyperlink ref="U539" r:id="rId3077" tooltip="投摔鬼"/>
-    <hyperlink ref="U540" r:id="rId3078" tooltip="打击鬼"/>
-    <hyperlink ref="U541" r:id="rId3079" tooltip="虫宝包"/>
-    <hyperlink ref="U542" r:id="rId3080" tooltip="宝包茧"/>
-    <hyperlink ref="U543" r:id="rId3081" tooltip="保姆虫"/>
-    <hyperlink ref="U544" r:id="rId3082" tooltip="百足蜈蚣"/>
-    <hyperlink ref="U545" r:id="rId3083" tooltip="车轮球"/>
-    <hyperlink ref="U546" r:id="rId3084" tooltip="蜈蚣王"/>
-    <hyperlink ref="U547" r:id="rId3085" tooltip="木棉球"/>
-    <hyperlink ref="U548" r:id="rId3086" tooltip="风妖精" display="风妖精"/>
-    <hyperlink ref="U549" r:id="rId3087" tooltip="百合根娃娃"/>
-    <hyperlink ref="U550" r:id="rId3088" tooltip="裙儿小姐" display="裙儿小姐"/>
-    <hyperlink ref="U551" r:id="rId3089" tooltip="野蛮鲈鱼"/>
-    <hyperlink ref="U552" r:id="rId3090" tooltip="黑眼鳄"/>
-    <hyperlink ref="U553" r:id="rId3091" tooltip="混混鳄"/>
-    <hyperlink ref="U554" r:id="rId3092" tooltip="流氓鳄"/>
-    <hyperlink ref="U555" r:id="rId3093" tooltip="火红不倒翁"/>
-    <hyperlink ref="U651" r:id="rId3094" tooltip="哈力栗"/>
-    <hyperlink ref="U652" r:id="rId3095" tooltip="胖胖哈力"/>
-    <hyperlink ref="U653" r:id="rId3096" tooltip="布里卡隆"/>
-    <hyperlink ref="U654" r:id="rId3097" tooltip="火狐狸"/>
-    <hyperlink ref="U655" r:id="rId3098" tooltip="长尾火狐"/>
-    <hyperlink ref="U656" r:id="rId3099" tooltip="妖火红狐"/>
-    <hyperlink ref="U657" r:id="rId3100" tooltip="呱呱泡蛙"/>
-    <hyperlink ref="U658" r:id="rId3101" tooltip="呱头蛙"/>
-    <hyperlink ref="U659" r:id="rId3102" tooltip="甲贺忍蛙" display="甲贺忍蛙"/>
-    <hyperlink ref="U660" r:id="rId3103" tooltip="掘掘兔"/>
-    <hyperlink ref="U661" r:id="rId3104" tooltip="掘地兔" display="掘地兔"/>
-    <hyperlink ref="U662" r:id="rId3105" tooltip="小箭雀"/>
-    <hyperlink ref="U663" r:id="rId3106" tooltip="火箭雀"/>
-    <hyperlink ref="U664" r:id="rId3107" tooltip="烈箭鹰" display="烈箭鹰"/>
-    <hyperlink ref="U665" r:id="rId3108" tooltip="粉蝶虫"/>
-    <hyperlink ref="U666" r:id="rId3109" tooltip="粉蝶蛹"/>
-    <hyperlink ref="U667" r:id="rId3110" tooltip="彩粉蝶"/>
-    <hyperlink ref="U668" r:id="rId3111" tooltip="小狮狮"/>
-    <hyperlink ref="U669" r:id="rId3112" tooltip="火炎狮"/>
-    <hyperlink ref="U670" r:id="rId3113" tooltip="花蓓蓓"/>
-    <hyperlink ref="U671" r:id="rId3114" tooltip="花叶蒂"/>
-    <hyperlink ref="U672" r:id="rId3115" tooltip="花洁夫人"/>
-    <hyperlink ref="U673" r:id="rId3116" tooltip="坐骑小羊"/>
-    <hyperlink ref="U674" r:id="rId3117" tooltip="坐骑山羊"/>
-    <hyperlink ref="U675" r:id="rId3118" tooltip="顽皮熊猫"/>
-    <hyperlink ref="U676" r:id="rId3119" tooltip="流氓熊猫"/>
-    <hyperlink ref="U677" r:id="rId3120" tooltip="多丽米亚"/>
-    <hyperlink ref="U678" r:id="rId3121" tooltip="妙喵"/>
-    <hyperlink ref="U679" r:id="rId3122" tooltip="超能妙喵"/>
-    <hyperlink ref="U680" r:id="rId3123" tooltip="独剑鞘"/>
-    <hyperlink ref="U681" r:id="rId3124" tooltip="双剑鞘"/>
-    <hyperlink ref="U682" r:id="rId3125" tooltip="坚盾剑怪" display="坚盾剑怪"/>
-    <hyperlink ref="U713" r:id="rId3126" tooltip="冰宝"/>
-    <hyperlink ref="U714" r:id="rId3127" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="U715" r:id="rId3128" tooltip="嗡蝠"/>
-    <hyperlink ref="U716" r:id="rId3129" tooltip="音波龙"/>
-    <hyperlink ref="U717" r:id="rId3130" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="U718" r:id="rId3131" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="U711" r:id="rId3132" tooltip="南瓜精"/>
-    <hyperlink ref="U712" r:id="rId3133" tooltip="南瓜怪人"/>
-    <hyperlink ref="U683" r:id="rId3134" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U684" r:id="rId3135" tooltip="冰宝" display="冰宝"/>
-    <hyperlink ref="U685" r:id="rId3136" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="U686" r:id="rId3137" tooltip="嗡蝠" display="嗡蝠"/>
-    <hyperlink ref="U687" r:id="rId3138" tooltip="音波龙" display="音波龙"/>
-    <hyperlink ref="U688" r:id="rId3139" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="U689" r:id="rId3140" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="U690" r:id="rId3141" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U691" r:id="rId3142" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U692" r:id="rId3143" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U693" r:id="rId3144" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U694" r:id="rId3145" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U695" r:id="rId3146" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U696" r:id="rId3147" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U723" r:id="rId3148" tooltip="木木枭" display="木木枭"/>
-    <hyperlink ref="U724" r:id="rId3149" tooltip="投羽枭"/>
-    <hyperlink ref="U725" r:id="rId3150" tooltip="狙射树枭"/>
-    <hyperlink ref="U726" r:id="rId3151" tooltip="火斑喵"/>
-    <hyperlink ref="U727" r:id="rId3152" tooltip="炎热喵"/>
-    <hyperlink ref="U728" r:id="rId3153" tooltip="炽焰咆哮虎" display="炽焰咆哮虎"/>
-    <hyperlink ref="U729" r:id="rId3154" tooltip="球球海狮"/>
-    <hyperlink ref="U730" r:id="rId3155" tooltip="花漾海狮"/>
-    <hyperlink ref="U731" r:id="rId3156" tooltip="西狮海壬" display="西狮海壬"/>
-    <hyperlink ref="U732" r:id="rId3157" tooltip="小笃儿"/>
-    <hyperlink ref="U733" r:id="rId3158" tooltip="喇叭啄鸟"/>
-    <hyperlink ref="U734" r:id="rId3159" tooltip="铳嘴大鸟"/>
-    <hyperlink ref="U735" r:id="rId3160" tooltip="猫鼬少"/>
-    <hyperlink ref="U736" r:id="rId3161" tooltip="猫鼬探长" display="猫鼬探长"/>
-    <hyperlink ref="U737" r:id="rId3162" tooltip="强颚鸡母虫"/>
-    <hyperlink ref="U738" r:id="rId3163" tooltip="虫电宝"/>
-    <hyperlink ref="U739" r:id="rId3164" tooltip="锹农炮虫"/>
-    <hyperlink ref="U740" r:id="rId3165" tooltip="好胜蟹"/>
-    <hyperlink ref="U741" r:id="rId3166" tooltip="好胜毛蟹"/>
-    <hyperlink ref="U742" r:id="rId3167" tooltip="花舞鸟"/>
-    <hyperlink ref="U743" r:id="rId3168" tooltip="萌虻"/>
-    <hyperlink ref="U744" r:id="rId3169" tooltip="蝶结萌虻"/>
-    <hyperlink ref="U745" r:id="rId3170" tooltip="岩狗狗"/>
-    <hyperlink ref="U746" r:id="rId3171" tooltip="鬃岩狼人"/>
-    <hyperlink ref="V475" r:id="rId3172" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="U299" r:id="rId2837" tooltip="露力丽"/>
+    <hyperlink ref="U300" r:id="rId2838" tooltip="朝北鼻"/>
+    <hyperlink ref="U301" r:id="rId2839" tooltip="向尾喵"/>
+    <hyperlink ref="U302" r:id="rId2840" tooltip="优雅猫"/>
+    <hyperlink ref="U303" r:id="rId2841" tooltip="勾魂眼"/>
+    <hyperlink ref="U304" r:id="rId2842" tooltip="大嘴娃"/>
+    <hyperlink ref="U305" r:id="rId2843" tooltip="可可多拉"/>
+    <hyperlink ref="U306" r:id="rId2844" tooltip="可多拉"/>
+    <hyperlink ref="U307" r:id="rId2845" tooltip="波士可多拉"/>
+    <hyperlink ref="U308" r:id="rId2846" tooltip="玛沙那"/>
+    <hyperlink ref="U309" r:id="rId2847" tooltip="恰雷姆" display="恰雷姆"/>
+    <hyperlink ref="U310" r:id="rId2848" tooltip="落雷兽"/>
+    <hyperlink ref="U311" r:id="rId2849" tooltip="雷电兽"/>
+    <hyperlink ref="U312" r:id="rId2850" tooltip="正电拍拍"/>
+    <hyperlink ref="U313" r:id="rId2851" tooltip="负电拍拍"/>
+    <hyperlink ref="U314" r:id="rId2852" tooltip="电萤虫"/>
+    <hyperlink ref="U315" r:id="rId2853" tooltip="甜甜萤"/>
+    <hyperlink ref="U316" r:id="rId2854" tooltip="毒蔷薇"/>
+    <hyperlink ref="U317" r:id="rId2855" tooltip="溶食兽"/>
+    <hyperlink ref="U318" r:id="rId2856" tooltip="吞食兽"/>
+    <hyperlink ref="U319" r:id="rId2857" tooltip="利牙鱼"/>
+    <hyperlink ref="U320" r:id="rId2858" tooltip="巨牙鲨"/>
+    <hyperlink ref="U321" r:id="rId2859" tooltip="吼吼鲸" display="吼吼鲸"/>
+    <hyperlink ref="U322" r:id="rId2860" tooltip="吼鲸王"/>
+    <hyperlink ref="U323" r:id="rId2861" tooltip="呆火驼"/>
+    <hyperlink ref="U324" r:id="rId2862" tooltip="喷火驼"/>
+    <hyperlink ref="U325" r:id="rId2863" tooltip="煤炭龟"/>
+    <hyperlink ref="U326" r:id="rId2864" tooltip="跳跳猪"/>
+    <hyperlink ref="U327" r:id="rId2865" tooltip="噗噗猪"/>
+    <hyperlink ref="U328" r:id="rId2866" tooltip="晃晃斑"/>
+    <hyperlink ref="U329" r:id="rId2867" tooltip="大颚蚁"/>
+    <hyperlink ref="U330" r:id="rId2868" tooltip="超音波幼虫"/>
+    <hyperlink ref="U331" r:id="rId2869" tooltip="沙漠蜻蜓" display="沙漠蜻蜓"/>
+    <hyperlink ref="U332" r:id="rId2870" tooltip="刺球仙人掌" display="刺球仙人掌"/>
+    <hyperlink ref="U333" r:id="rId2871" tooltip="梦歌仙人掌" display="梦歌仙人掌"/>
+    <hyperlink ref="U334" r:id="rId2872" tooltip="青绵鸟"/>
+    <hyperlink ref="U335" r:id="rId2873" tooltip="七夕青鸟"/>
+    <hyperlink ref="U336" r:id="rId2874" tooltip="猫鼬斩"/>
+    <hyperlink ref="U337" r:id="rId2875" tooltip="饭匙蛇"/>
+    <hyperlink ref="U338" r:id="rId2876" tooltip="月石"/>
+    <hyperlink ref="U339" r:id="rId2877" tooltip="太阳岩"/>
+    <hyperlink ref="U340" r:id="rId2878" tooltip="泥泥鳅"/>
+    <hyperlink ref="U341" r:id="rId2879" tooltip="鲶鱼王"/>
+    <hyperlink ref="U342" r:id="rId2880" tooltip="龙虾小兵"/>
+    <hyperlink ref="U343" r:id="rId2881" tooltip="铁螯龙虾"/>
+    <hyperlink ref="U344" r:id="rId2882" tooltip="天秤偶"/>
+    <hyperlink ref="U345" r:id="rId2883" tooltip="念力土偶"/>
+    <hyperlink ref="U346" r:id="rId2884" tooltip="触手百合"/>
+    <hyperlink ref="U347" r:id="rId2885" tooltip="摇篮百合" display="摇篮百合"/>
+    <hyperlink ref="U348" r:id="rId2886" tooltip="太古羽虫"/>
+    <hyperlink ref="U349" r:id="rId2887" tooltip="太古盔甲"/>
+    <hyperlink ref="U350" r:id="rId2888" tooltip="丑丑鱼" display="丑丑鱼"/>
+    <hyperlink ref="U351" r:id="rId2889" tooltip="美纳斯" display="美纳斯"/>
+    <hyperlink ref="U352" r:id="rId2890" tooltip="飘浮泡泡"/>
+    <hyperlink ref="U353" r:id="rId2891" tooltip="变隐龙"/>
+    <hyperlink ref="U354" r:id="rId2892" tooltip="怨影娃娃"/>
+    <hyperlink ref="U355" r:id="rId2893" tooltip="诅咒娃娃" display="诅咒娃娃"/>
+    <hyperlink ref="U356" r:id="rId2894" tooltip="夜巡灵" display="夜巡灵"/>
+    <hyperlink ref="U357" r:id="rId2895" tooltip="彷徨夜灵" display="彷徨夜灵"/>
+    <hyperlink ref="U358" r:id="rId2896" tooltip="热带龙" display="热带龙"/>
+    <hyperlink ref="U359" r:id="rId2897" tooltip="风铃铃"/>
+    <hyperlink ref="U360" r:id="rId2898" tooltip="阿勃梭鲁" display="阿勃梭鲁"/>
+    <hyperlink ref="U361" r:id="rId2899" tooltip="小果然"/>
+    <hyperlink ref="U362" r:id="rId2900" tooltip="雪童子"/>
+    <hyperlink ref="U363" r:id="rId2901" tooltip="冰鬼护"/>
+    <hyperlink ref="U364" r:id="rId2902" tooltip="海豹球"/>
+    <hyperlink ref="U365" r:id="rId2903" tooltip="海魔狮"/>
+    <hyperlink ref="U366" r:id="rId2904" tooltip="帝牙海狮"/>
+    <hyperlink ref="U367" r:id="rId2905" tooltip="珍珠贝"/>
+    <hyperlink ref="U368" r:id="rId2906" tooltip="猎斑鱼"/>
+    <hyperlink ref="U369" r:id="rId2907" tooltip="樱花鱼"/>
+    <hyperlink ref="U370" r:id="rId2908" tooltip="古空棘鱼"/>
+    <hyperlink ref="U371" r:id="rId2909" tooltip="爱心鱼"/>
+    <hyperlink ref="U372" r:id="rId2910" tooltip="宝贝龙"/>
+    <hyperlink ref="U373" r:id="rId2911" tooltip="甲壳龙"/>
+    <hyperlink ref="U374" r:id="rId2912" tooltip="暴飞龙" display="暴飞龙"/>
+    <hyperlink ref="U375" r:id="rId2913" tooltip="铁哑铃"/>
+    <hyperlink ref="U376" r:id="rId2914" tooltip="金属怪"/>
+    <hyperlink ref="U377" r:id="rId2915" tooltip="巨金怪" display="巨金怪"/>
+    <hyperlink ref="U378" r:id="rId2916" tooltip="雷吉洛克" display="雷吉洛克"/>
+    <hyperlink ref="U379" r:id="rId2917" tooltip="雷吉艾斯" display="雷吉艾斯"/>
+    <hyperlink ref="U380" r:id="rId2918" tooltip="雷吉斯奇鲁" display="雷吉斯奇鲁"/>
+    <hyperlink ref="U381" r:id="rId2919" tooltip="拉帝亚斯" display="拉帝亚斯"/>
+    <hyperlink ref="U382" r:id="rId2920" tooltip="拉帝欧斯" display="拉帝欧斯"/>
+    <hyperlink ref="U383" r:id="rId2921" tooltip="盖欧卡" display="盖欧卡"/>
+    <hyperlink ref="U384" r:id="rId2922" tooltip="固拉多" display="固拉多"/>
+    <hyperlink ref="U385" r:id="rId2923" tooltip="烈空坐" display="烈空坐"/>
+    <hyperlink ref="U386" r:id="rId2924" tooltip="基拉祈" display="基拉祈"/>
+    <hyperlink ref="U387" r:id="rId2925" tooltip="代欧奇希斯" display="代欧奇希斯"/>
+    <hyperlink ref="U388" r:id="rId2926" tooltip="草苗龟"/>
+    <hyperlink ref="U389" r:id="rId2927" tooltip="树林龟"/>
+    <hyperlink ref="U390" r:id="rId2928" tooltip="土台龟"/>
+    <hyperlink ref="U391" r:id="rId2929" tooltip="小火焰猴"/>
+    <hyperlink ref="U392" r:id="rId2930" tooltip="猛火猴"/>
+    <hyperlink ref="U393" r:id="rId2931" tooltip="烈焰猴" display="烈焰猴"/>
+    <hyperlink ref="U394" r:id="rId2932" tooltip="波加曼" display="波加曼"/>
+    <hyperlink ref="U395" r:id="rId2933" tooltip="波皇子"/>
+    <hyperlink ref="U396" r:id="rId2934" tooltip="帝王拿波"/>
+    <hyperlink ref="U397" r:id="rId2935" tooltip="姆克儿"/>
+    <hyperlink ref="U398" r:id="rId2936" tooltip="姆克鸟"/>
+    <hyperlink ref="U399" r:id="rId2937" tooltip="姆克鹰" display="姆克鹰"/>
+    <hyperlink ref="U400" r:id="rId2938" tooltip="大牙狸"/>
+    <hyperlink ref="U401" r:id="rId2939" tooltip="大尾狸"/>
+    <hyperlink ref="U402" r:id="rId2940" tooltip="圆法师"/>
+    <hyperlink ref="U403" r:id="rId2941" tooltip="音箱蟀"/>
+    <hyperlink ref="U404" r:id="rId2942" tooltip="小猫怪"/>
+    <hyperlink ref="U405" r:id="rId2943" tooltip="勒克猫"/>
+    <hyperlink ref="U406" r:id="rId2944" tooltip="伦琴猫"/>
+    <hyperlink ref="U407" r:id="rId2945" tooltip="含羞苞"/>
+    <hyperlink ref="U408" r:id="rId2946" tooltip="罗丝雷朵"/>
+    <hyperlink ref="U409" r:id="rId2947" tooltip="头盖龙"/>
+    <hyperlink ref="U410" r:id="rId2948" tooltip="战槌龙"/>
+    <hyperlink ref="U411" r:id="rId2949" tooltip="盾甲龙"/>
+    <hyperlink ref="U412" r:id="rId2950" tooltip="护城龙"/>
+    <hyperlink ref="U413" r:id="rId2951" tooltip="结草儿"/>
+    <hyperlink ref="U414" r:id="rId2952" tooltip="结草贵妇"/>
+    <hyperlink ref="U480" r:id="rId2953" tooltip="洛托姆"/>
+    <hyperlink ref="U479" r:id="rId2954" tooltip="雪妖女"/>
+    <hyperlink ref="U478" r:id="rId2955" tooltip="黑夜魔灵" display="黑夜魔灵"/>
+    <hyperlink ref="U477" r:id="rId2956" tooltip="大朝北鼻"/>
+    <hyperlink ref="U476" r:id="rId2957" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="U475" r:id="rId2958" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="U474" r:id="rId2959" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="U473" r:id="rId2960" tooltip="天蝎王"/>
+    <hyperlink ref="U472" r:id="rId2961" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="U471" r:id="rId2962" tooltip="叶伊布" display="叶伊布"/>
+    <hyperlink ref="U470" r:id="rId2963" tooltip="远古巨蜓" display="远古巨蜓"/>
+    <hyperlink ref="U469" r:id="rId2964" tooltip="波克基斯" display="波克基斯"/>
+    <hyperlink ref="U468" r:id="rId2965" tooltip="鸭嘴炎兽" display="鸭嘴炎兽"/>
+    <hyperlink ref="U467" r:id="rId2966" tooltip="电击魔兽"/>
+    <hyperlink ref="U466" r:id="rId2967" tooltip="巨蔓藤"/>
+    <hyperlink ref="U465" r:id="rId2968" tooltip="超甲狂犀" display="超甲狂犀"/>
+    <hyperlink ref="U464" r:id="rId2969" tooltip="大舌舔"/>
+    <hyperlink ref="U463" r:id="rId2970" tooltip="自爆磁怪" display="自爆磁怪"/>
+    <hyperlink ref="U462" r:id="rId2971" tooltip="玛狃拉" display="玛狃拉"/>
+    <hyperlink ref="U461" r:id="rId2972" tooltip="暴雪王"/>
+    <hyperlink ref="U460" r:id="rId2973" tooltip="雪笠怪"/>
+    <hyperlink ref="U459" r:id="rId2974" tooltip="小球飞鱼"/>
+    <hyperlink ref="U458" r:id="rId2975" tooltip="霓虹鱼"/>
+    <hyperlink ref="U457" r:id="rId2976" tooltip="荧光鱼"/>
+    <hyperlink ref="U456" r:id="rId2977" tooltip="尖牙笼" display="尖牙笼"/>
+    <hyperlink ref="U455" r:id="rId2978" tooltip="毒骷蛙"/>
+    <hyperlink ref="U454" r:id="rId2979" tooltip="不良蛙"/>
+    <hyperlink ref="U453" r:id="rId2980" tooltip="龙王蝎"/>
+    <hyperlink ref="U452" r:id="rId2981" tooltip="钳尾蝎"/>
+    <hyperlink ref="U451" r:id="rId2982" tooltip="河马兽"/>
+    <hyperlink ref="U450" r:id="rId2983" tooltip="沙河马"/>
+    <hyperlink ref="U449" r:id="rId2984" tooltip="路卡利欧"/>
+    <hyperlink ref="U448" r:id="rId2985" tooltip="利欧路"/>
+    <hyperlink ref="U447" r:id="rId2986" tooltip="小卡比兽"/>
+    <hyperlink ref="U446" r:id="rId2987" tooltip="烈咬陆鲨" display="烈咬陆鲨"/>
+    <hyperlink ref="U445" r:id="rId2988" tooltip="尖牙陆鲨"/>
+    <hyperlink ref="U444" r:id="rId2989" tooltip="圆陆鲨"/>
+    <hyperlink ref="U443" r:id="rId2990" tooltip="花岩怪" display="花岩怪"/>
+    <hyperlink ref="U442" r:id="rId2991" tooltip="聒噪鸟" display="聒噪鸟"/>
+    <hyperlink ref="U441" r:id="rId2992" tooltip="小福蛋"/>
+    <hyperlink ref="U440" r:id="rId2993" tooltip="魔尼尼"/>
+    <hyperlink ref="U439" r:id="rId2994" tooltip="盆才怪" display="盆才怪"/>
+    <hyperlink ref="U438" r:id="rId2995" tooltip="青铜钟"/>
+    <hyperlink ref="U437" r:id="rId2996" tooltip="铜镜怪"/>
+    <hyperlink ref="U436" r:id="rId2997" tooltip="坦克臭鼬"/>
+    <hyperlink ref="U435" r:id="rId2998" tooltip="臭鼬噗"/>
+    <hyperlink ref="U434" r:id="rId2999" tooltip="铃铛响"/>
+    <hyperlink ref="U433" r:id="rId3000" tooltip="东施喵"/>
+    <hyperlink ref="U432" r:id="rId3001" tooltip="魅力喵"/>
+    <hyperlink ref="U431" r:id="rId3002" tooltip="乌鸦头头" display="乌鸦头头"/>
+    <hyperlink ref="U430" r:id="rId3003" tooltip="梦妖魔"/>
+    <hyperlink ref="U429" r:id="rId3004" tooltip="长耳兔" display="长耳兔"/>
+    <hyperlink ref="U428" r:id="rId3005" tooltip="卷卷耳"/>
+    <hyperlink ref="U427" r:id="rId3006" tooltip="随风球"/>
+    <hyperlink ref="U426" r:id="rId3007" tooltip="飘飘球"/>
+    <hyperlink ref="U425" r:id="rId3008" tooltip="双尾怪手"/>
+    <hyperlink ref="U424" r:id="rId3009" tooltip="海兔兽"/>
+    <hyperlink ref="U423" r:id="rId3010" tooltip="无壳海兔"/>
+    <hyperlink ref="U422" r:id="rId3011" tooltip="樱花儿"/>
+    <hyperlink ref="U421" r:id="rId3012" tooltip="樱花宝"/>
+    <hyperlink ref="U420" r:id="rId3013" tooltip="浮潜鼬"/>
+    <hyperlink ref="U419" r:id="rId3014" tooltip="泳圈鼬"/>
+    <hyperlink ref="U418" r:id="rId3015" tooltip="帕奇利兹" display="帕奇利兹"/>
+    <hyperlink ref="U417" r:id="rId3016" tooltip="蜂女王"/>
+    <hyperlink ref="U416" r:id="rId3017" tooltip="三蜜蜂"/>
+    <hyperlink ref="U415" r:id="rId3018" tooltip="绅士蛾"/>
+    <hyperlink ref="U487" r:id="rId3019" tooltip="大朝北鼻" display="大朝北鼻"/>
+    <hyperlink ref="U486" r:id="rId3020" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="U485" r:id="rId3021" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="U484" r:id="rId3022" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="U483" r:id="rId3023" tooltip="天蝎王" display="天蝎王"/>
+    <hyperlink ref="U482" r:id="rId3024" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="U481" r:id="rId3025" tooltip="叶伊布" display="叶伊布"/>
+    <hyperlink ref="U493" r:id="rId3026" tooltip="大朝北鼻" display="大朝北鼻"/>
+    <hyperlink ref="U492" r:id="rId3027" tooltip="艾路雷朵" display="艾路雷朵"/>
+    <hyperlink ref="U491" r:id="rId3028" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="U490" r:id="rId3029" tooltip="象牙猪" display="象牙猪"/>
+    <hyperlink ref="U488" r:id="rId3030" tooltip="冰伊布" display="冰伊布"/>
+    <hyperlink ref="U495" r:id="rId3031" tooltip="比克提尼" display="比克提尼"/>
+    <hyperlink ref="U496" r:id="rId3032" tooltip="藤藤蛇"/>
+    <hyperlink ref="U497" r:id="rId3033" tooltip="青藤蛇"/>
+    <hyperlink ref="U498" r:id="rId3034" tooltip="君主蛇"/>
+    <hyperlink ref="U499" r:id="rId3035" tooltip="暖暖猪"/>
+    <hyperlink ref="U500" r:id="rId3036" tooltip="炒炒猪"/>
+    <hyperlink ref="U501" r:id="rId3037" tooltip="炎武王" display="炎武王"/>
+    <hyperlink ref="U502" r:id="rId3038" tooltip="水水獭" display="水水獭"/>
+    <hyperlink ref="U503" r:id="rId3039" tooltip="双刃丸"/>
+    <hyperlink ref="U504" r:id="rId3040" tooltip="大剑鬼"/>
+    <hyperlink ref="U505" r:id="rId3041" tooltip="探探鼠"/>
+    <hyperlink ref="U506" r:id="rId3042" tooltip="步哨鼠"/>
+    <hyperlink ref="U507" r:id="rId3043" tooltip="小约克"/>
+    <hyperlink ref="U508" r:id="rId3044" tooltip="哈约克"/>
+    <hyperlink ref="U509" r:id="rId3045" tooltip="长毛狗"/>
+    <hyperlink ref="U510" r:id="rId3046" tooltip="扒手猫"/>
+    <hyperlink ref="U511" r:id="rId3047" tooltip="酷豹"/>
+    <hyperlink ref="U512" r:id="rId3048" tooltip="花椰猴"/>
+    <hyperlink ref="U513" r:id="rId3049" tooltip="花椰猿"/>
+    <hyperlink ref="U514" r:id="rId3050" tooltip="爆香猴"/>
+    <hyperlink ref="U515" r:id="rId3051" tooltip="爆香猿"/>
+    <hyperlink ref="U516" r:id="rId3052" tooltip="冷水猴"/>
+    <hyperlink ref="U517" r:id="rId3053" tooltip="冷水猿"/>
+    <hyperlink ref="U518" r:id="rId3054" tooltip="食梦梦"/>
+    <hyperlink ref="U519" r:id="rId3055" tooltip="梦梦蚀"/>
+    <hyperlink ref="U520" r:id="rId3056" tooltip="豆豆鸽"/>
+    <hyperlink ref="U521" r:id="rId3057" tooltip="咕咕鸽"/>
+    <hyperlink ref="U522" r:id="rId3058" tooltip="高傲雉鸡" display="高傲雉鸡"/>
+    <hyperlink ref="U523" r:id="rId3059" tooltip="斑斑马"/>
+    <hyperlink ref="U524" r:id="rId3060" tooltip="雷电斑马"/>
+    <hyperlink ref="U525" r:id="rId3061" tooltip="石丸子"/>
+    <hyperlink ref="U526" r:id="rId3062" tooltip="地幔岩"/>
+    <hyperlink ref="U527" r:id="rId3063" tooltip="庞岩怪"/>
+    <hyperlink ref="U528" r:id="rId3064" tooltip="滚滚蝙蝠"/>
+    <hyperlink ref="U529" r:id="rId3065" tooltip="心蝙蝠"/>
+    <hyperlink ref="U530" r:id="rId3066" tooltip="螺钉地鼠"/>
+    <hyperlink ref="U531" r:id="rId3067" tooltip="龙头地鼠"/>
+    <hyperlink ref="U532" r:id="rId3068" tooltip="差不多娃娃" display="差不多娃娃"/>
+    <hyperlink ref="U533" r:id="rId3069" tooltip="搬运小匠"/>
+    <hyperlink ref="U534" r:id="rId3070" tooltip="铁骨土人"/>
+    <hyperlink ref="U535" r:id="rId3071" tooltip="修建老匠" display="修建老匠"/>
+    <hyperlink ref="U536" r:id="rId3072" tooltip="圆蝌蚪"/>
+    <hyperlink ref="U537" r:id="rId3073" tooltip="蓝蟾蜍"/>
+    <hyperlink ref="U538" r:id="rId3074" tooltip="蟾蜍王"/>
+    <hyperlink ref="U539" r:id="rId3075" tooltip="投摔鬼"/>
+    <hyperlink ref="U540" r:id="rId3076" tooltip="打击鬼"/>
+    <hyperlink ref="U541" r:id="rId3077" tooltip="虫宝包"/>
+    <hyperlink ref="U542" r:id="rId3078" tooltip="宝包茧"/>
+    <hyperlink ref="U543" r:id="rId3079" tooltip="保姆虫"/>
+    <hyperlink ref="U544" r:id="rId3080" tooltip="百足蜈蚣"/>
+    <hyperlink ref="U545" r:id="rId3081" tooltip="车轮球"/>
+    <hyperlink ref="U546" r:id="rId3082" tooltip="蜈蚣王"/>
+    <hyperlink ref="U547" r:id="rId3083" tooltip="木棉球"/>
+    <hyperlink ref="U548" r:id="rId3084" tooltip="风妖精" display="风妖精"/>
+    <hyperlink ref="U549" r:id="rId3085" tooltip="百合根娃娃"/>
+    <hyperlink ref="U550" r:id="rId3086" tooltip="裙儿小姐" display="裙儿小姐"/>
+    <hyperlink ref="U551" r:id="rId3087" tooltip="野蛮鲈鱼"/>
+    <hyperlink ref="U552" r:id="rId3088" tooltip="黑眼鳄"/>
+    <hyperlink ref="U553" r:id="rId3089" tooltip="混混鳄"/>
+    <hyperlink ref="U554" r:id="rId3090" tooltip="流氓鳄"/>
+    <hyperlink ref="U555" r:id="rId3091" tooltip="火红不倒翁"/>
+    <hyperlink ref="U651" r:id="rId3092" tooltip="哈力栗"/>
+    <hyperlink ref="U652" r:id="rId3093" tooltip="胖胖哈力"/>
+    <hyperlink ref="U653" r:id="rId3094" tooltip="布里卡隆"/>
+    <hyperlink ref="U654" r:id="rId3095" tooltip="火狐狸"/>
+    <hyperlink ref="U655" r:id="rId3096" tooltip="长尾火狐"/>
+    <hyperlink ref="U656" r:id="rId3097" tooltip="妖火红狐"/>
+    <hyperlink ref="U657" r:id="rId3098" tooltip="呱呱泡蛙"/>
+    <hyperlink ref="U658" r:id="rId3099" tooltip="呱头蛙"/>
+    <hyperlink ref="U659" r:id="rId3100" tooltip="甲贺忍蛙" display="甲贺忍蛙"/>
+    <hyperlink ref="U660" r:id="rId3101" tooltip="掘掘兔"/>
+    <hyperlink ref="U661" r:id="rId3102" tooltip="掘地兔" display="掘地兔"/>
+    <hyperlink ref="U662" r:id="rId3103" tooltip="小箭雀"/>
+    <hyperlink ref="U663" r:id="rId3104" tooltip="火箭雀"/>
+    <hyperlink ref="U664" r:id="rId3105" tooltip="烈箭鹰" display="烈箭鹰"/>
+    <hyperlink ref="U665" r:id="rId3106" tooltip="粉蝶虫"/>
+    <hyperlink ref="U666" r:id="rId3107" tooltip="粉蝶蛹"/>
+    <hyperlink ref="U667" r:id="rId3108" tooltip="彩粉蝶"/>
+    <hyperlink ref="U668" r:id="rId3109" tooltip="小狮狮"/>
+    <hyperlink ref="U669" r:id="rId3110" tooltip="火炎狮"/>
+    <hyperlink ref="U670" r:id="rId3111" tooltip="花蓓蓓"/>
+    <hyperlink ref="U671" r:id="rId3112" tooltip="花叶蒂"/>
+    <hyperlink ref="U672" r:id="rId3113" tooltip="花洁夫人"/>
+    <hyperlink ref="U673" r:id="rId3114" tooltip="坐骑小羊"/>
+    <hyperlink ref="U674" r:id="rId3115" tooltip="坐骑山羊"/>
+    <hyperlink ref="U675" r:id="rId3116" tooltip="顽皮熊猫"/>
+    <hyperlink ref="U676" r:id="rId3117" tooltip="流氓熊猫"/>
+    <hyperlink ref="U677" r:id="rId3118" tooltip="多丽米亚"/>
+    <hyperlink ref="U678" r:id="rId3119" tooltip="妙喵"/>
+    <hyperlink ref="U679" r:id="rId3120" tooltip="超能妙喵"/>
+    <hyperlink ref="U680" r:id="rId3121" tooltip="独剑鞘"/>
+    <hyperlink ref="U681" r:id="rId3122" tooltip="双剑鞘"/>
+    <hyperlink ref="U682" r:id="rId3123" tooltip="坚盾剑怪" display="坚盾剑怪"/>
+    <hyperlink ref="U713" r:id="rId3124" tooltip="冰宝"/>
+    <hyperlink ref="U714" r:id="rId3125" tooltip="冰岩怪" display="冰岩怪"/>
+    <hyperlink ref="U715" r:id="rId3126" tooltip="嗡蝠"/>
+    <hyperlink ref="U716" r:id="rId3127" tooltip="音波龙"/>
+    <hyperlink ref="U717" r:id="rId3128" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
+    <hyperlink ref="U718" r:id="rId3129" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
+    <hyperlink ref="U711" r:id="rId3130" tooltip="南瓜精"/>
+    <hyperlink ref="U712" r:id="rId3131" tooltip="南瓜怪人"/>
+    <hyperlink ref="U683" r:id="rId3132" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="U684" r:id="rId3133" tooltip="冰宝" display="冰宝"/>
+    <hyperlink ref="U685" r:id="rId3134" tooltip="冰岩怪" display="冰岩怪"/>
+    <hyperlink ref="U686" r:id="rId3135" tooltip="嗡蝠" display="嗡蝠"/>
+    <hyperlink ref="U687" r:id="rId3136" tooltip="音波龙" display="音波龙"/>
+    <hyperlink ref="U688" r:id="rId3137" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
+    <hyperlink ref="U689" r:id="rId3138" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
+    <hyperlink ref="U690" r:id="rId3139" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="U691" r:id="rId3140" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="U692" r:id="rId3141" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="U693" r:id="rId3142" tooltip="南瓜怪人" display="南瓜怪人"/>
+    <hyperlink ref="U694" r:id="rId3143" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="U695" r:id="rId3144" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="U696" r:id="rId3145" tooltip="南瓜精" display="南瓜精"/>
+    <hyperlink ref="U723" r:id="rId3146" tooltip="木木枭" display="木木枭"/>
+    <hyperlink ref="U724" r:id="rId3147" tooltip="投羽枭"/>
+    <hyperlink ref="U725" r:id="rId3148" tooltip="狙射树枭"/>
+    <hyperlink ref="U726" r:id="rId3149" tooltip="火斑喵"/>
+    <hyperlink ref="U727" r:id="rId3150" tooltip="炎热喵"/>
+    <hyperlink ref="U728" r:id="rId3151" tooltip="炽焰咆哮虎" display="炽焰咆哮虎"/>
+    <hyperlink ref="U729" r:id="rId3152" tooltip="球球海狮"/>
+    <hyperlink ref="U730" r:id="rId3153" tooltip="花漾海狮"/>
+    <hyperlink ref="U731" r:id="rId3154" tooltip="西狮海壬" display="西狮海壬"/>
+    <hyperlink ref="U732" r:id="rId3155" tooltip="小笃儿"/>
+    <hyperlink ref="U733" r:id="rId3156" tooltip="喇叭啄鸟"/>
+    <hyperlink ref="U734" r:id="rId3157" tooltip="铳嘴大鸟"/>
+    <hyperlink ref="U735" r:id="rId3158" tooltip="猫鼬少"/>
+    <hyperlink ref="U736" r:id="rId3159" tooltip="猫鼬探长" display="猫鼬探长"/>
+    <hyperlink ref="U737" r:id="rId3160" tooltip="强颚鸡母虫"/>
+    <hyperlink ref="U738" r:id="rId3161" tooltip="虫电宝"/>
+    <hyperlink ref="U739" r:id="rId3162" tooltip="锹农炮虫"/>
+    <hyperlink ref="U740" r:id="rId3163" tooltip="好胜蟹"/>
+    <hyperlink ref="U741" r:id="rId3164" tooltip="好胜毛蟹"/>
+    <hyperlink ref="U742" r:id="rId3165" tooltip="花舞鸟"/>
+    <hyperlink ref="U743" r:id="rId3166" tooltip="萌虻"/>
+    <hyperlink ref="U744" r:id="rId3167" tooltip="蝶结萌虻"/>
+    <hyperlink ref="U745" r:id="rId3168" tooltip="岩狗狗"/>
+    <hyperlink ref="U746" r:id="rId3169" tooltip="鬃岩狼人"/>
+    <hyperlink ref="V475" r:id="rId3170" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
+    <hyperlink ref="U298" r:id="rId3171" tooltip="幕下力士" display="幕下力士"/>
+    <hyperlink ref="U297" r:id="rId3172" tooltip="幕下力士" display="https://wiki.52poke.com/wiki/%E5%B9%95%E4%B8%8B%E5%8A%9B%E5%A3%AB"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="25600" windowHeight="14800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7078" uniqueCount="3491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7078" uniqueCount="3493">
   <si>
     <t>Name</t>
   </si>
@@ -10876,6 +10876,14 @@
   </si>
   <si>
     <t>梦歌奈亚</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼玛鼠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>马赛克蝶</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -13827,124 +13835,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13953,28 +13847,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13989,28 +13883,58 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14019,40 +13943,94 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14061,22 +14039,52 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14121,172 +14129,172 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15229,7 +15237,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15240,8 +15248,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J352" workbookViewId="0">
-      <selection activeCell="U334" sqref="U334"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U719" sqref="U719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15615,10 +15623,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M5" s="298" t="s">
+      <c r="M5" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="299"/>
+      <c r="N5" s="179"/>
       <c r="O5" s="2" t="s">
         <v>418</v>
       </c>
@@ -15690,10 +15698,10 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M6" s="214" t="s">
+      <c r="M6" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="215"/>
+      <c r="N6" s="175"/>
       <c r="O6" s="2" t="s">
         <v>418</v>
       </c>
@@ -15857,10 +15865,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M8" s="300" t="s">
+      <c r="M8" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="301"/>
+      <c r="N8" s="181"/>
       <c r="O8" s="2" t="s">
         <v>420</v>
       </c>
@@ -15932,10 +15940,10 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="M9" s="200" t="s">
+      <c r="M9" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="201"/>
+      <c r="N9" s="183"/>
       <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
@@ -16007,10 +16015,10 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="201"/>
+      <c r="N10" s="183"/>
       <c r="O10" s="2" t="s">
         <v>420</v>
       </c>
@@ -16082,10 +16090,10 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M11" s="302" t="s">
+      <c r="M11" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="303"/>
+      <c r="N11" s="185"/>
       <c r="O11" s="2" t="s">
         <v>421</v>
       </c>
@@ -16157,10 +16165,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M12" s="232" t="s">
+      <c r="M12" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="233"/>
+      <c r="N12" s="263"/>
       <c r="O12" s="2" t="s">
         <v>421</v>
       </c>
@@ -16791,10 +16799,10 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M20" s="198" t="s">
+      <c r="M20" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="199"/>
+      <c r="N20" s="161"/>
       <c r="O20" s="2" t="s">
         <v>425</v>
       </c>
@@ -16866,10 +16874,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M21" s="198" t="s">
+      <c r="M21" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="199"/>
+      <c r="N21" s="161"/>
       <c r="O21" s="2" t="s">
         <v>425</v>
       </c>
@@ -17105,10 +17113,10 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="M24" s="226" t="s">
+      <c r="M24" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="227"/>
+      <c r="N24" s="159"/>
       <c r="O24" s="2" t="s">
         <v>426</v>
       </c>
@@ -17185,10 +17193,10 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="M25" s="226" t="s">
+      <c r="M25" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="227"/>
+      <c r="N25" s="159"/>
       <c r="O25" s="2" t="s">
         <v>426</v>
       </c>
@@ -17260,10 +17268,10 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="M26" s="310" t="s">
+      <c r="M26" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="311"/>
+      <c r="N26" s="163"/>
       <c r="O26" s="2" t="s">
         <v>427</v>
       </c>
@@ -17340,10 +17348,10 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="M27" s="304" t="s">
+      <c r="M27" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="305"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="2" t="s">
         <v>427</v>
       </c>
@@ -17425,10 +17433,10 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="M28" s="306" t="s">
+      <c r="M28" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="307"/>
+      <c r="N28" s="189"/>
       <c r="O28" s="2" t="s">
         <v>428</v>
       </c>
@@ -17505,10 +17513,10 @@
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="M29" s="308" t="s">
+      <c r="M29" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="309"/>
+      <c r="N29" s="191"/>
       <c r="O29" s="2" t="s">
         <v>428</v>
       </c>
@@ -17580,10 +17588,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M30" s="226" t="s">
+      <c r="M30" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="227"/>
+      <c r="N30" s="159"/>
       <c r="O30" s="2" t="s">
         <v>426</v>
       </c>
@@ -17655,10 +17663,10 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M31" s="226" t="s">
+      <c r="M31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="227"/>
+      <c r="N31" s="159"/>
       <c r="O31" s="2" t="s">
         <v>426</v>
       </c>
@@ -17807,10 +17815,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="M33" s="226" t="s">
+      <c r="M33" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="227"/>
+      <c r="N33" s="159"/>
       <c r="O33" s="2" t="s">
         <v>426</v>
       </c>
@@ -17882,10 +17890,10 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="M34" s="226" t="s">
+      <c r="M34" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="227"/>
+      <c r="N34" s="159"/>
       <c r="O34" s="2" t="s">
         <v>426</v>
       </c>
@@ -18039,10 +18047,10 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M36" s="208" t="s">
+      <c r="M36" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="209"/>
+      <c r="N36" s="171"/>
       <c r="O36" s="2" t="s">
         <v>568</v>
       </c>
@@ -18114,10 +18122,10 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="M37" s="210" t="s">
+      <c r="M37" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="211"/>
+      <c r="N37" s="173"/>
       <c r="O37" s="2" t="s">
         <v>568</v>
       </c>
@@ -18194,10 +18202,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M38" s="214" t="s">
+      <c r="M38" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="215"/>
+      <c r="N38" s="175"/>
       <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
@@ -18269,10 +18277,10 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="M39" s="214" t="s">
+      <c r="M39" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="215"/>
+      <c r="N39" s="175"/>
       <c r="O39" s="2" t="s">
         <v>418</v>
       </c>
@@ -18354,10 +18362,10 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M40" s="236" t="s">
+      <c r="M40" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="237"/>
+      <c r="N40" s="177"/>
       <c r="O40" s="2" t="s">
         <v>483</v>
       </c>
@@ -18434,10 +18442,10 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="M41" s="212" t="s">
+      <c r="M41" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="213"/>
+      <c r="N41" s="265"/>
       <c r="O41" s="2" t="s">
         <v>483</v>
       </c>
@@ -19227,10 +19235,10 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="M51" s="238" t="s">
+      <c r="M51" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="239"/>
+      <c r="N51" s="165"/>
       <c r="O51" s="2" t="s">
         <v>428</v>
       </c>
@@ -19307,10 +19315,10 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="M52" s="240" t="s">
+      <c r="M52" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="241"/>
+      <c r="N52" s="167"/>
       <c r="O52" s="2" t="s">
         <v>428</v>
       </c>
@@ -19387,10 +19395,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M53" s="198" t="s">
+      <c r="M53" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="199"/>
+      <c r="N53" s="161"/>
       <c r="O53" s="2" t="s">
         <v>425</v>
       </c>
@@ -19467,10 +19475,10 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="M54" s="276" t="s">
+      <c r="M54" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="277"/>
+      <c r="N54" s="169"/>
       <c r="O54" s="2" t="s">
         <v>425</v>
       </c>
@@ -19547,10 +19555,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M55" s="200" t="s">
+      <c r="M55" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="201"/>
+      <c r="N55" s="183"/>
       <c r="O55" s="2" t="s">
         <v>420</v>
       </c>
@@ -19622,10 +19630,10 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="M56" s="294" t="s">
+      <c r="M56" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="295"/>
+      <c r="N56" s="209"/>
       <c r="O56" s="2" t="s">
         <v>420</v>
       </c>
@@ -19697,10 +19705,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M57" s="190" t="s">
+      <c r="M57" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="191"/>
+      <c r="N57" s="207"/>
       <c r="O57" s="2" t="s">
         <v>432</v>
       </c>
@@ -19772,10 +19780,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M58" s="190" t="s">
+      <c r="M58" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="191"/>
+      <c r="N58" s="207"/>
       <c r="O58" s="2" t="s">
         <v>432</v>
       </c>
@@ -19857,10 +19865,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M59" s="296" t="s">
+      <c r="M59" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="297"/>
+      <c r="N59" s="211"/>
       <c r="O59" s="2" t="s">
         <v>418</v>
       </c>
@@ -19932,10 +19940,10 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="M60" s="214" t="s">
+      <c r="M60" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="215"/>
+      <c r="N60" s="175"/>
       <c r="O60" s="2" t="s">
         <v>418</v>
       </c>
@@ -20017,10 +20025,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="M61" s="192" t="s">
+      <c r="M61" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="193"/>
+      <c r="N61" s="213"/>
       <c r="O61" s="2" t="s">
         <v>420</v>
       </c>
@@ -20092,10 +20100,10 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="M62" s="228" t="s">
+      <c r="M62" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="229"/>
+      <c r="N62" s="259"/>
       <c r="O62" s="2" t="s">
         <v>420</v>
       </c>
@@ -20259,10 +20267,10 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="M64" s="260" t="s">
+      <c r="M64" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="261"/>
+      <c r="N64" s="203"/>
       <c r="O64" s="2" t="s">
         <v>434</v>
       </c>
@@ -20334,10 +20342,10 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="M65" s="220" t="s">
+      <c r="M65" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="221"/>
+      <c r="N65" s="193"/>
       <c r="O65" s="2" t="s">
         <v>434</v>
       </c>
@@ -20409,10 +20417,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="M66" s="292" t="s">
+      <c r="M66" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="293"/>
+      <c r="N66" s="205"/>
       <c r="O66" s="2" t="s">
         <v>434</v>
       </c>
@@ -20489,10 +20497,10 @@
         <f t="shared" ref="L67:L130" si="5">ROUND((1+(H67-75)/500)*(ROUND(0.25*(7*MAX(G67,E67)+MIN(G67,E67)),0)),0)</f>
         <v>88</v>
       </c>
-      <c r="M67" s="190" t="s">
+      <c r="M67" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="191"/>
+      <c r="N67" s="207"/>
       <c r="O67" s="2" t="s">
         <v>432</v>
       </c>
@@ -20569,10 +20577,10 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="M68" s="190" t="s">
+      <c r="M68" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="191"/>
+      <c r="N68" s="207"/>
       <c r="O68" s="2" t="s">
         <v>432</v>
       </c>
@@ -20649,10 +20657,10 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="M69" s="190" t="s">
+      <c r="M69" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="191"/>
+      <c r="N69" s="207"/>
       <c r="O69" s="2" t="s">
         <v>432</v>
       </c>
@@ -21375,10 +21383,10 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="M78" s="214" t="s">
+      <c r="M78" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N78" s="215"/>
+      <c r="N78" s="175"/>
       <c r="O78" s="2" t="s">
         <v>418</v>
       </c>
@@ -21455,10 +21463,10 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="M79" s="288" t="s">
+      <c r="M79" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="289"/>
+      <c r="N79" s="199"/>
       <c r="O79" s="2" t="s">
         <v>418</v>
       </c>
@@ -22099,10 +22107,10 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M87" s="200" t="s">
+      <c r="M87" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N87" s="201"/>
+      <c r="N87" s="183"/>
       <c r="O87" s="2" t="s">
         <v>420</v>
       </c>
@@ -22271,10 +22279,10 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M89" s="226" t="s">
+      <c r="M89" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="227"/>
+      <c r="N89" s="159"/>
       <c r="O89" s="2" t="s">
         <v>426</v>
       </c>
@@ -22351,10 +22359,10 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="M90" s="226" t="s">
+      <c r="M90" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="227"/>
+      <c r="N90" s="159"/>
       <c r="O90" s="2" t="s">
         <v>426</v>
       </c>
@@ -22431,10 +22439,10 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="M91" s="290" t="s">
+      <c r="M91" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="291"/>
+      <c r="N91" s="201"/>
       <c r="O91" s="2" t="s">
         <v>420</v>
       </c>
@@ -22931,10 +22939,10 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="M97" s="220" t="s">
+      <c r="M97" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="221"/>
+      <c r="N97" s="193"/>
       <c r="O97" s="2" t="s">
         <v>434</v>
       </c>
@@ -23006,10 +23014,10 @@
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M98" s="220" t="s">
+      <c r="M98" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="221"/>
+      <c r="N98" s="193"/>
       <c r="O98" s="2" t="s">
         <v>434</v>
       </c>
@@ -23086,10 +23094,10 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="M99" s="284" t="s">
+      <c r="M99" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="N99" s="285"/>
+      <c r="N99" s="195"/>
       <c r="O99" s="2" t="s">
         <v>420</v>
       </c>
@@ -23161,10 +23169,10 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="M100" s="200" t="s">
+      <c r="M100" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="201"/>
+      <c r="N100" s="183"/>
       <c r="O100" s="2" t="s">
         <v>420</v>
       </c>
@@ -23241,10 +23249,10 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="M101" s="286" t="s">
+      <c r="M101" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="287"/>
+      <c r="N101" s="197"/>
       <c r="O101" s="2" t="s">
         <v>427</v>
       </c>
@@ -23321,10 +23329,10 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="M102" s="224" t="s">
+      <c r="M102" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="225"/>
+      <c r="N102" s="257"/>
       <c r="O102" s="2" t="s">
         <v>427</v>
       </c>
@@ -23560,10 +23568,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M105" s="238" t="s">
+      <c r="M105" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="239"/>
+      <c r="N105" s="165"/>
       <c r="O105" s="2" t="s">
         <v>428</v>
       </c>
@@ -23635,10 +23643,10 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M106" s="280" t="s">
+      <c r="M106" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="281"/>
+      <c r="N106" s="217"/>
       <c r="O106" s="2" t="s">
         <v>428</v>
       </c>
@@ -23710,10 +23718,10 @@
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="M107" s="190" t="s">
+      <c r="M107" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N107" s="191"/>
+      <c r="N107" s="207"/>
       <c r="O107" s="2" t="s">
         <v>432</v>
       </c>
@@ -23790,10 +23798,10 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="M108" s="190" t="s">
+      <c r="M108" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N108" s="191"/>
+      <c r="N108" s="207"/>
       <c r="O108" s="2" t="s">
         <v>432</v>
       </c>
@@ -23875,10 +23883,10 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="M109" s="282" t="s">
+      <c r="M109" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="N109" s="283"/>
+      <c r="N109" s="219"/>
       <c r="O109" s="2" t="s">
         <v>425</v>
       </c>
@@ -23950,10 +23958,10 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="M110" s="226" t="s">
+      <c r="M110" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="227"/>
+      <c r="N110" s="159"/>
       <c r="O110" s="2" t="s">
         <v>426</v>
       </c>
@@ -24030,10 +24038,10 @@
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="M111" s="226" t="s">
+      <c r="M111" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="227"/>
+      <c r="N111" s="159"/>
       <c r="O111" s="2" t="s">
         <v>426</v>
       </c>
@@ -24269,10 +24277,10 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="M114" s="208" t="s">
+      <c r="M114" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N114" s="209"/>
+      <c r="N114" s="171"/>
       <c r="O114" s="2" t="s">
         <v>425</v>
       </c>
@@ -24349,10 +24357,10 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M115" s="278" t="s">
+      <c r="M115" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="N115" s="279"/>
+      <c r="N115" s="215"/>
       <c r="O115" s="2" t="s">
         <v>443</v>
       </c>
@@ -24429,10 +24437,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M116" s="276" t="s">
+      <c r="M116" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N116" s="277"/>
+      <c r="N116" s="169"/>
       <c r="O116" s="2" t="s">
         <v>425</v>
       </c>
@@ -24509,10 +24517,10 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="M117" s="200" t="s">
+      <c r="M117" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="201"/>
+      <c r="N117" s="183"/>
       <c r="O117" s="2" t="s">
         <v>420</v>
       </c>
@@ -24584,10 +24592,10 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="M118" s="200" t="s">
+      <c r="M118" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="201"/>
+      <c r="N118" s="183"/>
       <c r="O118" s="2" t="s">
         <v>420</v>
       </c>
@@ -24664,10 +24672,10 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="M119" s="200" t="s">
+      <c r="M119" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N119" s="201"/>
+      <c r="N119" s="183"/>
       <c r="O119" s="2" t="s">
         <v>420</v>
       </c>
@@ -24739,10 +24747,10 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-      <c r="M120" s="200" t="s">
+      <c r="M120" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N120" s="201"/>
+      <c r="N120" s="183"/>
       <c r="O120" s="2" t="s">
         <v>420</v>
       </c>
@@ -24824,10 +24832,10 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="M121" s="228" t="s">
+      <c r="M121" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="N121" s="229"/>
+      <c r="N121" s="259"/>
       <c r="O121" s="2" t="s">
         <v>420</v>
       </c>
@@ -24991,10 +24999,10 @@
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="M123" s="220" t="s">
+      <c r="M123" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="221"/>
+      <c r="N123" s="193"/>
       <c r="O123" s="2" t="s">
         <v>434</v>
       </c>
@@ -25240,10 +25248,10 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="M126" s="234" t="s">
+      <c r="M126" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="235"/>
+      <c r="N126" s="225"/>
       <c r="O126" s="2" t="s">
         <v>427</v>
       </c>
@@ -25315,10 +25323,10 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="M127" s="214" t="s">
+      <c r="M127" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N127" s="215"/>
+      <c r="N127" s="175"/>
       <c r="O127" s="2" t="s">
         <v>418</v>
       </c>
@@ -25390,10 +25398,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M128" s="272" t="s">
+      <c r="M128" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="273"/>
+      <c r="N128" s="221"/>
       <c r="O128" s="2" t="s">
         <v>421</v>
       </c>
@@ -25475,10 +25483,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M129" s="274" t="s">
+      <c r="M129" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="N129" s="275"/>
+      <c r="N129" s="223"/>
       <c r="O129" s="2" t="s">
         <v>425</v>
       </c>
@@ -25550,10 +25558,10 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="M130" s="200" t="s">
+      <c r="M130" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N130" s="201"/>
+      <c r="N130" s="183"/>
       <c r="O130" s="2" t="s">
         <v>420</v>
       </c>
@@ -25799,10 +25807,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M133" s="208" t="s">
+      <c r="M133" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N133" s="209"/>
+      <c r="N133" s="171"/>
       <c r="O133" s="2" t="s">
         <v>425</v>
       </c>
@@ -25874,10 +25882,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="M134" s="276" t="s">
+      <c r="M134" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N134" s="277"/>
+      <c r="N134" s="169"/>
       <c r="O134" s="2" t="s">
         <v>425</v>
       </c>
@@ -25954,10 +25962,10 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="M135" s="200" t="s">
+      <c r="M135" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N135" s="201"/>
+      <c r="N135" s="183"/>
       <c r="O135" s="2" t="s">
         <v>420</v>
       </c>
@@ -26029,10 +26037,10 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="M136" s="268" t="s">
+      <c r="M136" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="269"/>
+      <c r="N136" s="233"/>
       <c r="O136" s="2" t="s">
         <v>427</v>
       </c>
@@ -26104,10 +26112,10 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="M137" s="214" t="s">
+      <c r="M137" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N137" s="215"/>
+      <c r="N137" s="175"/>
       <c r="O137" s="2" t="s">
         <v>418</v>
       </c>
@@ -26184,10 +26192,10 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="M138" s="270" t="s">
+      <c r="M138" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="271"/>
+      <c r="N138" s="237"/>
       <c r="O138" s="2" t="s">
         <v>425</v>
       </c>
@@ -26674,10 +26682,10 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="M144" s="208" t="s">
+      <c r="M144" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="209"/>
+      <c r="N144" s="171"/>
       <c r="O144" s="2" t="s">
         <v>425</v>
       </c>
@@ -27005,10 +27013,10 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="M148" s="196" t="s">
+      <c r="M148" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="N148" s="197"/>
+      <c r="N148" s="235"/>
       <c r="O148" s="2" t="s">
         <v>450</v>
       </c>
@@ -27080,10 +27088,10 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="M149" s="196" t="s">
+      <c r="M149" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="N149" s="197"/>
+      <c r="N149" s="235"/>
       <c r="O149" s="2" t="s">
         <v>450</v>
       </c>
@@ -27239,10 +27247,10 @@
       <c r="L151" s="2">
         <v>182</v>
       </c>
-      <c r="M151" s="260" t="s">
+      <c r="M151" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="261"/>
+      <c r="N151" s="203"/>
       <c r="O151" s="2" t="s">
         <v>434</v>
       </c>
@@ -27314,10 +27322,10 @@
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="M152" s="220" t="s">
+      <c r="M152" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="221"/>
+      <c r="N152" s="193"/>
       <c r="O152" s="2" t="s">
         <v>434</v>
       </c>
@@ -27394,10 +27402,10 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="M153" s="262" t="s">
+      <c r="M153" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="N153" s="263"/>
+      <c r="N153" s="227"/>
       <c r="O153" s="2" t="s">
         <v>443</v>
       </c>
@@ -27467,10 +27475,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="M154" s="264" t="s">
+      <c r="M154" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="N154" s="265"/>
+      <c r="N154" s="229"/>
       <c r="O154" s="2" t="s">
         <v>443</v>
       </c>
@@ -27540,10 +27548,10 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="M155" s="266" t="s">
+      <c r="M155" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="N155" s="267"/>
+      <c r="N155" s="231"/>
       <c r="O155" s="2" t="s">
         <v>443</v>
       </c>
@@ -27613,10 +27621,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="M156" s="214" t="s">
+      <c r="M156" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N156" s="215"/>
+      <c r="N156" s="175"/>
       <c r="O156" s="2" t="s">
         <v>418</v>
       </c>
@@ -27686,10 +27694,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="M157" s="214" t="s">
+      <c r="M157" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N157" s="215"/>
+      <c r="N157" s="175"/>
       <c r="O157" s="2" t="s">
         <v>418</v>
       </c>
@@ -27759,10 +27767,10 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="M158" s="214" t="s">
+      <c r="M158" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N158" s="215"/>
+      <c r="N158" s="175"/>
       <c r="O158" s="2" t="s">
         <v>418</v>
       </c>
@@ -27832,10 +27840,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M159" s="192" t="s">
+      <c r="M159" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N159" s="193"/>
+      <c r="N159" s="213"/>
       <c r="O159" s="2" t="s">
         <v>420</v>
       </c>
@@ -27905,10 +27913,10 @@
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="M160" s="200" t="s">
+      <c r="M160" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N160" s="201"/>
+      <c r="N160" s="183"/>
       <c r="O160" s="2" t="s">
         <v>420</v>
       </c>
@@ -27978,10 +27986,10 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="M161" s="200" t="s">
+      <c r="M161" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N161" s="201"/>
+      <c r="N161" s="183"/>
       <c r="O161" s="2" t="s">
         <v>420</v>
       </c>
@@ -28057,10 +28065,10 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="M162" s="256" t="s">
+      <c r="M162" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="N162" s="257"/>
+      <c r="N162" s="239"/>
       <c r="O162" s="2" t="s">
         <v>425</v>
       </c>
@@ -28130,10 +28138,10 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="M163" s="198" t="s">
+      <c r="M163" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N163" s="199"/>
+      <c r="N163" s="161"/>
       <c r="O163" s="2" t="s">
         <v>425</v>
       </c>
@@ -28878,10 +28886,10 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="M173" s="258" t="s">
+      <c r="M173" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="259"/>
+      <c r="N173" s="241"/>
       <c r="O173" s="2" t="s">
         <v>427</v>
       </c>
@@ -28957,10 +28965,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M174" s="198" t="s">
+      <c r="M174" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N174" s="199"/>
+      <c r="N174" s="161"/>
       <c r="O174" s="2" t="s">
         <v>568</v>
       </c>
@@ -29036,10 +29044,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="M175" s="198" t="s">
+      <c r="M175" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N175" s="199"/>
+      <c r="N175" s="161"/>
       <c r="O175" s="2" t="s">
         <v>483</v>
       </c>
@@ -29115,10 +29123,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M176" s="198" t="s">
+      <c r="M176" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N176" s="199"/>
+      <c r="N176" s="161"/>
       <c r="O176" s="2" t="s">
         <v>568</v>
       </c>
@@ -29717,10 +29725,10 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="M184" s="200" t="s">
+      <c r="M184" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N184" s="201"/>
+      <c r="N184" s="183"/>
       <c r="O184" s="2" t="s">
         <v>569</v>
       </c>
@@ -29790,10 +29798,10 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="M185" s="200" t="s">
+      <c r="M185" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N185" s="201"/>
+      <c r="N185" s="183"/>
       <c r="O185" s="2" t="s">
         <v>569</v>
       </c>
@@ -29936,10 +29944,10 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="M187" s="200" t="s">
+      <c r="M187" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N187" s="201"/>
+      <c r="N187" s="183"/>
       <c r="O187" s="2" t="s">
         <v>420</v>
       </c>
@@ -30240,10 +30248,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M191" s="198" t="s">
+      <c r="M191" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N191" s="199"/>
+      <c r="N191" s="161"/>
       <c r="O191" s="2" t="s">
         <v>425</v>
       </c>
@@ -30386,10 +30394,10 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="M193" s="202" t="s">
+      <c r="M193" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="N193" s="203"/>
+      <c r="N193" s="271"/>
       <c r="O193" s="2" t="s">
         <v>443</v>
       </c>
@@ -30757,10 +30765,10 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="M198" s="204" t="s">
+      <c r="M198" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="N198" s="205"/>
+      <c r="N198" s="273"/>
       <c r="O198" s="2" t="s">
         <v>457</v>
       </c>
@@ -30980,10 +30988,10 @@
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="M201" s="216" t="s">
+      <c r="M201" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="N201" s="217"/>
+      <c r="N201" s="277"/>
       <c r="O201" s="2" t="s">
         <v>459</v>
       </c>
@@ -31053,10 +31061,10 @@
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="M202" s="218" t="s">
+      <c r="M202" s="278" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="219"/>
+      <c r="N202" s="279"/>
       <c r="O202" s="2" t="s">
         <v>434</v>
       </c>
@@ -31126,10 +31134,10 @@
         <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="M203" s="220" t="s">
+      <c r="M203" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="221"/>
+      <c r="N203" s="193"/>
       <c r="O203" s="2" t="s">
         <v>434</v>
       </c>
@@ -31274,10 +31282,10 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="M205" s="222" t="s">
+      <c r="M205" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="223"/>
+      <c r="N205" s="281"/>
       <c r="O205" s="2" t="s">
         <v>421</v>
       </c>
@@ -31422,10 +31430,10 @@
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="M207" s="208" t="s">
+      <c r="M207" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N207" s="209"/>
+      <c r="N207" s="171"/>
       <c r="O207" s="2" t="s">
         <v>425</v>
       </c>
@@ -31645,10 +31653,10 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="M210" s="198" t="s">
+      <c r="M210" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N210" s="199"/>
+      <c r="N210" s="161"/>
       <c r="O210" s="2" t="s">
         <v>568</v>
       </c>
@@ -31718,10 +31726,10 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="M211" s="212" t="s">
+      <c r="M211" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="213"/>
+      <c r="N211" s="265"/>
       <c r="O211" s="2" t="s">
         <v>568</v>
       </c>
@@ -32166,10 +32174,10 @@
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="M217" s="208" t="s">
+      <c r="M217" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N217" s="209"/>
+      <c r="N217" s="171"/>
       <c r="O217" s="2" t="s">
         <v>425</v>
       </c>
@@ -32239,10 +32247,10 @@
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="M218" s="210" t="s">
+      <c r="M218" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="211"/>
+      <c r="N218" s="173"/>
       <c r="O218" s="2" t="s">
         <v>425</v>
       </c>
@@ -32312,10 +32320,10 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="M219" s="214" t="s">
+      <c r="M219" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N219" s="215"/>
+      <c r="N219" s="175"/>
       <c r="O219" s="2" t="s">
         <v>418</v>
       </c>
@@ -32685,10 +32693,10 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="M224" s="200" t="s">
+      <c r="M224" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N224" s="201"/>
+      <c r="N224" s="183"/>
       <c r="O224" s="2" t="s">
         <v>420</v>
       </c>
@@ -32758,10 +32766,10 @@
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="M225" s="200" t="s">
+      <c r="M225" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N225" s="201"/>
+      <c r="N225" s="183"/>
       <c r="O225" s="2" t="s">
         <v>420</v>
       </c>
@@ -33293,10 +33301,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="M232" s="238" t="s">
+      <c r="M232" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N232" s="239"/>
+      <c r="N232" s="165"/>
       <c r="O232" s="2" t="s">
         <v>428</v>
       </c>
@@ -33366,10 +33374,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M233" s="240" t="s">
+      <c r="M233" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="N233" s="241"/>
+      <c r="N233" s="167"/>
       <c r="O233" s="2" t="s">
         <v>428</v>
       </c>
@@ -33439,10 +33447,10 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="M234" s="198" t="s">
+      <c r="M234" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N234" s="199"/>
+      <c r="N234" s="161"/>
       <c r="O234" s="2" t="s">
         <v>425</v>
       </c>
@@ -33512,10 +33520,10 @@
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="M235" s="198" t="s">
+      <c r="M235" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N235" s="199"/>
+      <c r="N235" s="161"/>
       <c r="O235" s="2" t="s">
         <v>425</v>
       </c>
@@ -33585,10 +33593,10 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
-      <c r="M236" s="206" t="s">
+      <c r="M236" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="N236" s="207"/>
+      <c r="N236" s="275"/>
       <c r="O236" s="2" t="s">
         <v>425</v>
       </c>
@@ -33658,10 +33666,10 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="M237" s="190" t="s">
+      <c r="M237" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N237" s="191"/>
+      <c r="N237" s="207"/>
       <c r="O237" s="2" t="s">
         <v>432</v>
       </c>
@@ -33731,10 +33739,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M238" s="190" t="s">
+      <c r="M238" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="191"/>
+      <c r="N238" s="207"/>
       <c r="O238" s="2" t="s">
         <v>432</v>
       </c>
@@ -33885,10 +33893,10 @@
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="M240" s="234" t="s">
+      <c r="M240" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="235"/>
+      <c r="N240" s="225"/>
       <c r="O240" s="2" t="s">
         <v>427</v>
       </c>
@@ -33964,10 +33972,10 @@
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="M241" s="214" t="s">
+      <c r="M241" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N241" s="215"/>
+      <c r="N241" s="175"/>
       <c r="O241" s="2" t="s">
         <v>418</v>
       </c>
@@ -34037,10 +34045,10 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="M242" s="236" t="s">
+      <c r="M242" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N242" s="237"/>
+      <c r="N242" s="177"/>
       <c r="O242" s="2" t="s">
         <v>425</v>
       </c>
@@ -34110,10 +34118,10 @@
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="M243" s="198" t="s">
+      <c r="M243" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N243" s="199"/>
+      <c r="N243" s="161"/>
       <c r="O243" s="2" t="s">
         <v>425</v>
       </c>
@@ -34183,10 +34191,10 @@
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="M244" s="230" t="s">
+      <c r="M244" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="231"/>
+      <c r="N244" s="261"/>
       <c r="O244" s="2" t="s">
         <v>427</v>
       </c>
@@ -34256,10 +34264,10 @@
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="M245" s="214" t="s">
+      <c r="M245" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N245" s="215"/>
+      <c r="N245" s="175"/>
       <c r="O245" s="2" t="s">
         <v>418</v>
       </c>
@@ -34329,10 +34337,10 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="M246" s="192" t="s">
+      <c r="M246" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N246" s="193"/>
+      <c r="N246" s="213"/>
       <c r="O246" s="2" t="s">
         <v>420</v>
       </c>
@@ -34855,10 +34863,10 @@
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="M253" s="194" t="s">
+      <c r="M253" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="N253" s="195"/>
+      <c r="N253" s="267"/>
       <c r="O253" s="2" t="s">
         <v>443</v>
       </c>
@@ -34928,10 +34936,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M254" s="178" t="s">
+      <c r="M254" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N254" s="179"/>
+      <c r="N254" s="269"/>
       <c r="O254" s="2" t="s">
         <v>443</v>
       </c>
@@ -35001,10 +35009,10 @@
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="M255" s="178" t="s">
+      <c r="M255" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N255" s="179"/>
+      <c r="N255" s="269"/>
       <c r="O255" s="2" t="s">
         <v>443</v>
       </c>
@@ -35074,10 +35082,10 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="M256" s="182" t="s">
+      <c r="M256" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="N256" s="183"/>
+      <c r="N256" s="287"/>
       <c r="O256" s="2" t="s">
         <v>418</v>
       </c>
@@ -35303,10 +35311,10 @@
         <f t="shared" ref="L259:L322" si="14">ROUND((1+(H259-75)/500)*(ROUND(0.25*(7*MAX(G259,E259)+MIN(G259,E259)),0)),0)</f>
         <v>93</v>
       </c>
-      <c r="M259" s="158" t="s">
+      <c r="M259" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N259" s="159"/>
+      <c r="N259" s="289"/>
       <c r="O259" s="2" t="s">
         <v>420</v>
       </c>
@@ -35526,10 +35534,10 @@
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="M262" s="174" t="s">
+      <c r="M262" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N262" s="175"/>
+      <c r="N262" s="291"/>
       <c r="O262" s="2" t="s">
         <v>457</v>
       </c>
@@ -35599,10 +35607,10 @@
         <f t="shared" si="14"/>
         <v>137</v>
       </c>
-      <c r="M263" s="174" t="s">
+      <c r="M263" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N263" s="175"/>
+      <c r="N263" s="291"/>
       <c r="O263" s="2" t="s">
         <v>457</v>
       </c>
@@ -35672,10 +35680,10 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="M264" s="176" t="s">
+      <c r="M264" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N264" s="177"/>
+      <c r="N264" s="285"/>
       <c r="O264" s="2" t="s">
         <v>425</v>
       </c>
@@ -35745,10 +35753,10 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="M265" s="176" t="s">
+      <c r="M265" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N265" s="177"/>
+      <c r="N265" s="285"/>
       <c r="O265" s="2" t="s">
         <v>425</v>
       </c>
@@ -35818,10 +35826,10 @@
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="M266" s="186" t="s">
+      <c r="M266" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N266" s="187"/>
+      <c r="N266" s="283"/>
       <c r="O266" s="2" t="s">
         <v>421</v>
       </c>
@@ -35891,10 +35899,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M267" s="186" t="s">
+      <c r="M267" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N267" s="187"/>
+      <c r="N267" s="283"/>
       <c r="O267" s="2" t="s">
         <v>421</v>
       </c>
@@ -36039,10 +36047,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M269" s="186" t="s">
+      <c r="M269" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N269" s="187"/>
+      <c r="N269" s="283"/>
       <c r="O269" s="2" t="s">
         <v>421</v>
       </c>
@@ -36412,10 +36420,10 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="M274" s="178" t="s">
+      <c r="M274" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N274" s="179"/>
+      <c r="N274" s="269"/>
       <c r="O274" s="2" t="s">
         <v>443</v>
       </c>
@@ -37310,10 +37318,10 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="M286" s="178" t="s">
+      <c r="M286" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N286" s="179"/>
+      <c r="N286" s="269"/>
       <c r="O286" s="2" t="s">
         <v>443</v>
       </c>
@@ -37458,10 +37466,10 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="M288" s="176" t="s">
+      <c r="M288" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N288" s="177"/>
+      <c r="N288" s="285"/>
       <c r="O288" s="2" t="s">
         <v>425</v>
       </c>
@@ -37531,10 +37539,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M289" s="176" t="s">
+      <c r="M289" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N289" s="177"/>
+      <c r="N289" s="285"/>
       <c r="O289" s="2" t="s">
         <v>425</v>
       </c>
@@ -37601,10 +37609,10 @@
       <c r="L290" s="2">
         <v>183</v>
       </c>
-      <c r="M290" s="176" t="s">
+      <c r="M290" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N290" s="177"/>
+      <c r="N290" s="285"/>
       <c r="O290" s="2" t="s">
         <v>425</v>
       </c>
@@ -37899,10 +37907,10 @@
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="M294" s="176" t="s">
+      <c r="M294" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N294" s="177"/>
+      <c r="N294" s="285"/>
       <c r="O294" s="2" t="s">
         <v>425</v>
       </c>
@@ -37972,10 +37980,10 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="M295" s="176" t="s">
+      <c r="M295" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N295" s="177"/>
+      <c r="N295" s="285"/>
       <c r="O295" s="2" t="s">
         <v>425</v>
       </c>
@@ -38045,10 +38053,10 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="M296" s="176" t="s">
+      <c r="M296" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N296" s="177"/>
+      <c r="N296" s="285"/>
       <c r="O296" s="2" t="s">
         <v>425</v>
       </c>
@@ -38118,10 +38126,10 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="M297" s="188" t="s">
+      <c r="M297" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="N297" s="189"/>
+      <c r="N297" s="293"/>
       <c r="O297" s="2" t="s">
         <v>432</v>
       </c>
@@ -38191,10 +38199,10 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="M298" s="188" t="s">
+      <c r="M298" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="N298" s="189"/>
+      <c r="N298" s="293"/>
       <c r="O298" s="2" t="s">
         <v>432</v>
       </c>
@@ -38339,10 +38347,10 @@
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="M300" s="166" t="s">
+      <c r="M300" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="N300" s="167"/>
+      <c r="N300" s="295"/>
       <c r="O300" s="2" t="s">
         <v>454</v>
       </c>
@@ -38412,10 +38420,10 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="M301" s="176" t="s">
+      <c r="M301" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N301" s="177"/>
+      <c r="N301" s="285"/>
       <c r="O301" s="2" t="s">
         <v>425</v>
       </c>
@@ -38485,10 +38493,10 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="M302" s="176" t="s">
+      <c r="M302" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N302" s="177"/>
+      <c r="N302" s="285"/>
       <c r="O302" s="2" t="s">
         <v>425</v>
       </c>
@@ -39083,10 +39091,10 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="M310" s="184" t="s">
+      <c r="M310" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="185"/>
+      <c r="N310" s="297"/>
       <c r="O310" s="2" t="s">
         <v>427</v>
       </c>
@@ -39156,10 +39164,10 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="M311" s="184" t="s">
+      <c r="M311" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="185"/>
+      <c r="N311" s="297"/>
       <c r="O311" s="2" t="s">
         <v>427</v>
       </c>
@@ -39229,10 +39237,10 @@
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="M312" s="184" t="s">
+      <c r="M312" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="185"/>
+      <c r="N312" s="297"/>
       <c r="O312" s="2" t="s">
         <v>427</v>
       </c>
@@ -39302,10 +39310,10 @@
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="M313" s="184" t="s">
+      <c r="M313" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="185"/>
+      <c r="N313" s="297"/>
       <c r="O313" s="2" t="s">
         <v>427</v>
       </c>
@@ -39375,10 +39383,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M314" s="186" t="s">
+      <c r="M314" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="187"/>
+      <c r="N314" s="283"/>
       <c r="O314" s="2" t="s">
         <v>421</v>
       </c>
@@ -39448,10 +39456,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M315" s="186" t="s">
+      <c r="M315" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N315" s="187"/>
+      <c r="N315" s="283"/>
       <c r="O315" s="2" t="s">
         <v>421</v>
       </c>
@@ -39596,10 +39604,10 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="M317" s="180" t="s">
+      <c r="M317" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N317" s="181"/>
+      <c r="N317" s="301"/>
       <c r="O317" s="2" t="s">
         <v>426</v>
       </c>
@@ -39669,10 +39677,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M318" s="180" t="s">
+      <c r="M318" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N318" s="181"/>
+      <c r="N318" s="301"/>
       <c r="O318" s="2" t="s">
         <v>426</v>
       </c>
@@ -39892,10 +39900,10 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="M321" s="158" t="s">
+      <c r="M321" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N321" s="159"/>
+      <c r="N321" s="289"/>
       <c r="O321" s="2" t="s">
         <v>420</v>
       </c>
@@ -39965,10 +39973,10 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="M322" s="158" t="s">
+      <c r="M322" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N322" s="159"/>
+      <c r="N322" s="289"/>
       <c r="O322" s="2" t="s">
         <v>420</v>
       </c>
@@ -40188,10 +40196,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M325" s="182" t="s">
+      <c r="M325" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="N325" s="183"/>
+      <c r="N325" s="287"/>
       <c r="O325" s="2" t="s">
         <v>418</v>
       </c>
@@ -40261,10 +40269,10 @@
         <f t="shared" si="17"/>
         <v>145</v>
       </c>
-      <c r="M326" s="162" t="s">
+      <c r="M326" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N326" s="163"/>
+      <c r="N326" s="299"/>
       <c r="O326" s="2" t="s">
         <v>434</v>
       </c>
@@ -40334,10 +40342,10 @@
         <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="M327" s="162" t="s">
+      <c r="M327" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N327" s="163"/>
+      <c r="N327" s="299"/>
       <c r="O327" s="2" t="s">
         <v>434</v>
       </c>
@@ -40407,10 +40415,10 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="M328" s="176" t="s">
+      <c r="M328" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N328" s="177"/>
+      <c r="N328" s="285"/>
       <c r="O328" s="2" t="s">
         <v>425</v>
       </c>
@@ -40480,10 +40488,10 @@
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="M329" s="160" t="s">
+      <c r="M329" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="N329" s="161"/>
+      <c r="N329" s="303"/>
       <c r="O329" s="2" t="s">
         <v>428</v>
       </c>
@@ -40703,10 +40711,10 @@
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M332" s="178" t="s">
+      <c r="M332" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N332" s="179"/>
+      <c r="N332" s="269"/>
       <c r="O332" s="2" t="s">
         <v>443</v>
       </c>
@@ -41001,10 +41009,10 @@
         <f t="shared" si="17"/>
         <v>124</v>
       </c>
-      <c r="M336" s="176" t="s">
+      <c r="M336" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N336" s="177"/>
+      <c r="N336" s="285"/>
       <c r="O336" s="2" t="s">
         <v>425</v>
       </c>
@@ -41074,10 +41082,10 @@
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="M337" s="180" t="s">
+      <c r="M337" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N337" s="181"/>
+      <c r="N337" s="301"/>
       <c r="O337" s="2" t="s">
         <v>426</v>
       </c>
@@ -41447,10 +41455,10 @@
         <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="M342" s="158" t="s">
+      <c r="M342" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N342" s="159"/>
+      <c r="N342" s="289"/>
       <c r="O342" s="2" t="s">
         <v>420</v>
       </c>
@@ -42045,10 +42053,10 @@
         <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="M350" s="158" t="s">
+      <c r="M350" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N350" s="159"/>
+      <c r="N350" s="289"/>
       <c r="O350" s="2" t="s">
         <v>420</v>
       </c>
@@ -42118,10 +42126,10 @@
         <f t="shared" si="17"/>
         <v>242</v>
       </c>
-      <c r="M351" s="158" t="s">
+      <c r="M351" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N351" s="159"/>
+      <c r="N351" s="289"/>
       <c r="O351" s="2" t="s">
         <v>420</v>
       </c>
@@ -42197,10 +42205,10 @@
         <f t="shared" si="17"/>
         <v>139</v>
       </c>
-      <c r="M352" s="176" t="s">
+      <c r="M352" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N352" s="177"/>
+      <c r="N352" s="285"/>
       <c r="O352" s="2" t="s">
         <v>425</v>
       </c>
@@ -42270,10 +42278,10 @@
         <f t="shared" si="17"/>
         <v>212</v>
       </c>
-      <c r="M353" s="176" t="s">
+      <c r="M353" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N353" s="177"/>
+      <c r="N353" s="285"/>
       <c r="O353" s="2" t="s">
         <v>425</v>
       </c>
@@ -42343,10 +42351,10 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M354" s="172" t="s">
+      <c r="M354" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N354" s="173"/>
+      <c r="N354" s="307"/>
       <c r="O354" s="2" t="s">
         <v>459</v>
       </c>
@@ -42416,10 +42424,10 @@
         <f t="shared" si="17"/>
         <v>127</v>
       </c>
-      <c r="M355" s="172" t="s">
+      <c r="M355" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N355" s="173"/>
+      <c r="N355" s="307"/>
       <c r="O355" s="2" t="s">
         <v>459</v>
       </c>
@@ -42489,10 +42497,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M356" s="172" t="s">
+      <c r="M356" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N356" s="173"/>
+      <c r="N356" s="307"/>
       <c r="O356" s="2" t="s">
         <v>459</v>
       </c>
@@ -42562,10 +42570,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M357" s="172" t="s">
+      <c r="M357" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N357" s="173"/>
+      <c r="N357" s="307"/>
       <c r="O357" s="2" t="s">
         <v>459</v>
       </c>
@@ -42710,10 +42718,10 @@
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="M359" s="162" t="s">
+      <c r="M359" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N359" s="163"/>
+      <c r="N359" s="299"/>
       <c r="O359" s="2" t="s">
         <v>434</v>
       </c>
@@ -42783,10 +42791,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="M360" s="174" t="s">
+      <c r="M360" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N360" s="175"/>
+      <c r="N360" s="291"/>
       <c r="O360" s="2" t="s">
         <v>457</v>
       </c>
@@ -42856,10 +42864,10 @@
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="M361" s="162" t="s">
+      <c r="M361" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N361" s="163"/>
+      <c r="N361" s="299"/>
       <c r="O361" s="2" t="s">
         <v>434</v>
       </c>
@@ -42929,10 +42937,10 @@
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="M362" s="168" t="s">
+      <c r="M362" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N362" s="169"/>
+      <c r="N362" s="305"/>
       <c r="O362" s="2" t="s">
         <v>495</v>
       </c>
@@ -43002,10 +43010,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M363" s="168" t="s">
+      <c r="M363" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N363" s="169"/>
+      <c r="N363" s="305"/>
       <c r="O363" s="2" t="s">
         <v>495</v>
       </c>
@@ -43300,10 +43308,10 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="M367" s="158" t="s">
+      <c r="M367" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N367" s="159"/>
+      <c r="N367" s="289"/>
       <c r="O367" s="2" t="s">
         <v>420</v>
       </c>
@@ -43373,10 +43381,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M368" s="158" t="s">
+      <c r="M368" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N368" s="159"/>
+      <c r="N368" s="289"/>
       <c r="O368" s="2" t="s">
         <v>420</v>
       </c>
@@ -43446,10 +43454,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M369" s="158" t="s">
+      <c r="M369" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N369" s="159"/>
+      <c r="N369" s="289"/>
       <c r="O369" s="2" t="s">
         <v>420</v>
       </c>
@@ -43594,10 +43602,10 @@
         <f t="shared" si="17"/>
         <v>134</v>
       </c>
-      <c r="M371" s="158" t="s">
+      <c r="M371" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N371" s="159"/>
+      <c r="N371" s="289"/>
       <c r="O371" s="2" t="s">
         <v>420</v>
       </c>
@@ -43667,10 +43675,10 @@
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="M372" s="164" t="s">
+      <c r="M372" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="N372" s="165"/>
+      <c r="N372" s="309"/>
       <c r="O372" s="2" t="s">
         <v>450</v>
       </c>
@@ -43740,10 +43748,10 @@
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-      <c r="M373" s="164" t="s">
+      <c r="M373" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="N373" s="165"/>
+      <c r="N373" s="309"/>
       <c r="O373" s="2" t="s">
         <v>450</v>
       </c>
@@ -44113,10 +44121,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M378" s="166" t="s">
+      <c r="M378" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="N378" s="167"/>
+      <c r="N378" s="295"/>
       <c r="O378" s="2" t="s">
         <v>454</v>
       </c>
@@ -44186,10 +44194,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M379" s="168" t="s">
+      <c r="M379" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N379" s="169"/>
+      <c r="N379" s="305"/>
       <c r="O379" s="2" t="s">
         <v>495</v>
       </c>
@@ -44259,10 +44267,10 @@
         <f t="shared" si="17"/>
         <v>285</v>
       </c>
-      <c r="M380" s="170" t="s">
+      <c r="M380" s="310" t="s">
         <v>23</v>
       </c>
-      <c r="N380" s="171"/>
+      <c r="N380" s="311"/>
       <c r="O380" s="2" t="s">
         <v>498</v>
       </c>
@@ -44479,10 +44487,10 @@
       <c r="L383" s="2">
         <v>251</v>
       </c>
-      <c r="M383" s="158" t="s">
+      <c r="M383" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N383" s="159"/>
+      <c r="N383" s="289"/>
       <c r="O383" s="2" t="s">
         <v>420</v>
       </c>
@@ -44555,10 +44563,10 @@
       <c r="L384" s="2">
         <v>251</v>
       </c>
-      <c r="M384" s="160" t="s">
+      <c r="M384" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="N384" s="161"/>
+      <c r="N384" s="303"/>
       <c r="O384" s="2" t="s">
         <v>428</v>
       </c>
@@ -44775,10 +44783,10 @@
         <f t="shared" ref="L387:L445" si="19">ROUND((1+(H387-75)/500)*(ROUND(0.25*(7*MAX(G387,E387)+MIN(G387,E387)),0)),0)</f>
         <v>115</v>
       </c>
-      <c r="M387" s="162" t="s">
+      <c r="M387" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N387" s="163"/>
+      <c r="N387" s="299"/>
       <c r="O387" s="2" t="s">
         <v>434</v>
       </c>
@@ -61158,7 +61166,7 @@
         <v>2967</v>
       </c>
       <c r="U651" s="109" t="s">
-        <v>2967</v>
+        <v>3491</v>
       </c>
       <c r="V651" s="109" t="s">
         <v>2967</v>
@@ -62118,7 +62126,7 @@
         <v>2983</v>
       </c>
       <c r="U667" s="109" t="s">
-        <v>2983</v>
+        <v>3492</v>
       </c>
       <c r="V667" s="109" t="s">
         <v>2983</v>
@@ -70694,102 +70702,96 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M266:N266"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="M269:N269"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M262:N262"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="M264:N264"/>
+    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M238:N238"/>
+    <mergeCell ref="M246:N246"/>
+    <mergeCell ref="M253:N253"/>
+    <mergeCell ref="M254:N254"/>
+    <mergeCell ref="M255:N255"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M235:N235"/>
+    <mergeCell ref="M236:N236"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="M218:N218"/>
+    <mergeCell ref="M224:N224"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="M219:N219"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="M207:N207"/>
     <mergeCell ref="M102:N102"/>
     <mergeCell ref="M111:N111"/>
     <mergeCell ref="M121:N121"/>
@@ -70814,96 +70816,102 @@
     <mergeCell ref="M233:N233"/>
     <mergeCell ref="M234:N234"/>
     <mergeCell ref="M225:N225"/>
-    <mergeCell ref="M238:N238"/>
-    <mergeCell ref="M246:N246"/>
-    <mergeCell ref="M253:N253"/>
-    <mergeCell ref="M254:N254"/>
-    <mergeCell ref="M255:N255"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M235:N235"/>
-    <mergeCell ref="M236:N236"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="M218:N218"/>
-    <mergeCell ref="M224:N224"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="M219:N219"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M266:N266"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="M269:N269"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M262:N262"/>
-    <mergeCell ref="M263:N263"/>
-    <mergeCell ref="M264:N264"/>
-    <mergeCell ref="M265:N265"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M651:N720 M388:N641 M722:N808">
@@ -74283,7 +74291,7 @@
     <hyperlink ref="U553" r:id="rId3089" tooltip="混混鳄"/>
     <hyperlink ref="U554" r:id="rId3090" tooltip="流氓鳄"/>
     <hyperlink ref="U555" r:id="rId3091" tooltip="火红不倒翁"/>
-    <hyperlink ref="U651" r:id="rId3092" tooltip="哈力栗"/>
+    <hyperlink ref="U651" r:id="rId3092" tooltip="哈力栗" display="哈力栗"/>
     <hyperlink ref="U652" r:id="rId3093" tooltip="胖胖哈力"/>
     <hyperlink ref="U653" r:id="rId3094" tooltip="布里卡隆"/>
     <hyperlink ref="U654" r:id="rId3095" tooltip="火狐狸"/>
@@ -74299,7 +74307,7 @@
     <hyperlink ref="U664" r:id="rId3105" tooltip="烈箭鹰" display="烈箭鹰"/>
     <hyperlink ref="U665" r:id="rId3106" tooltip="粉蝶虫"/>
     <hyperlink ref="U666" r:id="rId3107" tooltip="粉蝶蛹"/>
-    <hyperlink ref="U667" r:id="rId3108" tooltip="彩粉蝶"/>
+    <hyperlink ref="U667" r:id="rId3108" tooltip="彩粉蝶" display="彩粉蝶"/>
     <hyperlink ref="U668" r:id="rId3109" tooltip="小狮狮"/>
     <hyperlink ref="U669" r:id="rId3110" tooltip="火炎狮"/>
     <hyperlink ref="U670" r:id="rId3111" tooltip="花蓓蓓"/>

--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10384,10 +10384,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>卡噗qq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>卡璞</t>
     </r>
@@ -10884,6 +10880,10 @@
   </si>
   <si>
     <t>马赛克蝶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡璞qq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -13835,10 +13835,124 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13847,28 +13961,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13883,10 +13997,76 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13895,196 +14075,16 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14129,172 +14129,172 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15237,7 +15237,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15248,8 +15248,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U719" sqref="U719"/>
+    <sheetView tabSelected="1" topLeftCell="N769" workbookViewId="0">
+      <selection activeCell="U779" sqref="U779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15623,10 +15623,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M5" s="178" t="s">
+      <c r="M5" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="179"/>
+      <c r="N5" s="299"/>
       <c r="O5" s="2" t="s">
         <v>418</v>
       </c>
@@ -15698,10 +15698,10 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M6" s="174" t="s">
+      <c r="M6" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="175"/>
+      <c r="N6" s="215"/>
       <c r="O6" s="2" t="s">
         <v>418</v>
       </c>
@@ -15865,10 +15865,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M8" s="180" t="s">
+      <c r="M8" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="181"/>
+      <c r="N8" s="301"/>
       <c r="O8" s="2" t="s">
         <v>420</v>
       </c>
@@ -15940,10 +15940,10 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="M9" s="182" t="s">
+      <c r="M9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="183"/>
+      <c r="N9" s="201"/>
       <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
@@ -16015,10 +16015,10 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M10" s="182" t="s">
+      <c r="M10" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="183"/>
+      <c r="N10" s="201"/>
       <c r="O10" s="2" t="s">
         <v>420</v>
       </c>
@@ -16090,10 +16090,10 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M11" s="184" t="s">
+      <c r="M11" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="185"/>
+      <c r="N11" s="303"/>
       <c r="O11" s="2" t="s">
         <v>421</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>579</v>
       </c>
       <c r="U11" s="109" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="V11" s="109" t="s">
         <v>579</v>
@@ -16165,10 +16165,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M12" s="262" t="s">
+      <c r="M12" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="263"/>
+      <c r="N12" s="233"/>
       <c r="O12" s="2" t="s">
         <v>421</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>691</v>
       </c>
       <c r="U19" s="109" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="V19" s="109" t="s">
         <v>1289</v>
@@ -16799,10 +16799,10 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M20" s="160" t="s">
+      <c r="M20" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="161"/>
+      <c r="N20" s="199"/>
       <c r="O20" s="2" t="s">
         <v>425</v>
       </c>
@@ -16874,10 +16874,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M21" s="160" t="s">
+      <c r="M21" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="161"/>
+      <c r="N21" s="199"/>
       <c r="O21" s="2" t="s">
         <v>425</v>
       </c>
@@ -17113,10 +17113,10 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="M24" s="158" t="s">
+      <c r="M24" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="159"/>
+      <c r="N24" s="227"/>
       <c r="O24" s="2" t="s">
         <v>426</v>
       </c>
@@ -17193,10 +17193,10 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="M25" s="158" t="s">
+      <c r="M25" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="159"/>
+      <c r="N25" s="227"/>
       <c r="O25" s="2" t="s">
         <v>426</v>
       </c>
@@ -17268,10 +17268,10 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="M26" s="162" t="s">
+      <c r="M26" s="310" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="163"/>
+      <c r="N26" s="311"/>
       <c r="O26" s="2" t="s">
         <v>427</v>
       </c>
@@ -17348,10 +17348,10 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="M27" s="186" t="s">
+      <c r="M27" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="187"/>
+      <c r="N27" s="305"/>
       <c r="O27" s="2" t="s">
         <v>427</v>
       </c>
@@ -17433,10 +17433,10 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="M28" s="188" t="s">
+      <c r="M28" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="189"/>
+      <c r="N28" s="307"/>
       <c r="O28" s="2" t="s">
         <v>428</v>
       </c>
@@ -17513,10 +17513,10 @@
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="M29" s="190" t="s">
+      <c r="M29" s="308" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="191"/>
+      <c r="N29" s="309"/>
       <c r="O29" s="2" t="s">
         <v>428</v>
       </c>
@@ -17588,10 +17588,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M30" s="158" t="s">
+      <c r="M30" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="159"/>
+      <c r="N30" s="227"/>
       <c r="O30" s="2" t="s">
         <v>426</v>
       </c>
@@ -17663,10 +17663,10 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M31" s="158" t="s">
+      <c r="M31" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="159"/>
+      <c r="N31" s="227"/>
       <c r="O31" s="2" t="s">
         <v>426</v>
       </c>
@@ -17815,10 +17815,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="M33" s="158" t="s">
+      <c r="M33" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="159"/>
+      <c r="N33" s="227"/>
       <c r="O33" s="2" t="s">
         <v>426</v>
       </c>
@@ -17890,10 +17890,10 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="M34" s="158" t="s">
+      <c r="M34" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="159"/>
+      <c r="N34" s="227"/>
       <c r="O34" s="2" t="s">
         <v>426</v>
       </c>
@@ -18047,10 +18047,10 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M36" s="170" t="s">
+      <c r="M36" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="171"/>
+      <c r="N36" s="209"/>
       <c r="O36" s="2" t="s">
         <v>568</v>
       </c>
@@ -18122,10 +18122,10 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="M37" s="172" t="s">
+      <c r="M37" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="173"/>
+      <c r="N37" s="211"/>
       <c r="O37" s="2" t="s">
         <v>568</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>693</v>
       </c>
       <c r="U37" s="109" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="V37" s="109" t="s">
         <v>693</v>
@@ -18202,10 +18202,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M38" s="174" t="s">
+      <c r="M38" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="175"/>
+      <c r="N38" s="215"/>
       <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
@@ -18277,10 +18277,10 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="M39" s="174" t="s">
+      <c r="M39" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="175"/>
+      <c r="N39" s="215"/>
       <c r="O39" s="2" t="s">
         <v>418</v>
       </c>
@@ -18362,10 +18362,10 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M40" s="176" t="s">
+      <c r="M40" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="177"/>
+      <c r="N40" s="237"/>
       <c r="O40" s="2" t="s">
         <v>483</v>
       </c>
@@ -18442,10 +18442,10 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="M41" s="264" t="s">
+      <c r="M41" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="265"/>
+      <c r="N41" s="213"/>
       <c r="O41" s="2" t="s">
         <v>483</v>
       </c>
@@ -19235,10 +19235,10 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="M51" s="164" t="s">
+      <c r="M51" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="165"/>
+      <c r="N51" s="239"/>
       <c r="O51" s="2" t="s">
         <v>428</v>
       </c>
@@ -19315,10 +19315,10 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="M52" s="166" t="s">
+      <c r="M52" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="167"/>
+      <c r="N52" s="241"/>
       <c r="O52" s="2" t="s">
         <v>428</v>
       </c>
@@ -19395,10 +19395,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M53" s="160" t="s">
+      <c r="M53" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="161"/>
+      <c r="N53" s="199"/>
       <c r="O53" s="2" t="s">
         <v>425</v>
       </c>
@@ -19406,11 +19406,11 @@
         <v>2013</v>
       </c>
       <c r="Q53" s="106" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="R53" s="13"/>
       <c r="S53" s="13" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="T53" s="25" t="s">
         <v>613</v>
@@ -19425,7 +19425,7 @@
         <v>2384</v>
       </c>
       <c r="X53" s="96" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="Z53" s="96" t="s">
         <v>1958</v>
@@ -19475,10 +19475,10 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="M54" s="168" t="s">
+      <c r="M54" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="169"/>
+      <c r="N54" s="277"/>
       <c r="O54" s="2" t="s">
         <v>425</v>
       </c>
@@ -19555,10 +19555,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M55" s="182" t="s">
+      <c r="M55" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="183"/>
+      <c r="N55" s="201"/>
       <c r="O55" s="2" t="s">
         <v>420</v>
       </c>
@@ -19630,10 +19630,10 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="M56" s="208" t="s">
+      <c r="M56" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="209"/>
+      <c r="N56" s="295"/>
       <c r="O56" s="2" t="s">
         <v>420</v>
       </c>
@@ -19705,10 +19705,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M57" s="206" t="s">
+      <c r="M57" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="207"/>
+      <c r="N57" s="191"/>
       <c r="O57" s="2" t="s">
         <v>432</v>
       </c>
@@ -19780,10 +19780,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M58" s="206" t="s">
+      <c r="M58" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="207"/>
+      <c r="N58" s="191"/>
       <c r="O58" s="2" t="s">
         <v>432</v>
       </c>
@@ -19803,7 +19803,7 @@
         <v>618</v>
       </c>
       <c r="U58" s="109" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="V58" s="109" t="s">
         <v>618</v>
@@ -19865,10 +19865,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M59" s="210" t="s">
+      <c r="M59" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="211"/>
+      <c r="N59" s="297"/>
       <c r="O59" s="2" t="s">
         <v>418</v>
       </c>
@@ -19940,10 +19940,10 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="M60" s="174" t="s">
+      <c r="M60" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="175"/>
+      <c r="N60" s="215"/>
       <c r="O60" s="2" t="s">
         <v>418</v>
       </c>
@@ -20025,10 +20025,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="M61" s="212" t="s">
+      <c r="M61" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="213"/>
+      <c r="N61" s="193"/>
       <c r="O61" s="2" t="s">
         <v>420</v>
       </c>
@@ -20100,10 +20100,10 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="M62" s="258" t="s">
+      <c r="M62" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="259"/>
+      <c r="N62" s="229"/>
       <c r="O62" s="2" t="s">
         <v>420</v>
       </c>
@@ -20267,10 +20267,10 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="M64" s="202" t="s">
+      <c r="M64" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="203"/>
+      <c r="N64" s="261"/>
       <c r="O64" s="2" t="s">
         <v>434</v>
       </c>
@@ -20342,10 +20342,10 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="M65" s="192" t="s">
+      <c r="M65" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="193"/>
+      <c r="N65" s="221"/>
       <c r="O65" s="2" t="s">
         <v>434</v>
       </c>
@@ -20417,10 +20417,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="M66" s="204" t="s">
+      <c r="M66" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="205"/>
+      <c r="N66" s="293"/>
       <c r="O66" s="2" t="s">
         <v>434</v>
       </c>
@@ -20497,10 +20497,10 @@
         <f t="shared" ref="L67:L130" si="5">ROUND((1+(H67-75)/500)*(ROUND(0.25*(7*MAX(G67,E67)+MIN(G67,E67)),0)),0)</f>
         <v>88</v>
       </c>
-      <c r="M67" s="206" t="s">
+      <c r="M67" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="207"/>
+      <c r="N67" s="191"/>
       <c r="O67" s="2" t="s">
         <v>432</v>
       </c>
@@ -20577,10 +20577,10 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="M68" s="206" t="s">
+      <c r="M68" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="207"/>
+      <c r="N68" s="191"/>
       <c r="O68" s="2" t="s">
         <v>432</v>
       </c>
@@ -20657,10 +20657,10 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="M69" s="206" t="s">
+      <c r="M69" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="207"/>
+      <c r="N69" s="191"/>
       <c r="O69" s="2" t="s">
         <v>432</v>
       </c>
@@ -21383,10 +21383,10 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="M78" s="174" t="s">
+      <c r="M78" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N78" s="175"/>
+      <c r="N78" s="215"/>
       <c r="O78" s="2" t="s">
         <v>418</v>
       </c>
@@ -21463,10 +21463,10 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="M79" s="198" t="s">
+      <c r="M79" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="199"/>
+      <c r="N79" s="289"/>
       <c r="O79" s="2" t="s">
         <v>418</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>639</v>
       </c>
       <c r="U81" s="109" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="V81" s="109" t="s">
         <v>639</v>
@@ -22107,21 +22107,21 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M87" s="182" t="s">
+      <c r="M87" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N87" s="183"/>
+      <c r="N87" s="201"/>
       <c r="O87" s="2" t="s">
         <v>420</v>
       </c>
       <c r="P87" s="106" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="Q87" s="106" t="s">
         <v>2321</v>
       </c>
       <c r="R87" s="13" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="S87" s="13" t="s">
         <v>543</v>
@@ -22136,7 +22136,7 @@
         <v>643</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>2490</v>
@@ -22279,21 +22279,21 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M89" s="158" t="s">
+      <c r="M89" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="159"/>
+      <c r="N89" s="227"/>
       <c r="O89" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P89" s="106" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>2178</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="S89" s="13"/>
       <c r="T89" s="25" t="s">
@@ -22306,13 +22306,13 @@
         <v>645</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>2492</v>
       </c>
       <c r="Y89" s="2" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="AB89" s="110"/>
       <c r="AC89" s="109"/>
@@ -22359,10 +22359,10 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="M90" s="158" t="s">
+      <c r="M90" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="159"/>
+      <c r="N90" s="227"/>
       <c r="O90" s="2" t="s">
         <v>426</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>2141</v>
       </c>
       <c r="R90" s="13" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="S90" s="13"/>
       <c r="T90" s="25" t="s">
@@ -22392,7 +22392,7 @@
         <v>2451</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="AB90" s="110"/>
       <c r="AC90" s="109"/>
@@ -22439,10 +22439,10 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="M91" s="200" t="s">
+      <c r="M91" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="201"/>
+      <c r="N91" s="291"/>
       <c r="O91" s="2" t="s">
         <v>420</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>2110</v>
       </c>
       <c r="Q93" s="106" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="R93" s="13" t="s">
         <v>548</v>
@@ -22783,13 +22783,13 @@
         <v>2112</v>
       </c>
       <c r="Q95" s="106" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="R95" s="13" t="s">
         <v>549</v>
       </c>
       <c r="S95" s="13" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="T95" s="25" t="s">
         <v>650</v>
@@ -22804,13 +22804,13 @@
         <v>2397</v>
       </c>
       <c r="X95" s="96" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>1942</v>
       </c>
       <c r="Z95" s="96" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="AB95" s="110"/>
       <c r="AC95" s="109"/>
@@ -22870,11 +22870,11 @@
         <v>2023</v>
       </c>
       <c r="Q96" s="106" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="R96" s="13"/>
       <c r="S96" s="13" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="T96" s="25" t="s">
         <v>651</v>
@@ -22889,7 +22889,7 @@
         <v>1600</v>
       </c>
       <c r="X96" s="96" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="Z96" s="2" t="s">
         <v>1977</v>
@@ -22939,10 +22939,10 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="M97" s="192" t="s">
+      <c r="M97" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="193"/>
+      <c r="N97" s="221"/>
       <c r="O97" s="2" t="s">
         <v>434</v>
       </c>
@@ -23014,10 +23014,10 @@
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M98" s="192" t="s">
+      <c r="M98" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="193"/>
+      <c r="N98" s="221"/>
       <c r="O98" s="2" t="s">
         <v>434</v>
       </c>
@@ -23094,10 +23094,10 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="M99" s="194" t="s">
+      <c r="M99" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="N99" s="195"/>
+      <c r="N99" s="285"/>
       <c r="O99" s="2" t="s">
         <v>420</v>
       </c>
@@ -23169,10 +23169,10 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="M100" s="182" t="s">
+      <c r="M100" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="183"/>
+      <c r="N100" s="201"/>
       <c r="O100" s="2" t="s">
         <v>420</v>
       </c>
@@ -23249,10 +23249,10 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="M101" s="196" t="s">
+      <c r="M101" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="197"/>
+      <c r="N101" s="287"/>
       <c r="O101" s="2" t="s">
         <v>427</v>
       </c>
@@ -23329,10 +23329,10 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="M102" s="256" t="s">
+      <c r="M102" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="257"/>
+      <c r="N102" s="225"/>
       <c r="O102" s="2" t="s">
         <v>427</v>
       </c>
@@ -23568,10 +23568,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M105" s="164" t="s">
+      <c r="M105" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="165"/>
+      <c r="N105" s="239"/>
       <c r="O105" s="2" t="s">
         <v>428</v>
       </c>
@@ -23643,10 +23643,10 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M106" s="216" t="s">
+      <c r="M106" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="217"/>
+      <c r="N106" s="281"/>
       <c r="O106" s="2" t="s">
         <v>428</v>
       </c>
@@ -23718,10 +23718,10 @@
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="M107" s="206" t="s">
+      <c r="M107" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N107" s="207"/>
+      <c r="N107" s="191"/>
       <c r="O107" s="2" t="s">
         <v>432</v>
       </c>
@@ -23798,10 +23798,10 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="M108" s="206" t="s">
+      <c r="M108" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N108" s="207"/>
+      <c r="N108" s="191"/>
       <c r="O108" s="2" t="s">
         <v>432</v>
       </c>
@@ -23883,10 +23883,10 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="M109" s="218" t="s">
+      <c r="M109" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="N109" s="219"/>
+      <c r="N109" s="283"/>
       <c r="O109" s="2" t="s">
         <v>425</v>
       </c>
@@ -23958,21 +23958,21 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="M110" s="158" t="s">
+      <c r="M110" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="159"/>
+      <c r="N110" s="227"/>
       <c r="O110" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P110" s="106" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>2189</v>
       </c>
       <c r="R110" s="13" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="S110" s="13"/>
       <c r="T110" s="25" t="s">
@@ -23985,13 +23985,13 @@
         <v>657</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="X110" s="2" t="s">
         <v>1778</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="AB110" s="110"/>
       <c r="AC110" s="109"/>
@@ -24038,21 +24038,21 @@
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="M111" s="158" t="s">
+      <c r="M111" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="159"/>
+      <c r="N111" s="227"/>
       <c r="O111" s="2" t="s">
         <v>426</v>
       </c>
       <c r="P111" s="106" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>2190</v>
       </c>
       <c r="R111" s="13" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="S111" s="13"/>
       <c r="T111" s="25" t="s">
@@ -24065,13 +24065,13 @@
         <v>658</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="X111" s="2" t="s">
         <v>1779</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="AB111" s="110"/>
       <c r="AC111" s="109"/>
@@ -24277,10 +24277,10 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="M114" s="170" t="s">
+      <c r="M114" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N114" s="171"/>
+      <c r="N114" s="209"/>
       <c r="O114" s="2" t="s">
         <v>425</v>
       </c>
@@ -24357,10 +24357,10 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M115" s="214" t="s">
+      <c r="M115" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="N115" s="215"/>
+      <c r="N115" s="279"/>
       <c r="O115" s="2" t="s">
         <v>443</v>
       </c>
@@ -24437,10 +24437,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M116" s="168" t="s">
+      <c r="M116" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N116" s="169"/>
+      <c r="N116" s="277"/>
       <c r="O116" s="2" t="s">
         <v>425</v>
       </c>
@@ -24517,10 +24517,10 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="M117" s="182" t="s">
+      <c r="M117" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="183"/>
+      <c r="N117" s="201"/>
       <c r="O117" s="2" t="s">
         <v>420</v>
       </c>
@@ -24592,10 +24592,10 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="M118" s="182" t="s">
+      <c r="M118" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="183"/>
+      <c r="N118" s="201"/>
       <c r="O118" s="2" t="s">
         <v>420</v>
       </c>
@@ -24672,10 +24672,10 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="M119" s="182" t="s">
+      <c r="M119" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N119" s="183"/>
+      <c r="N119" s="201"/>
       <c r="O119" s="2" t="s">
         <v>420</v>
       </c>
@@ -24747,10 +24747,10 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-      <c r="M120" s="182" t="s">
+      <c r="M120" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N120" s="183"/>
+      <c r="N120" s="201"/>
       <c r="O120" s="2" t="s">
         <v>420</v>
       </c>
@@ -24832,10 +24832,10 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="M121" s="258" t="s">
+      <c r="M121" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="N121" s="259"/>
+      <c r="N121" s="229"/>
       <c r="O121" s="2" t="s">
         <v>420</v>
       </c>
@@ -24846,7 +24846,7 @@
         <v>2194</v>
       </c>
       <c r="R121" s="13" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="S121" s="13"/>
       <c r="T121" s="25" t="s">
@@ -24925,13 +24925,13 @@
         <v>2354</v>
       </c>
       <c r="Q122" s="106" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="R122" s="13" t="s">
         <v>2351</v>
       </c>
       <c r="S122" s="13" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="T122" s="25" t="s">
         <v>666</v>
@@ -24946,7 +24946,7 @@
         <v>1615</v>
       </c>
       <c r="X122" s="96" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>1579</v>
@@ -24999,10 +24999,10 @@
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="M123" s="192" t="s">
+      <c r="M123" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="193"/>
+      <c r="N123" s="221"/>
       <c r="O123" s="2" t="s">
         <v>434</v>
       </c>
@@ -25248,10 +25248,10 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="M126" s="224" t="s">
+      <c r="M126" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="225"/>
+      <c r="N126" s="235"/>
       <c r="O126" s="2" t="s">
         <v>427</v>
       </c>
@@ -25323,10 +25323,10 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="M127" s="174" t="s">
+      <c r="M127" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N127" s="175"/>
+      <c r="N127" s="215"/>
       <c r="O127" s="2" t="s">
         <v>418</v>
       </c>
@@ -25398,10 +25398,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M128" s="220" t="s">
+      <c r="M128" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="221"/>
+      <c r="N128" s="273"/>
       <c r="O128" s="2" t="s">
         <v>421</v>
       </c>
@@ -25483,10 +25483,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M129" s="222" t="s">
+      <c r="M129" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="N129" s="223"/>
+      <c r="N129" s="275"/>
       <c r="O129" s="2" t="s">
         <v>425</v>
       </c>
@@ -25502,7 +25502,7 @@
         <v>670</v>
       </c>
       <c r="U129" s="109" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="V129" s="109" t="s">
         <v>670</v>
@@ -25558,10 +25558,10 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="M130" s="182" t="s">
+      <c r="M130" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N130" s="183"/>
+      <c r="N130" s="201"/>
       <c r="O130" s="2" t="s">
         <v>420</v>
       </c>
@@ -25807,10 +25807,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M133" s="170" t="s">
+      <c r="M133" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N133" s="171"/>
+      <c r="N133" s="209"/>
       <c r="O133" s="2" t="s">
         <v>425</v>
       </c>
@@ -25882,10 +25882,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="M134" s="168" t="s">
+      <c r="M134" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="N134" s="169"/>
+      <c r="N134" s="277"/>
       <c r="O134" s="2" t="s">
         <v>425</v>
       </c>
@@ -25962,10 +25962,10 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="M135" s="182" t="s">
+      <c r="M135" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N135" s="183"/>
+      <c r="N135" s="201"/>
       <c r="O135" s="2" t="s">
         <v>420</v>
       </c>
@@ -26037,10 +26037,10 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="M136" s="232" t="s">
+      <c r="M136" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="233"/>
+      <c r="N136" s="269"/>
       <c r="O136" s="2" t="s">
         <v>427</v>
       </c>
@@ -26112,10 +26112,10 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="M137" s="174" t="s">
+      <c r="M137" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N137" s="175"/>
+      <c r="N137" s="215"/>
       <c r="O137" s="2" t="s">
         <v>418</v>
       </c>
@@ -26123,11 +26123,11 @@
         <v>1521</v>
       </c>
       <c r="Q137" s="106" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="R137" s="13"/>
       <c r="S137" s="13" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="T137" s="25" t="s">
         <v>719</v>
@@ -26142,7 +26142,7 @@
         <v>1623</v>
       </c>
       <c r="X137" s="96" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="Z137" s="2" t="s">
         <v>1927</v>
@@ -26192,10 +26192,10 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="M138" s="236" t="s">
+      <c r="M138" s="270" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="237"/>
+      <c r="N138" s="271"/>
       <c r="O138" s="2" t="s">
         <v>425</v>
       </c>
@@ -26682,10 +26682,10 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="M144" s="170" t="s">
+      <c r="M144" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="171"/>
+      <c r="N144" s="209"/>
       <c r="O144" s="2" t="s">
         <v>425</v>
       </c>
@@ -27013,10 +27013,10 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="M148" s="234" t="s">
+      <c r="M148" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="N148" s="235"/>
+      <c r="N148" s="197"/>
       <c r="O148" s="2" t="s">
         <v>450</v>
       </c>
@@ -27088,10 +27088,10 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="M149" s="234" t="s">
+      <c r="M149" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="N149" s="235"/>
+      <c r="N149" s="197"/>
       <c r="O149" s="2" t="s">
         <v>450</v>
       </c>
@@ -27247,10 +27247,10 @@
       <c r="L151" s="2">
         <v>182</v>
       </c>
-      <c r="M151" s="202" t="s">
+      <c r="M151" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="203"/>
+      <c r="N151" s="261"/>
       <c r="O151" s="2" t="s">
         <v>434</v>
       </c>
@@ -27322,10 +27322,10 @@
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="M152" s="192" t="s">
+      <c r="M152" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="193"/>
+      <c r="N152" s="221"/>
       <c r="O152" s="2" t="s">
         <v>434</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>2048</v>
       </c>
       <c r="Q152" s="106" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="R152" s="54"/>
       <c r="S152" s="54" t="s">
@@ -27355,7 +27355,7 @@
         <v>2617</v>
       </c>
       <c r="Z152" s="96" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="AB152" s="110"/>
       <c r="AC152" s="109"/>
@@ -27402,10 +27402,10 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="M153" s="226" t="s">
+      <c r="M153" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="N153" s="227"/>
+      <c r="N153" s="263"/>
       <c r="O153" s="2" t="s">
         <v>443</v>
       </c>
@@ -27475,10 +27475,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="M154" s="228" t="s">
+      <c r="M154" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="N154" s="229"/>
+      <c r="N154" s="265"/>
       <c r="O154" s="2" t="s">
         <v>443</v>
       </c>
@@ -27548,10 +27548,10 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="M155" s="230" t="s">
+      <c r="M155" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="N155" s="231"/>
+      <c r="N155" s="267"/>
       <c r="O155" s="2" t="s">
         <v>443</v>
       </c>
@@ -27621,10 +27621,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="M156" s="174" t="s">
+      <c r="M156" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N156" s="175"/>
+      <c r="N156" s="215"/>
       <c r="O156" s="2" t="s">
         <v>418</v>
       </c>
@@ -27694,10 +27694,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="M157" s="174" t="s">
+      <c r="M157" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N157" s="175"/>
+      <c r="N157" s="215"/>
       <c r="O157" s="2" t="s">
         <v>418</v>
       </c>
@@ -27767,10 +27767,10 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="M158" s="174" t="s">
+      <c r="M158" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N158" s="175"/>
+      <c r="N158" s="215"/>
       <c r="O158" s="2" t="s">
         <v>418</v>
       </c>
@@ -27840,10 +27840,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M159" s="212" t="s">
+      <c r="M159" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N159" s="213"/>
+      <c r="N159" s="193"/>
       <c r="O159" s="2" t="s">
         <v>420</v>
       </c>
@@ -27913,10 +27913,10 @@
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="M160" s="182" t="s">
+      <c r="M160" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N160" s="183"/>
+      <c r="N160" s="201"/>
       <c r="O160" s="2" t="s">
         <v>420</v>
       </c>
@@ -27986,10 +27986,10 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="M161" s="182" t="s">
+      <c r="M161" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N161" s="183"/>
+      <c r="N161" s="201"/>
       <c r="O161" s="2" t="s">
         <v>420</v>
       </c>
@@ -28065,10 +28065,10 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="M162" s="238" t="s">
+      <c r="M162" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="N162" s="239"/>
+      <c r="N162" s="257"/>
       <c r="O162" s="2" t="s">
         <v>425</v>
       </c>
@@ -28138,10 +28138,10 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="M163" s="160" t="s">
+      <c r="M163" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N163" s="161"/>
+      <c r="N163" s="199"/>
       <c r="O163" s="2" t="s">
         <v>425</v>
       </c>
@@ -28886,10 +28886,10 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="M173" s="240" t="s">
+      <c r="M173" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="241"/>
+      <c r="N173" s="259"/>
       <c r="O173" s="2" t="s">
         <v>427</v>
       </c>
@@ -28965,10 +28965,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M174" s="160" t="s">
+      <c r="M174" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N174" s="161"/>
+      <c r="N174" s="199"/>
       <c r="O174" s="2" t="s">
         <v>568</v>
       </c>
@@ -28976,10 +28976,10 @@
         <v>2007</v>
       </c>
       <c r="Q174" s="106" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="S174" s="107" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="T174" s="25" t="s">
         <v>799</v>
@@ -29044,10 +29044,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="M175" s="160" t="s">
+      <c r="M175" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N175" s="161"/>
+      <c r="N175" s="199"/>
       <c r="O175" s="2" t="s">
         <v>483</v>
       </c>
@@ -29055,7 +29055,7 @@
         <v>2009</v>
       </c>
       <c r="Q175" s="106" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="S175" s="96" t="s">
         <v>2618</v>
@@ -29123,10 +29123,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M176" s="160" t="s">
+      <c r="M176" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N176" s="161"/>
+      <c r="N176" s="199"/>
       <c r="O176" s="2" t="s">
         <v>568</v>
       </c>
@@ -29725,10 +29725,10 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="M184" s="182" t="s">
+      <c r="M184" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N184" s="183"/>
+      <c r="N184" s="201"/>
       <c r="O184" s="2" t="s">
         <v>569</v>
       </c>
@@ -29798,10 +29798,10 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="M185" s="182" t="s">
+      <c r="M185" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N185" s="183"/>
+      <c r="N185" s="201"/>
       <c r="O185" s="2" t="s">
         <v>569</v>
       </c>
@@ -29944,10 +29944,10 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="M187" s="182" t="s">
+      <c r="M187" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N187" s="183"/>
+      <c r="N187" s="201"/>
       <c r="O187" s="2" t="s">
         <v>420</v>
       </c>
@@ -30248,10 +30248,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M191" s="160" t="s">
+      <c r="M191" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N191" s="161"/>
+      <c r="N191" s="199"/>
       <c r="O191" s="2" t="s">
         <v>425</v>
       </c>
@@ -30338,7 +30338,7 @@
         <v>750</v>
       </c>
       <c r="U192" s="109" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="V192" s="109" t="s">
         <v>750</v>
@@ -30394,10 +30394,10 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="M193" s="270" t="s">
+      <c r="M193" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="N193" s="271"/>
+      <c r="N193" s="203"/>
       <c r="O193" s="2" t="s">
         <v>443</v>
       </c>
@@ -30709,7 +30709,7 @@
         <v>809</v>
       </c>
       <c r="U197" s="109" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="V197" s="109" t="s">
         <v>1318</v>
@@ -30765,10 +30765,10 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="M198" s="272" t="s">
+      <c r="M198" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="N198" s="273"/>
+      <c r="N198" s="205"/>
       <c r="O198" s="2" t="s">
         <v>457</v>
       </c>
@@ -30782,7 +30782,7 @@
         <v>810</v>
       </c>
       <c r="U198" s="109" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="V198" s="109" t="s">
         <v>1319</v>
@@ -30932,7 +30932,7 @@
         <v>811</v>
       </c>
       <c r="U200" s="109" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="V200" s="109" t="s">
         <v>1320</v>
@@ -30988,10 +30988,10 @@
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="M201" s="276" t="s">
+      <c r="M201" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="N201" s="277"/>
+      <c r="N201" s="217"/>
       <c r="O201" s="2" t="s">
         <v>459</v>
       </c>
@@ -31061,10 +31061,10 @@
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="M202" s="278" t="s">
+      <c r="M202" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="279"/>
+      <c r="N202" s="219"/>
       <c r="O202" s="2" t="s">
         <v>434</v>
       </c>
@@ -31134,10 +31134,10 @@
         <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="M203" s="192" t="s">
+      <c r="M203" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="193"/>
+      <c r="N203" s="221"/>
       <c r="O203" s="2" t="s">
         <v>434</v>
       </c>
@@ -31151,7 +31151,7 @@
         <v>757</v>
       </c>
       <c r="U203" s="109" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="V203" s="109" t="s">
         <v>757</v>
@@ -31282,10 +31282,10 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="M205" s="280" t="s">
+      <c r="M205" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="281"/>
+      <c r="N205" s="223"/>
       <c r="O205" s="2" t="s">
         <v>421</v>
       </c>
@@ -31430,10 +31430,10 @@
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="M207" s="170" t="s">
+      <c r="M207" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N207" s="171"/>
+      <c r="N207" s="209"/>
       <c r="O207" s="2" t="s">
         <v>425</v>
       </c>
@@ -31653,10 +31653,10 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="M210" s="160" t="s">
+      <c r="M210" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N210" s="161"/>
+      <c r="N210" s="199"/>
       <c r="O210" s="2" t="s">
         <v>568</v>
       </c>
@@ -31726,10 +31726,10 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="M211" s="264" t="s">
+      <c r="M211" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="265"/>
+      <c r="N211" s="213"/>
       <c r="O211" s="2" t="s">
         <v>568</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>765</v>
       </c>
       <c r="U213" s="109" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="V213" s="109" t="s">
         <v>765</v>
@@ -32174,10 +32174,10 @@
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="M217" s="170" t="s">
+      <c r="M217" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="N217" s="171"/>
+      <c r="N217" s="209"/>
       <c r="O217" s="2" t="s">
         <v>425</v>
       </c>
@@ -32247,10 +32247,10 @@
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="M218" s="172" t="s">
+      <c r="M218" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="173"/>
+      <c r="N218" s="211"/>
       <c r="O218" s="2" t="s">
         <v>425</v>
       </c>
@@ -32320,10 +32320,10 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="M219" s="174" t="s">
+      <c r="M219" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N219" s="175"/>
+      <c r="N219" s="215"/>
       <c r="O219" s="2" t="s">
         <v>418</v>
       </c>
@@ -32693,10 +32693,10 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="M224" s="182" t="s">
+      <c r="M224" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N224" s="183"/>
+      <c r="N224" s="201"/>
       <c r="O224" s="2" t="s">
         <v>420</v>
       </c>
@@ -32766,10 +32766,10 @@
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="M225" s="182" t="s">
+      <c r="M225" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N225" s="183"/>
+      <c r="N225" s="201"/>
       <c r="O225" s="2" t="s">
         <v>420</v>
       </c>
@@ -33014,7 +33014,7 @@
         <v>780</v>
       </c>
       <c r="U228" s="109" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="V228" s="109" t="s">
         <v>780</v>
@@ -33301,10 +33301,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="M232" s="164" t="s">
+      <c r="M232" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="N232" s="165"/>
+      <c r="N232" s="239"/>
       <c r="O232" s="2" t="s">
         <v>428</v>
       </c>
@@ -33374,10 +33374,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M233" s="166" t="s">
+      <c r="M233" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="N233" s="167"/>
+      <c r="N233" s="241"/>
       <c r="O233" s="2" t="s">
         <v>428</v>
       </c>
@@ -33447,10 +33447,10 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="M234" s="160" t="s">
+      <c r="M234" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N234" s="161"/>
+      <c r="N234" s="199"/>
       <c r="O234" s="2" t="s">
         <v>425</v>
       </c>
@@ -33467,7 +33467,7 @@
         <v>3292</v>
       </c>
       <c r="V234" s="109" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="W234" s="2" t="s">
         <v>1624</v>
@@ -33520,10 +33520,10 @@
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="M235" s="160" t="s">
+      <c r="M235" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N235" s="161"/>
+      <c r="N235" s="199"/>
       <c r="O235" s="2" t="s">
         <v>425</v>
       </c>
@@ -33593,10 +33593,10 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
-      <c r="M236" s="274" t="s">
+      <c r="M236" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="N236" s="275"/>
+      <c r="N236" s="207"/>
       <c r="O236" s="2" t="s">
         <v>425</v>
       </c>
@@ -33666,10 +33666,10 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="M237" s="206" t="s">
+      <c r="M237" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N237" s="207"/>
+      <c r="N237" s="191"/>
       <c r="O237" s="2" t="s">
         <v>432</v>
       </c>
@@ -33739,10 +33739,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M238" s="206" t="s">
+      <c r="M238" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="207"/>
+      <c r="N238" s="191"/>
       <c r="O238" s="2" t="s">
         <v>432</v>
       </c>
@@ -33893,10 +33893,10 @@
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="M240" s="224" t="s">
+      <c r="M240" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="225"/>
+      <c r="N240" s="235"/>
       <c r="O240" s="2" t="s">
         <v>427</v>
       </c>
@@ -33972,10 +33972,10 @@
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="M241" s="174" t="s">
+      <c r="M241" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N241" s="175"/>
+      <c r="N241" s="215"/>
       <c r="O241" s="2" t="s">
         <v>418</v>
       </c>
@@ -34045,10 +34045,10 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="M242" s="176" t="s">
+      <c r="M242" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N242" s="177"/>
+      <c r="N242" s="237"/>
       <c r="O242" s="2" t="s">
         <v>425</v>
       </c>
@@ -34118,10 +34118,10 @@
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="M243" s="160" t="s">
+      <c r="M243" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N243" s="161"/>
+      <c r="N243" s="199"/>
       <c r="O243" s="2" t="s">
         <v>425</v>
       </c>
@@ -34191,10 +34191,10 @@
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="M244" s="260" t="s">
+      <c r="M244" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="261"/>
+      <c r="N244" s="231"/>
       <c r="O244" s="2" t="s">
         <v>427</v>
       </c>
@@ -34264,10 +34264,10 @@
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="M245" s="174" t="s">
+      <c r="M245" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="N245" s="175"/>
+      <c r="N245" s="215"/>
       <c r="O245" s="2" t="s">
         <v>418</v>
       </c>
@@ -34281,7 +34281,7 @@
         <v>794</v>
       </c>
       <c r="U245" s="109" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="V245" s="109" t="s">
         <v>794</v>
@@ -34337,10 +34337,10 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="M246" s="212" t="s">
+      <c r="M246" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="N246" s="213"/>
+      <c r="N246" s="193"/>
       <c r="O246" s="2" t="s">
         <v>420</v>
       </c>
@@ -34660,7 +34660,7 @@
         <v>796</v>
       </c>
       <c r="U250" s="109" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="V250" s="109" t="s">
         <v>796</v>
@@ -34863,10 +34863,10 @@
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="M253" s="266" t="s">
+      <c r="M253" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="N253" s="267"/>
+      <c r="N253" s="195"/>
       <c r="O253" s="2" t="s">
         <v>443</v>
       </c>
@@ -34936,10 +34936,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M254" s="268" t="s">
+      <c r="M254" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N254" s="269"/>
+      <c r="N254" s="179"/>
       <c r="O254" s="2" t="s">
         <v>443</v>
       </c>
@@ -35009,10 +35009,10 @@
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="M255" s="268" t="s">
+      <c r="M255" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N255" s="269"/>
+      <c r="N255" s="179"/>
       <c r="O255" s="2" t="s">
         <v>443</v>
       </c>
@@ -35082,10 +35082,10 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="M256" s="286" t="s">
+      <c r="M256" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="N256" s="287"/>
+      <c r="N256" s="183"/>
       <c r="O256" s="2" t="s">
         <v>418</v>
       </c>
@@ -35252,7 +35252,7 @@
         <v>826</v>
       </c>
       <c r="U258" s="109" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="V258" s="109" t="s">
         <v>826</v>
@@ -35311,10 +35311,10 @@
         <f t="shared" ref="L259:L322" si="14">ROUND((1+(H259-75)/500)*(ROUND(0.25*(7*MAX(G259,E259)+MIN(G259,E259)),0)),0)</f>
         <v>93</v>
       </c>
-      <c r="M259" s="288" t="s">
+      <c r="M259" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N259" s="289"/>
+      <c r="N259" s="159"/>
       <c r="O259" s="2" t="s">
         <v>420</v>
       </c>
@@ -35534,10 +35534,10 @@
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="M262" s="290" t="s">
+      <c r="M262" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N262" s="291"/>
+      <c r="N262" s="175"/>
       <c r="O262" s="2" t="s">
         <v>457</v>
       </c>
@@ -35607,10 +35607,10 @@
         <f t="shared" si="14"/>
         <v>137</v>
       </c>
-      <c r="M263" s="290" t="s">
+      <c r="M263" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N263" s="291"/>
+      <c r="N263" s="175"/>
       <c r="O263" s="2" t="s">
         <v>457</v>
       </c>
@@ -35680,10 +35680,10 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="M264" s="284" t="s">
+      <c r="M264" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N264" s="285"/>
+      <c r="N264" s="177"/>
       <c r="O264" s="2" t="s">
         <v>425</v>
       </c>
@@ -35753,10 +35753,10 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="M265" s="284" t="s">
+      <c r="M265" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N265" s="285"/>
+      <c r="N265" s="177"/>
       <c r="O265" s="2" t="s">
         <v>425</v>
       </c>
@@ -35826,10 +35826,10 @@
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="M266" s="282" t="s">
+      <c r="M266" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N266" s="283"/>
+      <c r="N266" s="187"/>
       <c r="O266" s="2" t="s">
         <v>421</v>
       </c>
@@ -35899,10 +35899,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M267" s="282" t="s">
+      <c r="M267" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N267" s="283"/>
+      <c r="N267" s="187"/>
       <c r="O267" s="2" t="s">
         <v>421</v>
       </c>
@@ -36047,10 +36047,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M269" s="282" t="s">
+      <c r="M269" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N269" s="283"/>
+      <c r="N269" s="187"/>
       <c r="O269" s="2" t="s">
         <v>421</v>
       </c>
@@ -36420,10 +36420,10 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="M274" s="268" t="s">
+      <c r="M274" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N274" s="269"/>
+      <c r="N274" s="179"/>
       <c r="O274" s="2" t="s">
         <v>443</v>
       </c>
@@ -37187,7 +37187,7 @@
         <v>849</v>
       </c>
       <c r="U284" s="109" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="V284" s="109" t="s">
         <v>849</v>
@@ -37318,10 +37318,10 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="M286" s="268" t="s">
+      <c r="M286" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N286" s="269"/>
+      <c r="N286" s="179"/>
       <c r="O286" s="2" t="s">
         <v>443</v>
       </c>
@@ -37466,10 +37466,10 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="M288" s="284" t="s">
+      <c r="M288" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N288" s="285"/>
+      <c r="N288" s="177"/>
       <c r="O288" s="2" t="s">
         <v>425</v>
       </c>
@@ -37483,7 +37483,7 @@
         <v>853</v>
       </c>
       <c r="U288" s="109" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="V288" s="109" t="s">
         <v>853</v>
@@ -37539,10 +37539,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M289" s="284" t="s">
+      <c r="M289" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N289" s="285"/>
+      <c r="N289" s="177"/>
       <c r="O289" s="2" t="s">
         <v>425</v>
       </c>
@@ -37609,10 +37609,10 @@
       <c r="L290" s="2">
         <v>183</v>
       </c>
-      <c r="M290" s="284" t="s">
+      <c r="M290" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N290" s="285"/>
+      <c r="N290" s="177"/>
       <c r="O290" s="2" t="s">
         <v>425</v>
       </c>
@@ -37907,10 +37907,10 @@
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="M294" s="284" t="s">
+      <c r="M294" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N294" s="285"/>
+      <c r="N294" s="177"/>
       <c r="O294" s="2" t="s">
         <v>425</v>
       </c>
@@ -37980,10 +37980,10 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="M295" s="284" t="s">
+      <c r="M295" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N295" s="285"/>
+      <c r="N295" s="177"/>
       <c r="O295" s="2" t="s">
         <v>425</v>
       </c>
@@ -38053,10 +38053,10 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="M296" s="284" t="s">
+      <c r="M296" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N296" s="285"/>
+      <c r="N296" s="177"/>
       <c r="O296" s="2" t="s">
         <v>425</v>
       </c>
@@ -38126,10 +38126,10 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="M297" s="292" t="s">
+      <c r="M297" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="N297" s="293"/>
+      <c r="N297" s="189"/>
       <c r="O297" s="2" t="s">
         <v>432</v>
       </c>
@@ -38199,10 +38199,10 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="M298" s="292" t="s">
+      <c r="M298" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="N298" s="293"/>
+      <c r="N298" s="189"/>
       <c r="O298" s="2" t="s">
         <v>432</v>
       </c>
@@ -38216,7 +38216,7 @@
         <v>863</v>
       </c>
       <c r="U298" s="109" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="V298" s="109" t="s">
         <v>863</v>
@@ -38347,10 +38347,10 @@
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="M300" s="294" t="s">
+      <c r="M300" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="N300" s="295"/>
+      <c r="N300" s="167"/>
       <c r="O300" s="2" t="s">
         <v>454</v>
       </c>
@@ -38420,10 +38420,10 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="M301" s="284" t="s">
+      <c r="M301" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N301" s="285"/>
+      <c r="N301" s="177"/>
       <c r="O301" s="2" t="s">
         <v>425</v>
       </c>
@@ -38493,10 +38493,10 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="M302" s="284" t="s">
+      <c r="M302" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N302" s="285"/>
+      <c r="N302" s="177"/>
       <c r="O302" s="2" t="s">
         <v>425</v>
       </c>
@@ -39091,10 +39091,10 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="M310" s="296" t="s">
+      <c r="M310" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="297"/>
+      <c r="N310" s="185"/>
       <c r="O310" s="2" t="s">
         <v>427</v>
       </c>
@@ -39164,10 +39164,10 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="M311" s="296" t="s">
+      <c r="M311" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="297"/>
+      <c r="N311" s="185"/>
       <c r="O311" s="2" t="s">
         <v>427</v>
       </c>
@@ -39237,10 +39237,10 @@
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="M312" s="296" t="s">
+      <c r="M312" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="297"/>
+      <c r="N312" s="185"/>
       <c r="O312" s="2" t="s">
         <v>427</v>
       </c>
@@ -39310,10 +39310,10 @@
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="M313" s="296" t="s">
+      <c r="M313" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="297"/>
+      <c r="N313" s="185"/>
       <c r="O313" s="2" t="s">
         <v>427</v>
       </c>
@@ -39383,10 +39383,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M314" s="282" t="s">
+      <c r="M314" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="283"/>
+      <c r="N314" s="187"/>
       <c r="O314" s="2" t="s">
         <v>421</v>
       </c>
@@ -39456,10 +39456,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M315" s="282" t="s">
+      <c r="M315" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="N315" s="283"/>
+      <c r="N315" s="187"/>
       <c r="O315" s="2" t="s">
         <v>421</v>
       </c>
@@ -39604,10 +39604,10 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="M317" s="300" t="s">
+      <c r="M317" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N317" s="301"/>
+      <c r="N317" s="181"/>
       <c r="O317" s="2" t="s">
         <v>426</v>
       </c>
@@ -39677,10 +39677,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M318" s="300" t="s">
+      <c r="M318" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N318" s="301"/>
+      <c r="N318" s="181"/>
       <c r="O318" s="2" t="s">
         <v>426</v>
       </c>
@@ -39900,10 +39900,10 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="M321" s="288" t="s">
+      <c r="M321" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N321" s="289"/>
+      <c r="N321" s="159"/>
       <c r="O321" s="2" t="s">
         <v>420</v>
       </c>
@@ -39917,7 +39917,7 @@
         <v>884</v>
       </c>
       <c r="U321" s="109" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="V321" s="109" t="s">
         <v>884</v>
@@ -39973,10 +39973,10 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="M322" s="288" t="s">
+      <c r="M322" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N322" s="289"/>
+      <c r="N322" s="159"/>
       <c r="O322" s="2" t="s">
         <v>420</v>
       </c>
@@ -40196,10 +40196,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M325" s="286" t="s">
+      <c r="M325" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="N325" s="287"/>
+      <c r="N325" s="183"/>
       <c r="O325" s="2" t="s">
         <v>418</v>
       </c>
@@ -40269,10 +40269,10 @@
         <f t="shared" si="17"/>
         <v>145</v>
       </c>
-      <c r="M326" s="298" t="s">
+      <c r="M326" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N326" s="299"/>
+      <c r="N326" s="163"/>
       <c r="O326" s="2" t="s">
         <v>434</v>
       </c>
@@ -40342,10 +40342,10 @@
         <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="M327" s="298" t="s">
+      <c r="M327" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N327" s="299"/>
+      <c r="N327" s="163"/>
       <c r="O327" s="2" t="s">
         <v>434</v>
       </c>
@@ -40415,10 +40415,10 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="M328" s="284" t="s">
+      <c r="M328" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N328" s="285"/>
+      <c r="N328" s="177"/>
       <c r="O328" s="2" t="s">
         <v>425</v>
       </c>
@@ -40488,10 +40488,10 @@
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="M329" s="302" t="s">
+      <c r="M329" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="N329" s="303"/>
+      <c r="N329" s="161"/>
       <c r="O329" s="2" t="s">
         <v>428</v>
       </c>
@@ -40655,7 +40655,7 @@
         <v>894</v>
       </c>
       <c r="U331" s="109" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="V331" s="109" t="s">
         <v>894</v>
@@ -40711,10 +40711,10 @@
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M332" s="268" t="s">
+      <c r="M332" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N332" s="269"/>
+      <c r="N332" s="179"/>
       <c r="O332" s="2" t="s">
         <v>443</v>
       </c>
@@ -40728,7 +40728,7 @@
         <v>895</v>
       </c>
       <c r="U332" s="109" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="V332" s="109" t="s">
         <v>895</v>
@@ -40803,7 +40803,7 @@
         <v>896</v>
       </c>
       <c r="U333" s="109" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="V333" s="109" t="s">
         <v>896</v>
@@ -41009,10 +41009,10 @@
         <f t="shared" si="17"/>
         <v>124</v>
       </c>
-      <c r="M336" s="284" t="s">
+      <c r="M336" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N336" s="285"/>
+      <c r="N336" s="177"/>
       <c r="O336" s="2" t="s">
         <v>425</v>
       </c>
@@ -41082,10 +41082,10 @@
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="M337" s="300" t="s">
+      <c r="M337" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="N337" s="301"/>
+      <c r="N337" s="181"/>
       <c r="O337" s="2" t="s">
         <v>426</v>
       </c>
@@ -41455,10 +41455,10 @@
         <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="M342" s="288" t="s">
+      <c r="M342" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N342" s="289"/>
+      <c r="N342" s="159"/>
       <c r="O342" s="2" t="s">
         <v>420</v>
       </c>
@@ -42053,10 +42053,10 @@
         <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="M350" s="288" t="s">
+      <c r="M350" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N350" s="289"/>
+      <c r="N350" s="159"/>
       <c r="O350" s="2" t="s">
         <v>420</v>
       </c>
@@ -42070,7 +42070,7 @@
         <v>913</v>
       </c>
       <c r="U350" s="109" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="V350" s="109" t="s">
         <v>913</v>
@@ -42126,10 +42126,10 @@
         <f t="shared" si="17"/>
         <v>242</v>
       </c>
-      <c r="M351" s="288" t="s">
+      <c r="M351" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N351" s="289"/>
+      <c r="N351" s="159"/>
       <c r="O351" s="2" t="s">
         <v>420</v>
       </c>
@@ -42205,10 +42205,10 @@
         <f t="shared" si="17"/>
         <v>139</v>
       </c>
-      <c r="M352" s="284" t="s">
+      <c r="M352" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N352" s="285"/>
+      <c r="N352" s="177"/>
       <c r="O352" s="2" t="s">
         <v>425</v>
       </c>
@@ -42278,10 +42278,10 @@
         <f t="shared" si="17"/>
         <v>212</v>
       </c>
-      <c r="M353" s="284" t="s">
+      <c r="M353" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N353" s="285"/>
+      <c r="N353" s="177"/>
       <c r="O353" s="2" t="s">
         <v>425</v>
       </c>
@@ -42351,10 +42351,10 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M354" s="306" t="s">
+      <c r="M354" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N354" s="307"/>
+      <c r="N354" s="173"/>
       <c r="O354" s="2" t="s">
         <v>459</v>
       </c>
@@ -42424,10 +42424,10 @@
         <f t="shared" si="17"/>
         <v>127</v>
       </c>
-      <c r="M355" s="306" t="s">
+      <c r="M355" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N355" s="307"/>
+      <c r="N355" s="173"/>
       <c r="O355" s="2" t="s">
         <v>459</v>
       </c>
@@ -42441,7 +42441,7 @@
         <v>918</v>
       </c>
       <c r="U355" s="109" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="V355" s="109" t="s">
         <v>918</v>
@@ -42497,10 +42497,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M356" s="306" t="s">
+      <c r="M356" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N356" s="307"/>
+      <c r="N356" s="173"/>
       <c r="O356" s="2" t="s">
         <v>459</v>
       </c>
@@ -42514,7 +42514,7 @@
         <v>919</v>
       </c>
       <c r="U356" s="109" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="V356" s="109" t="s">
         <v>919</v>
@@ -42570,10 +42570,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M357" s="306" t="s">
+      <c r="M357" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N357" s="307"/>
+      <c r="N357" s="173"/>
       <c r="O357" s="2" t="s">
         <v>459</v>
       </c>
@@ -42587,7 +42587,7 @@
         <v>920</v>
       </c>
       <c r="U357" s="109" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="V357" s="109" t="s">
         <v>920</v>
@@ -42662,7 +42662,7 @@
         <v>921</v>
       </c>
       <c r="U358" s="109" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="V358" s="109" t="s">
         <v>921</v>
@@ -42718,10 +42718,10 @@
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="M359" s="298" t="s">
+      <c r="M359" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N359" s="299"/>
+      <c r="N359" s="163"/>
       <c r="O359" s="2" t="s">
         <v>434</v>
       </c>
@@ -42791,10 +42791,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="M360" s="290" t="s">
+      <c r="M360" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="N360" s="291"/>
+      <c r="N360" s="175"/>
       <c r="O360" s="2" t="s">
         <v>457</v>
       </c>
@@ -42808,7 +42808,7 @@
         <v>923</v>
       </c>
       <c r="U360" s="109" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="V360" s="109" t="s">
         <v>923</v>
@@ -42864,10 +42864,10 @@
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="M361" s="298" t="s">
+      <c r="M361" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N361" s="299"/>
+      <c r="N361" s="163"/>
       <c r="O361" s="2" t="s">
         <v>434</v>
       </c>
@@ -42937,10 +42937,10 @@
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="M362" s="304" t="s">
+      <c r="M362" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N362" s="305"/>
+      <c r="N362" s="169"/>
       <c r="O362" s="2" t="s">
         <v>495</v>
       </c>
@@ -43010,10 +43010,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M363" s="304" t="s">
+      <c r="M363" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N363" s="305"/>
+      <c r="N363" s="169"/>
       <c r="O363" s="2" t="s">
         <v>495</v>
       </c>
@@ -43308,10 +43308,10 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="M367" s="288" t="s">
+      <c r="M367" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N367" s="289"/>
+      <c r="N367" s="159"/>
       <c r="O367" s="2" t="s">
         <v>420</v>
       </c>
@@ -43381,10 +43381,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M368" s="288" t="s">
+      <c r="M368" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N368" s="289"/>
+      <c r="N368" s="159"/>
       <c r="O368" s="2" t="s">
         <v>420</v>
       </c>
@@ -43454,10 +43454,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M369" s="288" t="s">
+      <c r="M369" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N369" s="289"/>
+      <c r="N369" s="159"/>
       <c r="O369" s="2" t="s">
         <v>420</v>
       </c>
@@ -43602,10 +43602,10 @@
         <f t="shared" si="17"/>
         <v>134</v>
       </c>
-      <c r="M371" s="288" t="s">
+      <c r="M371" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N371" s="289"/>
+      <c r="N371" s="159"/>
       <c r="O371" s="2" t="s">
         <v>420</v>
       </c>
@@ -43675,10 +43675,10 @@
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="M372" s="308" t="s">
+      <c r="M372" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="N372" s="309"/>
+      <c r="N372" s="165"/>
       <c r="O372" s="2" t="s">
         <v>450</v>
       </c>
@@ -43748,10 +43748,10 @@
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-      <c r="M373" s="308" t="s">
+      <c r="M373" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="N373" s="309"/>
+      <c r="N373" s="165"/>
       <c r="O373" s="2" t="s">
         <v>450</v>
       </c>
@@ -43840,7 +43840,7 @@
         <v>952</v>
       </c>
       <c r="U374" s="109" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="V374" s="109" t="s">
         <v>1327</v>
@@ -44121,10 +44121,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M378" s="294" t="s">
+      <c r="M378" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="N378" s="295"/>
+      <c r="N378" s="167"/>
       <c r="O378" s="2" t="s">
         <v>454</v>
       </c>
@@ -44138,7 +44138,7 @@
         <v>939</v>
       </c>
       <c r="U378" s="109" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="V378" s="109" t="s">
         <v>939</v>
@@ -44194,10 +44194,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M379" s="304" t="s">
+      <c r="M379" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="N379" s="305"/>
+      <c r="N379" s="169"/>
       <c r="O379" s="2" t="s">
         <v>495</v>
       </c>
@@ -44211,7 +44211,7 @@
         <v>940</v>
       </c>
       <c r="U379" s="109" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="V379" s="109" t="s">
         <v>940</v>
@@ -44267,10 +44267,10 @@
         <f t="shared" si="17"/>
         <v>285</v>
       </c>
-      <c r="M380" s="310" t="s">
+      <c r="M380" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="N380" s="311"/>
+      <c r="N380" s="171"/>
       <c r="O380" s="2" t="s">
         <v>498</v>
       </c>
@@ -44284,7 +44284,7 @@
         <v>941</v>
       </c>
       <c r="U380" s="109" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="V380" s="109" t="s">
         <v>941</v>
@@ -44487,10 +44487,10 @@
       <c r="L383" s="2">
         <v>251</v>
       </c>
-      <c r="M383" s="288" t="s">
+      <c r="M383" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="N383" s="289"/>
+      <c r="N383" s="159"/>
       <c r="O383" s="2" t="s">
         <v>420</v>
       </c>
@@ -44507,7 +44507,7 @@
         <v>944</v>
       </c>
       <c r="U383" s="109" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="V383" s="109" t="s">
         <v>944</v>
@@ -44563,10 +44563,10 @@
       <c r="L384" s="2">
         <v>251</v>
       </c>
-      <c r="M384" s="302" t="s">
+      <c r="M384" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="N384" s="303"/>
+      <c r="N384" s="161"/>
       <c r="O384" s="2" t="s">
         <v>428</v>
       </c>
@@ -44580,7 +44580,7 @@
         <v>945</v>
       </c>
       <c r="U384" s="109" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="V384" s="109" t="s">
         <v>945</v>
@@ -44652,7 +44652,7 @@
         <v>954</v>
       </c>
       <c r="U385" s="109" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="V385" s="109" t="s">
         <v>1329</v>
@@ -44783,10 +44783,10 @@
         <f t="shared" ref="L387:L445" si="19">ROUND((1+(H387-75)/500)*(ROUND(0.25*(7*MAX(G387,E387)+MIN(G387,E387)),0)),0)</f>
         <v>115</v>
       </c>
-      <c r="M387" s="298" t="s">
+      <c r="M387" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="N387" s="299"/>
+      <c r="N387" s="163"/>
       <c r="O387" s="2" t="s">
         <v>434</v>
       </c>
@@ -44864,7 +44864,7 @@
         <v>3279</v>
       </c>
       <c r="P388" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T388" s="109" t="s">
         <v>2705</v>
@@ -44930,7 +44930,7 @@
         <v>3280</v>
       </c>
       <c r="P389" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T389" s="109" t="s">
         <v>2706</v>
@@ -44996,7 +44996,7 @@
         <v>3282</v>
       </c>
       <c r="P390" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T390" s="109" t="s">
         <v>2707</v>
@@ -45060,7 +45060,7 @@
         <v>3281</v>
       </c>
       <c r="P391" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T391" s="109" t="s">
         <v>2708</v>
@@ -45126,7 +45126,7 @@
         <v>3154</v>
       </c>
       <c r="P392" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T392" s="109" t="s">
         <v>2709</v>
@@ -45192,13 +45192,13 @@
         <v>3154</v>
       </c>
       <c r="P393" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T393" s="109" t="s">
         <v>2710</v>
       </c>
       <c r="U393" s="109" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="V393" s="109" t="s">
         <v>2710</v>
@@ -45256,13 +45256,13 @@
         <v>3155</v>
       </c>
       <c r="P394" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T394" s="109" t="s">
         <v>2711</v>
       </c>
       <c r="U394" s="109" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="V394" s="109" t="s">
         <v>2711</v>
@@ -45320,7 +45320,7 @@
         <v>3155</v>
       </c>
       <c r="P395" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T395" s="109" t="s">
         <v>2712</v>
@@ -45386,7 +45386,7 @@
         <v>3156</v>
       </c>
       <c r="P396" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T396" s="109" t="s">
         <v>2713</v>
@@ -45452,7 +45452,7 @@
         <v>3157</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T397" s="109" t="s">
         <v>2714</v>
@@ -45518,7 +45518,7 @@
         <v>3157</v>
       </c>
       <c r="P398" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T398" s="109" t="s">
         <v>2715</v>
@@ -45584,13 +45584,13 @@
         <v>3157</v>
       </c>
       <c r="P399" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T399" s="109" t="s">
         <v>2716</v>
       </c>
       <c r="U399" s="109" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="V399" s="109" t="s">
         <v>2716</v>
@@ -45648,7 +45648,7 @@
         <v>3158</v>
       </c>
       <c r="P400" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="T400" s="109" t="s">
         <v>2717</v>
@@ -47571,7 +47571,7 @@
         <v>2748</v>
       </c>
       <c r="U431" s="109" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="V431" s="109" t="s">
         <v>2748</v>
@@ -48254,7 +48254,7 @@
         <v>2759</v>
       </c>
       <c r="U442" s="109" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="V442" s="109" t="s">
         <v>2759</v>
@@ -48317,7 +48317,7 @@
         <v>2760</v>
       </c>
       <c r="U443" s="109" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="V443" s="109" t="s">
         <v>2760</v>
@@ -49126,7 +49126,7 @@
         <v>2773</v>
       </c>
       <c r="U456" s="109" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="V456" s="109" t="s">
         <v>2773</v>
@@ -49687,7 +49687,7 @@
         <v>2782</v>
       </c>
       <c r="U465" s="109" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="V465" s="109" t="s">
         <v>2782</v>
@@ -49870,7 +49870,7 @@
         <v>2785</v>
       </c>
       <c r="U468" s="109" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="V468" s="109" t="s">
         <v>2785</v>
@@ -49996,7 +49996,7 @@
         <v>2787</v>
       </c>
       <c r="U470" s="109" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="V470" s="109" t="s">
         <v>2787</v>
@@ -50057,7 +50057,7 @@
         <v>2788</v>
       </c>
       <c r="U471" s="109" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="V471" s="109" t="s">
         <v>2788</v>
@@ -50118,7 +50118,7 @@
         <v>2789</v>
       </c>
       <c r="U472" s="109" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="V472" s="109" t="s">
         <v>2789</v>
@@ -50308,7 +50308,7 @@
         <v>3288</v>
       </c>
       <c r="V475" s="109" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="Z475" s="110"/>
       <c r="AA475" s="109"/>
@@ -50368,7 +50368,7 @@
         <v>2792</v>
       </c>
       <c r="U476" s="109" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="V476" s="109" t="s">
         <v>2792</v>
@@ -50492,7 +50492,7 @@
         <v>2794</v>
       </c>
       <c r="U478" s="109" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="V478" s="109" t="s">
         <v>2794</v>
@@ -50679,7 +50679,7 @@
         <v>2797</v>
       </c>
       <c r="U481" s="109" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="V481" s="109" t="s">
         <v>2797</v>
@@ -50740,7 +50740,7 @@
         <v>2798</v>
       </c>
       <c r="U482" s="109" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="V482" s="109" t="s">
         <v>2798</v>
@@ -50801,7 +50801,7 @@
         <v>2799</v>
       </c>
       <c r="U483" s="109" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="V483" s="109" t="s">
         <v>2799</v>
@@ -50864,7 +50864,7 @@
         <v>2800</v>
       </c>
       <c r="U484" s="109" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="V484" s="109" t="s">
         <v>2800</v>
@@ -51913,7 +51913,7 @@
         <v>2817</v>
       </c>
       <c r="U501" s="109" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="V501" s="109" t="s">
         <v>2817</v>
@@ -51974,7 +51974,7 @@
         <v>2818</v>
       </c>
       <c r="U502" s="109" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="V502" s="109" t="s">
         <v>2818</v>
@@ -53200,7 +53200,7 @@
         <v>2838</v>
       </c>
       <c r="U522" s="109" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="V522" s="109" t="s">
         <v>2838</v>
@@ -53816,7 +53816,7 @@
         <v>2848</v>
       </c>
       <c r="U532" s="109" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="V532" s="109" t="s">
         <v>2848</v>
@@ -55619,7 +55619,7 @@
         <v>2877</v>
       </c>
       <c r="U561" s="109" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="V561" s="109" t="s">
         <v>2877</v>
@@ -56605,7 +56605,7 @@
         <v>2893</v>
       </c>
       <c r="U577" s="109" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="V577" s="109" t="s">
         <v>2893</v>
@@ -57097,7 +57097,7 @@
         <v>2901</v>
       </c>
       <c r="U585" s="109" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="V585" s="109" t="s">
         <v>2901</v>
@@ -57975,7 +57975,7 @@
         <v>2915</v>
       </c>
       <c r="U599" s="109" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="V599" s="109" t="s">
         <v>2915</v>
@@ -58896,7 +58896,7 @@
         <v>2930</v>
       </c>
       <c r="U614" s="109" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="V614" s="109" t="s">
         <v>2930</v>
@@ -59386,7 +59386,7 @@
         <v>2938</v>
       </c>
       <c r="U622" s="109" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="V622" s="109" t="s">
         <v>2938</v>
@@ -60012,7 +60012,7 @@
         <v>2948</v>
       </c>
       <c r="U632" s="109" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="V632" s="109" t="s">
         <v>2948</v>
@@ -60453,7 +60453,7 @@
         <v>2955</v>
       </c>
       <c r="U639" s="109" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="V639" s="109" t="s">
         <v>2955</v>
@@ -60516,7 +60516,7 @@
         <v>2956</v>
       </c>
       <c r="U640" s="109" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="V640" s="109" t="s">
         <v>2956</v>
@@ -60579,7 +60579,7 @@
         <v>2957</v>
       </c>
       <c r="U641" s="109" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="V641" s="109" t="s">
         <v>2957</v>
@@ -60990,7 +60990,7 @@
         <v>2964</v>
       </c>
       <c r="U648" s="156" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="V648" s="156" t="s">
         <v>2964</v>
@@ -61108,7 +61108,7 @@
         <v>2966</v>
       </c>
       <c r="U650" s="156" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="V650" s="156" t="s">
         <v>2966</v>
@@ -61166,7 +61166,7 @@
         <v>2967</v>
       </c>
       <c r="U651" s="109" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="V651" s="109" t="s">
         <v>2967</v>
@@ -61644,7 +61644,7 @@
         <v>2975</v>
       </c>
       <c r="U659" s="109" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="V659" s="109" t="s">
         <v>2975</v>
@@ -61764,7 +61764,7 @@
         <v>2977</v>
       </c>
       <c r="U661" s="109" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="V661" s="109" t="s">
         <v>2977</v>
@@ -62126,7 +62126,7 @@
         <v>2983</v>
       </c>
       <c r="U667" s="109" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="V667" s="109" t="s">
         <v>2983</v>
@@ -64168,7 +64168,7 @@
         <v>3017</v>
       </c>
       <c r="U701" s="109" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="V701" s="109" t="s">
         <v>3017</v>
@@ -64229,7 +64229,7 @@
         <v>3018</v>
       </c>
       <c r="U702" s="109" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="V702" s="109" t="s">
         <v>3018</v>
@@ -64290,7 +64290,7 @@
         <v>3019</v>
       </c>
       <c r="U703" s="109" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="V703" s="109" t="s">
         <v>3019</v>
@@ -64528,7 +64528,7 @@
         <v>3023</v>
       </c>
       <c r="U707" s="109" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="V707" s="109" t="s">
         <v>3023</v>
@@ -64951,7 +64951,7 @@
         <v>3030</v>
       </c>
       <c r="U714" s="109" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="V714" s="109" t="s">
         <v>3030</v>
@@ -65306,7 +65306,7 @@
         <v>3036</v>
       </c>
       <c r="U720" s="109" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="V720" s="109" t="s">
         <v>3036</v>
@@ -65790,7 +65790,7 @@
         <v>3045</v>
       </c>
       <c r="U728" s="109" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="V728" s="109" t="s">
         <v>3045</v>
@@ -66278,7 +66278,7 @@
         <v>3053</v>
       </c>
       <c r="U736" s="109" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="V736" s="109" t="s">
         <v>3053</v>
@@ -67686,7 +67686,7 @@
         <v>3076</v>
       </c>
       <c r="U759" s="109" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="V759" s="109" t="s">
         <v>3076</v>
@@ -68540,7 +68540,7 @@
         <v>3090</v>
       </c>
       <c r="U773" s="109" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="V773" s="109" t="s">
         <v>3090</v>
@@ -68905,13 +68905,13 @@
         <v>3269</v>
       </c>
       <c r="T779" s="109" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="U779" s="109" t="s">
-        <v>3365</v>
+        <v>3492</v>
       </c>
       <c r="V779" s="109" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="W779" s="109"/>
       <c r="X779" s="109"/>
@@ -69340,7 +69340,7 @@
         <v>3102</v>
       </c>
       <c r="U786" s="109" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="V786" s="109" t="s">
         <v>3102</v>
@@ -69832,7 +69832,7 @@
         <v>3110</v>
       </c>
       <c r="U794" s="109" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="V794" s="109" t="s">
         <v>3110</v>
@@ -69956,7 +69956,7 @@
         <v>3112</v>
       </c>
       <c r="U796" s="109" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="V796" s="109" t="s">
         <v>3112</v>
@@ -70508,7 +70508,7 @@
         <v>3121</v>
       </c>
       <c r="U805" s="109" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="V805" s="109" t="s">
         <v>3121</v>
@@ -70702,72 +70702,126 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M266:N266"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="M269:N269"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M262:N262"/>
-    <mergeCell ref="M263:N263"/>
-    <mergeCell ref="M264:N264"/>
-    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M244:N244"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M237:N237"/>
+    <mergeCell ref="M240:N240"/>
+    <mergeCell ref="M241:N241"/>
+    <mergeCell ref="M242:N242"/>
+    <mergeCell ref="M243:N243"/>
+    <mergeCell ref="M232:N232"/>
+    <mergeCell ref="M233:N233"/>
+    <mergeCell ref="M234:N234"/>
+    <mergeCell ref="M225:N225"/>
     <mergeCell ref="M238:N238"/>
     <mergeCell ref="M246:N246"/>
     <mergeCell ref="M253:N253"/>
@@ -70792,126 +70846,72 @@
     <mergeCell ref="M203:N203"/>
     <mergeCell ref="M205:N205"/>
     <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M244:N244"/>
-    <mergeCell ref="M245:N245"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M237:N237"/>
-    <mergeCell ref="M240:N240"/>
-    <mergeCell ref="M241:N241"/>
-    <mergeCell ref="M242:N242"/>
-    <mergeCell ref="M243:N243"/>
-    <mergeCell ref="M232:N232"/>
-    <mergeCell ref="M233:N233"/>
-    <mergeCell ref="M234:N234"/>
-    <mergeCell ref="M225:N225"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M266:N266"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="M269:N269"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M262:N262"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="M264:N264"/>
+    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M651:N720 M388:N641 M722:N808">

--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7078" uniqueCount="3493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7078" uniqueCount="3494">
   <si>
     <t>Name</t>
   </si>
@@ -10884,6 +10884,10 @@
   </si>
   <si>
     <t>卡璞qq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小千代</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -13835,124 +13839,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13961,28 +13851,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13997,28 +13887,58 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14027,40 +13947,94 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14069,22 +14043,52 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14129,172 +14133,172 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15237,7 +15241,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15248,8 +15252,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N769" workbookViewId="0">
-      <selection activeCell="U779" sqref="U779"/>
+    <sheetView tabSelected="1" topLeftCell="M374" workbookViewId="0">
+      <selection activeCell="U403" sqref="U403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15623,10 +15627,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M5" s="298" t="s">
+      <c r="M5" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="299"/>
+      <c r="N5" s="179"/>
       <c r="O5" s="2" t="s">
         <v>418</v>
       </c>
@@ -15698,10 +15702,10 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M6" s="214" t="s">
+      <c r="M6" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="215"/>
+      <c r="N6" s="175"/>
       <c r="O6" s="2" t="s">
         <v>418</v>
       </c>
@@ -15865,10 +15869,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M8" s="300" t="s">
+      <c r="M8" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="301"/>
+      <c r="N8" s="181"/>
       <c r="O8" s="2" t="s">
         <v>420</v>
       </c>
@@ -15940,10 +15944,10 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="M9" s="200" t="s">
+      <c r="M9" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="201"/>
+      <c r="N9" s="183"/>
       <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
@@ -16015,10 +16019,10 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="201"/>
+      <c r="N10" s="183"/>
       <c r="O10" s="2" t="s">
         <v>420</v>
       </c>
@@ -16090,10 +16094,10 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M11" s="302" t="s">
+      <c r="M11" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="303"/>
+      <c r="N11" s="185"/>
       <c r="O11" s="2" t="s">
         <v>421</v>
       </c>
@@ -16165,10 +16169,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M12" s="232" t="s">
+      <c r="M12" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="233"/>
+      <c r="N12" s="263"/>
       <c r="O12" s="2" t="s">
         <v>421</v>
       </c>
@@ -16799,10 +16803,10 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M20" s="198" t="s">
+      <c r="M20" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="199"/>
+      <c r="N20" s="161"/>
       <c r="O20" s="2" t="s">
         <v>425</v>
       </c>
@@ -16874,10 +16878,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M21" s="198" t="s">
+      <c r="M21" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="199"/>
+      <c r="N21" s="161"/>
       <c r="O21" s="2" t="s">
         <v>425</v>
       </c>
@@ -17113,10 +17117,10 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="M24" s="226" t="s">
+      <c r="M24" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="227"/>
+      <c r="N24" s="159"/>
       <c r="O24" s="2" t="s">
         <v>426</v>
       </c>
@@ -17193,10 +17197,10 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="M25" s="226" t="s">
+      <c r="M25" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="227"/>
+      <c r="N25" s="159"/>
       <c r="O25" s="2" t="s">
         <v>426</v>
       </c>
@@ -17268,10 +17272,10 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="M26" s="310" t="s">
+      <c r="M26" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="311"/>
+      <c r="N26" s="163"/>
       <c r="O26" s="2" t="s">
         <v>427</v>
       </c>
@@ -17348,10 +17352,10 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="M27" s="304" t="s">
+      <c r="M27" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="305"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="2" t="s">
         <v>427</v>
       </c>
@@ -17433,10 +17437,10 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="M28" s="306" t="s">
+      <c r="M28" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="307"/>
+      <c r="N28" s="189"/>
       <c r="O28" s="2" t="s">
         <v>428</v>
       </c>
@@ -17513,10 +17517,10 @@
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="M29" s="308" t="s">
+      <c r="M29" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="309"/>
+      <c r="N29" s="191"/>
       <c r="O29" s="2" t="s">
         <v>428</v>
       </c>
@@ -17588,10 +17592,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M30" s="226" t="s">
+      <c r="M30" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="227"/>
+      <c r="N30" s="159"/>
       <c r="O30" s="2" t="s">
         <v>426</v>
       </c>
@@ -17663,10 +17667,10 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M31" s="226" t="s">
+      <c r="M31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="227"/>
+      <c r="N31" s="159"/>
       <c r="O31" s="2" t="s">
         <v>426</v>
       </c>
@@ -17815,10 +17819,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="M33" s="226" t="s">
+      <c r="M33" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="227"/>
+      <c r="N33" s="159"/>
       <c r="O33" s="2" t="s">
         <v>426</v>
       </c>
@@ -17890,10 +17894,10 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="M34" s="226" t="s">
+      <c r="M34" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="227"/>
+      <c r="N34" s="159"/>
       <c r="O34" s="2" t="s">
         <v>426</v>
       </c>
@@ -18047,10 +18051,10 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M36" s="208" t="s">
+      <c r="M36" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="209"/>
+      <c r="N36" s="171"/>
       <c r="O36" s="2" t="s">
         <v>568</v>
       </c>
@@ -18122,10 +18126,10 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="M37" s="210" t="s">
+      <c r="M37" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="211"/>
+      <c r="N37" s="173"/>
       <c r="O37" s="2" t="s">
         <v>568</v>
       </c>
@@ -18202,10 +18206,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M38" s="214" t="s">
+      <c r="M38" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="215"/>
+      <c r="N38" s="175"/>
       <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
@@ -18277,10 +18281,10 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="M39" s="214" t="s">
+      <c r="M39" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="215"/>
+      <c r="N39" s="175"/>
       <c r="O39" s="2" t="s">
         <v>418</v>
       </c>
@@ -18362,10 +18366,10 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M40" s="236" t="s">
+      <c r="M40" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="237"/>
+      <c r="N40" s="177"/>
       <c r="O40" s="2" t="s">
         <v>483</v>
       </c>
@@ -18442,10 +18446,10 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="M41" s="212" t="s">
+      <c r="M41" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="213"/>
+      <c r="N41" s="265"/>
       <c r="O41" s="2" t="s">
         <v>483</v>
       </c>
@@ -18933,7 +18937,7 @@
         <v>608</v>
       </c>
       <c r="U47" s="109" t="s">
-        <v>608</v>
+        <v>3493</v>
       </c>
       <c r="V47" s="109" t="s">
         <v>608</v>
@@ -19235,10 +19239,10 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="M51" s="238" t="s">
+      <c r="M51" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="239"/>
+      <c r="N51" s="165"/>
       <c r="O51" s="2" t="s">
         <v>428</v>
       </c>
@@ -19315,10 +19319,10 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="M52" s="240" t="s">
+      <c r="M52" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="241"/>
+      <c r="N52" s="167"/>
       <c r="O52" s="2" t="s">
         <v>428</v>
       </c>
@@ -19395,10 +19399,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M53" s="198" t="s">
+      <c r="M53" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="199"/>
+      <c r="N53" s="161"/>
       <c r="O53" s="2" t="s">
         <v>425</v>
       </c>
@@ -19475,10 +19479,10 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="M54" s="276" t="s">
+      <c r="M54" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="277"/>
+      <c r="N54" s="169"/>
       <c r="O54" s="2" t="s">
         <v>425</v>
       </c>
@@ -19555,10 +19559,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M55" s="200" t="s">
+      <c r="M55" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="201"/>
+      <c r="N55" s="183"/>
       <c r="O55" s="2" t="s">
         <v>420</v>
       </c>
@@ -19630,10 +19634,10 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="M56" s="294" t="s">
+      <c r="M56" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="295"/>
+      <c r="N56" s="209"/>
       <c r="O56" s="2" t="s">
         <v>420</v>
       </c>
@@ -19705,10 +19709,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M57" s="190" t="s">
+      <c r="M57" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="191"/>
+      <c r="N57" s="207"/>
       <c r="O57" s="2" t="s">
         <v>432</v>
       </c>
@@ -19780,10 +19784,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M58" s="190" t="s">
+      <c r="M58" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="191"/>
+      <c r="N58" s="207"/>
       <c r="O58" s="2" t="s">
         <v>432</v>
       </c>
@@ -19865,10 +19869,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M59" s="296" t="s">
+      <c r="M59" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="297"/>
+      <c r="N59" s="211"/>
       <c r="O59" s="2" t="s">
         <v>418</v>
       </c>
@@ -19940,10 +19944,10 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="M60" s="214" t="s">
+      <c r="M60" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="215"/>
+      <c r="N60" s="175"/>
       <c r="O60" s="2" t="s">
         <v>418</v>
       </c>
@@ -20025,10 +20029,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="M61" s="192" t="s">
+      <c r="M61" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="193"/>
+      <c r="N61" s="213"/>
       <c r="O61" s="2" t="s">
         <v>420</v>
       </c>
@@ -20100,10 +20104,10 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="M62" s="228" t="s">
+      <c r="M62" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="229"/>
+      <c r="N62" s="259"/>
       <c r="O62" s="2" t="s">
         <v>420</v>
       </c>
@@ -20267,10 +20271,10 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="M64" s="260" t="s">
+      <c r="M64" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="261"/>
+      <c r="N64" s="203"/>
       <c r="O64" s="2" t="s">
         <v>434</v>
       </c>
@@ -20342,10 +20346,10 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="M65" s="220" t="s">
+      <c r="M65" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="221"/>
+      <c r="N65" s="193"/>
       <c r="O65" s="2" t="s">
         <v>434</v>
       </c>
@@ -20417,10 +20421,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="M66" s="292" t="s">
+      <c r="M66" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="293"/>
+      <c r="N66" s="205"/>
       <c r="O66" s="2" t="s">
         <v>434</v>
       </c>
@@ -20497,10 +20501,10 @@
         <f t="shared" ref="L67:L130" si="5">ROUND((1+(H67-75)/500)*(ROUND(0.25*(7*MAX(G67,E67)+MIN(G67,E67)),0)),0)</f>
         <v>88</v>
       </c>
-      <c r="M67" s="190" t="s">
+      <c r="M67" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="191"/>
+      <c r="N67" s="207"/>
       <c r="O67" s="2" t="s">
         <v>432</v>
       </c>
@@ -20577,10 +20581,10 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="M68" s="190" t="s">
+      <c r="M68" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="191"/>
+      <c r="N68" s="207"/>
       <c r="O68" s="2" t="s">
         <v>432</v>
       </c>
@@ -20657,10 +20661,10 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="M69" s="190" t="s">
+      <c r="M69" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="191"/>
+      <c r="N69" s="207"/>
       <c r="O69" s="2" t="s">
         <v>432</v>
       </c>
@@ -21383,10 +21387,10 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="M78" s="214" t="s">
+      <c r="M78" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N78" s="215"/>
+      <c r="N78" s="175"/>
       <c r="O78" s="2" t="s">
         <v>418</v>
       </c>
@@ -21463,10 +21467,10 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="M79" s="288" t="s">
+      <c r="M79" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="289"/>
+      <c r="N79" s="199"/>
       <c r="O79" s="2" t="s">
         <v>418</v>
       </c>
@@ -22107,10 +22111,10 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M87" s="200" t="s">
+      <c r="M87" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N87" s="201"/>
+      <c r="N87" s="183"/>
       <c r="O87" s="2" t="s">
         <v>420</v>
       </c>
@@ -22279,10 +22283,10 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M89" s="226" t="s">
+      <c r="M89" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="227"/>
+      <c r="N89" s="159"/>
       <c r="O89" s="2" t="s">
         <v>426</v>
       </c>
@@ -22359,10 +22363,10 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="M90" s="226" t="s">
+      <c r="M90" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="227"/>
+      <c r="N90" s="159"/>
       <c r="O90" s="2" t="s">
         <v>426</v>
       </c>
@@ -22439,10 +22443,10 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="M91" s="290" t="s">
+      <c r="M91" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="291"/>
+      <c r="N91" s="201"/>
       <c r="O91" s="2" t="s">
         <v>420</v>
       </c>
@@ -22939,10 +22943,10 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="M97" s="220" t="s">
+      <c r="M97" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="221"/>
+      <c r="N97" s="193"/>
       <c r="O97" s="2" t="s">
         <v>434</v>
       </c>
@@ -23014,10 +23018,10 @@
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M98" s="220" t="s">
+      <c r="M98" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="221"/>
+      <c r="N98" s="193"/>
       <c r="O98" s="2" t="s">
         <v>434</v>
       </c>
@@ -23094,10 +23098,10 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="M99" s="284" t="s">
+      <c r="M99" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="N99" s="285"/>
+      <c r="N99" s="195"/>
       <c r="O99" s="2" t="s">
         <v>420</v>
       </c>
@@ -23169,10 +23173,10 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="M100" s="200" t="s">
+      <c r="M100" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="201"/>
+      <c r="N100" s="183"/>
       <c r="O100" s="2" t="s">
         <v>420</v>
       </c>
@@ -23249,10 +23253,10 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="M101" s="286" t="s">
+      <c r="M101" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="287"/>
+      <c r="N101" s="197"/>
       <c r="O101" s="2" t="s">
         <v>427</v>
       </c>
@@ -23329,10 +23333,10 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="M102" s="224" t="s">
+      <c r="M102" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="225"/>
+      <c r="N102" s="257"/>
       <c r="O102" s="2" t="s">
         <v>427</v>
       </c>
@@ -23568,10 +23572,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M105" s="238" t="s">
+      <c r="M105" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="239"/>
+      <c r="N105" s="165"/>
       <c r="O105" s="2" t="s">
         <v>428</v>
       </c>
@@ -23643,10 +23647,10 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M106" s="280" t="s">
+      <c r="M106" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="281"/>
+      <c r="N106" s="217"/>
       <c r="O106" s="2" t="s">
         <v>428</v>
       </c>
@@ -23718,10 +23722,10 @@
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="M107" s="190" t="s">
+      <c r="M107" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N107" s="191"/>
+      <c r="N107" s="207"/>
       <c r="O107" s="2" t="s">
         <v>432</v>
       </c>
@@ -23798,10 +23802,10 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="M108" s="190" t="s">
+      <c r="M108" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N108" s="191"/>
+      <c r="N108" s="207"/>
       <c r="O108" s="2" t="s">
         <v>432</v>
       </c>
@@ -23883,10 +23887,10 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="M109" s="282" t="s">
+      <c r="M109" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="N109" s="283"/>
+      <c r="N109" s="219"/>
       <c r="O109" s="2" t="s">
         <v>425</v>
       </c>
@@ -23958,10 +23962,10 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="M110" s="226" t="s">
+      <c r="M110" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="227"/>
+      <c r="N110" s="159"/>
       <c r="O110" s="2" t="s">
         <v>426</v>
       </c>
@@ -24038,10 +24042,10 @@
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="M111" s="226" t="s">
+      <c r="M111" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="227"/>
+      <c r="N111" s="159"/>
       <c r="O111" s="2" t="s">
         <v>426</v>
       </c>
@@ -24277,10 +24281,10 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="M114" s="208" t="s">
+      <c r="M114" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N114" s="209"/>
+      <c r="N114" s="171"/>
       <c r="O114" s="2" t="s">
         <v>425</v>
       </c>
@@ -24357,10 +24361,10 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M115" s="278" t="s">
+      <c r="M115" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="N115" s="279"/>
+      <c r="N115" s="215"/>
       <c r="O115" s="2" t="s">
         <v>443</v>
       </c>
@@ -24437,10 +24441,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M116" s="276" t="s">
+      <c r="M116" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N116" s="277"/>
+      <c r="N116" s="169"/>
       <c r="O116" s="2" t="s">
         <v>425</v>
       </c>
@@ -24517,10 +24521,10 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="M117" s="200" t="s">
+      <c r="M117" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="201"/>
+      <c r="N117" s="183"/>
       <c r="O117" s="2" t="s">
         <v>420</v>
       </c>
@@ -24592,10 +24596,10 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="M118" s="200" t="s">
+      <c r="M118" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="201"/>
+      <c r="N118" s="183"/>
       <c r="O118" s="2" t="s">
         <v>420</v>
       </c>
@@ -24672,10 +24676,10 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="M119" s="200" t="s">
+      <c r="M119" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N119" s="201"/>
+      <c r="N119" s="183"/>
       <c r="O119" s="2" t="s">
         <v>420</v>
       </c>
@@ -24747,10 +24751,10 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-      <c r="M120" s="200" t="s">
+      <c r="M120" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N120" s="201"/>
+      <c r="N120" s="183"/>
       <c r="O120" s="2" t="s">
         <v>420</v>
       </c>
@@ -24832,10 +24836,10 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="M121" s="228" t="s">
+      <c r="M121" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="N121" s="229"/>
+      <c r="N121" s="259"/>
       <c r="O121" s="2" t="s">
         <v>420</v>
       </c>
@@ -24999,10 +25003,10 @@
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="M123" s="220" t="s">
+      <c r="M123" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="221"/>
+      <c r="N123" s="193"/>
       <c r="O123" s="2" t="s">
         <v>434</v>
       </c>
@@ -25248,10 +25252,10 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="M126" s="234" t="s">
+      <c r="M126" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="235"/>
+      <c r="N126" s="225"/>
       <c r="O126" s="2" t="s">
         <v>427</v>
       </c>
@@ -25323,10 +25327,10 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="M127" s="214" t="s">
+      <c r="M127" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N127" s="215"/>
+      <c r="N127" s="175"/>
       <c r="O127" s="2" t="s">
         <v>418</v>
       </c>
@@ -25398,10 +25402,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M128" s="272" t="s">
+      <c r="M128" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="273"/>
+      <c r="N128" s="221"/>
       <c r="O128" s="2" t="s">
         <v>421</v>
       </c>
@@ -25483,10 +25487,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M129" s="274" t="s">
+      <c r="M129" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="N129" s="275"/>
+      <c r="N129" s="223"/>
       <c r="O129" s="2" t="s">
         <v>425</v>
       </c>
@@ -25558,10 +25562,10 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="M130" s="200" t="s">
+      <c r="M130" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N130" s="201"/>
+      <c r="N130" s="183"/>
       <c r="O130" s="2" t="s">
         <v>420</v>
       </c>
@@ -25807,10 +25811,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M133" s="208" t="s">
+      <c r="M133" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N133" s="209"/>
+      <c r="N133" s="171"/>
       <c r="O133" s="2" t="s">
         <v>425</v>
       </c>
@@ -25882,10 +25886,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="M134" s="276" t="s">
+      <c r="M134" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="N134" s="277"/>
+      <c r="N134" s="169"/>
       <c r="O134" s="2" t="s">
         <v>425</v>
       </c>
@@ -25962,10 +25966,10 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="M135" s="200" t="s">
+      <c r="M135" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N135" s="201"/>
+      <c r="N135" s="183"/>
       <c r="O135" s="2" t="s">
         <v>420</v>
       </c>
@@ -26037,10 +26041,10 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="M136" s="268" t="s">
+      <c r="M136" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="269"/>
+      <c r="N136" s="233"/>
       <c r="O136" s="2" t="s">
         <v>427</v>
       </c>
@@ -26112,10 +26116,10 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="M137" s="214" t="s">
+      <c r="M137" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N137" s="215"/>
+      <c r="N137" s="175"/>
       <c r="O137" s="2" t="s">
         <v>418</v>
       </c>
@@ -26192,10 +26196,10 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="M138" s="270" t="s">
+      <c r="M138" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="271"/>
+      <c r="N138" s="237"/>
       <c r="O138" s="2" t="s">
         <v>425</v>
       </c>
@@ -26682,10 +26686,10 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="M144" s="208" t="s">
+      <c r="M144" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="209"/>
+      <c r="N144" s="171"/>
       <c r="O144" s="2" t="s">
         <v>425</v>
       </c>
@@ -27013,10 +27017,10 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="M148" s="196" t="s">
+      <c r="M148" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="N148" s="197"/>
+      <c r="N148" s="235"/>
       <c r="O148" s="2" t="s">
         <v>450</v>
       </c>
@@ -27088,10 +27092,10 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="M149" s="196" t="s">
+      <c r="M149" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="N149" s="197"/>
+      <c r="N149" s="235"/>
       <c r="O149" s="2" t="s">
         <v>450</v>
       </c>
@@ -27247,10 +27251,10 @@
       <c r="L151" s="2">
         <v>182</v>
       </c>
-      <c r="M151" s="260" t="s">
+      <c r="M151" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="261"/>
+      <c r="N151" s="203"/>
       <c r="O151" s="2" t="s">
         <v>434</v>
       </c>
@@ -27322,10 +27326,10 @@
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="M152" s="220" t="s">
+      <c r="M152" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="221"/>
+      <c r="N152" s="193"/>
       <c r="O152" s="2" t="s">
         <v>434</v>
       </c>
@@ -27402,10 +27406,10 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="M153" s="262" t="s">
+      <c r="M153" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="N153" s="263"/>
+      <c r="N153" s="227"/>
       <c r="O153" s="2" t="s">
         <v>443</v>
       </c>
@@ -27475,10 +27479,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="M154" s="264" t="s">
+      <c r="M154" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="N154" s="265"/>
+      <c r="N154" s="229"/>
       <c r="O154" s="2" t="s">
         <v>443</v>
       </c>
@@ -27548,10 +27552,10 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="M155" s="266" t="s">
+      <c r="M155" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="N155" s="267"/>
+      <c r="N155" s="231"/>
       <c r="O155" s="2" t="s">
         <v>443</v>
       </c>
@@ -27621,10 +27625,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="M156" s="214" t="s">
+      <c r="M156" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N156" s="215"/>
+      <c r="N156" s="175"/>
       <c r="O156" s="2" t="s">
         <v>418</v>
       </c>
@@ -27694,10 +27698,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="M157" s="214" t="s">
+      <c r="M157" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N157" s="215"/>
+      <c r="N157" s="175"/>
       <c r="O157" s="2" t="s">
         <v>418</v>
       </c>
@@ -27767,10 +27771,10 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="M158" s="214" t="s">
+      <c r="M158" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N158" s="215"/>
+      <c r="N158" s="175"/>
       <c r="O158" s="2" t="s">
         <v>418</v>
       </c>
@@ -27840,10 +27844,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M159" s="192" t="s">
+      <c r="M159" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N159" s="193"/>
+      <c r="N159" s="213"/>
       <c r="O159" s="2" t="s">
         <v>420</v>
       </c>
@@ -27913,10 +27917,10 @@
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="M160" s="200" t="s">
+      <c r="M160" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N160" s="201"/>
+      <c r="N160" s="183"/>
       <c r="O160" s="2" t="s">
         <v>420</v>
       </c>
@@ -27986,10 +27990,10 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="M161" s="200" t="s">
+      <c r="M161" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N161" s="201"/>
+      <c r="N161" s="183"/>
       <c r="O161" s="2" t="s">
         <v>420</v>
       </c>
@@ -28065,10 +28069,10 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="M162" s="256" t="s">
+      <c r="M162" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="N162" s="257"/>
+      <c r="N162" s="239"/>
       <c r="O162" s="2" t="s">
         <v>425</v>
       </c>
@@ -28138,10 +28142,10 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="M163" s="198" t="s">
+      <c r="M163" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N163" s="199"/>
+      <c r="N163" s="161"/>
       <c r="O163" s="2" t="s">
         <v>425</v>
       </c>
@@ -28886,10 +28890,10 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="M173" s="258" t="s">
+      <c r="M173" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="259"/>
+      <c r="N173" s="241"/>
       <c r="O173" s="2" t="s">
         <v>427</v>
       </c>
@@ -28965,10 +28969,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M174" s="198" t="s">
+      <c r="M174" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N174" s="199"/>
+      <c r="N174" s="161"/>
       <c r="O174" s="2" t="s">
         <v>568</v>
       </c>
@@ -29044,10 +29048,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="M175" s="198" t="s">
+      <c r="M175" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N175" s="199"/>
+      <c r="N175" s="161"/>
       <c r="O175" s="2" t="s">
         <v>483</v>
       </c>
@@ -29123,10 +29127,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M176" s="198" t="s">
+      <c r="M176" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N176" s="199"/>
+      <c r="N176" s="161"/>
       <c r="O176" s="2" t="s">
         <v>568</v>
       </c>
@@ -29725,10 +29729,10 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="M184" s="200" t="s">
+      <c r="M184" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N184" s="201"/>
+      <c r="N184" s="183"/>
       <c r="O184" s="2" t="s">
         <v>569</v>
       </c>
@@ -29798,10 +29802,10 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="M185" s="200" t="s">
+      <c r="M185" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N185" s="201"/>
+      <c r="N185" s="183"/>
       <c r="O185" s="2" t="s">
         <v>569</v>
       </c>
@@ -29944,10 +29948,10 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="M187" s="200" t="s">
+      <c r="M187" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N187" s="201"/>
+      <c r="N187" s="183"/>
       <c r="O187" s="2" t="s">
         <v>420</v>
       </c>
@@ -30248,10 +30252,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M191" s="198" t="s">
+      <c r="M191" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N191" s="199"/>
+      <c r="N191" s="161"/>
       <c r="O191" s="2" t="s">
         <v>425</v>
       </c>
@@ -30394,10 +30398,10 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="M193" s="202" t="s">
+      <c r="M193" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="N193" s="203"/>
+      <c r="N193" s="271"/>
       <c r="O193" s="2" t="s">
         <v>443</v>
       </c>
@@ -30765,10 +30769,10 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="M198" s="204" t="s">
+      <c r="M198" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="N198" s="205"/>
+      <c r="N198" s="273"/>
       <c r="O198" s="2" t="s">
         <v>457</v>
       </c>
@@ -30988,10 +30992,10 @@
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="M201" s="216" t="s">
+      <c r="M201" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="N201" s="217"/>
+      <c r="N201" s="277"/>
       <c r="O201" s="2" t="s">
         <v>459</v>
       </c>
@@ -31061,10 +31065,10 @@
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="M202" s="218" t="s">
+      <c r="M202" s="278" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="219"/>
+      <c r="N202" s="279"/>
       <c r="O202" s="2" t="s">
         <v>434</v>
       </c>
@@ -31134,10 +31138,10 @@
         <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="M203" s="220" t="s">
+      <c r="M203" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="221"/>
+      <c r="N203" s="193"/>
       <c r="O203" s="2" t="s">
         <v>434</v>
       </c>
@@ -31282,10 +31286,10 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="M205" s="222" t="s">
+      <c r="M205" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="223"/>
+      <c r="N205" s="281"/>
       <c r="O205" s="2" t="s">
         <v>421</v>
       </c>
@@ -31430,10 +31434,10 @@
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="M207" s="208" t="s">
+      <c r="M207" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N207" s="209"/>
+      <c r="N207" s="171"/>
       <c r="O207" s="2" t="s">
         <v>425</v>
       </c>
@@ -31653,10 +31657,10 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="M210" s="198" t="s">
+      <c r="M210" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N210" s="199"/>
+      <c r="N210" s="161"/>
       <c r="O210" s="2" t="s">
         <v>568</v>
       </c>
@@ -31726,10 +31730,10 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="M211" s="212" t="s">
+      <c r="M211" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="213"/>
+      <c r="N211" s="265"/>
       <c r="O211" s="2" t="s">
         <v>568</v>
       </c>
@@ -32174,10 +32178,10 @@
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="M217" s="208" t="s">
+      <c r="M217" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="N217" s="209"/>
+      <c r="N217" s="171"/>
       <c r="O217" s="2" t="s">
         <v>425</v>
       </c>
@@ -32247,10 +32251,10 @@
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="M218" s="210" t="s">
+      <c r="M218" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="211"/>
+      <c r="N218" s="173"/>
       <c r="O218" s="2" t="s">
         <v>425</v>
       </c>
@@ -32320,10 +32324,10 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="M219" s="214" t="s">
+      <c r="M219" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N219" s="215"/>
+      <c r="N219" s="175"/>
       <c r="O219" s="2" t="s">
         <v>418</v>
       </c>
@@ -32693,10 +32697,10 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="M224" s="200" t="s">
+      <c r="M224" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N224" s="201"/>
+      <c r="N224" s="183"/>
       <c r="O224" s="2" t="s">
         <v>420</v>
       </c>
@@ -32766,10 +32770,10 @@
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="M225" s="200" t="s">
+      <c r="M225" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N225" s="201"/>
+      <c r="N225" s="183"/>
       <c r="O225" s="2" t="s">
         <v>420</v>
       </c>
@@ -33301,10 +33305,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="M232" s="238" t="s">
+      <c r="M232" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="N232" s="239"/>
+      <c r="N232" s="165"/>
       <c r="O232" s="2" t="s">
         <v>428</v>
       </c>
@@ -33374,10 +33378,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M233" s="240" t="s">
+      <c r="M233" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="N233" s="241"/>
+      <c r="N233" s="167"/>
       <c r="O233" s="2" t="s">
         <v>428</v>
       </c>
@@ -33447,10 +33451,10 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="M234" s="198" t="s">
+      <c r="M234" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N234" s="199"/>
+      <c r="N234" s="161"/>
       <c r="O234" s="2" t="s">
         <v>425</v>
       </c>
@@ -33520,10 +33524,10 @@
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="M235" s="198" t="s">
+      <c r="M235" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N235" s="199"/>
+      <c r="N235" s="161"/>
       <c r="O235" s="2" t="s">
         <v>425</v>
       </c>
@@ -33593,10 +33597,10 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
-      <c r="M236" s="206" t="s">
+      <c r="M236" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="N236" s="207"/>
+      <c r="N236" s="275"/>
       <c r="O236" s="2" t="s">
         <v>425</v>
       </c>
@@ -33666,10 +33670,10 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="M237" s="190" t="s">
+      <c r="M237" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N237" s="191"/>
+      <c r="N237" s="207"/>
       <c r="O237" s="2" t="s">
         <v>432</v>
       </c>
@@ -33739,10 +33743,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M238" s="190" t="s">
+      <c r="M238" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="191"/>
+      <c r="N238" s="207"/>
       <c r="O238" s="2" t="s">
         <v>432</v>
       </c>
@@ -33893,10 +33897,10 @@
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="M240" s="234" t="s">
+      <c r="M240" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="235"/>
+      <c r="N240" s="225"/>
       <c r="O240" s="2" t="s">
         <v>427</v>
       </c>
@@ -33972,10 +33976,10 @@
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="M241" s="214" t="s">
+      <c r="M241" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N241" s="215"/>
+      <c r="N241" s="175"/>
       <c r="O241" s="2" t="s">
         <v>418</v>
       </c>
@@ -34045,10 +34049,10 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="M242" s="236" t="s">
+      <c r="M242" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N242" s="237"/>
+      <c r="N242" s="177"/>
       <c r="O242" s="2" t="s">
         <v>425</v>
       </c>
@@ -34118,10 +34122,10 @@
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="M243" s="198" t="s">
+      <c r="M243" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="N243" s="199"/>
+      <c r="N243" s="161"/>
       <c r="O243" s="2" t="s">
         <v>425</v>
       </c>
@@ -34191,10 +34195,10 @@
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="M244" s="230" t="s">
+      <c r="M244" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="231"/>
+      <c r="N244" s="261"/>
       <c r="O244" s="2" t="s">
         <v>427</v>
       </c>
@@ -34264,10 +34268,10 @@
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="M245" s="214" t="s">
+      <c r="M245" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="N245" s="215"/>
+      <c r="N245" s="175"/>
       <c r="O245" s="2" t="s">
         <v>418</v>
       </c>
@@ -34337,10 +34341,10 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="M246" s="192" t="s">
+      <c r="M246" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="N246" s="193"/>
+      <c r="N246" s="213"/>
       <c r="O246" s="2" t="s">
         <v>420</v>
       </c>
@@ -34863,10 +34867,10 @@
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="M253" s="194" t="s">
+      <c r="M253" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="N253" s="195"/>
+      <c r="N253" s="267"/>
       <c r="O253" s="2" t="s">
         <v>443</v>
       </c>
@@ -34936,10 +34940,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M254" s="178" t="s">
+      <c r="M254" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N254" s="179"/>
+      <c r="N254" s="269"/>
       <c r="O254" s="2" t="s">
         <v>443</v>
       </c>
@@ -35009,10 +35013,10 @@
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="M255" s="178" t="s">
+      <c r="M255" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N255" s="179"/>
+      <c r="N255" s="269"/>
       <c r="O255" s="2" t="s">
         <v>443</v>
       </c>
@@ -35082,10 +35086,10 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="M256" s="182" t="s">
+      <c r="M256" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="N256" s="183"/>
+      <c r="N256" s="287"/>
       <c r="O256" s="2" t="s">
         <v>418</v>
       </c>
@@ -35311,10 +35315,10 @@
         <f t="shared" ref="L259:L322" si="14">ROUND((1+(H259-75)/500)*(ROUND(0.25*(7*MAX(G259,E259)+MIN(G259,E259)),0)),0)</f>
         <v>93</v>
       </c>
-      <c r="M259" s="158" t="s">
+      <c r="M259" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N259" s="159"/>
+      <c r="N259" s="289"/>
       <c r="O259" s="2" t="s">
         <v>420</v>
       </c>
@@ -35534,10 +35538,10 @@
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="M262" s="174" t="s">
+      <c r="M262" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N262" s="175"/>
+      <c r="N262" s="291"/>
       <c r="O262" s="2" t="s">
         <v>457</v>
       </c>
@@ -35607,10 +35611,10 @@
         <f t="shared" si="14"/>
         <v>137</v>
       </c>
-      <c r="M263" s="174" t="s">
+      <c r="M263" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N263" s="175"/>
+      <c r="N263" s="291"/>
       <c r="O263" s="2" t="s">
         <v>457</v>
       </c>
@@ -35680,10 +35684,10 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="M264" s="176" t="s">
+      <c r="M264" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N264" s="177"/>
+      <c r="N264" s="285"/>
       <c r="O264" s="2" t="s">
         <v>425</v>
       </c>
@@ -35753,10 +35757,10 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="M265" s="176" t="s">
+      <c r="M265" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N265" s="177"/>
+      <c r="N265" s="285"/>
       <c r="O265" s="2" t="s">
         <v>425</v>
       </c>
@@ -35826,10 +35830,10 @@
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="M266" s="186" t="s">
+      <c r="M266" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N266" s="187"/>
+      <c r="N266" s="283"/>
       <c r="O266" s="2" t="s">
         <v>421</v>
       </c>
@@ -35899,10 +35903,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M267" s="186" t="s">
+      <c r="M267" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N267" s="187"/>
+      <c r="N267" s="283"/>
       <c r="O267" s="2" t="s">
         <v>421</v>
       </c>
@@ -36047,10 +36051,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M269" s="186" t="s">
+      <c r="M269" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N269" s="187"/>
+      <c r="N269" s="283"/>
       <c r="O269" s="2" t="s">
         <v>421</v>
       </c>
@@ -36420,10 +36424,10 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="M274" s="178" t="s">
+      <c r="M274" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N274" s="179"/>
+      <c r="N274" s="269"/>
       <c r="O274" s="2" t="s">
         <v>443</v>
       </c>
@@ -37318,10 +37322,10 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="M286" s="178" t="s">
+      <c r="M286" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N286" s="179"/>
+      <c r="N286" s="269"/>
       <c r="O286" s="2" t="s">
         <v>443</v>
       </c>
@@ -37466,10 +37470,10 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="M288" s="176" t="s">
+      <c r="M288" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N288" s="177"/>
+      <c r="N288" s="285"/>
       <c r="O288" s="2" t="s">
         <v>425</v>
       </c>
@@ -37539,10 +37543,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M289" s="176" t="s">
+      <c r="M289" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N289" s="177"/>
+      <c r="N289" s="285"/>
       <c r="O289" s="2" t="s">
         <v>425</v>
       </c>
@@ -37609,10 +37613,10 @@
       <c r="L290" s="2">
         <v>183</v>
       </c>
-      <c r="M290" s="176" t="s">
+      <c r="M290" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N290" s="177"/>
+      <c r="N290" s="285"/>
       <c r="O290" s="2" t="s">
         <v>425</v>
       </c>
@@ -37907,10 +37911,10 @@
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="M294" s="176" t="s">
+      <c r="M294" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N294" s="177"/>
+      <c r="N294" s="285"/>
       <c r="O294" s="2" t="s">
         <v>425</v>
       </c>
@@ -37980,10 +37984,10 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="M295" s="176" t="s">
+      <c r="M295" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N295" s="177"/>
+      <c r="N295" s="285"/>
       <c r="O295" s="2" t="s">
         <v>425</v>
       </c>
@@ -38053,10 +38057,10 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="M296" s="176" t="s">
+      <c r="M296" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N296" s="177"/>
+      <c r="N296" s="285"/>
       <c r="O296" s="2" t="s">
         <v>425</v>
       </c>
@@ -38126,10 +38130,10 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="M297" s="188" t="s">
+      <c r="M297" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="N297" s="189"/>
+      <c r="N297" s="293"/>
       <c r="O297" s="2" t="s">
         <v>432</v>
       </c>
@@ -38199,10 +38203,10 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="M298" s="188" t="s">
+      <c r="M298" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="N298" s="189"/>
+      <c r="N298" s="293"/>
       <c r="O298" s="2" t="s">
         <v>432</v>
       </c>
@@ -38347,10 +38351,10 @@
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="M300" s="166" t="s">
+      <c r="M300" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="N300" s="167"/>
+      <c r="N300" s="295"/>
       <c r="O300" s="2" t="s">
         <v>454</v>
       </c>
@@ -38420,10 +38424,10 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="M301" s="176" t="s">
+      <c r="M301" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N301" s="177"/>
+      <c r="N301" s="285"/>
       <c r="O301" s="2" t="s">
         <v>425</v>
       </c>
@@ -38493,10 +38497,10 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="M302" s="176" t="s">
+      <c r="M302" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N302" s="177"/>
+      <c r="N302" s="285"/>
       <c r="O302" s="2" t="s">
         <v>425</v>
       </c>
@@ -39091,10 +39095,10 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="M310" s="184" t="s">
+      <c r="M310" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="185"/>
+      <c r="N310" s="297"/>
       <c r="O310" s="2" t="s">
         <v>427</v>
       </c>
@@ -39164,10 +39168,10 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="M311" s="184" t="s">
+      <c r="M311" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="185"/>
+      <c r="N311" s="297"/>
       <c r="O311" s="2" t="s">
         <v>427</v>
       </c>
@@ -39237,10 +39241,10 @@
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="M312" s="184" t="s">
+      <c r="M312" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="185"/>
+      <c r="N312" s="297"/>
       <c r="O312" s="2" t="s">
         <v>427</v>
       </c>
@@ -39310,10 +39314,10 @@
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="M313" s="184" t="s">
+      <c r="M313" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="185"/>
+      <c r="N313" s="297"/>
       <c r="O313" s="2" t="s">
         <v>427</v>
       </c>
@@ -39383,10 +39387,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M314" s="186" t="s">
+      <c r="M314" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="187"/>
+      <c r="N314" s="283"/>
       <c r="O314" s="2" t="s">
         <v>421</v>
       </c>
@@ -39456,10 +39460,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M315" s="186" t="s">
+      <c r="M315" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="N315" s="187"/>
+      <c r="N315" s="283"/>
       <c r="O315" s="2" t="s">
         <v>421</v>
       </c>
@@ -39604,10 +39608,10 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="M317" s="180" t="s">
+      <c r="M317" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N317" s="181"/>
+      <c r="N317" s="301"/>
       <c r="O317" s="2" t="s">
         <v>426</v>
       </c>
@@ -39677,10 +39681,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M318" s="180" t="s">
+      <c r="M318" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N318" s="181"/>
+      <c r="N318" s="301"/>
       <c r="O318" s="2" t="s">
         <v>426</v>
       </c>
@@ -39900,10 +39904,10 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="M321" s="158" t="s">
+      <c r="M321" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N321" s="159"/>
+      <c r="N321" s="289"/>
       <c r="O321" s="2" t="s">
         <v>420</v>
       </c>
@@ -39973,10 +39977,10 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="M322" s="158" t="s">
+      <c r="M322" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N322" s="159"/>
+      <c r="N322" s="289"/>
       <c r="O322" s="2" t="s">
         <v>420</v>
       </c>
@@ -40196,10 +40200,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M325" s="182" t="s">
+      <c r="M325" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="N325" s="183"/>
+      <c r="N325" s="287"/>
       <c r="O325" s="2" t="s">
         <v>418</v>
       </c>
@@ -40269,10 +40273,10 @@
         <f t="shared" si="17"/>
         <v>145</v>
       </c>
-      <c r="M326" s="162" t="s">
+      <c r="M326" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N326" s="163"/>
+      <c r="N326" s="299"/>
       <c r="O326" s="2" t="s">
         <v>434</v>
       </c>
@@ -40342,10 +40346,10 @@
         <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="M327" s="162" t="s">
+      <c r="M327" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N327" s="163"/>
+      <c r="N327" s="299"/>
       <c r="O327" s="2" t="s">
         <v>434</v>
       </c>
@@ -40415,10 +40419,10 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="M328" s="176" t="s">
+      <c r="M328" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N328" s="177"/>
+      <c r="N328" s="285"/>
       <c r="O328" s="2" t="s">
         <v>425</v>
       </c>
@@ -40488,10 +40492,10 @@
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="M329" s="160" t="s">
+      <c r="M329" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="N329" s="161"/>
+      <c r="N329" s="303"/>
       <c r="O329" s="2" t="s">
         <v>428</v>
       </c>
@@ -40711,10 +40715,10 @@
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M332" s="178" t="s">
+      <c r="M332" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="N332" s="179"/>
+      <c r="N332" s="269"/>
       <c r="O332" s="2" t="s">
         <v>443</v>
       </c>
@@ -41009,10 +41013,10 @@
         <f t="shared" si="17"/>
         <v>124</v>
       </c>
-      <c r="M336" s="176" t="s">
+      <c r="M336" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N336" s="177"/>
+      <c r="N336" s="285"/>
       <c r="O336" s="2" t="s">
         <v>425</v>
       </c>
@@ -41082,10 +41086,10 @@
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="M337" s="180" t="s">
+      <c r="M337" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="N337" s="181"/>
+      <c r="N337" s="301"/>
       <c r="O337" s="2" t="s">
         <v>426</v>
       </c>
@@ -41455,10 +41459,10 @@
         <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="M342" s="158" t="s">
+      <c r="M342" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N342" s="159"/>
+      <c r="N342" s="289"/>
       <c r="O342" s="2" t="s">
         <v>420</v>
       </c>
@@ -42053,10 +42057,10 @@
         <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="M350" s="158" t="s">
+      <c r="M350" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N350" s="159"/>
+      <c r="N350" s="289"/>
       <c r="O350" s="2" t="s">
         <v>420</v>
       </c>
@@ -42126,10 +42130,10 @@
         <f t="shared" si="17"/>
         <v>242</v>
       </c>
-      <c r="M351" s="158" t="s">
+      <c r="M351" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N351" s="159"/>
+      <c r="N351" s="289"/>
       <c r="O351" s="2" t="s">
         <v>420</v>
       </c>
@@ -42205,10 +42209,10 @@
         <f t="shared" si="17"/>
         <v>139</v>
       </c>
-      <c r="M352" s="176" t="s">
+      <c r="M352" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N352" s="177"/>
+      <c r="N352" s="285"/>
       <c r="O352" s="2" t="s">
         <v>425</v>
       </c>
@@ -42278,10 +42282,10 @@
         <f t="shared" si="17"/>
         <v>212</v>
       </c>
-      <c r="M353" s="176" t="s">
+      <c r="M353" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="N353" s="177"/>
+      <c r="N353" s="285"/>
       <c r="O353" s="2" t="s">
         <v>425</v>
       </c>
@@ -42351,10 +42355,10 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M354" s="172" t="s">
+      <c r="M354" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N354" s="173"/>
+      <c r="N354" s="307"/>
       <c r="O354" s="2" t="s">
         <v>459</v>
       </c>
@@ -42424,10 +42428,10 @@
         <f t="shared" si="17"/>
         <v>127</v>
       </c>
-      <c r="M355" s="172" t="s">
+      <c r="M355" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N355" s="173"/>
+      <c r="N355" s="307"/>
       <c r="O355" s="2" t="s">
         <v>459</v>
       </c>
@@ -42497,10 +42501,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M356" s="172" t="s">
+      <c r="M356" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N356" s="173"/>
+      <c r="N356" s="307"/>
       <c r="O356" s="2" t="s">
         <v>459</v>
       </c>
@@ -42570,10 +42574,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M357" s="172" t="s">
+      <c r="M357" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="N357" s="173"/>
+      <c r="N357" s="307"/>
       <c r="O357" s="2" t="s">
         <v>459</v>
       </c>
@@ -42718,10 +42722,10 @@
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="M359" s="162" t="s">
+      <c r="M359" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N359" s="163"/>
+      <c r="N359" s="299"/>
       <c r="O359" s="2" t="s">
         <v>434</v>
       </c>
@@ -42791,10 +42795,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="M360" s="174" t="s">
+      <c r="M360" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="N360" s="175"/>
+      <c r="N360" s="291"/>
       <c r="O360" s="2" t="s">
         <v>457</v>
       </c>
@@ -42864,10 +42868,10 @@
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="M361" s="162" t="s">
+      <c r="M361" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N361" s="163"/>
+      <c r="N361" s="299"/>
       <c r="O361" s="2" t="s">
         <v>434</v>
       </c>
@@ -42937,10 +42941,10 @@
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="M362" s="168" t="s">
+      <c r="M362" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N362" s="169"/>
+      <c r="N362" s="305"/>
       <c r="O362" s="2" t="s">
         <v>495</v>
       </c>
@@ -43010,10 +43014,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M363" s="168" t="s">
+      <c r="M363" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N363" s="169"/>
+      <c r="N363" s="305"/>
       <c r="O363" s="2" t="s">
         <v>495</v>
       </c>
@@ -43308,10 +43312,10 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="M367" s="158" t="s">
+      <c r="M367" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N367" s="159"/>
+      <c r="N367" s="289"/>
       <c r="O367" s="2" t="s">
         <v>420</v>
       </c>
@@ -43381,10 +43385,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M368" s="158" t="s">
+      <c r="M368" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N368" s="159"/>
+      <c r="N368" s="289"/>
       <c r="O368" s="2" t="s">
         <v>420</v>
       </c>
@@ -43454,10 +43458,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M369" s="158" t="s">
+      <c r="M369" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N369" s="159"/>
+      <c r="N369" s="289"/>
       <c r="O369" s="2" t="s">
         <v>420</v>
       </c>
@@ -43602,10 +43606,10 @@
         <f t="shared" si="17"/>
         <v>134</v>
       </c>
-      <c r="M371" s="158" t="s">
+      <c r="M371" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N371" s="159"/>
+      <c r="N371" s="289"/>
       <c r="O371" s="2" t="s">
         <v>420</v>
       </c>
@@ -43675,10 +43679,10 @@
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="M372" s="164" t="s">
+      <c r="M372" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="N372" s="165"/>
+      <c r="N372" s="309"/>
       <c r="O372" s="2" t="s">
         <v>450</v>
       </c>
@@ -43748,10 +43752,10 @@
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-      <c r="M373" s="164" t="s">
+      <c r="M373" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="N373" s="165"/>
+      <c r="N373" s="309"/>
       <c r="O373" s="2" t="s">
         <v>450</v>
       </c>
@@ -44121,10 +44125,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M378" s="166" t="s">
+      <c r="M378" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="N378" s="167"/>
+      <c r="N378" s="295"/>
       <c r="O378" s="2" t="s">
         <v>454</v>
       </c>
@@ -44194,10 +44198,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M379" s="168" t="s">
+      <c r="M379" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="N379" s="169"/>
+      <c r="N379" s="305"/>
       <c r="O379" s="2" t="s">
         <v>495</v>
       </c>
@@ -44267,10 +44271,10 @@
         <f t="shared" si="17"/>
         <v>285</v>
       </c>
-      <c r="M380" s="170" t="s">
+      <c r="M380" s="310" t="s">
         <v>23</v>
       </c>
-      <c r="N380" s="171"/>
+      <c r="N380" s="311"/>
       <c r="O380" s="2" t="s">
         <v>498</v>
       </c>
@@ -44487,10 +44491,10 @@
       <c r="L383" s="2">
         <v>251</v>
       </c>
-      <c r="M383" s="158" t="s">
+      <c r="M383" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="N383" s="159"/>
+      <c r="N383" s="289"/>
       <c r="O383" s="2" t="s">
         <v>420</v>
       </c>
@@ -44563,10 +44567,10 @@
       <c r="L384" s="2">
         <v>251</v>
       </c>
-      <c r="M384" s="160" t="s">
+      <c r="M384" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="N384" s="161"/>
+      <c r="N384" s="303"/>
       <c r="O384" s="2" t="s">
         <v>428</v>
       </c>
@@ -44783,10 +44787,10 @@
         <f t="shared" ref="L387:L445" si="19">ROUND((1+(H387-75)/500)*(ROUND(0.25*(7*MAX(G387,E387)+MIN(G387,E387)),0)),0)</f>
         <v>115</v>
       </c>
-      <c r="M387" s="162" t="s">
+      <c r="M387" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="N387" s="163"/>
+      <c r="N387" s="299"/>
       <c r="O387" s="2" t="s">
         <v>434</v>
       </c>
@@ -70702,102 +70706,96 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M266:N266"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="M269:N269"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M262:N262"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="M264:N264"/>
+    <mergeCell ref="M265:N265"/>
+    <mergeCell ref="M238:N238"/>
+    <mergeCell ref="M246:N246"/>
+    <mergeCell ref="M253:N253"/>
+    <mergeCell ref="M254:N254"/>
+    <mergeCell ref="M255:N255"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M235:N235"/>
+    <mergeCell ref="M236:N236"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="M218:N218"/>
+    <mergeCell ref="M224:N224"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="M219:N219"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="M207:N207"/>
     <mergeCell ref="M102:N102"/>
     <mergeCell ref="M111:N111"/>
     <mergeCell ref="M121:N121"/>
@@ -70822,96 +70820,102 @@
     <mergeCell ref="M233:N233"/>
     <mergeCell ref="M234:N234"/>
     <mergeCell ref="M225:N225"/>
-    <mergeCell ref="M238:N238"/>
-    <mergeCell ref="M246:N246"/>
-    <mergeCell ref="M253:N253"/>
-    <mergeCell ref="M254:N254"/>
-    <mergeCell ref="M255:N255"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M235:N235"/>
-    <mergeCell ref="M236:N236"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="M218:N218"/>
-    <mergeCell ref="M224:N224"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="M219:N219"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M266:N266"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="M269:N269"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M262:N262"/>
-    <mergeCell ref="M263:N263"/>
-    <mergeCell ref="M264:N264"/>
-    <mergeCell ref="M265:N265"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M651:N720 M388:N641 M722:N808">
@@ -73786,7 +73790,7 @@
     <hyperlink ref="U44" r:id="rId2584" tooltip="走路草"/>
     <hyperlink ref="U45" r:id="rId2585" tooltip="臭臭花"/>
     <hyperlink ref="U46" r:id="rId2586" tooltip="霸王花"/>
-    <hyperlink ref="U47" r:id="rId2587" tooltip="派拉斯"/>
+    <hyperlink ref="U47" r:id="rId2587" tooltip="派拉斯" display="派拉斯"/>
     <hyperlink ref="U48" r:id="rId2588" tooltip="派拉斯特"/>
     <hyperlink ref="U49" r:id="rId2589" tooltip="毛球"/>
     <hyperlink ref="U50" r:id="rId2590" tooltip="摩鲁蛾"/>

--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13462,9 +13462,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -14307,13 +14308,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="57">
@@ -15257,8 +15259,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O13" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/national_pokedex.xlsx
+++ b/national_pokedex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7078" uniqueCount="3494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7079" uniqueCount="3496">
   <si>
     <t>Name</t>
   </si>
@@ -10893,6 +10893,14 @@
   </si>
   <si>
     <t>17,19,16,119,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Water</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psychic Fairy</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -13472,7 +13480,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13845,124 +13853,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13971,28 +13868,28 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14007,28 +13904,58 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14037,40 +13964,94 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14079,22 +14060,52 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14139,172 +14150,172 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15248,7 +15259,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15260,7 +15271,7 @@
   <dimension ref="A1:AE810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:L26"/>
+      <selection activeCell="O803" sqref="O803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15634,10 +15645,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M5" s="298" t="s">
+      <c r="M5" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="299"/>
+      <c r="N5" s="180"/>
       <c r="O5" s="2" t="s">
         <v>418</v>
       </c>
@@ -15709,10 +15720,10 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M6" s="214" t="s">
+      <c r="M6" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="215"/>
+      <c r="N6" s="176"/>
       <c r="O6" s="2" t="s">
         <v>418</v>
       </c>
@@ -15876,10 +15887,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M8" s="300" t="s">
+      <c r="M8" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="301"/>
+      <c r="N8" s="182"/>
       <c r="O8" s="2" t="s">
         <v>420</v>
       </c>
@@ -15951,10 +15962,10 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="M9" s="200" t="s">
+      <c r="M9" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="201"/>
+      <c r="N9" s="184"/>
       <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
@@ -16026,10 +16037,10 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="201"/>
+      <c r="N10" s="184"/>
       <c r="O10" s="2" t="s">
         <v>420</v>
       </c>
@@ -16101,10 +16112,10 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M11" s="302" t="s">
+      <c r="M11" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="303"/>
+      <c r="N11" s="186"/>
       <c r="O11" s="2" t="s">
         <v>421</v>
       </c>
@@ -16176,10 +16187,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M12" s="232" t="s">
+      <c r="M12" s="263" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="233"/>
+      <c r="N12" s="264"/>
       <c r="O12" s="2" t="s">
         <v>421</v>
       </c>
@@ -16810,10 +16821,10 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M20" s="198" t="s">
+      <c r="M20" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="199"/>
+      <c r="N20" s="162"/>
       <c r="O20" s="2" t="s">
         <v>425</v>
       </c>
@@ -16885,10 +16896,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M21" s="198" t="s">
+      <c r="M21" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="199"/>
+      <c r="N21" s="162"/>
       <c r="O21" s="2" t="s">
         <v>425</v>
       </c>
@@ -17124,10 +17135,10 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="M24" s="226" t="s">
+      <c r="M24" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="227"/>
+      <c r="N24" s="160"/>
       <c r="O24" s="2" t="s">
         <v>426</v>
       </c>
@@ -17204,10 +17215,10 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="M25" s="226" t="s">
+      <c r="M25" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="227"/>
+      <c r="N25" s="160"/>
       <c r="O25" s="2" t="s">
         <v>426</v>
       </c>
@@ -17279,10 +17290,10 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="M26" s="310" t="s">
+      <c r="M26" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="311"/>
+      <c r="N26" s="164"/>
       <c r="O26" s="2" t="s">
         <v>427</v>
       </c>
@@ -17359,10 +17370,10 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="M27" s="304" t="s">
+      <c r="M27" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="305"/>
+      <c r="N27" s="188"/>
       <c r="O27" s="2" t="s">
         <v>427</v>
       </c>
@@ -17444,10 +17455,10 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="M28" s="306" t="s">
+      <c r="M28" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="307"/>
+      <c r="N28" s="190"/>
       <c r="O28" s="2" t="s">
         <v>428</v>
       </c>
@@ -17524,10 +17535,10 @@
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="M29" s="308" t="s">
+      <c r="M29" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="309"/>
+      <c r="N29" s="192"/>
       <c r="O29" s="2" t="s">
         <v>428</v>
       </c>
@@ -17599,10 +17610,10 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="M30" s="226" t="s">
+      <c r="M30" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="227"/>
+      <c r="N30" s="160"/>
       <c r="O30" s="2" t="s">
         <v>426</v>
       </c>
@@ -17674,10 +17685,10 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M31" s="226" t="s">
+      <c r="M31" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="227"/>
+      <c r="N31" s="160"/>
       <c r="O31" s="2" t="s">
         <v>426</v>
       </c>
@@ -17826,10 +17837,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="M33" s="226" t="s">
+      <c r="M33" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="227"/>
+      <c r="N33" s="160"/>
       <c r="O33" s="2" t="s">
         <v>426</v>
       </c>
@@ -17901,10 +17912,10 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="M34" s="226" t="s">
+      <c r="M34" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="227"/>
+      <c r="N34" s="160"/>
       <c r="O34" s="2" t="s">
         <v>426</v>
       </c>
@@ -18058,10 +18069,10 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M36" s="208" t="s">
+      <c r="M36" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="209"/>
+      <c r="N36" s="172"/>
       <c r="O36" s="2" t="s">
         <v>568</v>
       </c>
@@ -18133,10 +18144,10 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="M37" s="210" t="s">
+      <c r="M37" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="211"/>
+      <c r="N37" s="174"/>
       <c r="O37" s="2" t="s">
         <v>568</v>
       </c>
@@ -18213,10 +18224,10 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="M38" s="214" t="s">
+      <c r="M38" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="215"/>
+      <c r="N38" s="176"/>
       <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
@@ -18288,10 +18299,10 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="M39" s="214" t="s">
+      <c r="M39" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="215"/>
+      <c r="N39" s="176"/>
       <c r="O39" s="2" t="s">
         <v>418</v>
       </c>
@@ -18373,10 +18384,10 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="M40" s="236" t="s">
+      <c r="M40" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="237"/>
+      <c r="N40" s="178"/>
       <c r="O40" s="2" t="s">
         <v>483</v>
       </c>
@@ -18453,10 +18464,10 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="M41" s="212" t="s">
+      <c r="M41" s="265" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="213"/>
+      <c r="N41" s="266"/>
       <c r="O41" s="2" t="s">
         <v>483</v>
       </c>
@@ -19246,10 +19257,10 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="M51" s="238" t="s">
+      <c r="M51" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="239"/>
+      <c r="N51" s="166"/>
       <c r="O51" s="2" t="s">
         <v>428</v>
       </c>
@@ -19326,10 +19337,10 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="M52" s="240" t="s">
+      <c r="M52" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="241"/>
+      <c r="N52" s="168"/>
       <c r="O52" s="2" t="s">
         <v>428</v>
       </c>
@@ -19406,10 +19417,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M53" s="198" t="s">
+      <c r="M53" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="199"/>
+      <c r="N53" s="162"/>
       <c r="O53" s="2" t="s">
         <v>425</v>
       </c>
@@ -19486,10 +19497,10 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="M54" s="276" t="s">
+      <c r="M54" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="277"/>
+      <c r="N54" s="170"/>
       <c r="O54" s="2" t="s">
         <v>425</v>
       </c>
@@ -19566,10 +19577,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M55" s="200" t="s">
+      <c r="M55" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="201"/>
+      <c r="N55" s="184"/>
       <c r="O55" s="2" t="s">
         <v>420</v>
       </c>
@@ -19641,10 +19652,10 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="M56" s="294" t="s">
+      <c r="M56" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="295"/>
+      <c r="N56" s="210"/>
       <c r="O56" s="2" t="s">
         <v>420</v>
       </c>
@@ -19716,10 +19727,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M57" s="190" t="s">
+      <c r="M57" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="191"/>
+      <c r="N57" s="208"/>
       <c r="O57" s="2" t="s">
         <v>432</v>
       </c>
@@ -19791,10 +19802,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="M58" s="190" t="s">
+      <c r="M58" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="191"/>
+      <c r="N58" s="208"/>
       <c r="O58" s="2" t="s">
         <v>432</v>
       </c>
@@ -19876,10 +19887,10 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="M59" s="296" t="s">
+      <c r="M59" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="297"/>
+      <c r="N59" s="212"/>
       <c r="O59" s="2" t="s">
         <v>418</v>
       </c>
@@ -19951,10 +19962,10 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="M60" s="214" t="s">
+      <c r="M60" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="215"/>
+      <c r="N60" s="176"/>
       <c r="O60" s="2" t="s">
         <v>418</v>
       </c>
@@ -20036,10 +20047,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="M61" s="192" t="s">
+      <c r="M61" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="193"/>
+      <c r="N61" s="214"/>
       <c r="O61" s="2" t="s">
         <v>420</v>
       </c>
@@ -20111,10 +20122,10 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="M62" s="228" t="s">
+      <c r="M62" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="229"/>
+      <c r="N62" s="260"/>
       <c r="O62" s="2" t="s">
         <v>420</v>
       </c>
@@ -20278,10 +20289,10 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="M64" s="260" t="s">
+      <c r="M64" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="261"/>
+      <c r="N64" s="204"/>
       <c r="O64" s="2" t="s">
         <v>434</v>
       </c>
@@ -20353,10 +20364,10 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="M65" s="220" t="s">
+      <c r="M65" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="221"/>
+      <c r="N65" s="194"/>
       <c r="O65" s="2" t="s">
         <v>434</v>
       </c>
@@ -20428,10 +20439,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="M66" s="292" t="s">
+      <c r="M66" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="293"/>
+      <c r="N66" s="206"/>
       <c r="O66" s="2" t="s">
         <v>434</v>
       </c>
@@ -20508,10 +20519,10 @@
         <f t="shared" ref="L67:L130" si="5">ROUND((1+(H67-75)/500)*(ROUND(0.25*(7*MAX(G67,E67)+MIN(G67,E67)),0)),0)</f>
         <v>88</v>
       </c>
-      <c r="M67" s="190" t="s">
+      <c r="M67" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="191"/>
+      <c r="N67" s="208"/>
       <c r="O67" s="2" t="s">
         <v>432</v>
       </c>
@@ -20588,10 +20599,10 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="M68" s="190" t="s">
+      <c r="M68" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="191"/>
+      <c r="N68" s="208"/>
       <c r="O68" s="2" t="s">
         <v>432</v>
       </c>
@@ -20668,10 +20679,10 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="M69" s="190" t="s">
+      <c r="M69" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="191"/>
+      <c r="N69" s="208"/>
       <c r="O69" s="2" t="s">
         <v>432</v>
       </c>
@@ -21394,10 +21405,10 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="M78" s="214" t="s">
+      <c r="M78" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N78" s="215"/>
+      <c r="N78" s="176"/>
       <c r="O78" s="2" t="s">
         <v>418</v>
       </c>
@@ -21474,10 +21485,10 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="M79" s="288" t="s">
+      <c r="M79" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="289"/>
+      <c r="N79" s="200"/>
       <c r="O79" s="2" t="s">
         <v>418</v>
       </c>
@@ -22118,10 +22129,10 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M87" s="200" t="s">
+      <c r="M87" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N87" s="201"/>
+      <c r="N87" s="184"/>
       <c r="O87" s="2" t="s">
         <v>420</v>
       </c>
@@ -22290,10 +22301,10 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M89" s="226" t="s">
+      <c r="M89" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="227"/>
+      <c r="N89" s="160"/>
       <c r="O89" s="2" t="s">
         <v>426</v>
       </c>
@@ -22370,10 +22381,10 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="M90" s="226" t="s">
+      <c r="M90" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="227"/>
+      <c r="N90" s="160"/>
       <c r="O90" s="2" t="s">
         <v>426</v>
       </c>
@@ -22450,10 +22461,10 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="M91" s="290" t="s">
+      <c r="M91" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="291"/>
+      <c r="N91" s="202"/>
       <c r="O91" s="2" t="s">
         <v>420</v>
       </c>
@@ -22950,10 +22961,10 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="M97" s="220" t="s">
+      <c r="M97" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="221"/>
+      <c r="N97" s="194"/>
       <c r="O97" s="2" t="s">
         <v>434</v>
       </c>
@@ -23025,10 +23036,10 @@
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M98" s="220" t="s">
+      <c r="M98" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="221"/>
+      <c r="N98" s="194"/>
       <c r="O98" s="2" t="s">
         <v>434</v>
       </c>
@@ -23105,10 +23116,10 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="M99" s="284" t="s">
+      <c r="M99" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="N99" s="285"/>
+      <c r="N99" s="196"/>
       <c r="O99" s="2" t="s">
         <v>420</v>
       </c>
@@ -23180,10 +23191,10 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="M100" s="200" t="s">
+      <c r="M100" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="201"/>
+      <c r="N100" s="184"/>
       <c r="O100" s="2" t="s">
         <v>420</v>
       </c>
@@ -23260,10 +23271,10 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="M101" s="286" t="s">
+      <c r="M101" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="287"/>
+      <c r="N101" s="198"/>
       <c r="O101" s="2" t="s">
         <v>427</v>
       </c>
@@ -23340,10 +23351,10 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="M102" s="224" t="s">
+      <c r="M102" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="225"/>
+      <c r="N102" s="258"/>
       <c r="O102" s="2" t="s">
         <v>427</v>
       </c>
@@ -23579,10 +23590,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M105" s="238" t="s">
+      <c r="M105" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="239"/>
+      <c r="N105" s="166"/>
       <c r="O105" s="2" t="s">
         <v>428</v>
       </c>
@@ -23654,10 +23665,10 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M106" s="280" t="s">
+      <c r="M106" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="281"/>
+      <c r="N106" s="218"/>
       <c r="O106" s="2" t="s">
         <v>428</v>
       </c>
@@ -23729,10 +23740,10 @@
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="M107" s="190" t="s">
+      <c r="M107" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N107" s="191"/>
+      <c r="N107" s="208"/>
       <c r="O107" s="2" t="s">
         <v>432</v>
       </c>
@@ -23809,10 +23820,10 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="M108" s="190" t="s">
+      <c r="M108" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N108" s="191"/>
+      <c r="N108" s="208"/>
       <c r="O108" s="2" t="s">
         <v>432</v>
       </c>
@@ -23894,10 +23905,10 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="M109" s="282" t="s">
+      <c r="M109" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="N109" s="283"/>
+      <c r="N109" s="220"/>
       <c r="O109" s="2" t="s">
         <v>425</v>
       </c>
@@ -23969,10 +23980,10 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="M110" s="226" t="s">
+      <c r="M110" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="227"/>
+      <c r="N110" s="160"/>
       <c r="O110" s="2" t="s">
         <v>426</v>
       </c>
@@ -24049,10 +24060,10 @@
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="M111" s="226" t="s">
+      <c r="M111" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="227"/>
+      <c r="N111" s="160"/>
       <c r="O111" s="2" t="s">
         <v>426</v>
       </c>
@@ -24288,10 +24299,10 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="M114" s="208" t="s">
+      <c r="M114" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="N114" s="209"/>
+      <c r="N114" s="172"/>
       <c r="O114" s="2" t="s">
         <v>425</v>
       </c>
@@ -24368,10 +24379,10 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M115" s="278" t="s">
+      <c r="M115" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="N115" s="279"/>
+      <c r="N115" s="216"/>
       <c r="O115" s="2" t="s">
         <v>443</v>
       </c>
@@ -24448,10 +24459,10 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="M116" s="276" t="s">
+      <c r="M116" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="N116" s="277"/>
+      <c r="N116" s="170"/>
       <c r="O116" s="2" t="s">
         <v>425</v>
       </c>
@@ -24528,10 +24539,10 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="M117" s="200" t="s">
+      <c r="M117" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="201"/>
+      <c r="N117" s="184"/>
       <c r="O117" s="2" t="s">
         <v>420</v>
       </c>
@@ -24603,10 +24614,10 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="M118" s="200" t="s">
+      <c r="M118" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="201"/>
+      <c r="N118" s="184"/>
       <c r="O118" s="2" t="s">
         <v>420</v>
       </c>
@@ -24683,10 +24694,10 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="M119" s="200" t="s">
+      <c r="M119" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N119" s="201"/>
+      <c r="N119" s="184"/>
       <c r="O119" s="2" t="s">
         <v>420</v>
       </c>
@@ -24758,10 +24769,10 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-      <c r="M120" s="200" t="s">
+      <c r="M120" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N120" s="201"/>
+      <c r="N120" s="184"/>
       <c r="O120" s="2" t="s">
         <v>420</v>
       </c>
@@ -24843,12 +24854,12 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="M121" s="228" t="s">
+      <c r="M121" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="N121" s="229"/>
-      <c r="O121" s="2" t="s">
-        <v>420</v>
+      <c r="N121" s="260"/>
+      <c r="O121" s="96" t="s">
+        <v>3494</v>
       </c>
       <c r="P121" s="106" t="s">
         <v>1468</v>
@@ -25010,12 +25021,14 @@
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="M123" s="220" t="s">
+      <c r="M123" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="221"/>
-      <c r="O123" s="2" t="s">
-        <v>434</v>
+      <c r="N123" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="O123" s="96" t="s">
+        <v>3495</v>
       </c>
       <c r="P123" s="106" t="s">
         <v>2026</v>
@@ -25259,10 +25272,10 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="M126" s="234" t="s">
+      <c r="M126" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="235"/>
+      <c r="N126" s="226"/>
       <c r="O126" s="2" t="s">
         <v>427</v>
       </c>
@@ -25334,10 +25347,10 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="M127" s="214" t="s">
+      <c r="M127" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N127" s="215"/>
+      <c r="N127" s="176"/>
       <c r="O127" s="2" t="s">
         <v>418</v>
       </c>
@@ -25409,10 +25422,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M128" s="272" t="s">
+      <c r="M128" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="273"/>
+      <c r="N128" s="222"/>
       <c r="O128" s="2" t="s">
         <v>421</v>
       </c>
@@ -25494,10 +25507,10 @@
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="M129" s="274" t="s">
+      <c r="M129" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="N129" s="275"/>
+      <c r="N129" s="224"/>
       <c r="O129" s="2" t="s">
         <v>425</v>
       </c>
@@ -25569,10 +25582,10 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="M130" s="200" t="s">
+      <c r="M130" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N130" s="201"/>
+      <c r="N130" s="184"/>
       <c r="O130" s="2" t="s">
         <v>420</v>
       </c>
@@ -25818,10 +25831,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M133" s="208" t="s">
+      <c r="M133" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="N133" s="209"/>
+      <c r="N133" s="172"/>
       <c r="O133" s="2" t="s">
         <v>425</v>
       </c>
@@ -25893,10 +25906,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="M134" s="276" t="s">
+      <c r="M134" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="N134" s="277"/>
+      <c r="N134" s="170"/>
       <c r="O134" s="2" t="s">
         <v>425</v>
       </c>
@@ -25973,10 +25986,10 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="M135" s="200" t="s">
+      <c r="M135" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N135" s="201"/>
+      <c r="N135" s="184"/>
       <c r="O135" s="2" t="s">
         <v>420</v>
       </c>
@@ -26048,10 +26061,10 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="M136" s="268" t="s">
+      <c r="M136" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="269"/>
+      <c r="N136" s="234"/>
       <c r="O136" s="2" t="s">
         <v>427</v>
       </c>
@@ -26123,10 +26136,10 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="M137" s="214" t="s">
+      <c r="M137" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N137" s="215"/>
+      <c r="N137" s="176"/>
       <c r="O137" s="2" t="s">
         <v>418</v>
       </c>
@@ -26203,10 +26216,10 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="M138" s="270" t="s">
+      <c r="M138" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="271"/>
+      <c r="N138" s="238"/>
       <c r="O138" s="2" t="s">
         <v>425</v>
       </c>
@@ -26693,10 +26706,10 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="M144" s="208" t="s">
+      <c r="M144" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="209"/>
+      <c r="N144" s="172"/>
       <c r="O144" s="2" t="s">
         <v>425</v>
       </c>
@@ -27024,10 +27037,10 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="M148" s="196" t="s">
+      <c r="M148" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="N148" s="197"/>
+      <c r="N148" s="236"/>
       <c r="O148" s="2" t="s">
         <v>450</v>
       </c>
@@ -27099,10 +27112,10 @@
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="M149" s="196" t="s">
+      <c r="M149" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="N149" s="197"/>
+      <c r="N149" s="236"/>
       <c r="O149" s="2" t="s">
         <v>450</v>
       </c>
@@ -27258,10 +27271,10 @@
       <c r="L151" s="2">
         <v>182</v>
       </c>
-      <c r="M151" s="260" t="s">
+      <c r="M151" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="261"/>
+      <c r="N151" s="204"/>
       <c r="O151" s="2" t="s">
         <v>434</v>
       </c>
@@ -27333,10 +27346,10 @@
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="M152" s="220" t="s">
+      <c r="M152" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="221"/>
+      <c r="N152" s="194"/>
       <c r="O152" s="2" t="s">
         <v>434</v>
       </c>
@@ -27413,10 +27426,10 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="M153" s="262" t="s">
+      <c r="M153" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="N153" s="263"/>
+      <c r="N153" s="228"/>
       <c r="O153" s="2" t="s">
         <v>443</v>
       </c>
@@ -27486,10 +27499,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="M154" s="264" t="s">
+      <c r="M154" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="N154" s="265"/>
+      <c r="N154" s="230"/>
       <c r="O154" s="2" t="s">
         <v>443</v>
       </c>
@@ -27559,10 +27572,10 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="M155" s="266" t="s">
+      <c r="M155" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="N155" s="267"/>
+      <c r="N155" s="232"/>
       <c r="O155" s="2" t="s">
         <v>443</v>
       </c>
@@ -27632,10 +27645,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="M156" s="214" t="s">
+      <c r="M156" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N156" s="215"/>
+      <c r="N156" s="176"/>
       <c r="O156" s="2" t="s">
         <v>418</v>
       </c>
@@ -27705,10 +27718,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="M157" s="214" t="s">
+      <c r="M157" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N157" s="215"/>
+      <c r="N157" s="176"/>
       <c r="O157" s="2" t="s">
         <v>418</v>
       </c>
@@ -27778,10 +27791,10 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="M158" s="214" t="s">
+      <c r="M158" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N158" s="215"/>
+      <c r="N158" s="176"/>
       <c r="O158" s="2" t="s">
         <v>418</v>
       </c>
@@ -27851,10 +27864,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M159" s="192" t="s">
+      <c r="M159" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="N159" s="193"/>
+      <c r="N159" s="214"/>
       <c r="O159" s="2" t="s">
         <v>420</v>
       </c>
@@ -27924,10 +27937,10 @@
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="M160" s="200" t="s">
+      <c r="M160" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N160" s="201"/>
+      <c r="N160" s="184"/>
       <c r="O160" s="2" t="s">
         <v>420</v>
       </c>
@@ -27997,10 +28010,10 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="M161" s="200" t="s">
+      <c r="M161" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N161" s="201"/>
+      <c r="N161" s="184"/>
       <c r="O161" s="2" t="s">
         <v>420</v>
       </c>
@@ -28076,10 +28089,10 @@
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="M162" s="256" t="s">
+      <c r="M162" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="N162" s="257"/>
+      <c r="N162" s="240"/>
       <c r="O162" s="2" t="s">
         <v>425</v>
       </c>
@@ -28149,10 +28162,10 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="M163" s="198" t="s">
+      <c r="M163" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N163" s="199"/>
+      <c r="N163" s="162"/>
       <c r="O163" s="2" t="s">
         <v>425</v>
       </c>
@@ -28897,10 +28910,10 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="M173" s="258" t="s">
+      <c r="M173" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="259"/>
+      <c r="N173" s="242"/>
       <c r="O173" s="2" t="s">
         <v>427</v>
       </c>
@@ -28976,10 +28989,10 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="M174" s="198" t="s">
+      <c r="M174" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N174" s="199"/>
+      <c r="N174" s="162"/>
       <c r="O174" s="2" t="s">
         <v>568</v>
       </c>
@@ -29055,10 +29068,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="M175" s="198" t="s">
+      <c r="M175" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N175" s="199"/>
+      <c r="N175" s="162"/>
       <c r="O175" s="2" t="s">
         <v>483</v>
       </c>
@@ -29134,10 +29147,10 @@
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="M176" s="198" t="s">
+      <c r="M176" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N176" s="199"/>
+      <c r="N176" s="162"/>
       <c r="O176" s="2" t="s">
         <v>568</v>
       </c>
@@ -29444,10 +29457,10 @@
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
-      <c r="M180" s="248" t="s">
+      <c r="M180" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="N180" s="249"/>
+      <c r="N180" s="250"/>
       <c r="O180" s="2" t="s">
         <v>427</v>
       </c>
@@ -29517,10 +29530,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M181" s="250" t="s">
+      <c r="M181" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="N181" s="251"/>
+      <c r="N181" s="252"/>
       <c r="O181" s="2" t="s">
         <v>427</v>
       </c>
@@ -29590,10 +29603,10 @@
         <f t="shared" si="8"/>
         <v>172</v>
       </c>
-      <c r="M182" s="252" t="s">
+      <c r="M182" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="N182" s="253"/>
+      <c r="N182" s="254"/>
       <c r="O182" s="2" t="s">
         <v>427</v>
       </c>
@@ -29663,10 +29676,10 @@
         <f t="shared" si="8"/>
         <v>189</v>
       </c>
-      <c r="M183" s="254" t="s">
+      <c r="M183" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="N183" s="255"/>
+      <c r="N183" s="256"/>
       <c r="O183" s="2" t="s">
         <v>443</v>
       </c>
@@ -29736,10 +29749,10 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="M184" s="200" t="s">
+      <c r="M184" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N184" s="201"/>
+      <c r="N184" s="184"/>
       <c r="O184" s="2" t="s">
         <v>569</v>
       </c>
@@ -29809,10 +29822,10 @@
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="M185" s="200" t="s">
+      <c r="M185" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N185" s="201"/>
+      <c r="N185" s="184"/>
       <c r="O185" s="2" t="s">
         <v>569</v>
       </c>
@@ -29882,10 +29895,10 @@
         <f t="shared" si="8"/>
         <v>198</v>
       </c>
-      <c r="M186" s="242" t="s">
+      <c r="M186" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="N186" s="243"/>
+      <c r="N186" s="244"/>
       <c r="O186" s="2" t="s">
         <v>454</v>
       </c>
@@ -29955,10 +29968,10 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="M187" s="200" t="s">
+      <c r="M187" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N187" s="201"/>
+      <c r="N187" s="184"/>
       <c r="O187" s="2" t="s">
         <v>420</v>
       </c>
@@ -30259,10 +30272,10 @@
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="M191" s="198" t="s">
+      <c r="M191" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N191" s="199"/>
+      <c r="N191" s="162"/>
       <c r="O191" s="2" t="s">
         <v>425</v>
       </c>
@@ -30332,10 +30345,10 @@
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="M192" s="244" t="s">
+      <c r="M192" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="N192" s="245"/>
+      <c r="N192" s="246"/>
       <c r="O192" s="2" t="s">
         <v>443</v>
       </c>
@@ -30405,10 +30418,10 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="M193" s="202" t="s">
+      <c r="M193" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="N193" s="203"/>
+      <c r="N193" s="272"/>
       <c r="O193" s="2" t="s">
         <v>443</v>
       </c>
@@ -30703,10 +30716,10 @@
         <f t="shared" si="11"/>
         <v>194</v>
       </c>
-      <c r="M197" s="246" t="s">
+      <c r="M197" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="N197" s="247"/>
+      <c r="N197" s="248"/>
       <c r="O197" s="2" t="s">
         <v>434</v>
       </c>
@@ -30776,10 +30789,10 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="M198" s="204" t="s">
+      <c r="M198" s="273" t="s">
         <v>27</v>
       </c>
-      <c r="N198" s="205"/>
+      <c r="N198" s="274"/>
       <c r="O198" s="2" t="s">
         <v>457</v>
       </c>
@@ -30999,10 +31012,10 @@
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="M201" s="216" t="s">
+      <c r="M201" s="277" t="s">
         <v>25</v>
       </c>
-      <c r="N201" s="217"/>
+      <c r="N201" s="278"/>
       <c r="O201" s="2" t="s">
         <v>459</v>
       </c>
@@ -31072,10 +31085,10 @@
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="M202" s="218" t="s">
+      <c r="M202" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="219"/>
+      <c r="N202" s="280"/>
       <c r="O202" s="2" t="s">
         <v>434</v>
       </c>
@@ -31145,10 +31158,10 @@
         <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="M203" s="220" t="s">
+      <c r="M203" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="221"/>
+      <c r="N203" s="194"/>
       <c r="O203" s="2" t="s">
         <v>434</v>
       </c>
@@ -31293,10 +31306,10 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="M205" s="222" t="s">
+      <c r="M205" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="223"/>
+      <c r="N205" s="282"/>
       <c r="O205" s="2" t="s">
         <v>421</v>
       </c>
@@ -31441,10 +31454,10 @@
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="M207" s="208" t="s">
+      <c r="M207" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="N207" s="209"/>
+      <c r="N207" s="172"/>
       <c r="O207" s="2" t="s">
         <v>425</v>
       </c>
@@ -31664,10 +31677,10 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="M210" s="198" t="s">
+      <c r="M210" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N210" s="199"/>
+      <c r="N210" s="162"/>
       <c r="O210" s="2" t="s">
         <v>568</v>
       </c>
@@ -31737,10 +31750,10 @@
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
-      <c r="M211" s="212" t="s">
+      <c r="M211" s="265" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="213"/>
+      <c r="N211" s="266"/>
       <c r="O211" s="2" t="s">
         <v>568</v>
       </c>
@@ -32185,10 +32198,10 @@
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="M217" s="208" t="s">
+      <c r="M217" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="N217" s="209"/>
+      <c r="N217" s="172"/>
       <c r="O217" s="2" t="s">
         <v>425</v>
       </c>
@@ -32258,10 +32271,10 @@
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="M218" s="210" t="s">
+      <c r="M218" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="211"/>
+      <c r="N218" s="174"/>
       <c r="O218" s="2" t="s">
         <v>425</v>
       </c>
@@ -32331,10 +32344,10 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="M219" s="214" t="s">
+      <c r="M219" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N219" s="215"/>
+      <c r="N219" s="176"/>
       <c r="O219" s="2" t="s">
         <v>418</v>
       </c>
@@ -32704,10 +32717,10 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="M224" s="200" t="s">
+      <c r="M224" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N224" s="201"/>
+      <c r="N224" s="184"/>
       <c r="O224" s="2" t="s">
         <v>420</v>
       </c>
@@ -32777,10 +32790,10 @@
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="M225" s="200" t="s">
+      <c r="M225" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="N225" s="201"/>
+      <c r="N225" s="184"/>
       <c r="O225" s="2" t="s">
         <v>420</v>
       </c>
@@ -33312,10 +33325,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="M232" s="238" t="s">
+      <c r="M232" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="N232" s="239"/>
+      <c r="N232" s="166"/>
       <c r="O232" s="2" t="s">
         <v>428</v>
       </c>
@@ -33385,10 +33398,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M233" s="240" t="s">
+      <c r="M233" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="N233" s="241"/>
+      <c r="N233" s="168"/>
       <c r="O233" s="2" t="s">
         <v>428</v>
       </c>
@@ -33458,10 +33471,10 @@
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="M234" s="198" t="s">
+      <c r="M234" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N234" s="199"/>
+      <c r="N234" s="162"/>
       <c r="O234" s="2" t="s">
         <v>425</v>
       </c>
@@ -33531,10 +33544,10 @@
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="M235" s="198" t="s">
+      <c r="M235" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N235" s="199"/>
+      <c r="N235" s="162"/>
       <c r="O235" s="2" t="s">
         <v>425</v>
       </c>
@@ -33604,10 +33617,10 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
-      <c r="M236" s="206" t="s">
+      <c r="M236" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="N236" s="207"/>
+      <c r="N236" s="276"/>
       <c r="O236" s="2" t="s">
         <v>425</v>
       </c>
@@ -33677,10 +33690,10 @@
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="M237" s="190" t="s">
+      <c r="M237" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N237" s="191"/>
+      <c r="N237" s="208"/>
       <c r="O237" s="2" t="s">
         <v>432</v>
       </c>
@@ -33750,10 +33763,10 @@
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="M238" s="190" t="s">
+      <c r="M238" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="191"/>
+      <c r="N238" s="208"/>
       <c r="O238" s="2" t="s">
         <v>432</v>
       </c>
@@ -33904,10 +33917,10 @@
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="M240" s="234" t="s">
+      <c r="M240" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="235"/>
+      <c r="N240" s="226"/>
       <c r="O240" s="2" t="s">
         <v>427</v>
       </c>
@@ -33983,10 +33996,10 @@
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="M241" s="214" t="s">
+      <c r="M241" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N241" s="215"/>
+      <c r="N241" s="176"/>
       <c r="O241" s="2" t="s">
         <v>418</v>
       </c>
@@ -34056,10 +34069,10 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="M242" s="236" t="s">
+      <c r="M242" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="N242" s="237"/>
+      <c r="N242" s="178"/>
       <c r="O242" s="2" t="s">
         <v>425</v>
       </c>
@@ -34129,10 +34142,10 @@
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="M243" s="198" t="s">
+      <c r="M243" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="N243" s="199"/>
+      <c r="N243" s="162"/>
       <c r="O243" s="2" t="s">
         <v>425</v>
       </c>
@@ -34202,10 +34215,10 @@
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="M244" s="230" t="s">
+      <c r="M244" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="231"/>
+      <c r="N244" s="262"/>
       <c r="O244" s="2" t="s">
         <v>427</v>
       </c>
@@ -34275,10 +34288,10 @@
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="M245" s="214" t="s">
+      <c r="M245" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N245" s="215"/>
+      <c r="N245" s="176"/>
       <c r="O245" s="2" t="s">
         <v>418</v>
       </c>
@@ -34348,10 +34361,10 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="M246" s="192" t="s">
+      <c r="M246" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="N246" s="193"/>
+      <c r="N246" s="214"/>
       <c r="O246" s="2" t="s">
         <v>420</v>
       </c>
@@ -34874,10 +34887,10 @@
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="M253" s="194" t="s">
+      <c r="M253" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="N253" s="195"/>
+      <c r="N253" s="268"/>
       <c r="O253" s="2" t="s">
         <v>443</v>
       </c>
@@ -34947,10 +34960,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M254" s="178" t="s">
+      <c r="M254" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="N254" s="179"/>
+      <c r="N254" s="270"/>
       <c r="O254" s="2" t="s">
         <v>443</v>
       </c>
@@ -35020,10 +35033,10 @@
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="M255" s="178" t="s">
+      <c r="M255" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="N255" s="179"/>
+      <c r="N255" s="270"/>
       <c r="O255" s="2" t="s">
         <v>443</v>
       </c>
@@ -35093,10 +35106,10 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="M256" s="182" t="s">
+      <c r="M256" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="N256" s="183"/>
+      <c r="N256" s="288"/>
       <c r="O256" s="2" t="s">
         <v>418</v>
       </c>
@@ -35322,10 +35335,10 @@
         <f t="shared" ref="L259:L322" si="14">ROUND((1+(H259-75)/500)*(ROUND(0.25*(7*MAX(G259,E259)+MIN(G259,E259)),0)),0)</f>
         <v>93</v>
       </c>
-      <c r="M259" s="158" t="s">
+      <c r="M259" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N259" s="159"/>
+      <c r="N259" s="290"/>
       <c r="O259" s="2" t="s">
         <v>420</v>
       </c>
@@ -35545,10 +35558,10 @@
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="M262" s="174" t="s">
+      <c r="M262" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="N262" s="175"/>
+      <c r="N262" s="292"/>
       <c r="O262" s="2" t="s">
         <v>457</v>
       </c>
@@ -35618,10 +35631,10 @@
         <f t="shared" si="14"/>
         <v>137</v>
       </c>
-      <c r="M263" s="174" t="s">
+      <c r="M263" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="N263" s="175"/>
+      <c r="N263" s="292"/>
       <c r="O263" s="2" t="s">
         <v>457</v>
       </c>
@@ -35691,10 +35704,10 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="M264" s="176" t="s">
+      <c r="M264" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N264" s="177"/>
+      <c r="N264" s="286"/>
       <c r="O264" s="2" t="s">
         <v>425</v>
       </c>
@@ -35764,10 +35777,10 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="M265" s="176" t="s">
+      <c r="M265" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N265" s="177"/>
+      <c r="N265" s="286"/>
       <c r="O265" s="2" t="s">
         <v>425</v>
       </c>
@@ -35837,10 +35850,10 @@
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="M266" s="186" t="s">
+      <c r="M266" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="N266" s="187"/>
+      <c r="N266" s="284"/>
       <c r="O266" s="2" t="s">
         <v>421</v>
       </c>
@@ -35910,10 +35923,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M267" s="186" t="s">
+      <c r="M267" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="N267" s="187"/>
+      <c r="N267" s="284"/>
       <c r="O267" s="2" t="s">
         <v>421</v>
       </c>
@@ -36058,10 +36071,10 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="M269" s="186" t="s">
+      <c r="M269" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="N269" s="187"/>
+      <c r="N269" s="284"/>
       <c r="O269" s="2" t="s">
         <v>421</v>
       </c>
@@ -36431,10 +36444,10 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="M274" s="178" t="s">
+      <c r="M274" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="N274" s="179"/>
+      <c r="N274" s="270"/>
       <c r="O274" s="2" t="s">
         <v>443</v>
       </c>
@@ -37329,10 +37342,10 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="M286" s="178" t="s">
+      <c r="M286" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="N286" s="179"/>
+      <c r="N286" s="270"/>
       <c r="O286" s="2" t="s">
         <v>443</v>
       </c>
@@ -37477,10 +37490,10 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="M288" s="176" t="s">
+      <c r="M288" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N288" s="177"/>
+      <c r="N288" s="286"/>
       <c r="O288" s="2" t="s">
         <v>425</v>
       </c>
@@ -37550,10 +37563,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M289" s="176" t="s">
+      <c r="M289" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N289" s="177"/>
+      <c r="N289" s="286"/>
       <c r="O289" s="2" t="s">
         <v>425</v>
       </c>
@@ -37620,10 +37633,10 @@
       <c r="L290" s="2">
         <v>183</v>
       </c>
-      <c r="M290" s="176" t="s">
+      <c r="M290" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N290" s="177"/>
+      <c r="N290" s="286"/>
       <c r="O290" s="2" t="s">
         <v>425</v>
       </c>
@@ -37918,10 +37931,10 @@
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="M294" s="176" t="s">
+      <c r="M294" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N294" s="177"/>
+      <c r="N294" s="286"/>
       <c r="O294" s="2" t="s">
         <v>425</v>
       </c>
@@ -37991,10 +38004,10 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="M295" s="176" t="s">
+      <c r="M295" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N295" s="177"/>
+      <c r="N295" s="286"/>
       <c r="O295" s="2" t="s">
         <v>425</v>
       </c>
@@ -38064,10 +38077,10 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="M296" s="176" t="s">
+      <c r="M296" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N296" s="177"/>
+      <c r="N296" s="286"/>
       <c r="O296" s="2" t="s">
         <v>425</v>
       </c>
@@ -38137,10 +38150,10 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="M297" s="188" t="s">
+      <c r="M297" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="N297" s="189"/>
+      <c r="N297" s="294"/>
       <c r="O297" s="2" t="s">
         <v>432</v>
       </c>
@@ -38210,10 +38223,10 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="M298" s="188" t="s">
+      <c r="M298" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="N298" s="189"/>
+      <c r="N298" s="294"/>
       <c r="O298" s="2" t="s">
         <v>432</v>
       </c>
@@ -38358,10 +38371,10 @@
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="M300" s="166" t="s">
+      <c r="M300" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="N300" s="167"/>
+      <c r="N300" s="296"/>
       <c r="O300" s="2" t="s">
         <v>454</v>
       </c>
@@ -38431,10 +38444,10 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="M301" s="176" t="s">
+      <c r="M301" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N301" s="177"/>
+      <c r="N301" s="286"/>
       <c r="O301" s="2" t="s">
         <v>425</v>
       </c>
@@ -38504,10 +38517,10 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="M302" s="176" t="s">
+      <c r="M302" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N302" s="177"/>
+      <c r="N302" s="286"/>
       <c r="O302" s="2" t="s">
         <v>425</v>
       </c>
@@ -39102,10 +39115,10 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="M310" s="184" t="s">
+      <c r="M310" s="297" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="185"/>
+      <c r="N310" s="298"/>
       <c r="O310" s="2" t="s">
         <v>427</v>
       </c>
@@ -39175,10 +39188,10 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="M311" s="184" t="s">
+      <c r="M311" s="297" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="185"/>
+      <c r="N311" s="298"/>
       <c r="O311" s="2" t="s">
         <v>427</v>
       </c>
@@ -39248,10 +39261,10 @@
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="M312" s="184" t="s">
+      <c r="M312" s="297" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="185"/>
+      <c r="N312" s="298"/>
       <c r="O312" s="2" t="s">
         <v>427</v>
       </c>
@@ -39321,10 +39334,10 @@
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="M313" s="184" t="s">
+      <c r="M313" s="297" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="185"/>
+      <c r="N313" s="298"/>
       <c r="O313" s="2" t="s">
         <v>427</v>
       </c>
@@ -39394,10 +39407,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M314" s="186" t="s">
+      <c r="M314" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="187"/>
+      <c r="N314" s="284"/>
       <c r="O314" s="2" t="s">
         <v>421</v>
       </c>
@@ -39467,10 +39480,10 @@
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="M315" s="186" t="s">
+      <c r="M315" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="N315" s="187"/>
+      <c r="N315" s="284"/>
       <c r="O315" s="2" t="s">
         <v>421</v>
       </c>
@@ -39615,10 +39628,10 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="M317" s="180" t="s">
+      <c r="M317" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="N317" s="181"/>
+      <c r="N317" s="302"/>
       <c r="O317" s="2" t="s">
         <v>426</v>
       </c>
@@ -39688,10 +39701,10 @@
         <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="M318" s="180" t="s">
+      <c r="M318" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="N318" s="181"/>
+      <c r="N318" s="302"/>
       <c r="O318" s="2" t="s">
         <v>426</v>
       </c>
@@ -39911,10 +39924,10 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="M321" s="158" t="s">
+      <c r="M321" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N321" s="159"/>
+      <c r="N321" s="290"/>
       <c r="O321" s="2" t="s">
         <v>420</v>
       </c>
@@ -39984,10 +39997,10 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="M322" s="158" t="s">
+      <c r="M322" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N322" s="159"/>
+      <c r="N322" s="290"/>
       <c r="O322" s="2" t="s">
         <v>420</v>
       </c>
@@ -40207,10 +40220,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M325" s="182" t="s">
+      <c r="M325" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="N325" s="183"/>
+      <c r="N325" s="288"/>
       <c r="O325" s="2" t="s">
         <v>418</v>
       </c>
@@ -40280,10 +40293,10 @@
         <f t="shared" si="17"/>
         <v>145</v>
       </c>
-      <c r="M326" s="162" t="s">
+      <c r="M326" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="N326" s="163"/>
+      <c r="N326" s="300"/>
       <c r="O326" s="2" t="s">
         <v>434</v>
       </c>
@@ -40353,10 +40366,10 @@
         <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="M327" s="162" t="s">
+      <c r="M327" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="N327" s="163"/>
+      <c r="N327" s="300"/>
       <c r="O327" s="2" t="s">
         <v>434</v>
       </c>
@@ -40426,10 +40439,10 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="M328" s="176" t="s">
+      <c r="M328" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N328" s="177"/>
+      <c r="N328" s="286"/>
       <c r="O328" s="2" t="s">
         <v>425</v>
       </c>
@@ -40499,10 +40512,10 @@
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="M329" s="160" t="s">
+      <c r="M329" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="N329" s="161"/>
+      <c r="N329" s="304"/>
       <c r="O329" s="2" t="s">
         <v>428</v>
       </c>
@@ -40722,10 +40735,10 @@
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="M332" s="178" t="s">
+      <c r="M332" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="N332" s="179"/>
+      <c r="N332" s="270"/>
       <c r="O332" s="2" t="s">
         <v>443</v>
       </c>
@@ -41020,10 +41033,10 @@
         <f t="shared" si="17"/>
         <v>124</v>
       </c>
-      <c r="M336" s="176" t="s">
+      <c r="M336" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N336" s="177"/>
+      <c r="N336" s="286"/>
       <c r="O336" s="2" t="s">
         <v>425</v>
       </c>
@@ -41093,10 +41106,10 @@
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="M337" s="180" t="s">
+      <c r="M337" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="N337" s="181"/>
+      <c r="N337" s="302"/>
       <c r="O337" s="2" t="s">
         <v>426</v>
       </c>
@@ -41466,10 +41479,10 @@
         <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="M342" s="158" t="s">
+      <c r="M342" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N342" s="159"/>
+      <c r="N342" s="290"/>
       <c r="O342" s="2" t="s">
         <v>420</v>
       </c>
@@ -42064,10 +42077,10 @@
         <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="M350" s="158" t="s">
+      <c r="M350" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N350" s="159"/>
+      <c r="N350" s="290"/>
       <c r="O350" s="2" t="s">
         <v>420</v>
       </c>
@@ -42137,10 +42150,10 @@
         <f t="shared" si="17"/>
         <v>242</v>
       </c>
-      <c r="M351" s="158" t="s">
+      <c r="M351" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N351" s="159"/>
+      <c r="N351" s="290"/>
       <c r="O351" s="2" t="s">
         <v>420</v>
       </c>
@@ -42216,10 +42229,10 @@
         <f t="shared" si="17"/>
         <v>139</v>
       </c>
-      <c r="M352" s="176" t="s">
+      <c r="M352" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N352" s="177"/>
+      <c r="N352" s="286"/>
       <c r="O352" s="2" t="s">
         <v>425</v>
       </c>
@@ -42289,10 +42302,10 @@
         <f t="shared" si="17"/>
         <v>212</v>
       </c>
-      <c r="M353" s="176" t="s">
+      <c r="M353" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="N353" s="177"/>
+      <c r="N353" s="286"/>
       <c r="O353" s="2" t="s">
         <v>425</v>
       </c>
@@ -42362,10 +42375,10 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="M354" s="172" t="s">
+      <c r="M354" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="N354" s="173"/>
+      <c r="N354" s="308"/>
       <c r="O354" s="2" t="s">
         <v>459</v>
       </c>
@@ -42435,10 +42448,10 @@
         <f t="shared" si="17"/>
         <v>127</v>
       </c>
-      <c r="M355" s="172" t="s">
+      <c r="M355" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="N355" s="173"/>
+      <c r="N355" s="308"/>
       <c r="O355" s="2" t="s">
         <v>459</v>
       </c>
@@ -42508,10 +42521,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M356" s="172" t="s">
+      <c r="M356" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="N356" s="173"/>
+      <c r="N356" s="308"/>
       <c r="O356" s="2" t="s">
         <v>459</v>
       </c>
@@ -42581,10 +42594,10 @@
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="M357" s="172" t="s">
+      <c r="M357" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="N357" s="173"/>
+      <c r="N357" s="308"/>
       <c r="O357" s="2" t="s">
         <v>459</v>
       </c>
@@ -42729,10 +42742,10 @@
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="M359" s="162" t="s">
+      <c r="M359" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="N359" s="163"/>
+      <c r="N359" s="300"/>
       <c r="O359" s="2" t="s">
         <v>434</v>
       </c>
@@ -42802,10 +42815,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="M360" s="174" t="s">
+      <c r="M360" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="N360" s="175"/>
+      <c r="N360" s="292"/>
       <c r="O360" s="2" t="s">
         <v>457</v>
       </c>
@@ -42875,10 +42888,10 @@
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="M361" s="162" t="s">
+      <c r="M361" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="N361" s="163"/>
+      <c r="N361" s="300"/>
       <c r="O361" s="2" t="s">
         <v>434</v>
       </c>
@@ -42948,10 +42961,10 @@
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="M362" s="168" t="s">
+      <c r="M362" s="305" t="s">
         <v>24</v>
       </c>
-      <c r="N362" s="169"/>
+      <c r="N362" s="306"/>
       <c r="O362" s="2" t="s">
         <v>495</v>
       </c>
@@ -43021,10 +43034,10 @@
         <f t="shared" si="17"/>
         <v>162</v>
       </c>
-      <c r="M363" s="168" t="s">
+      <c r="M363" s="305" t="s">
         <v>24</v>
       </c>
-      <c r="N363" s="169"/>
+      <c r="N363" s="306"/>
       <c r="O363" s="2" t="s">
         <v>495</v>
       </c>
@@ -43319,10 +43332,10 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="M367" s="158" t="s">
+      <c r="M367" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N367" s="159"/>
+      <c r="N367" s="290"/>
       <c r="O367" s="2" t="s">
         <v>420</v>
       </c>
@@ -43392,10 +43405,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M368" s="158" t="s">
+      <c r="M368" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N368" s="159"/>
+      <c r="N368" s="290"/>
       <c r="O368" s="2" t="s">
         <v>420</v>
       </c>
@@ -43465,10 +43478,10 @@
         <f t="shared" si="17"/>
         <v>194</v>
       </c>
-      <c r="M369" s="158" t="s">
+      <c r="M369" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N369" s="159"/>
+      <c r="N369" s="290"/>
       <c r="O369" s="2" t="s">
         <v>420</v>
       </c>
@@ -43613,10 +43626,10 @@
         <f t="shared" si="17"/>
         <v>134</v>
       </c>
-      <c r="M371" s="158" t="s">
+      <c r="M371" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N371" s="159"/>
+      <c r="N371" s="290"/>
       <c r="O371" s="2" t="s">
         <v>420</v>
       </c>
@@ -43686,10 +43699,10 @@
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="M372" s="164" t="s">
+      <c r="M372" s="309" t="s">
         <v>26</v>
       </c>
-      <c r="N372" s="165"/>
+      <c r="N372" s="310"/>
       <c r="O372" s="2" t="s">
         <v>450</v>
       </c>
@@ -43759,10 +43772,10 @@
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-      <c r="M373" s="164" t="s">
+      <c r="M373" s="309" t="s">
         <v>26</v>
       </c>
-      <c r="N373" s="165"/>
+      <c r="N373" s="310"/>
       <c r="O373" s="2" t="s">
         <v>450</v>
       </c>
@@ -44132,10 +44145,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M378" s="166" t="s">
+      <c r="M378" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="N378" s="167"/>
+      <c r="N378" s="296"/>
       <c r="O378" s="2" t="s">
         <v>454</v>
       </c>
@@ -44205,10 +44218,10 @@
         <f t="shared" si="17"/>
         <v>356</v>
       </c>
-      <c r="M379" s="168" t="s">
+      <c r="M379" s="305" t="s">
         <v>24</v>
       </c>
-      <c r="N379" s="169"/>
+      <c r="N379" s="306"/>
       <c r="O379" s="2" t="s">
         <v>495</v>
       </c>
@@ -44278,10 +44291,10 @@
         <f t="shared" si="17"/>
         <v>285</v>
       </c>
-      <c r="M380" s="170" t="s">
+      <c r="M380" s="311" t="s">
         <v>23</v>
       </c>
-      <c r="N380" s="171"/>
+      <c r="N380" s="312"/>
       <c r="O380" s="2" t="s">
         <v>498</v>
       </c>
@@ -44498,10 +44511,10 @@
       <c r="L383" s="2">
         <v>251</v>
       </c>
-      <c r="M383" s="158" t="s">
+      <c r="M383" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="N383" s="159"/>
+      <c r="N383" s="290"/>
       <c r="O383" s="2" t="s">
         <v>420</v>
       </c>
@@ -44574,10 +44587,10 @@
       <c r="L384" s="2">
         <v>251</v>
       </c>
-      <c r="M384" s="160" t="s">
+      <c r="M384" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="N384" s="161"/>
+      <c r="N384" s="304"/>
       <c r="O384" s="2" t="s">
         <v>428</v>
       </c>
@@ -44794,10 +44807,10 @@
         <f t="shared" ref="L387:L445" si="19">ROUND((1+(H387-75)/500)*(ROUND(0.25*(7*MAX(G387,E387)+MIN(G387,E387)),0)),0)</f>
         <v>115</v>
       </c>
-      <c r="M387" s="162" t="s">
+      <c r="M387" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="N387" s="163"/>
+      <c r="N387" s="300"/>
       <c r="O387" s="2" t="s">
         <v>434</v>
       </c>
@@ -70712,127 +70725,73 @@
       <c r="A810" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="210">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M244:N244"/>
-    <mergeCell ref="M245:N245"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M237:N237"/>
-    <mergeCell ref="M240:N240"/>
-    <mergeCell ref="M241:N241"/>
-    <mergeCell ref="M242:N242"/>
-    <mergeCell ref="M243:N243"/>
-    <mergeCell ref="M232:N232"/>
-    <mergeCell ref="M233:N233"/>
-    <mergeCell ref="M234:N234"/>
-    <mergeCell ref="M225:N225"/>
+  <mergeCells count="209">
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M266:N266"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="M269:N269"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M262:N262"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="M264:N264"/>
+    <mergeCell ref="M265:N265"/>
     <mergeCell ref="M238:N238"/>
     <mergeCell ref="M246:N246"/>
     <mergeCell ref="M253:N253"/>
@@ -70857,72 +70816,125 @@
     <mergeCell ref="M203:N203"/>
     <mergeCell ref="M205:N205"/>
     <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M266:N266"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="M269:N269"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M262:N262"/>
-    <mergeCell ref="M263:N263"/>
-    <mergeCell ref="M264:N264"/>
-    <mergeCell ref="M265:N265"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M244:N244"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M237:N237"/>
+    <mergeCell ref="M240:N240"/>
+    <mergeCell ref="M241:N241"/>
+    <mergeCell ref="M242:N242"/>
+    <mergeCell ref="M243:N243"/>
+    <mergeCell ref="M232:N232"/>
+    <mergeCell ref="M233:N233"/>
+    <mergeCell ref="M234:N234"/>
+    <mergeCell ref="M225:N225"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M651:N720 M388:N641 M722:N808">
@@ -71382,3007 +71394,3008 @@
     <hyperlink ref="M121" r:id="rId169" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
     <hyperlink ref="M122" r:id="rId170" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
     <hyperlink ref="N122" r:id="rId171" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M123" r:id="rId172" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M124" r:id="rId173" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N124" r:id="rId174" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M125" r:id="rId175" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="N125" r:id="rId176" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M126" r:id="rId177" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M127" r:id="rId178" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M128" r:id="rId179" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="M129" r:id="rId180" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M130" r:id="rId181" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M131" r:id="rId182" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N131" r:id="rId183" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M132" r:id="rId184" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N132" r:id="rId185" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="M133" r:id="rId186" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M134" r:id="rId187" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M135" r:id="rId188" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M136" r:id="rId189" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M137" r:id="rId190" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M138" r:id="rId191" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M139" r:id="rId192" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N139" r:id="rId193" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M140" r:id="rId194" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N140" r:id="rId195" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M141" r:id="rId196" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N141" r:id="rId197" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M142" r:id="rId198" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N142" r:id="rId199" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M143" r:id="rId200" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N143" r:id="rId201" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M144" r:id="rId202" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M145" r:id="rId203" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="N145" r:id="rId204" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M146" r:id="rId205" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="N146" r:id="rId206" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M147" r:id="rId207" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="N147" r:id="rId208" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M148" r:id="rId209" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="M149" r:id="rId210" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="M150" r:id="rId211" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="N150" r:id="rId212" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M151" r:id="rId213" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M152" r:id="rId214" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M153" r:id="rId215" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M154" r:id="rId216" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M155" r:id="rId217" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M156" r:id="rId218" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M157" r:id="rId219" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M158" r:id="rId220" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M159" r:id="rId221" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M160" r:id="rId222" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M161" r:id="rId223" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M162" r:id="rId224" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M163" r:id="rId225" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M164" r:id="rId226" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="N164" r:id="rId227" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M165" r:id="rId228" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="N165" r:id="rId229" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M166" r:id="rId230" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N166" r:id="rId231" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M167" r:id="rId232" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N167" r:id="rId233" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M168" r:id="rId234" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N168" r:id="rId235" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="M169" r:id="rId236" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N169" r:id="rId237" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="M170" r:id="rId238" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="N170" r:id="rId239" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M171" r:id="rId240" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N171" r:id="rId241" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M172" r:id="rId242" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N172" r:id="rId243" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M173" r:id="rId244" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M174" r:id="rId245" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M175" r:id="rId246" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M176" r:id="rId247" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M177" r:id="rId248" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="N177" r:id="rId249" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M178" r:id="rId250" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="N178" r:id="rId251" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M179" r:id="rId252" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="N179" r:id="rId253" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M180" r:id="rId254" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M181" r:id="rId255" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M182" r:id="rId256" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M183" r:id="rId257" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M184" r:id="rId258" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M185" r:id="rId259" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M186" r:id="rId260" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M187" r:id="rId261" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M188" r:id="rId262" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="N188" r:id="rId263" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M189" r:id="rId264" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="N189" r:id="rId265" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M190" r:id="rId266" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="N190" r:id="rId267" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M191" r:id="rId268" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M192" r:id="rId269" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M193" r:id="rId270" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M194" r:id="rId271" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N194" r:id="rId272" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M195" r:id="rId273" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N195" r:id="rId274" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M196" r:id="rId275" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N196" r:id="rId276" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M197" r:id="rId277" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M198" r:id="rId278" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M199" r:id="rId279" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="N199" r:id="rId280" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M200" r:id="rId281" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N200" r:id="rId282" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M201" r:id="rId283" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
-    <hyperlink ref="M202" r:id="rId284" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M203" r:id="rId285" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M204" r:id="rId286" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="N204" r:id="rId287" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M205" r:id="rId288" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="M206" r:id="rId289" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N206" r:id="rId290" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="M207" r:id="rId291" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M208" r:id="rId292" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="N208" r:id="rId293" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M209" r:id="rId294" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N209" r:id="rId295" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M210" r:id="rId296" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M211" r:id="rId297" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M212" r:id="rId298" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N212" r:id="rId299" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="M213" r:id="rId300" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N213" r:id="rId301" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="M214" r:id="rId302" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N214" r:id="rId303" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M215" r:id="rId304" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N215" r:id="rId305" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="M216" r:id="rId306" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="N216" r:id="rId307" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="M217" r:id="rId308" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M218" r:id="rId309" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M219" r:id="rId310" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M220" r:id="rId311" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="N220" r:id="rId312" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M221" r:id="rId313" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="N221" r:id="rId314" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M222" r:id="rId315" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="N222" r:id="rId316" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M223" r:id="rId317" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N223" r:id="rId318" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M224" r:id="rId319" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M225" r:id="rId320" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M226" r:id="rId321" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="N226" r:id="rId322" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M227" r:id="rId323" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N227" r:id="rId324" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M228" r:id="rId325" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N228" r:id="rId326" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M229" r:id="rId327" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="N229" r:id="rId328" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M230" r:id="rId329" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="N230" r:id="rId330" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M231" r:id="rId331" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N231" r:id="rId332" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="M232" r:id="rId333" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M233" r:id="rId334" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M234" r:id="rId335" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M235" r:id="rId336" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M236" r:id="rId337" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M237" r:id="rId338" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="M238" r:id="rId339" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="M239" r:id="rId340" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="N239" r:id="rId341" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M240" r:id="rId342" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M241" r:id="rId343" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M242" r:id="rId344" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M243" r:id="rId345" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M244" r:id="rId346" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M245" r:id="rId347" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M246" r:id="rId348" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M247" r:id="rId349" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N247" r:id="rId350" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M248" r:id="rId351" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N248" r:id="rId352" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M249" r:id="rId353" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N249" r:id="rId354" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M250" r:id="rId355" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="N250" r:id="rId356" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M251" r:id="rId357" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="N251" r:id="rId358" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M252" r:id="rId359" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="N252" r:id="rId360" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M253" r:id="rId361" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M254" r:id="rId362" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M255" r:id="rId363" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M256" r:id="rId364" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M257" r:id="rId365" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="N257" r:id="rId366" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="M258" r:id="rId367" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="N258" r:id="rId368" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="M259" r:id="rId369" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M260" r:id="rId370" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N260" r:id="rId371" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M261" r:id="rId372" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N261" r:id="rId373" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M262" r:id="rId374" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M263" r:id="rId375" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M264" r:id="rId376" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M265" r:id="rId377" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M266" r:id="rId378" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="M267" r:id="rId379" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="M268" r:id="rId380" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N268" r:id="rId381" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M269" r:id="rId382" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="M270" r:id="rId383" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N270" r:id="rId384" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="M271" r:id="rId385" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N271" r:id="rId386" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M272" r:id="rId387" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N272" r:id="rId388" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M273" r:id="rId389" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N273" r:id="rId390" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M274" r:id="rId391" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M275" r:id="rId392" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="N275" r:id="rId393" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M276" r:id="rId394" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="N276" r:id="rId395" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M277" r:id="rId396" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="N277" r:id="rId397" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M278" r:id="rId398" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="N278" r:id="rId399" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M279" r:id="rId400" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N279" r:id="rId401" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M280" r:id="rId402" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N280" r:id="rId403" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M281" r:id="rId404" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="N281" r:id="rId405" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
-    <hyperlink ref="M282" r:id="rId406" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="N282" r:id="rId407" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
-    <hyperlink ref="M283" r:id="rId408" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="N283" r:id="rId409" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
-    <hyperlink ref="M284" r:id="rId410" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N284" r:id="rId411" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M285" r:id="rId412" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N285" r:id="rId413" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M286" r:id="rId414" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M287" r:id="rId415" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="N287" r:id="rId416" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="M288" r:id="rId417" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M289" r:id="rId418" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M290" r:id="rId419" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M291" r:id="rId420" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N291" r:id="rId421" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M292" r:id="rId422" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N292" r:id="rId423" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M293" r:id="rId424" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="N293" r:id="rId425" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
-    <hyperlink ref="M294" r:id="rId426" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M295" r:id="rId427" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M296" r:id="rId428" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M297" r:id="rId429" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="M298" r:id="rId430" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="M299" r:id="rId431" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="N299" r:id="rId432" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
-    <hyperlink ref="M300" r:id="rId433" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M301" r:id="rId434" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M302" r:id="rId435" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M303" r:id="rId436" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="N303" r:id="rId437" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
-    <hyperlink ref="M304" r:id="rId438" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N304" r:id="rId439" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
-    <hyperlink ref="M305" r:id="rId440" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N305" r:id="rId441" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M306" r:id="rId442" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N306" r:id="rId443" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M307" r:id="rId444" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N307" r:id="rId445" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M308" r:id="rId446" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="N308" r:id="rId447" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M309" r:id="rId448" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
-    <hyperlink ref="N309" r:id="rId449" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M310" r:id="rId450" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M311" r:id="rId451" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M312" r:id="rId452" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M313" r:id="rId453" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
-    <hyperlink ref="M314" r:id="rId454" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="M315" r:id="rId455" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="M316" r:id="rId456" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="N316" r:id="rId457" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="M317" r:id="rId458" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="M318" r:id="rId459" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="M319" r:id="rId460" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N319" r:id="rId461" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M320" r:id="rId462" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N320" r:id="rId463" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M321" r:id="rId464" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M322" r:id="rId465" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M323" r:id="rId466" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="N323" r:id="rId467" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M324" r:id="rId468" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="N324" r:id="rId469" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M325" r:id="rId470" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
-    <hyperlink ref="M326" r:id="rId471" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M327" r:id="rId472" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M328" r:id="rId473" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M329" r:id="rId474" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M330" r:id="rId475" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="N330" r:id="rId476" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="M331" r:id="rId477" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="N331" r:id="rId478" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="M332" r:id="rId479" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M333" r:id="rId480" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="N333" r:id="rId481" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M334" r:id="rId482" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="N334" r:id="rId483" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M335" r:id="rId484" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="N335" r:id="rId485" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M336" r:id="rId486" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M337" r:id="rId487" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="M338" r:id="rId488" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N338" r:id="rId489" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M339" r:id="rId490" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N339" r:id="rId491" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M340" r:id="rId492" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N340" r:id="rId493" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M341" r:id="rId494" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N341" r:id="rId495" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M342" r:id="rId496" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M343" r:id="rId497" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N343" r:id="rId498" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M344" r:id="rId499" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="N344" r:id="rId500" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M345" r:id="rId501" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="N345" r:id="rId502" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M346" r:id="rId503" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N346" r:id="rId504" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M347" r:id="rId505" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N347" r:id="rId506" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="M348" r:id="rId507" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N348" r:id="rId508" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="M349" r:id="rId509" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="N349" r:id="rId510" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
-    <hyperlink ref="M350" r:id="rId511" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M351" r:id="rId512" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M352" r:id="rId513" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M353" r:id="rId514" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
-    <hyperlink ref="M354" r:id="rId515" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
-    <hyperlink ref="M355" r:id="rId516" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
-    <hyperlink ref="M356" r:id="rId517" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
-    <hyperlink ref="M357" r:id="rId518" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
-    <hyperlink ref="M358" r:id="rId519" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
-    <hyperlink ref="N358" r:id="rId520" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M359" r:id="rId521" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M360" r:id="rId522" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
-    <hyperlink ref="M361" r:id="rId523" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M362" r:id="rId524" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="M363" r:id="rId525" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="M364" r:id="rId526" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="N364" r:id="rId527" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M365" r:id="rId528" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="N365" r:id="rId529" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M366" r:id="rId530" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="N366" r:id="rId531" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M367" r:id="rId532" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M368" r:id="rId533" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M369" r:id="rId534" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M370" r:id="rId535" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="N370" r:id="rId536" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M371" r:id="rId537" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M372" r:id="rId538" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="M373" r:id="rId539" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="M374" r:id="rId540" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="N374" r:id="rId541" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M375" r:id="rId542" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N375" r:id="rId543" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M376" r:id="rId544" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N376" r:id="rId545" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M377" r:id="rId546" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N377" r:id="rId547" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M378" r:id="rId548" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
-    <hyperlink ref="M379" r:id="rId549" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
-    <hyperlink ref="M380" r:id="rId550" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="M381" r:id="rId551" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="N381" r:id="rId552" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M382" r:id="rId553" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="N382" r:id="rId554" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M383" r:id="rId555" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
-    <hyperlink ref="M384" r:id="rId556" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
-    <hyperlink ref="M385" r:id="rId557" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
-    <hyperlink ref="N385" r:id="rId558" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
-    <hyperlink ref="M386" r:id="rId559" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
-    <hyperlink ref="N386" r:id="rId560" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="M387" r:id="rId561" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="N2" r:id="rId562" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
-    <hyperlink ref="B387" r:id="rId563" tooltip="Deoxys (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Deoxys_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B386" r:id="rId564" tooltip="Jirachi (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jirachi_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B385" r:id="rId565" tooltip="Rayquaza (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rayquaza_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B384" r:id="rId566" tooltip="Groudon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Groudon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B383" r:id="rId567" tooltip="Kyogre (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kyogre_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B382" r:id="rId568" tooltip="Latios (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Latios_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B381" r:id="rId569" tooltip="Latias (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Latias_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B380" r:id="rId570" tooltip="Registeel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Registeel_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B379" r:id="rId571" tooltip="Regice (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Regice_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B378" r:id="rId572" tooltip="Regirock (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Regirock_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B377" r:id="rId573" tooltip="Metagross (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Metagross_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B376" r:id="rId574" tooltip="Metang (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Metang_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B375" r:id="rId575" tooltip="Beldum (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Beldum_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B374" r:id="rId576" tooltip="Salamence (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Salamence_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B373" r:id="rId577" tooltip="Shelgon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shelgon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B372" r:id="rId578" tooltip="Bagon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bagon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B371" r:id="rId579" tooltip="Luvdisc (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Luvdisc_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B370" r:id="rId580" tooltip="Relicanth (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Relicanth_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B369" r:id="rId581" tooltip="Gorebyss (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gorebyss_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B368" r:id="rId582" tooltip="Huntail (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Huntail_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B367" r:id="rId583" tooltip="Clamperl (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Clamperl_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B366" r:id="rId584" tooltip="Walrein (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Walrein_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B365" r:id="rId585" tooltip="Sealeo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sealeo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B364" r:id="rId586" tooltip="Spheal (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spheal_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B363" r:id="rId587" tooltip="Glalie (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Glalie_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B362" r:id="rId588" tooltip="Snorunt (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Snorunt_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B361" r:id="rId589" tooltip="Wynaut (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wynaut_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B360" r:id="rId590" tooltip="Absol (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Absol_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B359" r:id="rId591" tooltip="Chimecho (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chimecho_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B358" r:id="rId592" tooltip="Tropius (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tropius_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B357" r:id="rId593" tooltip="Dusclops (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dusclops_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B356" r:id="rId594" tooltip="Duskull (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Duskull_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B355" r:id="rId595" tooltip="Banette (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Banette_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B354" r:id="rId596" tooltip="Shuppet (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shuppet_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B353" r:id="rId597" tooltip="Kecleon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kecleon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B352" r:id="rId598" tooltip="Castform (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Castform_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B351" r:id="rId599" tooltip="Milotic (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Milotic_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B350" r:id="rId600" tooltip="Feebas (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Feebas_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B349" r:id="rId601" tooltip="Armaldo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Armaldo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B348" r:id="rId602" tooltip="Anorith (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Anorith_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B347" r:id="rId603" tooltip="Cradily (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cradily_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B346" r:id="rId604" tooltip="Lileep (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lileep_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B345" r:id="rId605" tooltip="Claydol (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Claydol_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B344" r:id="rId606" tooltip="Baltoy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Baltoy_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B343" r:id="rId607" tooltip="Crawdaunt (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Crawdaunt_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B342" r:id="rId608" tooltip="Corphish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Corphish_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B341" r:id="rId609" tooltip="Whiscash (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Whiscash_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B340" r:id="rId610" tooltip="Barboach (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Barboach_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B339" r:id="rId611" tooltip="Solrock (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Solrock_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B338" r:id="rId612" tooltip="Lunatone (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lunatone_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B337" r:id="rId613" tooltip="Seviper (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seviper_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B336" r:id="rId614" tooltip="Zangoose (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zangoose_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B335" r:id="rId615" tooltip="Altaria (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Altaria_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B334" r:id="rId616" tooltip="Swablu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swablu_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B333" r:id="rId617" tooltip="Cacturne (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cacturne_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B332" r:id="rId618" tooltip="Cacnea (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cacnea_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B331" r:id="rId619" tooltip="Flygon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Flygon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B330" r:id="rId620" tooltip="Vibrava (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vibrava_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B329" r:id="rId621" tooltip="Trapinch (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Trapinch_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B328" r:id="rId622" tooltip="Spinda (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spinda_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B327" r:id="rId623" tooltip="Grumpig (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Grumpig_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B326" r:id="rId624" tooltip="Spoink (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spoink_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B325" r:id="rId625" tooltip="Torkoal (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Torkoal_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B324" r:id="rId626" tooltip="Camerupt (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Camerupt_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B323" r:id="rId627" tooltip="Numel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Numel_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B322" r:id="rId628" tooltip="Wailord (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wailord_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B321" r:id="rId629" tooltip="Wailmer (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wailmer_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B320" r:id="rId630" tooltip="Sharpedo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sharpedo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B319" r:id="rId631" tooltip="Carvanha (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Carvanha_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B318" r:id="rId632" tooltip="Swalot (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swalot_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B317" r:id="rId633" tooltip="Gulpin (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gulpin_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B316" r:id="rId634" tooltip="Roselia (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Roselia_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B315" r:id="rId635" tooltip="Illumise (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Illumise_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B314" r:id="rId636" tooltip="Volbeat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Volbeat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B313" r:id="rId637" tooltip="Minun (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Minun_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B312" r:id="rId638" tooltip="Plusle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Plusle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B311" r:id="rId639" tooltip="Manectric (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Manectric_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B310" r:id="rId640" tooltip="Electrike (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Electrike_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B309" r:id="rId641" tooltip="Medicham (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Medicham_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B308" r:id="rId642" tooltip="Meditite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Meditite_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B307" r:id="rId643" tooltip="Aggron (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aggron_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B306" r:id="rId644" tooltip="Lairon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lairon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B305" r:id="rId645" tooltip="Aron (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aron_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B304" r:id="rId646" tooltip="Mawile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mawile_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B303" r:id="rId647" tooltip="Sableye (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sableye_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B302" r:id="rId648" tooltip="Delcatty (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Delcatty_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B301" r:id="rId649" tooltip="Skitty (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skitty_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B300" r:id="rId650" tooltip="Nosepass (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nosepass_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B299" r:id="rId651" tooltip="Azurill (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Azurill_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B298" r:id="rId652" tooltip="Hariyama (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hariyama_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B297" r:id="rId653" tooltip="Makuhita (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Makuhita_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B296" r:id="rId654" tooltip="Exploud (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Exploud_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B295" r:id="rId655" tooltip="Loudred (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Loudred_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B294" r:id="rId656" tooltip="Whismur (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Whismur_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B293" r:id="rId657" tooltip="Shedinja (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shedinja_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B292" r:id="rId658" tooltip="Ninjask (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ninjask_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B291" r:id="rId659" tooltip="Nincada (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nincada_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B290" r:id="rId660" tooltip="Slaking (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slaking_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B289" r:id="rId661" tooltip="Vigoroth (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vigoroth_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B288" r:id="rId662" tooltip="Slakoth (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slakoth_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B287" r:id="rId663" tooltip="Breloom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Breloom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B286" r:id="rId664" tooltip="Shroomish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shroomish_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B285" r:id="rId665" tooltip="Masquerain (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Masquerain_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B284" r:id="rId666" tooltip="Surskit (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Surskit_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B283" r:id="rId667" tooltip="Gardevoir (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gardevoir_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B282" r:id="rId668" tooltip="Kirlia (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kirlia_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B281" r:id="rId669" tooltip="Ralts (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ralts_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B280" r:id="rId670" tooltip="Pelipper (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pelipper_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B279" r:id="rId671" tooltip="Wingull (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wingull_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B278" r:id="rId672" tooltip="Swellow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swellow_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B277" r:id="rId673" tooltip="Taillow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Taillow_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B276" r:id="rId674" tooltip="Shiftry (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shiftry_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B275" r:id="rId675" tooltip="Nuzleaf (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nuzleaf_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B274" r:id="rId676" tooltip="Seedot (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seedot_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B273" r:id="rId677" tooltip="Ludicolo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ludicolo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B272" r:id="rId678" tooltip="Lombre (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lombre_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B271" r:id="rId679" tooltip="Lotad (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lotad_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B270" r:id="rId680" tooltip="Dustox (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dustox_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B269" r:id="rId681" tooltip="Cascoon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cascoon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B268" r:id="rId682" tooltip="Beautifly (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Beautifly_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B267" r:id="rId683" tooltip="Silcoon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Silcoon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B266" r:id="rId684" tooltip="Wurmple (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wurmple_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B265" r:id="rId685" tooltip="Linoone (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Linoone_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B264" r:id="rId686" tooltip="Zigzagoon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zigzagoon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B263" r:id="rId687" tooltip="Mightyena (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mightyena_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B262" r:id="rId688" tooltip="Poochyena (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Poochyena_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B261" r:id="rId689" tooltip="Swampert (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swampert_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B260" r:id="rId690" tooltip="Marshtomp (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Marshtomp_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B259" r:id="rId691" tooltip="Mudkip (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mudkip_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B258" r:id="rId692" tooltip="Blaziken (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Blaziken_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B257" r:id="rId693" tooltip="Combusken (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Combusken_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B256" r:id="rId694" tooltip="Torchic (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Torchic_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B255" r:id="rId695" tooltip="Sceptile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sceptile_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B254" r:id="rId696" tooltip="Grovyle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Grovyle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B253" r:id="rId697" tooltip="Treecko (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Treecko_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B252" r:id="rId698" tooltip="Celebi (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Celebi_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B251" r:id="rId699" tooltip="Ho-Oh (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ho-Oh_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B250" r:id="rId700" tooltip="Lugia (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lugia_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B249" r:id="rId701" tooltip="Tyranitar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tyranitar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B248" r:id="rId702" tooltip="Pupitar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pupitar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B247" r:id="rId703" tooltip="Larvitar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Larvitar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B246" r:id="rId704" tooltip="Suicune (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Suicune_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B245" r:id="rId705" tooltip="Entei (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Entei_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B244" r:id="rId706" tooltip="Raikou (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Raikou_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B243" r:id="rId707" tooltip="Blissey (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Blissey_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B242" r:id="rId708" tooltip="Miltank (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Miltank_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B241" r:id="rId709" tooltip="Magby (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magby_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B240" r:id="rId710" tooltip="Elekid (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Elekid_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B239" r:id="rId711" tooltip="Smoochum (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Smoochum_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B238" r:id="rId712" tooltip="Hitmontop (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hitmontop_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B237" r:id="rId713" tooltip="Tyrogue (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tyrogue_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B236" r:id="rId714" tooltip="Smeargle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Smeargle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B235" r:id="rId715" tooltip="Stantler (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Stantler_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B234" r:id="rId716" tooltip="Porygon2 (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Porygon2_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B233" r:id="rId717" tooltip="Donphan (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Donphan_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B232" r:id="rId718" tooltip="Phanpy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Phanpy_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B231" r:id="rId719" tooltip="Kingdra (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kingdra_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B230" r:id="rId720" tooltip="Houndoom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Houndoom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B229" r:id="rId721" tooltip="Houndour (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Houndour_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B228" r:id="rId722" tooltip="Skarmory (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skarmory_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B227" r:id="rId723" tooltip="Mantine (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mantine_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B226" r:id="rId724" tooltip="Delibird (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Delibird_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B225" r:id="rId725" tooltip="Octillery (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Octillery_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B224" r:id="rId726" tooltip="Remoraid (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Remoraid_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B223" r:id="rId727" tooltip="Corsola (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Corsola_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B222" r:id="rId728" tooltip="Piloswine (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Piloswine_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B221" r:id="rId729" tooltip="Swinub (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swinub_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B220" r:id="rId730" tooltip="Magcargo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magcargo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B219" r:id="rId731" tooltip="Slugma (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slugma_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B218" r:id="rId732" tooltip="Ursaring (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ursaring_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B217" r:id="rId733" tooltip="Teddiursa (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Teddiursa_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B216" r:id="rId734" tooltip="Sneasel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sneasel_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B215" r:id="rId735" tooltip="Heracross (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Heracross_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B214" r:id="rId736" tooltip="Shuckle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shuckle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B213" r:id="rId737" tooltip="Scizor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Scizor_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B212" r:id="rId738" tooltip="Qwilfish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Qwilfish_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B211" r:id="rId739" tooltip="Granbull (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Granbull_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B210" r:id="rId740" tooltip="Snubbull (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Snubbull_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B209" r:id="rId741" tooltip="Steelix (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Steelix_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B208" r:id="rId742" tooltip="Gligar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gligar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B207" r:id="rId743" tooltip="Dunsparce (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dunsparce_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B206" r:id="rId744" tooltip="Forretress (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Forretress_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B205" r:id="rId745" tooltip="Pineco (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pineco_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B204" r:id="rId746" tooltip="Girafarig (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Girafarig_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B203" r:id="rId747" tooltip="Wobbuffet (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wobbuffet_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B202" r:id="rId748" tooltip="Unown (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Unown_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B201" r:id="rId749" tooltip="Misdreavus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Misdreavus_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B200" r:id="rId750" tooltip="Slowking (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slowking_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B199" r:id="rId751" tooltip="Murkrow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Murkrow_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B198" r:id="rId752" tooltip="Umbreon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Umbreon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B197" r:id="rId753" tooltip="Espeon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Espeon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B196" r:id="rId754" tooltip="Quagsire (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Quagsire_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B195" r:id="rId755" tooltip="Wooper (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wooper_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B194" r:id="rId756" tooltip="Yanma (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Yanma_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B193" r:id="rId757" tooltip="Sunflora (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sunflora_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B192" r:id="rId758" tooltip="Sunkern (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sunkern_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B191" r:id="rId759" tooltip="Aipom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aipom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B190" r:id="rId760" tooltip="Jumpluff (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jumpluff_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B189" r:id="rId761" tooltip="Skiploom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skiploom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B188" r:id="rId762" tooltip="Hoppip (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hoppip_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B187" r:id="rId763" tooltip="Politoed (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Politoed_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B186" r:id="rId764" tooltip="Sudowoodo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sudowoodo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B185" r:id="rId765" tooltip="Azumarill (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Azumarill_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B184" r:id="rId766" tooltip="Marill (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Marill_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B183" r:id="rId767" tooltip="Bellossom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bellossom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B182" r:id="rId768" tooltip="Ampharos (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ampharos_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B181" r:id="rId769" tooltip="Flaaffy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Flaaffy_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B180" r:id="rId770" tooltip="Mareep (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mareep_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B179" r:id="rId771" tooltip="Xatu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Xatu_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B178" r:id="rId772" tooltip="Natu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Natu_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B177" r:id="rId773" tooltip="Togetic (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Togetic_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B176" r:id="rId774" tooltip="Togepi (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Togepi_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B175" r:id="rId775" tooltip="Igglybuff (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Igglybuff_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B174" r:id="rId776" tooltip="Cleffa (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cleffa_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B173" r:id="rId777" tooltip="Pichu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pichu_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B172" r:id="rId778" tooltip="Lanturn (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lanturn_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B171" r:id="rId779" tooltip="Chinchou (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chinchou_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B170" r:id="rId780" tooltip="Crobat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Crobat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B169" r:id="rId781" tooltip="Ariados (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ariados_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B168" r:id="rId782" tooltip="Spinarak (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spinarak_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B167" r:id="rId783" tooltip="Ledian (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ledian_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B166" r:id="rId784" tooltip="Ledyba (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ledyba_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B165" r:id="rId785" tooltip="Noctowl (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Noctowl_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B164" r:id="rId786" tooltip="Hoothoot (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hoothoot_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B163" r:id="rId787" tooltip="Furret (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Furret_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B162" r:id="rId788" tooltip="Sentret (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sentret_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B161" r:id="rId789" tooltip="Feraligatr (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Feraligatr_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B160" r:id="rId790" tooltip="Croconaw (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Croconaw_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B159" r:id="rId791" tooltip="Totodile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Totodile_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B158" r:id="rId792" tooltip="Typhlosion (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Typhlosion_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B157" r:id="rId793" tooltip="Quilava (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Quilava_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B156" r:id="rId794" tooltip="Cyndaquil (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cyndaquil_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B155" r:id="rId795" tooltip="Meganium (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Meganium_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B154" r:id="rId796" tooltip="Bayleef (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bayleef_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B153" r:id="rId797" tooltip="Chikorita (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chikorita_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B152" r:id="rId798" tooltip="Mew (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mew_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B151" r:id="rId799" tooltip="Mewtwo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mewtwo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B150" r:id="rId800" tooltip="Dragonite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dragonite_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B149" r:id="rId801" tooltip="Dragonair (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dragonair_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B148" r:id="rId802" tooltip="Dratini (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dratini_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B147" r:id="rId803" tooltip="Moltres (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Moltres_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B146" r:id="rId804" tooltip="Zapdos (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zapdos_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B145" r:id="rId805" tooltip="Articuno (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Articuno_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B144" r:id="rId806" tooltip="Snorlax (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Snorlax_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B143" r:id="rId807" tooltip="Aerodactyl (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aerodactyl_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B142" r:id="rId808" tooltip="Kabutops (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kabutops_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B141" r:id="rId809" tooltip="Kabuto (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kabuto_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B140" r:id="rId810" tooltip="Omastar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Omastar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B139" r:id="rId811" tooltip="Omanyte (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Omanyte_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B138" r:id="rId812" tooltip="Porygon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Porygon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B137" r:id="rId813" tooltip="Flareon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Flareon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B136" r:id="rId814" tooltip="Jolteon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jolteon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B135" r:id="rId815" tooltip="Vaporeon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vaporeon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B134" r:id="rId816" tooltip="Eevee (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Eevee_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B133" r:id="rId817" tooltip="Ditto (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ditto_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B132" r:id="rId818" tooltip="Lapras (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lapras_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B131" r:id="rId819" tooltip="Gyarados (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gyarados_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B130" r:id="rId820" tooltip="Magikarp (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magikarp_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B129" r:id="rId821" tooltip="Tauros (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tauros_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B128" r:id="rId822" tooltip="Pinsir (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pinsir_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B127" r:id="rId823" tooltip="Magmar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magmar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B126" r:id="rId824" tooltip="Electabuzz (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Electabuzz_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B125" r:id="rId825" tooltip="Jynx (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jynx_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B124" r:id="rId826" tooltip="Scyther (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Scyther_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B123" r:id="rId827" tooltip="Mr. Mime (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mr._Mime_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B122" r:id="rId828" tooltip="Starmie (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Starmie_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B121" r:id="rId829" tooltip="Staryu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Staryu_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B120" r:id="rId830" tooltip="Seaking (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seaking_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B119" r:id="rId831" tooltip="Goldeen (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Goldeen_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B118" r:id="rId832" tooltip="Seadra (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seadra_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B117" r:id="rId833" tooltip="Horsea (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Horsea_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B116" r:id="rId834" tooltip="Kangaskhan (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kangaskhan_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B115" r:id="rId835" tooltip="Tangela (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tangela_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B114" r:id="rId836" tooltip="Chansey (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chansey_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B113" r:id="rId837" tooltip="Rhydon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rhydon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B112" r:id="rId838" tooltip="Rhyhorn (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rhyhorn_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B111" r:id="rId839" tooltip="Weezing (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Weezing_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B110" r:id="rId840" tooltip="Koffing (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Koffing_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B109" r:id="rId841" tooltip="Lickitung (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lickitung_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B108" r:id="rId842" tooltip="Hitmonchan (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hitmonchan_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B107" r:id="rId843" tooltip="Hitmonlee (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hitmonlee_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B106" r:id="rId844" tooltip="Marowak (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Marowak_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B105" r:id="rId845" tooltip="Cubone (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cubone_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B104" r:id="rId846" tooltip="Exeggutor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Exeggutor_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B103" r:id="rId847" tooltip="Exeggcute (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Exeggcute_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B102" r:id="rId848" tooltip="Electrode (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Electrode_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B101" r:id="rId849" tooltip="Voltorb (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Voltorb_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B100" r:id="rId850" tooltip="Kingler (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kingler_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B99" r:id="rId851" tooltip="Krabby (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Krabby_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B98" r:id="rId852" tooltip="Hypno (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hypno_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B97" r:id="rId853" tooltip="Drowzee (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Drowzee_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B96" r:id="rId854" tooltip="Onix (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Onix_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B95" r:id="rId855" tooltip="Gengar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gengar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B94" r:id="rId856" tooltip="Haunter (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Haunter_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B93" r:id="rId857" tooltip="Gastly (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gastly_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B92" r:id="rId858" tooltip="Cloyster (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cloyster_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B91" r:id="rId859" tooltip="Shellder (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shellder_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B90" r:id="rId860" tooltip="Muk (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Muk_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B89" r:id="rId861" tooltip="Grimer (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Grimer_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B88" r:id="rId862" tooltip="Dewgong (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dewgong_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B87" r:id="rId863" tooltip="Seel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seel_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B86" r:id="rId864" tooltip="Dodrio (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dodrio_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B85" r:id="rId865" tooltip="Doduo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Doduo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B84" r:id="rId866" tooltip="Farfetch'd (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Farfetch%27d_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B83" r:id="rId867" tooltip="Magneton (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magneton_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B82" r:id="rId868" tooltip="Magnemite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magnemite_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B81" r:id="rId869" tooltip="Slowbro (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slowbro_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B80" r:id="rId870" tooltip="Slowpoke (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slowpoke_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B79" r:id="rId871" tooltip="Rapidash (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rapidash_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B78" r:id="rId872" tooltip="Ponyta (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ponyta_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B77" r:id="rId873" tooltip="Golem (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Golem_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B76" r:id="rId874" tooltip="Graveler (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Graveler_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B75" r:id="rId875" tooltip="Geodude (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Geodude_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B74" r:id="rId876" tooltip="Tentacruel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tentacruel_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B73" r:id="rId877" tooltip="Tentacool (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tentacool_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B72" r:id="rId878" tooltip="Victreebel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Victreebel_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B71" r:id="rId879" tooltip="Weepinbell (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Weepinbell_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B70" r:id="rId880" tooltip="Bellsprout (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bellsprout_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B69" r:id="rId881" tooltip="Machamp (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Machamp_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B68" r:id="rId882" tooltip="Machoke (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Machoke_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B67" r:id="rId883" tooltip="Machop (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Machop_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B66" r:id="rId884" tooltip="Alakazam (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Alakazam_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B65" r:id="rId885" tooltip="Kadabra (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kadabra_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B64" r:id="rId886" tooltip="Abra (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Abra_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B63" r:id="rId887" tooltip="Poliwrath (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Poliwrath_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B62" r:id="rId888" tooltip="Poliwhirl (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Poliwhirl_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B61" r:id="rId889" tooltip="Poliwag (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Poliwag_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B60" r:id="rId890" tooltip="Arcanine (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Arcanine_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B59" r:id="rId891" tooltip="Growlithe (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Growlithe_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B58" r:id="rId892" tooltip="Primeape (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Primeape_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B57" r:id="rId893" tooltip="Mankey (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mankey_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B56" r:id="rId894" tooltip="Golduck (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Golduck_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B55" r:id="rId895" tooltip="Psyduck (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Psyduck_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B54" r:id="rId896" tooltip="Persian (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Persian_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B53" r:id="rId897" tooltip="Meowth (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Meowth_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B52" r:id="rId898" tooltip="Dugtrio (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dugtrio_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B51" r:id="rId899" tooltip="Diglett (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Diglett_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B50" r:id="rId900" tooltip="Venomoth (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Venomoth_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B49" r:id="rId901" tooltip="Venonat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Venonat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B48" r:id="rId902" tooltip="Parasect (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Parasect_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B47" r:id="rId903" tooltip="Paras (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Paras_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B46" r:id="rId904" tooltip="Vileplume (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vileplume_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B45" r:id="rId905" tooltip="Gloom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gloom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B44" r:id="rId906" tooltip="Oddish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Oddish_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B43" r:id="rId907" tooltip="Golbat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Golbat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B42" r:id="rId908" tooltip="Zubat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zubat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B41" r:id="rId909" tooltip="Wigglytuff (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wigglytuff_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B40" r:id="rId910" tooltip="Jigglypuff (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jigglypuff_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B39" r:id="rId911" tooltip="Ninetales (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ninetales_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B38" r:id="rId912" tooltip="Vulpix (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vulpix_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B37" r:id="rId913" tooltip="Clefable (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Clefable_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B36" r:id="rId914" tooltip="Clefairy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Clefairy_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B35" r:id="rId915" tooltip="Nidoking (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nidoking_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B34" r:id="rId916" tooltip="Nidorino (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nidorino_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B33" r:id="rId917" tooltip="Nidoran♂ (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nidoran%E2%99%82_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B32" r:id="rId918" tooltip="Nidoqueen (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nidoqueen_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B31" r:id="rId919" tooltip="Nidorina (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nidorina_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B30" r:id="rId920" tooltip="Nidoran♀ (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nidoran%E2%99%80_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B29" r:id="rId921" tooltip="Sandslash (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sandslash_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B28" r:id="rId922" tooltip="Sandshrew (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sandshrew_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B27" r:id="rId923" tooltip="Raichu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Raichu_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B26" r:id="rId924" tooltip="Pikachu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pikachu_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B25" r:id="rId925" tooltip="Arbok (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Arbok_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B24" r:id="rId926" tooltip="Ekans (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ekans_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B23" r:id="rId927" tooltip="Fearow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Fearow_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B22" r:id="rId928" tooltip="Spearow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spearow_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B21" r:id="rId929" tooltip="Raticate (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Raticate_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B20" r:id="rId930" tooltip="Rattata (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rattata_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B19" r:id="rId931" tooltip="Pidgeot (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pidgeot_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B18" r:id="rId932" tooltip="Pidgeotto (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pidgeotto_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B17" r:id="rId933" tooltip="Pidgey (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pidgey_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B16" r:id="rId934" tooltip="Beedrill (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Beedrill_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B15" r:id="rId935" tooltip="Kakuna (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kakuna_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B14" r:id="rId936" tooltip="Weedle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Weedle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B13" r:id="rId937" tooltip="Butterfree (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Butterfree_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B12" r:id="rId938" tooltip="Metapod (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Metapod_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B11" r:id="rId939" tooltip="Caterpie (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Caterpie_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B10" r:id="rId940" tooltip="Blastoise (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Blastoise_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B9" r:id="rId941" tooltip="Wartortle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wartortle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B8" r:id="rId942" tooltip="Squirtle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Squirtle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B7" r:id="rId943" tooltip="Charizard (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Charizard_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B6" r:id="rId944" tooltip="Charmeleon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Charmeleon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B5" r:id="rId945" tooltip="Charmander (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Charmander_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B4" r:id="rId946" tooltip="Venusaur (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Venusaur_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B3" r:id="rId947" tooltip="Ivysaur (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ivysaur_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B2" r:id="rId948" tooltip="Bulbasaur (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bulbasaur_(Pok%C3%A9mon)"/>
-    <hyperlink ref="T2" r:id="rId949" tooltip="妙蛙种子" display="https://wiki.52poke.com/wiki/%E5%A6%99%E8%9B%99%E7%A7%8D%E5%AD%90"/>
-    <hyperlink ref="T3" r:id="rId950" tooltip="妙蛙草" display="https://wiki.52poke.com/wiki/%E5%A6%99%E8%9B%99%E8%8D%89"/>
-    <hyperlink ref="T4" r:id="rId951" tooltip="妙蛙花" display="https://wiki.52poke.com/wiki/%E5%A6%99%E8%9B%99%E8%8A%B1"/>
-    <hyperlink ref="T5" r:id="rId952" tooltip="小火龙" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E7%81%AB%E9%BE%99"/>
-    <hyperlink ref="T6" r:id="rId953" tooltip="火恐龙" display="https://wiki.52poke.com/wiki/%E7%81%AB%E6%81%90%E9%BE%99"/>
-    <hyperlink ref="T7" r:id="rId954" tooltip="喷火龙" display="https://wiki.52poke.com/wiki/%E5%96%B7%E7%81%AB%E9%BE%99"/>
-    <hyperlink ref="T8" r:id="rId955" tooltip="杰尼龟" display="https://wiki.52poke.com/wiki/%E6%9D%B0%E5%B0%BC%E9%BE%9F"/>
-    <hyperlink ref="T9" r:id="rId956" tooltip="卡咪龟" display="https://wiki.52poke.com/wiki/%E5%8D%A1%E5%92%AA%E9%BE%9F"/>
-    <hyperlink ref="T10" r:id="rId957" tooltip="水箭龟" display="https://wiki.52poke.com/wiki/%E6%B0%B4%E7%AE%AD%E9%BE%9F"/>
-    <hyperlink ref="T11" r:id="rId958" tooltip="绿毛虫" display="https://wiki.52poke.com/wiki/%E7%BB%BF%E6%AF%9B%E8%99%AB"/>
-    <hyperlink ref="T12" r:id="rId959" tooltip="铁甲蛹" display="https://wiki.52poke.com/wiki/%E9%93%81%E7%94%B2%E8%9B%B9"/>
-    <hyperlink ref="T13" r:id="rId960" tooltip="巴大蝶" display="https://wiki.52poke.com/wiki/%E5%B7%B4%E5%A4%A7%E8%9D%B6"/>
-    <hyperlink ref="T14" r:id="rId961" tooltip="独角虫" display="https://wiki.52poke.com/wiki/%E7%8B%AC%E8%A7%92%E8%99%AB"/>
-    <hyperlink ref="T15" r:id="rId962" tooltip="铁壳蛹" display="https://wiki.52poke.com/wiki/%E9%93%81%E5%A3%B3%E8%9B%B9"/>
-    <hyperlink ref="T16" r:id="rId963" tooltip="大针蜂" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E9%92%88%E8%9C%82"/>
-    <hyperlink ref="T17" r:id="rId964" tooltip="波波" display="https://wiki.52poke.com/wiki/%E6%B3%A2%E6%B3%A2"/>
-    <hyperlink ref="T18" r:id="rId965" tooltip="比比鸟" display="https://wiki.52poke.com/wiki/%E6%AF%94%E6%AF%94%E9%B8%9F"/>
-    <hyperlink ref="T19" r:id="rId966" tooltip="大比鸟" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E6%AF%94%E9%B8%9F"/>
-    <hyperlink ref="T20" r:id="rId967" tooltip="小拉达" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E6%8B%89%E8%BE%BE"/>
-    <hyperlink ref="T21" r:id="rId968" tooltip="拉达" display="https://wiki.52poke.com/wiki/%E6%8B%89%E8%BE%BE"/>
-    <hyperlink ref="T22" r:id="rId969" tooltip="烈雀" display="https://wiki.52poke.com/wiki/%E7%83%88%E9%9B%80"/>
-    <hyperlink ref="T23" r:id="rId970" tooltip="大嘴雀" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E5%98%B4%E9%9B%80"/>
-    <hyperlink ref="T24" r:id="rId971" tooltip="阿柏蛇" display="https://wiki.52poke.com/wiki/%E9%98%BF%E6%9F%8F%E8%9B%87"/>
-    <hyperlink ref="T25" r:id="rId972" tooltip="阿柏怪" display="https://wiki.52poke.com/wiki/%E9%98%BF%E6%9F%8F%E6%80%AA"/>
-    <hyperlink ref="T26" r:id="rId973" tooltip="皮卡丘" display="https://wiki.52poke.com/wiki/%E7%9A%AE%E5%8D%A1%E4%B8%98"/>
-    <hyperlink ref="T27" r:id="rId974" tooltip="雷丘" display="https://wiki.52poke.com/wiki/%E9%9B%B7%E4%B8%98"/>
-    <hyperlink ref="T28" r:id="rId975" tooltip="穿山鼠" display="https://wiki.52poke.com/wiki/%E7%A9%BF%E5%B1%B1%E9%BC%A0"/>
-    <hyperlink ref="T29" r:id="rId976" tooltip="穿山王" display="https://wiki.52poke.com/wiki/%E7%A9%BF%E5%B1%B1%E7%8E%8B"/>
-    <hyperlink ref="T30" r:id="rId977" tooltip="尼多兰" display="https://wiki.52poke.com/wiki/%E5%B0%BC%E5%A4%9A%E5%85%B0"/>
-    <hyperlink ref="T31" r:id="rId978" tooltip="尼多娜" display="https://wiki.52poke.com/wiki/%E5%B0%BC%E5%A4%9A%E5%A8%9C"/>
-    <hyperlink ref="T32" r:id="rId979" tooltip="尼多后" display="https://wiki.52poke.com/wiki/%E5%B0%BC%E5%A4%9A%E5%90%8E"/>
-    <hyperlink ref="T33" r:id="rId980" tooltip="尼多朗" display="https://wiki.52poke.com/wiki/%E5%B0%BC%E5%A4%9A%E6%9C%97"/>
-    <hyperlink ref="T34" r:id="rId981" tooltip="尼多力诺" display="https://wiki.52poke.com/wiki/%E5%B0%BC%E5%A4%9A%E5%8A%9B%E8%AF%BA"/>
-    <hyperlink ref="T35" r:id="rId982" tooltip="尼多王" display="https://wiki.52poke.com/wiki/%E5%B0%BC%E5%A4%9A%E7%8E%8B"/>
-    <hyperlink ref="T36" r:id="rId983" tooltip="皮皮" display="https://wiki.52poke.com/wiki/%E7%9A%AE%E7%9A%AE"/>
-    <hyperlink ref="T37" r:id="rId984" tooltip="皮可西" display="https://wiki.52poke.com/wiki/%E7%9A%AE%E5%8F%AF%E8%A5%BF"/>
-    <hyperlink ref="T38" r:id="rId985" tooltip="六尾" display="https://wiki.52poke.com/wiki/%E5%85%AD%E5%B0%BE"/>
-    <hyperlink ref="T39" r:id="rId986" tooltip="九尾" display="https://wiki.52poke.com/wiki/%E4%B9%9D%E5%B0%BE"/>
-    <hyperlink ref="T40" r:id="rId987" tooltip="胖丁" display="https://wiki.52poke.com/wiki/%E8%83%96%E4%B8%81"/>
-    <hyperlink ref="T41" r:id="rId988" tooltip="胖可丁" display="https://wiki.52poke.com/wiki/%E8%83%96%E5%8F%AF%E4%B8%81"/>
-    <hyperlink ref="T42" r:id="rId989" tooltip="超音蝠" display="https://wiki.52poke.com/wiki/%E8%B6%85%E9%9F%B3%E8%9D%A0"/>
-    <hyperlink ref="T43" r:id="rId990" tooltip="大嘴蝠" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E5%98%B4%E8%9D%A0"/>
-    <hyperlink ref="T44" r:id="rId991" tooltip="走路草" display="https://wiki.52poke.com/wiki/%E8%B5%B0%E8%B7%AF%E8%8D%89"/>
-    <hyperlink ref="T45" r:id="rId992" tooltip="臭臭花" display="https://wiki.52poke.com/wiki/%E8%87%AD%E8%87%AD%E8%8A%B1"/>
-    <hyperlink ref="T46" r:id="rId993" tooltip="霸王花" display="https://wiki.52poke.com/wiki/%E9%9C%B8%E7%8E%8B%E8%8A%B1"/>
-    <hyperlink ref="T47" r:id="rId994" tooltip="派拉斯" display="https://wiki.52poke.com/wiki/%E6%B4%BE%E6%8B%89%E6%96%AF"/>
-    <hyperlink ref="T48" r:id="rId995" tooltip="派拉斯特" display="https://wiki.52poke.com/wiki/%E6%B4%BE%E6%8B%89%E6%96%AF%E7%89%B9"/>
-    <hyperlink ref="T49" r:id="rId996" tooltip="毛球" display="https://wiki.52poke.com/wiki/%E6%AF%9B%E7%90%83"/>
-    <hyperlink ref="T50" r:id="rId997" tooltip="摩鲁蛾" display="https://wiki.52poke.com/wiki/%E6%91%A9%E9%B2%81%E8%9B%BE"/>
-    <hyperlink ref="T51" r:id="rId998" tooltip="地鼠" display="https://wiki.52poke.com/wiki/%E5%9C%B0%E9%BC%A0"/>
-    <hyperlink ref="T52" r:id="rId999" tooltip="三地鼠" display="https://wiki.52poke.com/wiki/%E4%B8%89%E5%9C%B0%E9%BC%A0"/>
-    <hyperlink ref="T53" r:id="rId1000" tooltip="喵喵" display="https://wiki.52poke.com/wiki/%E5%96%B5%E5%96%B5"/>
-    <hyperlink ref="T54" r:id="rId1001" tooltip="猫老大" display="https://wiki.52poke.com/wiki/%E7%8C%AB%E8%80%81%E5%A4%A7"/>
-    <hyperlink ref="T55" r:id="rId1002" tooltip="可达鸭" display="https://wiki.52poke.com/wiki/%E5%8F%AF%E8%BE%BE%E9%B8%AD"/>
-    <hyperlink ref="T56" r:id="rId1003" tooltip="哥达鸭" display="https://wiki.52poke.com/wiki/%E5%93%A5%E8%BE%BE%E9%B8%AD"/>
-    <hyperlink ref="T57" r:id="rId1004" tooltip="猴怪" display="https://wiki.52poke.com/wiki/%E7%8C%B4%E6%80%AA"/>
-    <hyperlink ref="T58" r:id="rId1005" tooltip="火暴猴" display="https://wiki.52poke.com/wiki/%E7%81%AB%E6%9A%B4%E7%8C%B4"/>
-    <hyperlink ref="T59" r:id="rId1006" tooltip="卡蒂狗" display="https://wiki.52poke.com/wiki/%E5%8D%A1%E8%92%82%E7%8B%97"/>
-    <hyperlink ref="T60" r:id="rId1007" tooltip="风速狗" display="https://wiki.52poke.com/wiki/%E9%A3%8E%E9%80%9F%E7%8B%97"/>
-    <hyperlink ref="T61" r:id="rId1008" tooltip="蚊香蝌蚪" display="https://wiki.52poke.com/wiki/%E8%9A%8A%E9%A6%99%E8%9D%8C%E8%9A%AA"/>
-    <hyperlink ref="T62" r:id="rId1009" tooltip="蚊香君" display="https://wiki.52poke.com/wiki/%E8%9A%8A%E9%A6%99%E5%90%9B"/>
-    <hyperlink ref="T63" r:id="rId1010" tooltip="蚊香泳士" display="https://wiki.52poke.com/wiki/%E8%9A%8A%E9%A6%99%E6%B3%B3%E5%A3%AB"/>
-    <hyperlink ref="T64" r:id="rId1011" tooltip="凯西" display="https://wiki.52poke.com/wiki/%E5%87%AF%E8%A5%BF"/>
-    <hyperlink ref="T65" r:id="rId1012" tooltip="勇基拉" display="https://wiki.52poke.com/wiki/%E5%8B%87%E5%9F%BA%E6%8B%89"/>
-    <hyperlink ref="T66" r:id="rId1013" tooltip="胡地" display="https://wiki.52poke.com/wiki/%E8%83%A1%E5%9C%B0"/>
-    <hyperlink ref="T67" r:id="rId1014" tooltip="腕力" display="https://wiki.52poke.com/wiki/%E8%85%95%E5%8A%9B"/>
-    <hyperlink ref="T68" r:id="rId1015" tooltip="豪力" display="https://wiki.52poke.com/wiki/%E8%B1%AA%E5%8A%9B"/>
-    <hyperlink ref="T69" r:id="rId1016" tooltip="怪力" display="https://wiki.52poke.com/wiki/%E6%80%AA%E5%8A%9B"/>
-    <hyperlink ref="T70" r:id="rId1017" tooltip="喇叭芽" display="https://wiki.52poke.com/wiki/%E5%96%87%E5%8F%AD%E8%8A%BD"/>
-    <hyperlink ref="T71" r:id="rId1018" tooltip="口呆花" display="https://wiki.52poke.com/wiki/%E5%8F%A3%E5%91%86%E8%8A%B1"/>
-    <hyperlink ref="T72" r:id="rId1019" tooltip="大食花" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E9%A3%9F%E8%8A%B1"/>
-    <hyperlink ref="T73" r:id="rId1020" tooltip="玛瑙水母" display="https://wiki.52poke.com/wiki/%E7%8E%9B%E7%91%99%E6%B0%B4%E6%AF%8D"/>
-    <hyperlink ref="T74" r:id="rId1021" tooltip="毒刺水母" display="https://wiki.52poke.com/wiki/%E6%AF%92%E5%88%BA%E6%B0%B4%E6%AF%8D"/>
-    <hyperlink ref="T75" r:id="rId1022" tooltip="小拳石" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E6%8B%B3%E7%9F%B3"/>
-    <hyperlink ref="T76" r:id="rId1023" tooltip="隆隆石" display="https://wiki.52poke.com/wiki/%E9%9A%86%E9%9A%86%E7%9F%B3"/>
-    <hyperlink ref="T77" r:id="rId1024" tooltip="隆隆岩" display="https://wiki.52poke.com/wiki/%E9%9A%86%E9%9A%86%E5%B2%A9"/>
-    <hyperlink ref="T78" r:id="rId1025" tooltip="小火马" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E7%81%AB%E9%A9%AC"/>
-    <hyperlink ref="T79" r:id="rId1026" tooltip="烈焰马" display="https://wiki.52poke.com/wiki/%E7%83%88%E7%84%B0%E9%A9%AC"/>
-    <hyperlink ref="T80" r:id="rId1027" tooltip="呆呆兽" display="https://wiki.52poke.com/wiki/%E5%91%86%E5%91%86%E5%85%BD"/>
-    <hyperlink ref="T81" r:id="rId1028" tooltip="呆壳兽" display="https://wiki.52poke.com/wiki/%E5%91%86%E5%A3%B3%E5%85%BD"/>
-    <hyperlink ref="T82" r:id="rId1029" tooltip="小磁怪" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E7%A3%81%E6%80%AA"/>
-    <hyperlink ref="T83" r:id="rId1030" tooltip="三合一磁怪" display="https://wiki.52poke.com/wiki/%E4%B8%89%E5%90%88%E4%B8%80%E7%A3%81%E6%80%AA"/>
-    <hyperlink ref="T84" r:id="rId1031" tooltip="大葱鸭" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E8%91%B1%E9%B8%AD"/>
-    <hyperlink ref="T85" r:id="rId1032" tooltip="嘟嘟" display="https://wiki.52poke.com/wiki/%E5%98%9F%E5%98%9F"/>
-    <hyperlink ref="T86" r:id="rId1033" tooltip="嘟嘟利" display="https://wiki.52poke.com/wiki/%E5%98%9F%E5%98%9F%E5%88%A9"/>
-    <hyperlink ref="T87" r:id="rId1034" tooltip="小海狮" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E6%B5%B7%E7%8B%AE"/>
-    <hyperlink ref="T88" r:id="rId1035" tooltip="白海狮" display="https://wiki.52poke.com/wiki/%E7%99%BD%E6%B5%B7%E7%8B%AE"/>
-    <hyperlink ref="T89" r:id="rId1036" tooltip="臭泥" display="https://wiki.52poke.com/wiki/%E8%87%AD%E6%B3%A5"/>
-    <hyperlink ref="T90" r:id="rId1037" tooltip="臭臭泥" display="https://wiki.52poke.com/wiki/%E8%87%AD%E8%87%AD%E6%B3%A5"/>
-    <hyperlink ref="T91" r:id="rId1038" tooltip="大舌贝" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E8%88%8C%E8%B4%9D"/>
-    <hyperlink ref="T92" r:id="rId1039" tooltip="刺甲贝" display="https://wiki.52poke.com/wiki/%E5%88%BA%E7%94%B2%E8%B4%9D"/>
-    <hyperlink ref="T93" r:id="rId1040" tooltip="鬼斯" display="https://wiki.52poke.com/wiki/%E9%AC%BC%E6%96%AF"/>
-    <hyperlink ref="T94" r:id="rId1041" tooltip="鬼斯通" display="https://wiki.52poke.com/wiki/%E9%AC%BC%E6%96%AF%E9%80%9A"/>
-    <hyperlink ref="T95" r:id="rId1042" tooltip="耿鬼" display="https://wiki.52poke.com/wiki/%E8%80%BF%E9%AC%BC"/>
-    <hyperlink ref="T96" r:id="rId1043" tooltip="大岩蛇" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E5%B2%A9%E8%9B%87"/>
-    <hyperlink ref="T97" r:id="rId1044" tooltip="催眠貘" display="https://wiki.52poke.com/wiki/%E5%82%AC%E7%9C%A0%E8%B2%98"/>
-    <hyperlink ref="T98" r:id="rId1045" tooltip="引梦貘人" display="https://wiki.52poke.com/wiki/%E5%BC%95%E6%A2%A6%E8%B2%98%E4%BA%BA"/>
-    <hyperlink ref="T99" r:id="rId1046" tooltip="大钳蟹" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E9%92%B3%E8%9F%B9"/>
-    <hyperlink ref="T100" r:id="rId1047" tooltip="巨钳蟹" display="https://wiki.52poke.com/wiki/%E5%B7%A8%E9%92%B3%E8%9F%B9"/>
-    <hyperlink ref="T101" r:id="rId1048" tooltip="霹雳电球" display="https://wiki.52poke.com/wiki/%E9%9C%B9%E9%9B%B3%E7%94%B5%E7%90%83"/>
-    <hyperlink ref="T102" r:id="rId1049" tooltip="顽皮雷弹" display="https://wiki.52poke.com/wiki/%E9%A1%BD%E7%9A%AE%E9%9B%B7%E5%BC%B9"/>
-    <hyperlink ref="T103" r:id="rId1050" tooltip="蛋蛋" display="https://wiki.52poke.com/wiki/%E8%9B%8B%E8%9B%8B"/>
-    <hyperlink ref="T104" r:id="rId1051" tooltip="椰蛋树" display="https://wiki.52poke.com/wiki/%E6%A4%B0%E8%9B%8B%E6%A0%91"/>
-    <hyperlink ref="T105" r:id="rId1052" tooltip="卡拉卡拉" display="https://wiki.52poke.com/wiki/%E5%8D%A1%E6%8B%89%E5%8D%A1%E6%8B%89"/>
-    <hyperlink ref="T106" r:id="rId1053" tooltip="嘎啦嘎啦" display="https://wiki.52poke.com/wiki/%E5%98%8E%E5%95%A6%E5%98%8E%E5%95%A6"/>
-    <hyperlink ref="T107" r:id="rId1054" tooltip="飞腿郎" display="https://wiki.52poke.com/wiki/%E9%A3%9E%E8%85%BF%E9%83%8E"/>
-    <hyperlink ref="T108" r:id="rId1055" tooltip="快拳郎" display="https://wiki.52poke.com/wiki/%E5%BF%AB%E6%8B%B3%E9%83%8E"/>
-    <hyperlink ref="T109" r:id="rId1056" tooltip="大舌头" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E8%88%8C%E5%A4%B4"/>
-    <hyperlink ref="T110" r:id="rId1057" tooltip="瓦斯弹" display="https://wiki.52poke.com/wiki/%E7%93%A6%E6%96%AF%E5%BC%B9"/>
-    <hyperlink ref="T111" r:id="rId1058" tooltip="双弹瓦斯" display="https://wiki.52poke.com/wiki/%E5%8F%8C%E5%BC%B9%E7%93%A6%E6%96%AF"/>
-    <hyperlink ref="T112" r:id="rId1059" tooltip="独角犀牛" display="https://wiki.52poke.com/wiki/%E7%8B%AC%E8%A7%92%E7%8A%80%E7%89%9B"/>
-    <hyperlink ref="T113" r:id="rId1060" tooltip="钻角犀兽" display="https://wiki.52poke.com/wiki/%E9%92%BB%E8%A7%92%E7%8A%80%E5%85%BD"/>
-    <hyperlink ref="T114" r:id="rId1061" tooltip="吉利蛋" display="https://wiki.52poke.com/wiki/%E5%90%89%E5%88%A9%E8%9B%8B"/>
-    <hyperlink ref="T115" r:id="rId1062" tooltip="蔓藤怪" display="https://wiki.52poke.com/wiki/%E8%94%93%E8%97%A4%E6%80%AA"/>
-    <hyperlink ref="T116" r:id="rId1063" tooltip="袋兽" display="https://wiki.52poke.com/wiki/%E8%A2%8B%E5%85%BD"/>
-    <hyperlink ref="T117" r:id="rId1064" tooltip="墨海马" display="https://wiki.52poke.com/wiki/%E5%A2%A8%E6%B5%B7%E9%A9%AC"/>
-    <hyperlink ref="T118" r:id="rId1065" tooltip="海刺龙" display="https://wiki.52poke.com/wiki/%E6%B5%B7%E5%88%BA%E9%BE%99"/>
-    <hyperlink ref="T119" r:id="rId1066" tooltip="角金鱼" display="https://wiki.52poke.com/wiki/%E8%A7%92%E9%87%91%E9%B1%BC"/>
-    <hyperlink ref="T120" r:id="rId1067" tooltip="金鱼王" display="https://wiki.52poke.com/wiki/%E9%87%91%E9%B1%BC%E7%8E%8B"/>
-    <hyperlink ref="T121" r:id="rId1068" tooltip="海星星" display="https://wiki.52poke.com/wiki/%E6%B5%B7%E6%98%9F%E6%98%9F"/>
-    <hyperlink ref="T122" r:id="rId1069" tooltip="宝石海星" display="https://wiki.52poke.com/wiki/%E5%AE%9D%E7%9F%B3%E6%B5%B7%E6%98%9F"/>
-    <hyperlink ref="T123" r:id="rId1070" tooltip="魔墙人偶" display="https://wiki.52poke.com/wiki/%E9%AD%94%E5%A2%99%E4%BA%BA%E5%81%B6"/>
-    <hyperlink ref="T124" r:id="rId1071" tooltip="飞天螳螂" display="https://wiki.52poke.com/wiki/%E9%A3%9E%E5%A4%A9%E8%9E%B3%E8%9E%82"/>
-    <hyperlink ref="T125" r:id="rId1072" tooltip="迷唇姐" display="https://wiki.52poke.com/wiki/%E8%BF%B7%E5%94%87%E5%A7%90"/>
-    <hyperlink ref="T126" r:id="rId1073" tooltip="电击兽" display="https://wiki.52poke.com/wiki/%E7%94%B5%E5%87%BB%E5%85%BD"/>
-    <hyperlink ref="T127" r:id="rId1074" tooltip="鸭嘴火兽" display="https://wiki.52poke.com/wiki/%E9%B8%AD%E5%98%B4%E7%81%AB%E5%85%BD"/>
-    <hyperlink ref="T128" r:id="rId1075" tooltip="凯罗斯" display="https://wiki.52poke.com/wiki/%E5%87%AF%E7%BD%97%E6%96%AF"/>
-    <hyperlink ref="T129" r:id="rId1076" tooltip="肯泰罗" display="https://wiki.52poke.com/wiki/%E8%82%AF%E6%B3%B0%E7%BD%97"/>
-    <hyperlink ref="T130" r:id="rId1077" tooltip="鲤鱼王" display="https://wiki.52poke.com/wiki/%E9%B2%A4%E9%B1%BC%E7%8E%8B"/>
-    <hyperlink ref="T131" r:id="rId1078" tooltip="暴鲤龙" display="https://wiki.52poke.com/wiki/%E6%9A%B4%E9%B2%A4%E9%BE%99"/>
-    <hyperlink ref="T132" r:id="rId1079" tooltip="拉普拉斯" display="https://wiki.52poke.com/wiki/%E6%8B%89%E6%99%AE%E6%8B%89%E6%96%AF"/>
-    <hyperlink ref="T133" r:id="rId1080" tooltip="百变怪" display="https://wiki.52poke.com/wiki/%E7%99%BE%E5%8F%98%E6%80%AA"/>
-    <hyperlink ref="T134" r:id="rId1081" tooltip="伊布" display="https://wiki.52poke.com/wiki/%E4%BC%8A%E5%B8%83"/>
-    <hyperlink ref="T135" r:id="rId1082" tooltip="水伊布" display="https://wiki.52poke.com/wiki/%E6%B0%B4%E4%BC%8A%E5%B8%83"/>
-    <hyperlink ref="T136" r:id="rId1083" tooltip="雷伊布" display="https://wiki.52poke.com/wiki/%E9%9B%B7%E4%BC%8A%E5%B8%83"/>
-    <hyperlink ref="T137" r:id="rId1084" tooltip="火伊布" display="https://wiki.52poke.com/wiki/%E7%81%AB%E4%BC%8A%E5%B8%83"/>
-    <hyperlink ref="T138" r:id="rId1085" tooltip="多边兽" display="https://wiki.52poke.com/wiki/%E5%A4%9A%E8%BE%B9%E5%85%BD"/>
-    <hyperlink ref="T139" r:id="rId1086" tooltip="菊石兽" display="https://wiki.52poke.com/wiki/%E8%8F%8A%E7%9F%B3%E5%85%BD"/>
-    <hyperlink ref="T140" r:id="rId1087" tooltip="多刺菊石兽" display="https://wiki.52poke.com/wiki/%E5%A4%9A%E5%88%BA%E8%8F%8A%E7%9F%B3%E5%85%BD"/>
-    <hyperlink ref="T141" r:id="rId1088" tooltip="化石盔" display="https://wiki.52poke.com/wiki/%E5%8C%96%E7%9F%B3%E7%9B%94"/>
-    <hyperlink ref="T142" r:id="rId1089" tooltip="镰刀盔" display="https://wiki.52poke.com/wiki/%E9%95%B0%E5%88%80%E7%9B%94"/>
-    <hyperlink ref="T143" r:id="rId1090" tooltip="化石翼龙" display="https://wiki.52poke.com/wiki/%E5%8C%96%E7%9F%B3%E7%BF%BC%E9%BE%99"/>
-    <hyperlink ref="T144" r:id="rId1091" tooltip="卡比兽" display="https://wiki.52poke.com/wiki/%E5%8D%A1%E6%AF%94%E5%85%BD"/>
-    <hyperlink ref="T145" r:id="rId1092" tooltip="急冻鸟" display="https://wiki.52poke.com/wiki/%E6%80%A5%E5%86%BB%E9%B8%9F"/>
-    <hyperlink ref="T146" r:id="rId1093" tooltip="闪电鸟" display="https://wiki.52poke.com/wiki/%E9%97%AA%E7%94%B5%E9%B8%9F"/>
-    <hyperlink ref="T147" r:id="rId1094" tooltip="火焰鸟" display="https://wiki.52poke.com/wiki/%E7%81%AB%E7%84%B0%E9%B8%9F"/>
-    <hyperlink ref="T148" r:id="rId1095" tooltip="迷你龙" display="https://wiki.52poke.com/wiki/%E8%BF%B7%E4%BD%A0%E9%BE%99"/>
-    <hyperlink ref="T149" r:id="rId1096" tooltip="哈克龙" display="https://wiki.52poke.com/wiki/%E5%93%88%E5%85%8B%E9%BE%99"/>
-    <hyperlink ref="T150" r:id="rId1097" tooltip="快龙" display="https://wiki.52poke.com/wiki/%E5%BF%AB%E9%BE%99"/>
-    <hyperlink ref="T151" r:id="rId1098" tooltip="超梦" display="https://wiki.52poke.com/wiki/%E8%B6%85%E6%A2%A6"/>
-    <hyperlink ref="T152" r:id="rId1099" tooltip="梦幻" display="https://wiki.52poke.com/wiki/%E6%A2%A6%E5%B9%BB"/>
-    <hyperlink ref="T252" r:id="rId1100" tooltip="时拉比" display="https://wiki.52poke.com/wiki/%E6%97%B6%E6%8B%89%E6%AF%94"/>
-    <hyperlink ref="T251" r:id="rId1101" tooltip="凤王" display="https://wiki.52poke.com/wiki/%E5%87%A4%E7%8E%8B"/>
-    <hyperlink ref="T250" r:id="rId1102" tooltip="洛奇亚" display="https://wiki.52poke.com/wiki/%E6%B4%9B%E5%A5%87%E4%BA%9A"/>
-    <hyperlink ref="T249" r:id="rId1103" tooltip="班基拉斯" display="https://wiki.52poke.com/wiki/%E7%8F%AD%E5%9F%BA%E6%8B%89%E6%96%AF"/>
-    <hyperlink ref="T248" r:id="rId1104" tooltip="沙基拉斯" display="https://wiki.52poke.com/wiki/%E6%B2%99%E5%9F%BA%E6%8B%89%E6%96%AF"/>
-    <hyperlink ref="T247" r:id="rId1105" tooltip="幼基拉斯" display="https://wiki.52poke.com/wiki/%E5%B9%BC%E5%9F%BA%E6%8B%89%E6%96%AF"/>
-    <hyperlink ref="T246" r:id="rId1106" tooltip="水君" display="https://wiki.52poke.com/wiki/%E6%B0%B4%E5%90%9B"/>
-    <hyperlink ref="T245" r:id="rId1107" tooltip="炎帝" display="https://wiki.52poke.com/wiki/%E7%82%8E%E5%B8%9D"/>
-    <hyperlink ref="T244" r:id="rId1108" tooltip="雷公" display="https://wiki.52poke.com/wiki/%E9%9B%B7%E5%85%AC"/>
-    <hyperlink ref="T243" r:id="rId1109" tooltip="幸福蛋" display="https://wiki.52poke.com/wiki/%E5%B9%B8%E7%A6%8F%E8%9B%8B"/>
-    <hyperlink ref="T242" r:id="rId1110" tooltip="大奶罐" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E5%A5%B6%E7%BD%90"/>
-    <hyperlink ref="T241" r:id="rId1111" tooltip="鸭嘴宝宝" display="https://wiki.52poke.com/wiki/%E9%B8%AD%E5%98%B4%E5%AE%9D%E5%AE%9D"/>
-    <hyperlink ref="T240" r:id="rId1112" tooltip="电击怪" display="https://wiki.52poke.com/wiki/%E7%94%B5%E5%87%BB%E6%80%AA"/>
-    <hyperlink ref="T239" r:id="rId1113" tooltip="迷唇娃" display="https://wiki.52poke.com/wiki/%E8%BF%B7%E5%94%87%E5%A8%83"/>
-    <hyperlink ref="T238" r:id="rId1114" tooltip="战舞郎" display="https://wiki.52poke.com/wiki/%E6%88%98%E8%88%9E%E9%83%8E"/>
-    <hyperlink ref="T237" r:id="rId1115" tooltip="无畏小子" display="https://wiki.52poke.com/wiki/%E6%97%A0%E7%95%8F%E5%B0%8F%E5%AD%90"/>
-    <hyperlink ref="T236" r:id="rId1116" tooltip="图图犬" display="https://wiki.52poke.com/wiki/%E5%9B%BE%E5%9B%BE%E7%8A%AC"/>
-    <hyperlink ref="T235" r:id="rId1117" tooltip="惊角鹿" display="https://wiki.52poke.com/wiki/%E6%83%8A%E8%A7%92%E9%B9%BF"/>
-    <hyperlink ref="T234" r:id="rId1118" tooltip="多边兽Ⅱ" display="https://wiki.52poke.com/wiki/%E5%A4%9A%E8%BE%B9%E5%85%BD%E2%85%A1"/>
-    <hyperlink ref="T233" r:id="rId1119" tooltip="顿甲" display="https://wiki.52poke.com/wiki/%E9%A1%BF%E7%94%B2"/>
-    <hyperlink ref="T232" r:id="rId1120" tooltip="小小象" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E5%B0%8F%E8%B1%A1"/>
-    <hyperlink ref="T231" r:id="rId1121" tooltip="刺龙王" display="https://wiki.52poke.com/wiki/%E5%88%BA%E9%BE%99%E7%8E%8B"/>
-    <hyperlink ref="T230" r:id="rId1122" tooltip="黑鲁加" display="https://wiki.52poke.com/wiki/%E9%BB%91%E9%B2%81%E5%8A%A0"/>
-    <hyperlink ref="T229" r:id="rId1123" tooltip="戴鲁比" display="https://wiki.52poke.com/wiki/%E6%88%B4%E9%B2%81%E6%AF%94"/>
-    <hyperlink ref="T228" r:id="rId1124" tooltip="盔甲鸟" display="https://wiki.52poke.com/wiki/%E7%9B%94%E7%94%B2%E9%B8%9F"/>
-    <hyperlink ref="T227" r:id="rId1125" tooltip="巨翅飞鱼" display="https://wiki.52poke.com/wiki/%E5%B7%A8%E7%BF%85%E9%A3%9E%E9%B1%BC"/>
-    <hyperlink ref="T226" r:id="rId1126" tooltip="信使鸟" display="https://wiki.52poke.com/wiki/%E4%BF%A1%E4%BD%BF%E9%B8%9F"/>
-    <hyperlink ref="T225" r:id="rId1127" tooltip="章鱼桶" display="https://wiki.52poke.com/wiki/%E7%AB%A0%E9%B1%BC%E6%A1%B6"/>
-    <hyperlink ref="T224" r:id="rId1128" tooltip="铁炮鱼" display="https://wiki.52poke.com/wiki/%E9%93%81%E7%82%AE%E9%B1%BC"/>
-    <hyperlink ref="T223" r:id="rId1129" tooltip="太阳珊瑚" display="https://wiki.52poke.com/wiki/%E5%A4%AA%E9%98%B3%E7%8F%8A%E7%91%9A"/>
-    <hyperlink ref="T222" r:id="rId1130" tooltip="长毛猪" display="https://wiki.52poke.com/wiki/%E9%95%BF%E6%AF%9B%E7%8C%AA"/>
-    <hyperlink ref="T221" r:id="rId1131" tooltip="小山猪" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E5%B1%B1%E7%8C%AA"/>
-    <hyperlink ref="T220" r:id="rId1132" tooltip="熔岩蜗牛" display="https://wiki.52poke.com/wiki/%E7%86%94%E5%B2%A9%E8%9C%97%E7%89%9B"/>
-    <hyperlink ref="T219" r:id="rId1133" tooltip="熔岩虫" display="https://wiki.52poke.com/wiki/%E7%86%94%E5%B2%A9%E8%99%AB"/>
-    <hyperlink ref="T218" r:id="rId1134" tooltip="圈圈熊" display="https://wiki.52poke.com/wiki/%E5%9C%88%E5%9C%88%E7%86%8A"/>
-    <hyperlink ref="T217" r:id="rId1135" tooltip="熊宝宝" display="https://wiki.52poke.com/wiki/%E7%86%8A%E5%AE%9D%E5%AE%9D"/>
-    <hyperlink ref="T216" r:id="rId1136" tooltip="狃拉" display="https://wiki.52poke.com/wiki/%E7%8B%83%E6%8B%89"/>
-    <hyperlink ref="T215" r:id="rId1137" tooltip="赫拉克罗斯" display="https://wiki.52poke.com/wiki/%E8%B5%AB%E6%8B%89%E5%85%8B%E7%BD%97%E6%96%AF"/>
-    <hyperlink ref="T214" r:id="rId1138" tooltip="壶壶" display="https://wiki.52poke.com/wiki/%E5%A3%B6%E5%A3%B6"/>
-    <hyperlink ref="T213" r:id="rId1139" tooltip="巨钳螳螂" display="https://wiki.52poke.com/wiki/%E5%B7%A8%E9%92%B3%E8%9E%B3%E8%9E%82"/>
-    <hyperlink ref="T212" r:id="rId1140" tooltip="千针鱼" display="https://wiki.52poke.com/wiki/%E5%8D%83%E9%92%88%E9%B1%BC"/>
-    <hyperlink ref="T211" r:id="rId1141" tooltip="布鲁皇" display="https://wiki.52poke.com/wiki/%E5%B8%83%E9%B2%81%E7%9A%87"/>
-    <hyperlink ref="T210" r:id="rId1142" tooltip="布鲁" display="https://wiki.52poke.com/wiki/%E5%B8%83%E9%B2%81"/>
-    <hyperlink ref="T209" r:id="rId1143" tooltip="大钢蛇" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E9%92%A2%E8%9B%87"/>
-    <hyperlink ref="T208" r:id="rId1144" tooltip="天蝎" display="https://wiki.52poke.com/wiki/%E5%A4%A9%E8%9D%8E"/>
-    <hyperlink ref="T207" r:id="rId1145" tooltip="土龙弟弟" display="https://wiki.52poke.com/wiki/%E5%9C%9F%E9%BE%99%E5%BC%9F%E5%BC%9F"/>
-    <hyperlink ref="T206" r:id="rId1146" tooltip="佛烈托斯" display="https://wiki.52poke.com/wiki/%E4%BD%9B%E7%83%88%E6%89%98%E6%96%AF"/>
-    <hyperlink ref="T205" r:id="rId1147" tooltip="榛果球" display="https://wiki.52poke.com/wiki/%E6%A6%9B%E6%9E%9C%E7%90%83"/>
-    <hyperlink ref="T204" r:id="rId1148" tooltip="麒麟奇" display="https://wiki.52poke.com/wiki/%E9%BA%92%E9%BA%9F%E5%A5%87"/>
-    <hyperlink ref="T203" r:id="rId1149" tooltip="果然翁" display="https://wiki.52poke.com/wiki/%E6%9E%9C%E7%84%B6%E7%BF%81"/>
-    <hyperlink ref="T202" r:id="rId1150" tooltip="未知图腾" display="https://wiki.52poke.com/wiki/%E6%9C%AA%E7%9F%A5%E5%9B%BE%E8%85%BE"/>
-    <hyperlink ref="T201" r:id="rId1151" tooltip="梦妖" display="https://wiki.52poke.com/wiki/%E6%A2%A6%E5%A6%96"/>
-    <hyperlink ref="T200" r:id="rId1152" tooltip="呆呆王" display="https://wiki.52poke.com/wiki/%E5%91%86%E5%91%86%E7%8E%8B"/>
-    <hyperlink ref="T199" r:id="rId1153" tooltip="黑暗鸦" display="https://wiki.52poke.com/wiki/%E9%BB%91%E6%9A%97%E9%B8%A6"/>
-    <hyperlink ref="T198" r:id="rId1154" tooltip="月亮伊布" display="https://wiki.52poke.com/wiki/%E6%9C%88%E4%BA%AE%E4%BC%8A%E5%B8%83"/>
-    <hyperlink ref="T197" r:id="rId1155" tooltip="太阳伊布" display="https://wiki.52poke.com/wiki/%E5%A4%AA%E9%98%B3%E4%BC%8A%E5%B8%83"/>
-    <hyperlink ref="T196" r:id="rId1156" tooltip="沼王" display="https://wiki.52poke.com/wiki/%E6%B2%BC%E7%8E%8B"/>
-    <hyperlink ref="T195" r:id="rId1157" tooltip="乌波" display="https://wiki.52poke.com/wiki/%E4%B9%8C%E6%B3%A2"/>
-    <hyperlink ref="T194" r:id="rId1158" tooltip="蜻蜻蜓" display="https://wiki.52poke.com/wiki/%E8%9C%BB%E8%9C%BB%E8%9C%93"/>
-    <hyperlink ref="T193" r:id="rId1159" tooltip="向日花怪" display="https://wiki.52poke.com/wiki/%E5%90%91%E6%97%A5%E8%8A%B1%E6%80%AA"/>
-    <hyperlink ref="T192" r:id="rId1160" tooltip="向日种子" display="https://wiki.52poke.com/wiki/%E5%90%91%E6%97%A5%E7%A7%8D%E5%AD%90"/>
-    <hyperlink ref="T191" r:id="rId1161" tooltip="长尾怪手" display="https://wiki.52poke.com/wiki/%E9%95%BF%E5%B0%BE%E6%80%AA%E6%89%8B"/>
-    <hyperlink ref="T190" r:id="rId1162" tooltip="毽子棉" display="https://wiki.52poke.com/wiki/%E6%AF%BD%E5%AD%90%E6%A3%89"/>
-    <hyperlink ref="T189" r:id="rId1163" tooltip="毽子花" display="https://wiki.52poke.com/wiki/%E6%AF%BD%E5%AD%90%E8%8A%B1"/>
-    <hyperlink ref="T188" r:id="rId1164" tooltip="毽子草" display="https://wiki.52poke.com/wiki/%E6%AF%BD%E5%AD%90%E8%8D%89"/>
-    <hyperlink ref="T187" r:id="rId1165" tooltip="蚊香蛙皇" display="https://wiki.52poke.com/wiki/%E8%9A%8A%E9%A6%99%E8%9B%99%E7%9A%87"/>
-    <hyperlink ref="T186" r:id="rId1166" tooltip="树才怪" display="https://wiki.52poke.com/wiki/%E6%A0%91%E6%89%8D%E6%80%AA"/>
-    <hyperlink ref="T185" r:id="rId1167" tooltip="玛力露丽" display="https://wiki.52poke.com/wiki/%E7%8E%9B%E5%8A%9B%E9%9C%B2%E4%B8%BD"/>
-    <hyperlink ref="T184" r:id="rId1168" tooltip="玛力露" display="https://wiki.52poke.com/wiki/%E7%8E%9B%E5%8A%9B%E9%9C%B2"/>
-    <hyperlink ref="T183" r:id="rId1169" tooltip="美丽花" display="https://wiki.52poke.com/wiki/%E7%BE%8E%E4%B8%BD%E8%8A%B1"/>
-    <hyperlink ref="T182" r:id="rId1170" tooltip="电龙" display="https://wiki.52poke.com/wiki/%E7%94%B5%E9%BE%99"/>
-    <hyperlink ref="T181" r:id="rId1171" tooltip="茸茸羊" display="https://wiki.52poke.com/wiki/%E8%8C%B8%E8%8C%B8%E7%BE%8A"/>
-    <hyperlink ref="T180" r:id="rId1172" tooltip="咩利羊" display="https://wiki.52poke.com/wiki/%E5%92%A9%E5%88%A9%E7%BE%8A"/>
-    <hyperlink ref="T179" r:id="rId1173" tooltip="天然鸟" display="https://wiki.52poke.com/wiki/%E5%A4%A9%E7%84%B6%E9%B8%9F"/>
-    <hyperlink ref="T178" r:id="rId1174" tooltip="天然雀" display="https://wiki.52poke.com/wiki/%E5%A4%A9%E7%84%B6%E9%9B%80"/>
-    <hyperlink ref="T177" r:id="rId1175" tooltip="波克基古" display="https://wiki.52poke.com/wiki/%E6%B3%A2%E5%85%8B%E5%9F%BA%E5%8F%A4"/>
-    <hyperlink ref="T176" r:id="rId1176" tooltip="波克比" display="https://wiki.52poke.com/wiki/%E6%B3%A2%E5%85%8B%E6%AF%94"/>
-    <hyperlink ref="T175" r:id="rId1177" tooltip="宝宝丁" display="https://wiki.52poke.com/wiki/%E5%AE%9D%E5%AE%9D%E4%B8%81"/>
-    <hyperlink ref="T174" r:id="rId1178" tooltip="皮宝宝" display="https://wiki.52poke.com/wiki/%E7%9A%AE%E5%AE%9D%E5%AE%9D"/>
-    <hyperlink ref="T173" r:id="rId1179" tooltip="皮丘" display="https://wiki.52poke.com/wiki/%E7%9A%AE%E4%B8%98"/>
-    <hyperlink ref="T172" r:id="rId1180" tooltip="电灯怪" display="https://wiki.52poke.com/wiki/%E7%94%B5%E7%81%AF%E6%80%AA"/>
-    <hyperlink ref="T171" r:id="rId1181" tooltip="灯笼鱼" display="https://wiki.52poke.com/wiki/%E7%81%AF%E7%AC%BC%E9%B1%BC"/>
-    <hyperlink ref="T170" r:id="rId1182" tooltip="叉字蝠" display="https://wiki.52poke.com/wiki/%E5%8F%89%E5%AD%97%E8%9D%A0"/>
-    <hyperlink ref="T169" r:id="rId1183" tooltip="阿利多斯" display="https://wiki.52poke.com/wiki/%E9%98%BF%E5%88%A9%E5%A4%9A%E6%96%AF"/>
-    <hyperlink ref="T168" r:id="rId1184" tooltip="圆丝蛛" display="https://wiki.52poke.com/wiki/%E5%9C%86%E4%B8%9D%E8%9B%9B"/>
-    <hyperlink ref="T167" r:id="rId1185" tooltip="安瓢虫" display="https://wiki.52poke.com/wiki/%E5%AE%89%E7%93%A2%E8%99%AB"/>
-    <hyperlink ref="T166" r:id="rId1186" tooltip="芭瓢虫" display="https://wiki.52poke.com/wiki/%E8%8A%AD%E7%93%A2%E8%99%AB"/>
-    <hyperlink ref="T165" r:id="rId1187" tooltip="猫头夜鹰" display="https://wiki.52poke.com/wiki/%E7%8C%AB%E5%A4%B4%E5%A4%9C%E9%B9%B0"/>
-    <hyperlink ref="T164" r:id="rId1188" tooltip="咕咕" display="https://wiki.52poke.com/wiki/%E5%92%95%E5%92%95"/>
-    <hyperlink ref="T163" r:id="rId1189" tooltip="大尾立" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E5%B0%BE%E7%AB%8B"/>
-    <hyperlink ref="T162" r:id="rId1190" tooltip="尾立" display="https://wiki.52poke.com/wiki/%E5%B0%BE%E7%AB%8B"/>
-    <hyperlink ref="T161" r:id="rId1191" tooltip="大力鳄" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E5%8A%9B%E9%B3%84"/>
-    <hyperlink ref="T160" r:id="rId1192" tooltip="蓝鳄" display="https://wiki.52poke.com/wiki/%E8%93%9D%E9%B3%84"/>
-    <hyperlink ref="T159" r:id="rId1193" tooltip="小锯鳄" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E9%94%AF%E9%B3%84"/>
-    <hyperlink ref="T158" r:id="rId1194" tooltip="火暴兽" display="https://wiki.52poke.com/wiki/%E7%81%AB%E6%9A%B4%E5%85%BD"/>
-    <hyperlink ref="T157" r:id="rId1195" tooltip="火岩鼠" display="https://wiki.52poke.com/wiki/%E7%81%AB%E5%B2%A9%E9%BC%A0"/>
-    <hyperlink ref="T156" r:id="rId1196" tooltip="火球鼠" display="https://wiki.52poke.com/wiki/%E7%81%AB%E7%90%83%E9%BC%A0"/>
-    <hyperlink ref="T155" r:id="rId1197" tooltip="大竺葵" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E7%AB%BA%E8%91%B5"/>
-    <hyperlink ref="T154" r:id="rId1198" tooltip="月桂叶" display="https://wiki.52poke.com/wiki/%E6%9C%88%E6%A1%82%E5%8F%B6"/>
-    <hyperlink ref="T153" r:id="rId1199" tooltip="菊草叶" display="https://wiki.52poke.com/wiki/%E8%8F%8A%E8%8D%89%E5%8F%B6"/>
-    <hyperlink ref="T253" r:id="rId1200" tooltip="木守宫" display="https://wiki.52poke.com/wiki/%E6%9C%A8%E5%AE%88%E5%AE%AB"/>
-    <hyperlink ref="T254" r:id="rId1201" tooltip="森林蜥蜴" display="https://wiki.52poke.com/wiki/%E6%A3%AE%E6%9E%97%E8%9C%A5%E8%9C%B4"/>
-    <hyperlink ref="T255" r:id="rId1202" tooltip="蜥蜴王" display="https://wiki.52poke.com/wiki/%E8%9C%A5%E8%9C%B4%E7%8E%8B"/>
-    <hyperlink ref="T256" r:id="rId1203" tooltip="火稚鸡" display="https://wiki.52poke.com/wiki/%E7%81%AB%E7%A8%9A%E9%B8%A1"/>
-    <hyperlink ref="T257" r:id="rId1204" tooltip="力壮鸡" display="https://wiki.52poke.com/wiki/%E5%8A%9B%E5%A3%AE%E9%B8%A1"/>
-    <hyperlink ref="T258" r:id="rId1205" tooltip="火焰鸡" display="https://wiki.52poke.com/wiki/%E7%81%AB%E7%84%B0%E9%B8%A1"/>
-    <hyperlink ref="T259" r:id="rId1206" tooltip="水跃鱼" display="https://wiki.52poke.com/wiki/%E6%B0%B4%E8%B7%83%E9%B1%BC"/>
-    <hyperlink ref="T260" r:id="rId1207" tooltip="沼跃鱼" display="https://wiki.52poke.com/wiki/%E6%B2%BC%E8%B7%83%E9%B1%BC"/>
-    <hyperlink ref="T261" r:id="rId1208" tooltip="巨沼怪" display="https://wiki.52poke.com/wiki/%E5%B7%A8%E6%B2%BC%E6%80%AA"/>
-    <hyperlink ref="T262" r:id="rId1209" tooltip="土狼犬" display="https://wiki.52poke.com/wiki/%E5%9C%9F%E7%8B%BC%E7%8A%AC"/>
-    <hyperlink ref="T263" r:id="rId1210" tooltip="大狼犬" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E7%8B%BC%E7%8A%AC"/>
-    <hyperlink ref="T264" r:id="rId1211" tooltip="蛇纹熊" display="https://wiki.52poke.com/wiki/%E8%9B%87%E7%BA%B9%E7%86%8A"/>
-    <hyperlink ref="T265" r:id="rId1212" tooltip="直冲熊" display="https://wiki.52poke.com/wiki/%E7%9B%B4%E5%86%B2%E7%86%8A"/>
-    <hyperlink ref="T266" r:id="rId1213" tooltip="刺尾虫" display="https://wiki.52poke.com/wiki/%E5%88%BA%E5%B0%BE%E8%99%AB"/>
-    <hyperlink ref="T267" r:id="rId1214" tooltip="甲壳茧" display="https://wiki.52poke.com/wiki/%E7%94%B2%E5%A3%B3%E8%8C%A7"/>
-    <hyperlink ref="T268" r:id="rId1215" tooltip="狩猎凤蝶" display="https://wiki.52poke.com/wiki/%E7%8B%A9%E7%8C%8E%E5%87%A4%E8%9D%B6"/>
-    <hyperlink ref="T269" r:id="rId1216" tooltip="盾甲茧" display="https://wiki.52poke.com/wiki/%E7%9B%BE%E7%94%B2%E8%8C%A7"/>
-    <hyperlink ref="T270" r:id="rId1217" tooltip="毒粉蛾" display="https://wiki.52poke.com/wiki/%E6%AF%92%E7%B2%89%E8%9B%BE"/>
-    <hyperlink ref="T271" r:id="rId1218" tooltip="莲叶童子" display="https://wiki.52poke.com/wiki/%E8%8E%B2%E5%8F%B6%E7%AB%A5%E5%AD%90"/>
-    <hyperlink ref="T272" r:id="rId1219" tooltip="莲帽小童" display="https://wiki.52poke.com/wiki/%E8%8E%B2%E5%B8%BD%E5%B0%8F%E7%AB%A5"/>
-    <hyperlink ref="T273" r:id="rId1220" tooltip="乐天河童" display="https://wiki.52poke.com/wiki/%E4%B9%90%E5%A4%A9%E6%B2%B3%E7%AB%A5"/>
-    <hyperlink ref="T274" r:id="rId1221" tooltip="橡实果" display="https://wiki.52poke.com/wiki/%E6%A9%A1%E5%AE%9E%E6%9E%9C"/>
-    <hyperlink ref="T275" r:id="rId1222" tooltip="长鼻叶" display="https://wiki.52poke.com/wiki/%E9%95%BF%E9%BC%BB%E5%8F%B6"/>
-    <hyperlink ref="T276" r:id="rId1223" tooltip="狡猾天狗" display="https://wiki.52poke.com/wiki/%E7%8B%A1%E7%8C%BE%E5%A4%A9%E7%8B%97"/>
-    <hyperlink ref="T277" r:id="rId1224" tooltip="傲骨燕" display="https://wiki.52poke.com/wiki/%E5%82%B2%E9%AA%A8%E7%87%95"/>
-    <hyperlink ref="T278" r:id="rId1225" tooltip="大王燕" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E7%8E%8B%E7%87%95"/>
-    <hyperlink ref="T279" r:id="rId1226" tooltip="长翅鸥" display="https://wiki.52poke.com/wiki/%E9%95%BF%E7%BF%85%E9%B8%A5"/>
-    <hyperlink ref="T280" r:id="rId1227" tooltip="大嘴鸥" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E5%98%B4%E9%B8%A5"/>
-    <hyperlink ref="T281" r:id="rId1228" tooltip="拉鲁拉丝" display="https://wiki.52poke.com/wiki/%E6%8B%89%E9%B2%81%E6%8B%89%E4%B8%9D"/>
-    <hyperlink ref="T282" r:id="rId1229" tooltip="奇鲁莉安" display="https://wiki.52poke.com/wiki/%E5%A5%87%E9%B2%81%E8%8E%89%E5%AE%89"/>
-    <hyperlink ref="T283" r:id="rId1230" tooltip="沙奈朵" display="https://wiki.52poke.com/wiki/%E6%B2%99%E5%A5%88%E6%9C%B5"/>
-    <hyperlink ref="T284" r:id="rId1231" tooltip="溜溜糖球" display="https://wiki.52poke.com/wiki/%E6%BA%9C%E6%BA%9C%E7%B3%96%E7%90%83"/>
-    <hyperlink ref="T285" r:id="rId1232" tooltip="雨翅蛾" display="https://wiki.52poke.com/wiki/%E9%9B%A8%E7%BF%85%E8%9B%BE"/>
-    <hyperlink ref="T286" r:id="rId1233" tooltip="蘑蘑菇" display="https://wiki.52poke.com/wiki/%E8%98%91%E8%98%91%E8%8F%87"/>
-    <hyperlink ref="T287" r:id="rId1234" tooltip="斗笠菇" display="https://wiki.52poke.com/wiki/%E6%96%97%E7%AC%A0%E8%8F%87"/>
-    <hyperlink ref="T288" r:id="rId1235" tooltip="懒人獭" display="https://wiki.52poke.com/wiki/%E6%87%92%E4%BA%BA%E7%8D%AD"/>
-    <hyperlink ref="T289" r:id="rId1236" tooltip="过动猿" display="https://wiki.52poke.com/wiki/%E8%BF%87%E5%8A%A8%E7%8C%BF"/>
-    <hyperlink ref="T290" r:id="rId1237" tooltip="请假王" display="https://wiki.52poke.com/wiki/%E8%AF%B7%E5%81%87%E7%8E%8B"/>
-    <hyperlink ref="T291" r:id="rId1238" tooltip="土居忍士" display="https://wiki.52poke.com/wiki/%E5%9C%9F%E5%B1%85%E5%BF%8D%E5%A3%AB"/>
-    <hyperlink ref="T292" r:id="rId1239" tooltip="铁面忍者" display="https://wiki.52poke.com/wiki/%E9%93%81%E9%9D%A2%E5%BF%8D%E8%80%85"/>
-    <hyperlink ref="T293" r:id="rId1240" tooltip="脱壳忍者" display="https://wiki.52poke.com/wiki/%E8%84%B1%E5%A3%B3%E5%BF%8D%E8%80%85"/>
-    <hyperlink ref="T294" r:id="rId1241" tooltip="咕妞妞" display="https://wiki.52poke.com/wiki/%E5%92%95%E5%A6%9E%E5%A6%9E"/>
-    <hyperlink ref="T295" r:id="rId1242" tooltip="吼爆弹" display="https://wiki.52poke.com/wiki/%E5%90%BC%E7%88%86%E5%BC%B9"/>
-    <hyperlink ref="T296" r:id="rId1243" tooltip="爆音怪" display="https://wiki.52poke.com/wiki/%E7%88%86%E9%9F%B3%E6%80%AA"/>
-    <hyperlink ref="T297" r:id="rId1244" tooltip="幕下力士" display="https://wiki.52poke.com/wiki/%E5%B9%95%E4%B8%8B%E5%8A%9B%E5%A3%AB"/>
-    <hyperlink ref="T298" r:id="rId1245" tooltip="铁掌力士" display="https://wiki.52poke.com/wiki/%E9%93%81%E6%8E%8C%E5%8A%9B%E5%A3%AB"/>
-    <hyperlink ref="T299" r:id="rId1246" tooltip="露力丽" display="https://wiki.52poke.com/wiki/%E9%9C%B2%E5%8A%9B%E4%B8%BD"/>
-    <hyperlink ref="T300" r:id="rId1247" tooltip="朝北鼻" display="https://wiki.52poke.com/wiki/%E6%9C%9D%E5%8C%97%E9%BC%BB"/>
-    <hyperlink ref="T301" r:id="rId1248" tooltip="向尾喵" display="https://wiki.52poke.com/wiki/%E5%90%91%E5%B0%BE%E5%96%B5"/>
-    <hyperlink ref="T302" r:id="rId1249" tooltip="优雅猫" display="https://wiki.52poke.com/wiki/%E4%BC%98%E9%9B%85%E7%8C%AB"/>
-    <hyperlink ref="T303" r:id="rId1250" tooltip="勾魂眼" display="https://wiki.52poke.com/wiki/%E5%8B%BE%E9%AD%82%E7%9C%BC"/>
-    <hyperlink ref="T304" r:id="rId1251" tooltip="大嘴娃" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E5%98%B4%E5%A8%83"/>
-    <hyperlink ref="T305" r:id="rId1252" tooltip="可可多拉" display="https://wiki.52poke.com/wiki/%E5%8F%AF%E5%8F%AF%E5%A4%9A%E6%8B%89"/>
-    <hyperlink ref="T306" r:id="rId1253" tooltip="可多拉" display="https://wiki.52poke.com/wiki/%E5%8F%AF%E5%A4%9A%E6%8B%89"/>
-    <hyperlink ref="T307" r:id="rId1254" tooltip="波士可多拉" display="https://wiki.52poke.com/wiki/%E6%B3%A2%E5%A3%AB%E5%8F%AF%E5%A4%9A%E6%8B%89"/>
-    <hyperlink ref="T308" r:id="rId1255" tooltip="玛沙那" display="https://wiki.52poke.com/wiki/%E7%8E%9B%E6%B2%99%E9%82%A3"/>
-    <hyperlink ref="T309" r:id="rId1256" tooltip="恰雷姆" display="https://wiki.52poke.com/wiki/%E6%81%B0%E9%9B%B7%E5%A7%86"/>
-    <hyperlink ref="T310" r:id="rId1257" tooltip="落雷兽" display="https://wiki.52poke.com/wiki/%E8%90%BD%E9%9B%B7%E5%85%BD"/>
-    <hyperlink ref="T311" r:id="rId1258" tooltip="雷电兽" display="https://wiki.52poke.com/wiki/%E9%9B%B7%E7%94%B5%E5%85%BD"/>
-    <hyperlink ref="T312" r:id="rId1259" tooltip="正电拍拍" display="https://wiki.52poke.com/wiki/%E6%AD%A3%E7%94%B5%E6%8B%8D%E6%8B%8D"/>
-    <hyperlink ref="T313" r:id="rId1260" tooltip="负电拍拍" display="https://wiki.52poke.com/wiki/%E8%B4%9F%E7%94%B5%E6%8B%8D%E6%8B%8D"/>
-    <hyperlink ref="T314" r:id="rId1261" tooltip="电萤虫" display="https://wiki.52poke.com/wiki/%E7%94%B5%E8%90%A4%E8%99%AB"/>
-    <hyperlink ref="T315" r:id="rId1262" tooltip="甜甜萤" display="https://wiki.52poke.com/wiki/%E7%94%9C%E7%94%9C%E8%90%A4"/>
-    <hyperlink ref="T316" r:id="rId1263" tooltip="毒蔷薇" display="https://wiki.52poke.com/wiki/%E6%AF%92%E8%94%B7%E8%96%87"/>
-    <hyperlink ref="T317" r:id="rId1264" tooltip="溶食兽" display="https://wiki.52poke.com/wiki/%E6%BA%B6%E9%A3%9F%E5%85%BD"/>
-    <hyperlink ref="T318" r:id="rId1265" tooltip="吞食兽" display="https://wiki.52poke.com/wiki/%E5%90%9E%E9%A3%9F%E5%85%BD"/>
-    <hyperlink ref="T319" r:id="rId1266" tooltip="利牙鱼" display="https://wiki.52poke.com/wiki/%E5%88%A9%E7%89%99%E9%B1%BC"/>
-    <hyperlink ref="T320" r:id="rId1267" tooltip="巨牙鲨" display="https://wiki.52poke.com/wiki/%E5%B7%A8%E7%89%99%E9%B2%A8"/>
-    <hyperlink ref="T321" r:id="rId1268" tooltip="吼吼鲸" display="https://wiki.52poke.com/wiki/%E5%90%BC%E5%90%BC%E9%B2%B8"/>
-    <hyperlink ref="T322" r:id="rId1269" tooltip="吼鲸王" display="https://wiki.52poke.com/wiki/%E5%90%BC%E9%B2%B8%E7%8E%8B"/>
-    <hyperlink ref="T323" r:id="rId1270" tooltip="呆火驼" display="https://wiki.52poke.com/wiki/%E5%91%86%E7%81%AB%E9%A9%BC"/>
-    <hyperlink ref="T324" r:id="rId1271" tooltip="喷火驼" display="https://wiki.52poke.com/wiki/%E5%96%B7%E7%81%AB%E9%A9%BC"/>
-    <hyperlink ref="T325" r:id="rId1272" tooltip="煤炭龟" display="https://wiki.52poke.com/wiki/%E7%85%A4%E7%82%AD%E9%BE%9F"/>
-    <hyperlink ref="T326" r:id="rId1273" tooltip="跳跳猪" display="https://wiki.52poke.com/wiki/%E8%B7%B3%E8%B7%B3%E7%8C%AA"/>
-    <hyperlink ref="T327" r:id="rId1274" tooltip="噗噗猪" display="https://wiki.52poke.com/wiki/%E5%99%97%E5%99%97%E7%8C%AA"/>
-    <hyperlink ref="T328" r:id="rId1275" tooltip="晃晃斑" display="https://wiki.52poke.com/wiki/%E6%99%83%E6%99%83%E6%96%91"/>
-    <hyperlink ref="T329" r:id="rId1276" tooltip="大颚蚁" display="https://wiki.52poke.com/wiki/%E5%A4%A7%E9%A2%9A%E8%9A%81"/>
-    <hyperlink ref="T330" r:id="rId1277" tooltip="超音波幼虫" display="https://wiki.52poke.com/wiki/%E8%B6%85%E9%9F%B3%E6%B3%A2%E5%B9%BC%E8%99%AB"/>
-    <hyperlink ref="T331" r:id="rId1278" tooltip="沙漠蜻蜓" display="https://wiki.52poke.com/wiki/%E6%B2%99%E6%BC%A0%E8%9C%BB%E8%9C%93"/>
-    <hyperlink ref="T332" r:id="rId1279" tooltip="刺球仙人掌" display="https://wiki.52poke.com/wiki/%E5%88%BA%E7%90%83%E4%BB%99%E4%BA%BA%E6%8E%8C"/>
-    <hyperlink ref="T333" r:id="rId1280" tooltip="梦歌仙人掌" display="https://wiki.52poke.com/wiki/%E6%A2%A6%E6%AD%8C%E4%BB%99%E4%BA%BA%E6%8E%8C"/>
-    <hyperlink ref="T334" r:id="rId1281" tooltip="青绵鸟" display="https://wiki.52poke.com/wiki/%E9%9D%92%E7%BB%B5%E9%B8%9F"/>
-    <hyperlink ref="T335" r:id="rId1282" tooltip="七夕青鸟" display="https://wiki.52poke.com/wiki/%E4%B8%83%E5%A4%95%E9%9D%92%E9%B8%9F"/>
-    <hyperlink ref="T336" r:id="rId1283" tooltip="猫鼬斩" display="https://wiki.52poke.com/wiki/%E7%8C%AB%E9%BC%AC%E6%96%A9"/>
-    <hyperlink ref="T337" r:id="rId1284" tooltip="饭匙蛇" display="https://wiki.52poke.com/wiki/%E9%A5%AD%E5%8C%99%E8%9B%87"/>
-    <hyperlink ref="T338" r:id="rId1285" tooltip="月石" display="https://wiki.52poke.com/wiki/%E6%9C%88%E7%9F%B3"/>
-    <hyperlink ref="T339" r:id="rId1286" tooltip="太阳岩" display="https://wiki.52poke.com/wiki/%E5%A4%AA%E9%98%B3%E5%B2%A9"/>
-    <hyperlink ref="T340" r:id="rId1287" tooltip="泥泥鳅" display="https://wiki.52poke.com/wiki/%E6%B3%A5%E6%B3%A5%E9%B3%85"/>
-    <hyperlink ref="T341" r:id="rId1288" tooltip="鲶鱼王" display="https://wiki.52poke.com/wiki/%E9%B2%B6%E9%B1%BC%E7%8E%8B"/>
-    <hyperlink ref="T342" r:id="rId1289" tooltip="龙虾小兵" display="https://wiki.52poke.com/wiki/%E9%BE%99%E8%99%BE%E5%B0%8F%E5%85%B5"/>
-    <hyperlink ref="T343" r:id="rId1290" tooltip="铁螯龙虾" display="https://wiki.52poke.com/wiki/%E9%93%81%E8%9E%AF%E9%BE%99%E8%99%BE"/>
-    <hyperlink ref="T344" r:id="rId1291" tooltip="天秤偶" display="https://wiki.52poke.com/wiki/%E5%A4%A9%E7%A7%A4%E5%81%B6"/>
-    <hyperlink ref="T345" r:id="rId1292" tooltip="念力土偶" display="https://wiki.52poke.com/wiki/%E5%BF%B5%E5%8A%9B%E5%9C%9F%E5%81%B6"/>
-    <hyperlink ref="T346" r:id="rId1293" tooltip="触手百合" display="https://wiki.52poke.com/wiki/%E8%A7%A6%E6%89%8B%E7%99%BE%E5%90%88"/>
-    <hyperlink ref="T347" r:id="rId1294" tooltip="摇篮百合" display="https://wiki.52poke.com/wiki/%E6%91%87%E7%AF%AE%E7%99%BE%E5%90%88"/>
-    <hyperlink ref="T348" r:id="rId1295" tooltip="太古羽虫" display="https://wiki.52poke.com/wiki/%E5%A4%AA%E5%8F%A4%E7%BE%BD%E8%99%AB"/>
-    <hyperlink ref="T349" r:id="rId1296" tooltip="太古盔甲" display="https://wiki.52poke.com/wiki/%E5%A4%AA%E5%8F%A4%E7%9B%94%E7%94%B2"/>
-    <hyperlink ref="T350" r:id="rId1297" tooltip="丑丑鱼" display="https://wiki.52poke.com/wiki/%E4%B8%91%E4%B8%91%E9%B1%BC"/>
-    <hyperlink ref="T351" r:id="rId1298" tooltip="美纳斯" display="https://wiki.52poke.com/wiki/%E7%BE%8E%E7%BA%B3%E6%96%AF"/>
-    <hyperlink ref="T352" r:id="rId1299" tooltip="飘浮泡泡" display="https://wiki.52poke.com/wiki/%E9%A3%98%E6%B5%AE%E6%B3%A1%E6%B3%A1"/>
-    <hyperlink ref="T353" r:id="rId1300" tooltip="变隐龙" display="https://wiki.52poke.com/wiki/%E5%8F%98%E9%9A%90%E9%BE%99"/>
-    <hyperlink ref="T354" r:id="rId1301" tooltip="怨影娃娃" display="https://wiki.52poke.com/wiki/%E6%80%A8%E5%BD%B1%E5%A8%83%E5%A8%83"/>
-    <hyperlink ref="T355" r:id="rId1302" tooltip="诅咒娃娃" display="https://wiki.52poke.com/wiki/%E8%AF%85%E5%92%92%E5%A8%83%E5%A8%83"/>
-    <hyperlink ref="T356" r:id="rId1303" tooltip="夜巡灵" display="https://wiki.52poke.com/wiki/%E5%A4%9C%E5%B7%A1%E7%81%B5"/>
-    <hyperlink ref="T357" r:id="rId1304" tooltip="彷徨夜灵" display="https://wiki.52poke.com/wiki/%E5%BD%B7%E5%BE%A8%E5%A4%9C%E7%81%B5"/>
-    <hyperlink ref="T358" r:id="rId1305" tooltip="热带龙" display="https://wiki.52poke.com/wiki/%E7%83%AD%E5%B8%A6%E9%BE%99"/>
-    <hyperlink ref="T359" r:id="rId1306" tooltip="风铃铃" display="https://wiki.52poke.com/wiki/%E9%A3%8E%E9%93%83%E9%93%83"/>
-    <hyperlink ref="T360" r:id="rId1307" tooltip="阿勃梭鲁" display="https://wiki.52poke.com/wiki/%E9%98%BF%E5%8B%83%E6%A2%AD%E9%B2%81"/>
-    <hyperlink ref="T361" r:id="rId1308" tooltip="小果然" display="https://wiki.52poke.com/wiki/%E5%B0%8F%E6%9E%9C%E7%84%B6"/>
-    <hyperlink ref="T362" r:id="rId1309" tooltip="雪童子" display="https://wiki.52poke.com/wiki/%E9%9B%AA%E7%AB%A5%E5%AD%90"/>
-    <hyperlink ref="T363" r:id="rId1310" tooltip="冰鬼护" display="https://wiki.52poke.com/wiki/%E5%86%B0%E9%AC%BC%E6%8A%A4"/>
-    <hyperlink ref="T364" r:id="rId1311" tooltip="海豹球" display="https://wiki.52poke.com/wiki/%E6%B5%B7%E8%B1%B9%E7%90%83"/>
-    <hyperlink ref="T365" r:id="rId1312" tooltip="海魔狮" display="https://wiki.52poke.com/wiki/%E6%B5%B7%E9%AD%94%E7%8B%AE"/>
-    <hyperlink ref="T366" r:id="rId1313" tooltip="帝牙海狮" display="https://wiki.52poke.com/wiki/%E5%B8%9D%E7%89%99%E6%B5%B7%E7%8B%AE"/>
-    <hyperlink ref="T367" r:id="rId1314" tooltip="珍珠贝" display="https://wiki.52poke.com/wiki/%E7%8F%8D%E7%8F%A0%E8%B4%9D"/>
-    <hyperlink ref="T368" r:id="rId1315" tooltip="猎斑鱼" display="https://wiki.52poke.com/wiki/%E7%8C%8E%E6%96%91%E9%B1%BC"/>
-    <hyperlink ref="T369" r:id="rId1316" tooltip="樱花鱼" display="https://wiki.52poke.com/wiki/%E6%A8%B1%E8%8A%B1%E9%B1%BC"/>
-    <hyperlink ref="T370" r:id="rId1317" tooltip="古空棘鱼" display="https://wiki.52poke.com/wiki/%E5%8F%A4%E7%A9%BA%E6%A3%98%E9%B1%BC"/>
-    <hyperlink ref="T371" r:id="rId1318" tooltip="爱心鱼" display="https://wiki.52poke.com/wiki/%E7%88%B1%E5%BF%83%E9%B1%BC"/>
-    <hyperlink ref="T372" r:id="rId1319" tooltip="宝贝龙" display="https://wiki.52poke.com/wiki/%E5%AE%9D%E8%B4%9D%E9%BE%99"/>
-    <hyperlink ref="T373" r:id="rId1320" tooltip="甲壳龙" display="https://wiki.52poke.com/wiki/%E7%94%B2%E5%A3%B3%E9%BE%99"/>
-    <hyperlink ref="T374" r:id="rId1321" tooltip="暴飞龙" display="https://wiki.52poke.com/wiki/%E6%9A%B4%E9%A3%9E%E9%BE%99"/>
-    <hyperlink ref="T375" r:id="rId1322" tooltip="铁哑铃" display="https://wiki.52poke.com/wiki/%E9%93%81%E5%93%91%E9%93%83"/>
-    <hyperlink ref="T376" r:id="rId1323" tooltip="金属怪" display="https://wiki.52poke.com/wiki/%E9%87%91%E5%B1%9E%E6%80%AA"/>
-    <hyperlink ref="T377" r:id="rId1324" tooltip="巨金怪" display="https://wiki.52poke.com/wiki/%E5%B7%A8%E9%87%91%E6%80%AA"/>
-    <hyperlink ref="T378" r:id="rId1325" tooltip="雷吉洛克" display="https://wiki.52poke.com/wiki/%E9%9B%B7%E5%90%89%E6%B4%9B%E5%85%8B"/>
-    <hyperlink ref="T379" r:id="rId1326" tooltip="雷吉艾斯" display="https://wiki.52poke.com/wiki/%E9%9B%B7%E5%90%89%E8%89%BE%E6%96%AF"/>
-    <hyperlink ref="T380" r:id="rId1327" tooltip="雷吉斯奇鲁" display="https://wiki.52poke.com/wiki/%E9%9B%B7%E5%90%89%E6%96%AF%E5%A5%87%E9%B2%81"/>
-    <hyperlink ref="T381" r:id="rId1328" tooltip="拉帝亚斯" display="https://wiki.52poke.com/wiki/%E6%8B%89%E5%B8%9D%E4%BA%9A%E6%96%AF"/>
-    <hyperlink ref="T382" r:id="rId1329" tooltip="拉帝欧斯" display="https://wiki.52poke.com/wiki/%E6%8B%89%E5%B8%9D%E6%AC%A7%E6%96%AF"/>
-    <hyperlink ref="T383" r:id="rId1330" tooltip="盖欧卡" display="https://wiki.52poke.com/wiki/%E7%9B%96%E6%AC%A7%E5%8D%A1"/>
-    <hyperlink ref="T384" r:id="rId1331" tooltip="固拉多" display="https://wiki.52poke.com/wiki/%E5%9B%BA%E6%8B%89%E5%A4%9A"/>
-    <hyperlink ref="T385" r:id="rId1332" tooltip="烈空坐" display="https://wiki.52poke.com/wiki/%E7%83%88%E7%A9%BA%E5%9D%90"/>
-    <hyperlink ref="T387" r:id="rId1333" tooltip="代欧奇希斯" display="https://wiki.52poke.com/wiki/%E4%BB%A3%E6%AC%A7%E5%A5%87%E5%B8%8C%E6%96%AF"/>
-    <hyperlink ref="T386" r:id="rId1334" tooltip="基拉祈" display="https://wiki.52poke.com/wiki/%E5%9F%BA%E6%8B%89%E7%A5%88"/>
-    <hyperlink ref="B682" r:id="rId1335" tooltip="Aegislash (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aegislash_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B722" r:id="rId1336" tooltip="Volcanion (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Volcanion_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B720" r:id="rId1337" tooltip="Diancie (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Diancie_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B719" r:id="rId1338" tooltip="Zygarde (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zygarde_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B718" r:id="rId1339" tooltip="Yveltal (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Yveltal_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B717" r:id="rId1340" tooltip="Xerneas (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Xerneas_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B716" r:id="rId1341" tooltip="Noivern (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Noivern_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B715" r:id="rId1342" tooltip="Noibat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Noibat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B714" r:id="rId1343" tooltip="Avalugg (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Avalugg_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B713" r:id="rId1344" tooltip="Bergmite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bergmite_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B712" r:id="rId1345" tooltip="Gourgeist (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gourgeist_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B711" r:id="rId1346" tooltip="Pumpkaboo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pumpkaboo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B710" r:id="rId1347" tooltip="Trevenant (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Trevenant_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B709" r:id="rId1348" tooltip="Phantump (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Phantump_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B708" r:id="rId1349" tooltip="Klefki (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Klefki_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B707" r:id="rId1350" tooltip="Goodra (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Goodra_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B706" r:id="rId1351" tooltip="Sliggoo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sliggoo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B705" r:id="rId1352" tooltip="Goomy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Goomy_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B704" r:id="rId1353" tooltip="Carbink (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Carbink_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B703" r:id="rId1354" tooltip="Dedenne (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dedenne_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B702" r:id="rId1355" tooltip="Hawlucha (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hawlucha_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B701" r:id="rId1356" tooltip="Sylveon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sylveon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B700" r:id="rId1357" tooltip="Aurorus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aurorus_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B699" r:id="rId1358" tooltip="Amaura (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Amaura_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B698" r:id="rId1359" tooltip="Tyrantrum (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tyrantrum_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B697" r:id="rId1360" tooltip="Tyrunt (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tyrunt_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B696" r:id="rId1361" tooltip="Heliolisk (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Heliolisk_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B695" r:id="rId1362" tooltip="Helioptile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Helioptile_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B694" r:id="rId1363" tooltip="Clawitzer (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Clawitzer_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B693" r:id="rId1364" tooltip="Clauncher (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Clauncher_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B692" r:id="rId1365" tooltip="Dragalge (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dragalge_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B691" r:id="rId1366" tooltip="Skrelp (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skrelp_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B690" r:id="rId1367" tooltip="Barbaracle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Barbaracle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B689" r:id="rId1368" tooltip="Binacle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Binacle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B688" r:id="rId1369" tooltip="Malamar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Malamar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B687" r:id="rId1370" tooltip="Inkay (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Inkay_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B686" r:id="rId1371" tooltip="Slurpuff (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slurpuff_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B685" r:id="rId1372" tooltip="Swirlix (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swirlix_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B684" r:id="rId1373" tooltip="Aromatisse (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aromatisse_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B683" r:id="rId1374" tooltip="Spritzee (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spritzee_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B681" r:id="rId1375" tooltip="Doublade (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Doublade_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B680" r:id="rId1376" tooltip="Honedge (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Honedge_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B679" r:id="rId1377" tooltip="Meowstic (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Meowstic_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B678" r:id="rId1378" tooltip="Espurr (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Espurr_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B677" r:id="rId1379" tooltip="Furfrou (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Furfrou_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B676" r:id="rId1380" tooltip="Pangoro (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pangoro_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B675" r:id="rId1381" tooltip="Pancham (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pancham_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B674" r:id="rId1382" tooltip="Gogoat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gogoat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B673" r:id="rId1383" tooltip="Skiddo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skiddo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B672" r:id="rId1384" tooltip="Florges (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Florges_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B671" r:id="rId1385" tooltip="Floette (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Floette_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B670" r:id="rId1386" tooltip="Flabébé (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Flab%C3%A9b%C3%A9_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B669" r:id="rId1387" tooltip="Pyroar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pyroar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B668" r:id="rId1388" tooltip="Litleo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Litleo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B667" r:id="rId1389" tooltip="Vivillon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vivillon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B666" r:id="rId1390" tooltip="Spewpa (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spewpa_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B665" r:id="rId1391" tooltip="Scatterbug (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Scatterbug_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B664" r:id="rId1392" tooltip="Talonflame (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Talonflame_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B663" r:id="rId1393" tooltip="Fletchinder (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Fletchinder_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B662" r:id="rId1394" tooltip="Fletchling (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Fletchling_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B661" r:id="rId1395" tooltip="Diggersby (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Diggersby_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B660" r:id="rId1396" tooltip="Bunnelby (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bunnelby_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B659" r:id="rId1397" tooltip="Greninja (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Greninja_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B658" r:id="rId1398" tooltip="Frogadier (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Frogadier_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B657" r:id="rId1399" tooltip="Froakie (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Froakie_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B656" r:id="rId1400" tooltip="Delphox (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Delphox_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B655" r:id="rId1401" tooltip="Braixen (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Braixen_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B654" r:id="rId1402" tooltip="Fennekin (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Fennekin_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B653" r:id="rId1403" tooltip="Chesnaught (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chesnaught_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B652" r:id="rId1404" tooltip="Quilladin (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Quilladin_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B651" r:id="rId1405" tooltip="Chespin (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chespin_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B650" r:id="rId1406" tooltip="Genesect (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Genesect_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B649" r:id="rId1407" tooltip="Meloetta (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Meloetta_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B648" r:id="rId1408" tooltip="Keldeo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Keldeo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B647" r:id="rId1409" tooltip="Kyurem (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kyurem_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B646" r:id="rId1410" tooltip="Landorus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Landorus_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B645" r:id="rId1411" tooltip="Zekrom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zekrom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B644" r:id="rId1412" tooltip="Reshiram (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Reshiram_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B642" r:id="rId1413" tooltip="Tornadus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tornadus_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B641" r:id="rId1414" tooltip="Virizion (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Virizion_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B640" r:id="rId1415" tooltip="Terrakion (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Terrakion_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B639" r:id="rId1416" tooltip="Cobalion (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cobalion_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B638" r:id="rId1417" tooltip="Volcarona (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Volcarona_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B637" r:id="rId1418" tooltip="Larvesta (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Larvesta_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B636" r:id="rId1419" tooltip="Hydreigon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hydreigon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B635" r:id="rId1420" tooltip="Zweilous (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zweilous_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B634" r:id="rId1421" tooltip="Deino (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Deino_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B633" r:id="rId1422" tooltip="Durant (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Durant_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B632" r:id="rId1423" tooltip="Heatmor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Heatmor_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B631" r:id="rId1424" tooltip="Mandibuzz (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mandibuzz_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B630" r:id="rId1425" tooltip="Vullaby (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vullaby_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B629" r:id="rId1426" tooltip="Braviary (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Braviary_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B628" r:id="rId1427" tooltip="Rufflet (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rufflet_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B627" r:id="rId1428" tooltip="Bouffalant (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bouffalant_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B626" r:id="rId1429" tooltip="Bisharp (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bisharp_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B625" r:id="rId1430" tooltip="Pawniard (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pawniard_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B624" r:id="rId1431" tooltip="Golurk (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Golurk_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B623" r:id="rId1432" tooltip="Golett (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Golett_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B622" r:id="rId1433" tooltip="Druddigon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Druddigon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B621" r:id="rId1434" tooltip="Mienshao (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mienshao_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B620" r:id="rId1435" tooltip="Mienfoo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mienfoo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B619" r:id="rId1436" tooltip="Stunfisk (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Stunfisk_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B618" r:id="rId1437" tooltip="Accelgor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Accelgor_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B617" r:id="rId1438" tooltip="Shelmet (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shelmet_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B616" r:id="rId1439" tooltip="Cryogonal (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cryogonal_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B615" r:id="rId1440" tooltip="Beartic (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Beartic_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B614" r:id="rId1441" tooltip="Cubchoo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cubchoo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B613" r:id="rId1442" tooltip="Haxorus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Haxorus_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B612" r:id="rId1443" tooltip="Fraxure (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Fraxure_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B611" r:id="rId1444" tooltip="Axew (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Axew_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B610" r:id="rId1445" tooltip="Chandelure (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chandelure_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B609" r:id="rId1446" tooltip="Lampent (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lampent_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B608" r:id="rId1447" tooltip="Litwick (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Litwick_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B607" r:id="rId1448" tooltip="Beheeyem (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Beheeyem_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B606" r:id="rId1449" tooltip="Elgyem (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Elgyem_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B605" r:id="rId1450" tooltip="Eelektross (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Eelektross_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B604" r:id="rId1451" tooltip="Eelektrik (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Eelektrik_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B603" r:id="rId1452" tooltip="Tynamo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tynamo_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B602" r:id="rId1453" tooltip="Klinklang (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Klinklang_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B601" r:id="rId1454" tooltip="Klang (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Klang_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B600" r:id="rId1455" tooltip="Klink (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Klink_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B599" r:id="rId1456" tooltip="Ferrothorn (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ferrothorn_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B598" r:id="rId1457" tooltip="Ferroseed (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ferroseed_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B597" r:id="rId1458" tooltip="Galvantula (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Galvantula_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B596" r:id="rId1459" tooltip="Joltik (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Joltik_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B595" r:id="rId1460" tooltip="Alomomola (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Alomomola_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B594" r:id="rId1461" tooltip="Jellicent (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jellicent_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B593" r:id="rId1462" tooltip="Frillish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Frillish_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B592" r:id="rId1463" tooltip="Amoonguss (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Amoonguss_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B591" r:id="rId1464" tooltip="Foongus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Foongus_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B590" r:id="rId1465" tooltip="Escavalier (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Escavalier_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B589" r:id="rId1466" tooltip="Karrablast (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Karrablast_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B588" r:id="rId1467" tooltip="Emolga (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Emolga_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B587" r:id="rId1468" tooltip="Sawsbuck (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sawsbuck_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B586" r:id="rId1469" tooltip="Deerling (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Deerling_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B585" r:id="rId1470" tooltip="Vanilluxe (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vanilluxe_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B584" r:id="rId1471" tooltip="Vanillish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vanillish_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B583" r:id="rId1472" tooltip="Vanillite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vanillite_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B582" r:id="rId1473" tooltip="Swanna (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swanna_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B581" r:id="rId1474" tooltip="Ducklett (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ducklett_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B580" r:id="rId1475" tooltip="Reuniclus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Reuniclus_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B579" r:id="rId1476" tooltip="Duosion (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Duosion_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B578" r:id="rId1477" tooltip="Solosis (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Solosis_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B577" r:id="rId1478" tooltip="Gothitelle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gothitelle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B576" r:id="rId1479" tooltip="Gothorita (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gothorita_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B575" r:id="rId1480" tooltip="Gothita (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gothita_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B574" r:id="rId1481" tooltip="Cinccino (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cinccino_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B573" r:id="rId1482" tooltip="Minccino (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Minccino_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B572" r:id="rId1483" tooltip="Zoroark (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zoroark_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B571" r:id="rId1484" tooltip="Zorua (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zorua_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B570" r:id="rId1485" tooltip="Garbodor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Garbodor_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B569" r:id="rId1486" tooltip="Trubbish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Trubbish_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B568" r:id="rId1487" tooltip="Archeops (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Archeops_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B567" r:id="rId1488" tooltip="Archen (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Archen_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B566" r:id="rId1489" tooltip="Carracosta (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Carracosta_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B565" r:id="rId1490" tooltip="Tirtouga (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tirtouga_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B564" r:id="rId1491" tooltip="Cofagrigus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cofagrigus_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B563" r:id="rId1492" tooltip="Yamask (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Yamask_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B562" r:id="rId1493" tooltip="Sigilyph (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sigilyph_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B561" r:id="rId1494" tooltip="Scrafty (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Scrafty_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B560" r:id="rId1495" tooltip="Scraggy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Scraggy_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B559" r:id="rId1496" tooltip="Crustle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Crustle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B558" r:id="rId1497" tooltip="Dwebble (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dwebble_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B557" r:id="rId1498" tooltip="Maractus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Maractus_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B555" r:id="rId1499" tooltip="Darumaka (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Darumaka_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B554" r:id="rId1500" tooltip="Krookodile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Krookodile_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B553" r:id="rId1501" tooltip="Krokorok (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Krokorok_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B552" r:id="rId1502" tooltip="Sandile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sandile_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B551" r:id="rId1503" tooltip="Basculin (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Basculin_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B550" r:id="rId1504" tooltip="Lilligant (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lilligant_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B549" r:id="rId1505" tooltip="Petilil (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Petilil_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B548" r:id="rId1506" tooltip="Whimsicott (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Whimsicott_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B547" r:id="rId1507" tooltip="Cottonee (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cottonee_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B546" r:id="rId1508" tooltip="Scolipede (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Scolipede_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B545" r:id="rId1509" tooltip="Whirlipede (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Whirlipede_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B544" r:id="rId1510" tooltip="Venipede (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Venipede_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B543" r:id="rId1511" tooltip="Leavanny (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Leavanny_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B542" r:id="rId1512" tooltip="Swadloon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swadloon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B541" r:id="rId1513" tooltip="Sewaddle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sewaddle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B540" r:id="rId1514" tooltip="Sawk (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sawk_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B539" r:id="rId1515" tooltip="Throh (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Throh_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B538" r:id="rId1516" tooltip="Seismitoad (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seismitoad_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B537" r:id="rId1517" tooltip="Palpitoad (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Palpitoad_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B536" r:id="rId1518" tooltip="Tympole (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tympole_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B535" r:id="rId1519" tooltip="Conkeldurr (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Conkeldurr_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B534" r:id="rId1520" tooltip="Gurdurr (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gurdurr_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B533" r:id="rId1521" tooltip="Timburr (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Timburr_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B532" r:id="rId1522" tooltip="Audino (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Audino_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B531" r:id="rId1523" tooltip="Excadrill (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Excadrill_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B530" r:id="rId1524" tooltip="Drilbur (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Drilbur_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B529" r:id="rId1525" tooltip="Swoobat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swoobat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B528" r:id="rId1526" tooltip="Woobat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Woobat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B527" r:id="rId1527" tooltip="Gigalith (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gigalith_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B526" r:id="rId1528" tooltip="Boldore (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Boldore_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B525" r:id="rId1529" tooltip="Roggenrola (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Roggenrola_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B524" r:id="rId1530" tooltip="Zebstrika (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zebstrika_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B523" r:id="rId1531" tooltip="Blitzle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Blitzle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B522" r:id="rId1532" tooltip="Unfezant (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Unfezant_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B521" r:id="rId1533" tooltip="Tranquill (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tranquill_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B520" r:id="rId1534" tooltip="Pidove (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pidove_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B519" r:id="rId1535" tooltip="Musharna (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Musharna_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B518" r:id="rId1536" tooltip="Munna (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Munna_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B517" r:id="rId1537" tooltip="Simipour (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Simipour_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B516" r:id="rId1538" tooltip="Panpour (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Panpour_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B515" r:id="rId1539" tooltip="Simisear (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Simisear_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B514" r:id="rId1540" tooltip="Pansear (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pansear_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B513" r:id="rId1541" tooltip="Simisage (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Simisage_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B512" r:id="rId1542" tooltip="Pansage (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pansage_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B511" r:id="rId1543" tooltip="Liepard (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Liepard_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B510" r:id="rId1544" tooltip="Purrloin (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Purrloin_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B509" r:id="rId1545" tooltip="Stoutland (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Stoutland_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B508" r:id="rId1546" tooltip="Herdier (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Herdier_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B507" r:id="rId1547" tooltip="Lillipup (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lillipup_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B506" r:id="rId1548" tooltip="Watchog (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Watchog_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B505" r:id="rId1549" tooltip="Patrat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Patrat_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B504" r:id="rId1550" tooltip="Samurott (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Samurott_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B503" r:id="rId1551" tooltip="Dewott (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dewott_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B502" r:id="rId1552" tooltip="Oshawott (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Oshawott_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B501" r:id="rId1553" tooltip="Emboar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Emboar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B500" r:id="rId1554" tooltip="Pignite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pignite_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B499" r:id="rId1555" tooltip="Tepig (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tepig_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B498" r:id="rId1556" tooltip="Serperior (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Serperior_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B497" r:id="rId1557" tooltip="Servine (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Servine_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B496" r:id="rId1558" tooltip="Snivy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Snivy_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B495" r:id="rId1559" tooltip="Victini (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Victini_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B493" r:id="rId1560" tooltip="Shaymin (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shaymin_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B492" r:id="rId1561" tooltip="Darkrai (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Darkrai_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B491" r:id="rId1562" tooltip="Manaphy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Manaphy_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B490" r:id="rId1563" tooltip="Phione (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Phione_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B488" r:id="rId1564" tooltip="Giratina (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Giratina_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B487" r:id="rId1565" tooltip="Regigigas (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Regigigas_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B486" r:id="rId1566" tooltip="Heatran (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Heatran_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B485" r:id="rId1567" tooltip="Palkia (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Palkia_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B484" r:id="rId1568" tooltip="Dialga (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dialga_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B483" r:id="rId1569" tooltip="Azelf (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Azelf_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B482" r:id="rId1570" tooltip="Mesprit (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mesprit_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B481" r:id="rId1571" tooltip="Uxie (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Uxie_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B479" r:id="rId1572" tooltip="Froslass (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Froslass_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B478" r:id="rId1573" tooltip="Dusknoir (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dusknoir_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B477" r:id="rId1574" tooltip="Probopass (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Probopass_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B476" r:id="rId1575" tooltip="Gallade (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gallade_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B475" r:id="rId1576" tooltip="Porygon-Z (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Porygon-Z_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B474" r:id="rId1577" tooltip="Mamoswine (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mamoswine_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B473" r:id="rId1578" tooltip="Gliscor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gliscor_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B472" r:id="rId1579" tooltip="Glaceon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Glaceon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B471" r:id="rId1580" tooltip="Leafeon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Leafeon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B470" r:id="rId1581" tooltip="Yanmega (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Yanmega_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B469" r:id="rId1582" tooltip="Togekiss (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Togekiss_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B468" r:id="rId1583" tooltip="Magmortar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magmortar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B467" r:id="rId1584" tooltip="Electivire (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Electivire_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B466" r:id="rId1585" tooltip="Tangrowth (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tangrowth_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B465" r:id="rId1586" tooltip="Rhyperior (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rhyperior_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B464" r:id="rId1587" tooltip="Lickilicky (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lickilicky_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B463" r:id="rId1588" tooltip="Magnezone (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magnezone_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B462" r:id="rId1589" tooltip="Weavile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Weavile_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B461" r:id="rId1590" tooltip="Abomasnow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Abomasnow_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B460" r:id="rId1591" tooltip="Snover (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Snover_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B459" r:id="rId1592" tooltip="Mantyke (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mantyke_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B458" r:id="rId1593" tooltip="Lumineon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lumineon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B457" r:id="rId1594" tooltip="Finneon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Finneon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B456" r:id="rId1595" tooltip="Carnivine (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Carnivine_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B455" r:id="rId1596" tooltip="Toxicroak (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Toxicroak_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B454" r:id="rId1597" tooltip="Croagunk (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Croagunk_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B453" r:id="rId1598" tooltip="Drapion (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Drapion_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B452" r:id="rId1599" tooltip="Skorupi (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skorupi_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B451" r:id="rId1600" tooltip="Hippowdon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hippowdon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B450" r:id="rId1601" tooltip="Hippopotas (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hippopotas_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B449" r:id="rId1602" tooltip="Lucario (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lucario_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B448" r:id="rId1603" tooltip="Riolu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Riolu_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B447" r:id="rId1604" tooltip="Munchlax (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Munchlax_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B446" r:id="rId1605" tooltip="Garchomp (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Garchomp_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B445" r:id="rId1606" tooltip="Gabite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gabite_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B444" r:id="rId1607" tooltip="Gible (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gible_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B443" r:id="rId1608" tooltip="Spiritomb (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spiritomb_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B442" r:id="rId1609" tooltip="Chatot (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chatot_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B441" r:id="rId1610" tooltip="Happiny (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Happiny_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B440" r:id="rId1611" tooltip="Mime Jr. (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mime_Jr._(Pok%C3%A9mon)"/>
-    <hyperlink ref="B439" r:id="rId1612" tooltip="Bonsly (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bonsly_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B438" r:id="rId1613" tooltip="Bronzong (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bronzong_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B437" r:id="rId1614" tooltip="Bronzor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bronzor_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B436" r:id="rId1615" tooltip="Skuntank (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skuntank_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B435" r:id="rId1616" tooltip="Stunky (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Stunky_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B434" r:id="rId1617" tooltip="Chingling (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chingling_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B433" r:id="rId1618" tooltip="Purugly (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Purugly_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B432" r:id="rId1619" tooltip="Glameow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Glameow_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B431" r:id="rId1620" tooltip="Honchkrow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Honchkrow_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B430" r:id="rId1621" tooltip="Mismagius (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mismagius_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B429" r:id="rId1622" tooltip="Lopunny (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lopunny_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B428" r:id="rId1623" tooltip="Buneary (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Buneary_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B427" r:id="rId1624" tooltip="Drifblim (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Drifblim_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B426" r:id="rId1625" tooltip="Drifloon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Drifloon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B425" r:id="rId1626" tooltip="Ambipom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ambipom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B424" r:id="rId1627" tooltip="Gastrodon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gastrodon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B423" r:id="rId1628" tooltip="Shellos (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shellos_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B422" r:id="rId1629" tooltip="Cherrim (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cherrim_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B421" r:id="rId1630" tooltip="Cherubi (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cherubi_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B420" r:id="rId1631" tooltip="Floatzel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Floatzel_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B419" r:id="rId1632" tooltip="Buizel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Buizel_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B418" r:id="rId1633" tooltip="Pachirisu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pachirisu_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B417" r:id="rId1634" tooltip="Vespiquen (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vespiquen_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B416" r:id="rId1635" tooltip="Combee (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Combee_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B415" r:id="rId1636" tooltip="Mothim (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mothim_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B414" r:id="rId1637" tooltip="Wormadam (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wormadam_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B413" r:id="rId1638" tooltip="Burmy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Burmy_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B412" r:id="rId1639" tooltip="Bastiodon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bastiodon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B411" r:id="rId1640" tooltip="Shieldon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shieldon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B410" r:id="rId1641" tooltip="Rampardos (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rampardos_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B409" r:id="rId1642" tooltip="Cranidos (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cranidos_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B408" r:id="rId1643" tooltip="Roserade (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Roserade_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B407" r:id="rId1644" tooltip="Budew (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Budew_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B406" r:id="rId1645" tooltip="Luxray (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Luxray_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B405" r:id="rId1646" tooltip="Luxio (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Luxio_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B404" r:id="rId1647" tooltip="Shinx (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shinx_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B403" r:id="rId1648" tooltip="Kricketune (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kricketune_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B402" r:id="rId1649" tooltip="Kricketot (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kricketot_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B401" r:id="rId1650" tooltip="Bibarel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bibarel_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B400" r:id="rId1651" tooltip="Bidoof (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bidoof_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B399" r:id="rId1652" tooltip="Staraptor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Staraptor_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B398" r:id="rId1653" tooltip="Staravia (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Staravia_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B397" r:id="rId1654" tooltip="Starly (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Starly_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B396" r:id="rId1655" tooltip="Empoleon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Empoleon_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B395" r:id="rId1656" tooltip="Prinplup (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Prinplup_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B394" r:id="rId1657" tooltip="Piplup (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Piplup_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B393" r:id="rId1658" tooltip="Infernape (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Infernape_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B392" r:id="rId1659" tooltip="Monferno (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Monferno_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B391" r:id="rId1660" tooltip="Chimchar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chimchar_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B390" r:id="rId1661" tooltip="Torterra (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Torterra_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B389" r:id="rId1662" tooltip="Grotle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Grotle_(Pok%C3%A9mon)"/>
-    <hyperlink ref="B388" r:id="rId1663" tooltip="Turtwig (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Turtwig_(Pok%C3%A9mon)"/>
-    <hyperlink ref="L388:L722" r:id="rId1664" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="V2" r:id="rId1665" tooltip="妙蛙种子"/>
-    <hyperlink ref="V3" r:id="rId1666" tooltip="妙蛙草"/>
-    <hyperlink ref="V4" r:id="rId1667" tooltip="妙蛙花"/>
-    <hyperlink ref="V5" r:id="rId1668" tooltip="小火龙"/>
-    <hyperlink ref="V6" r:id="rId1669" tooltip="火恐龙"/>
-    <hyperlink ref="V7" r:id="rId1670" tooltip="喷火龙"/>
-    <hyperlink ref="V8" r:id="rId1671" tooltip="杰尼龟"/>
-    <hyperlink ref="V9" r:id="rId1672" tooltip="卡咪龟"/>
-    <hyperlink ref="V10" r:id="rId1673" tooltip="水箭龟"/>
-    <hyperlink ref="V11" r:id="rId1674" tooltip="绿毛虫"/>
-    <hyperlink ref="V12" r:id="rId1675" tooltip="铁甲蛹"/>
-    <hyperlink ref="V13" r:id="rId1676" tooltip="巴大蝶"/>
-    <hyperlink ref="V14" r:id="rId1677" tooltip="独角虫"/>
-    <hyperlink ref="V15" r:id="rId1678" tooltip="铁壳蛹"/>
-    <hyperlink ref="V16" r:id="rId1679" tooltip="大针蜂"/>
-    <hyperlink ref="V17" r:id="rId1680" tooltip="波波"/>
-    <hyperlink ref="V18" r:id="rId1681" tooltip="比比鸟"/>
-    <hyperlink ref="V19" r:id="rId1682" tooltip="大比鸟"/>
-    <hyperlink ref="V20" r:id="rId1683" tooltip="小拉达"/>
-    <hyperlink ref="V21" r:id="rId1684" tooltip="拉达"/>
-    <hyperlink ref="V22" r:id="rId1685" tooltip="烈雀"/>
-    <hyperlink ref="V23" r:id="rId1686" tooltip="大嘴雀"/>
-    <hyperlink ref="V24" r:id="rId1687" tooltip="阿柏蛇"/>
-    <hyperlink ref="V25" r:id="rId1688" tooltip="阿柏怪"/>
-    <hyperlink ref="V26" r:id="rId1689" tooltip="皮卡丘"/>
-    <hyperlink ref="V27" r:id="rId1690" tooltip="雷丘"/>
-    <hyperlink ref="V28" r:id="rId1691" tooltip="穿山鼠"/>
-    <hyperlink ref="V29" r:id="rId1692" tooltip="穿山王"/>
-    <hyperlink ref="V30" r:id="rId1693" tooltip="尼多兰"/>
-    <hyperlink ref="V31" r:id="rId1694" tooltip="尼多娜"/>
-    <hyperlink ref="V32" r:id="rId1695" tooltip="尼多后"/>
-    <hyperlink ref="V33" r:id="rId1696" tooltip="尼多朗"/>
-    <hyperlink ref="V34" r:id="rId1697" tooltip="尼多力诺"/>
-    <hyperlink ref="V35" r:id="rId1698" tooltip="尼多王"/>
-    <hyperlink ref="V36" r:id="rId1699" tooltip="皮皮"/>
-    <hyperlink ref="V37" r:id="rId1700" tooltip="皮可西"/>
-    <hyperlink ref="V38" r:id="rId1701" tooltip="六尾"/>
-    <hyperlink ref="V39" r:id="rId1702" tooltip="九尾"/>
-    <hyperlink ref="V40" r:id="rId1703" tooltip="胖丁"/>
-    <hyperlink ref="V41" r:id="rId1704" tooltip="胖可丁"/>
-    <hyperlink ref="V42" r:id="rId1705" tooltip="超音蝠"/>
-    <hyperlink ref="V43" r:id="rId1706" tooltip="大嘴蝠"/>
-    <hyperlink ref="V44" r:id="rId1707" tooltip="走路草"/>
-    <hyperlink ref="V45" r:id="rId1708" tooltip="臭臭花"/>
-    <hyperlink ref="V46" r:id="rId1709" tooltip="霸王花"/>
-    <hyperlink ref="V47" r:id="rId1710" tooltip="派拉斯"/>
-    <hyperlink ref="V48" r:id="rId1711" tooltip="派拉斯特"/>
-    <hyperlink ref="V49" r:id="rId1712" tooltip="毛球"/>
-    <hyperlink ref="V50" r:id="rId1713" tooltip="摩鲁蛾"/>
-    <hyperlink ref="V51" r:id="rId1714" tooltip="地鼠"/>
-    <hyperlink ref="V52" r:id="rId1715" tooltip="三地鼠"/>
-    <hyperlink ref="V53" r:id="rId1716" tooltip="喵喵"/>
-    <hyperlink ref="V54" r:id="rId1717" tooltip="猫老大"/>
-    <hyperlink ref="V55" r:id="rId1718" tooltip="可达鸭"/>
-    <hyperlink ref="V56" r:id="rId1719" tooltip="哥达鸭"/>
-    <hyperlink ref="V57" r:id="rId1720" tooltip="猴怪"/>
-    <hyperlink ref="V58" r:id="rId1721" tooltip="火暴猴"/>
-    <hyperlink ref="V59" r:id="rId1722" tooltip="卡蒂狗"/>
-    <hyperlink ref="V60" r:id="rId1723" tooltip="风速狗"/>
-    <hyperlink ref="V61" r:id="rId1724" tooltip="蚊香蝌蚪"/>
-    <hyperlink ref="V62" r:id="rId1725" tooltip="蚊香君"/>
-    <hyperlink ref="V63" r:id="rId1726" tooltip="蚊香泳士"/>
-    <hyperlink ref="V64" r:id="rId1727" tooltip="凯西"/>
-    <hyperlink ref="V65" r:id="rId1728" tooltip="勇基拉"/>
-    <hyperlink ref="V66" r:id="rId1729" tooltip="胡地"/>
-    <hyperlink ref="V67" r:id="rId1730" tooltip="腕力"/>
-    <hyperlink ref="V68" r:id="rId1731" tooltip="豪力"/>
-    <hyperlink ref="V69" r:id="rId1732" tooltip="怪力"/>
-    <hyperlink ref="V70" r:id="rId1733" tooltip="喇叭芽"/>
-    <hyperlink ref="V71" r:id="rId1734" tooltip="口呆花"/>
-    <hyperlink ref="V72" r:id="rId1735" tooltip="大食花"/>
-    <hyperlink ref="V73" r:id="rId1736" tooltip="玛瑙水母"/>
-    <hyperlink ref="V74" r:id="rId1737" tooltip="毒刺水母"/>
-    <hyperlink ref="V75" r:id="rId1738" tooltip="小拳石"/>
-    <hyperlink ref="V76" r:id="rId1739" tooltip="隆隆石"/>
-    <hyperlink ref="V77" r:id="rId1740" tooltip="隆隆岩"/>
-    <hyperlink ref="V78" r:id="rId1741" tooltip="小火马"/>
-    <hyperlink ref="V79" r:id="rId1742" tooltip="烈焰马"/>
-    <hyperlink ref="V80" r:id="rId1743" tooltip="呆呆兽"/>
-    <hyperlink ref="V81" r:id="rId1744" tooltip="呆壳兽"/>
-    <hyperlink ref="V82" r:id="rId1745" tooltip="小磁怪"/>
-    <hyperlink ref="V83" r:id="rId1746" tooltip="三合一磁怪"/>
-    <hyperlink ref="V84" r:id="rId1747" tooltip="大葱鸭"/>
-    <hyperlink ref="V85" r:id="rId1748" tooltip="嘟嘟"/>
-    <hyperlink ref="V86" r:id="rId1749" tooltip="嘟嘟利"/>
-    <hyperlink ref="V87" r:id="rId1750" tooltip="小海狮"/>
-    <hyperlink ref="V88" r:id="rId1751" tooltip="白海狮"/>
-    <hyperlink ref="V89" r:id="rId1752" tooltip="臭泥"/>
-    <hyperlink ref="V90" r:id="rId1753" tooltip="臭臭泥"/>
-    <hyperlink ref="V91" r:id="rId1754" tooltip="大舌贝"/>
-    <hyperlink ref="V92" r:id="rId1755" tooltip="刺甲贝"/>
-    <hyperlink ref="V93" r:id="rId1756" tooltip="鬼斯"/>
-    <hyperlink ref="V94" r:id="rId1757" tooltip="鬼斯通"/>
-    <hyperlink ref="V95" r:id="rId1758" tooltip="耿鬼"/>
-    <hyperlink ref="V96" r:id="rId1759" tooltip="大岩蛇"/>
-    <hyperlink ref="V97" r:id="rId1760" tooltip="催眠貘"/>
-    <hyperlink ref="V98" r:id="rId1761" tooltip="引梦貘人"/>
-    <hyperlink ref="V99" r:id="rId1762" tooltip="大钳蟹"/>
-    <hyperlink ref="V100" r:id="rId1763" tooltip="巨钳蟹"/>
-    <hyperlink ref="V101" r:id="rId1764" tooltip="霹雳电球"/>
-    <hyperlink ref="V102" r:id="rId1765" tooltip="顽皮雷弹"/>
-    <hyperlink ref="V103" r:id="rId1766" tooltip="蛋蛋"/>
-    <hyperlink ref="V104" r:id="rId1767" tooltip="椰蛋树"/>
-    <hyperlink ref="V105" r:id="rId1768" tooltip="卡拉卡拉"/>
-    <hyperlink ref="V106" r:id="rId1769" tooltip="嘎啦嘎啦"/>
-    <hyperlink ref="V107" r:id="rId1770" tooltip="飞腿郎"/>
-    <hyperlink ref="V108" r:id="rId1771" tooltip="快拳郎"/>
-    <hyperlink ref="V109" r:id="rId1772" tooltip="大舌头"/>
-    <hyperlink ref="V110" r:id="rId1773" tooltip="瓦斯弹"/>
-    <hyperlink ref="V111" r:id="rId1774" tooltip="双弹瓦斯"/>
-    <hyperlink ref="V112" r:id="rId1775" tooltip="独角犀牛"/>
-    <hyperlink ref="V113" r:id="rId1776" tooltip="钻角犀兽"/>
-    <hyperlink ref="V114" r:id="rId1777" tooltip="吉利蛋"/>
-    <hyperlink ref="V115" r:id="rId1778" tooltip="蔓藤怪"/>
-    <hyperlink ref="V116" r:id="rId1779" tooltip="袋兽"/>
-    <hyperlink ref="V117" r:id="rId1780" tooltip="墨海马"/>
-    <hyperlink ref="V118" r:id="rId1781" tooltip="海刺龙"/>
-    <hyperlink ref="V119" r:id="rId1782" tooltip="角金鱼"/>
-    <hyperlink ref="V120" r:id="rId1783" tooltip="金鱼王"/>
-    <hyperlink ref="V121" r:id="rId1784" tooltip="海星星"/>
-    <hyperlink ref="V122" r:id="rId1785" tooltip="宝石海星"/>
-    <hyperlink ref="V123" r:id="rId1786" tooltip="魔墙人偶"/>
-    <hyperlink ref="V124" r:id="rId1787" tooltip="飞天螳螂"/>
-    <hyperlink ref="V125" r:id="rId1788" tooltip="迷唇姐"/>
-    <hyperlink ref="V126" r:id="rId1789" tooltip="电击兽"/>
-    <hyperlink ref="V127" r:id="rId1790" tooltip="鸭嘴火兽"/>
-    <hyperlink ref="V128" r:id="rId1791" tooltip="凯罗斯"/>
-    <hyperlink ref="V129" r:id="rId1792" tooltip="肯泰罗"/>
-    <hyperlink ref="V130" r:id="rId1793" tooltip="鲤鱼王"/>
-    <hyperlink ref="V131" r:id="rId1794" tooltip="暴鲤龙"/>
-    <hyperlink ref="V132" r:id="rId1795" tooltip="拉普拉斯"/>
-    <hyperlink ref="V133" r:id="rId1796" tooltip="百变怪"/>
-    <hyperlink ref="V134" r:id="rId1797" tooltip="伊布"/>
-    <hyperlink ref="V135" r:id="rId1798" tooltip="水伊布"/>
-    <hyperlink ref="V136" r:id="rId1799" tooltip="雷伊布"/>
-    <hyperlink ref="V137" r:id="rId1800" tooltip="火伊布"/>
-    <hyperlink ref="V138" r:id="rId1801" tooltip="多边兽"/>
-    <hyperlink ref="V139" r:id="rId1802" tooltip="菊石兽"/>
-    <hyperlink ref="V140" r:id="rId1803" tooltip="多刺菊石兽"/>
-    <hyperlink ref="V141" r:id="rId1804" tooltip="化石盔"/>
-    <hyperlink ref="V142" r:id="rId1805" tooltip="镰刀盔"/>
-    <hyperlink ref="V143" r:id="rId1806" tooltip="化石翼龙"/>
-    <hyperlink ref="V144" r:id="rId1807" tooltip="卡比兽"/>
-    <hyperlink ref="V145" r:id="rId1808" tooltip="急冻鸟"/>
-    <hyperlink ref="V146" r:id="rId1809" tooltip="闪电鸟"/>
-    <hyperlink ref="V147" r:id="rId1810" tooltip="火焰鸟"/>
-    <hyperlink ref="V148" r:id="rId1811" tooltip="迷你龙"/>
-    <hyperlink ref="V149" r:id="rId1812" tooltip="哈克龙"/>
-    <hyperlink ref="V150" r:id="rId1813" tooltip="快龙"/>
-    <hyperlink ref="V151" r:id="rId1814" tooltip="超梦"/>
-    <hyperlink ref="V152" r:id="rId1815" tooltip="梦幻"/>
-    <hyperlink ref="V153" r:id="rId1816" tooltip="菊草叶"/>
-    <hyperlink ref="V154" r:id="rId1817" tooltip="月桂叶"/>
-    <hyperlink ref="V155" r:id="rId1818" tooltip="大竺葵"/>
-    <hyperlink ref="V156" r:id="rId1819" tooltip="火球鼠"/>
-    <hyperlink ref="V157" r:id="rId1820" tooltip="火岩鼠"/>
-    <hyperlink ref="V158" r:id="rId1821" tooltip="火暴兽"/>
-    <hyperlink ref="V159" r:id="rId1822" tooltip="小锯鳄"/>
-    <hyperlink ref="V160" r:id="rId1823" tooltip="蓝鳄"/>
-    <hyperlink ref="V161" r:id="rId1824" tooltip="大力鳄"/>
-    <hyperlink ref="V162" r:id="rId1825" tooltip="尾立"/>
-    <hyperlink ref="V163" r:id="rId1826" tooltip="大尾立"/>
-    <hyperlink ref="V164" r:id="rId1827" tooltip="咕咕"/>
-    <hyperlink ref="V165" r:id="rId1828" tooltip="猫头夜鹰"/>
-    <hyperlink ref="V166" r:id="rId1829" tooltip="芭瓢虫"/>
-    <hyperlink ref="V167" r:id="rId1830" tooltip="安瓢虫"/>
-    <hyperlink ref="V168" r:id="rId1831" tooltip="圆丝蛛"/>
-    <hyperlink ref="V169" r:id="rId1832" tooltip="阿利多斯"/>
-    <hyperlink ref="V170" r:id="rId1833" tooltip="叉字蝠"/>
-    <hyperlink ref="V171" r:id="rId1834" tooltip="灯笼鱼"/>
-    <hyperlink ref="V172" r:id="rId1835" tooltip="电灯怪"/>
-    <hyperlink ref="V173" r:id="rId1836" tooltip="皮丘"/>
-    <hyperlink ref="V174" r:id="rId1837" tooltip="皮宝宝"/>
-    <hyperlink ref="V175" r:id="rId1838" tooltip="宝宝丁"/>
-    <hyperlink ref="V176" r:id="rId1839" tooltip="波克比"/>
-    <hyperlink ref="V177" r:id="rId1840" tooltip="波克基古"/>
-    <hyperlink ref="V178" r:id="rId1841" tooltip="天然雀"/>
-    <hyperlink ref="V179" r:id="rId1842" tooltip="天然鸟"/>
-    <hyperlink ref="V180" r:id="rId1843" tooltip="咩利羊"/>
-    <hyperlink ref="V181" r:id="rId1844" tooltip="茸茸羊"/>
-    <hyperlink ref="V182" r:id="rId1845" tooltip="电龙"/>
-    <hyperlink ref="V183" r:id="rId1846" tooltip="美丽花"/>
-    <hyperlink ref="V184" r:id="rId1847" tooltip="玛力露"/>
-    <hyperlink ref="V185" r:id="rId1848" tooltip="玛力露丽"/>
-    <hyperlink ref="V186" r:id="rId1849" tooltip="树才怪"/>
-    <hyperlink ref="V187" r:id="rId1850" tooltip="蚊香蛙皇"/>
-    <hyperlink ref="V188" r:id="rId1851" tooltip="毽子草"/>
-    <hyperlink ref="V189" r:id="rId1852" tooltip="毽子花"/>
-    <hyperlink ref="V190" r:id="rId1853" tooltip="毽子棉"/>
-    <hyperlink ref="V191" r:id="rId1854" tooltip="长尾怪手"/>
-    <hyperlink ref="V192" r:id="rId1855" tooltip="向日种子"/>
-    <hyperlink ref="V193" r:id="rId1856" tooltip="向日花怪"/>
-    <hyperlink ref="V194" r:id="rId1857" tooltip="蜻蜻蜓"/>
-    <hyperlink ref="V195" r:id="rId1858" tooltip="乌波"/>
-    <hyperlink ref="V196" r:id="rId1859" tooltip="沼王"/>
-    <hyperlink ref="V197" r:id="rId1860" tooltip="太阳伊布"/>
-    <hyperlink ref="V198" r:id="rId1861" tooltip="月亮伊布"/>
-    <hyperlink ref="V199" r:id="rId1862" tooltip="黑暗鸦"/>
-    <hyperlink ref="V200" r:id="rId1863" tooltip="呆呆王"/>
-    <hyperlink ref="V201" r:id="rId1864" tooltip="梦妖"/>
-    <hyperlink ref="V202" r:id="rId1865" tooltip="未知图腾"/>
-    <hyperlink ref="V203" r:id="rId1866" tooltip="果然翁"/>
-    <hyperlink ref="V204" r:id="rId1867" tooltip="麒麟奇"/>
-    <hyperlink ref="V205" r:id="rId1868" tooltip="榛果球"/>
-    <hyperlink ref="V206" r:id="rId1869" tooltip="佛烈托斯"/>
-    <hyperlink ref="V207" r:id="rId1870" tooltip="土龙弟弟"/>
-    <hyperlink ref="V208" r:id="rId1871" tooltip="天蝎"/>
-    <hyperlink ref="V209" r:id="rId1872" tooltip="大钢蛇"/>
-    <hyperlink ref="V210" r:id="rId1873" tooltip="布鲁"/>
-    <hyperlink ref="V211" r:id="rId1874" tooltip="布鲁皇"/>
-    <hyperlink ref="V212" r:id="rId1875" tooltip="千针鱼"/>
-    <hyperlink ref="V213" r:id="rId1876" tooltip="巨钳螳螂"/>
-    <hyperlink ref="V214" r:id="rId1877" tooltip="壶壶"/>
-    <hyperlink ref="V215" r:id="rId1878" tooltip="赫拉克罗斯"/>
-    <hyperlink ref="V216" r:id="rId1879" tooltip="狃拉"/>
-    <hyperlink ref="V217" r:id="rId1880" tooltip="熊宝宝"/>
-    <hyperlink ref="V218" r:id="rId1881" tooltip="圈圈熊"/>
-    <hyperlink ref="V219" r:id="rId1882" tooltip="熔岩虫"/>
-    <hyperlink ref="V220" r:id="rId1883" tooltip="熔岩蜗牛"/>
-    <hyperlink ref="V221" r:id="rId1884" tooltip="小山猪"/>
-    <hyperlink ref="V222" r:id="rId1885" tooltip="长毛猪"/>
-    <hyperlink ref="V223" r:id="rId1886" tooltip="太阳珊瑚"/>
-    <hyperlink ref="V224" r:id="rId1887" tooltip="铁炮鱼"/>
-    <hyperlink ref="V225" r:id="rId1888" tooltip="章鱼桶"/>
-    <hyperlink ref="V226" r:id="rId1889" tooltip="信使鸟"/>
-    <hyperlink ref="V227" r:id="rId1890" tooltip="巨翅飞鱼"/>
-    <hyperlink ref="V228" r:id="rId1891" tooltip="盔甲鸟"/>
-    <hyperlink ref="V229" r:id="rId1892" tooltip="戴鲁比"/>
-    <hyperlink ref="V230" r:id="rId1893" tooltip="黑鲁加"/>
-    <hyperlink ref="V231" r:id="rId1894" tooltip="刺龙王"/>
-    <hyperlink ref="V232" r:id="rId1895" tooltip="小小象"/>
-    <hyperlink ref="V233" r:id="rId1896" tooltip="顿甲"/>
-    <hyperlink ref="V235" r:id="rId1897" tooltip="惊角鹿"/>
-    <hyperlink ref="V236" r:id="rId1898" tooltip="图图犬"/>
-    <hyperlink ref="V237" r:id="rId1899" tooltip="无畏小子"/>
-    <hyperlink ref="V238" r:id="rId1900" tooltip="战舞郎"/>
-    <hyperlink ref="V239" r:id="rId1901" tooltip="迷唇娃"/>
-    <hyperlink ref="V240" r:id="rId1902" tooltip="电击怪"/>
-    <hyperlink ref="V241" r:id="rId1903" tooltip="鸭嘴宝宝"/>
-    <hyperlink ref="V242" r:id="rId1904" tooltip="大奶罐"/>
-    <hyperlink ref="V243" r:id="rId1905" tooltip="幸福蛋"/>
-    <hyperlink ref="V244" r:id="rId1906" tooltip="雷公"/>
-    <hyperlink ref="V245" r:id="rId1907" tooltip="炎帝"/>
-    <hyperlink ref="V246" r:id="rId1908" tooltip="水君"/>
-    <hyperlink ref="V247" r:id="rId1909" tooltip="幼基拉斯"/>
-    <hyperlink ref="V248" r:id="rId1910" tooltip="沙基拉斯"/>
-    <hyperlink ref="V249" r:id="rId1911" tooltip="班基拉斯"/>
-    <hyperlink ref="V250" r:id="rId1912" tooltip="洛奇亚"/>
-    <hyperlink ref="V251" r:id="rId1913" tooltip="凤王"/>
-    <hyperlink ref="V252" r:id="rId1914" tooltip="时拉比"/>
-    <hyperlink ref="V253" r:id="rId1915" tooltip="木守宫"/>
-    <hyperlink ref="V254" r:id="rId1916" tooltip="森林蜥蜴"/>
-    <hyperlink ref="V255" r:id="rId1917" tooltip="蜥蜴王"/>
-    <hyperlink ref="V256" r:id="rId1918" tooltip="火稚鸡"/>
-    <hyperlink ref="V257" r:id="rId1919" tooltip="力壮鸡"/>
-    <hyperlink ref="V258" r:id="rId1920" tooltip="火焰鸡"/>
-    <hyperlink ref="V259" r:id="rId1921" tooltip="水跃鱼"/>
-    <hyperlink ref="V260" r:id="rId1922" tooltip="沼跃鱼"/>
-    <hyperlink ref="V261" r:id="rId1923" tooltip="巨沼怪"/>
-    <hyperlink ref="V262" r:id="rId1924" tooltip="土狼犬"/>
-    <hyperlink ref="V263" r:id="rId1925" tooltip="大狼犬"/>
-    <hyperlink ref="V264" r:id="rId1926" tooltip="蛇纹熊"/>
-    <hyperlink ref="V265" r:id="rId1927" tooltip="直冲熊"/>
-    <hyperlink ref="V266" r:id="rId1928" tooltip="刺尾虫"/>
-    <hyperlink ref="V267" r:id="rId1929" tooltip="甲壳茧"/>
-    <hyperlink ref="V268" r:id="rId1930" tooltip="狩猎凤蝶"/>
-    <hyperlink ref="V269" r:id="rId1931" tooltip="盾甲茧"/>
-    <hyperlink ref="V270" r:id="rId1932" tooltip="毒粉蛾"/>
-    <hyperlink ref="V271" r:id="rId1933" tooltip="莲叶童子"/>
-    <hyperlink ref="V272" r:id="rId1934" tooltip="莲帽小童"/>
-    <hyperlink ref="V273" r:id="rId1935" tooltip="乐天河童"/>
-    <hyperlink ref="V274" r:id="rId1936" tooltip="橡实果"/>
-    <hyperlink ref="V275" r:id="rId1937" tooltip="长鼻叶"/>
-    <hyperlink ref="V276" r:id="rId1938" tooltip="狡猾天狗"/>
-    <hyperlink ref="V277" r:id="rId1939" tooltip="傲骨燕"/>
-    <hyperlink ref="V278" r:id="rId1940" tooltip="大王燕"/>
-    <hyperlink ref="V279" r:id="rId1941" tooltip="长翅鸥"/>
-    <hyperlink ref="V280" r:id="rId1942" tooltip="大嘴鸥"/>
-    <hyperlink ref="V281" r:id="rId1943" tooltip="拉鲁拉丝"/>
-    <hyperlink ref="V282" r:id="rId1944" tooltip="奇鲁莉安"/>
-    <hyperlink ref="V283" r:id="rId1945" tooltip="沙奈朵"/>
-    <hyperlink ref="V284" r:id="rId1946" tooltip="溜溜糖球"/>
-    <hyperlink ref="V285" r:id="rId1947" tooltip="雨翅蛾"/>
-    <hyperlink ref="V286" r:id="rId1948" tooltip="蘑蘑菇"/>
-    <hyperlink ref="V287" r:id="rId1949" tooltip="斗笠菇"/>
-    <hyperlink ref="V288" r:id="rId1950" tooltip="懒人獭"/>
-    <hyperlink ref="V289" r:id="rId1951" tooltip="过动猿"/>
-    <hyperlink ref="V290" r:id="rId1952" tooltip="请假王"/>
-    <hyperlink ref="V291" r:id="rId1953" tooltip="土居忍士"/>
-    <hyperlink ref="V292" r:id="rId1954" tooltip="铁面忍者"/>
-    <hyperlink ref="V293" r:id="rId1955" tooltip="脱壳忍者"/>
-    <hyperlink ref="V294" r:id="rId1956" tooltip="咕妞妞"/>
-    <hyperlink ref="V295" r:id="rId1957" tooltip="吼爆弹"/>
-    <hyperlink ref="V296" r:id="rId1958" tooltip="爆音怪"/>
-    <hyperlink ref="V297" r:id="rId1959" tooltip="幕下力士"/>
-    <hyperlink ref="V298" r:id="rId1960" tooltip="铁掌力士"/>
-    <hyperlink ref="V299" r:id="rId1961" tooltip="露力丽"/>
-    <hyperlink ref="V300" r:id="rId1962" tooltip="朝北鼻"/>
-    <hyperlink ref="V301" r:id="rId1963" tooltip="向尾喵"/>
-    <hyperlink ref="V302" r:id="rId1964" tooltip="优雅猫"/>
-    <hyperlink ref="V303" r:id="rId1965" tooltip="勾魂眼"/>
-    <hyperlink ref="V304" r:id="rId1966" tooltip="大嘴娃"/>
-    <hyperlink ref="V305" r:id="rId1967" tooltip="可可多拉"/>
-    <hyperlink ref="V306" r:id="rId1968" tooltip="可多拉"/>
-    <hyperlink ref="V307" r:id="rId1969" tooltip="波士可多拉"/>
-    <hyperlink ref="V308" r:id="rId1970" tooltip="玛沙那"/>
-    <hyperlink ref="V309" r:id="rId1971" tooltip="恰雷姆"/>
-    <hyperlink ref="V310" r:id="rId1972" tooltip="落雷兽"/>
-    <hyperlink ref="V311" r:id="rId1973" tooltip="雷电兽"/>
-    <hyperlink ref="V312" r:id="rId1974" tooltip="正电拍拍"/>
-    <hyperlink ref="V313" r:id="rId1975" tooltip="负电拍拍"/>
-    <hyperlink ref="V314" r:id="rId1976" tooltip="电萤虫"/>
-    <hyperlink ref="V315" r:id="rId1977" tooltip="甜甜萤"/>
-    <hyperlink ref="V316" r:id="rId1978" tooltip="毒蔷薇"/>
-    <hyperlink ref="V317" r:id="rId1979" tooltip="溶食兽"/>
-    <hyperlink ref="V318" r:id="rId1980" tooltip="吞食兽"/>
-    <hyperlink ref="V319" r:id="rId1981" tooltip="利牙鱼"/>
-    <hyperlink ref="V320" r:id="rId1982" tooltip="巨牙鲨"/>
-    <hyperlink ref="V321" r:id="rId1983" tooltip="吼吼鲸"/>
-    <hyperlink ref="V322" r:id="rId1984" tooltip="吼鲸王"/>
-    <hyperlink ref="V323" r:id="rId1985" tooltip="呆火驼"/>
-    <hyperlink ref="V324" r:id="rId1986" tooltip="喷火驼"/>
-    <hyperlink ref="V325" r:id="rId1987" tooltip="煤炭龟"/>
-    <hyperlink ref="V326" r:id="rId1988" tooltip="跳跳猪"/>
-    <hyperlink ref="V327" r:id="rId1989" tooltip="噗噗猪"/>
-    <hyperlink ref="V328" r:id="rId1990" tooltip="晃晃斑"/>
-    <hyperlink ref="V329" r:id="rId1991" tooltip="大颚蚁"/>
-    <hyperlink ref="V330" r:id="rId1992" tooltip="超音波幼虫"/>
-    <hyperlink ref="V331" r:id="rId1993" tooltip="沙漠蜻蜓"/>
-    <hyperlink ref="V332" r:id="rId1994" tooltip="刺球仙人掌"/>
-    <hyperlink ref="V333" r:id="rId1995" tooltip="梦歌仙人掌"/>
-    <hyperlink ref="V334" r:id="rId1996" tooltip="青绵鸟"/>
-    <hyperlink ref="V335" r:id="rId1997" tooltip="七夕青鸟"/>
-    <hyperlink ref="V336" r:id="rId1998" tooltip="猫鼬斩"/>
-    <hyperlink ref="V337" r:id="rId1999" tooltip="饭匙蛇"/>
-    <hyperlink ref="V338" r:id="rId2000" tooltip="月石"/>
-    <hyperlink ref="V339" r:id="rId2001" tooltip="太阳岩"/>
-    <hyperlink ref="V340" r:id="rId2002" tooltip="泥泥鳅"/>
-    <hyperlink ref="V341" r:id="rId2003" tooltip="鲶鱼王"/>
-    <hyperlink ref="V342" r:id="rId2004" tooltip="龙虾小兵"/>
-    <hyperlink ref="V343" r:id="rId2005" tooltip="铁螯龙虾"/>
-    <hyperlink ref="V344" r:id="rId2006" tooltip="天秤偶"/>
-    <hyperlink ref="V345" r:id="rId2007" tooltip="念力土偶"/>
-    <hyperlink ref="V346" r:id="rId2008" tooltip="触手百合"/>
-    <hyperlink ref="V347" r:id="rId2009" tooltip="摇篮百合"/>
-    <hyperlink ref="V348" r:id="rId2010" tooltip="太古羽虫"/>
-    <hyperlink ref="V349" r:id="rId2011" tooltip="太古盔甲"/>
-    <hyperlink ref="V350" r:id="rId2012" tooltip="丑丑鱼"/>
-    <hyperlink ref="V351" r:id="rId2013" tooltip="美纳斯"/>
-    <hyperlink ref="V352" r:id="rId2014" tooltip="飘浮泡泡"/>
-    <hyperlink ref="V353" r:id="rId2015" tooltip="变隐龙"/>
-    <hyperlink ref="V354" r:id="rId2016" tooltip="怨影娃娃"/>
-    <hyperlink ref="V355" r:id="rId2017" tooltip="诅咒娃娃"/>
-    <hyperlink ref="V356" r:id="rId2018" tooltip="夜巡灵"/>
-    <hyperlink ref="V357" r:id="rId2019" tooltip="彷徨夜灵"/>
-    <hyperlink ref="V358" r:id="rId2020" tooltip="热带龙"/>
-    <hyperlink ref="V359" r:id="rId2021" tooltip="风铃铃"/>
-    <hyperlink ref="V360" r:id="rId2022" tooltip="阿勃梭鲁"/>
-    <hyperlink ref="V361" r:id="rId2023" tooltip="小果然"/>
-    <hyperlink ref="V362" r:id="rId2024" tooltip="雪童子"/>
-    <hyperlink ref="V363" r:id="rId2025" tooltip="冰鬼护"/>
-    <hyperlink ref="V364" r:id="rId2026" tooltip="海豹球"/>
-    <hyperlink ref="V365" r:id="rId2027" tooltip="海魔狮"/>
-    <hyperlink ref="V366" r:id="rId2028" tooltip="帝牙海狮"/>
-    <hyperlink ref="V367" r:id="rId2029" tooltip="珍珠贝"/>
-    <hyperlink ref="V368" r:id="rId2030" tooltip="猎斑鱼"/>
-    <hyperlink ref="V369" r:id="rId2031" tooltip="樱花鱼"/>
-    <hyperlink ref="V370" r:id="rId2032" tooltip="古空棘鱼"/>
-    <hyperlink ref="V371" r:id="rId2033" tooltip="爱心鱼"/>
-    <hyperlink ref="V372" r:id="rId2034" tooltip="宝贝龙"/>
-    <hyperlink ref="V373" r:id="rId2035" tooltip="甲壳龙"/>
-    <hyperlink ref="V374" r:id="rId2036" tooltip="暴飞龙"/>
-    <hyperlink ref="V375" r:id="rId2037" tooltip="铁哑铃"/>
-    <hyperlink ref="V376" r:id="rId2038" tooltip="金属怪"/>
-    <hyperlink ref="V377" r:id="rId2039" tooltip="巨金怪"/>
-    <hyperlink ref="V378" r:id="rId2040" tooltip="雷吉洛克"/>
-    <hyperlink ref="V379" r:id="rId2041" tooltip="雷吉艾斯"/>
-    <hyperlink ref="V380" r:id="rId2042" tooltip="雷吉斯奇鲁"/>
-    <hyperlink ref="V381" r:id="rId2043" tooltip="拉帝亚斯"/>
-    <hyperlink ref="V382" r:id="rId2044" tooltip="拉帝欧斯"/>
-    <hyperlink ref="V383" r:id="rId2045" tooltip="盖欧卡"/>
-    <hyperlink ref="V384" r:id="rId2046" tooltip="固拉多"/>
-    <hyperlink ref="V385" r:id="rId2047" tooltip="烈空坐"/>
-    <hyperlink ref="V386" r:id="rId2048" tooltip="基拉祈"/>
-    <hyperlink ref="V387" r:id="rId2049" tooltip="代欧奇希斯"/>
-    <hyperlink ref="L723:L803" r:id="rId2050" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="B721" r:id="rId2051" tooltip="Hoopa (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hoopa_(Pok%C3%A9mon)"/>
-    <hyperlink ref="L721" r:id="rId2052" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="T388" r:id="rId2053" tooltip="草苗龟"/>
-    <hyperlink ref="T389" r:id="rId2054" tooltip="树林龟"/>
-    <hyperlink ref="T390" r:id="rId2055" tooltip="土台龟"/>
-    <hyperlink ref="T391" r:id="rId2056" tooltip="小火焰猴"/>
-    <hyperlink ref="T392" r:id="rId2057" tooltip="猛火猴"/>
-    <hyperlink ref="T393" r:id="rId2058" tooltip="烈焰猴"/>
-    <hyperlink ref="T394" r:id="rId2059" tooltip="波加曼"/>
-    <hyperlink ref="T395" r:id="rId2060" tooltip="波皇子"/>
-    <hyperlink ref="T396" r:id="rId2061" tooltip="帝王拿波"/>
-    <hyperlink ref="T397" r:id="rId2062" tooltip="姆克儿"/>
-    <hyperlink ref="T398" r:id="rId2063" tooltip="姆克鸟"/>
-    <hyperlink ref="T399" r:id="rId2064" tooltip="姆克鹰"/>
-    <hyperlink ref="T400" r:id="rId2065" tooltip="大牙狸"/>
-    <hyperlink ref="T401" r:id="rId2066" tooltip="大尾狸"/>
-    <hyperlink ref="T402" r:id="rId2067" tooltip="圆法师"/>
-    <hyperlink ref="T403" r:id="rId2068" tooltip="音箱蟀"/>
-    <hyperlink ref="T404" r:id="rId2069" tooltip="小猫怪"/>
-    <hyperlink ref="T405" r:id="rId2070" tooltip="勒克猫"/>
-    <hyperlink ref="T406" r:id="rId2071" tooltip="伦琴猫"/>
-    <hyperlink ref="T407" r:id="rId2072" tooltip="含羞苞"/>
-    <hyperlink ref="T408" r:id="rId2073" tooltip="罗丝雷朵"/>
-    <hyperlink ref="T409" r:id="rId2074" tooltip="头盖龙"/>
-    <hyperlink ref="T410" r:id="rId2075" tooltip="战槌龙"/>
-    <hyperlink ref="T411" r:id="rId2076" tooltip="盾甲龙"/>
-    <hyperlink ref="T412" r:id="rId2077" tooltip="护城龙"/>
-    <hyperlink ref="T413" r:id="rId2078" tooltip="结草儿"/>
-    <hyperlink ref="T414" r:id="rId2079" tooltip="结草贵妇"/>
-    <hyperlink ref="V388" r:id="rId2080" tooltip="草苗龟"/>
-    <hyperlink ref="V389" r:id="rId2081" tooltip="树林龟"/>
-    <hyperlink ref="V390" r:id="rId2082" tooltip="土台龟"/>
-    <hyperlink ref="V391" r:id="rId2083" tooltip="小火焰猴"/>
-    <hyperlink ref="V392" r:id="rId2084" tooltip="猛火猴"/>
-    <hyperlink ref="V393" r:id="rId2085" tooltip="烈焰猴"/>
-    <hyperlink ref="V394" r:id="rId2086" tooltip="波加曼"/>
-    <hyperlink ref="V395" r:id="rId2087" tooltip="波皇子"/>
-    <hyperlink ref="V396" r:id="rId2088" tooltip="帝王拿波"/>
-    <hyperlink ref="V397" r:id="rId2089" tooltip="姆克儿"/>
-    <hyperlink ref="V398" r:id="rId2090" tooltip="姆克鸟"/>
-    <hyperlink ref="V399" r:id="rId2091" tooltip="姆克鹰"/>
-    <hyperlink ref="V400" r:id="rId2092" tooltip="大牙狸"/>
-    <hyperlink ref="V401" r:id="rId2093" tooltip="大尾狸"/>
-    <hyperlink ref="V402" r:id="rId2094" tooltip="圆法师"/>
-    <hyperlink ref="V403" r:id="rId2095" tooltip="音箱蟀"/>
-    <hyperlink ref="V404" r:id="rId2096" tooltip="小猫怪"/>
-    <hyperlink ref="V405" r:id="rId2097" tooltip="勒克猫"/>
-    <hyperlink ref="V406" r:id="rId2098" tooltip="伦琴猫"/>
-    <hyperlink ref="V407" r:id="rId2099" tooltip="含羞苞"/>
-    <hyperlink ref="V408" r:id="rId2100" tooltip="罗丝雷朵"/>
-    <hyperlink ref="V409" r:id="rId2101" tooltip="头盖龙"/>
-    <hyperlink ref="V410" r:id="rId2102" tooltip="战槌龙"/>
-    <hyperlink ref="V411" r:id="rId2103" tooltip="盾甲龙"/>
-    <hyperlink ref="V412" r:id="rId2104" tooltip="护城龙"/>
-    <hyperlink ref="V413" r:id="rId2105" tooltip="结草儿"/>
-    <hyperlink ref="V414" r:id="rId2106" tooltip="结草贵妇"/>
-    <hyperlink ref="V480" r:id="rId2107" tooltip="洛托姆"/>
-    <hyperlink ref="V479" r:id="rId2108" tooltip="雪妖女"/>
-    <hyperlink ref="V478" r:id="rId2109" tooltip="黑夜魔灵"/>
-    <hyperlink ref="V477" r:id="rId2110" tooltip="大朝北鼻"/>
-    <hyperlink ref="V476" r:id="rId2111" tooltip="艾路雷朵"/>
-    <hyperlink ref="V474" r:id="rId2112" tooltip="象牙猪"/>
-    <hyperlink ref="T474" r:id="rId2113" tooltip="象牙猪"/>
-    <hyperlink ref="V473" r:id="rId2114" tooltip="天蝎王"/>
-    <hyperlink ref="T473" r:id="rId2115" tooltip="天蝎王"/>
-    <hyperlink ref="V472" r:id="rId2116" tooltip="冰伊布"/>
-    <hyperlink ref="T472" r:id="rId2117" tooltip="冰伊布"/>
-    <hyperlink ref="V471" r:id="rId2118" tooltip="叶伊布"/>
-    <hyperlink ref="T471" r:id="rId2119" tooltip="叶伊布"/>
-    <hyperlink ref="V470" r:id="rId2120" tooltip="远古巨蜓"/>
-    <hyperlink ref="T470" r:id="rId2121" tooltip="远古巨蜓"/>
-    <hyperlink ref="V469" r:id="rId2122" tooltip="波克基斯"/>
-    <hyperlink ref="T469" r:id="rId2123" tooltip="波克基斯"/>
-    <hyperlink ref="V468" r:id="rId2124" tooltip="鸭嘴炎兽"/>
-    <hyperlink ref="T468" r:id="rId2125" tooltip="鸭嘴炎兽"/>
-    <hyperlink ref="V467" r:id="rId2126" tooltip="电击魔兽"/>
-    <hyperlink ref="T467" r:id="rId2127" tooltip="电击魔兽"/>
-    <hyperlink ref="V466" r:id="rId2128" tooltip="巨蔓藤"/>
-    <hyperlink ref="T466" r:id="rId2129" tooltip="巨蔓藤"/>
-    <hyperlink ref="V465" r:id="rId2130" tooltip="超甲狂犀"/>
-    <hyperlink ref="T465" r:id="rId2131" tooltip="超甲狂犀"/>
-    <hyperlink ref="V464" r:id="rId2132" tooltip="大舌舔"/>
-    <hyperlink ref="T464" r:id="rId2133" tooltip="大舌舔"/>
-    <hyperlink ref="V463" r:id="rId2134" tooltip="自爆磁怪"/>
-    <hyperlink ref="T463" r:id="rId2135" tooltip="自爆磁怪"/>
-    <hyperlink ref="V462" r:id="rId2136" tooltip="玛狃拉"/>
-    <hyperlink ref="T462" r:id="rId2137" tooltip="玛狃拉"/>
-    <hyperlink ref="V461" r:id="rId2138" tooltip="暴雪王"/>
-    <hyperlink ref="T461" r:id="rId2139" tooltip="暴雪王"/>
-    <hyperlink ref="V460" r:id="rId2140" tooltip="雪笠怪"/>
-    <hyperlink ref="T460" r:id="rId2141" tooltip="雪笠怪"/>
-    <hyperlink ref="V459" r:id="rId2142" tooltip="小球飞鱼"/>
-    <hyperlink ref="T459" r:id="rId2143" tooltip="小球飞鱼"/>
-    <hyperlink ref="V458" r:id="rId2144" tooltip="霓虹鱼"/>
-    <hyperlink ref="T458" r:id="rId2145" tooltip="霓虹鱼"/>
-    <hyperlink ref="V457" r:id="rId2146" tooltip="荧光鱼"/>
-    <hyperlink ref="T457" r:id="rId2147" tooltip="荧光鱼"/>
-    <hyperlink ref="V456" r:id="rId2148" tooltip="尖牙笼"/>
-    <hyperlink ref="T456" r:id="rId2149" tooltip="尖牙笼"/>
-    <hyperlink ref="V455" r:id="rId2150" tooltip="毒骷蛙"/>
-    <hyperlink ref="T455" r:id="rId2151" tooltip="毒骷蛙"/>
-    <hyperlink ref="V454" r:id="rId2152" tooltip="不良蛙"/>
-    <hyperlink ref="T454" r:id="rId2153" tooltip="不良蛙"/>
-    <hyperlink ref="V453" r:id="rId2154" tooltip="龙王蝎"/>
-    <hyperlink ref="T453" r:id="rId2155" tooltip="龙王蝎"/>
-    <hyperlink ref="V452" r:id="rId2156" tooltip="钳尾蝎"/>
-    <hyperlink ref="T452" r:id="rId2157" tooltip="钳尾蝎"/>
-    <hyperlink ref="V451" r:id="rId2158" tooltip="河马兽"/>
-    <hyperlink ref="T451" r:id="rId2159" tooltip="河马兽"/>
-    <hyperlink ref="V450" r:id="rId2160" tooltip="沙河马"/>
-    <hyperlink ref="T450" r:id="rId2161" tooltip="沙河马"/>
-    <hyperlink ref="V449" r:id="rId2162" tooltip="路卡利欧"/>
-    <hyperlink ref="T449" r:id="rId2163" tooltip="路卡利欧"/>
-    <hyperlink ref="V448" r:id="rId2164" tooltip="利欧路"/>
-    <hyperlink ref="T448" r:id="rId2165" tooltip="利欧路"/>
-    <hyperlink ref="V447" r:id="rId2166" tooltip="小卡比兽"/>
-    <hyperlink ref="T447" r:id="rId2167" tooltip="小卡比兽"/>
-    <hyperlink ref="V446" r:id="rId2168" tooltip="烈咬陆鲨"/>
-    <hyperlink ref="T446" r:id="rId2169" tooltip="烈咬陆鲨"/>
-    <hyperlink ref="V445" r:id="rId2170" tooltip="尖牙陆鲨"/>
-    <hyperlink ref="T445" r:id="rId2171" tooltip="尖牙陆鲨"/>
-    <hyperlink ref="V444" r:id="rId2172" tooltip="圆陆鲨"/>
-    <hyperlink ref="T444" r:id="rId2173" tooltip="圆陆鲨"/>
-    <hyperlink ref="V443" r:id="rId2174" tooltip="花岩怪"/>
-    <hyperlink ref="T443" r:id="rId2175" tooltip="花岩怪"/>
-    <hyperlink ref="V442" r:id="rId2176" tooltip="聒噪鸟"/>
-    <hyperlink ref="T442" r:id="rId2177" tooltip="聒噪鸟"/>
-    <hyperlink ref="V441" r:id="rId2178" tooltip="小福蛋"/>
-    <hyperlink ref="T441" r:id="rId2179" tooltip="小福蛋"/>
-    <hyperlink ref="V440" r:id="rId2180" tooltip="魔尼尼"/>
-    <hyperlink ref="T440" r:id="rId2181" tooltip="魔尼尼"/>
-    <hyperlink ref="V439" r:id="rId2182" tooltip="盆才怪"/>
-    <hyperlink ref="T439" r:id="rId2183" tooltip="盆才怪"/>
-    <hyperlink ref="V438" r:id="rId2184" tooltip="青铜钟"/>
-    <hyperlink ref="T438" r:id="rId2185" tooltip="青铜钟"/>
-    <hyperlink ref="V437" r:id="rId2186" tooltip="铜镜怪"/>
-    <hyperlink ref="T437" r:id="rId2187" tooltip="铜镜怪"/>
-    <hyperlink ref="V436" r:id="rId2188" tooltip="坦克臭鼬"/>
-    <hyperlink ref="T436" r:id="rId2189" tooltip="坦克臭鼬"/>
-    <hyperlink ref="V435" r:id="rId2190" tooltip="臭鼬噗"/>
-    <hyperlink ref="T435" r:id="rId2191" tooltip="臭鼬噗"/>
-    <hyperlink ref="V434" r:id="rId2192" tooltip="铃铛响"/>
-    <hyperlink ref="T434" r:id="rId2193" tooltip="铃铛响"/>
-    <hyperlink ref="V433" r:id="rId2194" tooltip="东施喵"/>
-    <hyperlink ref="T433" r:id="rId2195" tooltip="东施喵"/>
-    <hyperlink ref="V432" r:id="rId2196" tooltip="魅力喵"/>
-    <hyperlink ref="T432" r:id="rId2197" tooltip="魅力喵"/>
-    <hyperlink ref="V431" r:id="rId2198" tooltip="乌鸦头头"/>
-    <hyperlink ref="T431" r:id="rId2199" tooltip="乌鸦头头"/>
-    <hyperlink ref="V430" r:id="rId2200" tooltip="梦妖魔"/>
-    <hyperlink ref="T430" r:id="rId2201" tooltip="梦妖魔"/>
-    <hyperlink ref="V429" r:id="rId2202" tooltip="长耳兔"/>
-    <hyperlink ref="T429" r:id="rId2203" tooltip="长耳兔"/>
-    <hyperlink ref="V428" r:id="rId2204" tooltip="卷卷耳"/>
-    <hyperlink ref="T428" r:id="rId2205" tooltip="卷卷耳"/>
-    <hyperlink ref="V427" r:id="rId2206" tooltip="随风球"/>
-    <hyperlink ref="T427" r:id="rId2207" tooltip="随风球"/>
-    <hyperlink ref="V426" r:id="rId2208" tooltip="飘飘球"/>
-    <hyperlink ref="T426" r:id="rId2209" tooltip="飘飘球"/>
-    <hyperlink ref="V425" r:id="rId2210" tooltip="双尾怪手"/>
-    <hyperlink ref="T425" r:id="rId2211" tooltip="双尾怪手"/>
-    <hyperlink ref="V424" r:id="rId2212" tooltip="海兔兽"/>
-    <hyperlink ref="T424" r:id="rId2213" tooltip="海兔兽"/>
-    <hyperlink ref="V423" r:id="rId2214" tooltip="无壳海兔"/>
-    <hyperlink ref="T423" r:id="rId2215" tooltip="无壳海兔"/>
-    <hyperlink ref="V422" r:id="rId2216" tooltip="樱花儿"/>
-    <hyperlink ref="T422" r:id="rId2217" tooltip="樱花儿"/>
-    <hyperlink ref="V421" r:id="rId2218" tooltip="樱花宝"/>
-    <hyperlink ref="T421" r:id="rId2219" tooltip="樱花宝"/>
-    <hyperlink ref="V420" r:id="rId2220" tooltip="浮潜鼬"/>
-    <hyperlink ref="T420" r:id="rId2221" tooltip="浮潜鼬"/>
-    <hyperlink ref="V419" r:id="rId2222" tooltip="泳圈鼬"/>
-    <hyperlink ref="T419" r:id="rId2223" tooltip="泳圈鼬"/>
-    <hyperlink ref="V418" r:id="rId2224" tooltip="帕奇利兹"/>
-    <hyperlink ref="T418" r:id="rId2225" tooltip="帕奇利兹"/>
-    <hyperlink ref="V417" r:id="rId2226" tooltip="蜂女王"/>
-    <hyperlink ref="T417" r:id="rId2227" tooltip="蜂女王"/>
-    <hyperlink ref="V416" r:id="rId2228" tooltip="三蜜蜂"/>
-    <hyperlink ref="T416" r:id="rId2229" tooltip="三蜜蜂"/>
-    <hyperlink ref="V415" r:id="rId2230" tooltip="绅士蛾"/>
-    <hyperlink ref="T415" r:id="rId2231" tooltip="绅士蛾"/>
-    <hyperlink ref="V487" r:id="rId2232" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="T487" r:id="rId2233" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="V486" r:id="rId2234" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="T486" r:id="rId2235" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="V485" r:id="rId2236" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="T485" r:id="rId2237" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="V484" r:id="rId2238" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="T484" r:id="rId2239" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="V483" r:id="rId2240" tooltip="天蝎王" display="天蝎王"/>
-    <hyperlink ref="T483" r:id="rId2241" tooltip="天蝎王" display="天蝎王"/>
-    <hyperlink ref="V482" r:id="rId2242" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="V481" r:id="rId2243" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="V493" r:id="rId2244" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="T493" r:id="rId2245" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="V492" r:id="rId2246" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="T492" r:id="rId2247" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="V491" r:id="rId2248" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="T491" r:id="rId2249" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="V490" r:id="rId2250" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="T490" r:id="rId2251" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="V488" r:id="rId2252" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="T488" r:id="rId2253" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="T495" r:id="rId2254" tooltip="比克提尼"/>
-    <hyperlink ref="T496" r:id="rId2255" tooltip="藤藤蛇"/>
-    <hyperlink ref="T497" r:id="rId2256" tooltip="青藤蛇"/>
-    <hyperlink ref="T498" r:id="rId2257" tooltip="君主蛇"/>
-    <hyperlink ref="T499" r:id="rId2258" tooltip="暖暖猪"/>
-    <hyperlink ref="T500" r:id="rId2259" tooltip="炒炒猪"/>
-    <hyperlink ref="T501" r:id="rId2260" tooltip="炎武王"/>
-    <hyperlink ref="T502" r:id="rId2261" tooltip="水水獭"/>
-    <hyperlink ref="T503" r:id="rId2262" tooltip="双刃丸"/>
-    <hyperlink ref="T504" r:id="rId2263" tooltip="大剑鬼"/>
-    <hyperlink ref="T505" r:id="rId2264" tooltip="探探鼠"/>
-    <hyperlink ref="T506" r:id="rId2265" tooltip="步哨鼠"/>
-    <hyperlink ref="T507" r:id="rId2266" tooltip="小约克"/>
-    <hyperlink ref="T508" r:id="rId2267" tooltip="哈约克"/>
-    <hyperlink ref="T509" r:id="rId2268" tooltip="长毛狗"/>
-    <hyperlink ref="T510" r:id="rId2269" tooltip="扒手猫"/>
-    <hyperlink ref="T511" r:id="rId2270" tooltip="酷豹"/>
-    <hyperlink ref="T512" r:id="rId2271" tooltip="花椰猴"/>
-    <hyperlink ref="T513" r:id="rId2272" tooltip="花椰猿"/>
-    <hyperlink ref="T514" r:id="rId2273" tooltip="爆香猴"/>
-    <hyperlink ref="T515" r:id="rId2274" tooltip="爆香猿"/>
-    <hyperlink ref="T516" r:id="rId2275" tooltip="冷水猴"/>
-    <hyperlink ref="T517" r:id="rId2276" tooltip="冷水猿"/>
-    <hyperlink ref="T518" r:id="rId2277" tooltip="食梦梦"/>
-    <hyperlink ref="T519" r:id="rId2278" tooltip="梦梦蚀"/>
-    <hyperlink ref="T520" r:id="rId2279" tooltip="豆豆鸽"/>
-    <hyperlink ref="T521" r:id="rId2280" tooltip="咕咕鸽"/>
-    <hyperlink ref="T522" r:id="rId2281" tooltip="高傲雉鸡"/>
-    <hyperlink ref="T523" r:id="rId2282" tooltip="斑斑马"/>
-    <hyperlink ref="T524" r:id="rId2283" tooltip="雷电斑马"/>
-    <hyperlink ref="T525" r:id="rId2284" tooltip="石丸子"/>
-    <hyperlink ref="T526" r:id="rId2285" tooltip="地幔岩"/>
-    <hyperlink ref="T527" r:id="rId2286" tooltip="庞岩怪"/>
-    <hyperlink ref="T528" r:id="rId2287" tooltip="滚滚蝙蝠"/>
-    <hyperlink ref="T529" r:id="rId2288" tooltip="心蝙蝠"/>
-    <hyperlink ref="T530" r:id="rId2289" tooltip="螺钉地鼠"/>
-    <hyperlink ref="T531" r:id="rId2290" tooltip="龙头地鼠"/>
-    <hyperlink ref="T532" r:id="rId2291" tooltip="差不多娃娃"/>
-    <hyperlink ref="T533" r:id="rId2292" tooltip="搬运小匠"/>
-    <hyperlink ref="T534" r:id="rId2293" tooltip="铁骨土人"/>
-    <hyperlink ref="T535" r:id="rId2294" tooltip="修建老匠"/>
-    <hyperlink ref="T536" r:id="rId2295" tooltip="圆蝌蚪"/>
-    <hyperlink ref="T537" r:id="rId2296" tooltip="蓝蟾蜍"/>
-    <hyperlink ref="T538" r:id="rId2297" tooltip="蟾蜍王"/>
-    <hyperlink ref="T539" r:id="rId2298" tooltip="投摔鬼"/>
-    <hyperlink ref="T540" r:id="rId2299" tooltip="打击鬼"/>
-    <hyperlink ref="T541" r:id="rId2300" tooltip="虫宝包"/>
-    <hyperlink ref="T542" r:id="rId2301" tooltip="宝包茧"/>
-    <hyperlink ref="T543" r:id="rId2302" tooltip="保姆虫"/>
-    <hyperlink ref="T544" r:id="rId2303" tooltip="百足蜈蚣"/>
-    <hyperlink ref="T545" r:id="rId2304" tooltip="车轮球"/>
-    <hyperlink ref="T546" r:id="rId2305" tooltip="蜈蚣王"/>
-    <hyperlink ref="T547" r:id="rId2306" tooltip="木棉球"/>
-    <hyperlink ref="T548" r:id="rId2307" tooltip="风妖精"/>
-    <hyperlink ref="T549" r:id="rId2308" tooltip="百合根娃娃"/>
-    <hyperlink ref="T550" r:id="rId2309" tooltip="裙儿小姐"/>
-    <hyperlink ref="T551" r:id="rId2310" tooltip="野蛮鲈鱼"/>
-    <hyperlink ref="T552" r:id="rId2311" tooltip="黑眼鳄"/>
-    <hyperlink ref="T553" r:id="rId2312" tooltip="混混鳄"/>
-    <hyperlink ref="T554" r:id="rId2313" tooltip="流氓鳄"/>
-    <hyperlink ref="T555" r:id="rId2314" tooltip="火红不倒翁"/>
-    <hyperlink ref="V495" r:id="rId2315" tooltip="比克提尼"/>
-    <hyperlink ref="V496" r:id="rId2316" tooltip="藤藤蛇"/>
-    <hyperlink ref="V497" r:id="rId2317" tooltip="青藤蛇"/>
-    <hyperlink ref="V498" r:id="rId2318" tooltip="君主蛇"/>
-    <hyperlink ref="V499" r:id="rId2319" tooltip="暖暖猪"/>
-    <hyperlink ref="V500" r:id="rId2320" tooltip="炒炒猪"/>
-    <hyperlink ref="V501" r:id="rId2321" tooltip="炎武王"/>
-    <hyperlink ref="V502" r:id="rId2322" tooltip="水水獭"/>
-    <hyperlink ref="V503" r:id="rId2323" tooltip="双刃丸"/>
-    <hyperlink ref="V504" r:id="rId2324" tooltip="大剑鬼"/>
-    <hyperlink ref="V505" r:id="rId2325" tooltip="探探鼠"/>
-    <hyperlink ref="V506" r:id="rId2326" tooltip="步哨鼠"/>
-    <hyperlink ref="V507" r:id="rId2327" tooltip="小约克"/>
-    <hyperlink ref="V508" r:id="rId2328" tooltip="哈约克"/>
-    <hyperlink ref="V509" r:id="rId2329" tooltip="长毛狗"/>
-    <hyperlink ref="V510" r:id="rId2330" tooltip="扒手猫"/>
-    <hyperlink ref="V511" r:id="rId2331" tooltip="酷豹"/>
-    <hyperlink ref="V512" r:id="rId2332" tooltip="花椰猴"/>
-    <hyperlink ref="V513" r:id="rId2333" tooltip="花椰猿"/>
-    <hyperlink ref="V514" r:id="rId2334" tooltip="爆香猴"/>
-    <hyperlink ref="V515" r:id="rId2335" tooltip="爆香猿"/>
-    <hyperlink ref="V516" r:id="rId2336" tooltip="冷水猴"/>
-    <hyperlink ref="V517" r:id="rId2337" tooltip="冷水猿"/>
-    <hyperlink ref="V518" r:id="rId2338" tooltip="食梦梦"/>
-    <hyperlink ref="V519" r:id="rId2339" tooltip="梦梦蚀"/>
-    <hyperlink ref="V520" r:id="rId2340" tooltip="豆豆鸽"/>
-    <hyperlink ref="V521" r:id="rId2341" tooltip="咕咕鸽"/>
-    <hyperlink ref="V522" r:id="rId2342" tooltip="高傲雉鸡"/>
-    <hyperlink ref="V523" r:id="rId2343" tooltip="斑斑马"/>
-    <hyperlink ref="V524" r:id="rId2344" tooltip="雷电斑马"/>
-    <hyperlink ref="V525" r:id="rId2345" tooltip="石丸子"/>
-    <hyperlink ref="V526" r:id="rId2346" tooltip="地幔岩"/>
-    <hyperlink ref="V527" r:id="rId2347" tooltip="庞岩怪"/>
-    <hyperlink ref="V528" r:id="rId2348" tooltip="滚滚蝙蝠"/>
-    <hyperlink ref="V529" r:id="rId2349" tooltip="心蝙蝠"/>
-    <hyperlink ref="V530" r:id="rId2350" tooltip="螺钉地鼠"/>
-    <hyperlink ref="V531" r:id="rId2351" tooltip="龙头地鼠"/>
-    <hyperlink ref="V532" r:id="rId2352" tooltip="差不多娃娃"/>
-    <hyperlink ref="V533" r:id="rId2353" tooltip="搬运小匠"/>
-    <hyperlink ref="V534" r:id="rId2354" tooltip="铁骨土人"/>
-    <hyperlink ref="V535" r:id="rId2355" tooltip="修建老匠"/>
-    <hyperlink ref="V536" r:id="rId2356" tooltip="圆蝌蚪"/>
-    <hyperlink ref="V537" r:id="rId2357" tooltip="蓝蟾蜍"/>
-    <hyperlink ref="V538" r:id="rId2358" tooltip="蟾蜍王"/>
-    <hyperlink ref="V539" r:id="rId2359" tooltip="投摔鬼"/>
-    <hyperlink ref="V540" r:id="rId2360" tooltip="打击鬼"/>
-    <hyperlink ref="V541" r:id="rId2361" tooltip="虫宝包"/>
-    <hyperlink ref="V542" r:id="rId2362" tooltip="宝包茧"/>
-    <hyperlink ref="V543" r:id="rId2363" tooltip="保姆虫"/>
-    <hyperlink ref="V544" r:id="rId2364" tooltip="百足蜈蚣"/>
-    <hyperlink ref="V545" r:id="rId2365" tooltip="车轮球"/>
-    <hyperlink ref="V546" r:id="rId2366" tooltip="蜈蚣王"/>
-    <hyperlink ref="V547" r:id="rId2367" tooltip="木棉球"/>
-    <hyperlink ref="V548" r:id="rId2368" tooltip="风妖精"/>
-    <hyperlink ref="V549" r:id="rId2369" tooltip="百合根娃娃"/>
-    <hyperlink ref="V550" r:id="rId2370" tooltip="裙儿小姐"/>
-    <hyperlink ref="V551" r:id="rId2371" tooltip="野蛮鲈鱼"/>
-    <hyperlink ref="V552" r:id="rId2372" tooltip="黑眼鳄"/>
-    <hyperlink ref="V553" r:id="rId2373" tooltip="混混鳄"/>
-    <hyperlink ref="V554" r:id="rId2374" tooltip="流氓鳄"/>
-    <hyperlink ref="V555" r:id="rId2375" tooltip="火红不倒翁"/>
-    <hyperlink ref="T651" r:id="rId2376" tooltip="哈力栗"/>
-    <hyperlink ref="T652" r:id="rId2377" tooltip="胖胖哈力"/>
-    <hyperlink ref="T653" r:id="rId2378" tooltip="布里卡隆"/>
-    <hyperlink ref="T654" r:id="rId2379" tooltip="火狐狸"/>
-    <hyperlink ref="T655" r:id="rId2380" tooltip="长尾火狐"/>
-    <hyperlink ref="T656" r:id="rId2381" tooltip="妖火红狐"/>
-    <hyperlink ref="T657" r:id="rId2382" tooltip="呱呱泡蛙"/>
-    <hyperlink ref="T658" r:id="rId2383" tooltip="呱头蛙"/>
-    <hyperlink ref="T659" r:id="rId2384" tooltip="甲贺忍蛙"/>
-    <hyperlink ref="T660" r:id="rId2385" tooltip="掘掘兔"/>
-    <hyperlink ref="T661" r:id="rId2386" tooltip="掘地兔"/>
-    <hyperlink ref="T662" r:id="rId2387" tooltip="小箭雀"/>
-    <hyperlink ref="T663" r:id="rId2388" tooltip="火箭雀"/>
-    <hyperlink ref="T664" r:id="rId2389" tooltip="烈箭鹰"/>
-    <hyperlink ref="T665" r:id="rId2390" tooltip="粉蝶虫"/>
-    <hyperlink ref="T666" r:id="rId2391" tooltip="粉蝶蛹"/>
-    <hyperlink ref="T667" r:id="rId2392" tooltip="彩粉蝶"/>
-    <hyperlink ref="T668" r:id="rId2393" tooltip="小狮狮"/>
-    <hyperlink ref="T669" r:id="rId2394" tooltip="火炎狮"/>
-    <hyperlink ref="T670" r:id="rId2395" tooltip="花蓓蓓"/>
-    <hyperlink ref="T671" r:id="rId2396" tooltip="花叶蒂"/>
-    <hyperlink ref="T672" r:id="rId2397" tooltip="花洁夫人"/>
-    <hyperlink ref="T673" r:id="rId2398" tooltip="坐骑小羊"/>
-    <hyperlink ref="T674" r:id="rId2399" tooltip="坐骑山羊"/>
-    <hyperlink ref="T675" r:id="rId2400" tooltip="顽皮熊猫"/>
-    <hyperlink ref="T676" r:id="rId2401" tooltip="流氓熊猫"/>
-    <hyperlink ref="T677" r:id="rId2402" tooltip="多丽米亚"/>
-    <hyperlink ref="T678" r:id="rId2403" tooltip="妙喵"/>
-    <hyperlink ref="T679" r:id="rId2404" tooltip="超能妙喵"/>
-    <hyperlink ref="T680" r:id="rId2405" tooltip="独剑鞘"/>
-    <hyperlink ref="T681" r:id="rId2406" tooltip="双剑鞘"/>
-    <hyperlink ref="T682" r:id="rId2407" tooltip="坚盾剑怪"/>
-    <hyperlink ref="T713" r:id="rId2408" tooltip="冰宝"/>
-    <hyperlink ref="T714" r:id="rId2409" tooltip="冰岩怪"/>
-    <hyperlink ref="T715" r:id="rId2410" tooltip="嗡蝠"/>
-    <hyperlink ref="T716" r:id="rId2411" tooltip="音波龙"/>
-    <hyperlink ref="T717" r:id="rId2412" tooltip="哲尔尼亚斯"/>
-    <hyperlink ref="T718" r:id="rId2413" tooltip="伊裴尔塔尔"/>
-    <hyperlink ref="T711" r:id="rId2414" tooltip="南瓜精"/>
-    <hyperlink ref="T712" r:id="rId2415" tooltip="南瓜怪人"/>
-    <hyperlink ref="T683" r:id="rId2416" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="T684" r:id="rId2417" tooltip="冰宝" display="冰宝"/>
-    <hyperlink ref="T685" r:id="rId2418" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="T686" r:id="rId2419" tooltip="嗡蝠" display="嗡蝠"/>
-    <hyperlink ref="T687" r:id="rId2420" tooltip="音波龙" display="音波龙"/>
-    <hyperlink ref="T688" r:id="rId2421" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="T689" r:id="rId2422" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="T690" r:id="rId2423" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="T691" r:id="rId2424" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="T692" r:id="rId2425" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="T693" r:id="rId2426" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="T694" r:id="rId2427" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="T695" r:id="rId2428" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="T696" r:id="rId2429" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V651" r:id="rId2430" tooltip="哈力栗"/>
-    <hyperlink ref="V652" r:id="rId2431" tooltip="胖胖哈力"/>
-    <hyperlink ref="V653" r:id="rId2432" tooltip="布里卡隆"/>
-    <hyperlink ref="V654" r:id="rId2433" tooltip="火狐狸"/>
-    <hyperlink ref="V655" r:id="rId2434" tooltip="长尾火狐"/>
-    <hyperlink ref="V656" r:id="rId2435" tooltip="妖火红狐"/>
-    <hyperlink ref="V657" r:id="rId2436" tooltip="呱呱泡蛙"/>
-    <hyperlink ref="V658" r:id="rId2437" tooltip="呱头蛙"/>
-    <hyperlink ref="V659" r:id="rId2438" tooltip="甲贺忍蛙"/>
-    <hyperlink ref="V660" r:id="rId2439" tooltip="掘掘兔"/>
-    <hyperlink ref="V661" r:id="rId2440" tooltip="掘地兔"/>
-    <hyperlink ref="V662" r:id="rId2441" tooltip="小箭雀"/>
-    <hyperlink ref="V663" r:id="rId2442" tooltip="火箭雀"/>
-    <hyperlink ref="V664" r:id="rId2443" tooltip="烈箭鹰"/>
-    <hyperlink ref="V665" r:id="rId2444" tooltip="粉蝶虫"/>
-    <hyperlink ref="V666" r:id="rId2445" tooltip="粉蝶蛹"/>
-    <hyperlink ref="V667" r:id="rId2446" tooltip="彩粉蝶"/>
-    <hyperlink ref="V668" r:id="rId2447" tooltip="小狮狮"/>
-    <hyperlink ref="V669" r:id="rId2448" tooltip="火炎狮"/>
-    <hyperlink ref="V670" r:id="rId2449" tooltip="花蓓蓓"/>
-    <hyperlink ref="V671" r:id="rId2450" tooltip="花叶蒂"/>
-    <hyperlink ref="V672" r:id="rId2451" tooltip="花洁夫人"/>
-    <hyperlink ref="V673" r:id="rId2452" tooltip="坐骑小羊"/>
-    <hyperlink ref="V674" r:id="rId2453" tooltip="坐骑山羊"/>
-    <hyperlink ref="V675" r:id="rId2454" tooltip="顽皮熊猫"/>
-    <hyperlink ref="V676" r:id="rId2455" tooltip="流氓熊猫"/>
-    <hyperlink ref="V677" r:id="rId2456" tooltip="多丽米亚"/>
-    <hyperlink ref="V678" r:id="rId2457" tooltip="妙喵"/>
-    <hyperlink ref="V679" r:id="rId2458" tooltip="超能妙喵"/>
-    <hyperlink ref="V680" r:id="rId2459" tooltip="独剑鞘"/>
-    <hyperlink ref="V681" r:id="rId2460" tooltip="双剑鞘"/>
-    <hyperlink ref="V682" r:id="rId2461" tooltip="坚盾剑怪"/>
-    <hyperlink ref="V713" r:id="rId2462" tooltip="冰宝"/>
-    <hyperlink ref="V714" r:id="rId2463" tooltip="冰岩怪"/>
-    <hyperlink ref="V715" r:id="rId2464" tooltip="嗡蝠"/>
-    <hyperlink ref="V716" r:id="rId2465" tooltip="音波龙"/>
-    <hyperlink ref="V717" r:id="rId2466" tooltip="哲尔尼亚斯"/>
-    <hyperlink ref="V718" r:id="rId2467" tooltip="伊裴尔塔尔"/>
-    <hyperlink ref="V711" r:id="rId2468" tooltip="南瓜精"/>
-    <hyperlink ref="V712" r:id="rId2469" tooltip="南瓜怪人"/>
-    <hyperlink ref="V683" r:id="rId2470" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="V684" r:id="rId2471" tooltip="冰宝" display="冰宝"/>
-    <hyperlink ref="V685" r:id="rId2472" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="V686" r:id="rId2473" tooltip="嗡蝠" display="嗡蝠"/>
-    <hyperlink ref="V687" r:id="rId2474" tooltip="音波龙" display="音波龙"/>
-    <hyperlink ref="V688" r:id="rId2475" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="V689" r:id="rId2476" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="V690" r:id="rId2477" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V691" r:id="rId2478" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="V692" r:id="rId2479" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="V693" r:id="rId2480" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="V694" r:id="rId2481" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V695" r:id="rId2482" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V696" r:id="rId2483" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="V723" r:id="rId2484" tooltip="木木枭"/>
-    <hyperlink ref="V724" r:id="rId2485" tooltip="投羽枭"/>
-    <hyperlink ref="V725" r:id="rId2486" tooltip="狙射树枭"/>
-    <hyperlink ref="V726" r:id="rId2487" tooltip="火斑喵"/>
-    <hyperlink ref="V727" r:id="rId2488" tooltip="炎热喵"/>
-    <hyperlink ref="V728" r:id="rId2489" tooltip="炽焰咆哮虎"/>
-    <hyperlink ref="V729" r:id="rId2490" tooltip="球球海狮"/>
-    <hyperlink ref="V730" r:id="rId2491" tooltip="花漾海狮"/>
-    <hyperlink ref="V731" r:id="rId2492" tooltip="西狮海壬"/>
-    <hyperlink ref="V732" r:id="rId2493" tooltip="小笃儿"/>
-    <hyperlink ref="V733" r:id="rId2494" tooltip="喇叭啄鸟"/>
-    <hyperlink ref="V734" r:id="rId2495" tooltip="铳嘴大鸟"/>
-    <hyperlink ref="V735" r:id="rId2496" tooltip="猫鼬少"/>
-    <hyperlink ref="V736" r:id="rId2497" tooltip="猫鼬探长"/>
-    <hyperlink ref="V737" r:id="rId2498" tooltip="强颚鸡母虫"/>
-    <hyperlink ref="V738" r:id="rId2499" tooltip="虫电宝"/>
-    <hyperlink ref="V739" r:id="rId2500" tooltip="锹农炮虫"/>
-    <hyperlink ref="V740" r:id="rId2501" tooltip="好胜蟹"/>
-    <hyperlink ref="V741" r:id="rId2502" tooltip="好胜毛蟹"/>
-    <hyperlink ref="V742" r:id="rId2503" tooltip="花舞鸟"/>
-    <hyperlink ref="V743" r:id="rId2504" tooltip="萌虻"/>
-    <hyperlink ref="V744" r:id="rId2505" tooltip="蝶结萌虻"/>
-    <hyperlink ref="V745" r:id="rId2506" tooltip="岩狗狗"/>
-    <hyperlink ref="V746" r:id="rId2507" tooltip="鬃岩狼人"/>
-    <hyperlink ref="T723" r:id="rId2508" tooltip="木木枭"/>
-    <hyperlink ref="T724" r:id="rId2509" tooltip="投羽枭"/>
-    <hyperlink ref="T725" r:id="rId2510" tooltip="狙射树枭"/>
-    <hyperlink ref="T726" r:id="rId2511" tooltip="火斑喵"/>
-    <hyperlink ref="T727" r:id="rId2512" tooltip="炎热喵"/>
-    <hyperlink ref="T728" r:id="rId2513" tooltip="炽焰咆哮虎"/>
-    <hyperlink ref="T729" r:id="rId2514" tooltip="球球海狮"/>
-    <hyperlink ref="T730" r:id="rId2515" tooltip="花漾海狮"/>
-    <hyperlink ref="T731" r:id="rId2516" tooltip="西狮海壬"/>
-    <hyperlink ref="T732" r:id="rId2517" tooltip="小笃儿"/>
-    <hyperlink ref="T733" r:id="rId2518" tooltip="喇叭啄鸟"/>
-    <hyperlink ref="T734" r:id="rId2519" tooltip="铳嘴大鸟"/>
-    <hyperlink ref="T735" r:id="rId2520" tooltip="猫鼬少"/>
-    <hyperlink ref="T736" r:id="rId2521" tooltip="猫鼬探长"/>
-    <hyperlink ref="T737" r:id="rId2522" tooltip="强颚鸡母虫"/>
-    <hyperlink ref="T738" r:id="rId2523" tooltip="虫电宝"/>
-    <hyperlink ref="T739" r:id="rId2524" tooltip="锹农炮虫"/>
-    <hyperlink ref="T740" r:id="rId2525" tooltip="好胜蟹"/>
-    <hyperlink ref="T741" r:id="rId2526" tooltip="好胜毛蟹"/>
-    <hyperlink ref="T742" r:id="rId2527" tooltip="花舞鸟"/>
-    <hyperlink ref="T743" r:id="rId2528" tooltip="萌虻"/>
-    <hyperlink ref="T744" r:id="rId2529" tooltip="蝶结萌虻"/>
-    <hyperlink ref="T745" r:id="rId2530" tooltip="岩狗狗"/>
-    <hyperlink ref="T746" r:id="rId2531" tooltip="鬃岩狼人"/>
-    <hyperlink ref="B480" r:id="rId2532" tooltip="Rotom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rotom_(Pok%C3%A9mon)"/>
-    <hyperlink ref="L480" r:id="rId2533" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
-    <hyperlink ref="T481" r:id="rId2534" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="T482" r:id="rId2535" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="T476" r:id="rId2536" tooltip="艾路雷朵"/>
-    <hyperlink ref="T477" r:id="rId2537" tooltip="大朝北鼻"/>
-    <hyperlink ref="T478" r:id="rId2538" tooltip="黑夜魔灵"/>
-    <hyperlink ref="T479" r:id="rId2539" tooltip="雪妖女"/>
-    <hyperlink ref="T480" r:id="rId2540" tooltip="洛托姆"/>
-    <hyperlink ref="T475" r:id="rId2541" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U2" r:id="rId2542" tooltip="妙蛙种子"/>
-    <hyperlink ref="U3" r:id="rId2543" tooltip="妙蛙草"/>
-    <hyperlink ref="U4" r:id="rId2544" tooltip="妙蛙花"/>
-    <hyperlink ref="U5" r:id="rId2545" tooltip="小火龙"/>
-    <hyperlink ref="U6" r:id="rId2546" tooltip="火恐龙"/>
-    <hyperlink ref="U7" r:id="rId2547" tooltip="喷火龙" display="喷火龙"/>
-    <hyperlink ref="U8" r:id="rId2548" tooltip="杰尼龟"/>
-    <hyperlink ref="U9" r:id="rId2549" tooltip="卡咪龟"/>
-    <hyperlink ref="U10" r:id="rId2550" tooltip="水箭龟"/>
-    <hyperlink ref="U11" r:id="rId2551" tooltip="绿毛虫" display="绿毛虫"/>
-    <hyperlink ref="U12" r:id="rId2552" tooltip="铁甲蛹"/>
-    <hyperlink ref="U13" r:id="rId2553" tooltip="巴大蝶"/>
-    <hyperlink ref="U14" r:id="rId2554" tooltip="独角虫"/>
-    <hyperlink ref="U15" r:id="rId2555" tooltip="铁壳蛹"/>
-    <hyperlink ref="U16" r:id="rId2556" tooltip="大针蜂"/>
-    <hyperlink ref="U17" r:id="rId2557" tooltip="波波"/>
-    <hyperlink ref="U18" r:id="rId2558" tooltip="比比鸟"/>
-    <hyperlink ref="U19" r:id="rId2559" tooltip="大比鸟" display="大比鸟"/>
-    <hyperlink ref="U20" r:id="rId2560" tooltip="小拉达"/>
-    <hyperlink ref="U21" r:id="rId2561" tooltip="拉达"/>
-    <hyperlink ref="U22" r:id="rId2562" tooltip="烈雀"/>
-    <hyperlink ref="U23" r:id="rId2563" tooltip="大嘴雀"/>
-    <hyperlink ref="U24" r:id="rId2564" tooltip="阿柏蛇"/>
-    <hyperlink ref="U25" r:id="rId2565" tooltip="阿柏怪"/>
-    <hyperlink ref="U26" r:id="rId2566" tooltip="皮卡丘" display="皮卡丘"/>
-    <hyperlink ref="U27" r:id="rId2567" tooltip="雷丘"/>
-    <hyperlink ref="U28" r:id="rId2568" tooltip="穿山鼠"/>
-    <hyperlink ref="U29" r:id="rId2569" tooltip="穿山王"/>
-    <hyperlink ref="U30" r:id="rId2570" tooltip="尼多兰"/>
-    <hyperlink ref="U31" r:id="rId2571" tooltip="尼多娜"/>
-    <hyperlink ref="U32" r:id="rId2572" tooltip="尼多后"/>
-    <hyperlink ref="U33" r:id="rId2573" tooltip="尼多朗"/>
-    <hyperlink ref="U34" r:id="rId2574" tooltip="尼多力诺"/>
-    <hyperlink ref="U35" r:id="rId2575" tooltip="尼多王"/>
-    <hyperlink ref="U36" r:id="rId2576" tooltip="皮皮"/>
-    <hyperlink ref="U37" r:id="rId2577" tooltip="皮可西" display="皮可西"/>
-    <hyperlink ref="U38" r:id="rId2578" tooltip="六尾"/>
-    <hyperlink ref="U39" r:id="rId2579" tooltip="九尾"/>
-    <hyperlink ref="U40" r:id="rId2580" tooltip="胖丁"/>
-    <hyperlink ref="U41" r:id="rId2581" tooltip="胖可丁"/>
-    <hyperlink ref="U42" r:id="rId2582" tooltip="超音蝠"/>
-    <hyperlink ref="U43" r:id="rId2583" tooltip="大嘴蝠"/>
-    <hyperlink ref="U44" r:id="rId2584" tooltip="走路草"/>
-    <hyperlink ref="U45" r:id="rId2585" tooltip="臭臭花"/>
-    <hyperlink ref="U46" r:id="rId2586" tooltip="霸王花"/>
-    <hyperlink ref="U47" r:id="rId2587" tooltip="派拉斯" display="派拉斯"/>
-    <hyperlink ref="U48" r:id="rId2588" tooltip="派拉斯特"/>
-    <hyperlink ref="U49" r:id="rId2589" tooltip="毛球"/>
-    <hyperlink ref="U50" r:id="rId2590" tooltip="摩鲁蛾"/>
-    <hyperlink ref="U51" r:id="rId2591" tooltip="地鼠"/>
-    <hyperlink ref="U52" r:id="rId2592" tooltip="三地鼠"/>
-    <hyperlink ref="U53" r:id="rId2593" tooltip="喵喵"/>
-    <hyperlink ref="U54" r:id="rId2594" tooltip="猫老大"/>
-    <hyperlink ref="U55" r:id="rId2595" tooltip="可达鸭"/>
-    <hyperlink ref="U56" r:id="rId2596" tooltip="哥达鸭"/>
-    <hyperlink ref="U57" r:id="rId2597" tooltip="猴怪"/>
-    <hyperlink ref="U58" r:id="rId2598" tooltip="火暴猴" display="火暴猴"/>
-    <hyperlink ref="U59" r:id="rId2599" tooltip="卡蒂狗"/>
-    <hyperlink ref="U60" r:id="rId2600" tooltip="风速狗" display="风速狗"/>
-    <hyperlink ref="U61" r:id="rId2601" tooltip="蚊香蝌蚪"/>
-    <hyperlink ref="U62" r:id="rId2602" tooltip="蚊香君"/>
-    <hyperlink ref="U63" r:id="rId2603" tooltip="蚊香泳士"/>
-    <hyperlink ref="U64" r:id="rId2604" tooltip="凯西"/>
-    <hyperlink ref="U65" r:id="rId2605" tooltip="勇基拉"/>
-    <hyperlink ref="U66" r:id="rId2606" tooltip="胡地"/>
-    <hyperlink ref="U67" r:id="rId2607" tooltip="腕力"/>
-    <hyperlink ref="U68" r:id="rId2608" tooltip="豪力"/>
-    <hyperlink ref="U69" r:id="rId2609" tooltip="怪力"/>
-    <hyperlink ref="U70" r:id="rId2610" tooltip="喇叭芽"/>
-    <hyperlink ref="U71" r:id="rId2611" tooltip="口呆花"/>
-    <hyperlink ref="U72" r:id="rId2612" tooltip="大食花"/>
-    <hyperlink ref="U73" r:id="rId2613" tooltip="玛瑙水母"/>
-    <hyperlink ref="U74" r:id="rId2614" tooltip="毒刺水母"/>
-    <hyperlink ref="U75" r:id="rId2615" tooltip="小拳石"/>
-    <hyperlink ref="U76" r:id="rId2616" tooltip="隆隆石"/>
-    <hyperlink ref="U77" r:id="rId2617" tooltip="隆隆岩"/>
-    <hyperlink ref="U78" r:id="rId2618" tooltip="小火马"/>
-    <hyperlink ref="U79" r:id="rId2619" tooltip="烈焰马"/>
-    <hyperlink ref="U80" r:id="rId2620" tooltip="呆呆兽"/>
-    <hyperlink ref="U81" r:id="rId2621" tooltip="呆壳兽" display="呆壳兽"/>
-    <hyperlink ref="U82" r:id="rId2622" tooltip="小磁怪"/>
-    <hyperlink ref="U83" r:id="rId2623" tooltip="三合一磁怪"/>
-    <hyperlink ref="U84" r:id="rId2624" tooltip="大葱鸭"/>
-    <hyperlink ref="U85" r:id="rId2625" tooltip="嘟嘟"/>
-    <hyperlink ref="U86" r:id="rId2626" tooltip="嘟嘟利"/>
-    <hyperlink ref="U87" r:id="rId2627" tooltip="小海狮"/>
-    <hyperlink ref="U88" r:id="rId2628" tooltip="白海狮"/>
-    <hyperlink ref="U89" r:id="rId2629" tooltip="臭泥"/>
-    <hyperlink ref="U90" r:id="rId2630" tooltip="臭臭泥"/>
-    <hyperlink ref="U91" r:id="rId2631" tooltip="大舌贝"/>
-    <hyperlink ref="U92" r:id="rId2632" tooltip="刺甲贝"/>
-    <hyperlink ref="U93" r:id="rId2633" tooltip="鬼斯"/>
-    <hyperlink ref="U94" r:id="rId2634" tooltip="鬼斯通"/>
-    <hyperlink ref="U95" r:id="rId2635" tooltip="耿鬼"/>
-    <hyperlink ref="U96" r:id="rId2636" tooltip="大岩蛇"/>
-    <hyperlink ref="U97" r:id="rId2637" tooltip="催眠貘"/>
-    <hyperlink ref="U98" r:id="rId2638" tooltip="引梦貘人"/>
-    <hyperlink ref="U99" r:id="rId2639" tooltip="大钳蟹"/>
-    <hyperlink ref="U100" r:id="rId2640" tooltip="巨钳蟹"/>
-    <hyperlink ref="U101" r:id="rId2641" tooltip="霹雳电球"/>
-    <hyperlink ref="U102" r:id="rId2642" tooltip="顽皮雷弹"/>
-    <hyperlink ref="U103" r:id="rId2643" tooltip="蛋蛋"/>
-    <hyperlink ref="U104" r:id="rId2644" tooltip="椰蛋树"/>
-    <hyperlink ref="U105" r:id="rId2645" tooltip="卡拉卡拉"/>
-    <hyperlink ref="U106" r:id="rId2646" tooltip="嘎啦嘎啦"/>
-    <hyperlink ref="U107" r:id="rId2647" tooltip="飞腿郎"/>
-    <hyperlink ref="U108" r:id="rId2648" tooltip="快拳郎"/>
-    <hyperlink ref="U109" r:id="rId2649" tooltip="大舌头"/>
-    <hyperlink ref="U110" r:id="rId2650" tooltip="瓦斯弹"/>
-    <hyperlink ref="U111" r:id="rId2651" tooltip="双弹瓦斯"/>
-    <hyperlink ref="U112" r:id="rId2652" tooltip="独角犀牛"/>
-    <hyperlink ref="U113" r:id="rId2653" tooltip="钻角犀兽"/>
-    <hyperlink ref="U114" r:id="rId2654" tooltip="吉利蛋" display="吉利蛋"/>
-    <hyperlink ref="U115" r:id="rId2655" tooltip="蔓藤怪"/>
-    <hyperlink ref="U116" r:id="rId2656" tooltip="袋兽"/>
-    <hyperlink ref="U117" r:id="rId2657" tooltip="墨海马"/>
-    <hyperlink ref="U118" r:id="rId2658" tooltip="海刺龙"/>
-    <hyperlink ref="U119" r:id="rId2659" tooltip="角金鱼"/>
-    <hyperlink ref="U120" r:id="rId2660" tooltip="金鱼王"/>
-    <hyperlink ref="U121" r:id="rId2661" tooltip="海星星"/>
-    <hyperlink ref="U122" r:id="rId2662" tooltip="宝石海星"/>
-    <hyperlink ref="U123" r:id="rId2663" tooltip="魔墙人偶"/>
-    <hyperlink ref="U124" r:id="rId2664" tooltip="飞天螳螂"/>
-    <hyperlink ref="U125" r:id="rId2665" tooltip="迷唇姐"/>
-    <hyperlink ref="U126" r:id="rId2666" tooltip="电击兽"/>
-    <hyperlink ref="U127" r:id="rId2667" tooltip="鸭嘴火兽"/>
-    <hyperlink ref="U128" r:id="rId2668" tooltip="凯罗斯"/>
-    <hyperlink ref="U129" r:id="rId2669" tooltip="肯泰罗" display="肯泰罗"/>
-    <hyperlink ref="U130" r:id="rId2670" tooltip="鲤鱼王" display="鲤鱼王"/>
-    <hyperlink ref="U131" r:id="rId2671" tooltip="暴鲤龙"/>
-    <hyperlink ref="U132" r:id="rId2672" tooltip="拉普拉斯"/>
-    <hyperlink ref="U133" r:id="rId2673" tooltip="百变怪"/>
-    <hyperlink ref="U134" r:id="rId2674" tooltip="伊布"/>
-    <hyperlink ref="U135" r:id="rId2675" tooltip="水伊布"/>
-    <hyperlink ref="U136" r:id="rId2676" tooltip="雷伊布"/>
-    <hyperlink ref="U137" r:id="rId2677" tooltip="火伊布" display="火伊布"/>
-    <hyperlink ref="U138" r:id="rId2678" tooltip="多边兽"/>
-    <hyperlink ref="U139" r:id="rId2679" tooltip="菊石兽"/>
-    <hyperlink ref="U140" r:id="rId2680" tooltip="多刺菊石兽"/>
-    <hyperlink ref="U141" r:id="rId2681" tooltip="化石盔"/>
-    <hyperlink ref="U142" r:id="rId2682" tooltip="镰刀盔"/>
-    <hyperlink ref="U143" r:id="rId2683" tooltip="化石翼龙"/>
-    <hyperlink ref="U144" r:id="rId2684" tooltip="卡比兽"/>
-    <hyperlink ref="U145" r:id="rId2685" tooltip="急冻鸟"/>
-    <hyperlink ref="U146" r:id="rId2686" tooltip="闪电鸟"/>
-    <hyperlink ref="U147" r:id="rId2687" tooltip="火焰鸟"/>
-    <hyperlink ref="U148" r:id="rId2688" tooltip="迷你龙"/>
-    <hyperlink ref="U149" r:id="rId2689" tooltip="哈克龙"/>
-    <hyperlink ref="U150" r:id="rId2690" tooltip="快龙" display="快龙"/>
-    <hyperlink ref="U151" r:id="rId2691" tooltip="超梦"/>
-    <hyperlink ref="U152" r:id="rId2692" tooltip="梦幻"/>
-    <hyperlink ref="U153" r:id="rId2693" tooltip="菊草叶"/>
-    <hyperlink ref="U154" r:id="rId2694" tooltip="月桂叶"/>
-    <hyperlink ref="U155" r:id="rId2695" tooltip="大竺葵"/>
-    <hyperlink ref="U156" r:id="rId2696" tooltip="火球鼠"/>
-    <hyperlink ref="U157" r:id="rId2697" tooltip="火岩鼠"/>
-    <hyperlink ref="U158" r:id="rId2698" tooltip="火暴兽"/>
-    <hyperlink ref="U159" r:id="rId2699" tooltip="小锯鳄"/>
-    <hyperlink ref="U160" r:id="rId2700" tooltip="蓝鳄"/>
-    <hyperlink ref="U161" r:id="rId2701" tooltip="大力鳄"/>
-    <hyperlink ref="U162" r:id="rId2702" tooltip="尾立"/>
-    <hyperlink ref="U163" r:id="rId2703" tooltip="大尾立"/>
-    <hyperlink ref="U164" r:id="rId2704" tooltip="咕咕"/>
-    <hyperlink ref="U165" r:id="rId2705" tooltip="猫头夜鹰"/>
-    <hyperlink ref="U166" r:id="rId2706" tooltip="芭瓢虫"/>
-    <hyperlink ref="U167" r:id="rId2707" tooltip="安瓢虫"/>
-    <hyperlink ref="U168" r:id="rId2708" tooltip="圆丝蛛"/>
-    <hyperlink ref="U169" r:id="rId2709" tooltip="阿利多斯"/>
-    <hyperlink ref="U170" r:id="rId2710" tooltip="叉字蝠"/>
-    <hyperlink ref="U171" r:id="rId2711" tooltip="灯笼鱼"/>
-    <hyperlink ref="U172" r:id="rId2712" tooltip="电灯怪"/>
-    <hyperlink ref="U173" r:id="rId2713" tooltip="皮丘"/>
-    <hyperlink ref="U174" r:id="rId2714" tooltip="皮宝宝"/>
-    <hyperlink ref="U175" r:id="rId2715" tooltip="宝宝丁"/>
-    <hyperlink ref="U176" r:id="rId2716" tooltip="波克比"/>
-    <hyperlink ref="U177" r:id="rId2717" tooltip="波克基古"/>
-    <hyperlink ref="U178" r:id="rId2718" tooltip="天然雀"/>
-    <hyperlink ref="U179" r:id="rId2719" tooltip="天然鸟"/>
-    <hyperlink ref="U180" r:id="rId2720" tooltip="咩利羊"/>
-    <hyperlink ref="U181" r:id="rId2721" tooltip="茸茸羊"/>
-    <hyperlink ref="U182" r:id="rId2722" tooltip="电龙"/>
-    <hyperlink ref="U183" r:id="rId2723" tooltip="美丽花"/>
-    <hyperlink ref="U184" r:id="rId2724" tooltip="玛力露"/>
-    <hyperlink ref="U185" r:id="rId2725" tooltip="玛力露丽" display="玛力露丽"/>
-    <hyperlink ref="U186" r:id="rId2726" tooltip="树才怪"/>
-    <hyperlink ref="U187" r:id="rId2727" tooltip="蚊香蛙皇"/>
-    <hyperlink ref="U188" r:id="rId2728" tooltip="毽子草"/>
-    <hyperlink ref="U189" r:id="rId2729" tooltip="毽子花"/>
-    <hyperlink ref="U190" r:id="rId2730" tooltip="毽子棉"/>
-    <hyperlink ref="U191" r:id="rId2731" tooltip="长尾怪手"/>
-    <hyperlink ref="U192" r:id="rId2732" tooltip="向日种子" display="向日种子"/>
-    <hyperlink ref="U193" r:id="rId2733" tooltip="向日花怪"/>
-    <hyperlink ref="U194" r:id="rId2734" tooltip="蜻蜻蜓"/>
-    <hyperlink ref="U195" r:id="rId2735" tooltip="乌波"/>
-    <hyperlink ref="U196" r:id="rId2736" tooltip="沼王"/>
-    <hyperlink ref="U197" r:id="rId2737" tooltip="太阳伊布" display="太阳伊布"/>
-    <hyperlink ref="U198" r:id="rId2738" tooltip="月亮伊布" display="月亮伊布"/>
-    <hyperlink ref="U199" r:id="rId2739" tooltip="黑暗鸦"/>
-    <hyperlink ref="U200" r:id="rId2740" tooltip="呆呆王" display="呆呆王"/>
-    <hyperlink ref="U201" r:id="rId2741" tooltip="梦妖"/>
-    <hyperlink ref="U202" r:id="rId2742" tooltip="未知图腾"/>
-    <hyperlink ref="U203" r:id="rId2743" tooltip="果然翁" display="果然翁"/>
-    <hyperlink ref="U204" r:id="rId2744" tooltip="麒麟奇"/>
-    <hyperlink ref="U205" r:id="rId2745" tooltip="榛果球"/>
-    <hyperlink ref="U206" r:id="rId2746" tooltip="佛烈托斯"/>
-    <hyperlink ref="U207" r:id="rId2747" tooltip="土龙弟弟"/>
-    <hyperlink ref="U208" r:id="rId2748" tooltip="天蝎"/>
-    <hyperlink ref="U209" r:id="rId2749" tooltip="大钢蛇"/>
-    <hyperlink ref="U210" r:id="rId2750" tooltip="布鲁"/>
-    <hyperlink ref="U211" r:id="rId2751" tooltip="布鲁皇"/>
-    <hyperlink ref="U212" r:id="rId2752" tooltip="千针鱼"/>
-    <hyperlink ref="U213" r:id="rId2753" tooltip="巨钳螳螂" display="巨钳螳螂"/>
-    <hyperlink ref="U214" r:id="rId2754" tooltip="壶壶"/>
-    <hyperlink ref="U215" r:id="rId2755" tooltip="赫拉克罗斯"/>
-    <hyperlink ref="U216" r:id="rId2756" tooltip="狃拉"/>
-    <hyperlink ref="U217" r:id="rId2757" tooltip="熊宝宝"/>
-    <hyperlink ref="U218" r:id="rId2758" tooltip="圈圈熊"/>
-    <hyperlink ref="U219" r:id="rId2759" tooltip="熔岩虫"/>
-    <hyperlink ref="U220" r:id="rId2760" tooltip="熔岩蜗牛"/>
-    <hyperlink ref="U221" r:id="rId2761" tooltip="小山猪"/>
-    <hyperlink ref="U222" r:id="rId2762" tooltip="长毛猪"/>
-    <hyperlink ref="U223" r:id="rId2763" tooltip="太阳珊瑚"/>
-    <hyperlink ref="U224" r:id="rId2764" tooltip="铁炮鱼"/>
-    <hyperlink ref="U225" r:id="rId2765" tooltip="章鱼桶"/>
-    <hyperlink ref="U226" r:id="rId2766" tooltip="信使鸟"/>
-    <hyperlink ref="U227" r:id="rId2767" tooltip="巨翅飞鱼"/>
-    <hyperlink ref="U228" r:id="rId2768" tooltip="盔甲鸟" display="盔甲鸟"/>
-    <hyperlink ref="U229" r:id="rId2769" tooltip="戴鲁比"/>
-    <hyperlink ref="U230" r:id="rId2770" tooltip="黑鲁加"/>
-    <hyperlink ref="U231" r:id="rId2771" tooltip="刺龙王"/>
-    <hyperlink ref="U232" r:id="rId2772" tooltip="小小象"/>
-    <hyperlink ref="U233" r:id="rId2773" tooltip="顿甲"/>
-    <hyperlink ref="U234" r:id="rId2774" tooltip="多边兽Ⅱ" display="多边兽Ⅱ"/>
-    <hyperlink ref="U235" r:id="rId2775" tooltip="惊角鹿"/>
-    <hyperlink ref="U236" r:id="rId2776" tooltip="图图犬" display="图图犬"/>
-    <hyperlink ref="U237" r:id="rId2777" tooltip="无畏小子"/>
-    <hyperlink ref="U238" r:id="rId2778" tooltip="战舞郎"/>
-    <hyperlink ref="U239" r:id="rId2779" tooltip="迷唇娃"/>
-    <hyperlink ref="U240" r:id="rId2780" tooltip="电击怪"/>
-    <hyperlink ref="U241" r:id="rId2781" tooltip="鸭嘴宝宝"/>
-    <hyperlink ref="U242" r:id="rId2782" tooltip="大奶罐"/>
-    <hyperlink ref="U243" r:id="rId2783" tooltip="幸福蛋" display="幸福蛋"/>
-    <hyperlink ref="U244" r:id="rId2784" tooltip="雷公"/>
-    <hyperlink ref="U245" r:id="rId2785" tooltip="炎帝" display="炎帝"/>
-    <hyperlink ref="U246" r:id="rId2786" tooltip="水君"/>
-    <hyperlink ref="U247" r:id="rId2787" tooltip="幼基拉斯"/>
-    <hyperlink ref="U248" r:id="rId2788" tooltip="沙基拉斯"/>
-    <hyperlink ref="U249" r:id="rId2789" tooltip="班基拉斯" display="班基拉斯"/>
-    <hyperlink ref="U250" r:id="rId2790" tooltip="洛奇亚" display="洛奇亚"/>
-    <hyperlink ref="U251" r:id="rId2791" tooltip="凤王"/>
-    <hyperlink ref="U252" r:id="rId2792" tooltip="时拉比"/>
-    <hyperlink ref="U253" r:id="rId2793" tooltip="木守宫"/>
-    <hyperlink ref="U254" r:id="rId2794" tooltip="森林蜥蜴"/>
-    <hyperlink ref="U255" r:id="rId2795" tooltip="蜥蜴王"/>
-    <hyperlink ref="U256" r:id="rId2796" tooltip="火稚鸡"/>
-    <hyperlink ref="U257" r:id="rId2797" tooltip="力壮鸡"/>
-    <hyperlink ref="U258" r:id="rId2798" tooltip="火焰鸡" display="火焰鸡"/>
-    <hyperlink ref="U259" r:id="rId2799" tooltip="水跃鱼"/>
-    <hyperlink ref="U260" r:id="rId2800" tooltip="沼跃鱼"/>
-    <hyperlink ref="U261" r:id="rId2801" tooltip="巨沼怪"/>
-    <hyperlink ref="U262" r:id="rId2802" tooltip="土狼犬"/>
-    <hyperlink ref="U263" r:id="rId2803" tooltip="大狼犬"/>
-    <hyperlink ref="U264" r:id="rId2804" tooltip="蛇纹熊"/>
-    <hyperlink ref="U265" r:id="rId2805" tooltip="直冲熊"/>
-    <hyperlink ref="U266" r:id="rId2806" tooltip="刺尾虫"/>
-    <hyperlink ref="U267" r:id="rId2807" tooltip="甲壳茧"/>
-    <hyperlink ref="U268" r:id="rId2808" tooltip="狩猎凤蝶"/>
-    <hyperlink ref="U269" r:id="rId2809" tooltip="盾甲茧"/>
-    <hyperlink ref="U270" r:id="rId2810" tooltip="毒粉蛾"/>
-    <hyperlink ref="U271" r:id="rId2811" tooltip="莲叶童子"/>
-    <hyperlink ref="U272" r:id="rId2812" tooltip="莲帽小童"/>
-    <hyperlink ref="U273" r:id="rId2813" tooltip="乐天河童" display="乐天河童"/>
-    <hyperlink ref="U274" r:id="rId2814" tooltip="橡实果"/>
-    <hyperlink ref="U275" r:id="rId2815" tooltip="长鼻叶"/>
-    <hyperlink ref="U276" r:id="rId2816" tooltip="狡猾天狗"/>
-    <hyperlink ref="U277" r:id="rId2817" tooltip="傲骨燕"/>
-    <hyperlink ref="U278" r:id="rId2818" tooltip="大王燕" display="大王燕"/>
-    <hyperlink ref="U279" r:id="rId2819" tooltip="长翅鸥"/>
-    <hyperlink ref="U280" r:id="rId2820" tooltip="大嘴鸥"/>
-    <hyperlink ref="U281" r:id="rId2821" tooltip="拉鲁拉丝" display="拉鲁拉丝"/>
-    <hyperlink ref="U282" r:id="rId2822" tooltip="奇鲁莉安" display="奇鲁莉安"/>
-    <hyperlink ref="U283" r:id="rId2823" tooltip="沙奈朵" display="沙奈朵"/>
-    <hyperlink ref="U284" r:id="rId2824" tooltip="溜溜糖球" display="溜溜糖球"/>
-    <hyperlink ref="U285" r:id="rId2825" tooltip="雨翅蛾"/>
-    <hyperlink ref="U286" r:id="rId2826" tooltip="蘑蘑菇"/>
-    <hyperlink ref="U287" r:id="rId2827" tooltip="斗笠菇" display="斗笠菇"/>
-    <hyperlink ref="U288" r:id="rId2828" tooltip="懒人獭" display="懒人獭"/>
-    <hyperlink ref="U289" r:id="rId2829" tooltip="过动猿"/>
-    <hyperlink ref="U290" r:id="rId2830" tooltip="请假王"/>
-    <hyperlink ref="U291" r:id="rId2831" tooltip="土居忍士"/>
-    <hyperlink ref="U292" r:id="rId2832" tooltip="铁面忍者" display="铁面忍者"/>
-    <hyperlink ref="U293" r:id="rId2833" tooltip="脱壳忍者" display="脱壳忍者"/>
-    <hyperlink ref="U294" r:id="rId2834" tooltip="咕妞妞"/>
-    <hyperlink ref="U295" r:id="rId2835" tooltip="吼爆弹"/>
-    <hyperlink ref="U296" r:id="rId2836" tooltip="爆音怪"/>
-    <hyperlink ref="U299" r:id="rId2837" tooltip="露力丽"/>
-    <hyperlink ref="U300" r:id="rId2838" tooltip="朝北鼻"/>
-    <hyperlink ref="U301" r:id="rId2839" tooltip="向尾喵"/>
-    <hyperlink ref="U302" r:id="rId2840" tooltip="优雅猫"/>
-    <hyperlink ref="U303" r:id="rId2841" tooltip="勾魂眼"/>
-    <hyperlink ref="U304" r:id="rId2842" tooltip="大嘴娃"/>
-    <hyperlink ref="U305" r:id="rId2843" tooltip="可可多拉"/>
-    <hyperlink ref="U306" r:id="rId2844" tooltip="可多拉"/>
-    <hyperlink ref="U307" r:id="rId2845" tooltip="波士可多拉"/>
-    <hyperlink ref="U308" r:id="rId2846" tooltip="玛沙那"/>
-    <hyperlink ref="U309" r:id="rId2847" tooltip="恰雷姆" display="恰雷姆"/>
-    <hyperlink ref="U310" r:id="rId2848" tooltip="落雷兽"/>
-    <hyperlink ref="U311" r:id="rId2849" tooltip="雷电兽"/>
-    <hyperlink ref="U312" r:id="rId2850" tooltip="正电拍拍"/>
-    <hyperlink ref="U313" r:id="rId2851" tooltip="负电拍拍"/>
-    <hyperlink ref="U314" r:id="rId2852" tooltip="电萤虫"/>
-    <hyperlink ref="U315" r:id="rId2853" tooltip="甜甜萤"/>
-    <hyperlink ref="U316" r:id="rId2854" tooltip="毒蔷薇"/>
-    <hyperlink ref="U317" r:id="rId2855" tooltip="溶食兽"/>
-    <hyperlink ref="U318" r:id="rId2856" tooltip="吞食兽"/>
-    <hyperlink ref="U319" r:id="rId2857" tooltip="利牙鱼"/>
-    <hyperlink ref="U320" r:id="rId2858" tooltip="巨牙鲨"/>
-    <hyperlink ref="U321" r:id="rId2859" tooltip="吼吼鲸" display="吼吼鲸"/>
-    <hyperlink ref="U322" r:id="rId2860" tooltip="吼鲸王"/>
-    <hyperlink ref="U323" r:id="rId2861" tooltip="呆火驼"/>
-    <hyperlink ref="U324" r:id="rId2862" tooltip="喷火驼"/>
-    <hyperlink ref="U325" r:id="rId2863" tooltip="煤炭龟"/>
-    <hyperlink ref="U326" r:id="rId2864" tooltip="跳跳猪"/>
-    <hyperlink ref="U327" r:id="rId2865" tooltip="噗噗猪"/>
-    <hyperlink ref="U328" r:id="rId2866" tooltip="晃晃斑"/>
-    <hyperlink ref="U329" r:id="rId2867" tooltip="大颚蚁"/>
-    <hyperlink ref="U330" r:id="rId2868" tooltip="超音波幼虫"/>
-    <hyperlink ref="U331" r:id="rId2869" tooltip="沙漠蜻蜓" display="沙漠蜻蜓"/>
-    <hyperlink ref="U332" r:id="rId2870" tooltip="刺球仙人掌" display="刺球仙人掌"/>
-    <hyperlink ref="U333" r:id="rId2871" tooltip="梦歌仙人掌" display="梦歌仙人掌"/>
-    <hyperlink ref="U334" r:id="rId2872" tooltip="青绵鸟"/>
-    <hyperlink ref="U335" r:id="rId2873" tooltip="七夕青鸟"/>
-    <hyperlink ref="U336" r:id="rId2874" tooltip="猫鼬斩"/>
-    <hyperlink ref="U337" r:id="rId2875" tooltip="饭匙蛇"/>
-    <hyperlink ref="U338" r:id="rId2876" tooltip="月石"/>
-    <hyperlink ref="U339" r:id="rId2877" tooltip="太阳岩"/>
-    <hyperlink ref="U340" r:id="rId2878" tooltip="泥泥鳅"/>
-    <hyperlink ref="U341" r:id="rId2879" tooltip="鲶鱼王"/>
-    <hyperlink ref="U342" r:id="rId2880" tooltip="龙虾小兵"/>
-    <hyperlink ref="U343" r:id="rId2881" tooltip="铁螯龙虾"/>
-    <hyperlink ref="U344" r:id="rId2882" tooltip="天秤偶"/>
-    <hyperlink ref="U345" r:id="rId2883" tooltip="念力土偶"/>
-    <hyperlink ref="U346" r:id="rId2884" tooltip="触手百合"/>
-    <hyperlink ref="U347" r:id="rId2885" tooltip="摇篮百合" display="摇篮百合"/>
-    <hyperlink ref="U348" r:id="rId2886" tooltip="太古羽虫"/>
-    <hyperlink ref="U349" r:id="rId2887" tooltip="太古盔甲"/>
-    <hyperlink ref="U350" r:id="rId2888" tooltip="丑丑鱼" display="丑丑鱼"/>
-    <hyperlink ref="U351" r:id="rId2889" tooltip="美纳斯" display="美纳斯"/>
-    <hyperlink ref="U352" r:id="rId2890" tooltip="飘浮泡泡"/>
-    <hyperlink ref="U353" r:id="rId2891" tooltip="变隐龙"/>
-    <hyperlink ref="U354" r:id="rId2892" tooltip="怨影娃娃"/>
-    <hyperlink ref="U355" r:id="rId2893" tooltip="诅咒娃娃" display="诅咒娃娃"/>
-    <hyperlink ref="U356" r:id="rId2894" tooltip="夜巡灵" display="夜巡灵"/>
-    <hyperlink ref="U357" r:id="rId2895" tooltip="彷徨夜灵" display="彷徨夜灵"/>
-    <hyperlink ref="U358" r:id="rId2896" tooltip="热带龙" display="热带龙"/>
-    <hyperlink ref="U359" r:id="rId2897" tooltip="风铃铃"/>
-    <hyperlink ref="U360" r:id="rId2898" tooltip="阿勃梭鲁" display="阿勃梭鲁"/>
-    <hyperlink ref="U361" r:id="rId2899" tooltip="小果然"/>
-    <hyperlink ref="U362" r:id="rId2900" tooltip="雪童子"/>
-    <hyperlink ref="U363" r:id="rId2901" tooltip="冰鬼护"/>
-    <hyperlink ref="U364" r:id="rId2902" tooltip="海豹球"/>
-    <hyperlink ref="U365" r:id="rId2903" tooltip="海魔狮"/>
-    <hyperlink ref="U366" r:id="rId2904" tooltip="帝牙海狮"/>
-    <hyperlink ref="U367" r:id="rId2905" tooltip="珍珠贝"/>
-    <hyperlink ref="U368" r:id="rId2906" tooltip="猎斑鱼"/>
-    <hyperlink ref="U369" r:id="rId2907" tooltip="樱花鱼"/>
-    <hyperlink ref="U370" r:id="rId2908" tooltip="古空棘鱼"/>
-    <hyperlink ref="U371" r:id="rId2909" tooltip="爱心鱼"/>
-    <hyperlink ref="U372" r:id="rId2910" tooltip="宝贝龙"/>
-    <hyperlink ref="U373" r:id="rId2911" tooltip="甲壳龙"/>
-    <hyperlink ref="U374" r:id="rId2912" tooltip="暴飞龙" display="暴飞龙"/>
-    <hyperlink ref="U375" r:id="rId2913" tooltip="铁哑铃"/>
-    <hyperlink ref="U376" r:id="rId2914" tooltip="金属怪"/>
-    <hyperlink ref="U377" r:id="rId2915" tooltip="巨金怪" display="巨金怪"/>
-    <hyperlink ref="U378" r:id="rId2916" tooltip="雷吉洛克" display="雷吉洛克"/>
-    <hyperlink ref="U379" r:id="rId2917" tooltip="雷吉艾斯" display="雷吉艾斯"/>
-    <hyperlink ref="U380" r:id="rId2918" tooltip="雷吉斯奇鲁" display="雷吉斯奇鲁"/>
-    <hyperlink ref="U381" r:id="rId2919" tooltip="拉帝亚斯" display="拉帝亚斯"/>
-    <hyperlink ref="U382" r:id="rId2920" tooltip="拉帝欧斯" display="拉帝欧斯"/>
-    <hyperlink ref="U383" r:id="rId2921" tooltip="盖欧卡" display="盖欧卡"/>
-    <hyperlink ref="U384" r:id="rId2922" tooltip="固拉多" display="固拉多"/>
-    <hyperlink ref="U385" r:id="rId2923" tooltip="烈空坐" display="烈空坐"/>
-    <hyperlink ref="U386" r:id="rId2924" tooltip="基拉祈" display="基拉祈"/>
-    <hyperlink ref="U387" r:id="rId2925" tooltip="代欧奇希斯" display="代欧奇希斯"/>
-    <hyperlink ref="U388" r:id="rId2926" tooltip="草苗龟"/>
-    <hyperlink ref="U389" r:id="rId2927" tooltip="树林龟"/>
-    <hyperlink ref="U390" r:id="rId2928" tooltip="土台龟"/>
-    <hyperlink ref="U391" r:id="rId2929" tooltip="小火焰猴"/>
-    <hyperlink ref="U392" r:id="rId2930" tooltip="猛火猴"/>
-    <hyperlink ref="U393" r:id="rId2931" tooltip="烈焰猴" display="烈焰猴"/>
-    <hyperlink ref="U394" r:id="rId2932" tooltip="波加曼" display="波加曼"/>
-    <hyperlink ref="U395" r:id="rId2933" tooltip="波皇子"/>
-    <hyperlink ref="U396" r:id="rId2934" tooltip="帝王拿波"/>
-    <hyperlink ref="U397" r:id="rId2935" tooltip="姆克儿"/>
-    <hyperlink ref="U398" r:id="rId2936" tooltip="姆克鸟"/>
-    <hyperlink ref="U399" r:id="rId2937" tooltip="姆克鹰" display="姆克鹰"/>
-    <hyperlink ref="U400" r:id="rId2938" tooltip="大牙狸"/>
-    <hyperlink ref="U401" r:id="rId2939" tooltip="大尾狸"/>
-    <hyperlink ref="U402" r:id="rId2940" tooltip="圆法师"/>
-    <hyperlink ref="U403" r:id="rId2941" tooltip="音箱蟀"/>
-    <hyperlink ref="U404" r:id="rId2942" tooltip="小猫怪"/>
-    <hyperlink ref="U405" r:id="rId2943" tooltip="勒克猫"/>
-    <hyperlink ref="U406" r:id="rId2944" tooltip="伦琴猫"/>
-    <hyperlink ref="U407" r:id="rId2945" tooltip="含羞苞"/>
-    <hyperlink ref="U408" r:id="rId2946" tooltip="罗丝雷朵"/>
-    <hyperlink ref="U409" r:id="rId2947" tooltip="头盖龙"/>
-    <hyperlink ref="U410" r:id="rId2948" tooltip="战槌龙"/>
-    <hyperlink ref="U411" r:id="rId2949" tooltip="盾甲龙"/>
-    <hyperlink ref="U412" r:id="rId2950" tooltip="护城龙"/>
-    <hyperlink ref="U413" r:id="rId2951" tooltip="结草儿"/>
-    <hyperlink ref="U414" r:id="rId2952" tooltip="结草贵妇"/>
-    <hyperlink ref="U480" r:id="rId2953" tooltip="洛托姆"/>
-    <hyperlink ref="U479" r:id="rId2954" tooltip="雪妖女"/>
-    <hyperlink ref="U478" r:id="rId2955" tooltip="黑夜魔灵" display="黑夜魔灵"/>
-    <hyperlink ref="U477" r:id="rId2956" tooltip="大朝北鼻"/>
-    <hyperlink ref="U476" r:id="rId2957" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="U475" r:id="rId2958" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U474" r:id="rId2959" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="U473" r:id="rId2960" tooltip="天蝎王"/>
-    <hyperlink ref="U472" r:id="rId2961" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="U471" r:id="rId2962" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="U470" r:id="rId2963" tooltip="远古巨蜓" display="远古巨蜓"/>
-    <hyperlink ref="U469" r:id="rId2964" tooltip="波克基斯" display="波克基斯"/>
-    <hyperlink ref="U468" r:id="rId2965" tooltip="鸭嘴炎兽" display="鸭嘴炎兽"/>
-    <hyperlink ref="U467" r:id="rId2966" tooltip="电击魔兽"/>
-    <hyperlink ref="U466" r:id="rId2967" tooltip="巨蔓藤"/>
-    <hyperlink ref="U465" r:id="rId2968" tooltip="超甲狂犀" display="超甲狂犀"/>
-    <hyperlink ref="U464" r:id="rId2969" tooltip="大舌舔"/>
-    <hyperlink ref="U463" r:id="rId2970" tooltip="自爆磁怪" display="自爆磁怪"/>
-    <hyperlink ref="U462" r:id="rId2971" tooltip="玛狃拉" display="玛狃拉"/>
-    <hyperlink ref="U461" r:id="rId2972" tooltip="暴雪王"/>
-    <hyperlink ref="U460" r:id="rId2973" tooltip="雪笠怪"/>
-    <hyperlink ref="U459" r:id="rId2974" tooltip="小球飞鱼"/>
-    <hyperlink ref="U458" r:id="rId2975" tooltip="霓虹鱼"/>
-    <hyperlink ref="U457" r:id="rId2976" tooltip="荧光鱼"/>
-    <hyperlink ref="U456" r:id="rId2977" tooltip="尖牙笼" display="尖牙笼"/>
-    <hyperlink ref="U455" r:id="rId2978" tooltip="毒骷蛙"/>
-    <hyperlink ref="U454" r:id="rId2979" tooltip="不良蛙"/>
-    <hyperlink ref="U453" r:id="rId2980" tooltip="龙王蝎"/>
-    <hyperlink ref="U452" r:id="rId2981" tooltip="钳尾蝎"/>
-    <hyperlink ref="U451" r:id="rId2982" tooltip="河马兽"/>
-    <hyperlink ref="U450" r:id="rId2983" tooltip="沙河马"/>
-    <hyperlink ref="U449" r:id="rId2984" tooltip="路卡利欧"/>
-    <hyperlink ref="U448" r:id="rId2985" tooltip="利欧路"/>
-    <hyperlink ref="U447" r:id="rId2986" tooltip="小卡比兽"/>
-    <hyperlink ref="U446" r:id="rId2987" tooltip="烈咬陆鲨" display="烈咬陆鲨"/>
-    <hyperlink ref="U445" r:id="rId2988" tooltip="尖牙陆鲨"/>
-    <hyperlink ref="U444" r:id="rId2989" tooltip="圆陆鲨"/>
-    <hyperlink ref="U443" r:id="rId2990" tooltip="花岩怪" display="花岩怪"/>
-    <hyperlink ref="U442" r:id="rId2991" tooltip="聒噪鸟" display="聒噪鸟"/>
-    <hyperlink ref="U441" r:id="rId2992" tooltip="小福蛋"/>
-    <hyperlink ref="U440" r:id="rId2993" tooltip="魔尼尼"/>
-    <hyperlink ref="U439" r:id="rId2994" tooltip="盆才怪" display="盆才怪"/>
-    <hyperlink ref="U438" r:id="rId2995" tooltip="青铜钟"/>
-    <hyperlink ref="U437" r:id="rId2996" tooltip="铜镜怪"/>
-    <hyperlink ref="U436" r:id="rId2997" tooltip="坦克臭鼬"/>
-    <hyperlink ref="U435" r:id="rId2998" tooltip="臭鼬噗"/>
-    <hyperlink ref="U434" r:id="rId2999" tooltip="铃铛响"/>
-    <hyperlink ref="U433" r:id="rId3000" tooltip="东施喵"/>
-    <hyperlink ref="U432" r:id="rId3001" tooltip="魅力喵"/>
-    <hyperlink ref="U431" r:id="rId3002" tooltip="乌鸦头头" display="乌鸦头头"/>
-    <hyperlink ref="U430" r:id="rId3003" tooltip="梦妖魔"/>
-    <hyperlink ref="U429" r:id="rId3004" tooltip="长耳兔" display="长耳兔"/>
-    <hyperlink ref="U428" r:id="rId3005" tooltip="卷卷耳"/>
-    <hyperlink ref="U427" r:id="rId3006" tooltip="随风球"/>
-    <hyperlink ref="U426" r:id="rId3007" tooltip="飘飘球"/>
-    <hyperlink ref="U425" r:id="rId3008" tooltip="双尾怪手"/>
-    <hyperlink ref="U424" r:id="rId3009" tooltip="海兔兽"/>
-    <hyperlink ref="U423" r:id="rId3010" tooltip="无壳海兔"/>
-    <hyperlink ref="U422" r:id="rId3011" tooltip="樱花儿"/>
-    <hyperlink ref="U421" r:id="rId3012" tooltip="樱花宝"/>
-    <hyperlink ref="U420" r:id="rId3013" tooltip="浮潜鼬"/>
-    <hyperlink ref="U419" r:id="rId3014" tooltip="泳圈鼬"/>
-    <hyperlink ref="U418" r:id="rId3015" tooltip="帕奇利兹" display="帕奇利兹"/>
-    <hyperlink ref="U417" r:id="rId3016" tooltip="蜂女王"/>
-    <hyperlink ref="U416" r:id="rId3017" tooltip="三蜜蜂"/>
-    <hyperlink ref="U415" r:id="rId3018" tooltip="绅士蛾"/>
-    <hyperlink ref="U487" r:id="rId3019" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="U486" r:id="rId3020" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="U485" r:id="rId3021" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U484" r:id="rId3022" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="U483" r:id="rId3023" tooltip="天蝎王" display="天蝎王"/>
-    <hyperlink ref="U482" r:id="rId3024" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="U481" r:id="rId3025" tooltip="叶伊布" display="叶伊布"/>
-    <hyperlink ref="U493" r:id="rId3026" tooltip="大朝北鼻" display="大朝北鼻"/>
-    <hyperlink ref="U492" r:id="rId3027" tooltip="艾路雷朵" display="艾路雷朵"/>
-    <hyperlink ref="U491" r:id="rId3028" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U490" r:id="rId3029" tooltip="象牙猪" display="象牙猪"/>
-    <hyperlink ref="U488" r:id="rId3030" tooltip="冰伊布" display="冰伊布"/>
-    <hyperlink ref="U495" r:id="rId3031" tooltip="比克提尼" display="比克提尼"/>
-    <hyperlink ref="U496" r:id="rId3032" tooltip="藤藤蛇"/>
-    <hyperlink ref="U497" r:id="rId3033" tooltip="青藤蛇"/>
-    <hyperlink ref="U498" r:id="rId3034" tooltip="君主蛇"/>
-    <hyperlink ref="U499" r:id="rId3035" tooltip="暖暖猪"/>
-    <hyperlink ref="U500" r:id="rId3036" tooltip="炒炒猪"/>
-    <hyperlink ref="U501" r:id="rId3037" tooltip="炎武王" display="炎武王"/>
-    <hyperlink ref="U502" r:id="rId3038" tooltip="水水獭" display="水水獭"/>
-    <hyperlink ref="U503" r:id="rId3039" tooltip="双刃丸"/>
-    <hyperlink ref="U504" r:id="rId3040" tooltip="大剑鬼"/>
-    <hyperlink ref="U505" r:id="rId3041" tooltip="探探鼠"/>
-    <hyperlink ref="U506" r:id="rId3042" tooltip="步哨鼠"/>
-    <hyperlink ref="U507" r:id="rId3043" tooltip="小约克"/>
-    <hyperlink ref="U508" r:id="rId3044" tooltip="哈约克"/>
-    <hyperlink ref="U509" r:id="rId3045" tooltip="长毛狗"/>
-    <hyperlink ref="U510" r:id="rId3046" tooltip="扒手猫"/>
-    <hyperlink ref="U511" r:id="rId3047" tooltip="酷豹"/>
-    <hyperlink ref="U512" r:id="rId3048" tooltip="花椰猴"/>
-    <hyperlink ref="U513" r:id="rId3049" tooltip="花椰猿"/>
-    <hyperlink ref="U514" r:id="rId3050" tooltip="爆香猴"/>
-    <hyperlink ref="U515" r:id="rId3051" tooltip="爆香猿"/>
-    <hyperlink ref="U516" r:id="rId3052" tooltip="冷水猴"/>
-    <hyperlink ref="U517" r:id="rId3053" tooltip="冷水猿"/>
-    <hyperlink ref="U518" r:id="rId3054" tooltip="食梦梦"/>
-    <hyperlink ref="U519" r:id="rId3055" tooltip="梦梦蚀"/>
-    <hyperlink ref="U520" r:id="rId3056" tooltip="豆豆鸽"/>
-    <hyperlink ref="U521" r:id="rId3057" tooltip="咕咕鸽"/>
-    <hyperlink ref="U522" r:id="rId3058" tooltip="高傲雉鸡" display="高傲雉鸡"/>
-    <hyperlink ref="U523" r:id="rId3059" tooltip="斑斑马"/>
-    <hyperlink ref="U524" r:id="rId3060" tooltip="雷电斑马"/>
-    <hyperlink ref="U525" r:id="rId3061" tooltip="石丸子"/>
-    <hyperlink ref="U526" r:id="rId3062" tooltip="地幔岩"/>
-    <hyperlink ref="U527" r:id="rId3063" tooltip="庞岩怪"/>
-    <hyperlink ref="U528" r:id="rId3064" tooltip="滚滚蝙蝠"/>
-    <hyperlink ref="U529" r:id="rId3065" tooltip="心蝙蝠"/>
-    <hyperlink ref="U530" r:id="rId3066" tooltip="螺钉地鼠"/>
-    <hyperlink ref="U531" r:id="rId3067" tooltip="龙头地鼠"/>
-    <hyperlink ref="U532" r:id="rId3068" tooltip="差不多娃娃" display="差不多娃娃"/>
-    <hyperlink ref="U533" r:id="rId3069" tooltip="搬运小匠"/>
-    <hyperlink ref="U534" r:id="rId3070" tooltip="铁骨土人"/>
-    <hyperlink ref="U535" r:id="rId3071" tooltip="修建老匠" display="修建老匠"/>
-    <hyperlink ref="U536" r:id="rId3072" tooltip="圆蝌蚪"/>
-    <hyperlink ref="U537" r:id="rId3073" tooltip="蓝蟾蜍"/>
-    <hyperlink ref="U538" r:id="rId3074" tooltip="蟾蜍王"/>
-    <hyperlink ref="U539" r:id="rId3075" tooltip="投摔鬼"/>
-    <hyperlink ref="U540" r:id="rId3076" tooltip="打击鬼"/>
-    <hyperlink ref="U541" r:id="rId3077" tooltip="虫宝包"/>
-    <hyperlink ref="U542" r:id="rId3078" tooltip="宝包茧"/>
-    <hyperlink ref="U543" r:id="rId3079" tooltip="保姆虫"/>
-    <hyperlink ref="U544" r:id="rId3080" tooltip="百足蜈蚣"/>
-    <hyperlink ref="U545" r:id="rId3081" tooltip="车轮球"/>
-    <hyperlink ref="U546" r:id="rId3082" tooltip="蜈蚣王"/>
-    <hyperlink ref="U547" r:id="rId3083" tooltip="木棉球"/>
-    <hyperlink ref="U548" r:id="rId3084" tooltip="风妖精" display="风妖精"/>
-    <hyperlink ref="U549" r:id="rId3085" tooltip="百合根娃娃"/>
-    <hyperlink ref="U550" r:id="rId3086" tooltip="裙儿小姐" display="裙儿小姐"/>
-    <hyperlink ref="U551" r:id="rId3087" tooltip="野蛮鲈鱼"/>
-    <hyperlink ref="U552" r:id="rId3088" tooltip="黑眼鳄"/>
-    <hyperlink ref="U553" r:id="rId3089" tooltip="混混鳄"/>
-    <hyperlink ref="U554" r:id="rId3090" tooltip="流氓鳄"/>
-    <hyperlink ref="U555" r:id="rId3091" tooltip="火红不倒翁"/>
-    <hyperlink ref="U651" r:id="rId3092" tooltip="哈力栗" display="哈力栗"/>
-    <hyperlink ref="U652" r:id="rId3093" tooltip="胖胖哈力"/>
-    <hyperlink ref="U653" r:id="rId3094" tooltip="布里卡隆"/>
-    <hyperlink ref="U654" r:id="rId3095" tooltip="火狐狸"/>
-    <hyperlink ref="U655" r:id="rId3096" tooltip="长尾火狐"/>
-    <hyperlink ref="U656" r:id="rId3097" tooltip="妖火红狐"/>
-    <hyperlink ref="U657" r:id="rId3098" tooltip="呱呱泡蛙"/>
-    <hyperlink ref="U658" r:id="rId3099" tooltip="呱头蛙"/>
-    <hyperlink ref="U659" r:id="rId3100" tooltip="甲贺忍蛙" display="甲贺忍蛙"/>
-    <hyperlink ref="U660" r:id="rId3101" tooltip="掘掘兔"/>
-    <hyperlink ref="U661" r:id="rId3102" tooltip="掘地兔" display="掘地兔"/>
-    <hyperlink ref="U662" r:id="rId3103" tooltip="小箭雀"/>
-    <hyperlink ref="U663" r:id="rId3104" tooltip="火箭雀"/>
-    <hyperlink ref="U664" r:id="rId3105" tooltip="烈箭鹰" display="烈箭鹰"/>
-    <hyperlink ref="U665" r:id="rId3106" tooltip="粉蝶虫"/>
-    <hyperlink ref="U666" r:id="rId3107" tooltip="粉蝶蛹"/>
-    <hyperlink ref="U667" r:id="rId3108" tooltip="彩粉蝶" display="彩粉蝶"/>
-    <hyperlink ref="U668" r:id="rId3109" tooltip="小狮狮"/>
-    <hyperlink ref="U669" r:id="rId3110" tooltip="火炎狮"/>
-    <hyperlink ref="U670" r:id="rId3111" tooltip="花蓓蓓"/>
-    <hyperlink ref="U671" r:id="rId3112" tooltip="花叶蒂"/>
-    <hyperlink ref="U672" r:id="rId3113" tooltip="花洁夫人"/>
-    <hyperlink ref="U673" r:id="rId3114" tooltip="坐骑小羊"/>
-    <hyperlink ref="U674" r:id="rId3115" tooltip="坐骑山羊"/>
-    <hyperlink ref="U675" r:id="rId3116" tooltip="顽皮熊猫"/>
-    <hyperlink ref="U676" r:id="rId3117" tooltip="流氓熊猫"/>
-    <hyperlink ref="U677" r:id="rId3118" tooltip="多丽米亚"/>
-    <hyperlink ref="U678" r:id="rId3119" tooltip="妙喵"/>
-    <hyperlink ref="U679" r:id="rId3120" tooltip="超能妙喵"/>
-    <hyperlink ref="U680" r:id="rId3121" tooltip="独剑鞘"/>
-    <hyperlink ref="U681" r:id="rId3122" tooltip="双剑鞘"/>
-    <hyperlink ref="U682" r:id="rId3123" tooltip="坚盾剑怪" display="坚盾剑怪"/>
-    <hyperlink ref="U713" r:id="rId3124" tooltip="冰宝"/>
-    <hyperlink ref="U714" r:id="rId3125" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="U715" r:id="rId3126" tooltip="嗡蝠"/>
-    <hyperlink ref="U716" r:id="rId3127" tooltip="音波龙"/>
-    <hyperlink ref="U717" r:id="rId3128" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="U718" r:id="rId3129" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="U711" r:id="rId3130" tooltip="南瓜精"/>
-    <hyperlink ref="U712" r:id="rId3131" tooltip="南瓜怪人"/>
-    <hyperlink ref="U683" r:id="rId3132" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U684" r:id="rId3133" tooltip="冰宝" display="冰宝"/>
-    <hyperlink ref="U685" r:id="rId3134" tooltip="冰岩怪" display="冰岩怪"/>
-    <hyperlink ref="U686" r:id="rId3135" tooltip="嗡蝠" display="嗡蝠"/>
-    <hyperlink ref="U687" r:id="rId3136" tooltip="音波龙" display="音波龙"/>
-    <hyperlink ref="U688" r:id="rId3137" tooltip="哲尔尼亚斯" display="哲尔尼亚斯"/>
-    <hyperlink ref="U689" r:id="rId3138" tooltip="伊裴尔塔尔" display="伊裴尔塔尔"/>
-    <hyperlink ref="U690" r:id="rId3139" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U691" r:id="rId3140" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U692" r:id="rId3141" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U693" r:id="rId3142" tooltip="南瓜怪人" display="南瓜怪人"/>
-    <hyperlink ref="U694" r:id="rId3143" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U695" r:id="rId3144" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U696" r:id="rId3145" tooltip="南瓜精" display="南瓜精"/>
-    <hyperlink ref="U723" r:id="rId3146" tooltip="木木枭" display="木木枭"/>
-    <hyperlink ref="U724" r:id="rId3147" tooltip="投羽枭"/>
-    <hyperlink ref="U725" r:id="rId3148" tooltip="狙射树枭"/>
-    <hyperlink ref="U726" r:id="rId3149" tooltip="火斑喵"/>
-    <hyperlink ref="U727" r:id="rId3150" tooltip="炎热喵"/>
-    <hyperlink ref="U728" r:id="rId3151" tooltip="炽焰咆哮虎" display="炽焰咆哮虎"/>
-    <hyperlink ref="U729" r:id="rId3152" tooltip="球球海狮"/>
-    <hyperlink ref="U730" r:id="rId3153" tooltip="花漾海狮"/>
-    <hyperlink ref="U731" r:id="rId3154" tooltip="西狮海壬" display="西狮海壬"/>
-    <hyperlink ref="U732" r:id="rId3155" tooltip="小笃儿"/>
-    <hyperlink ref="U733" r:id="rId3156" tooltip="喇叭啄鸟"/>
-    <hyperlink ref="U734" r:id="rId3157" tooltip="铳嘴大鸟"/>
-    <hyperlink ref="U735" r:id="rId3158" tooltip="猫鼬少"/>
-    <hyperlink ref="U736" r:id="rId3159" tooltip="猫鼬探长" display="猫鼬探长"/>
-    <hyperlink ref="U737" r:id="rId3160" tooltip="强颚鸡母虫"/>
-    <hyperlink ref="U738" r:id="rId3161" tooltip="虫电宝"/>
-    <hyperlink ref="U739" r:id="rId3162" tooltip="锹农炮虫"/>
-    <hyperlink ref="U740" r:id="rId3163" tooltip="好胜蟹"/>
-    <hyperlink ref="U741" r:id="rId3164" tooltip="好胜毛蟹"/>
-    <hyperlink ref="U742" r:id="rId3165" tooltip="花舞鸟"/>
-    <hyperlink ref="U743" r:id="rId3166" tooltip="萌虻"/>
-    <hyperlink ref="U744" r:id="rId3167" tooltip="蝶结萌虻"/>
-    <hyperlink ref="U745" r:id="rId3168" tooltip="岩狗狗"/>
-    <hyperlink ref="U746" r:id="rId3169" tooltip="鬃岩狼人"/>
-    <hyperlink ref="V475" r:id="rId3170" tooltip="多边兽Ｚ" display="多边兽Ｚ"/>
-    <hyperlink ref="U298" r:id="rId3171" tooltip="幕下力士" display="幕下力士"/>
-    <hyperlink ref="U297" r:id="rId3172" tooltip="幕下力士" display="https://wiki.52poke.com/wiki/%E5%B9%95%E4%B8%8B%E5%8A%9B%E5%A3%AB"/>
+    <hyperlink ref="M124" r:id="rId172" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N124" r:id="rId173" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M125" r:id="rId174" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="N125" r:id="rId175" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M126" r:id="rId176" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M127" r:id="rId177" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M128" r:id="rId178" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="M129" r:id="rId179" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M130" r:id="rId180" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M131" r:id="rId181" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N131" r:id="rId182" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M132" r:id="rId183" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N132" r:id="rId184" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="M133" r:id="rId185" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M134" r:id="rId186" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M135" r:id="rId187" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M136" r:id="rId188" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M137" r:id="rId189" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M138" r:id="rId190" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M139" r:id="rId191" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N139" r:id="rId192" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M140" r:id="rId193" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N140" r:id="rId194" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M141" r:id="rId195" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N141" r:id="rId196" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M142" r:id="rId197" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N142" r:id="rId198" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M143" r:id="rId199" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N143" r:id="rId200" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M144" r:id="rId201" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M145" r:id="rId202" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="N145" r:id="rId203" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M146" r:id="rId204" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="N146" r:id="rId205" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M147" r:id="rId206" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="N147" r:id="rId207" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M148" r:id="rId208" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="M149" r:id="rId209" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="M150" r:id="rId210" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="N150" r:id="rId211" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M151" r:id="rId212" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M152" r:id="rId213" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M153" r:id="rId214" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M154" r:id="rId215" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M155" r:id="rId216" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M156" r:id="rId217" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M157" r:id="rId218" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M158" r:id="rId219" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M159" r:id="rId220" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M160" r:id="rId221" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M161" r:id="rId222" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M162" r:id="rId223" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M163" r:id="rId224" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M164" r:id="rId225" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="N164" r:id="rId226" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M165" r:id="rId227" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="N165" r:id="rId228" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M166" r:id="rId229" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N166" r:id="rId230" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M167" r:id="rId231" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N167" r:id="rId232" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M168" r:id="rId233" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N168" r:id="rId234" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="M169" r:id="rId235" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N169" r:id="rId236" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="M170" r:id="rId237" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="N170" r:id="rId238" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M171" r:id="rId239" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N171" r:id="rId240" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M172" r:id="rId241" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N172" r:id="rId242" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M173" r:id="rId243" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M174" r:id="rId244" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M175" r:id="rId245" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M176" r:id="rId246" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M177" r:id="rId247" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="N177" r:id="rId248" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M178" r:id="rId249" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="N178" r:id="rId250" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M179" r:id="rId251" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="N179" r:id="rId252" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M180" r:id="rId253" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M181" r:id="rId254" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M182" r:id="rId255" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M183" r:id="rId256" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M184" r:id="rId257" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M185" r:id="rId258" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M186" r:id="rId259" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M187" r:id="rId260" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M188" r:id="rId261" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="N188" r:id="rId262" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M189" r:id="rId263" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="N189" r:id="rId264" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M190" r:id="rId265" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="N190" r:id="rId266" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M191" r:id="rId267" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M192" r:id="rId268" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M193" r:id="rId269" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M194" r:id="rId270" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N194" r:id="rId271" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M195" r:id="rId272" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N195" r:id="rId273" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M196" r:id="rId274" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N196" r:id="rId275" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M197" r:id="rId276" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M198" r:id="rId277" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M199" r:id="rId278" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="N199" r:id="rId279" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M200" r:id="rId280" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N200" r:id="rId281" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M201" r:id="rId282" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
+    <hyperlink ref="M202" r:id="rId283" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M203" r:id="rId284" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M204" r:id="rId285" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="N204" r:id="rId286" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M205" r:id="rId287" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="M206" r:id="rId288" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N206" r:id="rId289" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="M207" r:id="rId290" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M208" r:id="rId291" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="N208" r:id="rId292" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M209" r:id="rId293" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N209" r:id="rId294" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M210" r:id="rId295" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M211" r:id="rId296" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M212" r:id="rId297" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N212" r:id="rId298" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="M213" r:id="rId299" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N213" r:id="rId300" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="M214" r:id="rId301" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N214" r:id="rId302" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M215" r:id="rId303" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N215" r:id="rId304" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="M216" r:id="rId305" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="N216" r:id="rId306" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="M217" r:id="rId307" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M218" r:id="rId308" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M219" r:id="rId309" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M220" r:id="rId310" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="N220" r:id="rId311" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M221" r:id="rId312" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="N221" r:id="rId313" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M222" r:id="rId314" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="N222" r:id="rId315" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M223" r:id="rId316" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N223" r:id="rId317" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M224" r:id="rId318" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M225" r:id="rId319" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M226" r:id="rId320" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="N226" r:id="rId321" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M227" r:id="rId322" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N227" r:id="rId323" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M228" r:id="rId324" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N228" r:id="rId325" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M229" r:id="rId326" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="N229" r:id="rId327" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M230" r:id="rId328" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="N230" r:id="rId329" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M231" r:id="rId330" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N231" r:id="rId331" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="M232" r:id="rId332" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M233" r:id="rId333" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M234" r:id="rId334" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M235" r:id="rId335" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M236" r:id="rId336" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M237" r:id="rId337" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="M238" r:id="rId338" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="M239" r:id="rId339" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="N239" r:id="rId340" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M240" r:id="rId341" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M241" r:id="rId342" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M242" r:id="rId343" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M243" r:id="rId344" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M244" r:id="rId345" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M245" r:id="rId346" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M246" r:id="rId347" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M247" r:id="rId348" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N247" r:id="rId349" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M248" r:id="rId350" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N248" r:id="rId351" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M249" r:id="rId352" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N249" r:id="rId353" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M250" r:id="rId354" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="N250" r:id="rId355" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M251" r:id="rId356" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="N251" r:id="rId357" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M252" r:id="rId358" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="N252" r:id="rId359" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M253" r:id="rId360" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M254" r:id="rId361" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M255" r:id="rId362" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M256" r:id="rId363" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M257" r:id="rId364" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="N257" r:id="rId365" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="M258" r:id="rId366" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="N258" r:id="rId367" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="M259" r:id="rId368" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M260" r:id="rId369" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N260" r:id="rId370" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M261" r:id="rId371" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N261" r:id="rId372" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M262" r:id="rId373" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M263" r:id="rId374" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M264" r:id="rId375" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M265" r:id="rId376" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M266" r:id="rId377" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="M267" r:id="rId378" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="M268" r:id="rId379" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N268" r:id="rId380" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M269" r:id="rId381" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="M270" r:id="rId382" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N270" r:id="rId383" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="M271" r:id="rId384" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N271" r:id="rId385" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M272" r:id="rId386" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N272" r:id="rId387" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M273" r:id="rId388" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N273" r:id="rId389" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M274" r:id="rId390" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M275" r:id="rId391" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="N275" r:id="rId392" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M276" r:id="rId393" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="N276" r:id="rId394" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M277" r:id="rId395" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="N277" r:id="rId396" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M278" r:id="rId397" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="N278" r:id="rId398" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M279" r:id="rId399" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N279" r:id="rId400" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M280" r:id="rId401" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N280" r:id="rId402" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M281" r:id="rId403" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="N281" r:id="rId404" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
+    <hyperlink ref="M282" r:id="rId405" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="N282" r:id="rId406" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
+    <hyperlink ref="M283" r:id="rId407" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="N283" r:id="rId408" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
+    <hyperlink ref="M284" r:id="rId409" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N284" r:id="rId410" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M285" r:id="rId411" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N285" r:id="rId412" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M286" r:id="rId413" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M287" r:id="rId414" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="N287" r:id="rId415" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="M288" r:id="rId416" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M289" r:id="rId417" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M290" r:id="rId418" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M291" r:id="rId419" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N291" r:id="rId420" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M292" r:id="rId421" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N292" r:id="rId422" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M293" r:id="rId423" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="N293" r:id="rId424" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
+    <hyperlink ref="M294" r:id="rId425" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M295" r:id="rId426" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M296" r:id="rId427" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M297" r:id="rId428" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="M298" r:id="rId429" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="M299" r:id="rId430" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="N299" r:id="rId431" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
+    <hyperlink ref="M300" r:id="rId432" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M301" r:id="rId433" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M302" r:id="rId434" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M303" r:id="rId435" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="N303" r:id="rId436" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
+    <hyperlink ref="M304" r:id="rId437" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N304" r:id="rId438" tooltip="Fairy (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fairy_(type)"/>
+    <hyperlink ref="M305" r:id="rId439" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N305" r:id="rId440" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M306" r:id="rId441" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N306" r:id="rId442" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M307" r:id="rId443" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N307" r:id="rId444" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M308" r:id="rId445" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="N308" r:id="rId446" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M309" r:id="rId447" tooltip="Fighting (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fighting_(type)"/>
+    <hyperlink ref="N309" r:id="rId448" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M310" r:id="rId449" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M311" r:id="rId450" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M312" r:id="rId451" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M313" r:id="rId452" tooltip="Electric (type)" display="https://bulbapedia.bulbagarden.net/wiki/Electric_(type)"/>
+    <hyperlink ref="M314" r:id="rId453" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="M315" r:id="rId454" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="M316" r:id="rId455" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="N316" r:id="rId456" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="M317" r:id="rId457" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="M318" r:id="rId458" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="M319" r:id="rId459" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N319" r:id="rId460" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M320" r:id="rId461" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N320" r:id="rId462" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M321" r:id="rId463" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M322" r:id="rId464" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M323" r:id="rId465" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="N323" r:id="rId466" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M324" r:id="rId467" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="N324" r:id="rId468" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M325" r:id="rId469" tooltip="Fire (type)" display="https://bulbapedia.bulbagarden.net/wiki/Fire_(type)"/>
+    <hyperlink ref="M326" r:id="rId470" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M327" r:id="rId471" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M328" r:id="rId472" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M329" r:id="rId473" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M330" r:id="rId474" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="N330" r:id="rId475" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="M331" r:id="rId476" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="N331" r:id="rId477" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="M332" r:id="rId478" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M333" r:id="rId479" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="N333" r:id="rId480" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M334" r:id="rId481" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="N334" r:id="rId482" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M335" r:id="rId483" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="N335" r:id="rId484" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M336" r:id="rId485" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M337" r:id="rId486" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="M338" r:id="rId487" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N338" r:id="rId488" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M339" r:id="rId489" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N339" r:id="rId490" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M340" r:id="rId491" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N340" r:id="rId492" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M341" r:id="rId493" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N341" r:id="rId494" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M342" r:id="rId495" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M343" r:id="rId496" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N343" r:id="rId497" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M344" r:id="rId498" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="N344" r:id="rId499" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M345" r:id="rId500" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="N345" r:id="rId501" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M346" r:id="rId502" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N346" r:id="rId503" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M347" r:id="rId504" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N347" r:id="rId505" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="M348" r:id="rId506" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N348" r:id="rId507" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="M349" r:id="rId508" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="N349" r:id="rId509" tooltip="Bug (type)" display="https://bulbapedia.bulbagarden.net/wiki/Bug_(type)"/>
+    <hyperlink ref="M350" r:id="rId510" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M351" r:id="rId511" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M352" r:id="rId512" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M353" r:id="rId513" tooltip="Normal (type)" display="https://bulbapedia.bulbagarden.net/wiki/Normal_(type)"/>
+    <hyperlink ref="M354" r:id="rId514" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
+    <hyperlink ref="M355" r:id="rId515" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
+    <hyperlink ref="M356" r:id="rId516" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
+    <hyperlink ref="M357" r:id="rId517" tooltip="Ghost (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ghost_(type)"/>
+    <hyperlink ref="M358" r:id="rId518" tooltip="Grass (type)" display="https://bulbapedia.bulbagarden.net/wiki/Grass_(type)"/>
+    <hyperlink ref="N358" r:id="rId519" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M359" r:id="rId520" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M360" r:id="rId521" tooltip="Dark (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dark_(type)"/>
+    <hyperlink ref="M361" r:id="rId522" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M362" r:id="rId523" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="M363" r:id="rId524" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="M364" r:id="rId525" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="N364" r:id="rId526" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M365" r:id="rId527" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="N365" r:id="rId528" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M366" r:id="rId529" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="N366" r:id="rId530" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M367" r:id="rId531" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M368" r:id="rId532" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M369" r:id="rId533" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M370" r:id="rId534" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="N370" r:id="rId535" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M371" r:id="rId536" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M372" r:id="rId537" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="M373" r:id="rId538" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="M374" r:id="rId539" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="N374" r:id="rId540" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M375" r:id="rId541" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N375" r:id="rId542" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M376" r:id="rId543" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N376" r:id="rId544" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M377" r:id="rId545" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N377" r:id="rId546" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M378" r:id="rId547" tooltip="Rock (type)" display="https://bulbapedia.bulbagarden.net/wiki/Rock_(type)"/>
+    <hyperlink ref="M379" r:id="rId548" tooltip="Ice (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ice_(type)"/>
+    <hyperlink ref="M380" r:id="rId549" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="M381" r:id="rId550" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="N381" r:id="rId551" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M382" r:id="rId552" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="N382" r:id="rId553" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M383" r:id="rId554" tooltip="Water (type)" display="https://bulbapedia.bulbagarden.net/wiki/Water_(type)"/>
+    <hyperlink ref="M384" r:id="rId555" tooltip="Ground (type)" display="https://bulbapedia.bulbagarden.net/wiki/Ground_(type)"/>
+    <hyperlink ref="M385" r:id="rId556" tooltip="Dragon (type)" display="https://bulbapedia.bulbagarden.net/wiki/Dragon_(type)"/>
+    <hyperlink ref="N385" r:id="rId557" tooltip="Flying (type)" display="https://bulbapedia.bulbagarden.net/wiki/Flying_(type)"/>
+    <hyperlink ref="M386" r:id="rId558" tooltip="Steel (type)" display="https://bulbapedia.bulbagarden.net/wiki/Steel_(type)"/>
+    <hyperlink ref="N386" r:id="rId559" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="M387" r:id="rId560" tooltip="Psychic (type)" display="https://bulbapedia.bulbagarden.net/wiki/Psychic_(type)"/>
+    <hyperlink ref="N2" r:id="rId561" tooltip="Poison (type)" display="https://bulbapedia.bulbagarden.net/wiki/Poison_(type)"/>
+    <hyperlink ref="B387" r:id="rId562" tooltip="Deoxys (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Deoxys_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B386" r:id="rId563" tooltip="Jirachi (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jirachi_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B385" r:id="rId564" tooltip="Rayquaza (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rayquaza_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B384" r:id="rId565" tooltip="Groudon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Groudon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B383" r:id="rId566" tooltip="Kyogre (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kyogre_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B382" r:id="rId567" tooltip="Latios (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Latios_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B381" r:id="rId568" tooltip="Latias (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Latias_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B380" r:id="rId569" tooltip="Registeel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Registeel_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B379" r:id="rId570" tooltip="Regice (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Regice_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B378" r:id="rId571" tooltip="Regirock (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Regirock_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B377" r:id="rId572" tooltip="Metagross (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Metagross_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B376" r:id="rId573" tooltip="Metang (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Metang_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B375" r:id="rId574" tooltip="Beldum (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Beldum_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B374" r:id="rId575" tooltip="Salamence (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Salamence_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B373" r:id="rId576" tooltip="Shelgon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shelgon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B372" r:id="rId577" tooltip="Bagon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bagon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B371" r:id="rId578" tooltip="Luvdisc (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Luvdisc_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B370" r:id="rId579" tooltip="Relicanth (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Relicanth_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B369" r:id="rId580" tooltip="Gorebyss (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gorebyss_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B368" r:id="rId581" tooltip="Huntail (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Huntail_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B367" r:id="rId582" tooltip="Clamperl (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Clamperl_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B366" r:id="rId583" tooltip="Walrein (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Walrein_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B365" r:id="rId584" tooltip="Sealeo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sealeo_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B364" r:id="rId585" tooltip="Spheal (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spheal_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B363" r:id="rId586" tooltip="Glalie (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Glalie_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B362" r:id="rId587" tooltip="Snorunt (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Snorunt_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B361" r:id="rId588" tooltip="Wynaut (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wynaut_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B360" r:id="rId589" tooltip="Absol (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Absol_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B359" r:id="rId590" tooltip="Chimecho (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chimecho_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B358" r:id="rId591" tooltip="Tropius (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tropius_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B357" r:id="rId592" tooltip="Dusclops (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dusclops_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B356" r:id="rId593" tooltip="Duskull (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Duskull_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B355" r:id="rId594" tooltip="Banette (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Banette_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B354" r:id="rId595" tooltip="Shuppet (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shuppet_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B353" r:id="rId596" tooltip="Kecleon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kecleon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B352" r:id="rId597" tooltip="Castform (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Castform_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B351" r:id="rId598" tooltip="Milotic (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Milotic_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B350" r:id="rId599" tooltip="Feebas (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Feebas_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B349" r:id="rId600" tooltip="Armaldo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Armaldo_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B348" r:id="rId601" tooltip="Anorith (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Anorith_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B347" r:id="rId602" tooltip="Cradily (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cradily_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B346" r:id="rId603" tooltip="Lileep (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lileep_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B345" r:id="rId604" tooltip="Claydol (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Claydol_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B344" r:id="rId605" tooltip="Baltoy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Baltoy_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B343" r:id="rId606" tooltip="Crawdaunt (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Crawdaunt_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B342" r:id="rId607" tooltip="Corphish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Corphish_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B341" r:id="rId608" tooltip="Whiscash (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Whiscash_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B340" r:id="rId609" tooltip="Barboach (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Barboach_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B339" r:id="rId610" tooltip="Solrock (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Solrock_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B338" r:id="rId611" tooltip="Lunatone (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lunatone_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B337" r:id="rId612" tooltip="Seviper (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seviper_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B336" r:id="rId613" tooltip="Zangoose (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zangoose_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B335" r:id="rId614" tooltip="Altaria (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Altaria_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B334" r:id="rId615" tooltip="Swablu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swablu_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B333" r:id="rId616" tooltip="Cacturne (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cacturne_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B332" r:id="rId617" tooltip="Cacnea (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cacnea_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B331" r:id="rId618" tooltip="Flygon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Flygon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B330" r:id="rId619" tooltip="Vibrava (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vibrava_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B329" r:id="rId620" tooltip="Trapinch (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Trapinch_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B328" r:id="rId621" tooltip="Spinda (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spinda_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B327" r:id="rId622" tooltip="Grumpig (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Grumpig_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B326" r:id="rId623" tooltip="Spoink (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spoink_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B325" r:id="rId624" tooltip="Torkoal (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Torkoal_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B324" r:id="rId625" tooltip="Camerupt (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Camerupt_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B323" r:id="rId626" tooltip="Numel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Numel_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B322" r:id="rId627" tooltip="Wailord (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wailord_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B321" r:id="rId628" tooltip="Wailmer (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wailmer_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B320" r:id="rId629" tooltip="Sharpedo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sharpedo_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B319" r:id="rId630" tooltip="Carvanha (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Carvanha_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B318" r:id="rId631" tooltip="Swalot (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swalot_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B317" r:id="rId632" tooltip="Gulpin (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gulpin_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B316" r:id="rId633" tooltip="Roselia (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Roselia_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B315" r:id="rId634" tooltip="Illumise (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Illumise_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B314" r:id="rId635" tooltip="Volbeat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Volbeat_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B313" r:id="rId636" tooltip="Minun (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Minun_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B312" r:id="rId637" tooltip="Plusle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Plusle_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B311" r:id="rId638" tooltip="Manectric (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Manectric_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B310" r:id="rId639" tooltip="Electrike (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Electrike_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B309" r:id="rId640" tooltip="Medicham (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Medicham_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B308" r:id="rId641" tooltip="Meditite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Meditite_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B307" r:id="rId642" tooltip="Aggron (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aggron_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B306" r:id="rId643" tooltip="Lairon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lairon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B305" r:id="rId644" tooltip="Aron (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aron_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B304" r:id="rId645" tooltip="Mawile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mawile_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B303" r:id="rId646" tooltip="Sableye (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sableye_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B302" r:id="rId647" tooltip="Delcatty (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Delcatty_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B301" r:id="rId648" tooltip="Skitty (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skitty_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B300" r:id="rId649" tooltip="Nosepass (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nosepass_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B299" r:id="rId650" tooltip="Azurill (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Azurill_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B298" r:id="rId651" tooltip="Hariyama (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hariyama_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B297" r:id="rId652" tooltip="Makuhita (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Makuhita_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B296" r:id="rId653" tooltip="Exploud (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Exploud_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B295" r:id="rId654" tooltip="Loudred (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Loudred_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B294" r:id="rId655" tooltip="Whismur (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Whismur_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B293" r:id="rId656" tooltip="Shedinja (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shedinja_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B292" r:id="rId657" tooltip="Ninjask (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ninjask_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B291" r:id="rId658" tooltip="Nincada (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nincada_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B290" r:id="rId659" tooltip="Slaking (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slaking_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B289" r:id="rId660" tooltip="Vigoroth (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vigoroth_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B288" r:id="rId661" tooltip="Slakoth (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slakoth_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B287" r:id="rId662" tooltip="Breloom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Breloom_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B286" r:id="rId663" tooltip="Shroomish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shroomish_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B285" r:id="rId664" tooltip="Masquerain (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Masquerain_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B284" r:id="rId665" tooltip="Surskit (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Surskit_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B283" r:id="rId666" tooltip="Gardevoir (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gardevoir_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B282" r:id="rId667" tooltip="Kirlia (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kirlia_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B281" r:id="rId668" tooltip="Ralts (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ralts_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B280" r:id="rId669" tooltip="Pelipper (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pelipper_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B279" r:id="rId670" tooltip="Wingull (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wingull_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B278" r:id="rId671" tooltip="Swellow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swellow_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B277" r:id="rId672" tooltip="Taillow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Taillow_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B276" r:id="rId673" tooltip="Shiftry (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shiftry_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B275" r:id="rId674" tooltip="Nuzleaf (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Nuzleaf_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B274" r:id="rId675" tooltip="Seedot (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seedot_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B273" r:id="rId676" tooltip="Ludicolo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ludicolo_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B272" r:id="rId677" tooltip="Lombre (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lombre_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B271" r:id="rId678" tooltip="Lotad (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lotad_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B270" r:id="rId679" tooltip="Dustox (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dustox_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B269" r:id="rId680" tooltip="Cascoon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cascoon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B268" r:id="rId681" tooltip="Beautifly (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Beautifly_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B267" r:id="rId682" tooltip="Silcoon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Silcoon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B266" r:id="rId683" tooltip="Wurmple (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wurmple_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B265" r:id="rId684" tooltip="Linoone (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Linoone_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B264" r:id="rId685" tooltip="Zigzagoon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zigzagoon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B263" r:id="rId686" tooltip="Mightyena (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mightyena_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B262" r:id="rId687" tooltip="Poochyena (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Poochyena_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B261" r:id="rId688" tooltip="Swampert (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swampert_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B260" r:id="rId689" tooltip="Marshtomp (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Marshtomp_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B259" r:id="rId690" tooltip="Mudkip (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mudkip_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B258" r:id="rId691" tooltip="Blaziken (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Blaziken_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B257" r:id="rId692" tooltip="Combusken (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Combusken_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B256" r:id="rId693" tooltip="Torchic (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Torchic_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B255" r:id="rId694" tooltip="Sceptile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sceptile_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B254" r:id="rId695" tooltip="Grovyle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Grovyle_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B253" r:id="rId696" tooltip="Treecko (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Treecko_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B252" r:id="rId697" tooltip="Celebi (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Celebi_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B251" r:id="rId698" tooltip="Ho-Oh (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ho-Oh_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B250" r:id="rId699" tooltip="Lugia (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lugia_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B249" r:id="rId700" tooltip="Tyranitar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tyranitar_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B248" r:id="rId701" tooltip="Pupitar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pupitar_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B247" r:id="rId702" tooltip="Larvitar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Larvitar_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B246" r:id="rId703" tooltip="Suicune (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Suicune_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B245" r:id="rId704" tooltip="Entei (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Entei_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B244" r:id="rId705" tooltip="Raikou (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Raikou_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B243" r:id="rId706" tooltip="Blissey (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Blissey_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B242" r:id="rId707" tooltip="Miltank (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Miltank_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B241" r:id="rId708" tooltip="Magby (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magby_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B240" r:id="rId709" tooltip="Elekid (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Elekid_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B239" r:id="rId710" tooltip="Smoochum (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Smoochum_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B238" r:id="rId711" tooltip="Hitmontop (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hitmontop_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B237" r:id="rId712" tooltip="Tyrogue (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tyrogue_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B236" r:id="rId713" tooltip="Smeargle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Smeargle_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B235" r:id="rId714" tooltip="Stantler (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Stantler_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B234" r:id="rId715" tooltip="Porygon2 (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Porygon2_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B233" r:id="rId716" tooltip="Donphan (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Donphan_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B232" r:id="rId717" tooltip="Phanpy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Phanpy_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B231" r:id="rId718" tooltip="Kingdra (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kingdra_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B230" r:id="rId719" tooltip="Houndoom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Houndoom_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B229" r:id="rId720" tooltip="Houndour (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Houndour_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B228" r:id="rId721" tooltip="Skarmory (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skarmory_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B227" r:id="rId722" tooltip="Mantine (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mantine_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B226" r:id="rId723" tooltip="Delibird (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Delibird_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B225" r:id="rId724" tooltip="Octillery (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Octillery_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B224" r:id="rId725" tooltip="Remoraid (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Remoraid_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B223" r:id="rId726" tooltip="Corsola (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Corsola_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B222" r:id="rId727" tooltip="Piloswine (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Piloswine_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B221" r:id="rId728" tooltip="Swinub (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Swinub_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B220" r:id="rId729" tooltip="Magcargo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magcargo_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B219" r:id="rId730" tooltip="Slugma (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slugma_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B218" r:id="rId731" tooltip="Ursaring (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ursaring_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B217" r:id="rId732" tooltip="Teddiursa (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Teddiursa_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B216" r:id="rId733" tooltip="Sneasel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sneasel_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B215" r:id="rId734" tooltip="Heracross (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Heracross_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B214" r:id="rId735" tooltip="Shuckle (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shuckle_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B213" r:id="rId736" tooltip="Scizor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Scizor_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B212" r:id="rId737" tooltip="Qwilfish (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Qwilfish_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B211" r:id="rId738" tooltip="Granbull (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Granbull_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B210" r:id="rId739" tooltip="Snubbull (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Snubbull_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B209" r:id="rId740" tooltip="Steelix (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Steelix_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B208" r:id="rId741" tooltip="Gligar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gligar_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B207" r:id="rId742" tooltip="Dunsparce (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dunsparce_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B206" r:id="rId743" tooltip="Forretress (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Forretress_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B205" r:id="rId744" tooltip="Pineco (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pineco_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B204" r:id="rId745" tooltip="Girafarig (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Girafarig_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B203" r:id="rId746" tooltip="Wobbuffet (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wobbuffet_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B202" r:id="rId747" tooltip="Unown (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Unown_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B201" r:id="rId748" tooltip="Misdreavus (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Misdreavus_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B200" r:id="rId749" tooltip="Slowking (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slowking_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B199" r:id="rId750" tooltip="Murkrow (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Murkrow_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B198" r:id="rId751" tooltip="Umbreon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Umbreon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B197" r:id="rId752" tooltip="Espeon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Espeon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B196" r:id="rId753" tooltip="Quagsire (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Quagsire_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B195" r:id="rId754" tooltip="Wooper (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Wooper_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B194" r:id="rId755" tooltip="Yanma (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Yanma_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B193" r:id="rId756" tooltip="Sunflora (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sunflora_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B192" r:id="rId757" tooltip="Sunkern (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sunkern_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B191" r:id="rId758" tooltip="Aipom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aipom_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B190" r:id="rId759" tooltip="Jumpluff (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jumpluff_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B189" r:id="rId760" tooltip="Skiploom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Skiploom_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B188" r:id="rId761" tooltip="Hoppip (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hoppip_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B187" r:id="rId762" tooltip="Politoed (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Politoed_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B186" r:id="rId763" tooltip="Sudowoodo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sudowoodo_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B185" r:id="rId764" tooltip="Azumarill (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Azumarill_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B184" r:id="rId765" tooltip="Marill (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Marill_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B183" r:id="rId766" tooltip="Bellossom (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bellossom_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B182" r:id="rId767" tooltip="Ampharos (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ampharos_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B181" r:id="rId768" tooltip="Flaaffy (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Flaaffy_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B180" r:id="rId769" tooltip="Mareep (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mareep_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B179" r:id="rId770" tooltip="Xatu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Xatu_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B178" r:id="rId771" tooltip="Natu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Natu_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B177" r:id="rId772" tooltip="Togetic (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Togetic_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B176" r:id="rId773" tooltip="Togepi (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Togepi_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B175" r:id="rId774" tooltip="Igglybuff (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Igglybuff_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B174" r:id="rId775" tooltip="Cleffa (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cleffa_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B173" r:id="rId776" tooltip="Pichu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pichu_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B172" r:id="rId777" tooltip="Lanturn (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lanturn_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B171" r:id="rId778" tooltip="Chinchou (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chinchou_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B170" r:id="rId779" tooltip="Crobat (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Crobat_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B169" r:id="rId780" tooltip="Ariados (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ariados_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B168" r:id="rId781" tooltip="Spinarak (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Spinarak_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B167" r:id="rId782" tooltip="Ledian (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ledian_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B166" r:id="rId783" tooltip="Ledyba (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ledyba_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B165" r:id="rId784" tooltip="Noctowl (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Noctowl_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B164" r:id="rId785" tooltip="Hoothoot (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hoothoot_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B163" r:id="rId786" tooltip="Furret (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Furret_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B162" r:id="rId787" tooltip="Sentret (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Sentret_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B161" r:id="rId788" tooltip="Feraligatr (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Feraligatr_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B160" r:id="rId789" tooltip="Croconaw (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Croconaw_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B159" r:id="rId790" tooltip="Totodile (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Totodile_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B158" r:id="rId791" tooltip="Typhlosion (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Typhlosion_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B157" r:id="rId792" tooltip="Quilava (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Quilava_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B156" r:id="rId793" tooltip="Cyndaquil (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cyndaquil_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B155" r:id="rId794" tooltip="Meganium (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Meganium_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B154" r:id="rId795" tooltip="Bayleef (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Bayleef_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B153" r:id="rId796" tooltip="Chikorita (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chikorita_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B152" r:id="rId797" tooltip="Mew (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mew_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B151" r:id="rId798" tooltip="Mewtwo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mewtwo_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B150" r:id="rId799" tooltip="Dragonite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dragonite_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B149" r:id="rId800" tooltip="Dragonair (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dragonair_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B148" r:id="rId801" tooltip="Dratini (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dratini_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B147" r:id="rId802" tooltip="Moltres (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Moltres_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B146" r:id="rId803" tooltip="Zapdos (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Zapdos_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B145" r:id="rId804" tooltip="Articuno (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Articuno_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B144" r:id="rId805" tooltip="Snorlax (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Snorlax_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B143" r:id="rId806" tooltip="Aerodactyl (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Aerodactyl_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B142" r:id="rId807" tooltip="Kabutops (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kabutops_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B141" r:id="rId808" tooltip="Kabuto (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kabuto_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B140" r:id="rId809" tooltip="Omastar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Omastar_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B139" r:id="rId810" tooltip="Omanyte (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Omanyte_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B138" r:id="rId811" tooltip="Porygon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Porygon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B137" r:id="rId812" tooltip="Flareon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Flareon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B136" r:id="rId813" tooltip="Jolteon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jolteon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B135" r:id="rId814" tooltip="Vaporeon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Vaporeon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B134" r:id="rId815" tooltip="Eevee (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Eevee_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B133" r:id="rId816" tooltip="Ditto (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ditto_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B132" r:id="rId817" tooltip="Lapras (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lapras_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B131" r:id="rId818" tooltip="Gyarados (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gyarados_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B130" r:id="rId819" tooltip="Magikarp (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magikarp_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B129" r:id="rId820" tooltip="Tauros (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tauros_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B128" r:id="rId821" tooltip="Pinsir (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Pinsir_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B127" r:id="rId822" tooltip="Magmar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magmar_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B126" r:id="rId823" tooltip="Electabuzz (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Electabuzz_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B125" r:id="rId824" tooltip="Jynx (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Jynx_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B124" r:id="rId825" tooltip="Scyther (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Scyther_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B123" r:id="rId826" tooltip="Mr. Mime (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Mr._Mime_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B122" r:id="rId827" tooltip="Starmie (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Starmie_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B121" r:id="rId828" tooltip="Staryu (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Staryu_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B120" r:id="rId829" tooltip="Seaking (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seaking_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B119" r:id="rId830" tooltip="Goldeen (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Goldeen_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B118" r:id="rId831" tooltip="Seadra (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seadra_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B117" r:id="rId832" tooltip="Horsea (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Horsea_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B116" r:id="rId833" tooltip="Kangaskhan (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kangaskhan_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B115" r:id="rId834" tooltip="Tangela (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Tangela_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B114" r:id="rId835" tooltip="Chansey (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Chansey_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B113" r:id="rId836" tooltip="Rhydon (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rhydon_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B112" r:id="rId837" tooltip="Rhyhorn (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rhyhorn_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B111" r:id="rId838" tooltip="Weezing (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Weezing_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B110" r:id="rId839" tooltip="Koffing (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Koffing_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B109" r:id="rId840" tooltip="Lickitung (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Lickitung_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B108" r:id="rId841" tooltip="Hitmonchan (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hitmonchan_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B107" r:id="rId842" tooltip="Hitmonlee (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hitmonlee_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B106" r:id="rId843" tooltip="Marowak (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Marowak_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B105" r:id="rId844" tooltip="Cubone (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cubone_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B104" r:id="rId845" tooltip="Exeggutor (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Exeggutor_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B103" r:id="rId846" tooltip="Exeggcute (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Exeggcute_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B102" r:id="rId847" tooltip="Electrode (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Electrode_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B101" r:id="rId848" tooltip="Voltorb (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Voltorb_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B100" r:id="rId849" tooltip="Kingler (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Kingler_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B99" r:id="rId850" tooltip="Krabby (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Krabby_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B98" r:id="rId851" tooltip="Hypno (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Hypno_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B97" r:id="rId852" tooltip="Drowzee (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Drowzee_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B96" r:id="rId853" tooltip="Onix (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Onix_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B95" r:id="rId854" tooltip="Gengar (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gengar_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B94" r:id="rId855" tooltip="Haunter (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Haunter_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B93" r:id="rId856" tooltip="Gastly (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Gastly_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B92" r:id="rId857" tooltip="Cloyster (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Cloyster_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B91" r:id="rId858" tooltip="Shellder (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Shellder_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B90" r:id="rId859" tooltip="Muk (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Muk_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B89" r:id="rId860" tooltip="Grimer (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Grimer_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B88" r:id="rId861" tooltip="Dewgong (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dewgong_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B87" r:id="rId862" tooltip="Seel (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Seel_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B86" r:id="rId863" tooltip="Dodrio (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Dodrio_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B85" r:id="rId864" tooltip="Doduo (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Doduo_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B84" r:id="rId865" tooltip="Farfetch'd (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Farfetch%27d_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B83" r:id="rId866" tooltip="Magneton (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magneton_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B82" r:id="rId867" tooltip="Magnemite (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Magnemite_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B81" r:id="rId868" tooltip="Slowbro (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slowbro_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B80" r:id="rId869" tooltip="Slowpoke (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Slowpoke_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B79" r:id="rId870" tooltip="Rapidash (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Rapidash_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B78" r:id="rId871" tooltip="Ponyta (Pokémon)" display="http://bulbapedia.bulbagarden.net/wiki/Ponyta_(Pok%C3%A9mon)"/>
+    <hyperlink ref="B77" r:id="rId872" tooltip="Golem (Pokémon)" display="http://bulbapedi